--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.03.20251</t>
-  </si>
-  <si>
-    <t>23.03.20252</t>
-  </si>
-  <si>
-    <t>23.03.20253</t>
-  </si>
-  <si>
-    <t>23.03.20254</t>
-  </si>
-  <si>
-    <t>23.03.20255</t>
-  </si>
-  <si>
-    <t>23.03.20256</t>
-  </si>
-  <si>
-    <t>23.03.20257</t>
-  </si>
-  <si>
-    <t>23.03.20258</t>
-  </si>
-  <si>
-    <t>23.03.20259</t>
-  </si>
-  <si>
-    <t>23.03.202510</t>
-  </si>
-  <si>
-    <t>23.03.202511</t>
-  </si>
-  <si>
-    <t>23.03.202512</t>
-  </si>
-  <si>
-    <t>23.03.202513</t>
-  </si>
-  <si>
-    <t>23.03.202514</t>
-  </si>
-  <si>
-    <t>23.03.202515</t>
-  </si>
-  <si>
-    <t>23.03.202516</t>
-  </si>
-  <si>
-    <t>23.03.202517</t>
-  </si>
-  <si>
-    <t>23.03.202518</t>
-  </si>
-  <si>
-    <t>23.03.202519</t>
-  </si>
-  <si>
-    <t>23.03.202520</t>
-  </si>
-  <si>
-    <t>23.03.202521</t>
-  </si>
-  <si>
-    <t>23.03.202522</t>
-  </si>
-  <si>
-    <t>23.03.202523</t>
-  </si>
-  <si>
-    <t>23.03.202524</t>
-  </si>
-  <si>
-    <t>23.03.202525</t>
-  </si>
-  <si>
-    <t>23.03.202526</t>
-  </si>
-  <si>
-    <t>23.03.202527</t>
-  </si>
-  <si>
-    <t>23.03.202528</t>
-  </si>
-  <si>
-    <t>23.03.202529</t>
-  </si>
-  <si>
-    <t>23.03.202530</t>
-  </si>
-  <si>
-    <t>23.03.202531</t>
-  </si>
-  <si>
-    <t>23.03.202532</t>
-  </si>
-  <si>
-    <t>23.03.202533</t>
-  </si>
-  <si>
-    <t>23.03.202534</t>
-  </si>
-  <si>
-    <t>23.03.202535</t>
-  </si>
-  <si>
-    <t>23.03.202536</t>
-  </si>
-  <si>
-    <t>23.03.202537</t>
-  </si>
-  <si>
-    <t>23.03.202538</t>
-  </si>
-  <si>
-    <t>23.03.202539</t>
-  </si>
-  <si>
-    <t>23.03.202540</t>
-  </si>
-  <si>
-    <t>23.03.202541</t>
-  </si>
-  <si>
-    <t>23.03.202542</t>
-  </si>
-  <si>
-    <t>23.03.202543</t>
-  </si>
-  <si>
-    <t>23.03.202544</t>
-  </si>
-  <si>
-    <t>23.03.202545</t>
-  </si>
-  <si>
-    <t>23.03.202546</t>
-  </si>
-  <si>
-    <t>23.03.202547</t>
-  </si>
-  <si>
-    <t>23.03.202548</t>
-  </si>
-  <si>
-    <t>23.03.202549</t>
-  </si>
-  <si>
-    <t>23.03.202550</t>
-  </si>
-  <si>
-    <t>23.03.202551</t>
-  </si>
-  <si>
-    <t>23.03.202552</t>
-  </si>
-  <si>
-    <t>23.03.202553</t>
-  </si>
-  <si>
-    <t>23.03.202554</t>
-  </si>
-  <si>
-    <t>23.03.202555</t>
-  </si>
-  <si>
-    <t>23.03.202556</t>
-  </si>
-  <si>
-    <t>23.03.202557</t>
-  </si>
-  <si>
-    <t>23.03.202558</t>
-  </si>
-  <si>
-    <t>23.03.202559</t>
-  </si>
-  <si>
-    <t>23.03.202560</t>
-  </si>
-  <si>
-    <t>23.03.202561</t>
-  </si>
-  <si>
-    <t>23.03.202562</t>
-  </si>
-  <si>
-    <t>23.03.202563</t>
-  </si>
-  <si>
-    <t>23.03.202564</t>
-  </si>
-  <si>
-    <t>23.03.202565</t>
-  </si>
-  <si>
-    <t>23.03.202566</t>
-  </si>
-  <si>
-    <t>23.03.202567</t>
-  </si>
-  <si>
-    <t>23.03.202568</t>
-  </si>
-  <si>
-    <t>23.03.202569</t>
-  </si>
-  <si>
-    <t>23.03.202570</t>
-  </si>
-  <si>
-    <t>23.03.202571</t>
-  </si>
-  <si>
-    <t>23.03.202572</t>
-  </si>
-  <si>
-    <t>23.03.202573</t>
-  </si>
-  <si>
-    <t>23.03.202574</t>
-  </si>
-  <si>
-    <t>23.03.202575</t>
-  </si>
-  <si>
-    <t>23.03.202576</t>
-  </si>
-  <si>
-    <t>23.03.202577</t>
-  </si>
-  <si>
-    <t>23.03.202578</t>
-  </si>
-  <si>
-    <t>23.03.202579</t>
-  </si>
-  <si>
-    <t>23.03.202580</t>
-  </si>
-  <si>
-    <t>23.03.202581</t>
-  </si>
-  <si>
-    <t>23.03.202582</t>
-  </si>
-  <si>
-    <t>23.03.202583</t>
-  </si>
-  <si>
-    <t>23.03.202584</t>
-  </si>
-  <si>
-    <t>23.03.202585</t>
-  </si>
-  <si>
-    <t>23.03.202586</t>
-  </si>
-  <si>
-    <t>23.03.202587</t>
-  </si>
-  <si>
-    <t>23.03.202588</t>
-  </si>
-  <si>
-    <t>23.03.202589</t>
-  </si>
-  <si>
-    <t>23.03.202590</t>
-  </si>
-  <si>
-    <t>23.03.202591</t>
-  </si>
-  <si>
-    <t>23.03.202592</t>
-  </si>
-  <si>
-    <t>23.03.202593</t>
-  </si>
-  <si>
-    <t>23.03.202594</t>
-  </si>
-  <si>
-    <t>23.03.202595</t>
-  </si>
-  <si>
-    <t>23.03.202596</t>
-  </si>
-  <si>
     <t>24.03.20251</t>
   </si>
   <si>
@@ -392,6 +104,348 @@
   </si>
   <si>
     <t>24.03.202525</t>
+  </si>
+  <si>
+    <t>24.03.202526</t>
+  </si>
+  <si>
+    <t>24.03.202527</t>
+  </si>
+  <si>
+    <t>24.03.202528</t>
+  </si>
+  <si>
+    <t>24.03.202529</t>
+  </si>
+  <si>
+    <t>24.03.202530</t>
+  </si>
+  <si>
+    <t>24.03.202531</t>
+  </si>
+  <si>
+    <t>24.03.202532</t>
+  </si>
+  <si>
+    <t>24.03.202533</t>
+  </si>
+  <si>
+    <t>24.03.202534</t>
+  </si>
+  <si>
+    <t>24.03.202535</t>
+  </si>
+  <si>
+    <t>24.03.202536</t>
+  </si>
+  <si>
+    <t>24.03.202537</t>
+  </si>
+  <si>
+    <t>24.03.202538</t>
+  </si>
+  <si>
+    <t>24.03.202539</t>
+  </si>
+  <si>
+    <t>24.03.202540</t>
+  </si>
+  <si>
+    <t>24.03.202541</t>
+  </si>
+  <si>
+    <t>24.03.202542</t>
+  </si>
+  <si>
+    <t>24.03.202543</t>
+  </si>
+  <si>
+    <t>24.03.202544</t>
+  </si>
+  <si>
+    <t>24.03.202545</t>
+  </si>
+  <si>
+    <t>24.03.202546</t>
+  </si>
+  <si>
+    <t>24.03.202547</t>
+  </si>
+  <si>
+    <t>24.03.202548</t>
+  </si>
+  <si>
+    <t>24.03.202549</t>
+  </si>
+  <si>
+    <t>24.03.202550</t>
+  </si>
+  <si>
+    <t>24.03.202551</t>
+  </si>
+  <si>
+    <t>24.03.202552</t>
+  </si>
+  <si>
+    <t>24.03.202553</t>
+  </si>
+  <si>
+    <t>24.03.202554</t>
+  </si>
+  <si>
+    <t>24.03.202555</t>
+  </si>
+  <si>
+    <t>24.03.202556</t>
+  </si>
+  <si>
+    <t>24.03.202557</t>
+  </si>
+  <si>
+    <t>24.03.202558</t>
+  </si>
+  <si>
+    <t>24.03.202559</t>
+  </si>
+  <si>
+    <t>24.03.202560</t>
+  </si>
+  <si>
+    <t>24.03.202561</t>
+  </si>
+  <si>
+    <t>24.03.202562</t>
+  </si>
+  <si>
+    <t>24.03.202563</t>
+  </si>
+  <si>
+    <t>24.03.202564</t>
+  </si>
+  <si>
+    <t>24.03.202565</t>
+  </si>
+  <si>
+    <t>24.03.202566</t>
+  </si>
+  <si>
+    <t>24.03.202567</t>
+  </si>
+  <si>
+    <t>24.03.202568</t>
+  </si>
+  <si>
+    <t>24.03.202569</t>
+  </si>
+  <si>
+    <t>24.03.202570</t>
+  </si>
+  <si>
+    <t>24.03.202571</t>
+  </si>
+  <si>
+    <t>24.03.202572</t>
+  </si>
+  <si>
+    <t>24.03.202573</t>
+  </si>
+  <si>
+    <t>24.03.202574</t>
+  </si>
+  <si>
+    <t>24.03.202575</t>
+  </si>
+  <si>
+    <t>24.03.202576</t>
+  </si>
+  <si>
+    <t>24.03.202577</t>
+  </si>
+  <si>
+    <t>24.03.202578</t>
+  </si>
+  <si>
+    <t>24.03.202579</t>
+  </si>
+  <si>
+    <t>24.03.202580</t>
+  </si>
+  <si>
+    <t>24.03.202581</t>
+  </si>
+  <si>
+    <t>24.03.202582</t>
+  </si>
+  <si>
+    <t>24.03.202583</t>
+  </si>
+  <si>
+    <t>24.03.202584</t>
+  </si>
+  <si>
+    <t>24.03.202585</t>
+  </si>
+  <si>
+    <t>24.03.202586</t>
+  </si>
+  <si>
+    <t>24.03.202587</t>
+  </si>
+  <si>
+    <t>24.03.202588</t>
+  </si>
+  <si>
+    <t>24.03.202589</t>
+  </si>
+  <si>
+    <t>24.03.202590</t>
+  </si>
+  <si>
+    <t>24.03.202591</t>
+  </si>
+  <si>
+    <t>24.03.202592</t>
+  </si>
+  <si>
+    <t>24.03.202593</t>
+  </si>
+  <si>
+    <t>24.03.202594</t>
+  </si>
+  <si>
+    <t>24.03.202595</t>
+  </si>
+  <si>
+    <t>24.03.202596</t>
+  </si>
+  <si>
+    <t>25.03.20251</t>
+  </si>
+  <si>
+    <t>25.03.20252</t>
+  </si>
+  <si>
+    <t>25.03.20253</t>
+  </si>
+  <si>
+    <t>25.03.20254</t>
+  </si>
+  <si>
+    <t>25.03.20255</t>
+  </si>
+  <si>
+    <t>25.03.20256</t>
+  </si>
+  <si>
+    <t>25.03.20257</t>
+  </si>
+  <si>
+    <t>25.03.20258</t>
+  </si>
+  <si>
+    <t>25.03.20259</t>
+  </si>
+  <si>
+    <t>25.03.202510</t>
+  </si>
+  <si>
+    <t>25.03.202511</t>
+  </si>
+  <si>
+    <t>25.03.202512</t>
+  </si>
+  <si>
+    <t>25.03.202513</t>
+  </si>
+  <si>
+    <t>25.03.202514</t>
+  </si>
+  <si>
+    <t>25.03.202515</t>
+  </si>
+  <si>
+    <t>25.03.202516</t>
+  </si>
+  <si>
+    <t>25.03.202517</t>
+  </si>
+  <si>
+    <t>25.03.202518</t>
+  </si>
+  <si>
+    <t>25.03.202519</t>
+  </si>
+  <si>
+    <t>25.03.202520</t>
+  </si>
+  <si>
+    <t>25.03.202521</t>
+  </si>
+  <si>
+    <t>25.03.202522</t>
+  </si>
+  <si>
+    <t>25.03.202523</t>
+  </si>
+  <si>
+    <t>25.03.202524</t>
+  </si>
+  <si>
+    <t>25.03.202525</t>
+  </si>
+  <si>
+    <t>25.03.202526</t>
+  </si>
+  <si>
+    <t>25.03.202527</t>
+  </si>
+  <si>
+    <t>25.03.202528</t>
+  </si>
+  <si>
+    <t>25.03.202529</t>
+  </si>
+  <si>
+    <t>25.03.202530</t>
+  </si>
+  <si>
+    <t>25.03.202531</t>
+  </si>
+  <si>
+    <t>25.03.202532</t>
+  </si>
+  <si>
+    <t>25.03.202533</t>
+  </si>
+  <si>
+    <t>25.03.202534</t>
+  </si>
+  <si>
+    <t>25.03.202535</t>
+  </si>
+  <si>
+    <t>25.03.202536</t>
+  </si>
+  <si>
+    <t>25.03.202537</t>
+  </si>
+  <si>
+    <t>25.03.202538</t>
+  </si>
+  <si>
+    <t>25.03.202539</t>
+  </si>
+  <si>
+    <t>25.03.202540</t>
+  </si>
+  <si>
+    <t>25.03.202541</t>
+  </si>
+  <si>
+    <t>25.03.202542</t>
+  </si>
+  <si>
+    <t>25.03.202543</t>
   </si>
 </sst>
 </file>
@@ -753,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,10 +832,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="B2">
-        <v>5.138</v>
+        <v>8.195</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -795,10 +849,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45739.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
       <c r="B3">
-        <v>12.43</v>
+        <v>4.496</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -812,10 +866,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45739.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
       <c r="B4">
-        <v>9.314</v>
+        <v>5.8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -829,13 +883,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45739.03125</v>
+        <v>45740.03125</v>
       </c>
       <c r="B5">
-        <v>1.111</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>14.241</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -846,10 +900,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45739.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
       <c r="B6">
-        <v>9.284000000000001</v>
+        <v>5.253</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -863,13 +917,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45739.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.05</v>
+        <v>5.502</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -880,13 +934,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45739.0625</v>
+        <v>45740.0625</v>
       </c>
       <c r="B8">
-        <v>2.881</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>27.088</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -897,13 +951,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45739.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.26</v>
+        <v>41.384</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -914,13 +968,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45739.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.476</v>
+        <v>14.477</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -931,13 +985,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45739.09375</v>
+        <v>45740.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.979</v>
+        <v>28.001</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -948,13 +1002,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45739.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.558</v>
+        <v>56.41</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -965,13 +1019,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45739.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.536</v>
+        <v>76.91</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -982,13 +1036,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45739.125</v>
+        <v>45740.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.647</v>
+        <v>37.046</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -999,13 +1053,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45739.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>18.747</v>
+        <v>20.842</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1016,13 +1070,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45739.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.979</v>
+        <v>21.463</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1033,13 +1087,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45739.15625</v>
+        <v>45740.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.357</v>
+        <v>27.2</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1050,13 +1104,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45739.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3.594</v>
       </c>
       <c r="C18">
-        <v>3.659</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1067,10 +1121,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45739.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
       <c r="B19">
-        <v>2.222</v>
+        <v>6.731</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1084,13 +1138,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45739.1875</v>
+        <v>45740.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="C20">
-        <v>1.278</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1101,10 +1155,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45739.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
       <c r="B21">
-        <v>2.405</v>
+        <v>6.854</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1118,13 +1172,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45739.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3.878</v>
       </c>
       <c r="C22">
-        <v>0.196</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1135,13 +1189,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45739.21875</v>
+        <v>45740.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="C23">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1152,13 +1206,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45739.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1169,13 +1223,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45739.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.483</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>8.815</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1186,13 +1240,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45739.25</v>
+        <v>45740.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>23.651</v>
       </c>
       <c r="C26">
-        <v>20.104</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1203,13 +1257,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45739.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2.588</v>
       </c>
       <c r="C27">
-        <v>40.229</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1220,13 +1274,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45739.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>25.21</v>
+        <v>19.848</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1237,13 +1291,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45739.28125</v>
+        <v>45740.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>14.487</v>
+        <v>18.724</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1254,13 +1308,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45739.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>40.208</v>
+        <v>29.234</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1271,13 +1325,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45739.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>14.901</v>
+        <v>9.326000000000001</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1288,13 +1342,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45739.3125</v>
+        <v>45740.3125</v>
       </c>
       <c r="B32">
-        <v>12.843</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>20.431</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1305,13 +1359,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45739.32291666666</v>
+        <v>45740.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1.701</v>
+        <v>15.35</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1322,13 +1376,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45739.33333333334</v>
+        <v>45740.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="C34">
-        <v>28.167</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1339,13 +1393,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45739.34375</v>
+        <v>45740.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>39.352</v>
+        <v>5.056</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1356,13 +1410,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45739.35416666666</v>
+        <v>45740.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3.887</v>
       </c>
       <c r="C36">
-        <v>6.342</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1373,10 +1427,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45739.36458333334</v>
+        <v>45740.36458333334</v>
       </c>
       <c r="B37">
-        <v>19.962</v>
+        <v>27.875</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1390,13 +1444,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45739.375</v>
+        <v>45740.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>49.933</v>
       </c>
       <c r="C38">
-        <v>1.809</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1407,10 +1461,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45739.38541666666</v>
+        <v>45740.38541666666</v>
       </c>
       <c r="B39">
-        <v>16.404</v>
+        <v>42.111</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1424,10 +1478,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45739.39583333334</v>
+        <v>45740.39583333334</v>
       </c>
       <c r="B40">
-        <v>28.845</v>
+        <v>51.197</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1441,10 +1495,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45739.40625</v>
+        <v>45740.40625</v>
       </c>
       <c r="B41">
-        <v>5.072</v>
+        <v>54.642</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1458,13 +1512,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45739.41666666666</v>
+        <v>45740.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>38.086</v>
       </c>
       <c r="C42">
-        <v>26.56</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1475,13 +1529,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45739.42708333334</v>
+        <v>45740.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>10.142</v>
       </c>
       <c r="C43">
-        <v>36.742</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1492,13 +1546,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45739.4375</v>
+        <v>45740.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>7.447</v>
       </c>
       <c r="C44">
-        <v>43.792</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1509,13 +1563,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45739.44791666666</v>
+        <v>45740.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>13.793</v>
       </c>
       <c r="C45">
-        <v>33.106</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1526,13 +1580,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45739.45833333334</v>
+        <v>45740.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>46.817</v>
       </c>
       <c r="C46">
-        <v>35.145</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1543,13 +1597,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45739.46875</v>
+        <v>45740.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>43.646</v>
       </c>
       <c r="C47">
-        <v>11.518</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1560,13 +1614,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45739.47916666666</v>
+        <v>45740.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>35.312</v>
       </c>
       <c r="C48">
-        <v>5.06</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1577,10 +1631,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45739.48958333334</v>
+        <v>45740.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.166</v>
+        <v>20.938</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1594,10 +1648,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45739.5</v>
+        <v>45740.5</v>
       </c>
       <c r="B50">
-        <v>5.852</v>
+        <v>32.453</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1611,10 +1665,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45739.51041666666</v>
+        <v>45740.51041666666</v>
       </c>
       <c r="B51">
-        <v>8.243</v>
+        <v>13.095</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1628,13 +1682,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45739.52083333334</v>
+        <v>45740.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>8.18</v>
       </c>
       <c r="C52">
-        <v>7.975</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1645,13 +1699,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45739.53125</v>
+        <v>45740.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>20.108</v>
+        <v>8.428000000000001</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1662,10 +1716,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45739.54166666666</v>
+        <v>45740.54166666666</v>
       </c>
       <c r="B54">
-        <v>10.213</v>
+        <v>8.557</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1679,13 +1733,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45739.55208333334</v>
+        <v>45740.55208333334</v>
       </c>
       <c r="B55">
-        <v>5.897</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>4.367</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1696,13 +1750,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45739.5625</v>
+        <v>45740.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>2.073</v>
       </c>
       <c r="C56">
-        <v>11.487</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1713,13 +1767,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45739.57291666666</v>
+        <v>45740.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>17.021</v>
       </c>
       <c r="C57">
-        <v>20.49</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1730,13 +1784,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45739.58333333334</v>
+        <v>45740.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="C58">
-        <v>4.855</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1747,13 +1801,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45739.59375</v>
+        <v>45740.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>2.324</v>
       </c>
       <c r="C59">
-        <v>3.797</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1764,13 +1818,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45739.60416666666</v>
+        <v>45740.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1.351</v>
       </c>
       <c r="C60">
-        <v>17.206</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1781,13 +1835,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45739.61458333334</v>
+        <v>45740.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>27.281</v>
+        <v>11.858</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1798,13 +1852,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45739.625</v>
+        <v>45740.625</v>
       </c>
       <c r="B62">
-        <v>12.808</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>17.337</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1815,13 +1869,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45739.63541666666</v>
+        <v>45740.63541666666</v>
       </c>
       <c r="B63">
-        <v>14.078</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>46.959</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1832,13 +1886,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45739.64583333334</v>
+        <v>45740.64583333334</v>
       </c>
       <c r="B64">
-        <v>7.808</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>54.075</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1849,13 +1903,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45739.65625</v>
+        <v>45740.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>6.036</v>
+        <v>64.703</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1866,13 +1920,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45739.66666666666</v>
+        <v>45740.66666666666</v>
       </c>
       <c r="B66">
-        <v>24.692</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>31.666</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1883,13 +1937,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45739.67708333334</v>
+        <v>45740.67708333334</v>
       </c>
       <c r="B67">
-        <v>7.294</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>13.955</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1900,13 +1954,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45739.6875</v>
+        <v>45740.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>3.825</v>
+        <v>6.684</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1917,13 +1971,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45739.69791666666</v>
+        <v>45740.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>33.137</v>
+        <v>4.942</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1934,13 +1988,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45739.70833333334</v>
+        <v>45740.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>25.854</v>
       </c>
       <c r="C70">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1951,13 +2005,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45739.71875</v>
+        <v>45740.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>6.896</v>
       </c>
       <c r="C71">
-        <v>21.505</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1968,13 +2022,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45739.72916666666</v>
+        <v>45740.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>8.218</v>
       </c>
       <c r="C72">
-        <v>21.921</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1985,13 +2039,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45739.73958333334</v>
+        <v>45740.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>56.595</v>
+        <v>5.02</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2002,13 +2056,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45739.75</v>
+        <v>45740.75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>19.315</v>
       </c>
       <c r="C74">
-        <v>44.04</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2019,13 +2073,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45739.76041666666</v>
+        <v>45740.76041666666</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>27.553</v>
       </c>
       <c r="C75">
-        <v>21.883</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2036,13 +2090,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45739.77083333334</v>
+        <v>45740.77083333334</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1.024</v>
       </c>
       <c r="C76">
-        <v>40.464</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2053,13 +2107,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45739.78125</v>
+        <v>45740.78125</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>4.184</v>
       </c>
       <c r="C77">
-        <v>47.832</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2070,13 +2124,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45739.79166666666</v>
+        <v>45740.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>2.098</v>
+        <v>5.05</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2087,13 +2141,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45739.80208333334</v>
+        <v>45740.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>2.885</v>
       </c>
       <c r="C79">
-        <v>0.545</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2104,13 +2158,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45739.8125</v>
+        <v>45740.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>3.796</v>
       </c>
       <c r="C80">
-        <v>4.448</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2121,13 +2175,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45739.82291666666</v>
+        <v>45740.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>6.549</v>
       </c>
       <c r="C81">
-        <v>14.595</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2138,13 +2192,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45739.83333333334</v>
+        <v>45740.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>39.906</v>
+        <v>7.514</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2155,13 +2209,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45739.84375</v>
+        <v>45740.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>44.319</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2172,13 +2226,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45739.85416666666</v>
+        <v>45740.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>24.585</v>
+        <v>10.414</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2189,13 +2243,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45739.86458333334</v>
+        <v>45740.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>29.54</v>
+        <v>0.188</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2206,13 +2260,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45739.875</v>
+        <v>45740.875</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>34.312</v>
+        <v>2.788</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2223,13 +2277,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45739.88541666666</v>
+        <v>45740.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="C87">
-        <v>54.811</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2240,13 +2294,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45739.89583333334</v>
+        <v>45740.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>6.362</v>
       </c>
       <c r="C88">
-        <v>15.227</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2257,13 +2311,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45739.90625</v>
+        <v>45740.90625</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C89">
-        <v>32.749</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2274,13 +2328,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45739.91666666666</v>
+        <v>45740.91666666666</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="C90">
-        <v>11.94</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2291,13 +2345,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45739.92708333334</v>
+        <v>45740.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>12.243</v>
       </c>
       <c r="C91">
-        <v>13.338</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2308,13 +2362,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45739.9375</v>
+        <v>45740.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>21.674</v>
       </c>
       <c r="C92">
-        <v>10.456</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2325,13 +2379,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45739.94791666666</v>
+        <v>45740.94791666666</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>20.385</v>
       </c>
       <c r="C93">
-        <v>6.622</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2342,10 +2396,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45739.95833333334</v>
+        <v>45740.95833333334</v>
       </c>
       <c r="B94">
-        <v>32.83</v>
+        <v>22.969</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2359,10 +2413,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45739.96875</v>
+        <v>45740.96875</v>
       </c>
       <c r="B95">
-        <v>18.497</v>
+        <v>28.131</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2376,13 +2430,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45739.97916666666</v>
+        <v>45740.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>17.115</v>
       </c>
       <c r="C96">
-        <v>6.143</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2393,13 +2447,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45739.98958333334</v>
+        <v>45740.98958333334</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>22.225</v>
       </c>
       <c r="C97">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2410,10 +2464,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B98">
-        <v>8.195</v>
+        <v>16.836</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2427,10 +2481,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.01041666666</v>
       </c>
       <c r="B99">
-        <v>4.496</v>
+        <v>19.239</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2444,10 +2498,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.02083333334</v>
       </c>
       <c r="B100">
-        <v>5.8</v>
+        <v>8.981999999999999</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2461,13 +2515,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>5.399</v>
       </c>
       <c r="C101">
-        <v>14.241</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2478,10 +2532,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.04166666666</v>
       </c>
       <c r="B102">
-        <v>5.253</v>
+        <v>8.141999999999999</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2495,13 +2549,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.05208333334</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>18.545</v>
       </c>
       <c r="C103">
-        <v>5.502</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2512,13 +2566,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>19.087</v>
       </c>
       <c r="C104">
-        <v>27.088</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2529,13 +2583,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.07291666666</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>8.297000000000001</v>
       </c>
       <c r="C105">
-        <v>41.384</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2546,13 +2600,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.08333333334</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>35.364</v>
       </c>
       <c r="C106">
-        <v>14.477</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2563,13 +2617,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>35.526</v>
       </c>
       <c r="C107">
-        <v>28.001</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2580,13 +2634,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>35.682</v>
       </c>
       <c r="C108">
-        <v>56.41</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2597,13 +2651,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.11458333334</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>35.935</v>
       </c>
       <c r="C109">
-        <v>76.91</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2614,13 +2668,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>11.672</v>
       </c>
       <c r="C110">
-        <v>37.046</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2631,13 +2685,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.13541666666</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>20.842</v>
+        <v>0.7</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2648,13 +2702,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.14583333334</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>21.463</v>
+        <v>16.565</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2665,13 +2719,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>3.584</v>
       </c>
       <c r="C113">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2682,10 +2736,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.16666666666</v>
       </c>
       <c r="B114">
-        <v>3.594</v>
+        <v>18.067</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2699,10 +2753,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.17708333334</v>
       </c>
       <c r="B115">
-        <v>6.731</v>
+        <v>17.162</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2716,10 +2770,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
       <c r="B116">
-        <v>9.569000000000001</v>
+        <v>2.216</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2733,13 +2787,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.19791666666</v>
       </c>
       <c r="B117">
-        <v>6.854</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>10.608</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2750,10 +2804,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.20833333334</v>
       </c>
       <c r="B118">
-        <v>3.878</v>
+        <v>14.706</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2767,13 +2821,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
       <c r="B119">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>2.342</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2784,13 +2838,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.22916666666</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>2.68</v>
+        <v>9.124000000000001</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2801,13 +2855,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.23958333334</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>8.815</v>
+        <v>15.843</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -2818,10 +2872,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
       <c r="B122">
-        <v>23.651</v>
+        <v>24.608</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2831,6 +2885,312 @@
       </c>
       <c r="E122" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>45741.26041666666</v>
+      </c>
+      <c r="B123">
+        <v>27.408</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>26</v>
+      </c>
+      <c r="E123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>45741.27083333334</v>
+      </c>
+      <c r="B124">
+        <v>13.547</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>45741.28125</v>
+      </c>
+      <c r="B125">
+        <v>40.578</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>28</v>
+      </c>
+      <c r="E125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>45741.29166666666</v>
+      </c>
+      <c r="B126">
+        <v>33.855</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>29</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>45741.30208333334</v>
+      </c>
+      <c r="B127">
+        <v>79.858</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>45741.3125</v>
+      </c>
+      <c r="B128">
+        <v>93.123</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>45741.32291666666</v>
+      </c>
+      <c r="B129">
+        <v>72.95399999999999</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>45741.33333333334</v>
+      </c>
+      <c r="B130">
+        <v>59.982</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>33</v>
+      </c>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45741.34375</v>
+      </c>
+      <c r="B131">
+        <v>51.403</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>34</v>
+      </c>
+      <c r="E131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45741.35416666666</v>
+      </c>
+      <c r="B132">
+        <v>75.685</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45741.36458333334</v>
+      </c>
+      <c r="B133">
+        <v>88.65900000000001</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>36</v>
+      </c>
+      <c r="E133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45741.375</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>3.145</v>
+      </c>
+      <c r="D134">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45741.38541666666</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>5.365</v>
+      </c>
+      <c r="D135">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45741.39583333334</v>
+      </c>
+      <c r="B136">
+        <v>5.279</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>39</v>
+      </c>
+      <c r="E136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45741.40625</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0.349</v>
+      </c>
+      <c r="D137">
+        <v>40</v>
+      </c>
+      <c r="E137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45741.41666666666</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>50.588</v>
+      </c>
+      <c r="D138">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45741.42708333334</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>34.968</v>
+      </c>
+      <c r="D139">
+        <v>42</v>
+      </c>
+      <c r="E139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45741.4375</v>
+      </c>
+      <c r="B140">
+        <v>20.274</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>43</v>
+      </c>
+      <c r="E140" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,421 +31,367 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>24.03.20251</t>
-  </si>
-  <si>
-    <t>24.03.20252</t>
-  </si>
-  <si>
-    <t>24.03.20253</t>
-  </si>
-  <si>
-    <t>24.03.20254</t>
-  </si>
-  <si>
-    <t>24.03.20255</t>
-  </si>
-  <si>
-    <t>24.03.20256</t>
-  </si>
-  <si>
-    <t>24.03.20257</t>
-  </si>
-  <si>
-    <t>24.03.20258</t>
-  </si>
-  <si>
-    <t>24.03.20259</t>
-  </si>
-  <si>
-    <t>24.03.202510</t>
-  </si>
-  <si>
-    <t>24.03.202511</t>
-  </si>
-  <si>
-    <t>24.03.202512</t>
-  </si>
-  <si>
-    <t>24.03.202513</t>
-  </si>
-  <si>
-    <t>24.03.202514</t>
-  </si>
-  <si>
-    <t>24.03.202515</t>
-  </si>
-  <si>
-    <t>24.03.202516</t>
-  </si>
-  <si>
-    <t>24.03.202517</t>
-  </si>
-  <si>
-    <t>24.03.202518</t>
-  </si>
-  <si>
-    <t>24.03.202519</t>
-  </si>
-  <si>
-    <t>24.03.202520</t>
-  </si>
-  <si>
-    <t>24.03.202521</t>
-  </si>
-  <si>
-    <t>24.03.202522</t>
-  </si>
-  <si>
-    <t>24.03.202523</t>
-  </si>
-  <si>
-    <t>24.03.202524</t>
-  </si>
-  <si>
-    <t>24.03.202525</t>
-  </si>
-  <si>
-    <t>24.03.202526</t>
-  </si>
-  <si>
-    <t>24.03.202527</t>
-  </si>
-  <si>
-    <t>24.03.202528</t>
-  </si>
-  <si>
-    <t>24.03.202529</t>
-  </si>
-  <si>
-    <t>24.03.202530</t>
-  </si>
-  <si>
-    <t>24.03.202531</t>
-  </si>
-  <si>
-    <t>24.03.202532</t>
-  </si>
-  <si>
-    <t>24.03.202533</t>
-  </si>
-  <si>
-    <t>24.03.202534</t>
-  </si>
-  <si>
-    <t>24.03.202535</t>
-  </si>
-  <si>
-    <t>24.03.202536</t>
-  </si>
-  <si>
-    <t>24.03.202537</t>
-  </si>
-  <si>
-    <t>24.03.202538</t>
-  </si>
-  <si>
-    <t>24.03.202539</t>
-  </si>
-  <si>
-    <t>24.03.202540</t>
-  </si>
-  <si>
-    <t>24.03.202541</t>
-  </si>
-  <si>
-    <t>24.03.202542</t>
-  </si>
-  <si>
-    <t>24.03.202543</t>
-  </si>
-  <si>
-    <t>24.03.202544</t>
-  </si>
-  <si>
-    <t>24.03.202545</t>
-  </si>
-  <si>
-    <t>24.03.202546</t>
-  </si>
-  <si>
-    <t>24.03.202547</t>
-  </si>
-  <si>
-    <t>24.03.202548</t>
-  </si>
-  <si>
-    <t>24.03.202549</t>
-  </si>
-  <si>
-    <t>24.03.202550</t>
-  </si>
-  <si>
-    <t>24.03.202551</t>
-  </si>
-  <si>
-    <t>24.03.202552</t>
-  </si>
-  <si>
-    <t>24.03.202553</t>
-  </si>
-  <si>
-    <t>24.03.202554</t>
-  </si>
-  <si>
-    <t>24.03.202555</t>
-  </si>
-  <si>
-    <t>24.03.202556</t>
-  </si>
-  <si>
-    <t>24.03.202557</t>
-  </si>
-  <si>
-    <t>24.03.202558</t>
-  </si>
-  <si>
-    <t>24.03.202559</t>
-  </si>
-  <si>
-    <t>24.03.202560</t>
-  </si>
-  <si>
-    <t>24.03.202561</t>
-  </si>
-  <si>
-    <t>24.03.202562</t>
-  </si>
-  <si>
-    <t>24.03.202563</t>
-  </si>
-  <si>
-    <t>24.03.202564</t>
-  </si>
-  <si>
-    <t>24.03.202565</t>
-  </si>
-  <si>
-    <t>24.03.202566</t>
-  </si>
-  <si>
-    <t>24.03.202567</t>
-  </si>
-  <si>
-    <t>24.03.202568</t>
-  </si>
-  <si>
-    <t>24.03.202569</t>
-  </si>
-  <si>
-    <t>24.03.202570</t>
-  </si>
-  <si>
-    <t>24.03.202571</t>
-  </si>
-  <si>
-    <t>24.03.202572</t>
-  </si>
-  <si>
-    <t>24.03.202573</t>
-  </si>
-  <si>
-    <t>24.03.202574</t>
-  </si>
-  <si>
-    <t>24.03.202575</t>
-  </si>
-  <si>
-    <t>24.03.202576</t>
-  </si>
-  <si>
-    <t>24.03.202577</t>
-  </si>
-  <si>
-    <t>24.03.202578</t>
-  </si>
-  <si>
-    <t>24.03.202579</t>
-  </si>
-  <si>
-    <t>24.03.202580</t>
-  </si>
-  <si>
-    <t>24.03.202581</t>
-  </si>
-  <si>
-    <t>24.03.202582</t>
-  </si>
-  <si>
-    <t>24.03.202583</t>
-  </si>
-  <si>
-    <t>24.03.202584</t>
-  </si>
-  <si>
-    <t>24.03.202585</t>
-  </si>
-  <si>
-    <t>24.03.202586</t>
-  </si>
-  <si>
-    <t>24.03.202587</t>
-  </si>
-  <si>
-    <t>24.03.202588</t>
-  </si>
-  <si>
-    <t>24.03.202589</t>
-  </si>
-  <si>
-    <t>24.03.202590</t>
-  </si>
-  <si>
-    <t>24.03.202591</t>
-  </si>
-  <si>
-    <t>24.03.202592</t>
-  </si>
-  <si>
-    <t>24.03.202593</t>
-  </si>
-  <si>
-    <t>24.03.202594</t>
-  </si>
-  <si>
-    <t>24.03.202595</t>
-  </si>
-  <si>
-    <t>24.03.202596</t>
-  </si>
-  <si>
-    <t>25.03.20251</t>
-  </si>
-  <si>
-    <t>25.03.20252</t>
-  </si>
-  <si>
-    <t>25.03.20253</t>
-  </si>
-  <si>
-    <t>25.03.20254</t>
-  </si>
-  <si>
-    <t>25.03.20255</t>
-  </si>
-  <si>
-    <t>25.03.20256</t>
-  </si>
-  <si>
-    <t>25.03.20257</t>
-  </si>
-  <si>
-    <t>25.03.20258</t>
-  </si>
-  <si>
-    <t>25.03.20259</t>
-  </si>
-  <si>
-    <t>25.03.202510</t>
-  </si>
-  <si>
-    <t>25.03.202511</t>
-  </si>
-  <si>
-    <t>25.03.202512</t>
-  </si>
-  <si>
-    <t>25.03.202513</t>
-  </si>
-  <si>
-    <t>25.03.202514</t>
-  </si>
-  <si>
-    <t>25.03.202515</t>
-  </si>
-  <si>
-    <t>25.03.202516</t>
-  </si>
-  <si>
-    <t>25.03.202517</t>
-  </si>
-  <si>
-    <t>25.03.202518</t>
-  </si>
-  <si>
-    <t>25.03.202519</t>
-  </si>
-  <si>
-    <t>25.03.202520</t>
-  </si>
-  <si>
-    <t>25.03.202521</t>
-  </si>
-  <si>
-    <t>25.03.202522</t>
-  </si>
-  <si>
-    <t>25.03.202523</t>
-  </si>
-  <si>
-    <t>25.03.202524</t>
-  </si>
-  <si>
-    <t>25.03.202525</t>
-  </si>
-  <si>
-    <t>25.03.202526</t>
-  </si>
-  <si>
-    <t>25.03.202527</t>
-  </si>
-  <si>
-    <t>25.03.202528</t>
-  </si>
-  <si>
-    <t>25.03.202529</t>
-  </si>
-  <si>
-    <t>25.03.202530</t>
-  </si>
-  <si>
-    <t>25.03.202531</t>
-  </si>
-  <si>
-    <t>25.03.202532</t>
-  </si>
-  <si>
-    <t>25.03.202533</t>
-  </si>
-  <si>
-    <t>25.03.202534</t>
-  </si>
-  <si>
-    <t>25.03.202535</t>
-  </si>
-  <si>
-    <t>25.03.202536</t>
-  </si>
-  <si>
-    <t>25.03.202537</t>
-  </si>
-  <si>
-    <t>25.03.202538</t>
-  </si>
-  <si>
-    <t>25.03.202539</t>
-  </si>
-  <si>
-    <t>25.03.202540</t>
-  </si>
-  <si>
-    <t>25.03.202541</t>
-  </si>
-  <si>
-    <t>25.03.202542</t>
-  </si>
-  <si>
-    <t>25.03.202543</t>
+    <t>27.03.20251</t>
+  </si>
+  <si>
+    <t>27.03.20252</t>
+  </si>
+  <si>
+    <t>27.03.20253</t>
+  </si>
+  <si>
+    <t>27.03.20254</t>
+  </si>
+  <si>
+    <t>27.03.20255</t>
+  </si>
+  <si>
+    <t>27.03.20256</t>
+  </si>
+  <si>
+    <t>27.03.20257</t>
+  </si>
+  <si>
+    <t>27.03.20258</t>
+  </si>
+  <si>
+    <t>27.03.20259</t>
+  </si>
+  <si>
+    <t>27.03.202510</t>
+  </si>
+  <si>
+    <t>27.03.202511</t>
+  </si>
+  <si>
+    <t>27.03.202512</t>
+  </si>
+  <si>
+    <t>27.03.202513</t>
+  </si>
+  <si>
+    <t>27.03.202514</t>
+  </si>
+  <si>
+    <t>27.03.202515</t>
+  </si>
+  <si>
+    <t>27.03.202516</t>
+  </si>
+  <si>
+    <t>27.03.202517</t>
+  </si>
+  <si>
+    <t>27.03.202518</t>
+  </si>
+  <si>
+    <t>27.03.202519</t>
+  </si>
+  <si>
+    <t>27.03.202520</t>
+  </si>
+  <si>
+    <t>27.03.202521</t>
+  </si>
+  <si>
+    <t>27.03.202522</t>
+  </si>
+  <si>
+    <t>27.03.202523</t>
+  </si>
+  <si>
+    <t>27.03.202524</t>
+  </si>
+  <si>
+    <t>27.03.202525</t>
+  </si>
+  <si>
+    <t>27.03.202526</t>
+  </si>
+  <si>
+    <t>27.03.202527</t>
+  </si>
+  <si>
+    <t>27.03.202528</t>
+  </si>
+  <si>
+    <t>27.03.202529</t>
+  </si>
+  <si>
+    <t>27.03.202530</t>
+  </si>
+  <si>
+    <t>27.03.202531</t>
+  </si>
+  <si>
+    <t>27.03.202532</t>
+  </si>
+  <si>
+    <t>27.03.202533</t>
+  </si>
+  <si>
+    <t>27.03.202534</t>
+  </si>
+  <si>
+    <t>27.03.202535</t>
+  </si>
+  <si>
+    <t>27.03.202536</t>
+  </si>
+  <si>
+    <t>27.03.202537</t>
+  </si>
+  <si>
+    <t>27.03.202538</t>
+  </si>
+  <si>
+    <t>27.03.202539</t>
+  </si>
+  <si>
+    <t>27.03.202540</t>
+  </si>
+  <si>
+    <t>27.03.202541</t>
+  </si>
+  <si>
+    <t>27.03.202542</t>
+  </si>
+  <si>
+    <t>27.03.202543</t>
+  </si>
+  <si>
+    <t>27.03.202544</t>
+  </si>
+  <si>
+    <t>27.03.202545</t>
+  </si>
+  <si>
+    <t>27.03.202546</t>
+  </si>
+  <si>
+    <t>27.03.202547</t>
+  </si>
+  <si>
+    <t>27.03.202548</t>
+  </si>
+  <si>
+    <t>27.03.202549</t>
+  </si>
+  <si>
+    <t>27.03.202550</t>
+  </si>
+  <si>
+    <t>27.03.202551</t>
+  </si>
+  <si>
+    <t>27.03.202552</t>
+  </si>
+  <si>
+    <t>27.03.202553</t>
+  </si>
+  <si>
+    <t>27.03.202554</t>
+  </si>
+  <si>
+    <t>27.03.202555</t>
+  </si>
+  <si>
+    <t>27.03.202556</t>
+  </si>
+  <si>
+    <t>27.03.202557</t>
+  </si>
+  <si>
+    <t>27.03.202558</t>
+  </si>
+  <si>
+    <t>27.03.202559</t>
+  </si>
+  <si>
+    <t>27.03.202560</t>
+  </si>
+  <si>
+    <t>27.03.202561</t>
+  </si>
+  <si>
+    <t>27.03.202562</t>
+  </si>
+  <si>
+    <t>27.03.202563</t>
+  </si>
+  <si>
+    <t>27.03.202564</t>
+  </si>
+  <si>
+    <t>27.03.202565</t>
+  </si>
+  <si>
+    <t>27.03.202566</t>
+  </si>
+  <si>
+    <t>27.03.202567</t>
+  </si>
+  <si>
+    <t>27.03.202568</t>
+  </si>
+  <si>
+    <t>27.03.202569</t>
+  </si>
+  <si>
+    <t>27.03.202570</t>
+  </si>
+  <si>
+    <t>27.03.202571</t>
+  </si>
+  <si>
+    <t>27.03.202572</t>
+  </si>
+  <si>
+    <t>27.03.202573</t>
+  </si>
+  <si>
+    <t>27.03.202574</t>
+  </si>
+  <si>
+    <t>27.03.202575</t>
+  </si>
+  <si>
+    <t>27.03.202576</t>
+  </si>
+  <si>
+    <t>27.03.202577</t>
+  </si>
+  <si>
+    <t>27.03.202578</t>
+  </si>
+  <si>
+    <t>27.03.202579</t>
+  </si>
+  <si>
+    <t>27.03.202580</t>
+  </si>
+  <si>
+    <t>27.03.202581</t>
+  </si>
+  <si>
+    <t>27.03.202582</t>
+  </si>
+  <si>
+    <t>27.03.202583</t>
+  </si>
+  <si>
+    <t>27.03.202584</t>
+  </si>
+  <si>
+    <t>27.03.202585</t>
+  </si>
+  <si>
+    <t>27.03.202586</t>
+  </si>
+  <si>
+    <t>27.03.202587</t>
+  </si>
+  <si>
+    <t>27.03.202588</t>
+  </si>
+  <si>
+    <t>27.03.202589</t>
+  </si>
+  <si>
+    <t>27.03.202590</t>
+  </si>
+  <si>
+    <t>27.03.202591</t>
+  </si>
+  <si>
+    <t>27.03.202592</t>
+  </si>
+  <si>
+    <t>27.03.202593</t>
+  </si>
+  <si>
+    <t>27.03.202594</t>
+  </si>
+  <si>
+    <t>27.03.202595</t>
+  </si>
+  <si>
+    <t>27.03.202596</t>
+  </si>
+  <si>
+    <t>28.03.20251</t>
+  </si>
+  <si>
+    <t>28.03.20252</t>
+  </si>
+  <si>
+    <t>28.03.20253</t>
+  </si>
+  <si>
+    <t>28.03.20254</t>
+  </si>
+  <si>
+    <t>28.03.20255</t>
+  </si>
+  <si>
+    <t>28.03.20256</t>
+  </si>
+  <si>
+    <t>28.03.20257</t>
+  </si>
+  <si>
+    <t>28.03.20258</t>
+  </si>
+  <si>
+    <t>28.03.20259</t>
+  </si>
+  <si>
+    <t>28.03.202510</t>
+  </si>
+  <si>
+    <t>28.03.202511</t>
+  </si>
+  <si>
+    <t>28.03.202512</t>
+  </si>
+  <si>
+    <t>28.03.202513</t>
+  </si>
+  <si>
+    <t>28.03.202514</t>
+  </si>
+  <si>
+    <t>28.03.202515</t>
+  </si>
+  <si>
+    <t>28.03.202516</t>
+  </si>
+  <si>
+    <t>28.03.202517</t>
+  </si>
+  <si>
+    <t>28.03.202518</t>
+  </si>
+  <si>
+    <t>28.03.202519</t>
+  </si>
+  <si>
+    <t>28.03.202520</t>
+  </si>
+  <si>
+    <t>28.03.202521</t>
+  </si>
+  <si>
+    <t>28.03.202522</t>
+  </si>
+  <si>
+    <t>28.03.202523</t>
+  </si>
+  <si>
+    <t>28.03.202524</t>
+  </si>
+  <si>
+    <t>28.03.202525</t>
   </si>
 </sst>
 </file>
@@ -807,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,10 +778,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45740</v>
+        <v>45743</v>
       </c>
       <c r="B2">
-        <v>8.195</v>
+        <v>2.915</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -849,10 +795,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45740.01041666666</v>
+        <v>45743.01041666666</v>
       </c>
       <c r="B3">
-        <v>4.496</v>
+        <v>22.373</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -866,10 +812,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45740.02083333334</v>
+        <v>45743.02083333334</v>
       </c>
       <c r="B4">
-        <v>5.8</v>
+        <v>27.257</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -883,13 +829,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45740.03125</v>
+        <v>45743.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>34.194</v>
       </c>
       <c r="C5">
-        <v>14.241</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -900,10 +846,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45740.04166666666</v>
+        <v>45743.04166666666</v>
       </c>
       <c r="B6">
-        <v>5.253</v>
+        <v>14.359</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -917,13 +863,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45740.05208333334</v>
+        <v>45743.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="C7">
-        <v>5.502</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -934,13 +880,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45740.0625</v>
+        <v>45743.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>13.687</v>
       </c>
       <c r="C8">
-        <v>27.088</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -951,13 +897,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45740.07291666666</v>
+        <v>45743.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>41.384</v>
+        <v>8.48</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -968,13 +914,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45740.08333333334</v>
+        <v>45743.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.477</v>
+        <v>6.745</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -985,13 +931,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45740.09375</v>
+        <v>45743.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>28.001</v>
+        <v>10.815</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1002,13 +948,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45740.10416666666</v>
+        <v>45743.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3.171</v>
       </c>
       <c r="C12">
-        <v>56.41</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1019,13 +965,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45740.11458333334</v>
+        <v>45743.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>11.888</v>
       </c>
       <c r="C13">
-        <v>76.91</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1036,13 +982,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45740.125</v>
+        <v>45743.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>9.952999999999999</v>
       </c>
       <c r="C14">
-        <v>37.046</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1053,13 +999,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45740.13541666666</v>
+        <v>45743.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>24.071</v>
       </c>
       <c r="C15">
-        <v>20.842</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1070,13 +1016,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45740.14583333334</v>
+        <v>45743.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.471</v>
       </c>
       <c r="C16">
-        <v>21.463</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1087,13 +1033,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45740.15625</v>
+        <v>45743.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2.731</v>
       </c>
       <c r="C17">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1104,10 +1050,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45740.16666666666</v>
+        <v>45743.16666666666</v>
       </c>
       <c r="B18">
-        <v>3.594</v>
+        <v>4.237</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1121,10 +1067,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45740.17708333334</v>
+        <v>45743.17708333334</v>
       </c>
       <c r="B19">
-        <v>6.731</v>
+        <v>8.717000000000001</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1138,10 +1084,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45740.1875</v>
+        <v>45743.1875</v>
       </c>
       <c r="B20">
-        <v>9.569000000000001</v>
+        <v>10.966</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1155,10 +1101,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45740.19791666666</v>
+        <v>45743.19791666666</v>
       </c>
       <c r="B21">
-        <v>6.854</v>
+        <v>14.326</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1172,10 +1118,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45740.20833333334</v>
+        <v>45743.20833333334</v>
       </c>
       <c r="B22">
-        <v>3.878</v>
+        <v>35.045</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1189,10 +1135,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45740.21875</v>
+        <v>45743.21875</v>
       </c>
       <c r="B23">
-        <v>1.48</v>
+        <v>27.071</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1206,13 +1152,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45740.22916666666</v>
+        <v>45743.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>30.994</v>
       </c>
       <c r="C24">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1223,13 +1169,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45740.23958333334</v>
+        <v>45743.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>14.39</v>
       </c>
       <c r="C25">
-        <v>8.815</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1240,10 +1186,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45740.25</v>
+        <v>45743.25</v>
       </c>
       <c r="B26">
-        <v>23.651</v>
+        <v>3.781</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1257,10 +1203,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45740.26041666666</v>
+        <v>45743.26041666666</v>
       </c>
       <c r="B27">
-        <v>2.588</v>
+        <v>6.111</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1274,13 +1220,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45740.27083333334</v>
+        <v>45743.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>19.848</v>
+        <v>10.987</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1291,13 +1237,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45740.28125</v>
+        <v>45743.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>18.724</v>
+        <v>13.769</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1308,13 +1254,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45740.29166666666</v>
+        <v>45743.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>13.102</v>
       </c>
       <c r="C30">
-        <v>29.234</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1325,13 +1271,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45740.30208333334</v>
+        <v>45743.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>17.61</v>
       </c>
       <c r="C31">
-        <v>9.326000000000001</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1342,13 +1288,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45740.3125</v>
+        <v>45743.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>20.431</v>
+        <v>10.869</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1359,13 +1305,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45740.32291666666</v>
+        <v>45743.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>5.021</v>
       </c>
       <c r="C33">
-        <v>15.35</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1376,10 +1322,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45740.33333333334</v>
+        <v>45743.33333333334</v>
       </c>
       <c r="B34">
-        <v>1.246</v>
+        <v>10.784</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1393,13 +1339,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45740.34375</v>
+        <v>45743.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3.869</v>
       </c>
       <c r="C35">
-        <v>5.056</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1410,13 +1356,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45740.35416666666</v>
+        <v>45743.35416666666</v>
       </c>
       <c r="B36">
-        <v>3.887</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>7.638</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1427,13 +1373,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45740.36458333334</v>
+        <v>45743.36458333334</v>
       </c>
       <c r="B37">
-        <v>27.875</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2.451</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1444,13 +1390,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45740.375</v>
+        <v>45743.375</v>
       </c>
       <c r="B38">
-        <v>49.933</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>27.292</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1461,13 +1407,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45740.38541666666</v>
+        <v>45743.38541666666</v>
       </c>
       <c r="B39">
-        <v>42.111</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>6.144</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1478,10 +1424,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45740.39583333334</v>
+        <v>45743.39583333334</v>
       </c>
       <c r="B40">
-        <v>51.197</v>
+        <v>10.05</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1495,10 +1441,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45740.40625</v>
+        <v>45743.40625</v>
       </c>
       <c r="B41">
-        <v>54.642</v>
+        <v>11.885</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1512,10 +1458,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45740.41666666666</v>
+        <v>45743.41666666666</v>
       </c>
       <c r="B42">
-        <v>38.086</v>
+        <v>3.809</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1529,10 +1475,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45740.42708333334</v>
+        <v>45743.42708333334</v>
       </c>
       <c r="B43">
-        <v>10.142</v>
+        <v>21.089</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1546,10 +1492,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45740.4375</v>
+        <v>45743.4375</v>
       </c>
       <c r="B44">
-        <v>7.447</v>
+        <v>18.633</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1563,10 +1509,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45740.44791666666</v>
+        <v>45743.44791666666</v>
       </c>
       <c r="B45">
-        <v>13.793</v>
+        <v>41.419</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1580,13 +1526,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45740.45833333334</v>
+        <v>45743.45833333334</v>
       </c>
       <c r="B46">
-        <v>46.817</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>6.762</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1597,13 +1543,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45740.46875</v>
+        <v>45743.46875</v>
       </c>
       <c r="B47">
-        <v>43.646</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1614,13 +1560,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45740.47916666666</v>
+        <v>45743.47916666666</v>
       </c>
       <c r="B48">
-        <v>35.312</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>13.516</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1631,13 +1577,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45740.48958333334</v>
+        <v>45743.48958333334</v>
       </c>
       <c r="B49">
-        <v>20.938</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1.793</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1648,13 +1594,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45740.5</v>
+        <v>45743.5</v>
       </c>
       <c r="B50">
-        <v>32.453</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>20.082</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1665,13 +1611,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45740.51041666666</v>
+        <v>45743.51041666666</v>
       </c>
       <c r="B51">
-        <v>13.095</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>29.773</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1682,13 +1628,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45740.52083333334</v>
+        <v>45743.52083333334</v>
       </c>
       <c r="B52">
-        <v>8.18</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>29.149</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1699,13 +1645,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45740.53125</v>
+        <v>45743.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>8.428000000000001</v>
+        <v>38.165</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1716,13 +1662,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45740.54166666666</v>
+        <v>45743.54166666666</v>
       </c>
       <c r="B54">
-        <v>8.557</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>21.568</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1733,13 +1679,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45740.55208333334</v>
+        <v>45743.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>4.367</v>
+        <v>18.095</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1750,13 +1696,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45740.5625</v>
+        <v>45743.5625</v>
       </c>
       <c r="B56">
-        <v>2.073</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>30.571</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1767,13 +1713,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45740.57291666666</v>
+        <v>45743.57291666666</v>
       </c>
       <c r="B57">
-        <v>17.021</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>30.037</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1784,13 +1730,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45740.58333333334</v>
+        <v>45743.58333333334</v>
       </c>
       <c r="B58">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>16.147</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1801,13 +1747,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45740.59375</v>
+        <v>45743.59375</v>
       </c>
       <c r="B59">
-        <v>2.324</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>18.442</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1818,13 +1764,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45740.60416666666</v>
+        <v>45743.60416666666</v>
       </c>
       <c r="B60">
-        <v>1.351</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>15.152</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1835,13 +1781,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45740.61458333334</v>
+        <v>45743.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>11.858</v>
+        <v>3.054</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1852,13 +1798,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45740.625</v>
+        <v>45743.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>8.849</v>
       </c>
       <c r="C62">
-        <v>17.337</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1869,13 +1815,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45740.63541666666</v>
+        <v>45743.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>27.671</v>
       </c>
       <c r="C63">
-        <v>46.959</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1886,13 +1832,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45740.64583333334</v>
+        <v>45743.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>40.848</v>
       </c>
       <c r="C64">
-        <v>54.075</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1903,13 +1849,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45740.65625</v>
+        <v>45743.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>22.473</v>
       </c>
       <c r="C65">
-        <v>64.703</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1920,13 +1866,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45740.66666666666</v>
+        <v>45743.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>49.479</v>
       </c>
       <c r="C66">
-        <v>31.666</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1937,13 +1883,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45740.67708333334</v>
+        <v>45743.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>9.319000000000001</v>
       </c>
       <c r="C67">
-        <v>13.955</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1954,13 +1900,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45740.6875</v>
+        <v>45743.6875</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>15.26</v>
       </c>
       <c r="C68">
-        <v>6.684</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1971,13 +1917,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45740.69791666666</v>
+        <v>45743.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>4.942</v>
+        <v>1.302</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1988,10 +1934,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45740.70833333334</v>
+        <v>45743.70833333334</v>
       </c>
       <c r="B70">
-        <v>25.854</v>
+        <v>7.119</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2005,10 +1951,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45740.71875</v>
+        <v>45743.71875</v>
       </c>
       <c r="B71">
-        <v>6.896</v>
+        <v>11.887</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2022,10 +1968,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45740.72916666666</v>
+        <v>45743.72916666666</v>
       </c>
       <c r="B72">
-        <v>8.218</v>
+        <v>15.157</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2039,13 +1985,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45740.73958333334</v>
+        <v>45743.73958333334</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>3.189</v>
       </c>
       <c r="C73">
-        <v>5.02</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2056,10 +2002,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45740.75</v>
+        <v>45743.75</v>
       </c>
       <c r="B74">
-        <v>19.315</v>
+        <v>48.914</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2073,10 +2019,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45740.76041666666</v>
+        <v>45743.76041666666</v>
       </c>
       <c r="B75">
-        <v>27.553</v>
+        <v>45.756</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2090,10 +2036,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45740.77083333334</v>
+        <v>45743.77083333334</v>
       </c>
       <c r="B76">
-        <v>1.024</v>
+        <v>64.812</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2107,10 +2053,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45740.78125</v>
+        <v>45743.78125</v>
       </c>
       <c r="B77">
-        <v>4.184</v>
+        <v>63.734</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2124,13 +2070,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45740.79166666666</v>
+        <v>45743.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>83.128</v>
       </c>
       <c r="C78">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2141,10 +2087,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45740.80208333334</v>
+        <v>45743.80208333334</v>
       </c>
       <c r="B79">
-        <v>2.885</v>
+        <v>10.647</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2158,10 +2104,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45740.8125</v>
+        <v>45743.8125</v>
       </c>
       <c r="B80">
-        <v>3.796</v>
+        <v>5.042</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2175,10 +2121,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45740.82291666666</v>
+        <v>45743.82291666666</v>
       </c>
       <c r="B81">
-        <v>6.549</v>
+        <v>6.727</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2192,13 +2138,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45740.83333333334</v>
+        <v>45743.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>7.514</v>
+        <v>21.008</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2209,13 +2155,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45740.84375</v>
+        <v>45743.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>8.529999999999999</v>
+        <v>42.642</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2226,13 +2172,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45740.85416666666</v>
+        <v>45743.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>10.414</v>
+        <v>33.765</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2243,13 +2189,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45740.86458333334</v>
+        <v>45743.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0.188</v>
+        <v>9.616</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2260,13 +2206,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45740.875</v>
+        <v>45743.875</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>2.788</v>
+        <v>37.353</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2277,13 +2223,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45740.88541666666</v>
+        <v>45743.88541666666</v>
       </c>
       <c r="B87">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>16.961</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2294,10 +2240,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45740.89583333334</v>
+        <v>45743.89583333334</v>
       </c>
       <c r="B88">
-        <v>6.362</v>
+        <v>4.918</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2311,10 +2257,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45740.90625</v>
+        <v>45743.90625</v>
       </c>
       <c r="B89">
-        <v>9.699999999999999</v>
+        <v>14.246</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2328,13 +2274,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45740.91666666666</v>
+        <v>45743.91666666666</v>
       </c>
       <c r="B90">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>4.311</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2345,13 +2291,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45740.92708333334</v>
+        <v>45743.92708333334</v>
       </c>
       <c r="B91">
-        <v>12.243</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>5.081</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2362,13 +2308,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45740.9375</v>
+        <v>45743.9375</v>
       </c>
       <c r="B92">
-        <v>21.674</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>8.903</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2379,10 +2325,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45740.94791666666</v>
+        <v>45743.94791666666</v>
       </c>
       <c r="B93">
-        <v>20.385</v>
+        <v>6.768</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2396,13 +2342,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45740.95833333334</v>
+        <v>45743.95833333334</v>
       </c>
       <c r="B94">
-        <v>22.969</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>13.471</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2413,13 +2359,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45740.96875</v>
+        <v>45743.96875</v>
       </c>
       <c r="B95">
-        <v>28.131</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>10.583</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2430,10 +2376,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45740.97916666666</v>
+        <v>45743.97916666666</v>
       </c>
       <c r="B96">
-        <v>17.115</v>
+        <v>7.667</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2447,10 +2393,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45740.98958333334</v>
+        <v>45743.98958333334</v>
       </c>
       <c r="B97">
-        <v>22.225</v>
+        <v>33.135</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2464,13 +2410,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="B98">
-        <v>16.836</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>2.564</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2481,10 +2427,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45741.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B99">
-        <v>19.239</v>
+        <v>1.894</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2498,10 +2444,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45741.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B100">
-        <v>8.981999999999999</v>
+        <v>6.709</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2515,10 +2461,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B101">
-        <v>5.399</v>
+        <v>33.325</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2532,10 +2478,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45741.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B102">
-        <v>8.141999999999999</v>
+        <v>36.278</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2549,10 +2495,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45741.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B103">
-        <v>18.545</v>
+        <v>54.753</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2566,10 +2512,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B104">
-        <v>19.087</v>
+        <v>72.20099999999999</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2583,10 +2529,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45741.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B105">
-        <v>8.297000000000001</v>
+        <v>39.688</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2600,10 +2546,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45741.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B106">
-        <v>35.364</v>
+        <v>18.758</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2617,10 +2563,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B107">
-        <v>35.526</v>
+        <v>15.879</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2634,10 +2580,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45741.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B108">
-        <v>35.682</v>
+        <v>23.837</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2651,10 +2597,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45741.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B109">
-        <v>35.935</v>
+        <v>19.111</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2668,10 +2614,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B110">
-        <v>11.672</v>
+        <v>51.704</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2685,13 +2631,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45741.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>41.32</v>
       </c>
       <c r="C111">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2702,13 +2648,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45741.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>30.972</v>
       </c>
       <c r="C112">
-        <v>16.565</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2719,10 +2665,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B113">
-        <v>3.584</v>
+        <v>28.704</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2736,10 +2682,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45741.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B114">
-        <v>18.067</v>
+        <v>14.568</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2753,10 +2699,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45741.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B115">
-        <v>17.162</v>
+        <v>1.766</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2770,10 +2716,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B116">
-        <v>2.216</v>
+        <v>20.06</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2787,13 +2733,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45741.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>14.341</v>
       </c>
       <c r="C117">
-        <v>10.608</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2804,10 +2750,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45741.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B118">
-        <v>14.706</v>
+        <v>22.208</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2821,13 +2767,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="C119">
-        <v>2.342</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2838,13 +2784,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45741.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>3.474</v>
       </c>
       <c r="C120">
-        <v>9.124000000000001</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2855,13 +2801,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45741.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>15.843</v>
+        <v>13.851</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -2872,325 +2818,19 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B122">
-        <v>24.608</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="D122">
         <v>25</v>
       </c>
       <c r="E122" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="2">
-        <v>45741.26041666666</v>
-      </c>
-      <c r="B123">
-        <v>27.408</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>26</v>
-      </c>
-      <c r="E123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="2">
-        <v>45741.27083333334</v>
-      </c>
-      <c r="B124">
-        <v>13.547</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>27</v>
-      </c>
-      <c r="E124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="2">
-        <v>45741.28125</v>
-      </c>
-      <c r="B125">
-        <v>40.578</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>28</v>
-      </c>
-      <c r="E125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="2">
-        <v>45741.29166666666</v>
-      </c>
-      <c r="B126">
-        <v>33.855</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>29</v>
-      </c>
-      <c r="E126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="2">
-        <v>45741.30208333334</v>
-      </c>
-      <c r="B127">
-        <v>79.858</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>30</v>
-      </c>
-      <c r="E127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="2">
-        <v>45741.3125</v>
-      </c>
-      <c r="B128">
-        <v>93.123</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>31</v>
-      </c>
-      <c r="E128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="2">
-        <v>45741.32291666666</v>
-      </c>
-      <c r="B129">
-        <v>72.95399999999999</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>32</v>
-      </c>
-      <c r="E129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="2">
-        <v>45741.33333333334</v>
-      </c>
-      <c r="B130">
-        <v>59.982</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>33</v>
-      </c>
-      <c r="E130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="2">
-        <v>45741.34375</v>
-      </c>
-      <c r="B131">
-        <v>51.403</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>34</v>
-      </c>
-      <c r="E131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="2">
-        <v>45741.35416666666</v>
-      </c>
-      <c r="B132">
-        <v>75.685</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>35</v>
-      </c>
-      <c r="E132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="2">
-        <v>45741.36458333334</v>
-      </c>
-      <c r="B133">
-        <v>88.65900000000001</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>36</v>
-      </c>
-      <c r="E133" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="2">
-        <v>45741.375</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>3.145</v>
-      </c>
-      <c r="D134">
-        <v>37</v>
-      </c>
-      <c r="E134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="2">
-        <v>45741.38541666666</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>5.365</v>
-      </c>
-      <c r="D135">
-        <v>38</v>
-      </c>
-      <c r="E135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="2">
-        <v>45741.39583333334</v>
-      </c>
-      <c r="B136">
-        <v>5.279</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>39</v>
-      </c>
-      <c r="E136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="2">
-        <v>45741.40625</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>0.349</v>
-      </c>
-      <c r="D137">
-        <v>40</v>
-      </c>
-      <c r="E137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="2">
-        <v>45741.41666666666</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>50.588</v>
-      </c>
-      <c r="D138">
-        <v>41</v>
-      </c>
-      <c r="E138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="2">
-        <v>45741.42708333334</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>34.968</v>
-      </c>
-      <c r="D139">
-        <v>42</v>
-      </c>
-      <c r="E139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="2">
-        <v>45741.4375</v>
-      </c>
-      <c r="B140">
-        <v>20.274</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>43</v>
-      </c>
-      <c r="E140" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>27.03.20251</t>
-  </si>
-  <si>
-    <t>27.03.20252</t>
-  </si>
-  <si>
-    <t>27.03.20253</t>
-  </si>
-  <si>
-    <t>27.03.20254</t>
-  </si>
-  <si>
-    <t>27.03.20255</t>
-  </si>
-  <si>
-    <t>27.03.20256</t>
-  </si>
-  <si>
-    <t>27.03.20257</t>
-  </si>
-  <si>
-    <t>27.03.20258</t>
-  </si>
-  <si>
-    <t>27.03.20259</t>
-  </si>
-  <si>
-    <t>27.03.202510</t>
-  </si>
-  <si>
-    <t>27.03.202511</t>
-  </si>
-  <si>
-    <t>27.03.202512</t>
-  </si>
-  <si>
-    <t>27.03.202513</t>
-  </si>
-  <si>
-    <t>27.03.202514</t>
-  </si>
-  <si>
-    <t>27.03.202515</t>
-  </si>
-  <si>
-    <t>27.03.202516</t>
-  </si>
-  <si>
-    <t>27.03.202517</t>
-  </si>
-  <si>
-    <t>27.03.202518</t>
-  </si>
-  <si>
-    <t>27.03.202519</t>
-  </si>
-  <si>
-    <t>27.03.202520</t>
-  </si>
-  <si>
-    <t>27.03.202521</t>
-  </si>
-  <si>
-    <t>27.03.202522</t>
-  </si>
-  <si>
-    <t>27.03.202523</t>
-  </si>
-  <si>
-    <t>27.03.202524</t>
-  </si>
-  <si>
-    <t>27.03.202525</t>
-  </si>
-  <si>
-    <t>27.03.202526</t>
-  </si>
-  <si>
-    <t>27.03.202527</t>
-  </si>
-  <si>
-    <t>27.03.202528</t>
-  </si>
-  <si>
-    <t>27.03.202529</t>
-  </si>
-  <si>
-    <t>27.03.202530</t>
-  </si>
-  <si>
-    <t>27.03.202531</t>
-  </si>
-  <si>
-    <t>27.03.202532</t>
-  </si>
-  <si>
-    <t>27.03.202533</t>
-  </si>
-  <si>
-    <t>27.03.202534</t>
-  </si>
-  <si>
-    <t>27.03.202535</t>
-  </si>
-  <si>
-    <t>27.03.202536</t>
-  </si>
-  <si>
-    <t>27.03.202537</t>
-  </si>
-  <si>
-    <t>27.03.202538</t>
-  </si>
-  <si>
-    <t>27.03.202539</t>
-  </si>
-  <si>
-    <t>27.03.202540</t>
-  </si>
-  <si>
-    <t>27.03.202541</t>
-  </si>
-  <si>
-    <t>27.03.202542</t>
-  </si>
-  <si>
-    <t>27.03.202543</t>
-  </si>
-  <si>
-    <t>27.03.202544</t>
-  </si>
-  <si>
-    <t>27.03.202545</t>
-  </si>
-  <si>
-    <t>27.03.202546</t>
-  </si>
-  <si>
-    <t>27.03.202547</t>
-  </si>
-  <si>
-    <t>27.03.202548</t>
-  </si>
-  <si>
-    <t>27.03.202549</t>
-  </si>
-  <si>
-    <t>27.03.202550</t>
-  </si>
-  <si>
-    <t>27.03.202551</t>
-  </si>
-  <si>
-    <t>27.03.202552</t>
-  </si>
-  <si>
-    <t>27.03.202553</t>
-  </si>
-  <si>
-    <t>27.03.202554</t>
-  </si>
-  <si>
-    <t>27.03.202555</t>
-  </si>
-  <si>
-    <t>27.03.202556</t>
-  </si>
-  <si>
-    <t>27.03.202557</t>
-  </si>
-  <si>
-    <t>27.03.202558</t>
-  </si>
-  <si>
-    <t>27.03.202559</t>
-  </si>
-  <si>
-    <t>27.03.202560</t>
-  </si>
-  <si>
-    <t>27.03.202561</t>
-  </si>
-  <si>
-    <t>27.03.202562</t>
-  </si>
-  <si>
-    <t>27.03.202563</t>
-  </si>
-  <si>
-    <t>27.03.202564</t>
-  </si>
-  <si>
-    <t>27.03.202565</t>
-  </si>
-  <si>
-    <t>27.03.202566</t>
-  </si>
-  <si>
-    <t>27.03.202567</t>
-  </si>
-  <si>
-    <t>27.03.202568</t>
-  </si>
-  <si>
-    <t>27.03.202569</t>
-  </si>
-  <si>
-    <t>27.03.202570</t>
-  </si>
-  <si>
-    <t>27.03.202571</t>
-  </si>
-  <si>
-    <t>27.03.202572</t>
-  </si>
-  <si>
-    <t>27.03.202573</t>
-  </si>
-  <si>
-    <t>27.03.202574</t>
-  </si>
-  <si>
-    <t>27.03.202575</t>
-  </si>
-  <si>
-    <t>27.03.202576</t>
-  </si>
-  <si>
-    <t>27.03.202577</t>
-  </si>
-  <si>
-    <t>27.03.202578</t>
-  </si>
-  <si>
-    <t>27.03.202579</t>
-  </si>
-  <si>
-    <t>27.03.202580</t>
-  </si>
-  <si>
-    <t>27.03.202581</t>
-  </si>
-  <si>
-    <t>27.03.202582</t>
-  </si>
-  <si>
-    <t>27.03.202583</t>
-  </si>
-  <si>
-    <t>27.03.202584</t>
-  </si>
-  <si>
-    <t>27.03.202585</t>
-  </si>
-  <si>
-    <t>27.03.202586</t>
-  </si>
-  <si>
-    <t>27.03.202587</t>
-  </si>
-  <si>
-    <t>27.03.202588</t>
-  </si>
-  <si>
-    <t>27.03.202589</t>
-  </si>
-  <si>
-    <t>27.03.202590</t>
-  </si>
-  <si>
-    <t>27.03.202591</t>
-  </si>
-  <si>
-    <t>27.03.202592</t>
-  </si>
-  <si>
-    <t>27.03.202593</t>
-  </si>
-  <si>
-    <t>27.03.202594</t>
-  </si>
-  <si>
-    <t>27.03.202595</t>
-  </si>
-  <si>
-    <t>27.03.202596</t>
-  </si>
-  <si>
     <t>28.03.20251</t>
   </si>
   <si>
@@ -392,6 +104,900 @@
   </si>
   <si>
     <t>28.03.202525</t>
+  </si>
+  <si>
+    <t>28.03.202526</t>
+  </si>
+  <si>
+    <t>28.03.202527</t>
+  </si>
+  <si>
+    <t>28.03.202528</t>
+  </si>
+  <si>
+    <t>28.03.202529</t>
+  </si>
+  <si>
+    <t>28.03.202530</t>
+  </si>
+  <si>
+    <t>28.03.202531</t>
+  </si>
+  <si>
+    <t>28.03.202532</t>
+  </si>
+  <si>
+    <t>28.03.202533</t>
+  </si>
+  <si>
+    <t>28.03.202534</t>
+  </si>
+  <si>
+    <t>28.03.202535</t>
+  </si>
+  <si>
+    <t>28.03.202536</t>
+  </si>
+  <si>
+    <t>28.03.202537</t>
+  </si>
+  <si>
+    <t>28.03.202538</t>
+  </si>
+  <si>
+    <t>28.03.202539</t>
+  </si>
+  <si>
+    <t>28.03.202540</t>
+  </si>
+  <si>
+    <t>28.03.202541</t>
+  </si>
+  <si>
+    <t>28.03.202542</t>
+  </si>
+  <si>
+    <t>28.03.202543</t>
+  </si>
+  <si>
+    <t>28.03.202544</t>
+  </si>
+  <si>
+    <t>28.03.202545</t>
+  </si>
+  <si>
+    <t>28.03.202546</t>
+  </si>
+  <si>
+    <t>28.03.202547</t>
+  </si>
+  <si>
+    <t>28.03.202548</t>
+  </si>
+  <si>
+    <t>28.03.202549</t>
+  </si>
+  <si>
+    <t>28.03.202550</t>
+  </si>
+  <si>
+    <t>28.03.202551</t>
+  </si>
+  <si>
+    <t>28.03.202552</t>
+  </si>
+  <si>
+    <t>28.03.202553</t>
+  </si>
+  <si>
+    <t>28.03.202554</t>
+  </si>
+  <si>
+    <t>28.03.202555</t>
+  </si>
+  <si>
+    <t>28.03.202556</t>
+  </si>
+  <si>
+    <t>28.03.202557</t>
+  </si>
+  <si>
+    <t>28.03.202558</t>
+  </si>
+  <si>
+    <t>28.03.202559</t>
+  </si>
+  <si>
+    <t>28.03.202560</t>
+  </si>
+  <si>
+    <t>28.03.202561</t>
+  </si>
+  <si>
+    <t>28.03.202562</t>
+  </si>
+  <si>
+    <t>28.03.202563</t>
+  </si>
+  <si>
+    <t>28.03.202564</t>
+  </si>
+  <si>
+    <t>28.03.202565</t>
+  </si>
+  <si>
+    <t>28.03.202566</t>
+  </si>
+  <si>
+    <t>28.03.202567</t>
+  </si>
+  <si>
+    <t>28.03.202568</t>
+  </si>
+  <si>
+    <t>28.03.202569</t>
+  </si>
+  <si>
+    <t>28.03.202570</t>
+  </si>
+  <si>
+    <t>28.03.202571</t>
+  </si>
+  <si>
+    <t>28.03.202572</t>
+  </si>
+  <si>
+    <t>28.03.202573</t>
+  </si>
+  <si>
+    <t>28.03.202574</t>
+  </si>
+  <si>
+    <t>28.03.202575</t>
+  </si>
+  <si>
+    <t>28.03.202576</t>
+  </si>
+  <si>
+    <t>28.03.202577</t>
+  </si>
+  <si>
+    <t>28.03.202578</t>
+  </si>
+  <si>
+    <t>28.03.202579</t>
+  </si>
+  <si>
+    <t>28.03.202580</t>
+  </si>
+  <si>
+    <t>28.03.202581</t>
+  </si>
+  <si>
+    <t>28.03.202582</t>
+  </si>
+  <si>
+    <t>28.03.202583</t>
+  </si>
+  <si>
+    <t>28.03.202584</t>
+  </si>
+  <si>
+    <t>28.03.202585</t>
+  </si>
+  <si>
+    <t>28.03.202586</t>
+  </si>
+  <si>
+    <t>28.03.202587</t>
+  </si>
+  <si>
+    <t>28.03.202588</t>
+  </si>
+  <si>
+    <t>28.03.202589</t>
+  </si>
+  <si>
+    <t>28.03.202590</t>
+  </si>
+  <si>
+    <t>28.03.202591</t>
+  </si>
+  <si>
+    <t>28.03.202592</t>
+  </si>
+  <si>
+    <t>28.03.202593</t>
+  </si>
+  <si>
+    <t>28.03.202594</t>
+  </si>
+  <si>
+    <t>28.03.202595</t>
+  </si>
+  <si>
+    <t>28.03.202596</t>
+  </si>
+  <si>
+    <t>29.03.20251</t>
+  </si>
+  <si>
+    <t>29.03.20252</t>
+  </si>
+  <si>
+    <t>29.03.20253</t>
+  </si>
+  <si>
+    <t>29.03.20254</t>
+  </si>
+  <si>
+    <t>29.03.20255</t>
+  </si>
+  <si>
+    <t>29.03.20256</t>
+  </si>
+  <si>
+    <t>29.03.20257</t>
+  </si>
+  <si>
+    <t>29.03.20258</t>
+  </si>
+  <si>
+    <t>29.03.20259</t>
+  </si>
+  <si>
+    <t>29.03.202510</t>
+  </si>
+  <si>
+    <t>29.03.202511</t>
+  </si>
+  <si>
+    <t>29.03.202512</t>
+  </si>
+  <si>
+    <t>29.03.202513</t>
+  </si>
+  <si>
+    <t>29.03.202514</t>
+  </si>
+  <si>
+    <t>29.03.202515</t>
+  </si>
+  <si>
+    <t>29.03.202516</t>
+  </si>
+  <si>
+    <t>29.03.202517</t>
+  </si>
+  <si>
+    <t>29.03.202518</t>
+  </si>
+  <si>
+    <t>29.03.202519</t>
+  </si>
+  <si>
+    <t>29.03.202520</t>
+  </si>
+  <si>
+    <t>29.03.202521</t>
+  </si>
+  <si>
+    <t>29.03.202522</t>
+  </si>
+  <si>
+    <t>29.03.202523</t>
+  </si>
+  <si>
+    <t>29.03.202524</t>
+  </si>
+  <si>
+    <t>29.03.202525</t>
+  </si>
+  <si>
+    <t>29.03.202526</t>
+  </si>
+  <si>
+    <t>29.03.202527</t>
+  </si>
+  <si>
+    <t>29.03.202528</t>
+  </si>
+  <si>
+    <t>29.03.202529</t>
+  </si>
+  <si>
+    <t>29.03.202530</t>
+  </si>
+  <si>
+    <t>29.03.202531</t>
+  </si>
+  <si>
+    <t>29.03.202532</t>
+  </si>
+  <si>
+    <t>29.03.202533</t>
+  </si>
+  <si>
+    <t>29.03.202534</t>
+  </si>
+  <si>
+    <t>29.03.202535</t>
+  </si>
+  <si>
+    <t>29.03.202536</t>
+  </si>
+  <si>
+    <t>29.03.202537</t>
+  </si>
+  <si>
+    <t>29.03.202538</t>
+  </si>
+  <si>
+    <t>29.03.202539</t>
+  </si>
+  <si>
+    <t>29.03.202540</t>
+  </si>
+  <si>
+    <t>29.03.202541</t>
+  </si>
+  <si>
+    <t>29.03.202542</t>
+  </si>
+  <si>
+    <t>29.03.202543</t>
+  </si>
+  <si>
+    <t>29.03.202544</t>
+  </si>
+  <si>
+    <t>29.03.202545</t>
+  </si>
+  <si>
+    <t>29.03.202546</t>
+  </si>
+  <si>
+    <t>29.03.202547</t>
+  </si>
+  <si>
+    <t>29.03.202548</t>
+  </si>
+  <si>
+    <t>29.03.202549</t>
+  </si>
+  <si>
+    <t>29.03.202550</t>
+  </si>
+  <si>
+    <t>29.03.202551</t>
+  </si>
+  <si>
+    <t>29.03.202552</t>
+  </si>
+  <si>
+    <t>29.03.202553</t>
+  </si>
+  <si>
+    <t>29.03.202554</t>
+  </si>
+  <si>
+    <t>29.03.202555</t>
+  </si>
+  <si>
+    <t>29.03.202556</t>
+  </si>
+  <si>
+    <t>29.03.202557</t>
+  </si>
+  <si>
+    <t>29.03.202558</t>
+  </si>
+  <si>
+    <t>29.03.202559</t>
+  </si>
+  <si>
+    <t>29.03.202560</t>
+  </si>
+  <si>
+    <t>29.03.202561</t>
+  </si>
+  <si>
+    <t>29.03.202562</t>
+  </si>
+  <si>
+    <t>29.03.202563</t>
+  </si>
+  <si>
+    <t>29.03.202564</t>
+  </si>
+  <si>
+    <t>29.03.202565</t>
+  </si>
+  <si>
+    <t>29.03.202566</t>
+  </si>
+  <si>
+    <t>29.03.202567</t>
+  </si>
+  <si>
+    <t>29.03.202568</t>
+  </si>
+  <si>
+    <t>29.03.202569</t>
+  </si>
+  <si>
+    <t>29.03.202570</t>
+  </si>
+  <si>
+    <t>29.03.202571</t>
+  </si>
+  <si>
+    <t>29.03.202572</t>
+  </si>
+  <si>
+    <t>29.03.202573</t>
+  </si>
+  <si>
+    <t>29.03.202574</t>
+  </si>
+  <si>
+    <t>29.03.202575</t>
+  </si>
+  <si>
+    <t>29.03.202576</t>
+  </si>
+  <si>
+    <t>29.03.202577</t>
+  </si>
+  <si>
+    <t>29.03.202578</t>
+  </si>
+  <si>
+    <t>29.03.202579</t>
+  </si>
+  <si>
+    <t>29.03.202580</t>
+  </si>
+  <si>
+    <t>29.03.202581</t>
+  </si>
+  <si>
+    <t>29.03.202582</t>
+  </si>
+  <si>
+    <t>29.03.202583</t>
+  </si>
+  <si>
+    <t>29.03.202584</t>
+  </si>
+  <si>
+    <t>29.03.202585</t>
+  </si>
+  <si>
+    <t>29.03.202586</t>
+  </si>
+  <si>
+    <t>29.03.202587</t>
+  </si>
+  <si>
+    <t>29.03.202588</t>
+  </si>
+  <si>
+    <t>29.03.202589</t>
+  </si>
+  <si>
+    <t>29.03.202590</t>
+  </si>
+  <si>
+    <t>29.03.202591</t>
+  </si>
+  <si>
+    <t>29.03.202592</t>
+  </si>
+  <si>
+    <t>29.03.202593</t>
+  </si>
+  <si>
+    <t>29.03.202594</t>
+  </si>
+  <si>
+    <t>29.03.202595</t>
+  </si>
+  <si>
+    <t>29.03.202596</t>
+  </si>
+  <si>
+    <t>30.03.20251</t>
+  </si>
+  <si>
+    <t>30.03.20252</t>
+  </si>
+  <si>
+    <t>30.03.20253</t>
+  </si>
+  <si>
+    <t>30.03.20254</t>
+  </si>
+  <si>
+    <t>30.03.20255</t>
+  </si>
+  <si>
+    <t>30.03.20256</t>
+  </si>
+  <si>
+    <t>30.03.20257</t>
+  </si>
+  <si>
+    <t>30.03.20258</t>
+  </si>
+  <si>
+    <t>30.03.20259</t>
+  </si>
+  <si>
+    <t>30.03.202510</t>
+  </si>
+  <si>
+    <t>30.03.202511</t>
+  </si>
+  <si>
+    <t>30.03.202512</t>
+  </si>
+  <si>
+    <t>30.03.202513</t>
+  </si>
+  <si>
+    <t>30.03.202514</t>
+  </si>
+  <si>
+    <t>30.03.202515</t>
+  </si>
+  <si>
+    <t>30.03.202516</t>
+  </si>
+  <si>
+    <t>30.03.202517</t>
+  </si>
+  <si>
+    <t>30.03.202518</t>
+  </si>
+  <si>
+    <t>30.03.202519</t>
+  </si>
+  <si>
+    <t>30.03.202520</t>
+  </si>
+  <si>
+    <t>30.03.202521</t>
+  </si>
+  <si>
+    <t>30.03.202522</t>
+  </si>
+  <si>
+    <t>30.03.202523</t>
+  </si>
+  <si>
+    <t>30.03.202524</t>
+  </si>
+  <si>
+    <t>30.03.202525</t>
+  </si>
+  <si>
+    <t>30.03.202526</t>
+  </si>
+  <si>
+    <t>30.03.202527</t>
+  </si>
+  <si>
+    <t>30.03.202528</t>
+  </si>
+  <si>
+    <t>30.03.202529</t>
+  </si>
+  <si>
+    <t>30.03.202530</t>
+  </si>
+  <si>
+    <t>30.03.202531</t>
+  </si>
+  <si>
+    <t>30.03.202532</t>
+  </si>
+  <si>
+    <t>30.03.202533</t>
+  </si>
+  <si>
+    <t>30.03.202534</t>
+  </si>
+  <si>
+    <t>30.03.202535</t>
+  </si>
+  <si>
+    <t>30.03.202536</t>
+  </si>
+  <si>
+    <t>30.03.202537</t>
+  </si>
+  <si>
+    <t>30.03.202538</t>
+  </si>
+  <si>
+    <t>30.03.202539</t>
+  </si>
+  <si>
+    <t>30.03.202540</t>
+  </si>
+  <si>
+    <t>30.03.202541</t>
+  </si>
+  <si>
+    <t>30.03.202542</t>
+  </si>
+  <si>
+    <t>30.03.202543</t>
+  </si>
+  <si>
+    <t>30.03.202544</t>
+  </si>
+  <si>
+    <t>30.03.202545</t>
+  </si>
+  <si>
+    <t>30.03.202546</t>
+  </si>
+  <si>
+    <t>30.03.202547</t>
+  </si>
+  <si>
+    <t>30.03.202548</t>
+  </si>
+  <si>
+    <t>30.03.202549</t>
+  </si>
+  <si>
+    <t>30.03.202550</t>
+  </si>
+  <si>
+    <t>30.03.202551</t>
+  </si>
+  <si>
+    <t>30.03.202552</t>
+  </si>
+  <si>
+    <t>30.03.202553</t>
+  </si>
+  <si>
+    <t>30.03.202554</t>
+  </si>
+  <si>
+    <t>30.03.202555</t>
+  </si>
+  <si>
+    <t>30.03.202556</t>
+  </si>
+  <si>
+    <t>30.03.202557</t>
+  </si>
+  <si>
+    <t>30.03.202558</t>
+  </si>
+  <si>
+    <t>30.03.202559</t>
+  </si>
+  <si>
+    <t>30.03.202560</t>
+  </si>
+  <si>
+    <t>30.03.202561</t>
+  </si>
+  <si>
+    <t>30.03.202562</t>
+  </si>
+  <si>
+    <t>30.03.202563</t>
+  </si>
+  <si>
+    <t>30.03.202564</t>
+  </si>
+  <si>
+    <t>30.03.202565</t>
+  </si>
+  <si>
+    <t>30.03.202566</t>
+  </si>
+  <si>
+    <t>30.03.202567</t>
+  </si>
+  <si>
+    <t>30.03.202568</t>
+  </si>
+  <si>
+    <t>30.03.202569</t>
+  </si>
+  <si>
+    <t>30.03.202570</t>
+  </si>
+  <si>
+    <t>30.03.202571</t>
+  </si>
+  <si>
+    <t>30.03.202572</t>
+  </si>
+  <si>
+    <t>30.03.202573</t>
+  </si>
+  <si>
+    <t>30.03.202574</t>
+  </si>
+  <si>
+    <t>30.03.202575</t>
+  </si>
+  <si>
+    <t>30.03.202576</t>
+  </si>
+  <si>
+    <t>30.03.202577</t>
+  </si>
+  <si>
+    <t>30.03.202578</t>
+  </si>
+  <si>
+    <t>30.03.202579</t>
+  </si>
+  <si>
+    <t>30.03.202580</t>
+  </si>
+  <si>
+    <t>30.03.202581</t>
+  </si>
+  <si>
+    <t>30.03.202582</t>
+  </si>
+  <si>
+    <t>30.03.202583</t>
+  </si>
+  <si>
+    <t>30.03.202584</t>
+  </si>
+  <si>
+    <t>30.03.202585</t>
+  </si>
+  <si>
+    <t>30.03.202586</t>
+  </si>
+  <si>
+    <t>30.03.202587</t>
+  </si>
+  <si>
+    <t>30.03.202588</t>
+  </si>
+  <si>
+    <t>30.03.202589</t>
+  </si>
+  <si>
+    <t>30.03.202590</t>
+  </si>
+  <si>
+    <t>30.03.202591</t>
+  </si>
+  <si>
+    <t>31.03.202592</t>
+  </si>
+  <si>
+    <t>31.03.202593</t>
+  </si>
+  <si>
+    <t>31.03.202594</t>
+  </si>
+  <si>
+    <t>31.03.202595</t>
+  </si>
+  <si>
+    <t>31.03.202596</t>
+  </si>
+  <si>
+    <t>31.03.20251</t>
+  </si>
+  <si>
+    <t>31.03.20252</t>
+  </si>
+  <si>
+    <t>31.03.20253</t>
+  </si>
+  <si>
+    <t>31.03.20254</t>
+  </si>
+  <si>
+    <t>31.03.20255</t>
+  </si>
+  <si>
+    <t>31.03.20256</t>
+  </si>
+  <si>
+    <t>31.03.20257</t>
+  </si>
+  <si>
+    <t>31.03.20258</t>
+  </si>
+  <si>
+    <t>31.03.20259</t>
+  </si>
+  <si>
+    <t>31.03.202510</t>
+  </si>
+  <si>
+    <t>31.03.202511</t>
+  </si>
+  <si>
+    <t>31.03.202512</t>
+  </si>
+  <si>
+    <t>31.03.202513</t>
+  </si>
+  <si>
+    <t>31.03.202514</t>
+  </si>
+  <si>
+    <t>31.03.202515</t>
+  </si>
+  <si>
+    <t>31.03.202516</t>
+  </si>
+  <si>
+    <t>31.03.202517</t>
+  </si>
+  <si>
+    <t>31.03.202518</t>
+  </si>
+  <si>
+    <t>31.03.202519</t>
+  </si>
+  <si>
+    <t>31.03.202520</t>
+  </si>
+  <si>
+    <t>31.03.202521</t>
+  </si>
+  <si>
+    <t>31.03.202522</t>
+  </si>
+  <si>
+    <t>31.03.202523</t>
+  </si>
+  <si>
+    <t>31.03.202524</t>
+  </si>
+  <si>
+    <t>31.03.202525</t>
+  </si>
+  <si>
+    <t>31.03.202526</t>
+  </si>
+  <si>
+    <t>31.03.202527</t>
+  </si>
+  <si>
+    <t>31.03.202528</t>
+  </si>
+  <si>
+    <t>31.03.202529</t>
+  </si>
+  <si>
+    <t>31.03.202530</t>
+  </si>
+  <si>
+    <t>31.03.202531</t>
+  </si>
+  <si>
+    <t>31.03.202532</t>
+  </si>
+  <si>
+    <t>31.03.202533</t>
+  </si>
+  <si>
+    <t>31.03.202534</t>
+  </si>
+  <si>
+    <t>31.03.202535</t>
   </si>
 </sst>
 </file>
@@ -753,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,13 +1384,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B2">
-        <v>2.915</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.564</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -795,10 +1401,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45743.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B3">
-        <v>22.373</v>
+        <v>1.894</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -812,10 +1418,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45743.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B4">
-        <v>27.257</v>
+        <v>6.709</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -829,10 +1435,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45743.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B5">
-        <v>34.194</v>
+        <v>33.325</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -846,10 +1452,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45743.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B6">
-        <v>14.359</v>
+        <v>36.278</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -863,10 +1469,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45743.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B7">
-        <v>6.95</v>
+        <v>54.753</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -880,10 +1486,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45743.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B8">
-        <v>13.687</v>
+        <v>72.20099999999999</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -897,13 +1503,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45743.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>39.688</v>
       </c>
       <c r="C9">
-        <v>8.48</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -914,13 +1520,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45743.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>18.758</v>
       </c>
       <c r="C10">
-        <v>6.745</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -931,13 +1537,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45743.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>15.879</v>
       </c>
       <c r="C11">
-        <v>10.815</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -948,10 +1554,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45743.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B12">
-        <v>3.171</v>
+        <v>23.837</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -965,10 +1571,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45743.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B13">
-        <v>11.888</v>
+        <v>19.111</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -982,10 +1588,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45743.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B14">
-        <v>9.952999999999999</v>
+        <v>51.704</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -999,10 +1605,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45743.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B15">
-        <v>24.071</v>
+        <v>41.32</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1016,10 +1622,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45743.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B16">
-        <v>2.471</v>
+        <v>30.972</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1033,10 +1639,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45743.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B17">
-        <v>2.731</v>
+        <v>28.704</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1050,10 +1656,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45743.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B18">
-        <v>4.237</v>
+        <v>14.568</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1067,10 +1673,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45743.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B19">
-        <v>8.717000000000001</v>
+        <v>1.766</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1084,10 +1690,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45743.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B20">
-        <v>10.966</v>
+        <v>20.06</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1101,10 +1707,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45743.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B21">
-        <v>14.326</v>
+        <v>14.341</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1118,10 +1724,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45743.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B22">
-        <v>35.045</v>
+        <v>22.208</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1135,10 +1741,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45743.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B23">
-        <v>27.071</v>
+        <v>12.22</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1152,10 +1758,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45743.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B24">
-        <v>30.994</v>
+        <v>3.474</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1169,13 +1775,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45743.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B25">
-        <v>14.39</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>13.851</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1186,13 +1792,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45743.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B26">
-        <v>3.781</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1203,13 +1809,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45743.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B27">
-        <v>6.111</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>9.044</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1220,13 +1826,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45743.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>18.218</v>
       </c>
       <c r="C28">
-        <v>10.987</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1237,13 +1843,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45743.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>24.492</v>
       </c>
       <c r="C29">
-        <v>13.769</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1254,10 +1860,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45743.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B30">
-        <v>13.102</v>
+        <v>4.805</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1271,13 +1877,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45743.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B31">
-        <v>17.61</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>31.148</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1288,13 +1894,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45743.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>10.869</v>
+        <v>27.292</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1305,13 +1911,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45743.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B33">
-        <v>5.021</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>37.827</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1322,13 +1928,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45743.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B34">
-        <v>10.784</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>13.614</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1339,13 +1945,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45743.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B35">
-        <v>3.869</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>19.103</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1356,13 +1962,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45743.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>7.638</v>
+        <v>6.232</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1373,13 +1979,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45743.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2.451</v>
+        <v>4.73</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1390,13 +1996,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45743.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>27.292</v>
+        <v>7.095</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1407,13 +2013,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45743.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2.713</v>
       </c>
       <c r="C39">
-        <v>6.144</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1424,13 +2030,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45743.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B40">
-        <v>10.05</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>8.388999999999999</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1441,13 +2047,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45743.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B41">
-        <v>11.885</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>7.923</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1458,13 +2064,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45743.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B42">
-        <v>3.809</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>4.943</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1475,13 +2081,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45743.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B43">
-        <v>21.089</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>10.634</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1492,13 +2098,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45743.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B44">
-        <v>18.633</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>30.759</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1509,13 +2115,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45743.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B45">
-        <v>41.419</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>25.033</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1526,13 +2132,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45743.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>11.337</v>
       </c>
       <c r="C46">
-        <v>6.762</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1543,13 +2149,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45743.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>25.364</v>
       </c>
       <c r="C47">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1560,13 +2166,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45743.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>33.105</v>
       </c>
       <c r="C48">
-        <v>13.516</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1577,13 +2183,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45743.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>30.346</v>
       </c>
       <c r="C49">
-        <v>1.793</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1594,13 +2200,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45743.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>84.477</v>
       </c>
       <c r="C50">
-        <v>20.082</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1611,13 +2217,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45743.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>27.193</v>
       </c>
       <c r="C51">
-        <v>29.773</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1628,13 +2234,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45743.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>12.274</v>
       </c>
       <c r="C52">
-        <v>29.149</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1645,13 +2251,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45743.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>4.506</v>
       </c>
       <c r="C53">
-        <v>38.165</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1662,13 +2268,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45743.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>21.568</v>
+        <v>4.928</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1679,13 +2285,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45743.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>18.095</v>
+        <v>18.158</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1696,13 +2302,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45743.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>8.304</v>
       </c>
       <c r="C56">
-        <v>30.571</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1713,13 +2319,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45743.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>11.128</v>
       </c>
       <c r="C57">
-        <v>30.037</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1730,13 +2336,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45743.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>16.147</v>
+        <v>5.191</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1747,13 +2353,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45743.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>18.442</v>
+        <v>16.321</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1764,13 +2370,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45743.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>15.152</v>
+        <v>10.034</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1781,13 +2387,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45743.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>3.054</v>
+        <v>23.318</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1798,13 +2404,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45743.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B62">
-        <v>8.849</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>2.519</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1815,13 +2421,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45743.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B63">
-        <v>27.671</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>8.286</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1832,13 +2438,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45743.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B64">
-        <v>40.848</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>25.447</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1849,13 +2455,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45743.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B65">
-        <v>22.473</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>31.647</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1866,13 +2472,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45743.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B66">
-        <v>49.479</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>7.315</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1883,10 +2489,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45743.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B67">
-        <v>9.319000000000001</v>
+        <v>12.478</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1900,10 +2506,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45743.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B68">
-        <v>15.26</v>
+        <v>14.606</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1917,13 +2523,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45743.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1.302</v>
+        <v>6.606</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1934,10 +2540,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45743.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B70">
-        <v>7.119</v>
+        <v>32.239</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1951,10 +2557,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45743.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B71">
-        <v>11.887</v>
+        <v>57.714</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1968,10 +2574,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45743.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B72">
-        <v>15.157</v>
+        <v>38.522</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1985,10 +2591,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45743.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B73">
-        <v>3.189</v>
+        <v>19.756</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2002,10 +2608,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45743.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B74">
-        <v>48.914</v>
+        <v>20.558</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2019,10 +2625,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45743.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B75">
-        <v>45.756</v>
+        <v>25.335</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2036,10 +2642,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45743.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B76">
-        <v>64.812</v>
+        <v>22.765</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2053,10 +2659,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45743.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B77">
-        <v>63.734</v>
+        <v>18.669</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2070,13 +2676,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45743.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B78">
-        <v>83.128</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>8.635</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2087,13 +2693,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45743.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B79">
-        <v>10.647</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>8.176</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2104,13 +2710,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45743.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B80">
-        <v>5.042</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>26.94</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2121,13 +2727,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45743.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B81">
-        <v>6.727</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>34.851</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2138,13 +2744,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45743.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>21.008</v>
+        <v>22.608</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2155,13 +2761,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45743.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>42.642</v>
+        <v>15.885</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2172,13 +2778,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45743.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>6.011</v>
       </c>
       <c r="C84">
-        <v>33.765</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2189,13 +2795,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45743.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>20.829</v>
       </c>
       <c r="C85">
-        <v>9.616</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2206,13 +2812,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45743.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>8.081</v>
       </c>
       <c r="C86">
-        <v>37.353</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2223,13 +2829,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45743.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>9.468</v>
       </c>
       <c r="C87">
-        <v>16.961</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2240,10 +2846,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45743.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B88">
-        <v>4.918</v>
+        <v>16.22</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2257,10 +2863,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45743.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B89">
-        <v>14.246</v>
+        <v>4.803</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2274,13 +2880,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45743.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>4.311</v>
+        <v>5.079</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2291,13 +2897,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45743.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>2.323</v>
       </c>
       <c r="C91">
-        <v>5.081</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2308,13 +2914,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45743.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>8.903</v>
+        <v>3.154</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2325,10 +2931,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45743.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B93">
-        <v>6.768</v>
+        <v>9.654999999999999</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2342,13 +2948,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45743.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>7.795</v>
       </c>
       <c r="C94">
-        <v>13.471</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2359,13 +2965,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45743.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>8.913</v>
       </c>
       <c r="C95">
-        <v>10.583</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2376,13 +2982,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45743.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B96">
-        <v>7.667</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>4.371</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2393,10 +2999,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45743.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B97">
-        <v>33.135</v>
+        <v>7.112</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2410,13 +3016,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>2.564</v>
+        <v>19.584</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2427,13 +3033,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45744.01041666666</v>
+        <v>45745.01041666666</v>
       </c>
       <c r="B99">
-        <v>1.894</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>45.413</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2444,13 +3050,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45744.02083333334</v>
+        <v>45745.02083333334</v>
       </c>
       <c r="B100">
-        <v>6.709</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>46.476</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2461,13 +3067,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45744.03125</v>
+        <v>45745.03125</v>
       </c>
       <c r="B101">
-        <v>33.325</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>2.137</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2478,10 +3084,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45744.04166666666</v>
+        <v>45745.04166666666</v>
       </c>
       <c r="B102">
-        <v>36.278</v>
+        <v>15.188</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2495,13 +3101,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45744.05208333334</v>
+        <v>45745.05208333334</v>
       </c>
       <c r="B103">
-        <v>54.753</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>8.506</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2512,10 +3118,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45744.0625</v>
+        <v>45745.0625</v>
       </c>
       <c r="B104">
-        <v>72.20099999999999</v>
+        <v>0.877</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2529,13 +3135,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45744.07291666666</v>
+        <v>45745.07291666666</v>
       </c>
       <c r="B105">
-        <v>39.688</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>11.887</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2546,13 +3152,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45744.08333333334</v>
+        <v>45745.08333333334</v>
       </c>
       <c r="B106">
-        <v>18.758</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>2.594</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2563,13 +3169,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45744.09375</v>
+        <v>45745.09375</v>
       </c>
       <c r="B107">
-        <v>15.879</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>15.587</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2580,13 +3186,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45744.10416666666</v>
+        <v>45745.10416666666</v>
       </c>
       <c r="B108">
-        <v>23.837</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2597,10 +3203,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45744.11458333334</v>
+        <v>45745.11458333334</v>
       </c>
       <c r="B109">
-        <v>19.111</v>
+        <v>3.306</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2614,10 +3220,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45744.125</v>
+        <v>45745.125</v>
       </c>
       <c r="B110">
-        <v>51.704</v>
+        <v>33.646</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2631,10 +3237,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45744.13541666666</v>
+        <v>45745.13541666666</v>
       </c>
       <c r="B111">
-        <v>41.32</v>
+        <v>32.483</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2648,10 +3254,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45744.14583333334</v>
+        <v>45745.14583333334</v>
       </c>
       <c r="B112">
-        <v>30.972</v>
+        <v>19.073</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2665,10 +3271,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45744.15625</v>
+        <v>45745.15625</v>
       </c>
       <c r="B113">
-        <v>28.704</v>
+        <v>21.385</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2682,10 +3288,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45744.16666666666</v>
+        <v>45745.16666666666</v>
       </c>
       <c r="B114">
-        <v>14.568</v>
+        <v>21.007</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2699,10 +3305,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45744.17708333334</v>
+        <v>45745.17708333334</v>
       </c>
       <c r="B115">
-        <v>1.766</v>
+        <v>7.21</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2716,13 +3322,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45744.1875</v>
+        <v>45745.1875</v>
       </c>
       <c r="B116">
-        <v>20.06</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>8.266999999999999</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2733,13 +3339,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45744.19791666666</v>
+        <v>45745.19791666666</v>
       </c>
       <c r="B117">
-        <v>14.341</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>18.088</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2750,13 +3356,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45744.20833333334</v>
+        <v>45745.20833333334</v>
       </c>
       <c r="B118">
-        <v>22.208</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>24.522</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2767,13 +3373,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45744.21875</v>
+        <v>45745.21875</v>
       </c>
       <c r="B119">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>55.095</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2784,13 +3390,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45744.22916666666</v>
+        <v>45745.22916666666</v>
       </c>
       <c r="B120">
-        <v>3.474</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>42.591</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2801,13 +3407,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45744.23958333334</v>
+        <v>45745.23958333334</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>13.851</v>
+        <v>35.352</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -2818,19 +3424,3453 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45744.25</v>
+        <v>45745.25</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>3.69</v>
+        <v>36.64</v>
       </c>
       <c r="D122">
         <v>25</v>
       </c>
       <c r="E122" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>45745.26041666666</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>19.38</v>
+      </c>
+      <c r="D123">
+        <v>26</v>
+      </c>
+      <c r="E123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>45745.27083333334</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>46.861</v>
+      </c>
+      <c r="D124">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>45745.28125</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>89.131</v>
+      </c>
+      <c r="D125">
+        <v>28</v>
+      </c>
+      <c r="E125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>45745.29166666666</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>12.352</v>
+      </c>
+      <c r="D126">
+        <v>29</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>45745.30208333334</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>18.99</v>
+      </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>45745.3125</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>43.084</v>
+      </c>
+      <c r="D128">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>45745.32291666666</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>48.567</v>
+      </c>
+      <c r="D129">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>45745.33333333334</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>11.481</v>
+      </c>
+      <c r="D130">
+        <v>33</v>
+      </c>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45745.34375</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>12.546</v>
+      </c>
+      <c r="D131">
+        <v>34</v>
+      </c>
+      <c r="E131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45745.35416666666</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>29.528</v>
+      </c>
+      <c r="D132">
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45745.36458333334</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>13.799</v>
+      </c>
+      <c r="D133">
+        <v>36</v>
+      </c>
+      <c r="E133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45745.375</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>28.854</v>
+      </c>
+      <c r="D134">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45745.38541666666</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>41.917</v>
+      </c>
+      <c r="D135">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45745.39583333334</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>27.04</v>
+      </c>
+      <c r="D136">
+        <v>39</v>
+      </c>
+      <c r="E136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45745.40625</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>37.575</v>
+      </c>
+      <c r="D137">
+        <v>40</v>
+      </c>
+      <c r="E137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45745.41666666666</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>44.779</v>
+      </c>
+      <c r="D138">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45745.42708333334</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>49.938</v>
+      </c>
+      <c r="D139">
+        <v>42</v>
+      </c>
+      <c r="E139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45745.4375</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>66.952</v>
+      </c>
+      <c r="D140">
+        <v>43</v>
+      </c>
+      <c r="E140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45745.44791666666</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>60.044</v>
+      </c>
+      <c r="D141">
+        <v>44</v>
+      </c>
+      <c r="E141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45745.45833333334</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>77.621</v>
+      </c>
+      <c r="D142">
+        <v>45</v>
+      </c>
+      <c r="E142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45745.46875</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>78.59699999999999</v>
+      </c>
+      <c r="D143">
+        <v>46</v>
+      </c>
+      <c r="E143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45745.47916666666</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>56.206</v>
+      </c>
+      <c r="D144">
+        <v>47</v>
+      </c>
+      <c r="E144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45745.48958333334</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>18.054</v>
+      </c>
+      <c r="D145">
+        <v>48</v>
+      </c>
+      <c r="E145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45745.5</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>21.487</v>
+      </c>
+      <c r="D146">
+        <v>49</v>
+      </c>
+      <c r="E146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45745.51041666666</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>36.804</v>
+      </c>
+      <c r="D147">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45745.52083333334</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>39.335</v>
+      </c>
+      <c r="D148">
+        <v>51</v>
+      </c>
+      <c r="E148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45745.53125</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>45.626</v>
+      </c>
+      <c r="D149">
+        <v>52</v>
+      </c>
+      <c r="E149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45745.54166666666</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>26.096</v>
+      </c>
+      <c r="D150">
+        <v>53</v>
+      </c>
+      <c r="E150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45745.55208333334</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>25.744</v>
+      </c>
+      <c r="D151">
+        <v>54</v>
+      </c>
+      <c r="E151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45745.5625</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>25.121</v>
+      </c>
+      <c r="D152">
+        <v>55</v>
+      </c>
+      <c r="E152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45745.57291666666</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>31.217</v>
+      </c>
+      <c r="D153">
+        <v>56</v>
+      </c>
+      <c r="E153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45745.58333333334</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>9.643000000000001</v>
+      </c>
+      <c r="D154">
+        <v>57</v>
+      </c>
+      <c r="E154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45745.59375</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>1.567</v>
+      </c>
+      <c r="D155">
+        <v>58</v>
+      </c>
+      <c r="E155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45745.60416666666</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>22.969</v>
+      </c>
+      <c r="D156">
+        <v>59</v>
+      </c>
+      <c r="E156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45745.61458333334</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>39.944</v>
+      </c>
+      <c r="D157">
+        <v>60</v>
+      </c>
+      <c r="E157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45745.625</v>
+      </c>
+      <c r="B158">
+        <v>0.749</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45745.63541666666</v>
+      </c>
+      <c r="B159">
+        <v>3.448</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>62</v>
+      </c>
+      <c r="E159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45745.64583333334</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>7.833</v>
+      </c>
+      <c r="D160">
+        <v>63</v>
+      </c>
+      <c r="E160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45745.65625</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>6.702</v>
+      </c>
+      <c r="D161">
+        <v>64</v>
+      </c>
+      <c r="E161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45745.66666666666</v>
+      </c>
+      <c r="B162">
+        <v>13.977</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>65</v>
+      </c>
+      <c r="E162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45745.67708333334</v>
+      </c>
+      <c r="B163">
+        <v>1.612</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>66</v>
+      </c>
+      <c r="E163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45745.6875</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>3.153</v>
+      </c>
+      <c r="D164">
+        <v>67</v>
+      </c>
+      <c r="E164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45745.69791666666</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>11.607</v>
+      </c>
+      <c r="D165">
+        <v>68</v>
+      </c>
+      <c r="E165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45745.70833333334</v>
+      </c>
+      <c r="B166">
+        <v>26.46</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>69</v>
+      </c>
+      <c r="E166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45745.71875</v>
+      </c>
+      <c r="B167">
+        <v>38.374</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>70</v>
+      </c>
+      <c r="E167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45745.72916666666</v>
+      </c>
+      <c r="B168">
+        <v>16.824</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>71</v>
+      </c>
+      <c r="E168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45745.73958333334</v>
+      </c>
+      <c r="B169">
+        <v>0.298</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>72</v>
+      </c>
+      <c r="E169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45745.75</v>
+      </c>
+      <c r="B170">
+        <v>22.731</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>73</v>
+      </c>
+      <c r="E170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45745.76041666666</v>
+      </c>
+      <c r="B171">
+        <v>30.767</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>74</v>
+      </c>
+      <c r="E171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45745.77083333334</v>
+      </c>
+      <c r="B172">
+        <v>8.763999999999999</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>75</v>
+      </c>
+      <c r="E172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45745.78125</v>
+      </c>
+      <c r="B173">
+        <v>2.478</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>76</v>
+      </c>
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45745.79166666666</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0.144</v>
+      </c>
+      <c r="D174">
+        <v>77</v>
+      </c>
+      <c r="E174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45745.80208333334</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>5.852</v>
+      </c>
+      <c r="D175">
+        <v>78</v>
+      </c>
+      <c r="E175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45745.8125</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>7.546</v>
+      </c>
+      <c r="D176">
+        <v>79</v>
+      </c>
+      <c r="E176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45745.82291666666</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>12.941</v>
+      </c>
+      <c r="D177">
+        <v>80</v>
+      </c>
+      <c r="E177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45745.83333333334</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>17.841</v>
+      </c>
+      <c r="D178">
+        <v>81</v>
+      </c>
+      <c r="E178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45745.84375</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>31.929</v>
+      </c>
+      <c r="D179">
+        <v>82</v>
+      </c>
+      <c r="E179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45745.85416666666</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>41.646</v>
+      </c>
+      <c r="D180">
+        <v>83</v>
+      </c>
+      <c r="E180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45745.86458333334</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>10.175</v>
+      </c>
+      <c r="D181">
+        <v>84</v>
+      </c>
+      <c r="E181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45745.875</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>38.008</v>
+      </c>
+      <c r="D182">
+        <v>85</v>
+      </c>
+      <c r="E182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45745.88541666666</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>24.854</v>
+      </c>
+      <c r="D183">
+        <v>86</v>
+      </c>
+      <c r="E183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45745.89583333334</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>17.996</v>
+      </c>
+      <c r="D184">
+        <v>87</v>
+      </c>
+      <c r="E184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45745.90625</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>3.31</v>
+      </c>
+      <c r="D185">
+        <v>88</v>
+      </c>
+      <c r="E185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45745.91666666666</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>24.067</v>
+      </c>
+      <c r="D186">
+        <v>89</v>
+      </c>
+      <c r="E186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45745.92708333334</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>24.485</v>
+      </c>
+      <c r="D187">
+        <v>90</v>
+      </c>
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45745.9375</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>35.834</v>
+      </c>
+      <c r="D188">
+        <v>91</v>
+      </c>
+      <c r="E188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45745.94791666666</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>22.178</v>
+      </c>
+      <c r="D189">
+        <v>92</v>
+      </c>
+      <c r="E189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45745.95833333334</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>9.782</v>
+      </c>
+      <c r="D190">
+        <v>93</v>
+      </c>
+      <c r="E190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45745.96875</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>12.043</v>
+      </c>
+      <c r="D191">
+        <v>94</v>
+      </c>
+      <c r="E191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45745.97916666666</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>30.122</v>
+      </c>
+      <c r="D192">
+        <v>95</v>
+      </c>
+      <c r="E192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45745.98958333334</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>50.707</v>
+      </c>
+      <c r="D193">
+        <v>96</v>
+      </c>
+      <c r="E193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45746</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>11.742</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45746.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>25.461</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45746.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>18.389</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45746.03125</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>14.303</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45746.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>6.345</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45746.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>14.805</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45746.0625</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>18.503</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45746.125</v>
+      </c>
+      <c r="B201">
+        <v>2.608</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45746.13541666666</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>23.759</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45746.14583333334</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>17.798</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45746.15625</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>22.183</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45746.16666666666</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>7.437</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45746.17708333334</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>19.456</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45746.1875</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>16.492</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45746.19791666666</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>14.064</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45746.20833333334</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>3.34</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45746.21875</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>16.418</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45746.22916666666</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>14.65</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45746.23958333334</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>12.707</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45746.25</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>18.217</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45746.26041666666</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>12.944</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45746.27083333334</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>24.125</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45746.28125</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>34.751</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45746.29166666666</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>15.59</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45746.30208333334</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>25.286</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45746.3125</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>20.62</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45746.32291666666</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>21.994</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45746.33333333334</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>33.016</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45746.34375</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>46.431</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45746.35416666666</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>59.13</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45746.36458333334</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>70.27</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45746.375</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>90.83199999999999</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45746.38541666666</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>70.983</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45746.39583333334</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>43.214</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45746.40625</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>23.249</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45746.41666666666</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>41.205</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45746.42708333334</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>47.197</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45746.4375</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>18.084</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45746.44791666666</v>
+      </c>
+      <c r="B232">
+        <v>2.475</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45746.45833333334</v>
+      </c>
+      <c r="B233">
+        <v>13.148</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45746.46875</v>
+      </c>
+      <c r="B234">
+        <v>19.779</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>41</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45746.47916666666</v>
+      </c>
+      <c r="B235">
+        <v>11.618</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>42</v>
+      </c>
+      <c r="E235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45746.48958333334</v>
+      </c>
+      <c r="B236">
+        <v>14.913</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45746.5</v>
+      </c>
+      <c r="B237">
+        <v>32.394</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>44</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45746.51041666666</v>
+      </c>
+      <c r="B238">
+        <v>3.104</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45746.52083333334</v>
+      </c>
+      <c r="B239">
+        <v>6.92</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45746.53125</v>
+      </c>
+      <c r="B240">
+        <v>3.204</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45746.54166666666</v>
+      </c>
+      <c r="B241">
+        <v>1.571</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45746.55208333334</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>10.559</v>
+      </c>
+      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45746.5625</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>4.38</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45746.57291666666</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>2.997</v>
+      </c>
+      <c r="D244">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45746.58333333334</v>
+      </c>
+      <c r="B245">
+        <v>2.378</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>52</v>
+      </c>
+      <c r="E245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45746.59375</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>7.071</v>
+      </c>
+      <c r="D246">
+        <v>53</v>
+      </c>
+      <c r="E246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45746.60416666666</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>12.479</v>
+      </c>
+      <c r="D247">
+        <v>54</v>
+      </c>
+      <c r="E247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45746.61458333334</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>21.768</v>
+      </c>
+      <c r="D248">
+        <v>55</v>
+      </c>
+      <c r="E248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45746.625</v>
+      </c>
+      <c r="B249">
+        <v>4.026</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>56</v>
+      </c>
+      <c r="E249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45746.63541666666</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>10.595</v>
+      </c>
+      <c r="D250">
+        <v>57</v>
+      </c>
+      <c r="E250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45746.64583333334</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>28.875</v>
+      </c>
+      <c r="D251">
+        <v>58</v>
+      </c>
+      <c r="E251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45746.65625</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>30.621</v>
+      </c>
+      <c r="D252">
+        <v>59</v>
+      </c>
+      <c r="E252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45746.66666666666</v>
+      </c>
+      <c r="B253">
+        <v>1.367</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>60</v>
+      </c>
+      <c r="E253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45746.67708333334</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>0.057</v>
+      </c>
+      <c r="D254">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45746.6875</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>14.636</v>
+      </c>
+      <c r="D255">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45746.69791666666</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>11.741</v>
+      </c>
+      <c r="D256">
+        <v>63</v>
+      </c>
+      <c r="E256" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45746.70833333334</v>
+      </c>
+      <c r="B257">
+        <v>13.341</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45746.71875</v>
+      </c>
+      <c r="B258">
+        <v>10.879</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>65</v>
+      </c>
+      <c r="E258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>45746.72916666666</v>
+      </c>
+      <c r="B259">
+        <v>4.11</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>66</v>
+      </c>
+      <c r="E259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>45746.73958333334</v>
+      </c>
+      <c r="B260">
+        <v>2.634</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>67</v>
+      </c>
+      <c r="E260" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>45746.75</v>
+      </c>
+      <c r="B261">
+        <v>2.671</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>68</v>
+      </c>
+      <c r="E261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>45746.76041666666</v>
+      </c>
+      <c r="B262">
+        <v>9.234</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>69</v>
+      </c>
+      <c r="E262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>45746.77083333334</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>7.267</v>
+      </c>
+      <c r="D263">
+        <v>70</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>45746.78125</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>26.222</v>
+      </c>
+      <c r="D264">
+        <v>71</v>
+      </c>
+      <c r="E264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>45746.79166666666</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>40.344</v>
+      </c>
+      <c r="D265">
+        <v>72</v>
+      </c>
+      <c r="E265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>45746.80208333334</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>33.985</v>
+      </c>
+      <c r="D266">
+        <v>73</v>
+      </c>
+      <c r="E266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>45746.8125</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>11.266</v>
+      </c>
+      <c r="D267">
+        <v>74</v>
+      </c>
+      <c r="E267" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>45746.82291666666</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="D268">
+        <v>75</v>
+      </c>
+      <c r="E268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>45746.83333333334</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>36.767</v>
+      </c>
+      <c r="D269">
+        <v>76</v>
+      </c>
+      <c r="E269" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>45746.84375</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>24.473</v>
+      </c>
+      <c r="D270">
+        <v>77</v>
+      </c>
+      <c r="E270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>45746.85416666666</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>16.362</v>
+      </c>
+      <c r="D271">
+        <v>78</v>
+      </c>
+      <c r="E271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>45746.86458333334</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>11.612</v>
+      </c>
+      <c r="D272">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>45746.875</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>23.308</v>
+      </c>
+      <c r="D273">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>45746.88541666666</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>57.174</v>
+      </c>
+      <c r="D274">
+        <v>81</v>
+      </c>
+      <c r="E274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>45746.89583333334</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>40.976</v>
+      </c>
+      <c r="D275">
+        <v>82</v>
+      </c>
+      <c r="E275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>45746.90625</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>19.586</v>
+      </c>
+      <c r="D276">
+        <v>83</v>
+      </c>
+      <c r="E276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>45746.91666666666</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>40.785</v>
+      </c>
+      <c r="D277">
+        <v>84</v>
+      </c>
+      <c r="E277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>45746.92708333334</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>62.1</v>
+      </c>
+      <c r="D278">
+        <v>85</v>
+      </c>
+      <c r="E278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>45746.9375</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>45.016</v>
+      </c>
+      <c r="D279">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>45746.94791666666</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>32.297</v>
+      </c>
+      <c r="D280">
+        <v>87</v>
+      </c>
+      <c r="E280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>45746.95833333334</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>7.094</v>
+      </c>
+      <c r="D281">
+        <v>88</v>
+      </c>
+      <c r="E281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>45746.96875</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>6.98</v>
+      </c>
+      <c r="D282">
+        <v>89</v>
+      </c>
+      <c r="E282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>45746.97916666666</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>6.47</v>
+      </c>
+      <c r="D283">
+        <v>90</v>
+      </c>
+      <c r="E283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45746.98958333334</v>
+      </c>
+      <c r="B284">
+        <v>0.289</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>91</v>
+      </c>
+      <c r="E284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B285">
+        <v>0.09</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>92</v>
+      </c>
+      <c r="E285" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>45747.01041666666</v>
+      </c>
+      <c r="B286">
+        <v>4.397</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>93</v>
+      </c>
+      <c r="E286" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>45747.02083333334</v>
+      </c>
+      <c r="B287">
+        <v>4.779</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>45747.03125</v>
+      </c>
+      <c r="B288">
+        <v>17.056</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>95</v>
+      </c>
+      <c r="E288" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>45747.04166666666</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1.656</v>
+      </c>
+      <c r="D289">
+        <v>96</v>
+      </c>
+      <c r="E289" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>45747.05208333334</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>5.008</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>45747.0625</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>7.713</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>45747.07291666666</v>
+      </c>
+      <c r="B292">
+        <v>5.824</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>45747.08333333334</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>0.073</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+      <c r="E293" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>45747.09375</v>
+      </c>
+      <c r="B294">
+        <v>3.838</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>45747.10416666666</v>
+      </c>
+      <c r="B295">
+        <v>2.97</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>6</v>
+      </c>
+      <c r="E295" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>45747.11458333334</v>
+      </c>
+      <c r="B296">
+        <v>13.548</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>45747.125</v>
+      </c>
+      <c r="B297">
+        <v>8.337</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>45747.13541666666</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>0.751</v>
+      </c>
+      <c r="D298">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>45747.14583333334</v>
+      </c>
+      <c r="B299">
+        <v>2.908</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>10</v>
+      </c>
+      <c r="E299" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>45747.15625</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>7.08</v>
+      </c>
+      <c r="D300">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>45747.16666666666</v>
+      </c>
+      <c r="B301">
+        <v>3.083</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>45747.17708333334</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>0.325</v>
+      </c>
+      <c r="D302">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>45747.1875</v>
+      </c>
+      <c r="B303">
+        <v>4.352</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>45747.19791666666</v>
+      </c>
+      <c r="B304">
+        <v>2.469</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>45747.20833333334</v>
+      </c>
+      <c r="B305">
+        <v>21.333</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>45747.21875</v>
+      </c>
+      <c r="B306">
+        <v>3.324</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>17</v>
+      </c>
+      <c r="E306" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>45747.22916666666</v>
+      </c>
+      <c r="B307">
+        <v>0.484</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>18</v>
+      </c>
+      <c r="E307" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>45747.23958333334</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>15.539</v>
+      </c>
+      <c r="D308">
+        <v>19</v>
+      </c>
+      <c r="E308" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>45747.25</v>
+      </c>
+      <c r="B309">
+        <v>8.897</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>20</v>
+      </c>
+      <c r="E309" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>45747.26041666666</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>0.711</v>
+      </c>
+      <c r="D310">
+        <v>21</v>
+      </c>
+      <c r="E310" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>45747.27083333334</v>
+      </c>
+      <c r="B311">
+        <v>4.234</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>22</v>
+      </c>
+      <c r="E311" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>45747.28125</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>2.071</v>
+      </c>
+      <c r="D312">
+        <v>23</v>
+      </c>
+      <c r="E312" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>45747.29166666666</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>4.194</v>
+      </c>
+      <c r="D313">
+        <v>24</v>
+      </c>
+      <c r="E313" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>45747.30208333334</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>9.804</v>
+      </c>
+      <c r="D314">
+        <v>25</v>
+      </c>
+      <c r="E314" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>45747.3125</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>7.026</v>
+      </c>
+      <c r="D315">
+        <v>26</v>
+      </c>
+      <c r="E315" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>45747.32291666666</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>3.625</v>
+      </c>
+      <c r="D316">
+        <v>27</v>
+      </c>
+      <c r="E316" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>45747.33333333334</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>30.704</v>
+      </c>
+      <c r="D317">
+        <v>28</v>
+      </c>
+      <c r="E317" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>45747.34375</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>8.09</v>
+      </c>
+      <c r="D318">
+        <v>29</v>
+      </c>
+      <c r="E318" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>45747.35416666666</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>4.038</v>
+      </c>
+      <c r="D319">
+        <v>30</v>
+      </c>
+      <c r="E319" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>45747.36458333334</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>1.284</v>
+      </c>
+      <c r="D320">
+        <v>31</v>
+      </c>
+      <c r="E320" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>45747.375</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>19.347</v>
+      </c>
+      <c r="D321">
+        <v>32</v>
+      </c>
+      <c r="E321" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>45747.38541666666</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>16.572</v>
+      </c>
+      <c r="D322">
+        <v>33</v>
+      </c>
+      <c r="E322" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>45747.39583333334</v>
+      </c>
+      <c r="B323">
+        <v>13.931</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>34</v>
+      </c>
+      <c r="E323" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>45747.40625</v>
+      </c>
+      <c r="B324">
+        <v>11.262</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>35</v>
+      </c>
+      <c r="E324" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,394 +31,391 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>03.04.20251</t>
-  </si>
-  <si>
-    <t>03.04.20252</t>
-  </si>
-  <si>
-    <t>03.04.20253</t>
-  </si>
-  <si>
-    <t>03.04.20254</t>
-  </si>
-  <si>
-    <t>03.04.20255</t>
-  </si>
-  <si>
-    <t>03.04.20256</t>
-  </si>
-  <si>
-    <t>03.04.20257</t>
-  </si>
-  <si>
-    <t>03.04.20258</t>
-  </si>
-  <si>
-    <t>03.04.20259</t>
-  </si>
-  <si>
-    <t>03.04.202510</t>
-  </si>
-  <si>
-    <t>03.04.202511</t>
-  </si>
-  <si>
-    <t>03.04.202512</t>
-  </si>
-  <si>
-    <t>03.04.202513</t>
-  </si>
-  <si>
-    <t>03.04.202514</t>
-  </si>
-  <si>
-    <t>03.04.202515</t>
-  </si>
-  <si>
-    <t>03.04.202516</t>
-  </si>
-  <si>
-    <t>03.04.202517</t>
-  </si>
-  <si>
-    <t>03.04.202518</t>
-  </si>
-  <si>
-    <t>03.04.202519</t>
-  </si>
-  <si>
-    <t>03.04.202520</t>
-  </si>
-  <si>
-    <t>03.04.202521</t>
-  </si>
-  <si>
-    <t>03.04.202522</t>
-  </si>
-  <si>
-    <t>03.04.202523</t>
-  </si>
-  <si>
-    <t>03.04.202524</t>
-  </si>
-  <si>
-    <t>03.04.202525</t>
-  </si>
-  <si>
-    <t>03.04.202526</t>
-  </si>
-  <si>
-    <t>03.04.202527</t>
-  </si>
-  <si>
-    <t>03.04.202528</t>
-  </si>
-  <si>
-    <t>03.04.202529</t>
-  </si>
-  <si>
-    <t>03.04.202530</t>
-  </si>
-  <si>
-    <t>03.04.202531</t>
-  </si>
-  <si>
-    <t>03.04.202532</t>
-  </si>
-  <si>
-    <t>03.04.202533</t>
-  </si>
-  <si>
-    <t>03.04.202534</t>
-  </si>
-  <si>
-    <t>03.04.202535</t>
-  </si>
-  <si>
-    <t>03.04.202536</t>
-  </si>
-  <si>
-    <t>03.04.202537</t>
-  </si>
-  <si>
-    <t>03.04.202538</t>
-  </si>
-  <si>
-    <t>03.04.202539</t>
-  </si>
-  <si>
-    <t>03.04.202540</t>
-  </si>
-  <si>
-    <t>03.04.202541</t>
-  </si>
-  <si>
-    <t>03.04.202542</t>
-  </si>
-  <si>
-    <t>03.04.202543</t>
-  </si>
-  <si>
-    <t>03.04.202544</t>
-  </si>
-  <si>
-    <t>03.04.202545</t>
-  </si>
-  <si>
-    <t>03.04.202546</t>
-  </si>
-  <si>
-    <t>03.04.202547</t>
-  </si>
-  <si>
-    <t>03.04.202548</t>
-  </si>
-  <si>
-    <t>03.04.202549</t>
-  </si>
-  <si>
-    <t>03.04.202550</t>
-  </si>
-  <si>
-    <t>03.04.202551</t>
-  </si>
-  <si>
-    <t>03.04.202552</t>
-  </si>
-  <si>
-    <t>03.04.202553</t>
-  </si>
-  <si>
-    <t>03.04.202554</t>
-  </si>
-  <si>
-    <t>03.04.202555</t>
-  </si>
-  <si>
-    <t>03.04.202556</t>
-  </si>
-  <si>
-    <t>03.04.202557</t>
-  </si>
-  <si>
-    <t>03.04.202558</t>
-  </si>
-  <si>
-    <t>03.04.202559</t>
-  </si>
-  <si>
-    <t>03.04.202560</t>
-  </si>
-  <si>
-    <t>03.04.202561</t>
-  </si>
-  <si>
-    <t>03.04.202562</t>
-  </si>
-  <si>
-    <t>03.04.202563</t>
-  </si>
-  <si>
-    <t>03.04.202564</t>
-  </si>
-  <si>
-    <t>03.04.202565</t>
-  </si>
-  <si>
-    <t>03.04.202566</t>
-  </si>
-  <si>
-    <t>03.04.202567</t>
-  </si>
-  <si>
-    <t>03.04.202568</t>
-  </si>
-  <si>
-    <t>03.04.202569</t>
-  </si>
-  <si>
-    <t>03.04.202570</t>
-  </si>
-  <si>
-    <t>03.04.202571</t>
-  </si>
-  <si>
-    <t>03.04.202572</t>
-  </si>
-  <si>
-    <t>03.04.202573</t>
-  </si>
-  <si>
-    <t>03.04.202574</t>
-  </si>
-  <si>
-    <t>03.04.202575</t>
-  </si>
-  <si>
-    <t>03.04.202576</t>
-  </si>
-  <si>
-    <t>03.04.202577</t>
-  </si>
-  <si>
-    <t>03.04.202578</t>
-  </si>
-  <si>
-    <t>03.04.202579</t>
-  </si>
-  <si>
-    <t>03.04.202580</t>
-  </si>
-  <si>
-    <t>03.04.202581</t>
-  </si>
-  <si>
-    <t>03.04.202582</t>
-  </si>
-  <si>
-    <t>03.04.202583</t>
-  </si>
-  <si>
-    <t>03.04.202584</t>
-  </si>
-  <si>
-    <t>03.04.202585</t>
-  </si>
-  <si>
-    <t>03.04.202586</t>
-  </si>
-  <si>
-    <t>03.04.202587</t>
-  </si>
-  <si>
-    <t>03.04.202588</t>
-  </si>
-  <si>
-    <t>03.04.202589</t>
-  </si>
-  <si>
-    <t>03.04.202590</t>
-  </si>
-  <si>
-    <t>03.04.202591</t>
-  </si>
-  <si>
-    <t>03.04.202592</t>
-  </si>
-  <si>
-    <t>04.04.202593</t>
-  </si>
-  <si>
-    <t>04.04.202594</t>
-  </si>
-  <si>
-    <t>04.04.202595</t>
-  </si>
-  <si>
-    <t>04.04.202596</t>
-  </si>
-  <si>
-    <t>04.04.20251</t>
-  </si>
-  <si>
-    <t>04.04.20252</t>
-  </si>
-  <si>
-    <t>04.04.20253</t>
-  </si>
-  <si>
-    <t>04.04.20254</t>
-  </si>
-  <si>
-    <t>04.04.20255</t>
-  </si>
-  <si>
-    <t>04.04.20256</t>
-  </si>
-  <si>
-    <t>04.04.20257</t>
-  </si>
-  <si>
-    <t>04.04.20258</t>
-  </si>
-  <si>
-    <t>04.04.20259</t>
-  </si>
-  <si>
-    <t>04.04.202510</t>
-  </si>
-  <si>
-    <t>04.04.202511</t>
-  </si>
-  <si>
-    <t>04.04.202512</t>
-  </si>
-  <si>
-    <t>04.04.202513</t>
-  </si>
-  <si>
-    <t>04.04.202514</t>
-  </si>
-  <si>
-    <t>04.04.202515</t>
-  </si>
-  <si>
-    <t>04.04.202516</t>
-  </si>
-  <si>
-    <t>04.04.202517</t>
-  </si>
-  <si>
-    <t>04.04.202518</t>
-  </si>
-  <si>
-    <t>04.04.202519</t>
-  </si>
-  <si>
-    <t>04.04.202520</t>
-  </si>
-  <si>
-    <t>04.04.202521</t>
-  </si>
-  <si>
-    <t>04.04.202522</t>
-  </si>
-  <si>
-    <t>04.04.202523</t>
-  </si>
-  <si>
-    <t>04.04.202524</t>
-  </si>
-  <si>
-    <t>04.04.202525</t>
-  </si>
-  <si>
-    <t>04.04.202526</t>
-  </si>
-  <si>
-    <t>04.04.202527</t>
-  </si>
-  <si>
-    <t>04.04.202528</t>
-  </si>
-  <si>
-    <t>04.04.202529</t>
-  </si>
-  <si>
-    <t>04.04.202530</t>
-  </si>
-  <si>
-    <t>04.04.202531</t>
-  </si>
-  <si>
-    <t>04.04.202532</t>
-  </si>
-  <si>
-    <t>04.04.202533</t>
-  </si>
-  <si>
-    <t>04.04.202534</t>
+    <t>10.04.20251</t>
+  </si>
+  <si>
+    <t>10.04.20252</t>
+  </si>
+  <si>
+    <t>10.04.20253</t>
+  </si>
+  <si>
+    <t>10.04.20254</t>
+  </si>
+  <si>
+    <t>10.04.20255</t>
+  </si>
+  <si>
+    <t>10.04.20256</t>
+  </si>
+  <si>
+    <t>10.04.20257</t>
+  </si>
+  <si>
+    <t>10.04.20258</t>
+  </si>
+  <si>
+    <t>10.04.20259</t>
+  </si>
+  <si>
+    <t>10.04.202510</t>
+  </si>
+  <si>
+    <t>10.04.202511</t>
+  </si>
+  <si>
+    <t>10.04.202512</t>
+  </si>
+  <si>
+    <t>10.04.202513</t>
+  </si>
+  <si>
+    <t>10.04.202514</t>
+  </si>
+  <si>
+    <t>10.04.202515</t>
+  </si>
+  <si>
+    <t>10.04.202516</t>
+  </si>
+  <si>
+    <t>10.04.202517</t>
+  </si>
+  <si>
+    <t>10.04.202518</t>
+  </si>
+  <si>
+    <t>10.04.202519</t>
+  </si>
+  <si>
+    <t>10.04.202520</t>
+  </si>
+  <si>
+    <t>10.04.202521</t>
+  </si>
+  <si>
+    <t>10.04.202522</t>
+  </si>
+  <si>
+    <t>10.04.202523</t>
+  </si>
+  <si>
+    <t>10.04.202524</t>
+  </si>
+  <si>
+    <t>10.04.202525</t>
+  </si>
+  <si>
+    <t>10.04.202526</t>
+  </si>
+  <si>
+    <t>10.04.202527</t>
+  </si>
+  <si>
+    <t>10.04.202528</t>
+  </si>
+  <si>
+    <t>10.04.202529</t>
+  </si>
+  <si>
+    <t>10.04.202530</t>
+  </si>
+  <si>
+    <t>10.04.202531</t>
+  </si>
+  <si>
+    <t>10.04.202532</t>
+  </si>
+  <si>
+    <t>10.04.202533</t>
+  </si>
+  <si>
+    <t>10.04.202534</t>
+  </si>
+  <si>
+    <t>10.04.202535</t>
+  </si>
+  <si>
+    <t>10.04.202536</t>
+  </si>
+  <si>
+    <t>10.04.202537</t>
+  </si>
+  <si>
+    <t>10.04.202538</t>
+  </si>
+  <si>
+    <t>10.04.202539</t>
+  </si>
+  <si>
+    <t>10.04.202540</t>
+  </si>
+  <si>
+    <t>10.04.202541</t>
+  </si>
+  <si>
+    <t>10.04.202542</t>
+  </si>
+  <si>
+    <t>10.04.202543</t>
+  </si>
+  <si>
+    <t>10.04.202544</t>
+  </si>
+  <si>
+    <t>10.04.202545</t>
+  </si>
+  <si>
+    <t>10.04.202546</t>
+  </si>
+  <si>
+    <t>10.04.202547</t>
+  </si>
+  <si>
+    <t>10.04.202548</t>
+  </si>
+  <si>
+    <t>10.04.202549</t>
+  </si>
+  <si>
+    <t>10.04.202550</t>
+  </si>
+  <si>
+    <t>10.04.202551</t>
+  </si>
+  <si>
+    <t>10.04.202552</t>
+  </si>
+  <si>
+    <t>10.04.202553</t>
+  </si>
+  <si>
+    <t>10.04.202554</t>
+  </si>
+  <si>
+    <t>10.04.202555</t>
+  </si>
+  <si>
+    <t>10.04.202556</t>
+  </si>
+  <si>
+    <t>10.04.202557</t>
+  </si>
+  <si>
+    <t>10.04.202558</t>
+  </si>
+  <si>
+    <t>10.04.202559</t>
+  </si>
+  <si>
+    <t>10.04.202560</t>
+  </si>
+  <si>
+    <t>10.04.202561</t>
+  </si>
+  <si>
+    <t>10.04.202562</t>
+  </si>
+  <si>
+    <t>10.04.202563</t>
+  </si>
+  <si>
+    <t>10.04.202564</t>
+  </si>
+  <si>
+    <t>10.04.202565</t>
+  </si>
+  <si>
+    <t>10.04.202566</t>
+  </si>
+  <si>
+    <t>10.04.202567</t>
+  </si>
+  <si>
+    <t>10.04.202568</t>
+  </si>
+  <si>
+    <t>10.04.202569</t>
+  </si>
+  <si>
+    <t>10.04.202570</t>
+  </si>
+  <si>
+    <t>10.04.202571</t>
+  </si>
+  <si>
+    <t>10.04.202572</t>
+  </si>
+  <si>
+    <t>10.04.202573</t>
+  </si>
+  <si>
+    <t>10.04.202574</t>
+  </si>
+  <si>
+    <t>10.04.202575</t>
+  </si>
+  <si>
+    <t>10.04.202576</t>
+  </si>
+  <si>
+    <t>10.04.202577</t>
+  </si>
+  <si>
+    <t>10.04.202578</t>
+  </si>
+  <si>
+    <t>10.04.202579</t>
+  </si>
+  <si>
+    <t>10.04.202580</t>
+  </si>
+  <si>
+    <t>10.04.202581</t>
+  </si>
+  <si>
+    <t>10.04.202582</t>
+  </si>
+  <si>
+    <t>10.04.202583</t>
+  </si>
+  <si>
+    <t>10.04.202584</t>
+  </si>
+  <si>
+    <t>10.04.202585</t>
+  </si>
+  <si>
+    <t>10.04.202586</t>
+  </si>
+  <si>
+    <t>10.04.202587</t>
+  </si>
+  <si>
+    <t>10.04.202588</t>
+  </si>
+  <si>
+    <t>10.04.202589</t>
+  </si>
+  <si>
+    <t>10.04.202590</t>
+  </si>
+  <si>
+    <t>10.04.202591</t>
+  </si>
+  <si>
+    <t>10.04.202592</t>
+  </si>
+  <si>
+    <t>11.04.202593</t>
+  </si>
+  <si>
+    <t>11.04.202594</t>
+  </si>
+  <si>
+    <t>11.04.202595</t>
+  </si>
+  <si>
+    <t>11.04.202596</t>
+  </si>
+  <si>
+    <t>11.04.20251</t>
+  </si>
+  <si>
+    <t>11.04.20252</t>
+  </si>
+  <si>
+    <t>11.04.20253</t>
+  </si>
+  <si>
+    <t>11.04.20254</t>
+  </si>
+  <si>
+    <t>11.04.20255</t>
+  </si>
+  <si>
+    <t>11.04.20256</t>
+  </si>
+  <si>
+    <t>11.04.20257</t>
+  </si>
+  <si>
+    <t>11.04.20258</t>
+  </si>
+  <si>
+    <t>11.04.20259</t>
+  </si>
+  <si>
+    <t>11.04.202510</t>
+  </si>
+  <si>
+    <t>11.04.202511</t>
+  </si>
+  <si>
+    <t>11.04.202512</t>
+  </si>
+  <si>
+    <t>11.04.202513</t>
+  </si>
+  <si>
+    <t>11.04.202514</t>
+  </si>
+  <si>
+    <t>11.04.202515</t>
+  </si>
+  <si>
+    <t>11.04.202516</t>
+  </si>
+  <si>
+    <t>11.04.202517</t>
+  </si>
+  <si>
+    <t>11.04.202518</t>
+  </si>
+  <si>
+    <t>11.04.202519</t>
+  </si>
+  <si>
+    <t>11.04.202520</t>
+  </si>
+  <si>
+    <t>11.04.202521</t>
+  </si>
+  <si>
+    <t>11.04.202522</t>
+  </si>
+  <si>
+    <t>11.04.202523</t>
+  </si>
+  <si>
+    <t>11.04.202524</t>
+  </si>
+  <si>
+    <t>11.04.202525</t>
+  </si>
+  <si>
+    <t>11.04.202526</t>
+  </si>
+  <si>
+    <t>11.04.202527</t>
+  </si>
+  <si>
+    <t>11.04.202528</t>
+  </si>
+  <si>
+    <t>11.04.202529</t>
+  </si>
+  <si>
+    <t>11.04.202530</t>
+  </si>
+  <si>
+    <t>11.04.202531</t>
+  </si>
+  <si>
+    <t>11.04.202532</t>
+  </si>
+  <si>
+    <t>11.04.202533</t>
   </si>
 </sst>
 </file>
@@ -780,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -805,13 +802,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45750.04166666666</v>
+        <v>45757.04166666666</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>15.829</v>
       </c>
       <c r="C2">
-        <v>9.195</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -822,13 +819,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45750.05208333334</v>
+        <v>45757.05208333334</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>17.377</v>
+        <v>1.715</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -839,13 +836,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45750.0625</v>
+        <v>45757.0625</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="C4">
-        <v>22.001</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -856,13 +853,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45750.07291666666</v>
+        <v>45757.07291666666</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.026</v>
       </c>
       <c r="C5">
-        <v>13.032</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -873,13 +870,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45750.08333333334</v>
+        <v>45757.08333333334</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7.968</v>
       </c>
       <c r="C6">
-        <v>13.968</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -890,13 +887,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45750.09375</v>
+        <v>45757.09375</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.209</v>
+        <v>2.385</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -907,13 +904,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45750.10416666666</v>
+        <v>45757.10416666666</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>17.824</v>
       </c>
       <c r="C8">
-        <v>22.287</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -924,13 +921,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45750.11458333334</v>
+        <v>45757.11458333334</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>14.179</v>
       </c>
       <c r="C9">
-        <v>29.073</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -941,13 +938,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45750.125</v>
+        <v>45757.125</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>23.111</v>
       </c>
       <c r="C10">
-        <v>34.651</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -958,13 +955,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45750.13541666666</v>
+        <v>45757.13541666666</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>27.953</v>
       </c>
       <c r="C11">
-        <v>36.247</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -975,13 +972,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45750.14583333334</v>
+        <v>45757.14583333334</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>43.532</v>
       </c>
       <c r="C12">
-        <v>26.303</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -992,13 +989,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45750.15625</v>
+        <v>45757.15625</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>11.541</v>
       </c>
       <c r="C13">
-        <v>32.509</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1009,13 +1006,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45750.16666666666</v>
+        <v>45757.16666666666</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>23.61</v>
       </c>
       <c r="C14">
-        <v>14.506</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1026,13 +1023,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45750.17708333334</v>
+        <v>45757.17708333334</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>30.066</v>
       </c>
       <c r="C15">
-        <v>4.697</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1043,10 +1040,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45750.1875</v>
+        <v>45757.1875</v>
       </c>
       <c r="B16">
-        <v>7.56</v>
+        <v>12.908</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1060,13 +1057,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45750.19791666666</v>
+        <v>45757.19791666666</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.038</v>
       </c>
       <c r="C17">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1077,10 +1074,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45750.20833333334</v>
+        <v>45757.20833333334</v>
       </c>
       <c r="B18">
-        <v>22.845</v>
+        <v>3.091</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1094,13 +1091,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45750.21875</v>
+        <v>45757.21875</v>
       </c>
       <c r="B19">
-        <v>14.342</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.879</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1111,13 +1108,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45750.22916666666</v>
+        <v>45757.22916666666</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.38</v>
+        <v>9.308</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1128,13 +1125,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45750.23958333334</v>
+        <v>45757.23958333334</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.587</v>
+        <v>7.877</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1145,13 +1142,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45750.25</v>
+        <v>45757.25</v>
       </c>
       <c r="B22">
-        <v>5.733</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.982</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1162,13 +1159,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45750.26041666666</v>
+        <v>45757.26041666666</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2.979</v>
       </c>
       <c r="C23">
-        <v>1.425</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1179,13 +1176,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45750.27083333334</v>
+        <v>45757.27083333334</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.22</v>
+        <v>11.555</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1196,13 +1193,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45750.28125</v>
+        <v>45757.28125</v>
       </c>
       <c r="B25">
-        <v>1.736</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>15.807</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1213,13 +1210,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45750.29166666666</v>
+        <v>45757.29166666666</v>
       </c>
       <c r="B26">
-        <v>5.589</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>16.837</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1230,13 +1227,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45750.30208333334</v>
+        <v>45757.30208333334</v>
       </c>
       <c r="B27">
-        <v>1.954</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>6.849</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1247,13 +1244,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45750.3125</v>
+        <v>45757.3125</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>8.212999999999999</v>
+        <v>22.787</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1264,13 +1261,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45750.32291666666</v>
+        <v>45757.32291666666</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>32.822</v>
+        <v>55.752</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1281,13 +1278,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45750.33333333334</v>
+        <v>45757.33333333334</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>44.843</v>
+        <v>19.51</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1298,13 +1295,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45750.34375</v>
+        <v>45757.34375</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>14.045</v>
+        <v>15.364</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1315,13 +1312,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45750.35416666666</v>
+        <v>45757.35416666666</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>26.47</v>
+        <v>12.253</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1332,13 +1329,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45750.36458333334</v>
+        <v>45757.36458333334</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>21.413</v>
+        <v>5.789</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1349,13 +1346,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45750.375</v>
+        <v>45757.375</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>43.963</v>
+        <v>45.452</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1366,13 +1363,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45750.38541666666</v>
+        <v>45757.38541666666</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>48.168</v>
+        <v>32.182</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1383,13 +1380,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45750.39583333334</v>
+        <v>45757.39583333334</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>44.356</v>
+        <v>24.091</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1400,13 +1397,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45750.40625</v>
+        <v>45757.40625</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2.773</v>
       </c>
       <c r="C37">
-        <v>60.298</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1417,13 +1414,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45750.41666666666</v>
+        <v>45757.41666666666</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>16.377</v>
+        <v>14.272</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1434,13 +1431,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45750.42708333334</v>
+        <v>45757.42708333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2.328</v>
       </c>
       <c r="C39">
-        <v>3.686</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1451,13 +1448,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45750.4375</v>
+        <v>45757.4375</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="C40">
-        <v>25.454</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1468,13 +1465,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45750.44791666666</v>
+        <v>45757.44791666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>7.782</v>
       </c>
       <c r="C41">
-        <v>20.483</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1485,13 +1482,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45750.45833333334</v>
+        <v>45757.45833333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="C42">
-        <v>17.955</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1502,13 +1499,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45750.46875</v>
+        <v>45757.46875</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>16.147</v>
       </c>
       <c r="C43">
-        <v>15.08</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1519,13 +1516,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45750.47916666666</v>
+        <v>45757.47916666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>54.688</v>
       </c>
       <c r="C44">
-        <v>6.026</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1536,13 +1533,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45750.48958333334</v>
+        <v>45757.48958333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>31.226</v>
       </c>
       <c r="C45">
-        <v>5.134</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1553,13 +1550,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45750.5</v>
+        <v>45757.5</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>8.547000000000001</v>
+        <v>21.293</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1570,13 +1567,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45750.51041666666</v>
+        <v>45757.51041666666</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>3.13</v>
+        <v>49.643</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1587,13 +1584,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45750.52083333334</v>
+        <v>45757.52083333334</v>
       </c>
       <c r="B48">
-        <v>1.189</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>19.853</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1604,13 +1601,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45750.53125</v>
+        <v>45757.53125</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0.794</v>
+        <v>12.633</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1621,13 +1618,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45750.54166666666</v>
+        <v>45757.54166666666</v>
       </c>
       <c r="B50">
-        <v>1.601</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>56.47</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1638,13 +1635,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45750.55208333334</v>
+        <v>45757.55208333334</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>10.656</v>
+        <v>54.84</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1655,13 +1652,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45750.5625</v>
+        <v>45757.5625</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>14.571</v>
+        <v>57.912</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1672,13 +1669,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45750.57291666666</v>
+        <v>45757.57291666666</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>7.674</v>
+        <v>60.927</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1689,13 +1686,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45750.58333333334</v>
+        <v>45757.58333333334</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>5.616</v>
+        <v>54.636</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1706,13 +1703,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45750.59375</v>
+        <v>45757.59375</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>6.438</v>
+        <v>31.168</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1723,13 +1720,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45750.60416666666</v>
+        <v>45757.60416666666</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1.683</v>
+        <v>65.958</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1740,13 +1737,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45750.61458333334</v>
+        <v>45757.61458333334</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2.605</v>
+        <v>70.614</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1757,10 +1754,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45750.625</v>
+        <v>45757.625</v>
       </c>
       <c r="B58">
-        <v>2.264</v>
+        <v>1.323</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1774,13 +1771,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45750.63541666666</v>
+        <v>45757.63541666666</v>
       </c>
       <c r="B59">
-        <v>12.273</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>3.915</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1791,13 +1788,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45750.64583333334</v>
+        <v>45757.64583333334</v>
       </c>
       <c r="B60">
-        <v>14.684</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.162</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1808,10 +1805,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45750.65625</v>
+        <v>45757.65625</v>
       </c>
       <c r="B61">
-        <v>4.1</v>
+        <v>10.543</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1825,10 +1822,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45750.66666666666</v>
+        <v>45757.66666666666</v>
       </c>
       <c r="B62">
-        <v>35.723</v>
+        <v>10.845</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1842,10 +1839,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45750.67708333334</v>
+        <v>45757.67708333334</v>
       </c>
       <c r="B63">
-        <v>29.252</v>
+        <v>28.762</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1859,13 +1856,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45750.6875</v>
+        <v>45757.6875</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>45.496</v>
       </c>
       <c r="C64">
-        <v>12.565</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1876,13 +1873,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45750.69791666666</v>
+        <v>45757.69791666666</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="C65">
-        <v>23.611</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1893,13 +1890,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45750.70833333334</v>
+        <v>45757.70833333334</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>4.909</v>
+        <v>3.343</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1910,13 +1907,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45750.71875</v>
+        <v>45757.71875</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>18.415</v>
+        <v>9.446</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1927,13 +1924,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45750.72916666666</v>
+        <v>45757.72916666666</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>2.102</v>
       </c>
       <c r="C68">
-        <v>16.109</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1944,13 +1941,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45750.73958333334</v>
+        <v>45757.73958333334</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>3.248</v>
+        <v>4.745</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1961,13 +1958,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45750.75</v>
+        <v>45757.75</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>8.744999999999999</v>
+        <v>12.963</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1978,13 +1975,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45750.76041666666</v>
+        <v>45757.76041666666</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>3.268</v>
+        <v>12.001</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1995,13 +1992,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45750.77083333334</v>
+        <v>45757.77083333334</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>13.853</v>
+        <v>17.671</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2012,13 +2009,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45750.78125</v>
+        <v>45757.78125</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>7.306</v>
+        <v>6.297</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2029,13 +2026,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45750.79166666666</v>
+        <v>45757.79166666666</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>29.886</v>
+        <v>12.582</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2046,13 +2043,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45750.80208333334</v>
+        <v>45757.80208333334</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>2.628</v>
       </c>
       <c r="C75">
-        <v>15.059</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2063,13 +2060,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45750.8125</v>
+        <v>45757.8125</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1.562</v>
+        <v>21.574</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2080,13 +2077,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45750.82291666666</v>
+        <v>45757.82291666666</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>4.726</v>
       </c>
       <c r="C77">
-        <v>3.463</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2097,13 +2094,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45750.83333333334</v>
+        <v>45757.83333333334</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>21.719</v>
+        <v>9.439</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2114,13 +2111,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45750.84375</v>
+        <v>45757.84375</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>22.483</v>
+        <v>13.04</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2131,13 +2128,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45750.85416666666</v>
+        <v>45757.85416666666</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>41.923</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2148,13 +2145,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45750.86458333334</v>
+        <v>45757.86458333334</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>16.11</v>
       </c>
       <c r="C81">
-        <v>22.05</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2165,13 +2162,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45750.875</v>
+        <v>45757.875</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>6.475</v>
+        <v>5.589</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2182,13 +2179,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45750.88541666666</v>
+        <v>45757.88541666666</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>10.282</v>
       </c>
       <c r="C83">
-        <v>14.883</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2199,13 +2196,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45750.89583333334</v>
+        <v>45757.89583333334</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>42.899</v>
       </c>
       <c r="C84">
-        <v>14.566</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2216,10 +2213,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45750.90625</v>
+        <v>45757.90625</v>
       </c>
       <c r="B85">
-        <v>0.26</v>
+        <v>15.057</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2233,13 +2230,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45750.91666666666</v>
+        <v>45757.91666666666</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>20.982</v>
+        <v>17.99</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2250,13 +2247,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45750.92708333334</v>
+        <v>45757.92708333334</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.588</v>
       </c>
       <c r="C87">
-        <v>46.273</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2267,13 +2264,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45750.9375</v>
+        <v>45757.9375</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>38.842</v>
+        <v>4.846</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2284,13 +2281,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45750.94791666666</v>
+        <v>45757.94791666666</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>62.346</v>
+        <v>2.783</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2301,13 +2298,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45750.95833333334</v>
+        <v>45757.95833333334</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>22.228</v>
+        <v>9.009</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2318,13 +2315,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45750.96875</v>
+        <v>45757.96875</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1.389</v>
       </c>
       <c r="C91">
-        <v>37.32</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2335,13 +2332,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45750.97916666666</v>
+        <v>45757.97916666666</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>23.422</v>
+        <v>1.846</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2352,13 +2349,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45750.98958333334</v>
+        <v>45757.98958333334</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1.448</v>
       </c>
       <c r="C93">
-        <v>3.947</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2369,13 +2366,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="B94">
-        <v>3.534</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>15.245</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2386,13 +2383,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>24.969</v>
+        <v>9.085000000000001</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2403,13 +2400,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>12.206</v>
+        <v>9.058</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2420,13 +2417,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>22.063</v>
+        <v>6.565</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2437,13 +2434,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>2.586</v>
+        <v>5.089</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2454,13 +2451,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>5.662</v>
+        <v>2.444</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2471,13 +2468,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>2.535</v>
+        <v>2.978</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2488,13 +2485,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>8.436</v>
+        <v>6.684</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2505,13 +2502,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
       <c r="B102">
-        <v>8.342000000000001</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>2.147</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2522,13 +2519,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
       <c r="B103">
-        <v>3.992</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>9.243</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2539,13 +2536,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
       <c r="B104">
-        <v>8.808999999999999</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>6.204</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2556,13 +2553,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
       <c r="B105">
-        <v>1.643</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>17.894</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2573,13 +2570,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>7.049</v>
       </c>
       <c r="C106">
-        <v>6.483</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2590,10 +2587,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
       <c r="B107">
-        <v>3.998</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2607,13 +2604,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>2.019</v>
+        <v>1.129</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2624,13 +2621,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
       <c r="B109">
-        <v>2.682</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.917</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2641,10 +2638,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
       <c r="B110">
-        <v>5.341</v>
+        <v>12.695</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2658,13 +2655,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
       <c r="B111">
-        <v>20.86</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>4.645</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2675,13 +2672,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
       <c r="B112">
-        <v>18.514</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>8.587999999999999</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2692,13 +2689,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
       <c r="B113">
-        <v>19.249</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>5.313</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2709,10 +2706,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
       <c r="B114">
-        <v>24.09</v>
+        <v>11.238</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2726,13 +2723,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
       <c r="B115">
-        <v>17.883</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>10.267</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2743,13 +2740,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
       <c r="B116">
-        <v>10.153</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>19.457</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2760,13 +2757,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>7.813</v>
+        <v>28.069</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2777,10 +2774,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
       <c r="B118">
-        <v>13.634</v>
+        <v>5.123</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2794,13 +2791,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
       <c r="B119">
-        <v>11.132</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>5.604</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2811,13 +2808,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
       <c r="B120">
-        <v>4.528</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>26.282</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2828,13 +2825,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
       <c r="B121">
-        <v>5.335</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>66.82599999999999</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -2845,13 +2842,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
       <c r="B122">
-        <v>27.481</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>48.156</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -2862,13 +2859,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
       <c r="B123">
-        <v>18.037</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>44.772</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -2879,13 +2876,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
       <c r="B124">
-        <v>5.387</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>36.16</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -2896,13 +2893,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
       <c r="B125">
-        <v>20.884</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>8.234999999999999</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -2913,13 +2910,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
       <c r="B126">
-        <v>12.711</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>5.302</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -2930,13 +2927,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
       <c r="B127">
-        <v>3.684</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>21.488</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -2947,13 +2944,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
       <c r="B128">
-        <v>9.605</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>15.161</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -2964,10 +2961,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
       <c r="B129">
-        <v>45.582</v>
+        <v>13.535</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2981,36 +2978,19 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45751.375</v>
+        <v>45758.375</v>
       </c>
       <c r="B130">
-        <v>5.121</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>21.247</v>
       </c>
       <c r="D130">
         <v>33</v>
       </c>
       <c r="E130" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="2">
-        <v>45751.38541666666</v>
-      </c>
-      <c r="B131">
-        <v>7.789</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>34</v>
-      </c>
-      <c r="E131" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,391 +31,394 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>10.04.20251</t>
-  </si>
-  <si>
-    <t>10.04.20252</t>
-  </si>
-  <si>
-    <t>10.04.20253</t>
-  </si>
-  <si>
-    <t>10.04.20254</t>
-  </si>
-  <si>
-    <t>10.04.20255</t>
-  </si>
-  <si>
-    <t>10.04.20256</t>
-  </si>
-  <si>
-    <t>10.04.20257</t>
-  </si>
-  <si>
-    <t>10.04.20258</t>
-  </si>
-  <si>
-    <t>10.04.20259</t>
-  </si>
-  <si>
-    <t>10.04.202510</t>
-  </si>
-  <si>
-    <t>10.04.202511</t>
-  </si>
-  <si>
-    <t>10.04.202512</t>
-  </si>
-  <si>
-    <t>10.04.202513</t>
-  </si>
-  <si>
-    <t>10.04.202514</t>
-  </si>
-  <si>
-    <t>10.04.202515</t>
-  </si>
-  <si>
-    <t>10.04.202516</t>
-  </si>
-  <si>
-    <t>10.04.202517</t>
-  </si>
-  <si>
-    <t>10.04.202518</t>
-  </si>
-  <si>
-    <t>10.04.202519</t>
-  </si>
-  <si>
-    <t>10.04.202520</t>
-  </si>
-  <si>
-    <t>10.04.202521</t>
-  </si>
-  <si>
-    <t>10.04.202522</t>
-  </si>
-  <si>
-    <t>10.04.202523</t>
-  </si>
-  <si>
-    <t>10.04.202524</t>
-  </si>
-  <si>
-    <t>10.04.202525</t>
-  </si>
-  <si>
-    <t>10.04.202526</t>
-  </si>
-  <si>
-    <t>10.04.202527</t>
-  </si>
-  <si>
-    <t>10.04.202528</t>
-  </si>
-  <si>
-    <t>10.04.202529</t>
-  </si>
-  <si>
-    <t>10.04.202530</t>
-  </si>
-  <si>
-    <t>10.04.202531</t>
-  </si>
-  <si>
-    <t>10.04.202532</t>
-  </si>
-  <si>
-    <t>10.04.202533</t>
-  </si>
-  <si>
-    <t>10.04.202534</t>
-  </si>
-  <si>
-    <t>10.04.202535</t>
-  </si>
-  <si>
-    <t>10.04.202536</t>
-  </si>
-  <si>
-    <t>10.04.202537</t>
-  </si>
-  <si>
-    <t>10.04.202538</t>
-  </si>
-  <si>
-    <t>10.04.202539</t>
-  </si>
-  <si>
-    <t>10.04.202540</t>
-  </si>
-  <si>
-    <t>10.04.202541</t>
-  </si>
-  <si>
-    <t>10.04.202542</t>
-  </si>
-  <si>
-    <t>10.04.202543</t>
-  </si>
-  <si>
-    <t>10.04.202544</t>
-  </si>
-  <si>
-    <t>10.04.202545</t>
-  </si>
-  <si>
-    <t>10.04.202546</t>
-  </si>
-  <si>
-    <t>10.04.202547</t>
-  </si>
-  <si>
-    <t>10.04.202548</t>
-  </si>
-  <si>
-    <t>10.04.202549</t>
-  </si>
-  <si>
-    <t>10.04.202550</t>
-  </si>
-  <si>
-    <t>10.04.202551</t>
-  </si>
-  <si>
-    <t>10.04.202552</t>
-  </si>
-  <si>
-    <t>10.04.202553</t>
-  </si>
-  <si>
-    <t>10.04.202554</t>
-  </si>
-  <si>
-    <t>10.04.202555</t>
-  </si>
-  <si>
-    <t>10.04.202556</t>
-  </si>
-  <si>
-    <t>10.04.202557</t>
-  </si>
-  <si>
-    <t>10.04.202558</t>
-  </si>
-  <si>
-    <t>10.04.202559</t>
-  </si>
-  <si>
-    <t>10.04.202560</t>
-  </si>
-  <si>
-    <t>10.04.202561</t>
-  </si>
-  <si>
-    <t>10.04.202562</t>
-  </si>
-  <si>
-    <t>10.04.202563</t>
-  </si>
-  <si>
-    <t>10.04.202564</t>
-  </si>
-  <si>
-    <t>10.04.202565</t>
-  </si>
-  <si>
-    <t>10.04.202566</t>
-  </si>
-  <si>
-    <t>10.04.202567</t>
-  </si>
-  <si>
-    <t>10.04.202568</t>
-  </si>
-  <si>
-    <t>10.04.202569</t>
-  </si>
-  <si>
-    <t>10.04.202570</t>
-  </si>
-  <si>
-    <t>10.04.202571</t>
-  </si>
-  <si>
-    <t>10.04.202572</t>
-  </si>
-  <si>
-    <t>10.04.202573</t>
-  </si>
-  <si>
-    <t>10.04.202574</t>
-  </si>
-  <si>
-    <t>10.04.202575</t>
-  </si>
-  <si>
-    <t>10.04.202576</t>
-  </si>
-  <si>
-    <t>10.04.202577</t>
-  </si>
-  <si>
-    <t>10.04.202578</t>
-  </si>
-  <si>
-    <t>10.04.202579</t>
-  </si>
-  <si>
-    <t>10.04.202580</t>
-  </si>
-  <si>
-    <t>10.04.202581</t>
-  </si>
-  <si>
-    <t>10.04.202582</t>
-  </si>
-  <si>
-    <t>10.04.202583</t>
-  </si>
-  <si>
-    <t>10.04.202584</t>
-  </si>
-  <si>
-    <t>10.04.202585</t>
-  </si>
-  <si>
-    <t>10.04.202586</t>
-  </si>
-  <si>
-    <t>10.04.202587</t>
-  </si>
-  <si>
-    <t>10.04.202588</t>
-  </si>
-  <si>
-    <t>10.04.202589</t>
-  </si>
-  <si>
-    <t>10.04.202590</t>
-  </si>
-  <si>
-    <t>10.04.202591</t>
-  </si>
-  <si>
-    <t>10.04.202592</t>
-  </si>
-  <si>
-    <t>11.04.202593</t>
-  </si>
-  <si>
-    <t>11.04.202594</t>
-  </si>
-  <si>
-    <t>11.04.202595</t>
-  </si>
-  <si>
-    <t>11.04.202596</t>
-  </si>
-  <si>
-    <t>11.04.20251</t>
-  </si>
-  <si>
-    <t>11.04.20252</t>
-  </si>
-  <si>
-    <t>11.04.20253</t>
-  </si>
-  <si>
-    <t>11.04.20254</t>
-  </si>
-  <si>
-    <t>11.04.20255</t>
-  </si>
-  <si>
-    <t>11.04.20256</t>
-  </si>
-  <si>
-    <t>11.04.20257</t>
-  </si>
-  <si>
-    <t>11.04.20258</t>
-  </si>
-  <si>
-    <t>11.04.20259</t>
-  </si>
-  <si>
-    <t>11.04.202510</t>
-  </si>
-  <si>
-    <t>11.04.202511</t>
-  </si>
-  <si>
-    <t>11.04.202512</t>
-  </si>
-  <si>
-    <t>11.04.202513</t>
-  </si>
-  <si>
-    <t>11.04.202514</t>
-  </si>
-  <si>
-    <t>11.04.202515</t>
-  </si>
-  <si>
-    <t>11.04.202516</t>
-  </si>
-  <si>
-    <t>11.04.202517</t>
-  </si>
-  <si>
-    <t>11.04.202518</t>
-  </si>
-  <si>
-    <t>11.04.202519</t>
-  </si>
-  <si>
-    <t>11.04.202520</t>
-  </si>
-  <si>
-    <t>11.04.202521</t>
-  </si>
-  <si>
-    <t>11.04.202522</t>
-  </si>
-  <si>
-    <t>11.04.202523</t>
-  </si>
-  <si>
-    <t>11.04.202524</t>
-  </si>
-  <si>
-    <t>11.04.202525</t>
-  </si>
-  <si>
-    <t>11.04.202526</t>
-  </si>
-  <si>
-    <t>11.04.202527</t>
-  </si>
-  <si>
-    <t>11.04.202528</t>
-  </si>
-  <si>
-    <t>11.04.202529</t>
-  </si>
-  <si>
-    <t>11.04.202530</t>
-  </si>
-  <si>
-    <t>11.04.202531</t>
-  </si>
-  <si>
-    <t>11.04.202532</t>
-  </si>
-  <si>
-    <t>11.04.202533</t>
+    <t>28.04.20251</t>
+  </si>
+  <si>
+    <t>28.04.20252</t>
+  </si>
+  <si>
+    <t>28.04.20253</t>
+  </si>
+  <si>
+    <t>28.04.20254</t>
+  </si>
+  <si>
+    <t>28.04.20255</t>
+  </si>
+  <si>
+    <t>28.04.20256</t>
+  </si>
+  <si>
+    <t>28.04.20257</t>
+  </si>
+  <si>
+    <t>28.04.20258</t>
+  </si>
+  <si>
+    <t>28.04.20259</t>
+  </si>
+  <si>
+    <t>28.04.202510</t>
+  </si>
+  <si>
+    <t>28.04.202511</t>
+  </si>
+  <si>
+    <t>28.04.202512</t>
+  </si>
+  <si>
+    <t>28.04.202513</t>
+  </si>
+  <si>
+    <t>28.04.202514</t>
+  </si>
+  <si>
+    <t>28.04.202515</t>
+  </si>
+  <si>
+    <t>28.04.202516</t>
+  </si>
+  <si>
+    <t>28.04.202517</t>
+  </si>
+  <si>
+    <t>28.04.202518</t>
+  </si>
+  <si>
+    <t>28.04.202519</t>
+  </si>
+  <si>
+    <t>28.04.202520</t>
+  </si>
+  <si>
+    <t>28.04.202521</t>
+  </si>
+  <si>
+    <t>28.04.202522</t>
+  </si>
+  <si>
+    <t>28.04.202523</t>
+  </si>
+  <si>
+    <t>28.04.202524</t>
+  </si>
+  <si>
+    <t>28.04.202525</t>
+  </si>
+  <si>
+    <t>28.04.202526</t>
+  </si>
+  <si>
+    <t>28.04.202527</t>
+  </si>
+  <si>
+    <t>28.04.202528</t>
+  </si>
+  <si>
+    <t>28.04.202529</t>
+  </si>
+  <si>
+    <t>28.04.202530</t>
+  </si>
+  <si>
+    <t>28.04.202531</t>
+  </si>
+  <si>
+    <t>28.04.202532</t>
+  </si>
+  <si>
+    <t>28.04.202533</t>
+  </si>
+  <si>
+    <t>28.04.202534</t>
+  </si>
+  <si>
+    <t>28.04.202535</t>
+  </si>
+  <si>
+    <t>28.04.202536</t>
+  </si>
+  <si>
+    <t>28.04.202537</t>
+  </si>
+  <si>
+    <t>28.04.202538</t>
+  </si>
+  <si>
+    <t>28.04.202539</t>
+  </si>
+  <si>
+    <t>28.04.202540</t>
+  </si>
+  <si>
+    <t>28.04.202541</t>
+  </si>
+  <si>
+    <t>28.04.202542</t>
+  </si>
+  <si>
+    <t>28.04.202543</t>
+  </si>
+  <si>
+    <t>28.04.202544</t>
+  </si>
+  <si>
+    <t>28.04.202545</t>
+  </si>
+  <si>
+    <t>28.04.202546</t>
+  </si>
+  <si>
+    <t>28.04.202547</t>
+  </si>
+  <si>
+    <t>28.04.202548</t>
+  </si>
+  <si>
+    <t>28.04.202549</t>
+  </si>
+  <si>
+    <t>28.04.202550</t>
+  </si>
+  <si>
+    <t>28.04.202551</t>
+  </si>
+  <si>
+    <t>28.04.202552</t>
+  </si>
+  <si>
+    <t>28.04.202553</t>
+  </si>
+  <si>
+    <t>28.04.202554</t>
+  </si>
+  <si>
+    <t>28.04.202555</t>
+  </si>
+  <si>
+    <t>28.04.202556</t>
+  </si>
+  <si>
+    <t>28.04.202557</t>
+  </si>
+  <si>
+    <t>28.04.202558</t>
+  </si>
+  <si>
+    <t>28.04.202559</t>
+  </si>
+  <si>
+    <t>28.04.202560</t>
+  </si>
+  <si>
+    <t>28.04.202561</t>
+  </si>
+  <si>
+    <t>28.04.202562</t>
+  </si>
+  <si>
+    <t>28.04.202563</t>
+  </si>
+  <si>
+    <t>28.04.202564</t>
+  </si>
+  <si>
+    <t>28.04.202565</t>
+  </si>
+  <si>
+    <t>28.04.202566</t>
+  </si>
+  <si>
+    <t>28.04.202567</t>
+  </si>
+  <si>
+    <t>28.04.202568</t>
+  </si>
+  <si>
+    <t>28.04.202569</t>
+  </si>
+  <si>
+    <t>28.04.202570</t>
+  </si>
+  <si>
+    <t>28.04.202571</t>
+  </si>
+  <si>
+    <t>28.04.202572</t>
+  </si>
+  <si>
+    <t>28.04.202573</t>
+  </si>
+  <si>
+    <t>28.04.202574</t>
+  </si>
+  <si>
+    <t>28.04.202575</t>
+  </si>
+  <si>
+    <t>28.04.202576</t>
+  </si>
+  <si>
+    <t>28.04.202577</t>
+  </si>
+  <si>
+    <t>28.04.202578</t>
+  </si>
+  <si>
+    <t>28.04.202579</t>
+  </si>
+  <si>
+    <t>28.04.202580</t>
+  </si>
+  <si>
+    <t>28.04.202581</t>
+  </si>
+  <si>
+    <t>28.04.202582</t>
+  </si>
+  <si>
+    <t>28.04.202583</t>
+  </si>
+  <si>
+    <t>28.04.202584</t>
+  </si>
+  <si>
+    <t>28.04.202585</t>
+  </si>
+  <si>
+    <t>28.04.202586</t>
+  </si>
+  <si>
+    <t>28.04.202587</t>
+  </si>
+  <si>
+    <t>28.04.202588</t>
+  </si>
+  <si>
+    <t>28.04.202589</t>
+  </si>
+  <si>
+    <t>28.04.202590</t>
+  </si>
+  <si>
+    <t>28.04.202591</t>
+  </si>
+  <si>
+    <t>28.04.202592</t>
+  </si>
+  <si>
+    <t>29.04.202593</t>
+  </si>
+  <si>
+    <t>29.04.202594</t>
+  </si>
+  <si>
+    <t>29.04.202595</t>
+  </si>
+  <si>
+    <t>29.04.202596</t>
+  </si>
+  <si>
+    <t>29.04.20251</t>
+  </si>
+  <si>
+    <t>29.04.20252</t>
+  </si>
+  <si>
+    <t>29.04.20253</t>
+  </si>
+  <si>
+    <t>29.04.20254</t>
+  </si>
+  <si>
+    <t>29.04.20255</t>
+  </si>
+  <si>
+    <t>29.04.20256</t>
+  </si>
+  <si>
+    <t>29.04.20257</t>
+  </si>
+  <si>
+    <t>29.04.20258</t>
+  </si>
+  <si>
+    <t>29.04.20259</t>
+  </si>
+  <si>
+    <t>29.04.202510</t>
+  </si>
+  <si>
+    <t>29.04.202511</t>
+  </si>
+  <si>
+    <t>29.04.202512</t>
+  </si>
+  <si>
+    <t>29.04.202513</t>
+  </si>
+  <si>
+    <t>29.04.202514</t>
+  </si>
+  <si>
+    <t>29.04.202515</t>
+  </si>
+  <si>
+    <t>29.04.202516</t>
+  </si>
+  <si>
+    <t>29.04.202517</t>
+  </si>
+  <si>
+    <t>29.04.202518</t>
+  </si>
+  <si>
+    <t>29.04.202519</t>
+  </si>
+  <si>
+    <t>29.04.202520</t>
+  </si>
+  <si>
+    <t>29.04.202521</t>
+  </si>
+  <si>
+    <t>29.04.202522</t>
+  </si>
+  <si>
+    <t>29.04.202523</t>
+  </si>
+  <si>
+    <t>29.04.202524</t>
+  </si>
+  <si>
+    <t>29.04.202525</t>
+  </si>
+  <si>
+    <t>29.04.202526</t>
+  </si>
+  <si>
+    <t>29.04.202527</t>
+  </si>
+  <si>
+    <t>29.04.202528</t>
+  </si>
+  <si>
+    <t>29.04.202529</t>
+  </si>
+  <si>
+    <t>29.04.202530</t>
+  </si>
+  <si>
+    <t>29.04.202531</t>
+  </si>
+  <si>
+    <t>29.04.202532</t>
+  </si>
+  <si>
+    <t>29.04.202533</t>
+  </si>
+  <si>
+    <t>29.04.202534</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,10 +805,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45757.04166666666</v>
+        <v>45775.04166666666</v>
       </c>
       <c r="B2">
-        <v>15.829</v>
+        <v>6.388</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -819,13 +822,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45757.05208333334</v>
+        <v>45775.05208333334</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.715</v>
+        <v>2.712</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -836,10 +839,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45757.0625</v>
+        <v>45775.0625</v>
       </c>
       <c r="B4">
-        <v>0.063</v>
+        <v>0.21</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -853,13 +856,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45757.07291666666</v>
+        <v>45775.07291666666</v>
       </c>
       <c r="B5">
-        <v>5.026</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.706</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -870,10 +873,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45757.08333333334</v>
+        <v>45775.08333333334</v>
       </c>
       <c r="B6">
-        <v>7.968</v>
+        <v>0.525</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -887,13 +890,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45757.09375</v>
+        <v>45775.09375</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.266</v>
       </c>
       <c r="C7">
-        <v>2.385</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -904,10 +907,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45757.10416666666</v>
+        <v>45775.10416666666</v>
       </c>
       <c r="B8">
-        <v>17.824</v>
+        <v>0.024</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -921,13 +924,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45757.11458333334</v>
+        <v>45775.11458333334</v>
       </c>
       <c r="B9">
-        <v>14.179</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5.241</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -938,10 +941,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45757.125</v>
+        <v>45775.125</v>
       </c>
       <c r="B10">
-        <v>23.111</v>
+        <v>7.343</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -955,13 +958,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45757.13541666666</v>
+        <v>45775.13541666666</v>
       </c>
       <c r="B11">
-        <v>27.953</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>8.474</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -972,13 +975,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45757.14583333334</v>
+        <v>45775.14583333334</v>
       </c>
       <c r="B12">
-        <v>43.532</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>7.151</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -989,13 +992,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45757.15625</v>
+        <v>45775.15625</v>
       </c>
       <c r="B13">
-        <v>11.541</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>13.455</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1006,10 +1009,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45757.16666666666</v>
+        <v>45775.16666666666</v>
       </c>
       <c r="B14">
-        <v>23.61</v>
+        <v>11.022</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1023,13 +1026,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45757.17708333334</v>
+        <v>45775.17708333334</v>
       </c>
       <c r="B15">
-        <v>30.066</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>14.03</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1040,13 +1043,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45757.1875</v>
+        <v>45775.1875</v>
       </c>
       <c r="B16">
-        <v>12.908</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.783</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1057,10 +1060,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45757.19791666666</v>
+        <v>45775.19791666666</v>
       </c>
       <c r="B17">
-        <v>1.038</v>
+        <v>4.501</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1074,10 +1077,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45757.20833333334</v>
+        <v>45775.20833333334</v>
       </c>
       <c r="B18">
-        <v>3.091</v>
+        <v>11.132</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1091,13 +1094,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45757.21875</v>
+        <v>45775.21875</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4.471</v>
       </c>
       <c r="C19">
-        <v>2.879</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1108,13 +1111,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45757.22916666666</v>
+        <v>45775.22916666666</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="C20">
-        <v>9.308</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1125,13 +1128,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45757.23958333334</v>
+        <v>45775.23958333334</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.877</v>
+        <v>4.876</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1142,13 +1145,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45757.25</v>
+        <v>45775.25</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.982</v>
+        <v>1.433</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1159,10 +1162,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45757.26041666666</v>
+        <v>45775.26041666666</v>
       </c>
       <c r="B23">
-        <v>2.979</v>
+        <v>1.318</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1176,13 +1179,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45757.27083333334</v>
+        <v>45775.27083333334</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="C24">
-        <v>11.555</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1193,13 +1196,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45757.28125</v>
+        <v>45775.28125</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>15.807</v>
+        <v>3.249</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1210,13 +1213,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45757.29166666666</v>
+        <v>45775.29166666666</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>5.866</v>
       </c>
       <c r="C26">
-        <v>16.837</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1227,13 +1230,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45757.30208333334</v>
+        <v>45775.30208333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.712</v>
       </c>
       <c r="C27">
-        <v>6.849</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1244,13 +1247,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45757.3125</v>
+        <v>45775.3125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>4.93</v>
       </c>
       <c r="C28">
-        <v>22.787</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1261,13 +1264,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45757.32291666666</v>
+        <v>45775.32291666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1.079</v>
       </c>
       <c r="C29">
-        <v>55.752</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1278,13 +1281,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45757.33333333334</v>
+        <v>45775.33333333334</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>19.51</v>
+        <v>13.336</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1295,13 +1298,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45757.34375</v>
+        <v>45775.34375</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>15.364</v>
+        <v>0.68</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1312,13 +1315,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45757.35416666666</v>
+        <v>45775.35416666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3.245</v>
       </c>
       <c r="C32">
-        <v>12.253</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1329,13 +1332,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45757.36458333334</v>
+        <v>45775.36458333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1.528</v>
       </c>
       <c r="C33">
-        <v>5.789</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1346,13 +1349,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45757.375</v>
+        <v>45775.375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>7.354</v>
       </c>
       <c r="C34">
-        <v>45.452</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1363,13 +1366,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45757.38541666666</v>
+        <v>45775.38541666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>12.027</v>
       </c>
       <c r="C35">
-        <v>32.182</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1380,13 +1383,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45757.39583333334</v>
+        <v>45775.39583333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>15.63</v>
       </c>
       <c r="C36">
-        <v>24.091</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1397,10 +1400,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45757.40625</v>
+        <v>45775.40625</v>
       </c>
       <c r="B37">
-        <v>2.773</v>
+        <v>22.226</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1414,13 +1417,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45757.41666666666</v>
+        <v>45775.41666666666</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>14.272</v>
+        <v>1.181</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1431,10 +1434,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45757.42708333334</v>
+        <v>45775.42708333334</v>
       </c>
       <c r="B39">
-        <v>2.328</v>
+        <v>14.167</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1448,10 +1451,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45757.4375</v>
+        <v>45775.4375</v>
       </c>
       <c r="B40">
-        <v>5.22</v>
+        <v>2.207</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1465,10 +1468,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45757.44791666666</v>
+        <v>45775.44791666666</v>
       </c>
       <c r="B41">
-        <v>7.782</v>
+        <v>19.833</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1482,13 +1485,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45757.45833333334</v>
+        <v>45775.45833333334</v>
       </c>
       <c r="B42">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>5.531</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1499,13 +1502,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45757.46875</v>
+        <v>45775.46875</v>
       </c>
       <c r="B43">
-        <v>16.147</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>9.734999999999999</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1516,10 +1519,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45757.47916666666</v>
+        <v>45775.47916666666</v>
       </c>
       <c r="B44">
-        <v>54.688</v>
+        <v>0.731</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1533,10 +1536,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45757.48958333334</v>
+        <v>45775.48958333334</v>
       </c>
       <c r="B45">
-        <v>31.226</v>
+        <v>6.35</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1550,13 +1553,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45757.5</v>
+        <v>45775.5</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>13.169</v>
       </c>
       <c r="C46">
-        <v>21.293</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1567,13 +1570,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45757.51041666666</v>
+        <v>45775.51041666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>9.978999999999999</v>
       </c>
       <c r="C47">
-        <v>49.643</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1584,13 +1587,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45757.52083333334</v>
+        <v>45775.52083333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="C48">
-        <v>19.853</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1601,13 +1604,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45757.53125</v>
+        <v>45775.53125</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>6.424</v>
       </c>
       <c r="C49">
-        <v>12.633</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1618,13 +1621,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45757.54166666666</v>
+        <v>45775.54166666666</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>56.47</v>
+        <v>5.461</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1635,13 +1638,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45757.55208333334</v>
+        <v>45775.55208333334</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>54.84</v>
+        <v>5.567</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1652,13 +1655,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45757.5625</v>
+        <v>45775.5625</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.331</v>
       </c>
       <c r="C52">
-        <v>57.912</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1669,13 +1672,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45757.57291666666</v>
+        <v>45775.57291666666</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>60.927</v>
+        <v>11.013</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1686,13 +1689,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45757.58333333334</v>
+        <v>45775.58333333334</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>54.636</v>
+        <v>4.365</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1703,13 +1706,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45757.59375</v>
+        <v>45775.59375</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.763</v>
       </c>
       <c r="C55">
-        <v>31.168</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1720,13 +1723,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45757.60416666666</v>
+        <v>45775.60416666666</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>24.855</v>
       </c>
       <c r="C56">
-        <v>65.958</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1737,13 +1740,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45757.61458333334</v>
+        <v>45775.61458333334</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>70.614</v>
+        <v>5.591</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1754,10 +1757,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45757.625</v>
+        <v>45775.625</v>
       </c>
       <c r="B58">
-        <v>1.323</v>
+        <v>1.032</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1771,13 +1774,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45757.63541666666</v>
+        <v>45775.63541666666</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>18.949</v>
       </c>
       <c r="C59">
-        <v>3.915</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1788,13 +1791,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45757.64583333334</v>
+        <v>45775.64583333334</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>21.551</v>
       </c>
       <c r="C60">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1805,10 +1808,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45757.65625</v>
+        <v>45775.65625</v>
       </c>
       <c r="B61">
-        <v>10.543</v>
+        <v>28.565</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1822,10 +1825,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45757.66666666666</v>
+        <v>45775.66666666666</v>
       </c>
       <c r="B62">
-        <v>10.845</v>
+        <v>4.176</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1839,13 +1842,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45757.67708333334</v>
+        <v>45775.67708333334</v>
       </c>
       <c r="B63">
-        <v>28.762</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>4.848</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1856,13 +1859,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45757.6875</v>
+        <v>45775.6875</v>
       </c>
       <c r="B64">
-        <v>45.496</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>32.985</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1873,13 +1876,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45757.69791666666</v>
+        <v>45775.69791666666</v>
       </c>
       <c r="B65">
-        <v>0.412</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>43.69</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1890,13 +1893,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45757.70833333334</v>
+        <v>45775.70833333334</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>3.343</v>
+        <v>7.715</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1907,13 +1910,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45757.71875</v>
+        <v>45775.71875</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>9.446</v>
+        <v>8.226000000000001</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1924,13 +1927,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45757.72916666666</v>
+        <v>45775.72916666666</v>
       </c>
       <c r="B68">
-        <v>2.102</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>6.406</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1941,13 +1944,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45757.73958333334</v>
+        <v>45775.73958333334</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>4.745</v>
+        <v>22.952</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1958,13 +1961,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45757.75</v>
+        <v>45775.75</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>12.963</v>
+        <v>7.388</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1975,13 +1978,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45757.76041666666</v>
+        <v>45775.76041666666</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.744</v>
       </c>
       <c r="C71">
-        <v>12.001</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1992,13 +1995,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45757.77083333334</v>
+        <v>45775.77083333334</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>17.671</v>
+        <v>19.69</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2009,13 +2012,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45757.78125</v>
+        <v>45775.78125</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>6.297</v>
+        <v>6.939</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2026,13 +2029,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45757.79166666666</v>
+        <v>45775.79166666666</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>14.495</v>
       </c>
       <c r="C74">
-        <v>12.582</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2043,10 +2046,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45757.80208333334</v>
+        <v>45775.80208333334</v>
       </c>
       <c r="B75">
-        <v>2.628</v>
+        <v>25.173</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2060,13 +2063,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45757.8125</v>
+        <v>45775.8125</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>4.716</v>
       </c>
       <c r="C76">
-        <v>21.574</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2077,13 +2080,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45757.82291666666</v>
+        <v>45775.82291666666</v>
       </c>
       <c r="B77">
-        <v>4.726</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2.771</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2094,13 +2097,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45757.83333333334</v>
+        <v>45775.83333333334</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>9.439</v>
+        <v>2.113</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2111,13 +2114,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45757.84375</v>
+        <v>45775.84375</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>13.04</v>
+        <v>6.379</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2128,13 +2131,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45757.85416666666</v>
+        <v>45775.85416666666</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>8.287000000000001</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2145,10 +2148,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45757.86458333334</v>
+        <v>45775.86458333334</v>
       </c>
       <c r="B81">
-        <v>16.11</v>
+        <v>0.281</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2162,13 +2165,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45757.875</v>
+        <v>45775.875</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>5.589</v>
+        <v>33.186</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2179,13 +2182,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45757.88541666666</v>
+        <v>45775.88541666666</v>
       </c>
       <c r="B83">
-        <v>10.282</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2196,13 +2199,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45757.89583333334</v>
+        <v>45775.89583333334</v>
       </c>
       <c r="B84">
-        <v>42.899</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2213,13 +2216,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45757.90625</v>
+        <v>45775.90625</v>
       </c>
       <c r="B85">
-        <v>15.057</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>2.183</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2230,13 +2233,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45757.91666666666</v>
+        <v>45775.91666666666</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>17.99</v>
+        <v>4.743</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2247,13 +2250,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45757.92708333334</v>
+        <v>45775.92708333334</v>
       </c>
       <c r="B87">
-        <v>0.588</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>2.214</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2264,13 +2267,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45757.9375</v>
+        <v>45775.9375</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>4.402</v>
       </c>
       <c r="C88">
-        <v>4.846</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2281,13 +2284,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45757.94791666666</v>
+        <v>45775.94791666666</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>2.783</v>
+        <v>6.416</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2298,13 +2301,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45757.95833333334</v>
+        <v>45775.95833333334</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>9.009</v>
+        <v>5.994</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2315,13 +2318,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45757.96875</v>
+        <v>45775.96875</v>
       </c>
       <c r="B91">
-        <v>1.389</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2332,13 +2335,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45757.97916666666</v>
+        <v>45775.97916666666</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>1.846</v>
+        <v>2.656</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2349,13 +2352,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45757.98958333334</v>
+        <v>45775.98958333334</v>
       </c>
       <c r="B93">
-        <v>1.448</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>29.704</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2366,13 +2369,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45758</v>
+        <v>45776</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>14.488</v>
       </c>
       <c r="C94">
-        <v>15.245</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2383,13 +2386,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="C95">
-        <v>9.085000000000001</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2400,13 +2403,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="C96">
-        <v>9.058</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2417,13 +2420,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>6.565</v>
+        <v>20.986</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2434,13 +2437,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1.798</v>
       </c>
       <c r="C98">
-        <v>5.089</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2451,13 +2454,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>2.444</v>
+        <v>3.279</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2468,13 +2471,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1.344</v>
       </c>
       <c r="C100">
-        <v>2.978</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2485,13 +2488,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>3.441</v>
       </c>
       <c r="C101">
-        <v>6.684</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2502,13 +2505,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>20.836</v>
       </c>
       <c r="C102">
-        <v>2.147</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2519,13 +2522,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>19.891</v>
       </c>
       <c r="C103">
-        <v>9.243</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2536,13 +2539,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>27.018</v>
       </c>
       <c r="C104">
-        <v>6.204</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2553,13 +2556,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>15.991</v>
       </c>
       <c r="C105">
-        <v>17.894</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2570,10 +2573,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
       <c r="B106">
-        <v>7.049</v>
+        <v>18.578</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2587,10 +2590,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
       <c r="B107">
-        <v>0.06900000000000001</v>
+        <v>21.042</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2604,13 +2607,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>14.547</v>
       </c>
       <c r="C108">
-        <v>1.129</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2621,13 +2624,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>4.77</v>
       </c>
       <c r="C109">
-        <v>0.917</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2638,10 +2641,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
       <c r="B110">
-        <v>12.695</v>
+        <v>18.328</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2655,13 +2658,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>24.818</v>
       </c>
       <c r="C111">
-        <v>4.645</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2672,13 +2675,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>8.959</v>
       </c>
       <c r="C112">
-        <v>8.587999999999999</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2689,13 +2692,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>6.036</v>
       </c>
       <c r="C113">
-        <v>5.313</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2706,10 +2709,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
       <c r="B114">
-        <v>11.238</v>
+        <v>7.253</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2723,13 +2726,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3.361</v>
       </c>
       <c r="C115">
-        <v>10.267</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2740,13 +2743,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>5.931</v>
       </c>
       <c r="C116">
-        <v>19.457</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2757,13 +2760,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="C117">
-        <v>28.069</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2774,10 +2777,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
       <c r="B118">
-        <v>5.123</v>
+        <v>8.135</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2791,13 +2794,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>11.055</v>
       </c>
       <c r="C119">
-        <v>5.604</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2808,13 +2811,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>10.345</v>
       </c>
       <c r="C120">
-        <v>26.282</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2825,13 +2828,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>9.157</v>
       </c>
       <c r="C121">
-        <v>66.82599999999999</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -2842,13 +2845,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>48.156</v>
+        <v>16.829</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -2859,13 +2862,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>44.772</v>
+        <v>10.643</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -2876,13 +2879,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>5.389</v>
       </c>
       <c r="C124">
-        <v>36.16</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -2893,13 +2896,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>13.409</v>
       </c>
       <c r="C125">
-        <v>8.234999999999999</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -2910,13 +2913,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>5.302</v>
+        <v>7.755</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -2927,13 +2930,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>6.571</v>
       </c>
       <c r="C127">
-        <v>21.488</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -2944,13 +2947,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>14.58</v>
       </c>
       <c r="C128">
-        <v>15.161</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -2961,10 +2964,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
       <c r="B129">
-        <v>13.535</v>
+        <v>17.852</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2978,19 +2981,36 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>21.247</v>
+        <v>6.619</v>
       </c>
       <c r="D130">
         <v>33</v>
       </c>
       <c r="E130" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45776.38541666666</v>
+      </c>
+      <c r="B131">
+        <v>9.654</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>34</v>
+      </c>
+      <c r="E131" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,394 +31,358 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>28.04.20251</t>
-  </si>
-  <si>
-    <t>28.04.20252</t>
-  </si>
-  <si>
-    <t>28.04.20253</t>
-  </si>
-  <si>
-    <t>28.04.20254</t>
-  </si>
-  <si>
-    <t>28.04.20255</t>
-  </si>
-  <si>
-    <t>28.04.20256</t>
-  </si>
-  <si>
-    <t>28.04.20257</t>
-  </si>
-  <si>
-    <t>28.04.20258</t>
-  </si>
-  <si>
-    <t>28.04.20259</t>
-  </si>
-  <si>
-    <t>28.04.202510</t>
-  </si>
-  <si>
-    <t>28.04.202511</t>
-  </si>
-  <si>
-    <t>28.04.202512</t>
-  </si>
-  <si>
-    <t>28.04.202513</t>
-  </si>
-  <si>
-    <t>28.04.202514</t>
-  </si>
-  <si>
-    <t>28.04.202515</t>
-  </si>
-  <si>
-    <t>28.04.202516</t>
-  </si>
-  <si>
-    <t>28.04.202517</t>
-  </si>
-  <si>
-    <t>28.04.202518</t>
-  </si>
-  <si>
-    <t>28.04.202519</t>
-  </si>
-  <si>
-    <t>28.04.202520</t>
-  </si>
-  <si>
-    <t>28.04.202521</t>
-  </si>
-  <si>
-    <t>28.04.202522</t>
-  </si>
-  <si>
-    <t>28.04.202523</t>
-  </si>
-  <si>
-    <t>28.04.202524</t>
-  </si>
-  <si>
-    <t>28.04.202525</t>
-  </si>
-  <si>
-    <t>28.04.202526</t>
-  </si>
-  <si>
-    <t>28.04.202527</t>
-  </si>
-  <si>
-    <t>28.04.202528</t>
-  </si>
-  <si>
-    <t>28.04.202529</t>
-  </si>
-  <si>
-    <t>28.04.202530</t>
-  </si>
-  <si>
-    <t>28.04.202531</t>
-  </si>
-  <si>
-    <t>28.04.202532</t>
-  </si>
-  <si>
-    <t>28.04.202533</t>
-  </si>
-  <si>
-    <t>28.04.202534</t>
-  </si>
-  <si>
-    <t>28.04.202535</t>
-  </si>
-  <si>
-    <t>28.04.202536</t>
-  </si>
-  <si>
-    <t>28.04.202537</t>
-  </si>
-  <si>
-    <t>28.04.202538</t>
-  </si>
-  <si>
-    <t>28.04.202539</t>
-  </si>
-  <si>
-    <t>28.04.202540</t>
-  </si>
-  <si>
-    <t>28.04.202541</t>
-  </si>
-  <si>
-    <t>28.04.202542</t>
-  </si>
-  <si>
-    <t>28.04.202543</t>
-  </si>
-  <si>
-    <t>28.04.202544</t>
-  </si>
-  <si>
-    <t>28.04.202545</t>
-  </si>
-  <si>
-    <t>28.04.202546</t>
-  </si>
-  <si>
-    <t>28.04.202547</t>
-  </si>
-  <si>
-    <t>28.04.202548</t>
-  </si>
-  <si>
-    <t>28.04.202549</t>
-  </si>
-  <si>
-    <t>28.04.202550</t>
-  </si>
-  <si>
-    <t>28.04.202551</t>
-  </si>
-  <si>
-    <t>28.04.202552</t>
-  </si>
-  <si>
-    <t>28.04.202553</t>
-  </si>
-  <si>
-    <t>28.04.202554</t>
-  </si>
-  <si>
-    <t>28.04.202555</t>
-  </si>
-  <si>
-    <t>28.04.202556</t>
-  </si>
-  <si>
-    <t>28.04.202557</t>
-  </si>
-  <si>
-    <t>28.04.202558</t>
-  </si>
-  <si>
-    <t>28.04.202559</t>
-  </si>
-  <si>
-    <t>28.04.202560</t>
-  </si>
-  <si>
-    <t>28.04.202561</t>
-  </si>
-  <si>
-    <t>28.04.202562</t>
-  </si>
-  <si>
-    <t>28.04.202563</t>
-  </si>
-  <si>
-    <t>28.04.202564</t>
-  </si>
-  <si>
-    <t>28.04.202565</t>
-  </si>
-  <si>
-    <t>28.04.202566</t>
-  </si>
-  <si>
-    <t>28.04.202567</t>
-  </si>
-  <si>
-    <t>28.04.202568</t>
-  </si>
-  <si>
-    <t>28.04.202569</t>
-  </si>
-  <si>
-    <t>28.04.202570</t>
-  </si>
-  <si>
-    <t>28.04.202571</t>
-  </si>
-  <si>
-    <t>28.04.202572</t>
-  </si>
-  <si>
-    <t>28.04.202573</t>
-  </si>
-  <si>
-    <t>28.04.202574</t>
-  </si>
-  <si>
-    <t>28.04.202575</t>
-  </si>
-  <si>
-    <t>28.04.202576</t>
-  </si>
-  <si>
-    <t>28.04.202577</t>
-  </si>
-  <si>
-    <t>28.04.202578</t>
-  </si>
-  <si>
-    <t>28.04.202579</t>
-  </si>
-  <si>
-    <t>28.04.202580</t>
-  </si>
-  <si>
-    <t>28.04.202581</t>
-  </si>
-  <si>
-    <t>28.04.202582</t>
-  </si>
-  <si>
-    <t>28.04.202583</t>
-  </si>
-  <si>
-    <t>28.04.202584</t>
-  </si>
-  <si>
-    <t>28.04.202585</t>
-  </si>
-  <si>
-    <t>28.04.202586</t>
-  </si>
-  <si>
-    <t>28.04.202587</t>
-  </si>
-  <si>
-    <t>28.04.202588</t>
-  </si>
-  <si>
-    <t>28.04.202589</t>
-  </si>
-  <si>
-    <t>28.04.202590</t>
-  </si>
-  <si>
-    <t>28.04.202591</t>
-  </si>
-  <si>
-    <t>28.04.202592</t>
-  </si>
-  <si>
-    <t>29.04.202593</t>
-  </si>
-  <si>
-    <t>29.04.202594</t>
-  </si>
-  <si>
-    <t>29.04.202595</t>
-  </si>
-  <si>
-    <t>29.04.202596</t>
-  </si>
-  <si>
-    <t>29.04.20251</t>
-  </si>
-  <si>
-    <t>29.04.20252</t>
-  </si>
-  <si>
-    <t>29.04.20253</t>
-  </si>
-  <si>
-    <t>29.04.20254</t>
-  </si>
-  <si>
-    <t>29.04.20255</t>
-  </si>
-  <si>
-    <t>29.04.20256</t>
-  </si>
-  <si>
-    <t>29.04.20257</t>
-  </si>
-  <si>
-    <t>29.04.20258</t>
-  </si>
-  <si>
-    <t>29.04.20259</t>
-  </si>
-  <si>
-    <t>29.04.202510</t>
-  </si>
-  <si>
-    <t>29.04.202511</t>
-  </si>
-  <si>
-    <t>29.04.202512</t>
-  </si>
-  <si>
-    <t>29.04.202513</t>
-  </si>
-  <si>
-    <t>29.04.202514</t>
-  </si>
-  <si>
-    <t>29.04.202515</t>
-  </si>
-  <si>
-    <t>29.04.202516</t>
-  </si>
-  <si>
-    <t>29.04.202517</t>
-  </si>
-  <si>
-    <t>29.04.202518</t>
-  </si>
-  <si>
-    <t>29.04.202519</t>
-  </si>
-  <si>
-    <t>29.04.202520</t>
-  </si>
-  <si>
-    <t>29.04.202521</t>
-  </si>
-  <si>
-    <t>29.04.202522</t>
-  </si>
-  <si>
-    <t>29.04.202523</t>
-  </si>
-  <si>
-    <t>29.04.202524</t>
-  </si>
-  <si>
-    <t>29.04.202525</t>
-  </si>
-  <si>
-    <t>29.04.202526</t>
-  </si>
-  <si>
-    <t>29.04.202527</t>
-  </si>
-  <si>
-    <t>29.04.202528</t>
-  </si>
-  <si>
-    <t>29.04.202529</t>
-  </si>
-  <si>
-    <t>29.04.202530</t>
-  </si>
-  <si>
-    <t>29.04.202531</t>
-  </si>
-  <si>
-    <t>29.04.202532</t>
-  </si>
-  <si>
-    <t>29.04.202533</t>
-  </si>
-  <si>
-    <t>29.04.202534</t>
+    <t>08.05.20251</t>
+  </si>
+  <si>
+    <t>08.05.20252</t>
+  </si>
+  <si>
+    <t>08.05.20253</t>
+  </si>
+  <si>
+    <t>08.05.20254</t>
+  </si>
+  <si>
+    <t>08.05.20255</t>
+  </si>
+  <si>
+    <t>08.05.20256</t>
+  </si>
+  <si>
+    <t>08.05.20257</t>
+  </si>
+  <si>
+    <t>08.05.20258</t>
+  </si>
+  <si>
+    <t>08.05.20259</t>
+  </si>
+  <si>
+    <t>08.05.202510</t>
+  </si>
+  <si>
+    <t>08.05.202511</t>
+  </si>
+  <si>
+    <t>08.05.202512</t>
+  </si>
+  <si>
+    <t>08.05.202513</t>
+  </si>
+  <si>
+    <t>08.05.202514</t>
+  </si>
+  <si>
+    <t>08.05.202515</t>
+  </si>
+  <si>
+    <t>08.05.202516</t>
+  </si>
+  <si>
+    <t>08.05.202517</t>
+  </si>
+  <si>
+    <t>08.05.202518</t>
+  </si>
+  <si>
+    <t>08.05.202519</t>
+  </si>
+  <si>
+    <t>08.05.202520</t>
+  </si>
+  <si>
+    <t>08.05.202521</t>
+  </si>
+  <si>
+    <t>08.05.202522</t>
+  </si>
+  <si>
+    <t>08.05.202523</t>
+  </si>
+  <si>
+    <t>08.05.202524</t>
+  </si>
+  <si>
+    <t>08.05.202525</t>
+  </si>
+  <si>
+    <t>08.05.202526</t>
+  </si>
+  <si>
+    <t>08.05.202527</t>
+  </si>
+  <si>
+    <t>08.05.202528</t>
+  </si>
+  <si>
+    <t>08.05.202529</t>
+  </si>
+  <si>
+    <t>08.05.202530</t>
+  </si>
+  <si>
+    <t>08.05.202531</t>
+  </si>
+  <si>
+    <t>08.05.202532</t>
+  </si>
+  <si>
+    <t>08.05.202533</t>
+  </si>
+  <si>
+    <t>08.05.202534</t>
+  </si>
+  <si>
+    <t>08.05.202535</t>
+  </si>
+  <si>
+    <t>08.05.202536</t>
+  </si>
+  <si>
+    <t>08.05.202537</t>
+  </si>
+  <si>
+    <t>08.05.202538</t>
+  </si>
+  <si>
+    <t>08.05.202539</t>
+  </si>
+  <si>
+    <t>08.05.202540</t>
+  </si>
+  <si>
+    <t>08.05.202541</t>
+  </si>
+  <si>
+    <t>08.05.202542</t>
+  </si>
+  <si>
+    <t>08.05.202543</t>
+  </si>
+  <si>
+    <t>08.05.202544</t>
+  </si>
+  <si>
+    <t>08.05.202545</t>
+  </si>
+  <si>
+    <t>08.05.202546</t>
+  </si>
+  <si>
+    <t>08.05.202547</t>
+  </si>
+  <si>
+    <t>08.05.202548</t>
+  </si>
+  <si>
+    <t>08.05.202549</t>
+  </si>
+  <si>
+    <t>08.05.202550</t>
+  </si>
+  <si>
+    <t>08.05.202551</t>
+  </si>
+  <si>
+    <t>08.05.202552</t>
+  </si>
+  <si>
+    <t>08.05.202553</t>
+  </si>
+  <si>
+    <t>08.05.202554</t>
+  </si>
+  <si>
+    <t>08.05.202555</t>
+  </si>
+  <si>
+    <t>08.05.202556</t>
+  </si>
+  <si>
+    <t>08.05.202557</t>
+  </si>
+  <si>
+    <t>08.05.202558</t>
+  </si>
+  <si>
+    <t>08.05.202559</t>
+  </si>
+  <si>
+    <t>08.05.202560</t>
+  </si>
+  <si>
+    <t>08.05.202561</t>
+  </si>
+  <si>
+    <t>08.05.202562</t>
+  </si>
+  <si>
+    <t>08.05.202563</t>
+  </si>
+  <si>
+    <t>08.05.202564</t>
+  </si>
+  <si>
+    <t>08.05.202565</t>
+  </si>
+  <si>
+    <t>08.05.202566</t>
+  </si>
+  <si>
+    <t>08.05.202567</t>
+  </si>
+  <si>
+    <t>08.05.202568</t>
+  </si>
+  <si>
+    <t>08.05.202569</t>
+  </si>
+  <si>
+    <t>08.05.202570</t>
+  </si>
+  <si>
+    <t>08.05.202571</t>
+  </si>
+  <si>
+    <t>08.05.202572</t>
+  </si>
+  <si>
+    <t>08.05.202573</t>
+  </si>
+  <si>
+    <t>08.05.202574</t>
+  </si>
+  <si>
+    <t>08.05.202575</t>
+  </si>
+  <si>
+    <t>08.05.202576</t>
+  </si>
+  <si>
+    <t>08.05.202577</t>
+  </si>
+  <si>
+    <t>08.05.202578</t>
+  </si>
+  <si>
+    <t>08.05.202579</t>
+  </si>
+  <si>
+    <t>08.05.202580</t>
+  </si>
+  <si>
+    <t>08.05.202581</t>
+  </si>
+  <si>
+    <t>08.05.202582</t>
+  </si>
+  <si>
+    <t>08.05.202583</t>
+  </si>
+  <si>
+    <t>08.05.202584</t>
+  </si>
+  <si>
+    <t>08.05.202585</t>
+  </si>
+  <si>
+    <t>08.05.202586</t>
+  </si>
+  <si>
+    <t>08.05.202587</t>
+  </si>
+  <si>
+    <t>08.05.202588</t>
+  </si>
+  <si>
+    <t>08.05.202589</t>
+  </si>
+  <si>
+    <t>08.05.202590</t>
+  </si>
+  <si>
+    <t>08.05.202591</t>
+  </si>
+  <si>
+    <t>08.05.202592</t>
+  </si>
+  <si>
+    <t>09.05.202593</t>
+  </si>
+  <si>
+    <t>09.05.202594</t>
+  </si>
+  <si>
+    <t>09.05.202595</t>
+  </si>
+  <si>
+    <t>09.05.202596</t>
+  </si>
+  <si>
+    <t>09.05.20251</t>
+  </si>
+  <si>
+    <t>09.05.20252</t>
+  </si>
+  <si>
+    <t>09.05.20253</t>
+  </si>
+  <si>
+    <t>09.05.20254</t>
+  </si>
+  <si>
+    <t>09.05.20255</t>
+  </si>
+  <si>
+    <t>09.05.20256</t>
+  </si>
+  <si>
+    <t>09.05.20257</t>
+  </si>
+  <si>
+    <t>09.05.20258</t>
+  </si>
+  <si>
+    <t>09.05.20259</t>
+  </si>
+  <si>
+    <t>09.05.202510</t>
+  </si>
+  <si>
+    <t>09.05.202511</t>
+  </si>
+  <si>
+    <t>09.05.202512</t>
+  </si>
+  <si>
+    <t>09.05.202513</t>
+  </si>
+  <si>
+    <t>09.05.202514</t>
+  </si>
+  <si>
+    <t>09.05.202515</t>
+  </si>
+  <si>
+    <t>09.05.202516</t>
+  </si>
+  <si>
+    <t>09.05.202517</t>
+  </si>
+  <si>
+    <t>09.05.202518</t>
+  </si>
+  <si>
+    <t>09.05.202519</t>
+  </si>
+  <si>
+    <t>09.05.202520</t>
+  </si>
+  <si>
+    <t>09.05.202521</t>
+  </si>
+  <si>
+    <t>09.05.202522</t>
   </si>
 </sst>
 </file>
@@ -780,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -805,10 +769,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45775.04166666666</v>
+        <v>45785.04166666666</v>
       </c>
       <c r="B2">
-        <v>6.388</v>
+        <v>14.372</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -822,13 +786,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45775.05208333334</v>
+        <v>45785.05208333334</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.797</v>
       </c>
       <c r="C3">
-        <v>2.712</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -839,10 +803,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45775.0625</v>
+        <v>45785.0625</v>
       </c>
       <c r="B4">
-        <v>0.21</v>
+        <v>5.124</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -856,13 +820,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45775.07291666666</v>
+        <v>45785.07291666666</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.761</v>
       </c>
       <c r="C5">
-        <v>5.706</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -873,10 +837,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45775.08333333334</v>
+        <v>45785.08333333334</v>
       </c>
       <c r="B6">
-        <v>0.525</v>
+        <v>18.896</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -890,10 +854,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45775.09375</v>
+        <v>45785.09375</v>
       </c>
       <c r="B7">
-        <v>0.266</v>
+        <v>8.803000000000001</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -907,10 +871,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45775.10416666666</v>
+        <v>45785.10416666666</v>
       </c>
       <c r="B8">
-        <v>0.024</v>
+        <v>15.143</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -924,13 +888,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45775.11458333334</v>
+        <v>45785.11458333334</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.468</v>
       </c>
       <c r="C9">
-        <v>5.241</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -941,10 +905,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45775.125</v>
+        <v>45785.125</v>
       </c>
       <c r="B10">
-        <v>7.343</v>
+        <v>9.749000000000001</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -958,13 +922,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45775.13541666666</v>
+        <v>45785.13541666666</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.362</v>
       </c>
       <c r="C11">
-        <v>8.474</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -975,13 +939,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45775.14583333334</v>
+        <v>45785.14583333334</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.396</v>
       </c>
       <c r="C12">
-        <v>7.151</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -992,13 +956,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45775.15625</v>
+        <v>45785.15625</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.455</v>
+        <v>5.87</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1009,10 +973,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45775.16666666666</v>
+        <v>45785.16666666666</v>
       </c>
       <c r="B14">
-        <v>11.022</v>
+        <v>12.933</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1026,13 +990,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45775.17708333334</v>
+        <v>45785.17708333334</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.03</v>
+        <v>6.242</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1043,13 +1007,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45775.1875</v>
+        <v>45785.1875</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>11.413</v>
       </c>
       <c r="C16">
-        <v>0.783</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1060,13 +1024,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45775.19791666666</v>
+        <v>45785.19791666666</v>
       </c>
       <c r="B17">
-        <v>4.501</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1077,10 +1041,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45775.20833333334</v>
+        <v>45785.20833333334</v>
       </c>
       <c r="B18">
-        <v>11.132</v>
+        <v>31.828</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1094,10 +1058,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45775.21875</v>
+        <v>45785.21875</v>
       </c>
       <c r="B19">
-        <v>4.471</v>
+        <v>26.611</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1111,10 +1075,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45775.22916666666</v>
+        <v>45785.22916666666</v>
       </c>
       <c r="B20">
-        <v>0.8169999999999999</v>
+        <v>18.873</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1128,13 +1092,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45775.23958333334</v>
+        <v>45785.23958333334</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.876</v>
+        <v>5.721</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1145,13 +1109,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45775.25</v>
+        <v>45785.25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>27.468</v>
       </c>
       <c r="C22">
-        <v>1.433</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1162,10 +1126,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45775.26041666666</v>
+        <v>45785.26041666666</v>
       </c>
       <c r="B23">
-        <v>1.318</v>
+        <v>21.225</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1179,10 +1143,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45775.27083333334</v>
+        <v>45785.27083333334</v>
       </c>
       <c r="B24">
-        <v>0.63</v>
+        <v>6.002</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1196,13 +1160,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45775.28125</v>
+        <v>45785.28125</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.249</v>
+        <v>10.176</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1213,10 +1177,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45775.29166666666</v>
+        <v>45785.29166666666</v>
       </c>
       <c r="B26">
-        <v>5.866</v>
+        <v>14.97</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1230,10 +1194,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45775.30208333334</v>
+        <v>45785.30208333334</v>
       </c>
       <c r="B27">
-        <v>0.712</v>
+        <v>27.518</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1247,10 +1211,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45775.3125</v>
+        <v>45785.3125</v>
       </c>
       <c r="B28">
-        <v>4.93</v>
+        <v>31.427</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1264,10 +1228,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45775.32291666666</v>
+        <v>45785.32291666666</v>
       </c>
       <c r="B29">
-        <v>1.079</v>
+        <v>38.028</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1281,13 +1245,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45775.33333333334</v>
+        <v>45785.33333333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>39.594</v>
       </c>
       <c r="C30">
-        <v>13.336</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1298,13 +1262,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45775.34375</v>
+        <v>45785.34375</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>24.812</v>
       </c>
       <c r="C31">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1315,10 +1279,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45775.35416666666</v>
+        <v>45785.35416666666</v>
       </c>
       <c r="B32">
-        <v>3.245</v>
+        <v>15.019</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1332,10 +1296,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45775.36458333334</v>
+        <v>45785.36458333334</v>
       </c>
       <c r="B33">
-        <v>1.528</v>
+        <v>6.694</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1349,13 +1313,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45775.375</v>
+        <v>45785.375</v>
       </c>
       <c r="B34">
-        <v>7.354</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>5.621</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1366,10 +1330,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45775.38541666666</v>
+        <v>45785.38541666666</v>
       </c>
       <c r="B35">
-        <v>12.027</v>
+        <v>0.271</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1383,10 +1347,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45775.39583333334</v>
+        <v>45785.39583333334</v>
       </c>
       <c r="B36">
-        <v>15.63</v>
+        <v>5.539</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1400,10 +1364,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45775.40625</v>
+        <v>45785.40625</v>
       </c>
       <c r="B37">
-        <v>22.226</v>
+        <v>3.695</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1417,13 +1381,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45775.41666666666</v>
+        <v>45785.41666666666</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1.181</v>
+        <v>20.499</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1434,13 +1398,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45775.42708333334</v>
+        <v>45785.42708333334</v>
       </c>
       <c r="B39">
-        <v>14.167</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>2.995</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1451,13 +1415,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45775.4375</v>
+        <v>45785.4375</v>
       </c>
       <c r="B40">
-        <v>2.207</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>19.224</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1468,10 +1432,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45775.44791666666</v>
+        <v>45785.44791666666</v>
       </c>
       <c r="B41">
-        <v>19.833</v>
+        <v>2.26</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1485,13 +1449,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45775.45833333334</v>
+        <v>45785.45833333334</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>5.531</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1502,13 +1466,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45775.46875</v>
+        <v>45785.46875</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>9.734999999999999</v>
+        <v>0.539</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1519,13 +1483,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45775.47916666666</v>
+        <v>45785.47916666666</v>
       </c>
       <c r="B44">
-        <v>0.731</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>7.45</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1536,13 +1500,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45775.48958333334</v>
+        <v>45785.48958333334</v>
       </c>
       <c r="B45">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>8.714</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1553,10 +1517,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45775.5</v>
+        <v>45785.5</v>
       </c>
       <c r="B46">
-        <v>13.169</v>
+        <v>2.549</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1570,13 +1534,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45775.51041666666</v>
+        <v>45785.51041666666</v>
       </c>
       <c r="B47">
-        <v>9.978999999999999</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1.822</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1587,13 +1551,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45775.52083333334</v>
+        <v>45785.52083333334</v>
       </c>
       <c r="B48">
-        <v>9.327999999999999</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>11.88</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1604,10 +1568,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45775.53125</v>
+        <v>45785.53125</v>
       </c>
       <c r="B49">
-        <v>6.424</v>
+        <v>0.461</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1621,13 +1585,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45775.54166666666</v>
+        <v>45785.54166666666</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>5.461</v>
+        <v>10.676</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1638,13 +1602,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45775.55208333334</v>
+        <v>45785.55208333334</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>5.567</v>
+        <v>4.821</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1655,10 +1619,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45775.5625</v>
+        <v>45785.5625</v>
       </c>
       <c r="B52">
-        <v>0.331</v>
+        <v>3.881</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1672,13 +1636,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45775.57291666666</v>
+        <v>45785.57291666666</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>11.013</v>
+        <v>0.204</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1689,13 +1653,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45775.58333333334</v>
+        <v>45785.58333333334</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>30.644</v>
       </c>
       <c r="C54">
-        <v>4.365</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1706,10 +1670,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45775.59375</v>
+        <v>45785.59375</v>
       </c>
       <c r="B55">
-        <v>0.763</v>
+        <v>54.927</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1723,10 +1687,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45775.60416666666</v>
+        <v>45785.60416666666</v>
       </c>
       <c r="B56">
-        <v>24.855</v>
+        <v>76.99299999999999</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1740,13 +1704,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45775.61458333334</v>
+        <v>45785.61458333334</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>95.63800000000001</v>
       </c>
       <c r="C57">
-        <v>5.591</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1757,10 +1721,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45775.625</v>
+        <v>45785.625</v>
       </c>
       <c r="B58">
-        <v>1.032</v>
+        <v>40.634</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1774,10 +1738,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45775.63541666666</v>
+        <v>45785.63541666666</v>
       </c>
       <c r="B59">
-        <v>18.949</v>
+        <v>22.19</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1791,13 +1755,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45775.64583333334</v>
+        <v>45785.64583333334</v>
       </c>
       <c r="B60">
-        <v>21.551</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>5.105</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1808,13 +1772,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45775.65625</v>
+        <v>45785.65625</v>
       </c>
       <c r="B61">
-        <v>28.565</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>9.728</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1825,10 +1789,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45775.66666666666</v>
+        <v>45785.66666666666</v>
       </c>
       <c r="B62">
-        <v>4.176</v>
+        <v>14.233</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1842,13 +1806,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45775.67708333334</v>
+        <v>45785.67708333334</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>21.887</v>
       </c>
       <c r="C63">
-        <v>4.848</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1859,13 +1823,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45775.6875</v>
+        <v>45785.6875</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>32.985</v>
+        <v>10.114</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1876,13 +1840,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45775.69791666666</v>
+        <v>45785.69791666666</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>43.69</v>
+        <v>3.678</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1893,13 +1857,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45775.70833333334</v>
+        <v>45785.70833333334</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>7.715</v>
+        <v>6.751</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1910,13 +1874,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45775.71875</v>
+        <v>45785.71875</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>8.226000000000001</v>
+        <v>6.324</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1927,13 +1891,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45775.72916666666</v>
+        <v>45785.72916666666</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>3.823</v>
       </c>
       <c r="C68">
-        <v>6.406</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1944,13 +1908,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45775.73958333334</v>
+        <v>45785.73958333334</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>8.321999999999999</v>
       </c>
       <c r="C69">
-        <v>22.952</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1961,13 +1925,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45775.75</v>
+        <v>45785.75</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>25.261</v>
       </c>
       <c r="C70">
-        <v>7.388</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1978,10 +1942,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45775.76041666666</v>
+        <v>45785.76041666666</v>
       </c>
       <c r="B71">
-        <v>0.744</v>
+        <v>19.117</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1995,13 +1959,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45775.77083333334</v>
+        <v>45785.77083333334</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>22.733</v>
       </c>
       <c r="C72">
-        <v>19.69</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2012,13 +1976,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45775.78125</v>
+        <v>45785.78125</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>6.939</v>
+        <v>7.512</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2029,13 +1993,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45775.79166666666</v>
+        <v>45785.79166666666</v>
       </c>
       <c r="B74">
-        <v>14.495</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>18.487</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2046,13 +2010,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45775.80208333334</v>
+        <v>45785.80208333334</v>
       </c>
       <c r="B75">
-        <v>25.173</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>36.686</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2063,13 +2027,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45775.8125</v>
+        <v>45785.8125</v>
       </c>
       <c r="B76">
-        <v>4.716</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2080,13 +2044,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45775.82291666666</v>
+        <v>45785.82291666666</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>28.126</v>
       </c>
       <c r="C77">
-        <v>2.771</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2097,13 +2061,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45775.83333333334</v>
+        <v>45785.83333333334</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>24.139</v>
       </c>
       <c r="C78">
-        <v>2.113</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2114,13 +2078,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45775.84375</v>
+        <v>45785.84375</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>11.838</v>
       </c>
       <c r="C79">
-        <v>6.379</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2131,13 +2095,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45775.85416666666</v>
+        <v>45785.85416666666</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>23.439</v>
       </c>
       <c r="C80">
-        <v>8.287000000000001</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2148,10 +2112,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45775.86458333334</v>
+        <v>45785.86458333334</v>
       </c>
       <c r="B81">
-        <v>0.281</v>
+        <v>40.714</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2165,13 +2129,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45775.875</v>
+        <v>45785.875</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>6.098</v>
       </c>
       <c r="C82">
-        <v>33.186</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2182,13 +2146,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45775.88541666666</v>
+        <v>45785.88541666666</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>15.751</v>
       </c>
       <c r="C83">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2199,13 +2163,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45775.89583333334</v>
+        <v>45785.89583333334</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1.361</v>
       </c>
       <c r="C84">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2216,13 +2180,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45775.90625</v>
+        <v>45785.90625</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>9.939</v>
       </c>
       <c r="C85">
-        <v>2.183</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2233,13 +2197,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45775.91666666666</v>
+        <v>45785.91666666666</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>4.743</v>
+        <v>3.094</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2250,13 +2214,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45775.92708333334</v>
+        <v>45785.92708333334</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>2.214</v>
+        <v>13.232</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2267,13 +2231,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45775.9375</v>
+        <v>45785.9375</v>
       </c>
       <c r="B88">
-        <v>4.402</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>11.831</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2284,13 +2248,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45775.94791666666</v>
+        <v>45785.94791666666</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>6.416</v>
+        <v>13.524</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2301,13 +2265,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45775.95833333334</v>
+        <v>45785.95833333334</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>5.994</v>
+        <v>5.511</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2318,13 +2282,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45775.96875</v>
+        <v>45785.96875</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>8.32</v>
+        <v>7.896</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2335,13 +2299,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45775.97916666666</v>
+        <v>45785.97916666666</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>2.656</v>
+        <v>9.685</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2352,13 +2316,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45775.98958333334</v>
+        <v>45785.98958333334</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>12.634</v>
       </c>
       <c r="C93">
-        <v>29.704</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2369,13 +2333,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B94">
-        <v>14.488</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>5.029</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2386,13 +2350,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B95">
-        <v>5.81</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>10.644</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2403,13 +2367,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B96">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>2.757</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2420,13 +2384,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>17.52</v>
       </c>
       <c r="C97">
-        <v>20.986</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2437,10 +2401,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B98">
-        <v>1.798</v>
+        <v>70.953</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2454,13 +2418,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>62.788</v>
       </c>
       <c r="C99">
-        <v>3.279</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2471,10 +2435,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B100">
-        <v>1.344</v>
+        <v>35.09</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2488,10 +2452,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B101">
-        <v>3.441</v>
+        <v>19.841</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2505,10 +2469,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B102">
-        <v>20.836</v>
+        <v>15.155</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2522,13 +2486,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B103">
-        <v>19.891</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>29.049</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2539,13 +2503,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B104">
-        <v>27.018</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>19.849</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2556,13 +2520,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B105">
-        <v>15.991</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.657</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2573,10 +2537,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B106">
-        <v>18.578</v>
+        <v>10.77</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2590,10 +2554,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B107">
-        <v>21.042</v>
+        <v>18.11</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2607,10 +2571,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B108">
-        <v>14.547</v>
+        <v>20.56</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2624,10 +2588,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B109">
-        <v>4.77</v>
+        <v>22.311</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2641,10 +2605,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B110">
-        <v>18.328</v>
+        <v>17.29</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2658,10 +2622,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B111">
-        <v>24.818</v>
+        <v>19.399</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2675,10 +2639,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B112">
-        <v>8.959</v>
+        <v>26.188</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2692,10 +2656,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B113">
-        <v>6.036</v>
+        <v>44.623</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2709,10 +2673,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B114">
-        <v>7.253</v>
+        <v>12.852</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2726,10 +2690,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B115">
-        <v>3.361</v>
+        <v>23.449</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2743,10 +2707,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B116">
-        <v>5.931</v>
+        <v>10.337</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2760,13 +2724,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B117">
-        <v>4.82</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2777,10 +2741,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B118">
-        <v>8.135</v>
+        <v>17.611</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2794,10 +2758,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B119">
-        <v>11.055</v>
+        <v>1.644</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2807,210 +2771,6 @@
       </c>
       <c r="E119" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="2">
-        <v>45776.27083333334</v>
-      </c>
-      <c r="B120">
-        <v>10.345</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>23</v>
-      </c>
-      <c r="E120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="2">
-        <v>45776.28125</v>
-      </c>
-      <c r="B121">
-        <v>9.157</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>24</v>
-      </c>
-      <c r="E121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="2">
-        <v>45776.29166666666</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>16.829</v>
-      </c>
-      <c r="D122">
-        <v>25</v>
-      </c>
-      <c r="E122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="2">
-        <v>45776.30208333334</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>10.643</v>
-      </c>
-      <c r="D123">
-        <v>26</v>
-      </c>
-      <c r="E123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="2">
-        <v>45776.3125</v>
-      </c>
-      <c r="B124">
-        <v>5.389</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>27</v>
-      </c>
-      <c r="E124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="2">
-        <v>45776.32291666666</v>
-      </c>
-      <c r="B125">
-        <v>13.409</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>28</v>
-      </c>
-      <c r="E125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="2">
-        <v>45776.33333333334</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>7.755</v>
-      </c>
-      <c r="D126">
-        <v>29</v>
-      </c>
-      <c r="E126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="2">
-        <v>45776.34375</v>
-      </c>
-      <c r="B127">
-        <v>6.571</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>30</v>
-      </c>
-      <c r="E127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="2">
-        <v>45776.35416666666</v>
-      </c>
-      <c r="B128">
-        <v>14.58</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>31</v>
-      </c>
-      <c r="E128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="2">
-        <v>45776.36458333334</v>
-      </c>
-      <c r="B129">
-        <v>17.852</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>32</v>
-      </c>
-      <c r="E129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="2">
-        <v>45776.375</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>6.619</v>
-      </c>
-      <c r="D130">
-        <v>33</v>
-      </c>
-      <c r="E130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="2">
-        <v>45776.38541666666</v>
-      </c>
-      <c r="B131">
-        <v>9.654</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>34</v>
-      </c>
-      <c r="E131" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,358 +31,400 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>08.05.20251</t>
-  </si>
-  <si>
-    <t>08.05.20252</t>
-  </si>
-  <si>
-    <t>08.05.20253</t>
-  </si>
-  <si>
-    <t>08.05.20254</t>
-  </si>
-  <si>
-    <t>08.05.20255</t>
-  </si>
-  <si>
-    <t>08.05.20256</t>
-  </si>
-  <si>
-    <t>08.05.20257</t>
-  </si>
-  <si>
-    <t>08.05.20258</t>
-  </si>
-  <si>
-    <t>08.05.20259</t>
-  </si>
-  <si>
-    <t>08.05.202510</t>
-  </si>
-  <si>
-    <t>08.05.202511</t>
-  </si>
-  <si>
-    <t>08.05.202512</t>
-  </si>
-  <si>
-    <t>08.05.202513</t>
-  </si>
-  <si>
-    <t>08.05.202514</t>
-  </si>
-  <si>
-    <t>08.05.202515</t>
-  </si>
-  <si>
-    <t>08.05.202516</t>
-  </si>
-  <si>
-    <t>08.05.202517</t>
-  </si>
-  <si>
-    <t>08.05.202518</t>
-  </si>
-  <si>
-    <t>08.05.202519</t>
-  </si>
-  <si>
-    <t>08.05.202520</t>
-  </si>
-  <si>
-    <t>08.05.202521</t>
-  </si>
-  <si>
-    <t>08.05.202522</t>
-  </si>
-  <si>
-    <t>08.05.202523</t>
-  </si>
-  <si>
-    <t>08.05.202524</t>
-  </si>
-  <si>
-    <t>08.05.202525</t>
-  </si>
-  <si>
-    <t>08.05.202526</t>
-  </si>
-  <si>
-    <t>08.05.202527</t>
-  </si>
-  <si>
-    <t>08.05.202528</t>
-  </si>
-  <si>
-    <t>08.05.202529</t>
-  </si>
-  <si>
-    <t>08.05.202530</t>
-  </si>
-  <si>
-    <t>08.05.202531</t>
-  </si>
-  <si>
-    <t>08.05.202532</t>
-  </si>
-  <si>
-    <t>08.05.202533</t>
-  </si>
-  <si>
-    <t>08.05.202534</t>
-  </si>
-  <si>
-    <t>08.05.202535</t>
-  </si>
-  <si>
-    <t>08.05.202536</t>
-  </si>
-  <si>
-    <t>08.05.202537</t>
-  </si>
-  <si>
-    <t>08.05.202538</t>
-  </si>
-  <si>
-    <t>08.05.202539</t>
-  </si>
-  <si>
-    <t>08.05.202540</t>
-  </si>
-  <si>
-    <t>08.05.202541</t>
-  </si>
-  <si>
-    <t>08.05.202542</t>
-  </si>
-  <si>
-    <t>08.05.202543</t>
-  </si>
-  <si>
-    <t>08.05.202544</t>
-  </si>
-  <si>
-    <t>08.05.202545</t>
-  </si>
-  <si>
-    <t>08.05.202546</t>
-  </si>
-  <si>
-    <t>08.05.202547</t>
-  </si>
-  <si>
-    <t>08.05.202548</t>
-  </si>
-  <si>
-    <t>08.05.202549</t>
-  </si>
-  <si>
-    <t>08.05.202550</t>
-  </si>
-  <si>
-    <t>08.05.202551</t>
-  </si>
-  <si>
-    <t>08.05.202552</t>
-  </si>
-  <si>
-    <t>08.05.202553</t>
-  </si>
-  <si>
-    <t>08.05.202554</t>
-  </si>
-  <si>
-    <t>08.05.202555</t>
-  </si>
-  <si>
-    <t>08.05.202556</t>
-  </si>
-  <si>
-    <t>08.05.202557</t>
-  </si>
-  <si>
-    <t>08.05.202558</t>
-  </si>
-  <si>
-    <t>08.05.202559</t>
-  </si>
-  <si>
-    <t>08.05.202560</t>
-  </si>
-  <si>
-    <t>08.05.202561</t>
-  </si>
-  <si>
-    <t>08.05.202562</t>
-  </si>
-  <si>
-    <t>08.05.202563</t>
-  </si>
-  <si>
-    <t>08.05.202564</t>
-  </si>
-  <si>
-    <t>08.05.202565</t>
-  </si>
-  <si>
-    <t>08.05.202566</t>
-  </si>
-  <si>
-    <t>08.05.202567</t>
-  </si>
-  <si>
-    <t>08.05.202568</t>
-  </si>
-  <si>
-    <t>08.05.202569</t>
-  </si>
-  <si>
-    <t>08.05.202570</t>
-  </si>
-  <si>
-    <t>08.05.202571</t>
-  </si>
-  <si>
-    <t>08.05.202572</t>
-  </si>
-  <si>
-    <t>08.05.202573</t>
-  </si>
-  <si>
-    <t>08.05.202574</t>
-  </si>
-  <si>
-    <t>08.05.202575</t>
-  </si>
-  <si>
-    <t>08.05.202576</t>
-  </si>
-  <si>
-    <t>08.05.202577</t>
-  </si>
-  <si>
-    <t>08.05.202578</t>
-  </si>
-  <si>
-    <t>08.05.202579</t>
-  </si>
-  <si>
-    <t>08.05.202580</t>
-  </si>
-  <si>
-    <t>08.05.202581</t>
-  </si>
-  <si>
-    <t>08.05.202582</t>
-  </si>
-  <si>
-    <t>08.05.202583</t>
-  </si>
-  <si>
-    <t>08.05.202584</t>
-  </si>
-  <si>
-    <t>08.05.202585</t>
-  </si>
-  <si>
-    <t>08.05.202586</t>
-  </si>
-  <si>
-    <t>08.05.202587</t>
-  </si>
-  <si>
-    <t>08.05.202588</t>
-  </si>
-  <si>
-    <t>08.05.202589</t>
-  </si>
-  <si>
-    <t>08.05.202590</t>
-  </si>
-  <si>
-    <t>08.05.202591</t>
-  </si>
-  <si>
-    <t>08.05.202592</t>
-  </si>
-  <si>
-    <t>09.05.202593</t>
-  </si>
-  <si>
-    <t>09.05.202594</t>
-  </si>
-  <si>
-    <t>09.05.202595</t>
-  </si>
-  <si>
-    <t>09.05.202596</t>
-  </si>
-  <si>
-    <t>09.05.20251</t>
-  </si>
-  <si>
-    <t>09.05.20252</t>
-  </si>
-  <si>
-    <t>09.05.20253</t>
-  </si>
-  <si>
-    <t>09.05.20254</t>
-  </si>
-  <si>
-    <t>09.05.20255</t>
-  </si>
-  <si>
-    <t>09.05.20256</t>
-  </si>
-  <si>
-    <t>09.05.20257</t>
-  </si>
-  <si>
-    <t>09.05.20258</t>
-  </si>
-  <si>
-    <t>09.05.20259</t>
-  </si>
-  <si>
-    <t>09.05.202510</t>
-  </si>
-  <si>
-    <t>09.05.202511</t>
-  </si>
-  <si>
-    <t>09.05.202512</t>
-  </si>
-  <si>
-    <t>09.05.202513</t>
-  </si>
-  <si>
-    <t>09.05.202514</t>
-  </si>
-  <si>
-    <t>09.05.202515</t>
-  </si>
-  <si>
-    <t>09.05.202516</t>
-  </si>
-  <si>
-    <t>09.05.202517</t>
-  </si>
-  <si>
-    <t>09.05.202518</t>
-  </si>
-  <si>
-    <t>09.05.202519</t>
-  </si>
-  <si>
-    <t>09.05.202520</t>
-  </si>
-  <si>
-    <t>09.05.202521</t>
-  </si>
-  <si>
-    <t>09.05.202522</t>
+    <t>19.05.20251</t>
+  </si>
+  <si>
+    <t>19.05.20252</t>
+  </si>
+  <si>
+    <t>19.05.20253</t>
+  </si>
+  <si>
+    <t>19.05.20254</t>
+  </si>
+  <si>
+    <t>19.05.20255</t>
+  </si>
+  <si>
+    <t>19.05.20256</t>
+  </si>
+  <si>
+    <t>19.05.20257</t>
+  </si>
+  <si>
+    <t>19.05.20258</t>
+  </si>
+  <si>
+    <t>19.05.20259</t>
+  </si>
+  <si>
+    <t>19.05.202510</t>
+  </si>
+  <si>
+    <t>19.05.202511</t>
+  </si>
+  <si>
+    <t>19.05.202512</t>
+  </si>
+  <si>
+    <t>19.05.202513</t>
+  </si>
+  <si>
+    <t>19.05.202514</t>
+  </si>
+  <si>
+    <t>19.05.202515</t>
+  </si>
+  <si>
+    <t>19.05.202516</t>
+  </si>
+  <si>
+    <t>19.05.202517</t>
+  </si>
+  <si>
+    <t>19.05.202518</t>
+  </si>
+  <si>
+    <t>19.05.202519</t>
+  </si>
+  <si>
+    <t>19.05.202520</t>
+  </si>
+  <si>
+    <t>19.05.202521</t>
+  </si>
+  <si>
+    <t>19.05.202522</t>
+  </si>
+  <si>
+    <t>19.05.202523</t>
+  </si>
+  <si>
+    <t>19.05.202524</t>
+  </si>
+  <si>
+    <t>19.05.202525</t>
+  </si>
+  <si>
+    <t>19.05.202526</t>
+  </si>
+  <si>
+    <t>19.05.202527</t>
+  </si>
+  <si>
+    <t>19.05.202528</t>
+  </si>
+  <si>
+    <t>19.05.202529</t>
+  </si>
+  <si>
+    <t>19.05.202530</t>
+  </si>
+  <si>
+    <t>19.05.202531</t>
+  </si>
+  <si>
+    <t>19.05.202532</t>
+  </si>
+  <si>
+    <t>19.05.202533</t>
+  </si>
+  <si>
+    <t>19.05.202534</t>
+  </si>
+  <si>
+    <t>19.05.202535</t>
+  </si>
+  <si>
+    <t>19.05.202536</t>
+  </si>
+  <si>
+    <t>19.05.202537</t>
+  </si>
+  <si>
+    <t>19.05.202538</t>
+  </si>
+  <si>
+    <t>19.05.202539</t>
+  </si>
+  <si>
+    <t>19.05.202540</t>
+  </si>
+  <si>
+    <t>19.05.202541</t>
+  </si>
+  <si>
+    <t>19.05.202542</t>
+  </si>
+  <si>
+    <t>19.05.202543</t>
+  </si>
+  <si>
+    <t>19.05.202544</t>
+  </si>
+  <si>
+    <t>19.05.202545</t>
+  </si>
+  <si>
+    <t>19.05.202546</t>
+  </si>
+  <si>
+    <t>19.05.202547</t>
+  </si>
+  <si>
+    <t>19.05.202548</t>
+  </si>
+  <si>
+    <t>19.05.202549</t>
+  </si>
+  <si>
+    <t>19.05.202550</t>
+  </si>
+  <si>
+    <t>19.05.202551</t>
+  </si>
+  <si>
+    <t>19.05.202552</t>
+  </si>
+  <si>
+    <t>19.05.202553</t>
+  </si>
+  <si>
+    <t>19.05.202554</t>
+  </si>
+  <si>
+    <t>19.05.202555</t>
+  </si>
+  <si>
+    <t>19.05.202556</t>
+  </si>
+  <si>
+    <t>19.05.202557</t>
+  </si>
+  <si>
+    <t>19.05.202558</t>
+  </si>
+  <si>
+    <t>19.05.202559</t>
+  </si>
+  <si>
+    <t>19.05.202560</t>
+  </si>
+  <si>
+    <t>19.05.202561</t>
+  </si>
+  <si>
+    <t>19.05.202562</t>
+  </si>
+  <si>
+    <t>19.05.202563</t>
+  </si>
+  <si>
+    <t>19.05.202564</t>
+  </si>
+  <si>
+    <t>19.05.202565</t>
+  </si>
+  <si>
+    <t>19.05.202566</t>
+  </si>
+  <si>
+    <t>19.05.202567</t>
+  </si>
+  <si>
+    <t>19.05.202568</t>
+  </si>
+  <si>
+    <t>19.05.202569</t>
+  </si>
+  <si>
+    <t>19.05.202570</t>
+  </si>
+  <si>
+    <t>19.05.202571</t>
+  </si>
+  <si>
+    <t>19.05.202572</t>
+  </si>
+  <si>
+    <t>19.05.202573</t>
+  </si>
+  <si>
+    <t>19.05.202574</t>
+  </si>
+  <si>
+    <t>19.05.202575</t>
+  </si>
+  <si>
+    <t>19.05.202576</t>
+  </si>
+  <si>
+    <t>19.05.202577</t>
+  </si>
+  <si>
+    <t>19.05.202578</t>
+  </si>
+  <si>
+    <t>19.05.202579</t>
+  </si>
+  <si>
+    <t>19.05.202580</t>
+  </si>
+  <si>
+    <t>19.05.202581</t>
+  </si>
+  <si>
+    <t>19.05.202582</t>
+  </si>
+  <si>
+    <t>19.05.202583</t>
+  </si>
+  <si>
+    <t>19.05.202584</t>
+  </si>
+  <si>
+    <t>19.05.202585</t>
+  </si>
+  <si>
+    <t>19.05.202586</t>
+  </si>
+  <si>
+    <t>19.05.202587</t>
+  </si>
+  <si>
+    <t>19.05.202588</t>
+  </si>
+  <si>
+    <t>19.05.202589</t>
+  </si>
+  <si>
+    <t>19.05.202590</t>
+  </si>
+  <si>
+    <t>19.05.202591</t>
+  </si>
+  <si>
+    <t>19.05.202592</t>
+  </si>
+  <si>
+    <t>20.05.202593</t>
+  </si>
+  <si>
+    <t>20.05.202594</t>
+  </si>
+  <si>
+    <t>20.05.202595</t>
+  </si>
+  <si>
+    <t>20.05.202596</t>
+  </si>
+  <si>
+    <t>20.05.20251</t>
+  </si>
+  <si>
+    <t>20.05.20252</t>
+  </si>
+  <si>
+    <t>20.05.20253</t>
+  </si>
+  <si>
+    <t>20.05.20254</t>
+  </si>
+  <si>
+    <t>20.05.20255</t>
+  </si>
+  <si>
+    <t>20.05.20256</t>
+  </si>
+  <si>
+    <t>20.05.20257</t>
+  </si>
+  <si>
+    <t>20.05.20258</t>
+  </si>
+  <si>
+    <t>20.05.20259</t>
+  </si>
+  <si>
+    <t>20.05.202510</t>
+  </si>
+  <si>
+    <t>20.05.202511</t>
+  </si>
+  <si>
+    <t>20.05.202512</t>
+  </si>
+  <si>
+    <t>20.05.202513</t>
+  </si>
+  <si>
+    <t>20.05.202514</t>
+  </si>
+  <si>
+    <t>20.05.202515</t>
+  </si>
+  <si>
+    <t>20.05.202516</t>
+  </si>
+  <si>
+    <t>20.05.202517</t>
+  </si>
+  <si>
+    <t>20.05.202518</t>
+  </si>
+  <si>
+    <t>20.05.202519</t>
+  </si>
+  <si>
+    <t>20.05.202520</t>
+  </si>
+  <si>
+    <t>20.05.202521</t>
+  </si>
+  <si>
+    <t>20.05.202522</t>
+  </si>
+  <si>
+    <t>20.05.202523</t>
+  </si>
+  <si>
+    <t>20.05.202524</t>
+  </si>
+  <si>
+    <t>20.05.202525</t>
+  </si>
+  <si>
+    <t>20.05.202526</t>
+  </si>
+  <si>
+    <t>20.05.202527</t>
+  </si>
+  <si>
+    <t>20.05.202528</t>
+  </si>
+  <si>
+    <t>20.05.202529</t>
+  </si>
+  <si>
+    <t>20.05.202530</t>
+  </si>
+  <si>
+    <t>20.05.202531</t>
+  </si>
+  <si>
+    <t>20.05.202532</t>
+  </si>
+  <si>
+    <t>20.05.202533</t>
+  </si>
+  <si>
+    <t>20.05.202534</t>
+  </si>
+  <si>
+    <t>20.05.202535</t>
+  </si>
+  <si>
+    <t>20.05.202536</t>
   </si>
 </sst>
 </file>
@@ -744,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +811,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45785.04166666666</v>
+        <v>45796.04166666666</v>
       </c>
       <c r="B2">
-        <v>14.372</v>
+        <v>6.407</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -786,10 +828,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45785.05208333334</v>
+        <v>45796.05208333334</v>
       </c>
       <c r="B3">
-        <v>2.797</v>
+        <v>24.164</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -803,10 +845,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45785.0625</v>
+        <v>45796.0625</v>
       </c>
       <c r="B4">
-        <v>5.124</v>
+        <v>23.169</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -820,10 +862,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45785.07291666666</v>
+        <v>45796.07291666666</v>
       </c>
       <c r="B5">
-        <v>5.761</v>
+        <v>34.193</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -837,10 +879,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45785.08333333334</v>
+        <v>45796.08333333334</v>
       </c>
       <c r="B6">
-        <v>18.896</v>
+        <v>56.859</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -854,10 +896,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45785.09375</v>
+        <v>45796.09375</v>
       </c>
       <c r="B7">
-        <v>8.803000000000001</v>
+        <v>10.222</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -871,10 +913,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45785.10416666666</v>
+        <v>45796.10416666666</v>
       </c>
       <c r="B8">
-        <v>15.143</v>
+        <v>11.601</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -888,10 +930,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45785.11458333334</v>
+        <v>45796.11458333334</v>
       </c>
       <c r="B9">
-        <v>0.468</v>
+        <v>5.357</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -905,10 +947,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45785.125</v>
+        <v>45796.125</v>
       </c>
       <c r="B10">
-        <v>9.749000000000001</v>
+        <v>0.527</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -922,13 +964,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45785.13541666666</v>
+        <v>45796.13541666666</v>
       </c>
       <c r="B11">
-        <v>2.362</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>9.016999999999999</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -939,13 +981,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45785.14583333334</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="B12">
-        <v>1.396</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>7.933</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -956,13 +998,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45785.15625</v>
+        <v>45796.15625</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.87</v>
+        <v>5.011</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -973,13 +1015,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45785.16666666666</v>
+        <v>45796.16666666666</v>
       </c>
       <c r="B14">
-        <v>12.933</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -990,13 +1032,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45785.17708333334</v>
+        <v>45796.17708333334</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.242</v>
+        <v>0.462</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1007,10 +1049,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45785.1875</v>
+        <v>45796.1875</v>
       </c>
       <c r="B16">
-        <v>11.413</v>
+        <v>6.437</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1024,13 +1066,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45785.19791666666</v>
+        <v>45796.19791666666</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6.39</v>
       </c>
       <c r="C17">
-        <v>0.155</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1041,10 +1083,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45785.20833333334</v>
+        <v>45796.20833333334</v>
       </c>
       <c r="B18">
-        <v>31.828</v>
+        <v>19.08</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1058,10 +1100,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45785.21875</v>
+        <v>45796.21875</v>
       </c>
       <c r="B19">
-        <v>26.611</v>
+        <v>19.532</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1075,10 +1117,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45785.22916666666</v>
+        <v>45796.22916666666</v>
       </c>
       <c r="B20">
-        <v>18.873</v>
+        <v>22.46</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1092,13 +1134,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45785.23958333334</v>
+        <v>45796.23958333334</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>10.646</v>
       </c>
       <c r="C21">
-        <v>5.721</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1109,10 +1151,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45785.25</v>
+        <v>45796.25</v>
       </c>
       <c r="B22">
-        <v>27.468</v>
+        <v>28.582</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1126,10 +1168,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45785.26041666666</v>
+        <v>45796.26041666666</v>
       </c>
       <c r="B23">
-        <v>21.225</v>
+        <v>40.089</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1143,10 +1185,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45785.27083333334</v>
+        <v>45796.27083333334</v>
       </c>
       <c r="B24">
-        <v>6.002</v>
+        <v>24.934</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1160,13 +1202,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45785.28125</v>
+        <v>45796.28125</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3.245</v>
       </c>
       <c r="C25">
-        <v>10.176</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1177,10 +1219,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45785.29166666666</v>
+        <v>45796.29166666666</v>
       </c>
       <c r="B26">
-        <v>14.97</v>
+        <v>6.148</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1194,13 +1236,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45785.30208333334</v>
+        <v>45796.30208333334</v>
       </c>
       <c r="B27">
-        <v>27.518</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1.881</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1211,13 +1253,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45785.3125</v>
+        <v>45796.3125</v>
       </c>
       <c r="B28">
-        <v>31.427</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1228,10 +1270,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45785.32291666666</v>
+        <v>45796.32291666666</v>
       </c>
       <c r="B29">
-        <v>38.028</v>
+        <v>5.703</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1245,10 +1287,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45785.33333333334</v>
+        <v>45796.33333333334</v>
       </c>
       <c r="B30">
-        <v>39.594</v>
+        <v>20.227</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1262,10 +1304,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45785.34375</v>
+        <v>45796.34375</v>
       </c>
       <c r="B31">
-        <v>24.812</v>
+        <v>1.748</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1279,10 +1321,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45785.35416666666</v>
+        <v>45796.35416666666</v>
       </c>
       <c r="B32">
-        <v>15.019</v>
+        <v>24.518</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1296,13 +1338,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45785.36458333334</v>
+        <v>45796.36458333334</v>
       </c>
       <c r="B33">
-        <v>6.694</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>3.673</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1313,13 +1355,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45785.375</v>
+        <v>45796.375</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>5.621</v>
+        <v>64.27500000000001</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1330,13 +1372,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45785.38541666666</v>
+        <v>45796.38541666666</v>
       </c>
       <c r="B35">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>50.627</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1347,13 +1389,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45785.39583333334</v>
+        <v>45796.39583333334</v>
       </c>
       <c r="B36">
-        <v>5.539</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1364,13 +1406,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45785.40625</v>
+        <v>45796.40625</v>
       </c>
       <c r="B37">
-        <v>3.695</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>43.947</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1381,13 +1423,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45785.41666666666</v>
+        <v>45796.41666666666</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>20.499</v>
+        <v>126.968</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1398,13 +1440,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45785.42708333334</v>
+        <v>45796.42708333334</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>2.995</v>
+        <v>34.449</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1415,13 +1457,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45785.4375</v>
+        <v>45796.4375</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>13.076</v>
       </c>
       <c r="C40">
-        <v>19.224</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1432,10 +1474,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45785.44791666666</v>
+        <v>45796.44791666666</v>
       </c>
       <c r="B41">
-        <v>2.26</v>
+        <v>16.665</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1449,13 +1491,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45785.45833333334</v>
+        <v>45796.45833333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>69.063</v>
       </c>
       <c r="C42">
-        <v>0.9409999999999999</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1466,13 +1508,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45785.46875</v>
+        <v>45796.46875</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>127.567</v>
       </c>
       <c r="C43">
-        <v>0.539</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1483,13 +1525,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45785.47916666666</v>
+        <v>45796.47916666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>103.179</v>
       </c>
       <c r="C44">
-        <v>7.45</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1500,13 +1542,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45785.48958333334</v>
+        <v>45796.48958333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>107.623</v>
       </c>
       <c r="C45">
-        <v>8.714</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1517,10 +1559,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45785.5</v>
+        <v>45796.5</v>
       </c>
       <c r="B46">
-        <v>2.549</v>
+        <v>32.93</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1534,13 +1576,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45785.51041666666</v>
+        <v>45796.51041666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>17.434</v>
       </c>
       <c r="C47">
-        <v>1.822</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1551,13 +1593,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45785.52083333334</v>
+        <v>45796.52083333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>82.053</v>
       </c>
       <c r="C48">
-        <v>11.88</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1568,10 +1610,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45785.53125</v>
+        <v>45796.53125</v>
       </c>
       <c r="B49">
-        <v>0.461</v>
+        <v>51.112</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1585,13 +1627,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45785.54166666666</v>
+        <v>45796.54166666666</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>12.619</v>
       </c>
       <c r="C50">
-        <v>10.676</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1602,13 +1644,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45785.55208333334</v>
+        <v>45796.55208333334</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>6.815</v>
       </c>
       <c r="C51">
-        <v>4.821</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1619,10 +1661,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45785.5625</v>
+        <v>45796.5625</v>
       </c>
       <c r="B52">
-        <v>3.881</v>
+        <v>9.712</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1636,13 +1678,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45785.57291666666</v>
+        <v>45796.57291666666</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>11.011</v>
       </c>
       <c r="C53">
-        <v>0.204</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1653,10 +1695,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45785.58333333334</v>
+        <v>45796.58333333334</v>
       </c>
       <c r="B54">
-        <v>30.644</v>
+        <v>53.524</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1670,10 +1712,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45785.59375</v>
+        <v>45796.59375</v>
       </c>
       <c r="B55">
-        <v>54.927</v>
+        <v>19.776</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1687,10 +1729,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45785.60416666666</v>
+        <v>45796.60416666666</v>
       </c>
       <c r="B56">
-        <v>76.99299999999999</v>
+        <v>14.818</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1704,13 +1746,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45785.61458333334</v>
+        <v>45796.61458333334</v>
       </c>
       <c r="B57">
-        <v>95.63800000000001</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>25.624</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1721,13 +1763,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45785.625</v>
+        <v>45796.625</v>
       </c>
       <c r="B58">
-        <v>40.634</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>36.119</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1738,10 +1780,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45785.63541666666</v>
+        <v>45796.63541666666</v>
       </c>
       <c r="B59">
-        <v>22.19</v>
+        <v>1.693</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1755,13 +1797,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45785.64583333334</v>
+        <v>45796.64583333334</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>5.105</v>
+        <v>7.595</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1772,13 +1814,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45785.65625</v>
+        <v>45796.65625</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>9.728</v>
+        <v>42.901</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1789,10 +1831,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45785.66666666666</v>
+        <v>45796.66666666666</v>
       </c>
       <c r="B62">
-        <v>14.233</v>
+        <v>9.601000000000001</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1806,13 +1848,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45785.67708333334</v>
+        <v>45796.67708333334</v>
       </c>
       <c r="B63">
-        <v>21.887</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>15.593</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1823,13 +1865,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45785.6875</v>
+        <v>45796.6875</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>10.114</v>
+        <v>14.992</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1840,13 +1882,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45785.69791666666</v>
+        <v>45796.69791666666</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>3.678</v>
+        <v>2.11</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1857,13 +1899,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45785.70833333334</v>
+        <v>45796.70833333334</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>27.052</v>
       </c>
       <c r="C66">
-        <v>6.751</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1874,13 +1916,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45785.71875</v>
+        <v>45796.71875</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>12.803</v>
       </c>
       <c r="C67">
-        <v>6.324</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1891,13 +1933,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45785.72916666666</v>
+        <v>45796.72916666666</v>
       </c>
       <c r="B68">
-        <v>3.823</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>13.808</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1908,10 +1950,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45785.73958333334</v>
+        <v>45796.73958333334</v>
       </c>
       <c r="B69">
-        <v>8.321999999999999</v>
+        <v>3.981</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1925,10 +1967,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45785.75</v>
+        <v>45796.75</v>
       </c>
       <c r="B70">
-        <v>25.261</v>
+        <v>39.388</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1942,10 +1984,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45785.76041666666</v>
+        <v>45796.76041666666</v>
       </c>
       <c r="B71">
-        <v>19.117</v>
+        <v>19.856</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1959,13 +2001,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45785.77083333334</v>
+        <v>45796.77083333334</v>
       </c>
       <c r="B72">
-        <v>22.733</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>4.868</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1976,13 +2018,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45785.78125</v>
+        <v>45796.78125</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>7.512</v>
+        <v>88.617</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -1993,13 +2035,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45785.79166666666</v>
+        <v>45796.79166666666</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>18.487</v>
+        <v>73.866</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2010,13 +2052,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45785.80208333334</v>
+        <v>45796.80208333334</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>36.686</v>
+        <v>43.818</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2027,13 +2069,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45785.8125</v>
+        <v>45796.8125</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0.62</v>
+        <v>28.37</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2044,10 +2086,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45785.82291666666</v>
+        <v>45796.82291666666</v>
       </c>
       <c r="B77">
-        <v>28.126</v>
+        <v>1.148</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2061,13 +2103,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45785.83333333334</v>
+        <v>45796.83333333334</v>
       </c>
       <c r="B78">
-        <v>24.139</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>16.005</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2078,10 +2120,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45785.84375</v>
+        <v>45796.84375</v>
       </c>
       <c r="B79">
-        <v>11.838</v>
+        <v>29.718</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2095,10 +2137,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45785.85416666666</v>
+        <v>45796.85416666666</v>
       </c>
       <c r="B80">
-        <v>23.439</v>
+        <v>31.036</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2112,10 +2154,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45785.86458333334</v>
+        <v>45796.86458333334</v>
       </c>
       <c r="B81">
-        <v>40.714</v>
+        <v>44.131</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2129,10 +2171,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45785.875</v>
+        <v>45796.875</v>
       </c>
       <c r="B82">
-        <v>6.098</v>
+        <v>4.48</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2146,10 +2188,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45785.88541666666</v>
+        <v>45796.88541666666</v>
       </c>
       <c r="B83">
-        <v>15.751</v>
+        <v>10.561</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2163,13 +2205,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45785.89583333334</v>
+        <v>45796.89583333334</v>
       </c>
       <c r="B84">
-        <v>1.361</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>22.741</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2180,13 +2222,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45785.90625</v>
+        <v>45796.90625</v>
       </c>
       <c r="B85">
-        <v>9.939</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>13.691</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2197,13 +2239,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45785.91666666666</v>
+        <v>45796.91666666666</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>3.094</v>
+        <v>20.15</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2214,13 +2256,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45785.92708333334</v>
+        <v>45796.92708333334</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>13.232</v>
+        <v>2.278</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2231,13 +2273,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45785.9375</v>
+        <v>45796.9375</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>3.336</v>
       </c>
       <c r="C88">
-        <v>11.831</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2248,13 +2290,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45785.94791666666</v>
+        <v>45796.94791666666</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>13.952</v>
       </c>
       <c r="C89">
-        <v>13.524</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2265,13 +2307,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45785.95833333334</v>
+        <v>45796.95833333334</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>27.181</v>
       </c>
       <c r="C90">
-        <v>5.511</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2282,13 +2324,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45785.96875</v>
+        <v>45796.96875</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>7.51</v>
       </c>
       <c r="C91">
-        <v>7.896</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2299,13 +2341,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45785.97916666666</v>
+        <v>45796.97916666666</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>6.472</v>
       </c>
       <c r="C92">
-        <v>9.685</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2316,13 +2358,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45785.98958333334</v>
+        <v>45796.98958333334</v>
       </c>
       <c r="B93">
-        <v>12.634</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>6.186</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2333,13 +2375,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>3.562</v>
       </c>
       <c r="C94">
-        <v>5.029</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2350,13 +2392,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>10.644</v>
+        <v>18.842</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2367,13 +2409,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>2.757</v>
+        <v>11.535</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2384,10 +2426,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B97">
-        <v>17.52</v>
+        <v>19.606</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2401,10 +2443,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B98">
-        <v>70.953</v>
+        <v>49.844</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2418,10 +2460,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B99">
-        <v>62.788</v>
+        <v>40.212</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2435,10 +2477,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B100">
-        <v>35.09</v>
+        <v>43.199</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2452,10 +2494,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B101">
-        <v>19.841</v>
+        <v>13.373</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2469,10 +2511,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B102">
-        <v>15.155</v>
+        <v>4.943</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2486,13 +2528,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>29.049</v>
+        <v>2.003</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2503,13 +2545,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>19.849</v>
+        <v>6.274</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2520,13 +2562,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>19.557</v>
       </c>
       <c r="C105">
-        <v>0.657</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2537,10 +2579,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B106">
-        <v>10.77</v>
+        <v>18.601</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2554,10 +2596,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B107">
-        <v>18.11</v>
+        <v>7.875</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2571,13 +2613,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B108">
-        <v>20.56</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>10.227</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2588,13 +2630,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B109">
-        <v>22.311</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>13.449</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2605,13 +2647,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B110">
-        <v>17.29</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>29.255</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2622,10 +2664,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B111">
-        <v>19.399</v>
+        <v>4.092</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2639,10 +2681,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B112">
-        <v>26.188</v>
+        <v>4.292</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2656,10 +2698,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B113">
-        <v>44.623</v>
+        <v>6.235</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2673,10 +2715,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B114">
-        <v>12.852</v>
+        <v>9.255000000000001</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2690,13 +2732,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B115">
-        <v>23.449</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>12.352</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2707,13 +2749,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B116">
-        <v>10.337</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>24.713</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2724,13 +2766,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>9.848000000000001</v>
+        <v>46.314</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2741,13 +2783,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B118">
-        <v>17.611</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>71.117</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2758,19 +2800,257 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B119">
-        <v>1.644</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="D119">
         <v>22</v>
       </c>
       <c r="E119" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2">
+        <v>45797.27083333334</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>3.791</v>
+      </c>
+      <c r="D120">
+        <v>23</v>
+      </c>
+      <c r="E120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2">
+        <v>45797.28125</v>
+      </c>
+      <c r="B121">
+        <v>16.428</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>24</v>
+      </c>
+      <c r="E121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>45797.29166666666</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>2.075</v>
+      </c>
+      <c r="D122">
+        <v>25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>45797.30208333334</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>7.421</v>
+      </c>
+      <c r="D123">
+        <v>26</v>
+      </c>
+      <c r="E123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>45797.3125</v>
+      </c>
+      <c r="B124">
+        <v>23.885</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>45797.32291666666</v>
+      </c>
+      <c r="B125">
+        <v>71.59399999999999</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>28</v>
+      </c>
+      <c r="E125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>45797.33333333334</v>
+      </c>
+      <c r="B126">
+        <v>59.926</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>29</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>45797.34375</v>
+      </c>
+      <c r="B127">
+        <v>123.167</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>45797.35416666666</v>
+      </c>
+      <c r="B128">
+        <v>145.214</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>45797.36458333334</v>
+      </c>
+      <c r="B129">
+        <v>150.578</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>45797.375</v>
+      </c>
+      <c r="B130">
+        <v>31.236</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>33</v>
+      </c>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45797.38541666666</v>
+      </c>
+      <c r="B131">
+        <v>33.92</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>34</v>
+      </c>
+      <c r="E131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45797.39583333334</v>
+      </c>
+      <c r="B132">
+        <v>41.446</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45797.40625</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0.455</v>
+      </c>
+      <c r="D133">
+        <v>36</v>
+      </c>
+      <c r="E133" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>19.05.20251</t>
-  </si>
-  <si>
-    <t>19.05.20252</t>
-  </si>
-  <si>
-    <t>19.05.20253</t>
-  </si>
-  <si>
-    <t>19.05.20254</t>
-  </si>
-  <si>
-    <t>19.05.20255</t>
-  </si>
-  <si>
-    <t>19.05.20256</t>
-  </si>
-  <si>
-    <t>19.05.20257</t>
-  </si>
-  <si>
-    <t>19.05.20258</t>
-  </si>
-  <si>
-    <t>19.05.20259</t>
-  </si>
-  <si>
-    <t>19.05.202510</t>
-  </si>
-  <si>
-    <t>19.05.202511</t>
-  </si>
-  <si>
-    <t>19.05.202512</t>
-  </si>
-  <si>
-    <t>19.05.202513</t>
-  </si>
-  <si>
-    <t>19.05.202514</t>
-  </si>
-  <si>
-    <t>19.05.202515</t>
-  </si>
-  <si>
-    <t>19.05.202516</t>
-  </si>
-  <si>
-    <t>19.05.202517</t>
-  </si>
-  <si>
-    <t>19.05.202518</t>
-  </si>
-  <si>
-    <t>19.05.202519</t>
-  </si>
-  <si>
-    <t>19.05.202520</t>
-  </si>
-  <si>
-    <t>19.05.202521</t>
-  </si>
-  <si>
-    <t>19.05.202522</t>
-  </si>
-  <si>
-    <t>19.05.202523</t>
-  </si>
-  <si>
-    <t>19.05.202524</t>
-  </si>
-  <si>
-    <t>19.05.202525</t>
-  </si>
-  <si>
-    <t>19.05.202526</t>
-  </si>
-  <si>
-    <t>19.05.202527</t>
-  </si>
-  <si>
-    <t>19.05.202528</t>
-  </si>
-  <si>
-    <t>19.05.202529</t>
-  </si>
-  <si>
-    <t>19.05.202530</t>
-  </si>
-  <si>
-    <t>19.05.202531</t>
-  </si>
-  <si>
-    <t>19.05.202532</t>
-  </si>
-  <si>
-    <t>19.05.202533</t>
-  </si>
-  <si>
-    <t>19.05.202534</t>
-  </si>
-  <si>
-    <t>19.05.202535</t>
-  </si>
-  <si>
-    <t>19.05.202536</t>
-  </si>
-  <si>
-    <t>19.05.202537</t>
-  </si>
-  <si>
-    <t>19.05.202538</t>
-  </si>
-  <si>
-    <t>19.05.202539</t>
-  </si>
-  <si>
-    <t>19.05.202540</t>
-  </si>
-  <si>
-    <t>19.05.202541</t>
-  </si>
-  <si>
-    <t>19.05.202542</t>
-  </si>
-  <si>
-    <t>19.05.202543</t>
-  </si>
-  <si>
-    <t>19.05.202544</t>
-  </si>
-  <si>
-    <t>19.05.202545</t>
-  </si>
-  <si>
-    <t>19.05.202546</t>
-  </si>
-  <si>
-    <t>19.05.202547</t>
-  </si>
-  <si>
-    <t>19.05.202548</t>
-  </si>
-  <si>
-    <t>19.05.202549</t>
-  </si>
-  <si>
-    <t>19.05.202550</t>
-  </si>
-  <si>
-    <t>19.05.202551</t>
-  </si>
-  <si>
-    <t>19.05.202552</t>
-  </si>
-  <si>
-    <t>19.05.202553</t>
-  </si>
-  <si>
-    <t>19.05.202554</t>
-  </si>
-  <si>
-    <t>19.05.202555</t>
-  </si>
-  <si>
-    <t>19.05.202556</t>
-  </si>
-  <si>
-    <t>19.05.202557</t>
-  </si>
-  <si>
-    <t>19.05.202558</t>
-  </si>
-  <si>
-    <t>19.05.202559</t>
-  </si>
-  <si>
-    <t>19.05.202560</t>
-  </si>
-  <si>
-    <t>19.05.202561</t>
-  </si>
-  <si>
-    <t>19.05.202562</t>
-  </si>
-  <si>
-    <t>19.05.202563</t>
-  </si>
-  <si>
-    <t>19.05.202564</t>
-  </si>
-  <si>
-    <t>19.05.202565</t>
-  </si>
-  <si>
-    <t>19.05.202566</t>
-  </si>
-  <si>
-    <t>19.05.202567</t>
-  </si>
-  <si>
-    <t>19.05.202568</t>
-  </si>
-  <si>
-    <t>19.05.202569</t>
-  </si>
-  <si>
-    <t>19.05.202570</t>
-  </si>
-  <si>
-    <t>19.05.202571</t>
-  </si>
-  <si>
-    <t>19.05.202572</t>
-  </si>
-  <si>
-    <t>19.05.202573</t>
-  </si>
-  <si>
-    <t>19.05.202574</t>
-  </si>
-  <si>
-    <t>19.05.202575</t>
-  </si>
-  <si>
-    <t>19.05.202576</t>
-  </si>
-  <si>
-    <t>19.05.202577</t>
-  </si>
-  <si>
-    <t>19.05.202578</t>
-  </si>
-  <si>
-    <t>19.05.202579</t>
-  </si>
-  <si>
-    <t>19.05.202580</t>
-  </si>
-  <si>
-    <t>19.05.202581</t>
-  </si>
-  <si>
-    <t>19.05.202582</t>
-  </si>
-  <si>
-    <t>19.05.202583</t>
-  </si>
-  <si>
-    <t>19.05.202584</t>
-  </si>
-  <si>
-    <t>19.05.202585</t>
-  </si>
-  <si>
-    <t>19.05.202586</t>
-  </si>
-  <si>
-    <t>19.05.202587</t>
-  </si>
-  <si>
-    <t>19.05.202588</t>
-  </si>
-  <si>
-    <t>19.05.202589</t>
-  </si>
-  <si>
-    <t>19.05.202590</t>
-  </si>
-  <si>
-    <t>19.05.202591</t>
-  </si>
-  <si>
-    <t>19.05.202592</t>
-  </si>
-  <si>
-    <t>20.05.202593</t>
-  </si>
-  <si>
-    <t>20.05.202594</t>
-  </si>
-  <si>
-    <t>20.05.202595</t>
-  </si>
-  <si>
-    <t>20.05.202596</t>
-  </si>
-  <si>
     <t>20.05.20251</t>
   </si>
   <si>
@@ -425,6 +137,591 @@
   </si>
   <si>
     <t>20.05.202536</t>
+  </si>
+  <si>
+    <t>20.05.202537</t>
+  </si>
+  <si>
+    <t>20.05.202538</t>
+  </si>
+  <si>
+    <t>20.05.202539</t>
+  </si>
+  <si>
+    <t>20.05.202540</t>
+  </si>
+  <si>
+    <t>20.05.202541</t>
+  </si>
+  <si>
+    <t>20.05.202542</t>
+  </si>
+  <si>
+    <t>20.05.202543</t>
+  </si>
+  <si>
+    <t>20.05.202544</t>
+  </si>
+  <si>
+    <t>20.05.202545</t>
+  </si>
+  <si>
+    <t>20.05.202546</t>
+  </si>
+  <si>
+    <t>20.05.202547</t>
+  </si>
+  <si>
+    <t>20.05.202548</t>
+  </si>
+  <si>
+    <t>20.05.202549</t>
+  </si>
+  <si>
+    <t>20.05.202550</t>
+  </si>
+  <si>
+    <t>20.05.202551</t>
+  </si>
+  <si>
+    <t>20.05.202552</t>
+  </si>
+  <si>
+    <t>20.05.202553</t>
+  </si>
+  <si>
+    <t>20.05.202554</t>
+  </si>
+  <si>
+    <t>20.05.202555</t>
+  </si>
+  <si>
+    <t>20.05.202556</t>
+  </si>
+  <si>
+    <t>20.05.202557</t>
+  </si>
+  <si>
+    <t>20.05.202558</t>
+  </si>
+  <si>
+    <t>20.05.202559</t>
+  </si>
+  <si>
+    <t>20.05.202560</t>
+  </si>
+  <si>
+    <t>20.05.202561</t>
+  </si>
+  <si>
+    <t>20.05.202562</t>
+  </si>
+  <si>
+    <t>20.05.202563</t>
+  </si>
+  <si>
+    <t>20.05.202564</t>
+  </si>
+  <si>
+    <t>20.05.202565</t>
+  </si>
+  <si>
+    <t>20.05.202566</t>
+  </si>
+  <si>
+    <t>20.05.202567</t>
+  </si>
+  <si>
+    <t>20.05.202568</t>
+  </si>
+  <si>
+    <t>20.05.202569</t>
+  </si>
+  <si>
+    <t>20.05.202570</t>
+  </si>
+  <si>
+    <t>20.05.202571</t>
+  </si>
+  <si>
+    <t>20.05.202572</t>
+  </si>
+  <si>
+    <t>20.05.202573</t>
+  </si>
+  <si>
+    <t>20.05.202574</t>
+  </si>
+  <si>
+    <t>20.05.202575</t>
+  </si>
+  <si>
+    <t>20.05.202576</t>
+  </si>
+  <si>
+    <t>20.05.202577</t>
+  </si>
+  <si>
+    <t>20.05.202578</t>
+  </si>
+  <si>
+    <t>20.05.202579</t>
+  </si>
+  <si>
+    <t>20.05.202580</t>
+  </si>
+  <si>
+    <t>20.05.202581</t>
+  </si>
+  <si>
+    <t>20.05.202582</t>
+  </si>
+  <si>
+    <t>20.05.202583</t>
+  </si>
+  <si>
+    <t>20.05.202584</t>
+  </si>
+  <si>
+    <t>20.05.202585</t>
+  </si>
+  <si>
+    <t>20.05.202586</t>
+  </si>
+  <si>
+    <t>20.05.202587</t>
+  </si>
+  <si>
+    <t>20.05.202588</t>
+  </si>
+  <si>
+    <t>20.05.202589</t>
+  </si>
+  <si>
+    <t>20.05.202590</t>
+  </si>
+  <si>
+    <t>20.05.202591</t>
+  </si>
+  <si>
+    <t>20.05.202592</t>
+  </si>
+  <si>
+    <t>21.05.202593</t>
+  </si>
+  <si>
+    <t>21.05.202594</t>
+  </si>
+  <si>
+    <t>21.05.202595</t>
+  </si>
+  <si>
+    <t>21.05.202596</t>
+  </si>
+  <si>
+    <t>21.05.20251</t>
+  </si>
+  <si>
+    <t>21.05.20252</t>
+  </si>
+  <si>
+    <t>21.05.20253</t>
+  </si>
+  <si>
+    <t>21.05.20254</t>
+  </si>
+  <si>
+    <t>21.05.20255</t>
+  </si>
+  <si>
+    <t>21.05.20256</t>
+  </si>
+  <si>
+    <t>21.05.20257</t>
+  </si>
+  <si>
+    <t>21.05.20258</t>
+  </si>
+  <si>
+    <t>21.05.20259</t>
+  </si>
+  <si>
+    <t>21.05.202510</t>
+  </si>
+  <si>
+    <t>21.05.202511</t>
+  </si>
+  <si>
+    <t>21.05.202512</t>
+  </si>
+  <si>
+    <t>21.05.202513</t>
+  </si>
+  <si>
+    <t>21.05.202514</t>
+  </si>
+  <si>
+    <t>21.05.202515</t>
+  </si>
+  <si>
+    <t>21.05.202516</t>
+  </si>
+  <si>
+    <t>21.05.202517</t>
+  </si>
+  <si>
+    <t>21.05.202518</t>
+  </si>
+  <si>
+    <t>21.05.202519</t>
+  </si>
+  <si>
+    <t>21.05.202520</t>
+  </si>
+  <si>
+    <t>21.05.202521</t>
+  </si>
+  <si>
+    <t>21.05.202522</t>
+  </si>
+  <si>
+    <t>21.05.202523</t>
+  </si>
+  <si>
+    <t>21.05.202524</t>
+  </si>
+  <si>
+    <t>21.05.202525</t>
+  </si>
+  <si>
+    <t>21.05.202526</t>
+  </si>
+  <si>
+    <t>21.05.202527</t>
+  </si>
+  <si>
+    <t>21.05.202528</t>
+  </si>
+  <si>
+    <t>21.05.202529</t>
+  </si>
+  <si>
+    <t>21.05.202530</t>
+  </si>
+  <si>
+    <t>21.05.202531</t>
+  </si>
+  <si>
+    <t>21.05.202532</t>
+  </si>
+  <si>
+    <t>21.05.202533</t>
+  </si>
+  <si>
+    <t>21.05.202534</t>
+  </si>
+  <si>
+    <t>21.05.202535</t>
+  </si>
+  <si>
+    <t>21.05.202536</t>
+  </si>
+  <si>
+    <t>21.05.202537</t>
+  </si>
+  <si>
+    <t>21.05.202538</t>
+  </si>
+  <si>
+    <t>21.05.202539</t>
+  </si>
+  <si>
+    <t>21.05.202540</t>
+  </si>
+  <si>
+    <t>21.05.202541</t>
+  </si>
+  <si>
+    <t>21.05.202542</t>
+  </si>
+  <si>
+    <t>21.05.202543</t>
+  </si>
+  <si>
+    <t>21.05.202544</t>
+  </si>
+  <si>
+    <t>21.05.202545</t>
+  </si>
+  <si>
+    <t>21.05.202546</t>
+  </si>
+  <si>
+    <t>21.05.202547</t>
+  </si>
+  <si>
+    <t>21.05.202548</t>
+  </si>
+  <si>
+    <t>21.05.202549</t>
+  </si>
+  <si>
+    <t>21.05.202550</t>
+  </si>
+  <si>
+    <t>21.05.202551</t>
+  </si>
+  <si>
+    <t>21.05.202552</t>
+  </si>
+  <si>
+    <t>21.05.202553</t>
+  </si>
+  <si>
+    <t>21.05.202554</t>
+  </si>
+  <si>
+    <t>21.05.202555</t>
+  </si>
+  <si>
+    <t>21.05.202556</t>
+  </si>
+  <si>
+    <t>21.05.202557</t>
+  </si>
+  <si>
+    <t>21.05.202558</t>
+  </si>
+  <si>
+    <t>21.05.202559</t>
+  </si>
+  <si>
+    <t>21.05.202560</t>
+  </si>
+  <si>
+    <t>21.05.202561</t>
+  </si>
+  <si>
+    <t>21.05.202562</t>
+  </si>
+  <si>
+    <t>21.05.202563</t>
+  </si>
+  <si>
+    <t>21.05.202564</t>
+  </si>
+  <si>
+    <t>21.05.202565</t>
+  </si>
+  <si>
+    <t>21.05.202566</t>
+  </si>
+  <si>
+    <t>21.05.202567</t>
+  </si>
+  <si>
+    <t>21.05.202568</t>
+  </si>
+  <si>
+    <t>21.05.202569</t>
+  </si>
+  <si>
+    <t>21.05.202570</t>
+  </si>
+  <si>
+    <t>21.05.202571</t>
+  </si>
+  <si>
+    <t>21.05.202572</t>
+  </si>
+  <si>
+    <t>21.05.202573</t>
+  </si>
+  <si>
+    <t>21.05.202574</t>
+  </si>
+  <si>
+    <t>21.05.202575</t>
+  </si>
+  <si>
+    <t>21.05.202576</t>
+  </si>
+  <si>
+    <t>21.05.202577</t>
+  </si>
+  <si>
+    <t>21.05.202578</t>
+  </si>
+  <si>
+    <t>21.05.202579</t>
+  </si>
+  <si>
+    <t>21.05.202580</t>
+  </si>
+  <si>
+    <t>21.05.202581</t>
+  </si>
+  <si>
+    <t>21.05.202582</t>
+  </si>
+  <si>
+    <t>21.05.202583</t>
+  </si>
+  <si>
+    <t>21.05.202584</t>
+  </si>
+  <si>
+    <t>21.05.202585</t>
+  </si>
+  <si>
+    <t>21.05.202586</t>
+  </si>
+  <si>
+    <t>21.05.202587</t>
+  </si>
+  <si>
+    <t>21.05.202588</t>
+  </si>
+  <si>
+    <t>21.05.202589</t>
+  </si>
+  <si>
+    <t>21.05.202590</t>
+  </si>
+  <si>
+    <t>21.05.202591</t>
+  </si>
+  <si>
+    <t>21.05.202592</t>
+  </si>
+  <si>
+    <t>22.05.202593</t>
+  </si>
+  <si>
+    <t>22.05.202594</t>
+  </si>
+  <si>
+    <t>22.05.202595</t>
+  </si>
+  <si>
+    <t>22.05.202596</t>
+  </si>
+  <si>
+    <t>22.05.20251</t>
+  </si>
+  <si>
+    <t>22.05.20252</t>
+  </si>
+  <si>
+    <t>22.05.20253</t>
+  </si>
+  <si>
+    <t>22.05.20254</t>
+  </si>
+  <si>
+    <t>22.05.20255</t>
+  </si>
+  <si>
+    <t>22.05.20256</t>
+  </si>
+  <si>
+    <t>22.05.20257</t>
+  </si>
+  <si>
+    <t>22.05.20258</t>
+  </si>
+  <si>
+    <t>22.05.20259</t>
+  </si>
+  <si>
+    <t>22.05.202510</t>
+  </si>
+  <si>
+    <t>22.05.202511</t>
+  </si>
+  <si>
+    <t>22.05.202512</t>
+  </si>
+  <si>
+    <t>22.05.202513</t>
+  </si>
+  <si>
+    <t>22.05.202514</t>
+  </si>
+  <si>
+    <t>22.05.202515</t>
+  </si>
+  <si>
+    <t>22.05.202516</t>
+  </si>
+  <si>
+    <t>22.05.202517</t>
+  </si>
+  <si>
+    <t>22.05.202518</t>
+  </si>
+  <si>
+    <t>22.05.202519</t>
+  </si>
+  <si>
+    <t>22.05.202520</t>
+  </si>
+  <si>
+    <t>22.05.202521</t>
+  </si>
+  <si>
+    <t>22.05.202522</t>
+  </si>
+  <si>
+    <t>22.05.202523</t>
+  </si>
+  <si>
+    <t>22.05.202524</t>
+  </si>
+  <si>
+    <t>22.05.202525</t>
+  </si>
+  <si>
+    <t>22.05.202526</t>
+  </si>
+  <si>
+    <t>22.05.202527</t>
+  </si>
+  <si>
+    <t>22.05.202528</t>
+  </si>
+  <si>
+    <t>22.05.202529</t>
+  </si>
+  <si>
+    <t>22.05.202530</t>
+  </si>
+  <si>
+    <t>22.05.202531</t>
+  </si>
+  <si>
+    <t>22.05.202532</t>
+  </si>
+  <si>
+    <t>22.05.202533</t>
+  </si>
+  <si>
+    <t>22.05.202534</t>
+  </si>
+  <si>
+    <t>22.05.202535</t>
+  </si>
+  <si>
+    <t>22.05.202536</t>
+  </si>
+  <si>
+    <t>22.05.202537</t>
+  </si>
+  <si>
+    <t>22.05.202538</t>
+  </si>
+  <si>
+    <t>22.05.202539</t>
   </si>
 </sst>
 </file>
@@ -786,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,10 +1108,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45796.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B2">
-        <v>6.407</v>
+        <v>49.844</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -828,10 +1125,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45796.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B3">
-        <v>24.164</v>
+        <v>40.212</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -845,10 +1142,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45796.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B4">
-        <v>23.169</v>
+        <v>43.199</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -862,10 +1159,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45796.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B5">
-        <v>34.193</v>
+        <v>13.373</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -879,10 +1176,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45796.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B6">
-        <v>56.859</v>
+        <v>4.943</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -896,13 +1193,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45796.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B7">
-        <v>10.222</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2.003</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -913,13 +1210,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45796.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B8">
-        <v>11.601</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>6.274</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -930,10 +1227,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45796.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B9">
-        <v>5.357</v>
+        <v>19.557</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -947,10 +1244,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45796.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B10">
-        <v>0.527</v>
+        <v>18.601</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -964,13 +1261,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45796.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>7.875</v>
       </c>
       <c r="C11">
-        <v>9.016999999999999</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -981,13 +1278,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45796.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.933</v>
+        <v>10.227</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -998,13 +1295,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45796.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.011</v>
+        <v>13.449</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1015,13 +1312,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45796.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.035</v>
+        <v>29.255</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1032,13 +1329,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45796.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.092</v>
       </c>
       <c r="C15">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1049,10 +1346,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45796.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B16">
-        <v>6.437</v>
+        <v>4.292</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1066,10 +1363,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45796.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B17">
-        <v>6.39</v>
+        <v>6.235</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1083,10 +1380,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45796.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B18">
-        <v>19.08</v>
+        <v>9.255000000000001</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1100,13 +1397,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45796.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B19">
-        <v>19.532</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>12.352</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1117,13 +1414,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45796.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B20">
-        <v>22.46</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>24.713</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1134,13 +1431,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45796.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B21">
-        <v>10.646</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>46.314</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1151,13 +1448,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45796.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B22">
-        <v>28.582</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>71.117</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1168,13 +1465,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45796.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B23">
-        <v>40.089</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1185,13 +1482,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45796.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B24">
-        <v>24.934</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3.791</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1202,10 +1499,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45796.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B25">
-        <v>3.245</v>
+        <v>16.428</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1219,13 +1516,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45796.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B26">
-        <v>6.148</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2.075</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1236,13 +1533,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45796.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1.881</v>
+        <v>7.421</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1253,13 +1550,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45796.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>23.885</v>
       </c>
       <c r="C28">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1270,10 +1567,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45796.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B29">
-        <v>5.703</v>
+        <v>71.59399999999999</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1287,10 +1584,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45796.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B30">
-        <v>20.227</v>
+        <v>59.926</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1304,10 +1601,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45796.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B31">
-        <v>1.748</v>
+        <v>123.167</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1321,10 +1618,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45796.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B32">
-        <v>24.518</v>
+        <v>145.214</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1338,13 +1635,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45796.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>150.578</v>
       </c>
       <c r="C33">
-        <v>3.673</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1355,13 +1652,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45796.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>31.236</v>
       </c>
       <c r="C34">
-        <v>64.27500000000001</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1372,13 +1669,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45796.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>33.92</v>
       </c>
       <c r="C35">
-        <v>50.627</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1389,13 +1686,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45796.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>41.446</v>
       </c>
       <c r="C36">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1406,13 +1703,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45796.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>43.947</v>
+        <v>0.455</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1423,13 +1720,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45796.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>10.464</v>
       </c>
       <c r="C38">
-        <v>126.968</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1440,13 +1737,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45796.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="C39">
-        <v>34.449</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1457,13 +1754,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45796.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B40">
-        <v>13.076</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>15.096</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1474,13 +1771,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45796.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B41">
-        <v>16.665</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>7.907</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1491,10 +1788,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45796.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B42">
-        <v>69.063</v>
+        <v>0.641</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1508,13 +1805,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45796.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B43">
-        <v>127.567</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2.803</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1525,13 +1822,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45796.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B44">
-        <v>103.179</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>12.443</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1542,13 +1839,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45796.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B45">
-        <v>107.623</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>19.238</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1559,10 +1856,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45796.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B46">
-        <v>32.93</v>
+        <v>17.057</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1576,10 +1873,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45796.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B47">
-        <v>17.434</v>
+        <v>5.651</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1593,10 +1890,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45796.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B48">
-        <v>82.053</v>
+        <v>0.822</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1610,10 +1907,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45796.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B49">
-        <v>51.112</v>
+        <v>0.055</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1627,10 +1924,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45796.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B50">
-        <v>12.619</v>
+        <v>21.775</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1644,10 +1941,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45796.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B51">
-        <v>6.815</v>
+        <v>8.362</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1661,13 +1958,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45796.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B52">
-        <v>9.712</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>12.36</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1678,13 +1975,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45796.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B53">
-        <v>11.011</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>16.705</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1695,10 +1992,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45796.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B54">
-        <v>53.524</v>
+        <v>6.168</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1712,10 +2009,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45796.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B55">
-        <v>19.776</v>
+        <v>4.962</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1729,13 +2026,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45796.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B56">
-        <v>14.818</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>11.682</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1746,13 +2043,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45796.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>25.624</v>
+        <v>0.602</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1763,13 +2060,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45796.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>33.92</v>
       </c>
       <c r="C58">
-        <v>36.119</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1780,10 +2077,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45796.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B59">
-        <v>1.693</v>
+        <v>34.005</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1797,13 +2094,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45796.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>24.921</v>
       </c>
       <c r="C60">
-        <v>7.595</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1814,13 +2111,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45796.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>47.717</v>
       </c>
       <c r="C61">
-        <v>42.901</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1831,10 +2128,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45796.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B62">
-        <v>9.601000000000001</v>
+        <v>43.187</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1848,13 +2145,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45796.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>23.167</v>
       </c>
       <c r="C63">
-        <v>15.593</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1865,13 +2162,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45796.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>13.235</v>
       </c>
       <c r="C64">
-        <v>14.992</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1882,13 +2179,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45796.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>6.752</v>
       </c>
       <c r="C65">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1899,13 +2196,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45796.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B66">
-        <v>27.052</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>17.334</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1916,10 +2213,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45796.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B67">
-        <v>12.803</v>
+        <v>16.341</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1933,13 +2230,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45796.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>13.808</v>
+        <v>3.795</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1950,13 +2247,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45796.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B69">
-        <v>3.981</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>8.891</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1967,10 +2264,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45796.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B70">
-        <v>39.388</v>
+        <v>3.2</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1984,13 +2281,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45796.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B71">
-        <v>19.856</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>7.779</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2001,13 +2298,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45796.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>4.868</v>
+        <v>21.219</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2018,13 +2315,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45796.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>88.617</v>
+        <v>2.848</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2035,13 +2332,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45796.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>73.866</v>
+        <v>5.832</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2052,13 +2349,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45796.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>43.818</v>
+        <v>2.44</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2069,13 +2366,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45796.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>28.37</v>
+        <v>4.041</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2086,13 +2383,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45796.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B77">
-        <v>1.148</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>29.842</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2103,13 +2400,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45796.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>16.005</v>
+        <v>23.226</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2120,13 +2417,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45796.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B79">
-        <v>29.718</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>29.946</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2137,13 +2434,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45796.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B80">
-        <v>31.036</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>38.411</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2154,13 +2451,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45796.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B81">
-        <v>44.131</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>23.549</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2171,13 +2468,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45796.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B82">
-        <v>4.48</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>37.944</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2188,13 +2485,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45796.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B83">
-        <v>10.561</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>19.092</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2205,13 +2502,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45796.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>22.741</v>
+        <v>4.804</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2222,13 +2519,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45796.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>13.691</v>
+        <v>2.388</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2239,13 +2536,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45796.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>20.15</v>
+        <v>2.416</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2256,13 +2553,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45796.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>2.278</v>
+        <v>3.261</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2273,10 +2570,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45796.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B88">
-        <v>3.336</v>
+        <v>0.438</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2290,13 +2587,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45796.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B89">
-        <v>13.952</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>14.582</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2307,13 +2604,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45796.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B90">
-        <v>27.181</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>25.751</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2324,13 +2621,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45796.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B91">
-        <v>7.51</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>21.49</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2341,13 +2638,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45796.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B92">
-        <v>6.472</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>19.331</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2358,13 +2655,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45796.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>6.186</v>
+        <v>5.323</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2375,10 +2672,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B94">
-        <v>3.562</v>
+        <v>0.453</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2392,13 +2689,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45797.01041666666</v>
+        <v>45798.01041666666</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>18.842</v>
+        <v>18.978</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2409,13 +2706,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45797.02083333334</v>
+        <v>45798.02083333334</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>11.535</v>
+        <v>12.316</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2426,13 +2723,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45797.03125</v>
+        <v>45798.03125</v>
       </c>
       <c r="B97">
-        <v>19.606</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2443,13 +2740,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45797.04166666666</v>
+        <v>45798.04166666666</v>
       </c>
       <c r="B98">
-        <v>49.844</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1.379</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2460,13 +2757,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45797.05208333334</v>
+        <v>45798.05208333334</v>
       </c>
       <c r="B99">
-        <v>40.212</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2477,13 +2774,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45797.0625</v>
+        <v>45798.0625</v>
       </c>
       <c r="B100">
-        <v>43.199</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>4.865</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2494,10 +2791,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45797.07291666666</v>
+        <v>45798.07291666666</v>
       </c>
       <c r="B101">
-        <v>13.373</v>
+        <v>1.39</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2511,10 +2808,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45797.08333333334</v>
+        <v>45798.08333333334</v>
       </c>
       <c r="B102">
-        <v>4.943</v>
+        <v>11.059</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2528,13 +2825,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45797.09375</v>
+        <v>45798.09375</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>12.046</v>
       </c>
       <c r="C103">
-        <v>2.003</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2545,13 +2842,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45797.10416666666</v>
+        <v>45798.10416666666</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>7.026</v>
       </c>
       <c r="C104">
-        <v>6.274</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2562,10 +2859,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45797.11458333334</v>
+        <v>45798.11458333334</v>
       </c>
       <c r="B105">
-        <v>19.557</v>
+        <v>9.19</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2579,10 +2876,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45797.125</v>
+        <v>45798.125</v>
       </c>
       <c r="B106">
-        <v>18.601</v>
+        <v>23.772</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2596,10 +2893,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45797.13541666666</v>
+        <v>45798.13541666666</v>
       </c>
       <c r="B107">
-        <v>7.875</v>
+        <v>20.445</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2613,13 +2910,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45797.14583333334</v>
+        <v>45798.14583333334</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>22.359</v>
       </c>
       <c r="C108">
-        <v>10.227</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2630,13 +2927,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45797.15625</v>
+        <v>45798.15625</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>24.861</v>
       </c>
       <c r="C109">
-        <v>13.449</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2647,13 +2944,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45797.16666666666</v>
+        <v>45798.16666666666</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>30.07</v>
       </c>
       <c r="C110">
-        <v>29.255</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2664,10 +2961,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45797.17708333334</v>
+        <v>45798.17708333334</v>
       </c>
       <c r="B111">
-        <v>4.092</v>
+        <v>20.594</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2681,10 +2978,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45797.1875</v>
+        <v>45798.1875</v>
       </c>
       <c r="B112">
-        <v>4.292</v>
+        <v>36.017</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2698,10 +2995,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45797.19791666666</v>
+        <v>45798.19791666666</v>
       </c>
       <c r="B113">
-        <v>6.235</v>
+        <v>46.196</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2715,10 +3012,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45797.20833333334</v>
+        <v>45798.20833333334</v>
       </c>
       <c r="B114">
-        <v>9.255000000000001</v>
+        <v>33.224</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2732,13 +3029,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45797.21875</v>
+        <v>45798.21875</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>30.211</v>
       </c>
       <c r="C115">
-        <v>12.352</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2749,13 +3046,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45797.22916666666</v>
+        <v>45798.22916666666</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>57.956</v>
       </c>
       <c r="C116">
-        <v>24.713</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2766,13 +3063,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45797.23958333334</v>
+        <v>45798.23958333334</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>39.794</v>
       </c>
       <c r="C117">
-        <v>46.314</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2783,13 +3080,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45797.25</v>
+        <v>45798.25</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>20.885</v>
       </c>
       <c r="C118">
-        <v>71.117</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2800,13 +3097,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45797.26041666666</v>
+        <v>45798.26041666666</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>15.058</v>
       </c>
       <c r="C119">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2817,13 +3114,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45797.27083333334</v>
+        <v>45798.27083333334</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>44.574</v>
       </c>
       <c r="C120">
-        <v>3.791</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2834,10 +3131,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45797.28125</v>
+        <v>45798.28125</v>
       </c>
       <c r="B121">
-        <v>16.428</v>
+        <v>52.81</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2851,13 +3148,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45797.29166666666</v>
+        <v>45798.29166666666</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>33.449</v>
       </c>
       <c r="C122">
-        <v>2.075</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -2868,13 +3165,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45797.30208333334</v>
+        <v>45798.30208333334</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>11.636</v>
       </c>
       <c r="C123">
-        <v>7.421</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -2885,10 +3182,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45797.3125</v>
+        <v>45798.3125</v>
       </c>
       <c r="B124">
-        <v>23.885</v>
+        <v>8.131</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2902,10 +3199,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45797.32291666666</v>
+        <v>45798.32291666666</v>
       </c>
       <c r="B125">
-        <v>71.59399999999999</v>
+        <v>13.046</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2919,10 +3216,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45797.33333333334</v>
+        <v>45798.33333333334</v>
       </c>
       <c r="B126">
-        <v>59.926</v>
+        <v>0.109</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2936,10 +3233,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45797.34375</v>
+        <v>45798.34375</v>
       </c>
       <c r="B127">
-        <v>123.167</v>
+        <v>14.361</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2953,10 +3250,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45797.35416666666</v>
+        <v>45798.35416666666</v>
       </c>
       <c r="B128">
-        <v>145.214</v>
+        <v>18.348</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2970,10 +3267,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45797.36458333334</v>
+        <v>45798.36458333334</v>
       </c>
       <c r="B129">
-        <v>150.578</v>
+        <v>23.494</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2987,10 +3284,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45797.375</v>
+        <v>45798.375</v>
       </c>
       <c r="B130">
-        <v>31.236</v>
+        <v>12.409</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3004,10 +3301,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45797.38541666666</v>
+        <v>45798.38541666666</v>
       </c>
       <c r="B131">
-        <v>33.92</v>
+        <v>2.835</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3021,10 +3318,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45797.39583333334</v>
+        <v>45798.39583333334</v>
       </c>
       <c r="B132">
-        <v>41.446</v>
+        <v>5.573</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3038,19 +3335,1702 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45797.40625</v>
+        <v>45798.40625</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>0.315</v>
       </c>
       <c r="C133">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>36</v>
       </c>
       <c r="E133" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45798.41666666666</v>
+      </c>
+      <c r="B134">
+        <v>2.809</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45798.42708333334</v>
+      </c>
+      <c r="B135">
+        <v>12.906</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45798.4375</v>
+      </c>
+      <c r="B136">
+        <v>11.319</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>39</v>
+      </c>
+      <c r="E136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45798.44791666666</v>
+      </c>
+      <c r="B137">
+        <v>8.301</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>40</v>
+      </c>
+      <c r="E137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45798.45833333334</v>
+      </c>
+      <c r="B138">
+        <v>39.651</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45798.46875</v>
+      </c>
+      <c r="B139">
+        <v>43.339</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>42</v>
+      </c>
+      <c r="E139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45798.47916666666</v>
+      </c>
+      <c r="B140">
+        <v>46.945</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>43</v>
+      </c>
+      <c r="E140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45798.48958333334</v>
+      </c>
+      <c r="B141">
+        <v>20.968</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>44</v>
+      </c>
+      <c r="E141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45798.5</v>
+      </c>
+      <c r="B142">
+        <v>28.319</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>45</v>
+      </c>
+      <c r="E142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45798.51041666666</v>
+      </c>
+      <c r="B143">
+        <v>12.261</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>46</v>
+      </c>
+      <c r="E143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45798.52083333334</v>
+      </c>
+      <c r="B144">
+        <v>24.434</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>47</v>
+      </c>
+      <c r="E144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45798.53125</v>
+      </c>
+      <c r="B145">
+        <v>35.478</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>48</v>
+      </c>
+      <c r="E145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45798.54166666666</v>
+      </c>
+      <c r="B146">
+        <v>24.472</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>49</v>
+      </c>
+      <c r="E146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45798.55208333334</v>
+      </c>
+      <c r="B147">
+        <v>40.675</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45798.5625</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0.702</v>
+      </c>
+      <c r="D148">
+        <v>51</v>
+      </c>
+      <c r="E148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45798.57291666666</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>10.313</v>
+      </c>
+      <c r="D149">
+        <v>52</v>
+      </c>
+      <c r="E149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45798.58333333334</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>18.348</v>
+      </c>
+      <c r="D150">
+        <v>53</v>
+      </c>
+      <c r="E150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45798.59375</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>33.675</v>
+      </c>
+      <c r="D151">
+        <v>54</v>
+      </c>
+      <c r="E151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45798.60416666666</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>13.723</v>
+      </c>
+      <c r="D152">
+        <v>55</v>
+      </c>
+      <c r="E152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45798.61458333334</v>
+      </c>
+      <c r="B153">
+        <v>15.636</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>56</v>
+      </c>
+      <c r="E153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45798.625</v>
+      </c>
+      <c r="B154">
+        <v>4.09</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>57</v>
+      </c>
+      <c r="E154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45798.63541666666</v>
+      </c>
+      <c r="B155">
+        <v>39.537</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>58</v>
+      </c>
+      <c r="E155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45798.64583333334</v>
+      </c>
+      <c r="B156">
+        <v>30.781</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>59</v>
+      </c>
+      <c r="E156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45798.65625</v>
+      </c>
+      <c r="B157">
+        <v>31.82</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>60</v>
+      </c>
+      <c r="E157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45798.66666666666</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>5.779</v>
+      </c>
+      <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45798.67708333334</v>
+      </c>
+      <c r="B159">
+        <v>27.12</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>62</v>
+      </c>
+      <c r="E159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45798.6875</v>
+      </c>
+      <c r="B160">
+        <v>38.963</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>63</v>
+      </c>
+      <c r="E160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45798.69791666666</v>
+      </c>
+      <c r="B161">
+        <v>28.326</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>64</v>
+      </c>
+      <c r="E161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45798.70833333334</v>
+      </c>
+      <c r="B162">
+        <v>8.054</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>65</v>
+      </c>
+      <c r="E162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45798.71875</v>
+      </c>
+      <c r="B163">
+        <v>28.115</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>66</v>
+      </c>
+      <c r="E163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45798.72916666666</v>
+      </c>
+      <c r="B164">
+        <v>35.135</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>67</v>
+      </c>
+      <c r="E164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45798.73958333334</v>
+      </c>
+      <c r="B165">
+        <v>16.794</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>68</v>
+      </c>
+      <c r="E165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45798.75</v>
+      </c>
+      <c r="B166">
+        <v>5.033</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>69</v>
+      </c>
+      <c r="E166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45798.76041666666</v>
+      </c>
+      <c r="B167">
+        <v>26.143</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>70</v>
+      </c>
+      <c r="E167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45798.77083333334</v>
+      </c>
+      <c r="B168">
+        <v>51.984</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>71</v>
+      </c>
+      <c r="E168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45798.78125</v>
+      </c>
+      <c r="B169">
+        <v>57.293</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>72</v>
+      </c>
+      <c r="E169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45798.79166666666</v>
+      </c>
+      <c r="B170">
+        <v>33.551</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>73</v>
+      </c>
+      <c r="E170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45798.80208333334</v>
+      </c>
+      <c r="B171">
+        <v>35.631</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>74</v>
+      </c>
+      <c r="E171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45798.8125</v>
+      </c>
+      <c r="B172">
+        <v>28.322</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>75</v>
+      </c>
+      <c r="E172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45798.82291666666</v>
+      </c>
+      <c r="B173">
+        <v>28.835</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>76</v>
+      </c>
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45798.83333333334</v>
+      </c>
+      <c r="B174">
+        <v>2.317</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>77</v>
+      </c>
+      <c r="E174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45798.84375</v>
+      </c>
+      <c r="B175">
+        <v>10.4</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>78</v>
+      </c>
+      <c r="E175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45798.85416666666</v>
+      </c>
+      <c r="B176">
+        <v>24.309</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>79</v>
+      </c>
+      <c r="E176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45798.86458333334</v>
+      </c>
+      <c r="B177">
+        <v>15.014</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>80</v>
+      </c>
+      <c r="E177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45798.875</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>23.479</v>
+      </c>
+      <c r="D178">
+        <v>81</v>
+      </c>
+      <c r="E178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45798.88541666666</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>28.238</v>
+      </c>
+      <c r="D179">
+        <v>82</v>
+      </c>
+      <c r="E179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45798.89583333334</v>
+      </c>
+      <c r="B180">
+        <v>2.782</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>83</v>
+      </c>
+      <c r="E180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45798.90625</v>
+      </c>
+      <c r="B181">
+        <v>5.373</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>84</v>
+      </c>
+      <c r="E181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45798.91666666666</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>6.082</v>
+      </c>
+      <c r="D182">
+        <v>85</v>
+      </c>
+      <c r="E182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45798.92708333334</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>22.659</v>
+      </c>
+      <c r="D183">
+        <v>86</v>
+      </c>
+      <c r="E183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45798.9375</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>13.295</v>
+      </c>
+      <c r="D184">
+        <v>87</v>
+      </c>
+      <c r="E184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45798.94791666666</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>2.823</v>
+      </c>
+      <c r="D185">
+        <v>88</v>
+      </c>
+      <c r="E185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45798.95833333334</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>13.63</v>
+      </c>
+      <c r="D186">
+        <v>89</v>
+      </c>
+      <c r="E186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45798.96875</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>10.492</v>
+      </c>
+      <c r="D187">
+        <v>90</v>
+      </c>
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45798.97916666666</v>
+      </c>
+      <c r="B188">
+        <v>9.414</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>91</v>
+      </c>
+      <c r="E188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45798.98958333334</v>
+      </c>
+      <c r="B189">
+        <v>5.138</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>92</v>
+      </c>
+      <c r="E189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B190">
+        <v>14.533</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>93</v>
+      </c>
+      <c r="E190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45799.01041666666</v>
+      </c>
+      <c r="B191">
+        <v>0.55</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>94</v>
+      </c>
+      <c r="E191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45799.02083333334</v>
+      </c>
+      <c r="B192">
+        <v>13.749</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>95</v>
+      </c>
+      <c r="E192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45799.03125</v>
+      </c>
+      <c r="B193">
+        <v>0.768</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>96</v>
+      </c>
+      <c r="E193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45799.04166666666</v>
+      </c>
+      <c r="B194">
+        <v>2.565</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45799.05208333334</v>
+      </c>
+      <c r="B195">
+        <v>0.643</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45799.0625</v>
+      </c>
+      <c r="B196">
+        <v>4.483</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45799.07291666666</v>
+      </c>
+      <c r="B197">
+        <v>7.6</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45799.08333333334</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0.657</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45799.09375</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>26.477</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45799.10416666666</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>19.767</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45799.11458333334</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>30.318</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45799.125</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>33.413</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45799.13541666666</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>41.01</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45799.14583333334</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>48.578</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45799.15625</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>58.697</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45799.16666666666</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>41.741</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45799.17708333334</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>28.099</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45799.1875</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>45.367</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45799.19791666666</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>42.374</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45799.20833333334</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>35.38</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45799.21875</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>54.431</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45799.22916666666</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>22.499</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45799.23958333334</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>20.706</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45799.25</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>15.34</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45799.26041666666</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>46.707</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45799.27083333334</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>18.081</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45799.28125</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>25.058</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45799.29166666666</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>58.896</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45799.30208333334</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>81.73</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45799.3125</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>19.334</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45799.32291666666</v>
+      </c>
+      <c r="B221">
+        <v>2.464</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45799.33333333334</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>29.855</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45799.34375</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>14.9</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45799.35416666666</v>
+      </c>
+      <c r="B224">
+        <v>32.271</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45799.36458333334</v>
+      </c>
+      <c r="B225">
+        <v>88.958</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45799.375</v>
+      </c>
+      <c r="B226">
+        <v>70.78700000000001</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45799.38541666666</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>8.317</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45799.39583333334</v>
+      </c>
+      <c r="B228">
+        <v>15.72</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45799.40625</v>
+      </c>
+      <c r="B229">
+        <v>19.547</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45799.41666666666</v>
+      </c>
+      <c r="B230">
+        <v>56.128</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45799.42708333334</v>
+      </c>
+      <c r="B231">
+        <v>75.148</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45799.4375</v>
+      </c>
+      <c r="B232">
+        <v>28.585</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>29.05.20251</t>
-  </si>
-  <si>
-    <t>29.05.20252</t>
-  </si>
-  <si>
-    <t>29.05.20253</t>
-  </si>
-  <si>
-    <t>29.05.20254</t>
-  </si>
-  <si>
-    <t>29.05.20255</t>
-  </si>
-  <si>
-    <t>29.05.20256</t>
-  </si>
-  <si>
-    <t>29.05.20257</t>
-  </si>
-  <si>
-    <t>29.05.20258</t>
-  </si>
-  <si>
-    <t>29.05.20259</t>
-  </si>
-  <si>
-    <t>29.05.202510</t>
-  </si>
-  <si>
-    <t>29.05.202511</t>
-  </si>
-  <si>
-    <t>29.05.202512</t>
-  </si>
-  <si>
-    <t>29.05.202513</t>
-  </si>
-  <si>
-    <t>29.05.202514</t>
-  </si>
-  <si>
-    <t>29.05.202515</t>
-  </si>
-  <si>
-    <t>29.05.202516</t>
-  </si>
-  <si>
-    <t>29.05.202517</t>
-  </si>
-  <si>
-    <t>29.05.202518</t>
-  </si>
-  <si>
-    <t>29.05.202519</t>
-  </si>
-  <si>
-    <t>29.05.202520</t>
-  </si>
-  <si>
-    <t>29.05.202521</t>
-  </si>
-  <si>
-    <t>29.05.202522</t>
-  </si>
-  <si>
-    <t>29.05.202523</t>
-  </si>
-  <si>
-    <t>29.05.202524</t>
-  </si>
-  <si>
-    <t>29.05.202525</t>
-  </si>
-  <si>
-    <t>29.05.202526</t>
-  </si>
-  <si>
-    <t>29.05.202527</t>
-  </si>
-  <si>
-    <t>29.05.202528</t>
-  </si>
-  <si>
-    <t>29.05.202529</t>
-  </si>
-  <si>
-    <t>29.05.202530</t>
-  </si>
-  <si>
-    <t>29.05.202531</t>
-  </si>
-  <si>
-    <t>29.05.202532</t>
-  </si>
-  <si>
-    <t>29.05.202533</t>
-  </si>
-  <si>
-    <t>29.05.202534</t>
-  </si>
-  <si>
-    <t>29.05.202535</t>
-  </si>
-  <si>
-    <t>29.05.202536</t>
-  </si>
-  <si>
-    <t>29.05.202537</t>
-  </si>
-  <si>
-    <t>29.05.202538</t>
-  </si>
-  <si>
-    <t>29.05.202539</t>
-  </si>
-  <si>
-    <t>29.05.202540</t>
-  </si>
-  <si>
-    <t>29.05.202541</t>
-  </si>
-  <si>
-    <t>29.05.202542</t>
-  </si>
-  <si>
-    <t>29.05.202543</t>
-  </si>
-  <si>
-    <t>29.05.202544</t>
-  </si>
-  <si>
-    <t>29.05.202545</t>
-  </si>
-  <si>
-    <t>29.05.202546</t>
-  </si>
-  <si>
-    <t>29.05.202547</t>
-  </si>
-  <si>
-    <t>29.05.202548</t>
-  </si>
-  <si>
-    <t>29.05.202549</t>
-  </si>
-  <si>
-    <t>29.05.202550</t>
-  </si>
-  <si>
-    <t>29.05.202551</t>
-  </si>
-  <si>
-    <t>29.05.202552</t>
-  </si>
-  <si>
-    <t>29.05.202553</t>
-  </si>
-  <si>
-    <t>29.05.202554</t>
-  </si>
-  <si>
-    <t>29.05.202555</t>
-  </si>
-  <si>
-    <t>29.05.202556</t>
-  </si>
-  <si>
-    <t>29.05.202557</t>
-  </si>
-  <si>
-    <t>29.05.202558</t>
-  </si>
-  <si>
-    <t>29.05.202559</t>
-  </si>
-  <si>
-    <t>29.05.202560</t>
-  </si>
-  <si>
-    <t>29.05.202561</t>
-  </si>
-  <si>
-    <t>29.05.202562</t>
-  </si>
-  <si>
-    <t>29.05.202563</t>
-  </si>
-  <si>
-    <t>29.05.202564</t>
-  </si>
-  <si>
-    <t>29.05.202565</t>
-  </si>
-  <si>
-    <t>29.05.202566</t>
-  </si>
-  <si>
-    <t>29.05.202567</t>
-  </si>
-  <si>
-    <t>29.05.202568</t>
-  </si>
-  <si>
-    <t>29.05.202569</t>
-  </si>
-  <si>
-    <t>29.05.202570</t>
-  </si>
-  <si>
-    <t>29.05.202571</t>
-  </si>
-  <si>
-    <t>29.05.202572</t>
-  </si>
-  <si>
-    <t>29.05.202573</t>
-  </si>
-  <si>
-    <t>29.05.202574</t>
-  </si>
-  <si>
-    <t>29.05.202575</t>
-  </si>
-  <si>
-    <t>29.05.202576</t>
-  </si>
-  <si>
-    <t>29.05.202577</t>
-  </si>
-  <si>
-    <t>29.05.202578</t>
-  </si>
-  <si>
-    <t>29.05.202579</t>
-  </si>
-  <si>
-    <t>29.05.202580</t>
-  </si>
-  <si>
-    <t>29.05.202581</t>
-  </si>
-  <si>
-    <t>29.05.202582</t>
-  </si>
-  <si>
-    <t>29.05.202583</t>
-  </si>
-  <si>
-    <t>29.05.202584</t>
-  </si>
-  <si>
-    <t>29.05.202585</t>
-  </si>
-  <si>
-    <t>29.05.202586</t>
-  </si>
-  <si>
-    <t>29.05.202587</t>
-  </si>
-  <si>
-    <t>29.05.202588</t>
-  </si>
-  <si>
-    <t>29.05.202589</t>
-  </si>
-  <si>
-    <t>29.05.202590</t>
-  </si>
-  <si>
-    <t>29.05.202591</t>
-  </si>
-  <si>
-    <t>29.05.202592</t>
-  </si>
-  <si>
-    <t>30.05.202593</t>
-  </si>
-  <si>
-    <t>30.05.202594</t>
-  </si>
-  <si>
-    <t>30.05.202595</t>
-  </si>
-  <si>
-    <t>30.05.202596</t>
-  </si>
-  <si>
     <t>30.05.20251</t>
   </si>
   <si>
@@ -386,6 +98,909 @@
   </si>
   <si>
     <t>30.05.202523</t>
+  </si>
+  <si>
+    <t>30.05.202524</t>
+  </si>
+  <si>
+    <t>30.05.202525</t>
+  </si>
+  <si>
+    <t>30.05.202526</t>
+  </si>
+  <si>
+    <t>30.05.202527</t>
+  </si>
+  <si>
+    <t>30.05.202528</t>
+  </si>
+  <si>
+    <t>30.05.202529</t>
+  </si>
+  <si>
+    <t>30.05.202530</t>
+  </si>
+  <si>
+    <t>30.05.202531</t>
+  </si>
+  <si>
+    <t>30.05.202532</t>
+  </si>
+  <si>
+    <t>30.05.202533</t>
+  </si>
+  <si>
+    <t>30.05.202534</t>
+  </si>
+  <si>
+    <t>30.05.202535</t>
+  </si>
+  <si>
+    <t>30.05.202536</t>
+  </si>
+  <si>
+    <t>30.05.202537</t>
+  </si>
+  <si>
+    <t>30.05.202538</t>
+  </si>
+  <si>
+    <t>30.05.202539</t>
+  </si>
+  <si>
+    <t>30.05.202540</t>
+  </si>
+  <si>
+    <t>30.05.202541</t>
+  </si>
+  <si>
+    <t>30.05.202542</t>
+  </si>
+  <si>
+    <t>30.05.202543</t>
+  </si>
+  <si>
+    <t>30.05.202544</t>
+  </si>
+  <si>
+    <t>30.05.202545</t>
+  </si>
+  <si>
+    <t>30.05.202546</t>
+  </si>
+  <si>
+    <t>30.05.202547</t>
+  </si>
+  <si>
+    <t>30.05.202548</t>
+  </si>
+  <si>
+    <t>30.05.202549</t>
+  </si>
+  <si>
+    <t>30.05.202550</t>
+  </si>
+  <si>
+    <t>30.05.202551</t>
+  </si>
+  <si>
+    <t>30.05.202552</t>
+  </si>
+  <si>
+    <t>30.05.202553</t>
+  </si>
+  <si>
+    <t>30.05.202554</t>
+  </si>
+  <si>
+    <t>30.05.202555</t>
+  </si>
+  <si>
+    <t>30.05.202556</t>
+  </si>
+  <si>
+    <t>30.05.202557</t>
+  </si>
+  <si>
+    <t>30.05.202558</t>
+  </si>
+  <si>
+    <t>30.05.202559</t>
+  </si>
+  <si>
+    <t>30.05.202560</t>
+  </si>
+  <si>
+    <t>30.05.202561</t>
+  </si>
+  <si>
+    <t>30.05.202562</t>
+  </si>
+  <si>
+    <t>30.05.202563</t>
+  </si>
+  <si>
+    <t>30.05.202564</t>
+  </si>
+  <si>
+    <t>30.05.202565</t>
+  </si>
+  <si>
+    <t>30.05.202566</t>
+  </si>
+  <si>
+    <t>30.05.202567</t>
+  </si>
+  <si>
+    <t>30.05.202568</t>
+  </si>
+  <si>
+    <t>30.05.202569</t>
+  </si>
+  <si>
+    <t>30.05.202570</t>
+  </si>
+  <si>
+    <t>30.05.202571</t>
+  </si>
+  <si>
+    <t>30.05.202572</t>
+  </si>
+  <si>
+    <t>30.05.202573</t>
+  </si>
+  <si>
+    <t>30.05.202574</t>
+  </si>
+  <si>
+    <t>30.05.202575</t>
+  </si>
+  <si>
+    <t>30.05.202576</t>
+  </si>
+  <si>
+    <t>30.05.202577</t>
+  </si>
+  <si>
+    <t>30.05.202578</t>
+  </si>
+  <si>
+    <t>30.05.202579</t>
+  </si>
+  <si>
+    <t>30.05.202580</t>
+  </si>
+  <si>
+    <t>30.05.202581</t>
+  </si>
+  <si>
+    <t>30.05.202582</t>
+  </si>
+  <si>
+    <t>30.05.202583</t>
+  </si>
+  <si>
+    <t>30.05.202584</t>
+  </si>
+  <si>
+    <t>30.05.202585</t>
+  </si>
+  <si>
+    <t>30.05.202586</t>
+  </si>
+  <si>
+    <t>30.05.202587</t>
+  </si>
+  <si>
+    <t>30.05.202588</t>
+  </si>
+  <si>
+    <t>30.05.202589</t>
+  </si>
+  <si>
+    <t>30.05.202590</t>
+  </si>
+  <si>
+    <t>30.05.202591</t>
+  </si>
+  <si>
+    <t>30.05.202592</t>
+  </si>
+  <si>
+    <t>31.05.202593</t>
+  </si>
+  <si>
+    <t>31.05.202594</t>
+  </si>
+  <si>
+    <t>31.05.202595</t>
+  </si>
+  <si>
+    <t>31.05.202596</t>
+  </si>
+  <si>
+    <t>31.05.20251</t>
+  </si>
+  <si>
+    <t>31.05.20252</t>
+  </si>
+  <si>
+    <t>31.05.20253</t>
+  </si>
+  <si>
+    <t>31.05.20254</t>
+  </si>
+  <si>
+    <t>31.05.20255</t>
+  </si>
+  <si>
+    <t>31.05.20256</t>
+  </si>
+  <si>
+    <t>31.05.20257</t>
+  </si>
+  <si>
+    <t>31.05.20258</t>
+  </si>
+  <si>
+    <t>31.05.20259</t>
+  </si>
+  <si>
+    <t>31.05.202510</t>
+  </si>
+  <si>
+    <t>31.05.202511</t>
+  </si>
+  <si>
+    <t>31.05.202512</t>
+  </si>
+  <si>
+    <t>31.05.202513</t>
+  </si>
+  <si>
+    <t>31.05.202514</t>
+  </si>
+  <si>
+    <t>31.05.202515</t>
+  </si>
+  <si>
+    <t>31.05.202516</t>
+  </si>
+  <si>
+    <t>31.05.202517</t>
+  </si>
+  <si>
+    <t>31.05.202518</t>
+  </si>
+  <si>
+    <t>31.05.202519</t>
+  </si>
+  <si>
+    <t>31.05.202520</t>
+  </si>
+  <si>
+    <t>31.05.202521</t>
+  </si>
+  <si>
+    <t>31.05.202522</t>
+  </si>
+  <si>
+    <t>31.05.202523</t>
+  </si>
+  <si>
+    <t>31.05.202524</t>
+  </si>
+  <si>
+    <t>31.05.202525</t>
+  </si>
+  <si>
+    <t>31.05.202526</t>
+  </si>
+  <si>
+    <t>31.05.202527</t>
+  </si>
+  <si>
+    <t>31.05.202528</t>
+  </si>
+  <si>
+    <t>31.05.202529</t>
+  </si>
+  <si>
+    <t>31.05.202530</t>
+  </si>
+  <si>
+    <t>31.05.202531</t>
+  </si>
+  <si>
+    <t>31.05.202532</t>
+  </si>
+  <si>
+    <t>31.05.202533</t>
+  </si>
+  <si>
+    <t>31.05.202534</t>
+  </si>
+  <si>
+    <t>31.05.202535</t>
+  </si>
+  <si>
+    <t>31.05.202536</t>
+  </si>
+  <si>
+    <t>31.05.202537</t>
+  </si>
+  <si>
+    <t>31.05.202538</t>
+  </si>
+  <si>
+    <t>31.05.202539</t>
+  </si>
+  <si>
+    <t>31.05.202540</t>
+  </si>
+  <si>
+    <t>31.05.202541</t>
+  </si>
+  <si>
+    <t>31.05.202542</t>
+  </si>
+  <si>
+    <t>31.05.202543</t>
+  </si>
+  <si>
+    <t>31.05.202544</t>
+  </si>
+  <si>
+    <t>31.05.202545</t>
+  </si>
+  <si>
+    <t>31.05.202546</t>
+  </si>
+  <si>
+    <t>31.05.202547</t>
+  </si>
+  <si>
+    <t>31.05.202548</t>
+  </si>
+  <si>
+    <t>31.05.202549</t>
+  </si>
+  <si>
+    <t>31.05.202550</t>
+  </si>
+  <si>
+    <t>31.05.202551</t>
+  </si>
+  <si>
+    <t>31.05.202552</t>
+  </si>
+  <si>
+    <t>31.05.202553</t>
+  </si>
+  <si>
+    <t>31.05.202554</t>
+  </si>
+  <si>
+    <t>31.05.202555</t>
+  </si>
+  <si>
+    <t>31.05.202556</t>
+  </si>
+  <si>
+    <t>31.05.202557</t>
+  </si>
+  <si>
+    <t>31.05.202558</t>
+  </si>
+  <si>
+    <t>31.05.202559</t>
+  </si>
+  <si>
+    <t>31.05.202560</t>
+  </si>
+  <si>
+    <t>31.05.202561</t>
+  </si>
+  <si>
+    <t>31.05.202562</t>
+  </si>
+  <si>
+    <t>31.05.202563</t>
+  </si>
+  <si>
+    <t>31.05.202564</t>
+  </si>
+  <si>
+    <t>31.05.202565</t>
+  </si>
+  <si>
+    <t>31.05.202566</t>
+  </si>
+  <si>
+    <t>31.05.202567</t>
+  </si>
+  <si>
+    <t>31.05.202568</t>
+  </si>
+  <si>
+    <t>31.05.202569</t>
+  </si>
+  <si>
+    <t>31.05.202570</t>
+  </si>
+  <si>
+    <t>31.05.202571</t>
+  </si>
+  <si>
+    <t>31.05.202572</t>
+  </si>
+  <si>
+    <t>31.05.202573</t>
+  </si>
+  <si>
+    <t>31.05.202574</t>
+  </si>
+  <si>
+    <t>31.05.202575</t>
+  </si>
+  <si>
+    <t>31.05.202576</t>
+  </si>
+  <si>
+    <t>31.05.202577</t>
+  </si>
+  <si>
+    <t>31.05.202578</t>
+  </si>
+  <si>
+    <t>31.05.202579</t>
+  </si>
+  <si>
+    <t>31.05.202580</t>
+  </si>
+  <si>
+    <t>31.05.202581</t>
+  </si>
+  <si>
+    <t>31.05.202582</t>
+  </si>
+  <si>
+    <t>31.05.202583</t>
+  </si>
+  <si>
+    <t>31.05.202584</t>
+  </si>
+  <si>
+    <t>31.05.202585</t>
+  </si>
+  <si>
+    <t>31.05.202586</t>
+  </si>
+  <si>
+    <t>31.05.202587</t>
+  </si>
+  <si>
+    <t>31.05.202588</t>
+  </si>
+  <si>
+    <t>31.05.202589</t>
+  </si>
+  <si>
+    <t>31.05.202590</t>
+  </si>
+  <si>
+    <t>31.05.202591</t>
+  </si>
+  <si>
+    <t>31.05.202592</t>
+  </si>
+  <si>
+    <t>01.06.202593</t>
+  </si>
+  <si>
+    <t>01.06.202594</t>
+  </si>
+  <si>
+    <t>01.06.202595</t>
+  </si>
+  <si>
+    <t>01.06.202596</t>
+  </si>
+  <si>
+    <t>01.06.20251</t>
+  </si>
+  <si>
+    <t>01.06.20252</t>
+  </si>
+  <si>
+    <t>01.06.20253</t>
+  </si>
+  <si>
+    <t>01.06.20254</t>
+  </si>
+  <si>
+    <t>01.06.20255</t>
+  </si>
+  <si>
+    <t>01.06.20256</t>
+  </si>
+  <si>
+    <t>01.06.20257</t>
+  </si>
+  <si>
+    <t>01.06.20258</t>
+  </si>
+  <si>
+    <t>01.06.20259</t>
+  </si>
+  <si>
+    <t>01.06.202510</t>
+  </si>
+  <si>
+    <t>01.06.202511</t>
+  </si>
+  <si>
+    <t>01.06.202512</t>
+  </si>
+  <si>
+    <t>01.06.202513</t>
+  </si>
+  <si>
+    <t>01.06.202514</t>
+  </si>
+  <si>
+    <t>01.06.202515</t>
+  </si>
+  <si>
+    <t>01.06.202516</t>
+  </si>
+  <si>
+    <t>01.06.202517</t>
+  </si>
+  <si>
+    <t>01.06.202518</t>
+  </si>
+  <si>
+    <t>01.06.202519</t>
+  </si>
+  <si>
+    <t>01.06.202520</t>
+  </si>
+  <si>
+    <t>01.06.202521</t>
+  </si>
+  <si>
+    <t>01.06.202522</t>
+  </si>
+  <si>
+    <t>01.06.202523</t>
+  </si>
+  <si>
+    <t>01.06.202524</t>
+  </si>
+  <si>
+    <t>01.06.202525</t>
+  </si>
+  <si>
+    <t>01.06.202526</t>
+  </si>
+  <si>
+    <t>01.06.202527</t>
+  </si>
+  <si>
+    <t>01.06.202528</t>
+  </si>
+  <si>
+    <t>01.06.202529</t>
+  </si>
+  <si>
+    <t>01.06.202530</t>
+  </si>
+  <si>
+    <t>01.06.202531</t>
+  </si>
+  <si>
+    <t>01.06.202532</t>
+  </si>
+  <si>
+    <t>01.06.202533</t>
+  </si>
+  <si>
+    <t>01.06.202534</t>
+  </si>
+  <si>
+    <t>01.06.202535</t>
+  </si>
+  <si>
+    <t>01.06.202536</t>
+  </si>
+  <si>
+    <t>01.06.202537</t>
+  </si>
+  <si>
+    <t>01.06.202538</t>
+  </si>
+  <si>
+    <t>01.06.202539</t>
+  </si>
+  <si>
+    <t>01.06.202540</t>
+  </si>
+  <si>
+    <t>01.06.202541</t>
+  </si>
+  <si>
+    <t>01.06.202542</t>
+  </si>
+  <si>
+    <t>01.06.202543</t>
+  </si>
+  <si>
+    <t>01.06.202544</t>
+  </si>
+  <si>
+    <t>01.06.202545</t>
+  </si>
+  <si>
+    <t>01.06.202546</t>
+  </si>
+  <si>
+    <t>01.06.202547</t>
+  </si>
+  <si>
+    <t>01.06.202548</t>
+  </si>
+  <si>
+    <t>01.06.202549</t>
+  </si>
+  <si>
+    <t>01.06.202550</t>
+  </si>
+  <si>
+    <t>01.06.202551</t>
+  </si>
+  <si>
+    <t>01.06.202552</t>
+  </si>
+  <si>
+    <t>01.06.202553</t>
+  </si>
+  <si>
+    <t>01.06.202554</t>
+  </si>
+  <si>
+    <t>01.06.202555</t>
+  </si>
+  <si>
+    <t>01.06.202556</t>
+  </si>
+  <si>
+    <t>01.06.202557</t>
+  </si>
+  <si>
+    <t>01.06.202558</t>
+  </si>
+  <si>
+    <t>01.06.202559</t>
+  </si>
+  <si>
+    <t>01.06.202560</t>
+  </si>
+  <si>
+    <t>01.06.202561</t>
+  </si>
+  <si>
+    <t>01.06.202562</t>
+  </si>
+  <si>
+    <t>01.06.202563</t>
+  </si>
+  <si>
+    <t>01.06.202564</t>
+  </si>
+  <si>
+    <t>01.06.202565</t>
+  </si>
+  <si>
+    <t>01.06.202566</t>
+  </si>
+  <si>
+    <t>01.06.202567</t>
+  </si>
+  <si>
+    <t>01.06.202568</t>
+  </si>
+  <si>
+    <t>01.06.202569</t>
+  </si>
+  <si>
+    <t>01.06.202570</t>
+  </si>
+  <si>
+    <t>01.06.202571</t>
+  </si>
+  <si>
+    <t>01.06.202572</t>
+  </si>
+  <si>
+    <t>01.06.202573</t>
+  </si>
+  <si>
+    <t>01.06.202574</t>
+  </si>
+  <si>
+    <t>01.06.202575</t>
+  </si>
+  <si>
+    <t>01.06.202576</t>
+  </si>
+  <si>
+    <t>01.06.202577</t>
+  </si>
+  <si>
+    <t>01.06.202578</t>
+  </si>
+  <si>
+    <t>01.06.202579</t>
+  </si>
+  <si>
+    <t>01.06.202580</t>
+  </si>
+  <si>
+    <t>01.06.202581</t>
+  </si>
+  <si>
+    <t>01.06.202582</t>
+  </si>
+  <si>
+    <t>01.06.202583</t>
+  </si>
+  <si>
+    <t>01.06.202584</t>
+  </si>
+  <si>
+    <t>01.06.202585</t>
+  </si>
+  <si>
+    <t>01.06.202586</t>
+  </si>
+  <si>
+    <t>01.06.202587</t>
+  </si>
+  <si>
+    <t>01.06.202588</t>
+  </si>
+  <si>
+    <t>01.06.202589</t>
+  </si>
+  <si>
+    <t>01.06.202590</t>
+  </si>
+  <si>
+    <t>01.06.202591</t>
+  </si>
+  <si>
+    <t>01.06.202592</t>
+  </si>
+  <si>
+    <t>02.06.202593</t>
+  </si>
+  <si>
+    <t>02.06.202594</t>
+  </si>
+  <si>
+    <t>02.06.202595</t>
+  </si>
+  <si>
+    <t>02.06.202596</t>
+  </si>
+  <si>
+    <t>02.06.20251</t>
+  </si>
+  <si>
+    <t>02.06.20252</t>
+  </si>
+  <si>
+    <t>02.06.20253</t>
+  </si>
+  <si>
+    <t>02.06.20254</t>
+  </si>
+  <si>
+    <t>02.06.20255</t>
+  </si>
+  <si>
+    <t>02.06.20256</t>
+  </si>
+  <si>
+    <t>02.06.20257</t>
+  </si>
+  <si>
+    <t>02.06.20258</t>
+  </si>
+  <si>
+    <t>02.06.20259</t>
+  </si>
+  <si>
+    <t>02.06.202510</t>
+  </si>
+  <si>
+    <t>02.06.202511</t>
+  </si>
+  <si>
+    <t>02.06.202512</t>
+  </si>
+  <si>
+    <t>02.06.202513</t>
+  </si>
+  <si>
+    <t>02.06.202514</t>
+  </si>
+  <si>
+    <t>02.06.202515</t>
+  </si>
+  <si>
+    <t>02.06.202516</t>
+  </si>
+  <si>
+    <t>02.06.202517</t>
+  </si>
+  <si>
+    <t>02.06.202518</t>
+  </si>
+  <si>
+    <t>02.06.202519</t>
+  </si>
+  <si>
+    <t>02.06.202520</t>
+  </si>
+  <si>
+    <t>02.06.202521</t>
+  </si>
+  <si>
+    <t>02.06.202522</t>
+  </si>
+  <si>
+    <t>02.06.202523</t>
+  </si>
+  <si>
+    <t>02.06.202524</t>
+  </si>
+  <si>
+    <t>02.06.202525</t>
+  </si>
+  <si>
+    <t>02.06.202526</t>
+  </si>
+  <si>
+    <t>02.06.202527</t>
+  </si>
+  <si>
+    <t>02.06.202528</t>
+  </si>
+  <si>
+    <t>02.06.202529</t>
+  </si>
+  <si>
+    <t>02.06.202530</t>
+  </si>
+  <si>
+    <t>02.06.202531</t>
+  </si>
+  <si>
+    <t>02.06.202532</t>
+  </si>
+  <si>
+    <t>02.06.202533</t>
+  </si>
+  <si>
+    <t>02.06.202534</t>
+  </si>
+  <si>
+    <t>02.06.202535</t>
+  </si>
+  <si>
+    <t>02.06.202536</t>
   </si>
 </sst>
 </file>
@@ -747,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,10 +1387,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45806.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B2">
-        <v>11.974</v>
+        <v>3.394</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -789,13 +1404,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45806.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B3">
-        <v>10.381</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.174</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -806,13 +1421,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45806.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B4">
-        <v>5.506</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>9.159000000000001</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -823,13 +1438,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45806.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B5">
-        <v>1.608</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>16.132</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -840,13 +1455,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45806.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.083</v>
+        <v>14.408</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -857,13 +1472,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45806.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B7">
-        <v>9.935</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>11.761</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -874,13 +1489,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45806.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B8">
-        <v>15.053</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>23.325</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -891,13 +1506,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45806.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B9">
-        <v>28.526</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>24.096</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -908,13 +1523,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45806.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B10">
-        <v>4.906</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6.608</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -925,10 +1540,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45806.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B11">
-        <v>10.575</v>
+        <v>0.873</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -942,10 +1557,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45806.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B12">
-        <v>19.142</v>
+        <v>2.069</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -959,13 +1574,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45806.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B13">
-        <v>39.227</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.845</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -976,13 +1591,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45806.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B14">
-        <v>12.573</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -993,13 +1608,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45806.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B15">
-        <v>19.868</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.652</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1010,13 +1625,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45806.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B16">
-        <v>16.309</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.494</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1027,13 +1642,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45806.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B17">
-        <v>33.494</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.814</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1044,10 +1659,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45806.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B18">
-        <v>3.818</v>
+        <v>10.209</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1061,10 +1676,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45806.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B19">
-        <v>2.875</v>
+        <v>11.067</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1078,10 +1693,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45806.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B20">
-        <v>3.176</v>
+        <v>2.446</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1095,13 +1710,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45806.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>14.364</v>
       </c>
       <c r="C21">
-        <v>7.106</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1112,13 +1727,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45806.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>15.721</v>
       </c>
       <c r="C22">
-        <v>12.128</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1129,13 +1744,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45806.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>19.391</v>
       </c>
       <c r="C23">
-        <v>13.405</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1146,13 +1761,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45806.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>46.315</v>
       </c>
       <c r="C24">
-        <v>31.46</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1163,13 +1778,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45806.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>40.407</v>
       </c>
       <c r="C25">
-        <v>23.852</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1180,13 +1795,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45806.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>57.148</v>
       </c>
       <c r="C26">
-        <v>32.793</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1197,13 +1812,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45806.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>54.459</v>
       </c>
       <c r="C27">
-        <v>13.835</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1214,13 +1829,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45806.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>11.297</v>
       </c>
       <c r="C28">
-        <v>25.786</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1231,13 +1846,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45806.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2.184</v>
       </c>
       <c r="C29">
-        <v>31.366</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1248,13 +1863,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45806.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>49.098</v>
+        <v>0.242</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1265,13 +1880,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45806.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>21.498</v>
+        <v>0.216</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1282,13 +1897,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45806.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>9.422000000000001</v>
+        <v>16.836</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1299,13 +1914,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45806.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B33">
-        <v>25.464</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1.742</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1316,10 +1931,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45806.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B34">
-        <v>78.627</v>
+        <v>39.854</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1333,10 +1948,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45806.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B35">
-        <v>33.154</v>
+        <v>11.841</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1350,13 +1965,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45806.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.006</v>
+        <v>2.491</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1367,13 +1982,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45806.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>5.657</v>
+        <v>5.742</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1384,13 +1999,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45806.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B38">
-        <v>9.696999999999999</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>9.863</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1401,13 +2016,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45806.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>14.607</v>
+        <v>10.706</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1418,13 +2033,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45806.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B40">
-        <v>3.201</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>5.775</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1435,13 +2050,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45806.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B41">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>4.185</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1452,13 +2067,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45806.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>10.785</v>
+        <v>25.489</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1469,13 +2084,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45806.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>9.079000000000001</v>
+        <v>14.77</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1486,13 +2101,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45806.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>50.322</v>
+        <v>4.355</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1503,13 +2118,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45806.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2.763</v>
       </c>
       <c r="C45">
-        <v>62.37</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1520,13 +2135,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45806.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>11.682</v>
       </c>
       <c r="C46">
-        <v>44.557</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1537,13 +2152,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45806.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>22.584</v>
       </c>
       <c r="C47">
-        <v>61.869</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1554,13 +2169,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45806.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>17.671</v>
       </c>
       <c r="C48">
-        <v>69.92100000000001</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1571,13 +2186,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45806.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>34.708</v>
       </c>
       <c r="C49">
-        <v>31.598</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1588,10 +2203,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45806.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B50">
-        <v>2.222</v>
+        <v>36.961</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1605,10 +2220,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45806.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B51">
-        <v>7.987</v>
+        <v>3.701</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1622,13 +2237,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45806.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>13.083</v>
       </c>
       <c r="C52">
-        <v>19.823</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1639,13 +2254,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45806.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>18.11</v>
       </c>
       <c r="C53">
-        <v>11.258</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1656,10 +2271,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45806.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B54">
-        <v>15.115</v>
+        <v>14.642</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1673,10 +2288,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45806.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B55">
-        <v>5.902</v>
+        <v>5.481</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1690,13 +2305,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45806.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>21.509</v>
       </c>
       <c r="C56">
-        <v>8.651999999999999</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1707,13 +2322,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45806.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>32.013</v>
       </c>
       <c r="C57">
-        <v>17.517</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1724,13 +2339,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45806.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>30.061</v>
+        <v>6.323</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1741,13 +2356,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45806.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>9.180999999999999</v>
+        <v>21.584</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1758,13 +2373,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45806.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>21.637</v>
+        <v>3.741</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1775,13 +2390,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45806.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>9.849</v>
+        <v>8.481999999999999</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1792,13 +2407,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45806.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B62">
-        <v>26.89</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>81.563</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1809,13 +2424,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45806.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B63">
-        <v>23.035</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>74.77800000000001</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1826,13 +2441,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45806.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>15.838</v>
+        <v>35.063</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1843,13 +2458,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45806.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>3.461</v>
+        <v>5.172</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1860,13 +2475,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45806.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>4.612</v>
+        <v>66.755</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1877,13 +2492,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45806.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3.396</v>
       </c>
       <c r="C67">
-        <v>3.859</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1894,10 +2509,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45806.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B68">
-        <v>2.258</v>
+        <v>6.902</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1911,13 +2526,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45806.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B69">
-        <v>3.822</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1.039</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1928,13 +2543,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45806.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>4.168</v>
       </c>
       <c r="C70">
-        <v>11.323</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1945,13 +2560,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45806.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>24.55</v>
       </c>
       <c r="C71">
-        <v>8.157999999999999</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1962,13 +2577,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45806.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>10.528</v>
       </c>
       <c r="C72">
-        <v>12.469</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1979,13 +2594,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45806.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>31.057</v>
       </c>
       <c r="C73">
-        <v>12.616</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -1996,13 +2611,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45806.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>19.847</v>
       </c>
       <c r="C74">
-        <v>24.127</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2013,13 +2628,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45806.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>19.45</v>
       </c>
       <c r="C75">
-        <v>55.015</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2030,13 +2645,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45806.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>18.625</v>
       </c>
       <c r="C76">
-        <v>20.88</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2047,13 +2662,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45806.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>8.68</v>
       </c>
       <c r="C77">
-        <v>2.929</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2064,10 +2679,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45806.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B78">
-        <v>20.028</v>
+        <v>23.227</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2081,10 +2696,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45806.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B79">
-        <v>3.234</v>
+        <v>38.402</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2098,10 +2713,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45806.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B80">
-        <v>5.182</v>
+        <v>17.463</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2115,13 +2730,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45806.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>11.231</v>
       </c>
       <c r="C81">
-        <v>5.247</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2132,10 +2747,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45806.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B82">
-        <v>6.873</v>
+        <v>34.623</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2149,10 +2764,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45806.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B83">
-        <v>3.853</v>
+        <v>53.393</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2166,10 +2781,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45806.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B84">
-        <v>16.845</v>
+        <v>6.671</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2183,13 +2798,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45806.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B85">
-        <v>20.371</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>13.073</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2200,10 +2815,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45806.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B86">
-        <v>4.019</v>
+        <v>12.302</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2217,10 +2832,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45806.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B87">
-        <v>5.795</v>
+        <v>19.438</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2234,13 +2849,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45806.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B88">
-        <v>8.912000000000001</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>13.802</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2251,10 +2866,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45806.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B89">
-        <v>4.948</v>
+        <v>7.922</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2268,10 +2883,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45806.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B90">
-        <v>0.839</v>
+        <v>22.806</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2285,10 +2900,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45806.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B91">
-        <v>13.639</v>
+        <v>29.86</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2302,10 +2917,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45806.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B92">
-        <v>12.947</v>
+        <v>9.648</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2319,10 +2934,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45806.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B93">
-        <v>17.885</v>
+        <v>14.934</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2336,10 +2951,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45807</v>
+        <v>45808</v>
       </c>
       <c r="B94">
-        <v>9.506</v>
+        <v>1.603</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2353,10 +2968,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45807.01041666666</v>
+        <v>45808.01041666666</v>
       </c>
       <c r="B95">
-        <v>14.456</v>
+        <v>0.366</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2370,10 +2985,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45807.02083333334</v>
+        <v>45808.02083333334</v>
       </c>
       <c r="B96">
-        <v>14.798</v>
+        <v>8.335000000000001</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2387,10 +3002,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45807.03125</v>
+        <v>45808.03125</v>
       </c>
       <c r="B97">
-        <v>2.559</v>
+        <v>21.565</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2404,10 +3019,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45807.04166666666</v>
+        <v>45808.04166666666</v>
       </c>
       <c r="B98">
-        <v>3.394</v>
+        <v>2.13</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2421,13 +3036,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45807.05208333334</v>
+        <v>45808.05208333334</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>3.248</v>
       </c>
       <c r="C99">
-        <v>1.174</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2438,13 +3053,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45807.0625</v>
+        <v>45808.0625</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>13.087</v>
       </c>
       <c r="C100">
-        <v>9.159000000000001</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2455,13 +3070,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45807.07291666666</v>
+        <v>45808.07291666666</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>4.934</v>
       </c>
       <c r="C101">
-        <v>16.132</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2472,13 +3087,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45807.08333333334</v>
+        <v>45808.08333333334</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>6.813</v>
       </c>
       <c r="C102">
-        <v>14.408</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2489,13 +3104,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45807.09375</v>
+        <v>45808.09375</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>6.328</v>
       </c>
       <c r="C103">
-        <v>11.761</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2506,13 +3121,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45807.10416666666</v>
+        <v>45808.10416666666</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>4.695</v>
       </c>
       <c r="C104">
-        <v>23.325</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2523,13 +3138,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45807.11458333334</v>
+        <v>45808.11458333334</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>0.399</v>
       </c>
       <c r="C105">
-        <v>24.096</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2540,13 +3155,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45807.125</v>
+        <v>45808.125</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="C106">
-        <v>6.608</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2557,10 +3172,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45807.13541666666</v>
+        <v>45808.13541666666</v>
       </c>
       <c r="B107">
-        <v>0.873</v>
+        <v>13.44</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2574,10 +3189,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45807.14583333334</v>
+        <v>45808.14583333334</v>
       </c>
       <c r="B108">
-        <v>2.069</v>
+        <v>9.757999999999999</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2591,13 +3206,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45807.15625</v>
+        <v>45808.15625</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>14.097</v>
       </c>
       <c r="C109">
-        <v>0.845</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2608,13 +3223,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45807.16666666666</v>
+        <v>45808.16666666666</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>16.461</v>
       </c>
       <c r="C110">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2625,13 +3240,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45807.17708333334</v>
+        <v>45808.17708333334</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>0.919</v>
       </c>
       <c r="C111">
-        <v>1.652</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2642,13 +3257,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45807.1875</v>
+        <v>45808.1875</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>3.993</v>
       </c>
       <c r="C112">
-        <v>2.494</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2659,13 +3274,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45807.19791666666</v>
+        <v>45808.19791666666</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>2.814</v>
+        <v>2.632</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2676,13 +3291,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45807.20833333334</v>
+        <v>45808.20833333334</v>
       </c>
       <c r="B114">
-        <v>10.209</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>17.53</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2693,13 +3308,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45807.21875</v>
+        <v>45808.21875</v>
       </c>
       <c r="B115">
-        <v>11.067</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>19.508</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2710,13 +3325,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45807.22916666666</v>
+        <v>45808.22916666666</v>
       </c>
       <c r="B116">
-        <v>2.446</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>27.592</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2727,13 +3342,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45807.23958333334</v>
+        <v>45808.23958333334</v>
       </c>
       <c r="B117">
-        <v>14.364</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>38.119</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2744,13 +3359,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45807.25</v>
+        <v>45808.25</v>
       </c>
       <c r="B118">
-        <v>15.721</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>2.781</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2761,10 +3376,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45807.26041666666</v>
+        <v>45808.26041666666</v>
       </c>
       <c r="B119">
-        <v>19.391</v>
+        <v>2.393</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2778,10 +3393,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45807.27083333334</v>
+        <v>45808.27083333334</v>
       </c>
       <c r="B120">
-        <v>46.315</v>
+        <v>19.314</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2791,6 +3406,3491 @@
       </c>
       <c r="E120" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2">
+        <v>45808.28125</v>
+      </c>
+      <c r="B121">
+        <v>57.461</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>24</v>
+      </c>
+      <c r="E121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="B122">
+        <v>33.568</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>45808.30208333334</v>
+      </c>
+      <c r="B123">
+        <v>18.49</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>26</v>
+      </c>
+      <c r="E123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>45808.3125</v>
+      </c>
+      <c r="B124">
+        <v>7.697</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>45808.32291666666</v>
+      </c>
+      <c r="B125">
+        <v>0.355</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>28</v>
+      </c>
+      <c r="E125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>45808.33333333334</v>
+      </c>
+      <c r="B126">
+        <v>17.253</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>29</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>45808.34375</v>
+      </c>
+      <c r="B127">
+        <v>18.153</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>45808.35416666666</v>
+      </c>
+      <c r="B128">
+        <v>7.692</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>45808.36458333334</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>5.952</v>
+      </c>
+      <c r="D129">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>45808.375</v>
+      </c>
+      <c r="B130">
+        <v>5.329</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>33</v>
+      </c>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45808.38541666666</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>13.274</v>
+      </c>
+      <c r="D131">
+        <v>34</v>
+      </c>
+      <c r="E131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45808.39583333334</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>9.997</v>
+      </c>
+      <c r="D132">
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45808.40625</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>14.909</v>
+      </c>
+      <c r="D133">
+        <v>36</v>
+      </c>
+      <c r="E133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45808.41666666666</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>37.992</v>
+      </c>
+      <c r="D134">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45808.42708333334</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>36.091</v>
+      </c>
+      <c r="D135">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45808.4375</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>5.122</v>
+      </c>
+      <c r="D136">
+        <v>39</v>
+      </c>
+      <c r="E136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45808.44791666666</v>
+      </c>
+      <c r="B137">
+        <v>5.928</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>40</v>
+      </c>
+      <c r="E137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45808.45833333334</v>
+      </c>
+      <c r="B138">
+        <v>8.536</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45808.46875</v>
+      </c>
+      <c r="B139">
+        <v>5.367</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>42</v>
+      </c>
+      <c r="E139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45808.47916666666</v>
+      </c>
+      <c r="B140">
+        <v>8.773999999999999</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>43</v>
+      </c>
+      <c r="E140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45808.48958333334</v>
+      </c>
+      <c r="B141">
+        <v>10.652</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>44</v>
+      </c>
+      <c r="E141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45808.5</v>
+      </c>
+      <c r="B142">
+        <v>22.036</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>45</v>
+      </c>
+      <c r="E142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45808.51041666666</v>
+      </c>
+      <c r="B143">
+        <v>5.42</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>46</v>
+      </c>
+      <c r="E143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45808.52083333334</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>3.301</v>
+      </c>
+      <c r="D144">
+        <v>47</v>
+      </c>
+      <c r="E144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45808.53125</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>9.738</v>
+      </c>
+      <c r="D145">
+        <v>48</v>
+      </c>
+      <c r="E145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45808.54166666666</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>28.19</v>
+      </c>
+      <c r="D146">
+        <v>49</v>
+      </c>
+      <c r="E146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45808.55208333334</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>23.039</v>
+      </c>
+      <c r="D147">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45808.5625</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>16.069</v>
+      </c>
+      <c r="D148">
+        <v>51</v>
+      </c>
+      <c r="E148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45808.57291666666</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>9.442</v>
+      </c>
+      <c r="D149">
+        <v>52</v>
+      </c>
+      <c r="E149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45808.58333333334</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>5.892</v>
+      </c>
+      <c r="D150">
+        <v>53</v>
+      </c>
+      <c r="E150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45808.59375</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>2.791</v>
+      </c>
+      <c r="D151">
+        <v>54</v>
+      </c>
+      <c r="E151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45808.60416666666</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>5.519</v>
+      </c>
+      <c r="D152">
+        <v>55</v>
+      </c>
+      <c r="E152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45808.61458333334</v>
+      </c>
+      <c r="B153">
+        <v>7.021</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>56</v>
+      </c>
+      <c r="E153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45808.625</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>5.853</v>
+      </c>
+      <c r="D154">
+        <v>57</v>
+      </c>
+      <c r="E154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45808.63541666666</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>6.485</v>
+      </c>
+      <c r="D155">
+        <v>58</v>
+      </c>
+      <c r="E155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45808.64583333334</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>9.707000000000001</v>
+      </c>
+      <c r="D156">
+        <v>59</v>
+      </c>
+      <c r="E156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45808.65625</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>13.303</v>
+      </c>
+      <c r="D157">
+        <v>60</v>
+      </c>
+      <c r="E157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45808.66666666666</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>48.437</v>
+      </c>
+      <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45808.67708333334</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>33.648</v>
+      </c>
+      <c r="D159">
+        <v>62</v>
+      </c>
+      <c r="E159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45808.6875</v>
+      </c>
+      <c r="B160">
+        <v>20.815</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>63</v>
+      </c>
+      <c r="E160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45808.69791666666</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>4.631</v>
+      </c>
+      <c r="D161">
+        <v>64</v>
+      </c>
+      <c r="E161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45808.70833333334</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>42.182</v>
+      </c>
+      <c r="D162">
+        <v>65</v>
+      </c>
+      <c r="E162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45808.71875</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>12.702</v>
+      </c>
+      <c r="D163">
+        <v>66</v>
+      </c>
+      <c r="E163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45808.72916666666</v>
+      </c>
+      <c r="B164">
+        <v>12.247</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>67</v>
+      </c>
+      <c r="E164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45808.73958333334</v>
+      </c>
+      <c r="B165">
+        <v>5.289</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>68</v>
+      </c>
+      <c r="E165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45808.75</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>41.962</v>
+      </c>
+      <c r="D166">
+        <v>69</v>
+      </c>
+      <c r="E166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45808.76041666666</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>8.981999999999999</v>
+      </c>
+      <c r="D167">
+        <v>70</v>
+      </c>
+      <c r="E167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45808.77083333334</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>1.808</v>
+      </c>
+      <c r="D168">
+        <v>71</v>
+      </c>
+      <c r="E168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45808.78125</v>
+      </c>
+      <c r="B169">
+        <v>2.247</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>72</v>
+      </c>
+      <c r="E169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45808.79166666666</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>11.383</v>
+      </c>
+      <c r="D170">
+        <v>73</v>
+      </c>
+      <c r="E170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45808.80208333334</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>5.215</v>
+      </c>
+      <c r="D171">
+        <v>74</v>
+      </c>
+      <c r="E171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45808.8125</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>5.237</v>
+      </c>
+      <c r="D172">
+        <v>75</v>
+      </c>
+      <c r="E172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45808.82291666666</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0.425</v>
+      </c>
+      <c r="D173">
+        <v>76</v>
+      </c>
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45808.83333333334</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>10.635</v>
+      </c>
+      <c r="D174">
+        <v>77</v>
+      </c>
+      <c r="E174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45808.84375</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>3.936</v>
+      </c>
+      <c r="D175">
+        <v>78</v>
+      </c>
+      <c r="E175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="B176">
+        <v>23.572</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>79</v>
+      </c>
+      <c r="E176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45808.86458333334</v>
+      </c>
+      <c r="B177">
+        <v>27.547</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>80</v>
+      </c>
+      <c r="E177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45808.875</v>
+      </c>
+      <c r="B178">
+        <v>8.718</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>81</v>
+      </c>
+      <c r="E178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45808.88541666666</v>
+      </c>
+      <c r="B179">
+        <v>27.535</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>82</v>
+      </c>
+      <c r="E179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45808.89583333334</v>
+      </c>
+      <c r="B180">
+        <v>3.704</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>83</v>
+      </c>
+      <c r="E180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45808.90625</v>
+      </c>
+      <c r="B181">
+        <v>2.773</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>84</v>
+      </c>
+      <c r="E181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45808.91666666666</v>
+      </c>
+      <c r="B182">
+        <v>13.695</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>85</v>
+      </c>
+      <c r="E182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45808.92708333334</v>
+      </c>
+      <c r="B183">
+        <v>51.079</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>86</v>
+      </c>
+      <c r="E183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45808.9375</v>
+      </c>
+      <c r="B184">
+        <v>20.424</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>87</v>
+      </c>
+      <c r="E184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45808.94791666666</v>
+      </c>
+      <c r="B185">
+        <v>5.221</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>88</v>
+      </c>
+      <c r="E185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45808.95833333334</v>
+      </c>
+      <c r="B186">
+        <v>3.406</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>89</v>
+      </c>
+      <c r="E186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45808.96875</v>
+      </c>
+      <c r="B187">
+        <v>3.823</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>90</v>
+      </c>
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45808.97916666666</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>3.439</v>
+      </c>
+      <c r="D188">
+        <v>91</v>
+      </c>
+      <c r="E188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45808.98958333334</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>4.111</v>
+      </c>
+      <c r="D189">
+        <v>92</v>
+      </c>
+      <c r="E189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B190">
+        <v>5.602</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>93</v>
+      </c>
+      <c r="E190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45809.01041666666</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>3.46</v>
+      </c>
+      <c r="D191">
+        <v>94</v>
+      </c>
+      <c r="E191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45809.02083333334</v>
+      </c>
+      <c r="B192">
+        <v>2.701</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>95</v>
+      </c>
+      <c r="E192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45809.03125</v>
+      </c>
+      <c r="B193">
+        <v>5.674</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>96</v>
+      </c>
+      <c r="E193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45809.04166666666</v>
+      </c>
+      <c r="B194">
+        <v>8.997999999999999</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45809.05208333334</v>
+      </c>
+      <c r="B195">
+        <v>4.522</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45809.0625</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>1.443</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45809.07291666666</v>
+      </c>
+      <c r="B197">
+        <v>3.594</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45809.08333333334</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>3.261</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45809.09375</v>
+      </c>
+      <c r="B199">
+        <v>1.842</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45809.10416666666</v>
+      </c>
+      <c r="B200">
+        <v>0.695</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45809.11458333334</v>
+      </c>
+      <c r="B201">
+        <v>2.087</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45809.125</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0.673</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45809.13541666666</v>
+      </c>
+      <c r="B203">
+        <v>5.137</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45809.14583333334</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>4.08</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45809.15625</v>
+      </c>
+      <c r="B205">
+        <v>1.078</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45809.16666666666</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>20.279</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45809.17708333334</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>21.005</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45809.1875</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>4.329</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45809.19791666666</v>
+      </c>
+      <c r="B209">
+        <v>3.07</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45809.20833333334</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>4.53</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45809.21875</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>2.51</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45809.22916666666</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0.863</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45809.23958333334</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>8.458</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45809.25</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>49.151</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45809.26041666666</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>22.493</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45809.27083333334</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>6.929</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45809.28125</v>
+      </c>
+      <c r="B217">
+        <v>6.605</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>1.914</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45809.30208333334</v>
+      </c>
+      <c r="B219">
+        <v>3.657</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45809.3125</v>
+      </c>
+      <c r="B220">
+        <v>6.39</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45809.32291666666</v>
+      </c>
+      <c r="B221">
+        <v>1.655</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45809.33333333334</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>8.262</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45809.34375</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>8.259</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45809.35416666666</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>4.577</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45809.36458333334</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>4.623</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45809.375</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>8.935</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45809.38541666666</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>20.684</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45809.39583333334</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>12.334</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45809.40625</v>
+      </c>
+      <c r="B229">
+        <v>4.508</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45809.41666666666</v>
+      </c>
+      <c r="B230">
+        <v>16.076</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45809.42708333334</v>
+      </c>
+      <c r="B231">
+        <v>21.405</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45809.4375</v>
+      </c>
+      <c r="B232">
+        <v>37.462</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45809.44791666666</v>
+      </c>
+      <c r="B233">
+        <v>7.404</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45809.45833333334</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>17.987</v>
+      </c>
+      <c r="D234">
+        <v>41</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45809.46875</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>29.006</v>
+      </c>
+      <c r="D235">
+        <v>42</v>
+      </c>
+      <c r="E235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45809.47916666666</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>15.953</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45809.48958333334</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>46.351</v>
+      </c>
+      <c r="D237">
+        <v>44</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>59.963</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45809.51041666666</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>68.172</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45809.52083333334</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>6.013</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45809.53125</v>
+      </c>
+      <c r="B241">
+        <v>5.925</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45809.54166666666</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>16.005</v>
+      </c>
+      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45809.55208333334</v>
+      </c>
+      <c r="B243">
+        <v>27.29</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45809.5625</v>
+      </c>
+      <c r="B244">
+        <v>16.955</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45809.57291666666</v>
+      </c>
+      <c r="B245">
+        <v>47.852</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>52</v>
+      </c>
+      <c r="E245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45809.58333333334</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>14.356</v>
+      </c>
+      <c r="D246">
+        <v>53</v>
+      </c>
+      <c r="E246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45809.59375</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>16.004</v>
+      </c>
+      <c r="D247">
+        <v>54</v>
+      </c>
+      <c r="E247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45809.60416666666</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>24.091</v>
+      </c>
+      <c r="D248">
+        <v>55</v>
+      </c>
+      <c r="E248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45809.61458333334</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>13.552</v>
+      </c>
+      <c r="D249">
+        <v>56</v>
+      </c>
+      <c r="E249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45809.625</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>11.418</v>
+      </c>
+      <c r="D250">
+        <v>57</v>
+      </c>
+      <c r="E250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45809.63541666666</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>6.425</v>
+      </c>
+      <c r="D251">
+        <v>58</v>
+      </c>
+      <c r="E251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45809.64583333334</v>
+      </c>
+      <c r="B252">
+        <v>7.105</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>59</v>
+      </c>
+      <c r="E252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45809.65625</v>
+      </c>
+      <c r="B253">
+        <v>30.746</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>60</v>
+      </c>
+      <c r="E253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>22.608</v>
+      </c>
+      <c r="D254">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45809.67708333334</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>6.57</v>
+      </c>
+      <c r="D255">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45809.6875</v>
+      </c>
+      <c r="B256">
+        <v>5.908</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>63</v>
+      </c>
+      <c r="E256" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45809.69791666666</v>
+      </c>
+      <c r="B257">
+        <v>9.459</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45809.70833333334</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>20.98</v>
+      </c>
+      <c r="D258">
+        <v>65</v>
+      </c>
+      <c r="E258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>45809.71875</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>6.93</v>
+      </c>
+      <c r="D259">
+        <v>66</v>
+      </c>
+      <c r="E259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>45809.72916666666</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>8.646000000000001</v>
+      </c>
+      <c r="D260">
+        <v>67</v>
+      </c>
+      <c r="E260" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>45809.73958333334</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>5.031</v>
+      </c>
+      <c r="D261">
+        <v>68</v>
+      </c>
+      <c r="E261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>45809.75</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>18.378</v>
+      </c>
+      <c r="D262">
+        <v>69</v>
+      </c>
+      <c r="E262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>45809.76041666666</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>38.482</v>
+      </c>
+      <c r="D263">
+        <v>70</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>35.135</v>
+      </c>
+      <c r="D264">
+        <v>71</v>
+      </c>
+      <c r="E264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>45809.78125</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>13.142</v>
+      </c>
+      <c r="D265">
+        <v>72</v>
+      </c>
+      <c r="E265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>45809.79166666666</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>39.658</v>
+      </c>
+      <c r="D266">
+        <v>73</v>
+      </c>
+      <c r="E266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>45809.80208333334</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>51.443</v>
+      </c>
+      <c r="D267">
+        <v>74</v>
+      </c>
+      <c r="E267" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>45809.8125</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>34.547</v>
+      </c>
+      <c r="D268">
+        <v>75</v>
+      </c>
+      <c r="E268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>45809.82291666666</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>16.368</v>
+      </c>
+      <c r="D269">
+        <v>76</v>
+      </c>
+      <c r="E269" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>45809.83333333334</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>29.021</v>
+      </c>
+      <c r="D270">
+        <v>77</v>
+      </c>
+      <c r="E270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>45809.84375</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>32.327</v>
+      </c>
+      <c r="D271">
+        <v>78</v>
+      </c>
+      <c r="E271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>45809.85416666666</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>20.257</v>
+      </c>
+      <c r="D272">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>45809.86458333334</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>23.405</v>
+      </c>
+      <c r="D273">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>45809.875</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>29.026</v>
+      </c>
+      <c r="D274">
+        <v>81</v>
+      </c>
+      <c r="E274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>45809.88541666666</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>18.624</v>
+      </c>
+      <c r="D275">
+        <v>82</v>
+      </c>
+      <c r="E275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>45809.89583333334</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>44.826</v>
+      </c>
+      <c r="D276">
+        <v>83</v>
+      </c>
+      <c r="E276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>45809.90625</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>61.521</v>
+      </c>
+      <c r="D277">
+        <v>84</v>
+      </c>
+      <c r="E277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>45809.91666666666</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>33.543</v>
+      </c>
+      <c r="D278">
+        <v>85</v>
+      </c>
+      <c r="E278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>45809.92708333334</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>26.311</v>
+      </c>
+      <c r="D279">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>45809.9375</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>23.541</v>
+      </c>
+      <c r="D280">
+        <v>87</v>
+      </c>
+      <c r="E280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>45809.94791666666</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>26.898</v>
+      </c>
+      <c r="D281">
+        <v>88</v>
+      </c>
+      <c r="E281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>45809.95833333334</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>37.463</v>
+      </c>
+      <c r="D282">
+        <v>89</v>
+      </c>
+      <c r="E282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>45809.96875</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>23.846</v>
+      </c>
+      <c r="D283">
+        <v>90</v>
+      </c>
+      <c r="E283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45809.97916666666</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>37.74</v>
+      </c>
+      <c r="D284">
+        <v>91</v>
+      </c>
+      <c r="E284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>45809.98958333334</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>49.192</v>
+      </c>
+      <c r="D285">
+        <v>92</v>
+      </c>
+      <c r="E285" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>37.612</v>
+      </c>
+      <c r="D286">
+        <v>93</v>
+      </c>
+      <c r="E286" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>45810.01041666666</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>49.676</v>
+      </c>
+      <c r="D287">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>45810.02083333334</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>56.312</v>
+      </c>
+      <c r="D288">
+        <v>95</v>
+      </c>
+      <c r="E288" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>45810.03125</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>27.307</v>
+      </c>
+      <c r="D289">
+        <v>96</v>
+      </c>
+      <c r="E289" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>45810.04166666666</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>4.406</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>45810.05208333334</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>5.79</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>45810.0625</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>11.516</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>45810.07291666666</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>8.295999999999999</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+      <c r="E293" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>45810.08333333334</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>21.107</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>45810.09375</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>13.923</v>
+      </c>
+      <c r="D295">
+        <v>6</v>
+      </c>
+      <c r="E295" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>45810.10416666666</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>12.02</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>45810.11458333334</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>17.138</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>45810.125</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>41.758</v>
+      </c>
+      <c r="D298">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>45810.13541666666</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>22.51</v>
+      </c>
+      <c r="D299">
+        <v>10</v>
+      </c>
+      <c r="E299" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>45810.14583333334</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>26.328</v>
+      </c>
+      <c r="D300">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>45810.15625</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>21.104</v>
+      </c>
+      <c r="D301">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>45810.16666666666</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>20.149</v>
+      </c>
+      <c r="D302">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>45810.17708333334</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>31.257</v>
+      </c>
+      <c r="D303">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>45810.1875</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>17.951</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>45810.19791666666</v>
+      </c>
+      <c r="B305">
+        <v>1.594</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>45810.20833333334</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>5.787</v>
+      </c>
+      <c r="D306">
+        <v>17</v>
+      </c>
+      <c r="E306" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>45810.21875</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>1.901</v>
+      </c>
+      <c r="D307">
+        <v>18</v>
+      </c>
+      <c r="E307" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>45810.22916666666</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>9.683</v>
+      </c>
+      <c r="D308">
+        <v>19</v>
+      </c>
+      <c r="E308" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>45810.23958333334</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>14.285</v>
+      </c>
+      <c r="D309">
+        <v>20</v>
+      </c>
+      <c r="E309" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>45810.25</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>8.468999999999999</v>
+      </c>
+      <c r="D310">
+        <v>21</v>
+      </c>
+      <c r="E310" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>45810.26041666666</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>9.893000000000001</v>
+      </c>
+      <c r="D311">
+        <v>22</v>
+      </c>
+      <c r="E311" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>45810.27083333334</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>3.098</v>
+      </c>
+      <c r="D312">
+        <v>23</v>
+      </c>
+      <c r="E312" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>45810.28125</v>
+      </c>
+      <c r="B313">
+        <v>1.218</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>24</v>
+      </c>
+      <c r="E313" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>45810.29166666666</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>6.301</v>
+      </c>
+      <c r="D314">
+        <v>25</v>
+      </c>
+      <c r="E314" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>45810.30208333334</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>13.258</v>
+      </c>
+      <c r="D315">
+        <v>26</v>
+      </c>
+      <c r="E315" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>45810.3125</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>15.709</v>
+      </c>
+      <c r="D316">
+        <v>27</v>
+      </c>
+      <c r="E316" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>45810.32291666666</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>19.857</v>
+      </c>
+      <c r="D317">
+        <v>28</v>
+      </c>
+      <c r="E317" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>45810.33333333334</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>6.762</v>
+      </c>
+      <c r="D318">
+        <v>29</v>
+      </c>
+      <c r="E318" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>45810.34375</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>9.454000000000001</v>
+      </c>
+      <c r="D319">
+        <v>30</v>
+      </c>
+      <c r="E319" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>45810.35416666666</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>12.488</v>
+      </c>
+      <c r="D320">
+        <v>31</v>
+      </c>
+      <c r="E320" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>45810.36458333334</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>3.524</v>
+      </c>
+      <c r="D321">
+        <v>32</v>
+      </c>
+      <c r="E321" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>45810.375</v>
+      </c>
+      <c r="B322">
+        <v>8.574999999999999</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>33</v>
+      </c>
+      <c r="E322" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>45810.38541666666</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>16.769</v>
+      </c>
+      <c r="D323">
+        <v>34</v>
+      </c>
+      <c r="E323" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>45810.39583333334</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>14.047</v>
+      </c>
+      <c r="D324">
+        <v>35</v>
+      </c>
+      <c r="E324" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>45810.40625</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>9.353</v>
+      </c>
+      <c r="D325">
+        <v>36</v>
+      </c>
+      <c r="E325" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,355 +31,403 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>12.06.20251</t>
-  </si>
-  <si>
-    <t>12.06.20252</t>
-  </si>
-  <si>
-    <t>12.06.20253</t>
-  </si>
-  <si>
-    <t>12.06.20254</t>
-  </si>
-  <si>
-    <t>12.06.20255</t>
-  </si>
-  <si>
-    <t>12.06.20256</t>
-  </si>
-  <si>
-    <t>12.06.20257</t>
-  </si>
-  <si>
-    <t>12.06.20258</t>
-  </si>
-  <si>
-    <t>12.06.20259</t>
-  </si>
-  <si>
-    <t>12.06.202510</t>
-  </si>
-  <si>
-    <t>12.06.202511</t>
-  </si>
-  <si>
-    <t>12.06.202512</t>
-  </si>
-  <si>
-    <t>12.06.202513</t>
-  </si>
-  <si>
-    <t>12.06.202514</t>
-  </si>
-  <si>
-    <t>12.06.202515</t>
-  </si>
-  <si>
-    <t>12.06.202516</t>
-  </si>
-  <si>
-    <t>12.06.202517</t>
-  </si>
-  <si>
-    <t>12.06.202518</t>
-  </si>
-  <si>
-    <t>12.06.202519</t>
-  </si>
-  <si>
-    <t>12.06.202520</t>
-  </si>
-  <si>
-    <t>12.06.202521</t>
-  </si>
-  <si>
-    <t>12.06.202522</t>
-  </si>
-  <si>
-    <t>12.06.202523</t>
-  </si>
-  <si>
-    <t>12.06.202524</t>
-  </si>
-  <si>
-    <t>12.06.202525</t>
-  </si>
-  <si>
-    <t>12.06.202526</t>
-  </si>
-  <si>
-    <t>12.06.202527</t>
-  </si>
-  <si>
-    <t>12.06.202528</t>
-  </si>
-  <si>
-    <t>12.06.202529</t>
-  </si>
-  <si>
-    <t>12.06.202530</t>
-  </si>
-  <si>
-    <t>12.06.202531</t>
-  </si>
-  <si>
-    <t>12.06.202532</t>
-  </si>
-  <si>
-    <t>12.06.202533</t>
-  </si>
-  <si>
-    <t>12.06.202534</t>
-  </si>
-  <si>
-    <t>12.06.202535</t>
-  </si>
-  <si>
-    <t>12.06.202536</t>
-  </si>
-  <si>
-    <t>12.06.202537</t>
-  </si>
-  <si>
-    <t>12.06.202538</t>
-  </si>
-  <si>
-    <t>12.06.202539</t>
-  </si>
-  <si>
-    <t>12.06.202540</t>
-  </si>
-  <si>
-    <t>12.06.202541</t>
-  </si>
-  <si>
-    <t>12.06.202542</t>
-  </si>
-  <si>
-    <t>12.06.202543</t>
-  </si>
-  <si>
-    <t>12.06.202544</t>
-  </si>
-  <si>
-    <t>12.06.202545</t>
-  </si>
-  <si>
-    <t>12.06.202546</t>
-  </si>
-  <si>
-    <t>12.06.202547</t>
-  </si>
-  <si>
-    <t>12.06.202548</t>
-  </si>
-  <si>
-    <t>12.06.202549</t>
-  </si>
-  <si>
-    <t>12.06.202550</t>
-  </si>
-  <si>
-    <t>12.06.202551</t>
-  </si>
-  <si>
-    <t>12.06.202552</t>
-  </si>
-  <si>
-    <t>12.06.202553</t>
-  </si>
-  <si>
-    <t>12.06.202554</t>
-  </si>
-  <si>
-    <t>12.06.202555</t>
-  </si>
-  <si>
-    <t>12.06.202556</t>
-  </si>
-  <si>
-    <t>12.06.202557</t>
-  </si>
-  <si>
-    <t>12.06.202558</t>
-  </si>
-  <si>
-    <t>12.06.202559</t>
-  </si>
-  <si>
-    <t>12.06.202560</t>
-  </si>
-  <si>
-    <t>12.06.202561</t>
-  </si>
-  <si>
-    <t>12.06.202562</t>
-  </si>
-  <si>
-    <t>12.06.202563</t>
-  </si>
-  <si>
-    <t>12.06.202564</t>
-  </si>
-  <si>
-    <t>12.06.202565</t>
-  </si>
-  <si>
-    <t>12.06.202566</t>
-  </si>
-  <si>
-    <t>12.06.202567</t>
-  </si>
-  <si>
-    <t>12.06.202568</t>
-  </si>
-  <si>
-    <t>12.06.202569</t>
-  </si>
-  <si>
-    <t>12.06.202570</t>
-  </si>
-  <si>
-    <t>12.06.202571</t>
-  </si>
-  <si>
-    <t>12.06.202572</t>
-  </si>
-  <si>
-    <t>12.06.202573</t>
-  </si>
-  <si>
-    <t>12.06.202574</t>
-  </si>
-  <si>
-    <t>12.06.202575</t>
-  </si>
-  <si>
-    <t>12.06.202576</t>
-  </si>
-  <si>
-    <t>12.06.202577</t>
-  </si>
-  <si>
-    <t>12.06.202578</t>
-  </si>
-  <si>
-    <t>12.06.202579</t>
-  </si>
-  <si>
-    <t>12.06.202580</t>
-  </si>
-  <si>
-    <t>12.06.202581</t>
-  </si>
-  <si>
-    <t>12.06.202582</t>
-  </si>
-  <si>
-    <t>12.06.202583</t>
-  </si>
-  <si>
-    <t>12.06.202584</t>
-  </si>
-  <si>
-    <t>12.06.202585</t>
-  </si>
-  <si>
-    <t>12.06.202586</t>
-  </si>
-  <si>
-    <t>12.06.202587</t>
-  </si>
-  <si>
-    <t>12.06.202588</t>
-  </si>
-  <si>
-    <t>12.06.202589</t>
-  </si>
-  <si>
-    <t>12.06.202590</t>
-  </si>
-  <si>
-    <t>12.06.202591</t>
-  </si>
-  <si>
-    <t>12.06.202592</t>
-  </si>
-  <si>
-    <t>13.06.202593</t>
-  </si>
-  <si>
-    <t>13.06.202594</t>
-  </si>
-  <si>
-    <t>13.06.202595</t>
-  </si>
-  <si>
-    <t>13.06.202596</t>
-  </si>
-  <si>
-    <t>13.06.20251</t>
-  </si>
-  <si>
-    <t>13.06.20252</t>
-  </si>
-  <si>
-    <t>13.06.20253</t>
-  </si>
-  <si>
-    <t>13.06.20254</t>
-  </si>
-  <si>
-    <t>13.06.20255</t>
-  </si>
-  <si>
-    <t>13.06.20256</t>
-  </si>
-  <si>
-    <t>13.06.20257</t>
-  </si>
-  <si>
-    <t>13.06.20258</t>
-  </si>
-  <si>
-    <t>13.06.20259</t>
-  </si>
-  <si>
-    <t>13.06.202510</t>
-  </si>
-  <si>
-    <t>13.06.202511</t>
-  </si>
-  <si>
-    <t>13.06.202512</t>
-  </si>
-  <si>
-    <t>13.06.202513</t>
-  </si>
-  <si>
-    <t>13.06.202514</t>
-  </si>
-  <si>
-    <t>13.06.202515</t>
-  </si>
-  <si>
-    <t>13.06.202516</t>
-  </si>
-  <si>
-    <t>13.06.202517</t>
-  </si>
-  <si>
-    <t>13.06.202518</t>
-  </si>
-  <si>
-    <t>13.06.202519</t>
-  </si>
-  <si>
-    <t>13.06.202520</t>
-  </si>
-  <si>
-    <t>13.06.202521</t>
+    <t>16.06.20251</t>
+  </si>
+  <si>
+    <t>16.06.20252</t>
+  </si>
+  <si>
+    <t>16.06.20253</t>
+  </si>
+  <si>
+    <t>16.06.20254</t>
+  </si>
+  <si>
+    <t>16.06.20255</t>
+  </si>
+  <si>
+    <t>16.06.20256</t>
+  </si>
+  <si>
+    <t>16.06.20257</t>
+  </si>
+  <si>
+    <t>16.06.20258</t>
+  </si>
+  <si>
+    <t>16.06.20259</t>
+  </si>
+  <si>
+    <t>16.06.202510</t>
+  </si>
+  <si>
+    <t>16.06.202511</t>
+  </si>
+  <si>
+    <t>16.06.202512</t>
+  </si>
+  <si>
+    <t>16.06.202513</t>
+  </si>
+  <si>
+    <t>16.06.202514</t>
+  </si>
+  <si>
+    <t>16.06.202515</t>
+  </si>
+  <si>
+    <t>16.06.202516</t>
+  </si>
+  <si>
+    <t>16.06.202517</t>
+  </si>
+  <si>
+    <t>16.06.202518</t>
+  </si>
+  <si>
+    <t>16.06.202519</t>
+  </si>
+  <si>
+    <t>16.06.202520</t>
+  </si>
+  <si>
+    <t>16.06.202521</t>
+  </si>
+  <si>
+    <t>16.06.202522</t>
+  </si>
+  <si>
+    <t>16.06.202523</t>
+  </si>
+  <si>
+    <t>16.06.202524</t>
+  </si>
+  <si>
+    <t>16.06.202525</t>
+  </si>
+  <si>
+    <t>16.06.202526</t>
+  </si>
+  <si>
+    <t>16.06.202527</t>
+  </si>
+  <si>
+    <t>16.06.202528</t>
+  </si>
+  <si>
+    <t>16.06.202529</t>
+  </si>
+  <si>
+    <t>16.06.202530</t>
+  </si>
+  <si>
+    <t>16.06.202531</t>
+  </si>
+  <si>
+    <t>16.06.202532</t>
+  </si>
+  <si>
+    <t>16.06.202533</t>
+  </si>
+  <si>
+    <t>16.06.202534</t>
+  </si>
+  <si>
+    <t>16.06.202535</t>
+  </si>
+  <si>
+    <t>16.06.202536</t>
+  </si>
+  <si>
+    <t>16.06.202537</t>
+  </si>
+  <si>
+    <t>16.06.202538</t>
+  </si>
+  <si>
+    <t>16.06.202539</t>
+  </si>
+  <si>
+    <t>16.06.202540</t>
+  </si>
+  <si>
+    <t>16.06.202541</t>
+  </si>
+  <si>
+    <t>16.06.202542</t>
+  </si>
+  <si>
+    <t>16.06.202543</t>
+  </si>
+  <si>
+    <t>16.06.202544</t>
+  </si>
+  <si>
+    <t>16.06.202545</t>
+  </si>
+  <si>
+    <t>16.06.202546</t>
+  </si>
+  <si>
+    <t>16.06.202547</t>
+  </si>
+  <si>
+    <t>16.06.202548</t>
+  </si>
+  <si>
+    <t>16.06.202549</t>
+  </si>
+  <si>
+    <t>16.06.202550</t>
+  </si>
+  <si>
+    <t>16.06.202551</t>
+  </si>
+  <si>
+    <t>16.06.202552</t>
+  </si>
+  <si>
+    <t>16.06.202553</t>
+  </si>
+  <si>
+    <t>16.06.202554</t>
+  </si>
+  <si>
+    <t>16.06.202555</t>
+  </si>
+  <si>
+    <t>16.06.202556</t>
+  </si>
+  <si>
+    <t>16.06.202557</t>
+  </si>
+  <si>
+    <t>16.06.202558</t>
+  </si>
+  <si>
+    <t>16.06.202559</t>
+  </si>
+  <si>
+    <t>16.06.202560</t>
+  </si>
+  <si>
+    <t>16.06.202561</t>
+  </si>
+  <si>
+    <t>16.06.202562</t>
+  </si>
+  <si>
+    <t>16.06.202563</t>
+  </si>
+  <si>
+    <t>16.06.202564</t>
+  </si>
+  <si>
+    <t>16.06.202565</t>
+  </si>
+  <si>
+    <t>16.06.202566</t>
+  </si>
+  <si>
+    <t>16.06.202567</t>
+  </si>
+  <si>
+    <t>16.06.202568</t>
+  </si>
+  <si>
+    <t>16.06.202569</t>
+  </si>
+  <si>
+    <t>16.06.202570</t>
+  </si>
+  <si>
+    <t>16.06.202571</t>
+  </si>
+  <si>
+    <t>16.06.202572</t>
+  </si>
+  <si>
+    <t>16.06.202573</t>
+  </si>
+  <si>
+    <t>16.06.202574</t>
+  </si>
+  <si>
+    <t>16.06.202575</t>
+  </si>
+  <si>
+    <t>16.06.202576</t>
+  </si>
+  <si>
+    <t>16.06.202577</t>
+  </si>
+  <si>
+    <t>16.06.202578</t>
+  </si>
+  <si>
+    <t>16.06.202579</t>
+  </si>
+  <si>
+    <t>16.06.202580</t>
+  </si>
+  <si>
+    <t>16.06.202581</t>
+  </si>
+  <si>
+    <t>16.06.202582</t>
+  </si>
+  <si>
+    <t>16.06.202583</t>
+  </si>
+  <si>
+    <t>16.06.202584</t>
+  </si>
+  <si>
+    <t>16.06.202585</t>
+  </si>
+  <si>
+    <t>16.06.202586</t>
+  </si>
+  <si>
+    <t>16.06.202587</t>
+  </si>
+  <si>
+    <t>16.06.202588</t>
+  </si>
+  <si>
+    <t>16.06.202589</t>
+  </si>
+  <si>
+    <t>16.06.202590</t>
+  </si>
+  <si>
+    <t>16.06.202591</t>
+  </si>
+  <si>
+    <t>16.06.202592</t>
+  </si>
+  <si>
+    <t>17.06.202593</t>
+  </si>
+  <si>
+    <t>17.06.202594</t>
+  </si>
+  <si>
+    <t>17.06.202595</t>
+  </si>
+  <si>
+    <t>17.06.202596</t>
+  </si>
+  <si>
+    <t>17.06.20251</t>
+  </si>
+  <si>
+    <t>17.06.20252</t>
+  </si>
+  <si>
+    <t>17.06.20253</t>
+  </si>
+  <si>
+    <t>17.06.20254</t>
+  </si>
+  <si>
+    <t>17.06.20255</t>
+  </si>
+  <si>
+    <t>17.06.20256</t>
+  </si>
+  <si>
+    <t>17.06.20257</t>
+  </si>
+  <si>
+    <t>17.06.20258</t>
+  </si>
+  <si>
+    <t>17.06.20259</t>
+  </si>
+  <si>
+    <t>17.06.202510</t>
+  </si>
+  <si>
+    <t>17.06.202511</t>
+  </si>
+  <si>
+    <t>17.06.202512</t>
+  </si>
+  <si>
+    <t>17.06.202513</t>
+  </si>
+  <si>
+    <t>17.06.202514</t>
+  </si>
+  <si>
+    <t>17.06.202515</t>
+  </si>
+  <si>
+    <t>17.06.202516</t>
+  </si>
+  <si>
+    <t>17.06.202517</t>
+  </si>
+  <si>
+    <t>17.06.202518</t>
+  </si>
+  <si>
+    <t>17.06.202519</t>
+  </si>
+  <si>
+    <t>17.06.202520</t>
+  </si>
+  <si>
+    <t>17.06.202521</t>
+  </si>
+  <si>
+    <t>17.06.202522</t>
+  </si>
+  <si>
+    <t>17.06.202523</t>
+  </si>
+  <si>
+    <t>17.06.202524</t>
+  </si>
+  <si>
+    <t>17.06.202525</t>
+  </si>
+  <si>
+    <t>17.06.202526</t>
+  </si>
+  <si>
+    <t>17.06.202527</t>
+  </si>
+  <si>
+    <t>17.06.202528</t>
+  </si>
+  <si>
+    <t>17.06.202529</t>
+  </si>
+  <si>
+    <t>17.06.202530</t>
+  </si>
+  <si>
+    <t>17.06.202531</t>
+  </si>
+  <si>
+    <t>17.06.202532</t>
+  </si>
+  <si>
+    <t>17.06.202533</t>
+  </si>
+  <si>
+    <t>17.06.202534</t>
+  </si>
+  <si>
+    <t>17.06.202535</t>
+  </si>
+  <si>
+    <t>17.06.202536</t>
+  </si>
+  <si>
+    <t>17.06.202537</t>
   </si>
 </sst>
 </file>
@@ -741,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,13 +814,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45820.04166666666</v>
+        <v>45824.04166666666</v>
       </c>
       <c r="B2">
-        <v>5.712</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11.41</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -783,13 +831,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45820.05208333334</v>
+        <v>45824.05208333334</v>
       </c>
       <c r="B3">
-        <v>5.152</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>11.859</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -800,13 +848,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45820.0625</v>
+        <v>45824.0625</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.329</v>
+        <v>4.97</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -817,13 +865,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45820.07291666666</v>
+        <v>45824.07291666666</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.269</v>
       </c>
       <c r="C5">
-        <v>6.004</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -834,13 +882,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45820.08333333334</v>
+        <v>45824.08333333334</v>
       </c>
       <c r="B6">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.234</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -851,13 +899,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45820.09375</v>
+        <v>45824.09375</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>17.338</v>
+        <v>3.487</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -868,13 +916,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45820.10416666666</v>
+        <v>45824.10416666666</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>19.295</v>
+        <v>17.375</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -885,13 +933,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45820.11458333334</v>
+        <v>45824.11458333334</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.349</v>
+        <v>29.205</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -902,13 +950,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45820.125</v>
+        <v>45824.125</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>29.491</v>
+        <v>47.759</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -919,13 +967,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45820.13541666666</v>
+        <v>45824.13541666666</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>46.052</v>
+        <v>43.63</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -936,13 +984,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45820.14583333334</v>
+        <v>45824.14583333334</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>81.39400000000001</v>
+        <v>7.5</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -953,13 +1001,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45820.15625</v>
+        <v>45824.15625</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>48.514</v>
+        <v>10.9</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -970,13 +1018,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45820.16666666666</v>
+        <v>45824.16666666666</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>46.444</v>
+        <v>28.592</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -987,13 +1035,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45820.17708333334</v>
+        <v>45824.17708333334</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>48.729</v>
+        <v>28.056</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1004,13 +1052,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45820.1875</v>
+        <v>45824.1875</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>59.743</v>
+        <v>26.529</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1021,13 +1069,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45820.19791666666</v>
+        <v>45824.19791666666</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>50.797</v>
+        <v>15.949</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1038,13 +1086,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45820.20833333334</v>
+        <v>45824.20833333334</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>44.806</v>
+        <v>31.978</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1055,13 +1103,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45820.21875</v>
+        <v>45824.21875</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.284</v>
+        <v>10.709</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1072,13 +1120,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45820.22916666666</v>
+        <v>45824.22916666666</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>41.784</v>
+        <v>2.917</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1089,13 +1137,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45820.23958333334</v>
+        <v>45824.23958333334</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>8.864000000000001</v>
       </c>
       <c r="C21">
-        <v>19.136</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1106,13 +1154,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45820.25</v>
+        <v>45824.25</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.802</v>
+        <v>12.081</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1123,13 +1171,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45820.26041666666</v>
+        <v>45824.26041666666</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.567</v>
+        <v>22.866</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1140,13 +1188,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45820.27083333334</v>
+        <v>45824.27083333334</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.772</v>
+        <v>3.053</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1157,13 +1205,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45820.28125</v>
+        <v>45824.28125</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>17.364</v>
+        <v>8.428000000000001</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1174,13 +1222,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45820.29166666666</v>
+        <v>45824.29166666666</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2.895</v>
       </c>
       <c r="C26">
-        <v>33.242</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1191,13 +1239,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45820.30208333334</v>
+        <v>45824.30208333334</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>20.009</v>
+        <v>13.525</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1208,13 +1256,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45820.3125</v>
+        <v>45824.3125</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>48.726</v>
+        <v>10.103</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1225,13 +1273,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45820.32291666666</v>
+        <v>45824.32291666666</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>63.439</v>
+        <v>39.638</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1242,13 +1290,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45820.33333333334</v>
+        <v>45824.33333333334</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>20.073</v>
+        <v>53.003</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1259,13 +1307,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45820.34375</v>
+        <v>45824.34375</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>7.733</v>
+        <v>12.274</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1276,13 +1324,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45820.35416666666</v>
+        <v>45824.35416666666</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.733</v>
+        <v>0.51</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1293,13 +1341,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45820.36458333334</v>
+        <v>45824.36458333334</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3.798</v>
+        <v>24.449</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1310,10 +1358,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45820.375</v>
+        <v>45824.375</v>
       </c>
       <c r="B34">
-        <v>13.5</v>
+        <v>7.503</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1327,13 +1375,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45820.38541666666</v>
+        <v>45824.38541666666</v>
       </c>
       <c r="B35">
-        <v>0.573</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>12.809</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1344,13 +1392,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45820.39583333334</v>
+        <v>45824.39583333334</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>10.04</v>
+        <v>1.066</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1361,13 +1409,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45820.40625</v>
+        <v>45824.40625</v>
       </c>
       <c r="B37">
-        <v>4.555</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>10.652</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1378,13 +1426,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45820.41666666666</v>
+        <v>45824.41666666666</v>
       </c>
       <c r="B38">
-        <v>8.178000000000001</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>16.787</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1395,13 +1443,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45820.42708333334</v>
+        <v>45824.42708333334</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>2.126</v>
+        <v>24.085</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1412,13 +1460,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45820.4375</v>
+        <v>45824.4375</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>17.972</v>
+        <v>27.662</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1429,13 +1477,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45820.44791666666</v>
+        <v>45824.44791666666</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>10.146</v>
+        <v>5.701</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1446,13 +1494,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45820.45833333334</v>
+        <v>45824.45833333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1.503</v>
       </c>
       <c r="C42">
-        <v>3.301</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1463,13 +1511,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45820.46875</v>
+        <v>45824.46875</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>8.901</v>
       </c>
       <c r="C43">
-        <v>12.939</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1480,13 +1528,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45820.47916666666</v>
+        <v>45824.47916666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.862</v>
       </c>
       <c r="C44">
-        <v>3.779</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1497,10 +1545,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45820.48958333334</v>
+        <v>45824.48958333334</v>
       </c>
       <c r="B45">
-        <v>8.224</v>
+        <v>13.507</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1514,13 +1562,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45820.5</v>
+        <v>45824.5</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>2.168</v>
       </c>
       <c r="C46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1531,13 +1579,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45820.51041666666</v>
+        <v>45824.51041666666</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0.625</v>
+        <v>0.11</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1548,13 +1596,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45820.52083333334</v>
+        <v>45824.52083333334</v>
       </c>
       <c r="B48">
-        <v>7.252</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>18.084</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1565,13 +1613,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45820.53125</v>
+        <v>45824.53125</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0.226</v>
+        <v>29.715</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1582,13 +1630,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45820.54166666666</v>
+        <v>45824.54166666666</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>35.16</v>
+        <v>25.44</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1599,13 +1647,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45820.55208333334</v>
+        <v>45824.55208333334</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>33.215</v>
+        <v>31.448</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1616,13 +1664,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45820.5625</v>
+        <v>45824.5625</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>14.473</v>
+        <v>38.733</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1633,13 +1681,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45820.57291666666</v>
+        <v>45824.57291666666</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>5.163</v>
+        <v>11.428</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1650,13 +1698,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45820.58333333334</v>
+        <v>45824.58333333334</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>19.014</v>
       </c>
       <c r="C54">
-        <v>36.762</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1667,13 +1715,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45820.59375</v>
+        <v>45824.59375</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>37.499</v>
       </c>
       <c r="C55">
-        <v>52.85</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1684,13 +1732,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45820.60416666666</v>
+        <v>45824.60416666666</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>9.239000000000001</v>
       </c>
       <c r="C56">
-        <v>52.444</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1701,13 +1749,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45820.61458333334</v>
+        <v>45824.61458333334</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>4.74</v>
       </c>
       <c r="C57">
-        <v>20.669</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1718,13 +1766,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45820.625</v>
+        <v>45824.625</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1.428</v>
       </c>
       <c r="C58">
-        <v>17.003</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1735,10 +1783,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45820.63541666666</v>
+        <v>45824.63541666666</v>
       </c>
       <c r="B59">
-        <v>10.005</v>
+        <v>5.387</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1752,10 +1800,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45820.64583333334</v>
+        <v>45824.64583333334</v>
       </c>
       <c r="B60">
-        <v>10.248</v>
+        <v>12.649</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1769,10 +1817,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45820.65625</v>
+        <v>45824.65625</v>
       </c>
       <c r="B61">
-        <v>16.389</v>
+        <v>5.946</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1786,13 +1834,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45820.66666666666</v>
+        <v>45824.66666666666</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>11.718</v>
       </c>
       <c r="C62">
-        <v>17.285</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1803,13 +1851,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45820.67708333334</v>
+        <v>45824.67708333334</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>22.014</v>
+        <v>5.314</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1820,13 +1868,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45820.6875</v>
+        <v>45824.6875</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>3.505</v>
+        <v>7.003</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1837,13 +1885,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45820.69791666666</v>
+        <v>45824.69791666666</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0.5639999999999999</v>
+        <v>11.72</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1854,13 +1902,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45820.70833333334</v>
+        <v>45824.70833333334</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>14.04</v>
+        <v>15.198</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1871,13 +1919,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45820.71875</v>
+        <v>45824.71875</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>13.617</v>
+        <v>19.651</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1888,10 +1936,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45820.72916666666</v>
+        <v>45824.72916666666</v>
       </c>
       <c r="B68">
-        <v>4.744</v>
+        <v>12.777</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1905,13 +1953,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45820.73958333334</v>
+        <v>45824.73958333334</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>22.61</v>
       </c>
       <c r="C69">
-        <v>0.582</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1922,13 +1970,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45820.75</v>
+        <v>45824.75</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>9.974</v>
       </c>
       <c r="C70">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1939,13 +1987,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45820.76041666666</v>
+        <v>45824.76041666666</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>47.515</v>
       </c>
       <c r="C71">
-        <v>1.775</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1956,10 +2004,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45820.77083333334</v>
+        <v>45824.77083333334</v>
       </c>
       <c r="B72">
-        <v>14.759</v>
+        <v>60.332</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1973,13 +2021,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45820.78125</v>
+        <v>45824.78125</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>50.094</v>
       </c>
       <c r="C73">
-        <v>3.86</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -1990,13 +2038,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45820.79166666666</v>
+        <v>45824.79166666666</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0.26</v>
+        <v>4.919</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2007,13 +2055,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45820.80208333334</v>
+        <v>45824.80208333334</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="C75">
-        <v>2.058</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2024,13 +2072,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45820.8125</v>
+        <v>45824.8125</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1.214</v>
+        <v>9.577</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2041,13 +2089,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45820.82291666666</v>
+        <v>45824.82291666666</v>
       </c>
       <c r="B77">
-        <v>2.259</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>11.296</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2058,13 +2106,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45820.83333333334</v>
+        <v>45824.83333333334</v>
       </c>
       <c r="B78">
-        <v>1.029</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2075,13 +2123,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45820.84375</v>
+        <v>45824.84375</v>
       </c>
       <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
         <v>2.992</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2092,13 +2140,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45820.85416666666</v>
+        <v>45824.85416666666</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>1.489</v>
+        <v>8.948</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2109,13 +2157,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45820.86458333334</v>
+        <v>45824.86458333334</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>6.385</v>
+        <v>15.404</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2126,10 +2174,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45820.875</v>
+        <v>45824.875</v>
       </c>
       <c r="B82">
-        <v>7.524</v>
+        <v>11.254</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2143,13 +2191,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45820.88541666666</v>
+        <v>45824.88541666666</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>15.719</v>
       </c>
       <c r="C83">
-        <v>2.723</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2160,13 +2208,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45820.89583333334</v>
+        <v>45824.89583333334</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>10.368</v>
+        <v>3.616</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2177,13 +2225,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45820.90625</v>
+        <v>45824.90625</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1.192</v>
       </c>
       <c r="C85">
-        <v>10.041</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2194,10 +2242,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45820.91666666666</v>
+        <v>45824.91666666666</v>
       </c>
       <c r="B86">
-        <v>11.931</v>
+        <v>11.785</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2211,10 +2259,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45820.92708333334</v>
+        <v>45824.92708333334</v>
       </c>
       <c r="B87">
-        <v>4.433</v>
+        <v>17.553</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2228,10 +2276,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45820.9375</v>
+        <v>45824.9375</v>
       </c>
       <c r="B88">
-        <v>5.455</v>
+        <v>5.97</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2245,13 +2293,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45820.94791666666</v>
+        <v>45824.94791666666</v>
       </c>
       <c r="B89">
-        <v>0.218</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2262,10 +2310,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45820.95833333334</v>
+        <v>45824.95833333334</v>
       </c>
       <c r="B90">
-        <v>4.907</v>
+        <v>3.826</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2279,13 +2327,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45820.96875</v>
+        <v>45824.96875</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>8.612</v>
       </c>
       <c r="C91">
-        <v>6.248</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2296,13 +2344,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45820.97916666666</v>
+        <v>45824.97916666666</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>2.15</v>
+        <v>1.517</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2313,13 +2361,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45820.98958333334</v>
+        <v>45824.98958333334</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>2.34</v>
+        <v>5.276</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2330,13 +2378,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1.043</v>
       </c>
       <c r="C94">
-        <v>16.176</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2347,10 +2395,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B95">
-        <v>1.67</v>
+        <v>8.292999999999999</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2364,13 +2412,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B96">
-        <v>1.742</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>7.178</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2381,13 +2429,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B97">
-        <v>3.279</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2398,10 +2446,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B98">
-        <v>3.244</v>
+        <v>3.673</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2415,10 +2463,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B99">
-        <v>9.4</v>
+        <v>2.391</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2432,10 +2480,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B100">
-        <v>31.632</v>
+        <v>8.08</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2449,10 +2497,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B101">
-        <v>16.881</v>
+        <v>21.615</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2466,10 +2514,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B102">
-        <v>13.135</v>
+        <v>23.491</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2483,10 +2531,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B103">
-        <v>33.591</v>
+        <v>13.616</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2500,10 +2548,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B104">
-        <v>17.637</v>
+        <v>18.459</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2517,10 +2565,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B105">
-        <v>15.633</v>
+        <v>33.05</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2534,10 +2582,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B106">
-        <v>5.516</v>
+        <v>34.467</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2551,10 +2599,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B107">
-        <v>40.14</v>
+        <v>21.765</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2568,10 +2616,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B108">
-        <v>27.025</v>
+        <v>35.634</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2585,10 +2633,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B109">
-        <v>24.511</v>
+        <v>9.643000000000001</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2602,13 +2650,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B110">
-        <v>17.187</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.255</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2619,13 +2667,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B111">
-        <v>22.812</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1.662</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2636,13 +2684,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B112">
-        <v>37.755</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>5.111</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2653,10 +2701,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B113">
-        <v>24.952</v>
+        <v>9.568</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2670,10 +2718,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B114">
-        <v>23.846</v>
+        <v>5.95</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2687,10 +2735,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B115">
-        <v>0.289</v>
+        <v>2.601</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2704,10 +2752,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B116">
-        <v>5.23</v>
+        <v>6.205</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2721,10 +2769,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B117">
-        <v>8.715999999999999</v>
+        <v>9.451000000000001</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2738,19 +2786,291 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>21.021</v>
       </c>
       <c r="C118">
-        <v>10.568</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>21</v>
       </c>
       <c r="E118" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2">
+        <v>45825.26041666666</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>2.662</v>
+      </c>
+      <c r="D119">
+        <v>22</v>
+      </c>
+      <c r="E119" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2">
+        <v>45825.27083333334</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>8.555</v>
+      </c>
+      <c r="D120">
+        <v>23</v>
+      </c>
+      <c r="E120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2">
+        <v>45825.28125</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>11.277</v>
+      </c>
+      <c r="D121">
+        <v>24</v>
+      </c>
+      <c r="E121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>45825.29166666666</v>
+      </c>
+      <c r="B122">
+        <v>15.103</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>45825.30208333334</v>
+      </c>
+      <c r="B123">
+        <v>3.691</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>26</v>
+      </c>
+      <c r="E123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>45825.3125</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>3.733</v>
+      </c>
+      <c r="D124">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>45825.32291666666</v>
+      </c>
+      <c r="B125">
+        <v>1.685</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>28</v>
+      </c>
+      <c r="E125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>45825.33333333334</v>
+      </c>
+      <c r="B126">
+        <v>17.821</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>29</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>45825.34375</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>9.792999999999999</v>
+      </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>45825.35416666666</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>5.797</v>
+      </c>
+      <c r="D128">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>45825.36458333334</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>14.648</v>
+      </c>
+      <c r="D129">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>45825.375</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>6.841</v>
+      </c>
+      <c r="D130">
+        <v>33</v>
+      </c>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45825.38541666666</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>14.771</v>
+      </c>
+      <c r="D131">
+        <v>34</v>
+      </c>
+      <c r="E131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45825.39583333334</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0.644</v>
+      </c>
+      <c r="D132">
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45825.40625</v>
+      </c>
+      <c r="B133">
+        <v>3.417</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>36</v>
+      </c>
+      <c r="E133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45825.41666666666</v>
+      </c>
+      <c r="B134">
+        <v>1.906</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>16.06.20251</t>
-  </si>
-  <si>
-    <t>16.06.20252</t>
-  </si>
-  <si>
-    <t>16.06.20253</t>
-  </si>
-  <si>
-    <t>16.06.20254</t>
-  </si>
-  <si>
-    <t>16.06.20255</t>
-  </si>
-  <si>
-    <t>16.06.20256</t>
-  </si>
-  <si>
-    <t>16.06.20257</t>
-  </si>
-  <si>
-    <t>16.06.20258</t>
-  </si>
-  <si>
-    <t>16.06.20259</t>
-  </si>
-  <si>
-    <t>16.06.202510</t>
-  </si>
-  <si>
-    <t>16.06.202511</t>
-  </si>
-  <si>
-    <t>16.06.202512</t>
-  </si>
-  <si>
-    <t>16.06.202513</t>
-  </si>
-  <si>
-    <t>16.06.202514</t>
-  </si>
-  <si>
-    <t>16.06.202515</t>
-  </si>
-  <si>
-    <t>16.06.202516</t>
-  </si>
-  <si>
-    <t>16.06.202517</t>
-  </si>
-  <si>
-    <t>16.06.202518</t>
-  </si>
-  <si>
-    <t>16.06.202519</t>
-  </si>
-  <si>
-    <t>16.06.202520</t>
-  </si>
-  <si>
-    <t>16.06.202521</t>
-  </si>
-  <si>
-    <t>16.06.202522</t>
-  </si>
-  <si>
-    <t>16.06.202523</t>
-  </si>
-  <si>
-    <t>16.06.202524</t>
-  </si>
-  <si>
-    <t>16.06.202525</t>
-  </si>
-  <si>
-    <t>16.06.202526</t>
-  </si>
-  <si>
-    <t>16.06.202527</t>
-  </si>
-  <si>
-    <t>16.06.202528</t>
-  </si>
-  <si>
-    <t>16.06.202529</t>
-  </si>
-  <si>
-    <t>16.06.202530</t>
-  </si>
-  <si>
-    <t>16.06.202531</t>
-  </si>
-  <si>
-    <t>16.06.202532</t>
-  </si>
-  <si>
-    <t>16.06.202533</t>
-  </si>
-  <si>
-    <t>16.06.202534</t>
-  </si>
-  <si>
-    <t>16.06.202535</t>
-  </si>
-  <si>
-    <t>16.06.202536</t>
-  </si>
-  <si>
-    <t>16.06.202537</t>
-  </si>
-  <si>
-    <t>16.06.202538</t>
-  </si>
-  <si>
-    <t>16.06.202539</t>
-  </si>
-  <si>
-    <t>16.06.202540</t>
-  </si>
-  <si>
-    <t>16.06.202541</t>
-  </si>
-  <si>
-    <t>16.06.202542</t>
-  </si>
-  <si>
-    <t>16.06.202543</t>
-  </si>
-  <si>
-    <t>16.06.202544</t>
-  </si>
-  <si>
-    <t>16.06.202545</t>
-  </si>
-  <si>
-    <t>16.06.202546</t>
-  </si>
-  <si>
-    <t>16.06.202547</t>
-  </si>
-  <si>
-    <t>16.06.202548</t>
-  </si>
-  <si>
-    <t>16.06.202549</t>
-  </si>
-  <si>
-    <t>16.06.202550</t>
-  </si>
-  <si>
-    <t>16.06.202551</t>
-  </si>
-  <si>
-    <t>16.06.202552</t>
-  </si>
-  <si>
-    <t>16.06.202553</t>
-  </si>
-  <si>
-    <t>16.06.202554</t>
-  </si>
-  <si>
-    <t>16.06.202555</t>
-  </si>
-  <si>
-    <t>16.06.202556</t>
-  </si>
-  <si>
-    <t>16.06.202557</t>
-  </si>
-  <si>
-    <t>16.06.202558</t>
-  </si>
-  <si>
-    <t>16.06.202559</t>
-  </si>
-  <si>
-    <t>16.06.202560</t>
-  </si>
-  <si>
-    <t>16.06.202561</t>
-  </si>
-  <si>
-    <t>16.06.202562</t>
-  </si>
-  <si>
-    <t>16.06.202563</t>
-  </si>
-  <si>
-    <t>16.06.202564</t>
-  </si>
-  <si>
-    <t>16.06.202565</t>
-  </si>
-  <si>
-    <t>16.06.202566</t>
-  </si>
-  <si>
-    <t>16.06.202567</t>
-  </si>
-  <si>
-    <t>16.06.202568</t>
-  </si>
-  <si>
-    <t>16.06.202569</t>
-  </si>
-  <si>
-    <t>16.06.202570</t>
-  </si>
-  <si>
-    <t>16.06.202571</t>
-  </si>
-  <si>
-    <t>16.06.202572</t>
-  </si>
-  <si>
-    <t>16.06.202573</t>
-  </si>
-  <si>
-    <t>16.06.202574</t>
-  </si>
-  <si>
-    <t>16.06.202575</t>
-  </si>
-  <si>
-    <t>16.06.202576</t>
-  </si>
-  <si>
-    <t>16.06.202577</t>
-  </si>
-  <si>
-    <t>16.06.202578</t>
-  </si>
-  <si>
-    <t>16.06.202579</t>
-  </si>
-  <si>
-    <t>16.06.202580</t>
-  </si>
-  <si>
-    <t>16.06.202581</t>
-  </si>
-  <si>
-    <t>16.06.202582</t>
-  </si>
-  <si>
-    <t>16.06.202583</t>
-  </si>
-  <si>
-    <t>16.06.202584</t>
-  </si>
-  <si>
-    <t>16.06.202585</t>
-  </si>
-  <si>
-    <t>16.06.202586</t>
-  </si>
-  <si>
-    <t>16.06.202587</t>
-  </si>
-  <si>
-    <t>16.06.202588</t>
-  </si>
-  <si>
-    <t>16.06.202589</t>
-  </si>
-  <si>
-    <t>16.06.202590</t>
-  </si>
-  <si>
-    <t>16.06.202591</t>
-  </si>
-  <si>
-    <t>16.06.202592</t>
-  </si>
-  <si>
-    <t>17.06.202593</t>
-  </si>
-  <si>
-    <t>17.06.202594</t>
-  </si>
-  <si>
-    <t>17.06.202595</t>
-  </si>
-  <si>
-    <t>17.06.202596</t>
-  </si>
-  <si>
     <t>17.06.20251</t>
   </si>
   <si>
@@ -428,6 +140,834 @@
   </si>
   <si>
     <t>17.06.202537</t>
+  </si>
+  <si>
+    <t>17.06.202538</t>
+  </si>
+  <si>
+    <t>17.06.202539</t>
+  </si>
+  <si>
+    <t>17.06.202540</t>
+  </si>
+  <si>
+    <t>17.06.202541</t>
+  </si>
+  <si>
+    <t>17.06.202542</t>
+  </si>
+  <si>
+    <t>17.06.202543</t>
+  </si>
+  <si>
+    <t>17.06.202544</t>
+  </si>
+  <si>
+    <t>17.06.202545</t>
+  </si>
+  <si>
+    <t>17.06.202546</t>
+  </si>
+  <si>
+    <t>17.06.202547</t>
+  </si>
+  <si>
+    <t>17.06.202548</t>
+  </si>
+  <si>
+    <t>17.06.202549</t>
+  </si>
+  <si>
+    <t>17.06.202550</t>
+  </si>
+  <si>
+    <t>17.06.202551</t>
+  </si>
+  <si>
+    <t>17.06.202552</t>
+  </si>
+  <si>
+    <t>17.06.202553</t>
+  </si>
+  <si>
+    <t>17.06.202554</t>
+  </si>
+  <si>
+    <t>17.06.202555</t>
+  </si>
+  <si>
+    <t>17.06.202556</t>
+  </si>
+  <si>
+    <t>17.06.202557</t>
+  </si>
+  <si>
+    <t>17.06.202558</t>
+  </si>
+  <si>
+    <t>17.06.202559</t>
+  </si>
+  <si>
+    <t>17.06.202560</t>
+  </si>
+  <si>
+    <t>17.06.202561</t>
+  </si>
+  <si>
+    <t>17.06.202562</t>
+  </si>
+  <si>
+    <t>17.06.202563</t>
+  </si>
+  <si>
+    <t>17.06.202564</t>
+  </si>
+  <si>
+    <t>17.06.202565</t>
+  </si>
+  <si>
+    <t>17.06.202566</t>
+  </si>
+  <si>
+    <t>17.06.202567</t>
+  </si>
+  <si>
+    <t>17.06.202568</t>
+  </si>
+  <si>
+    <t>17.06.202569</t>
+  </si>
+  <si>
+    <t>17.06.202570</t>
+  </si>
+  <si>
+    <t>17.06.202571</t>
+  </si>
+  <si>
+    <t>17.06.202572</t>
+  </si>
+  <si>
+    <t>17.06.202573</t>
+  </si>
+  <si>
+    <t>17.06.202574</t>
+  </si>
+  <si>
+    <t>17.06.202575</t>
+  </si>
+  <si>
+    <t>18.06.202576</t>
+  </si>
+  <si>
+    <t>18.06.202577</t>
+  </si>
+  <si>
+    <t>18.06.202578</t>
+  </si>
+  <si>
+    <t>18.06.202579</t>
+  </si>
+  <si>
+    <t>18.06.202580</t>
+  </si>
+  <si>
+    <t>18.06.202581</t>
+  </si>
+  <si>
+    <t>18.06.202582</t>
+  </si>
+  <si>
+    <t>18.06.202583</t>
+  </si>
+  <si>
+    <t>18.06.202584</t>
+  </si>
+  <si>
+    <t>18.06.202585</t>
+  </si>
+  <si>
+    <t>18.06.202586</t>
+  </si>
+  <si>
+    <t>18.06.202587</t>
+  </si>
+  <si>
+    <t>18.06.202588</t>
+  </si>
+  <si>
+    <t>18.06.202589</t>
+  </si>
+  <si>
+    <t>18.06.202590</t>
+  </si>
+  <si>
+    <t>18.06.202591</t>
+  </si>
+  <si>
+    <t>18.06.202592</t>
+  </si>
+  <si>
+    <t>18.06.202593</t>
+  </si>
+  <si>
+    <t>18.06.202594</t>
+  </si>
+  <si>
+    <t>18.06.202595</t>
+  </si>
+  <si>
+    <t>18.06.202596</t>
+  </si>
+  <si>
+    <t>18.06.20251</t>
+  </si>
+  <si>
+    <t>18.06.20252</t>
+  </si>
+  <si>
+    <t>18.06.20253</t>
+  </si>
+  <si>
+    <t>18.06.20254</t>
+  </si>
+  <si>
+    <t>18.06.20255</t>
+  </si>
+  <si>
+    <t>18.06.20256</t>
+  </si>
+  <si>
+    <t>18.06.20257</t>
+  </si>
+  <si>
+    <t>18.06.20258</t>
+  </si>
+  <si>
+    <t>18.06.20259</t>
+  </si>
+  <si>
+    <t>18.06.202510</t>
+  </si>
+  <si>
+    <t>18.06.202511</t>
+  </si>
+  <si>
+    <t>18.06.202512</t>
+  </si>
+  <si>
+    <t>18.06.202513</t>
+  </si>
+  <si>
+    <t>18.06.202514</t>
+  </si>
+  <si>
+    <t>18.06.202515</t>
+  </si>
+  <si>
+    <t>18.06.202516</t>
+  </si>
+  <si>
+    <t>18.06.202517</t>
+  </si>
+  <si>
+    <t>18.06.202518</t>
+  </si>
+  <si>
+    <t>18.06.202519</t>
+  </si>
+  <si>
+    <t>18.06.202520</t>
+  </si>
+  <si>
+    <t>18.06.202521</t>
+  </si>
+  <si>
+    <t>18.06.202522</t>
+  </si>
+  <si>
+    <t>18.06.202523</t>
+  </si>
+  <si>
+    <t>18.06.202524</t>
+  </si>
+  <si>
+    <t>18.06.202525</t>
+  </si>
+  <si>
+    <t>18.06.202526</t>
+  </si>
+  <si>
+    <t>18.06.202527</t>
+  </si>
+  <si>
+    <t>18.06.202528</t>
+  </si>
+  <si>
+    <t>18.06.202529</t>
+  </si>
+  <si>
+    <t>18.06.202530</t>
+  </si>
+  <si>
+    <t>18.06.202531</t>
+  </si>
+  <si>
+    <t>18.06.202532</t>
+  </si>
+  <si>
+    <t>18.06.202533</t>
+  </si>
+  <si>
+    <t>18.06.202534</t>
+  </si>
+  <si>
+    <t>18.06.202535</t>
+  </si>
+  <si>
+    <t>18.06.202536</t>
+  </si>
+  <si>
+    <t>18.06.202537</t>
+  </si>
+  <si>
+    <t>18.06.202538</t>
+  </si>
+  <si>
+    <t>18.06.202539</t>
+  </si>
+  <si>
+    <t>18.06.202540</t>
+  </si>
+  <si>
+    <t>18.06.202541</t>
+  </si>
+  <si>
+    <t>18.06.202542</t>
+  </si>
+  <si>
+    <t>18.06.202543</t>
+  </si>
+  <si>
+    <t>18.06.202544</t>
+  </si>
+  <si>
+    <t>18.06.202545</t>
+  </si>
+  <si>
+    <t>18.06.202546</t>
+  </si>
+  <si>
+    <t>18.06.202547</t>
+  </si>
+  <si>
+    <t>18.06.202548</t>
+  </si>
+  <si>
+    <t>18.06.202549</t>
+  </si>
+  <si>
+    <t>18.06.202550</t>
+  </si>
+  <si>
+    <t>18.06.202551</t>
+  </si>
+  <si>
+    <t>18.06.202552</t>
+  </si>
+  <si>
+    <t>18.06.202553</t>
+  </si>
+  <si>
+    <t>18.06.202554</t>
+  </si>
+  <si>
+    <t>18.06.202555</t>
+  </si>
+  <si>
+    <t>18.06.202556</t>
+  </si>
+  <si>
+    <t>18.06.202557</t>
+  </si>
+  <si>
+    <t>18.06.202558</t>
+  </si>
+  <si>
+    <t>18.06.202559</t>
+  </si>
+  <si>
+    <t>18.06.202560</t>
+  </si>
+  <si>
+    <t>18.06.202561</t>
+  </si>
+  <si>
+    <t>18.06.202562</t>
+  </si>
+  <si>
+    <t>18.06.202563</t>
+  </si>
+  <si>
+    <t>18.06.202564</t>
+  </si>
+  <si>
+    <t>18.06.202565</t>
+  </si>
+  <si>
+    <t>18.06.202566</t>
+  </si>
+  <si>
+    <t>18.06.202567</t>
+  </si>
+  <si>
+    <t>18.06.202568</t>
+  </si>
+  <si>
+    <t>18.06.202569</t>
+  </si>
+  <si>
+    <t>18.06.202570</t>
+  </si>
+  <si>
+    <t>18.06.202571</t>
+  </si>
+  <si>
+    <t>18.06.202572</t>
+  </si>
+  <si>
+    <t>18.06.202573</t>
+  </si>
+  <si>
+    <t>18.06.202574</t>
+  </si>
+  <si>
+    <t>18.06.202575</t>
+  </si>
+  <si>
+    <t>19.06.202576</t>
+  </si>
+  <si>
+    <t>19.06.202577</t>
+  </si>
+  <si>
+    <t>19.06.202578</t>
+  </si>
+  <si>
+    <t>19.06.202579</t>
+  </si>
+  <si>
+    <t>19.06.202580</t>
+  </si>
+  <si>
+    <t>19.06.202581</t>
+  </si>
+  <si>
+    <t>19.06.202582</t>
+  </si>
+  <si>
+    <t>19.06.202583</t>
+  </si>
+  <si>
+    <t>19.06.202584</t>
+  </si>
+  <si>
+    <t>19.06.202585</t>
+  </si>
+  <si>
+    <t>19.06.202586</t>
+  </si>
+  <si>
+    <t>19.06.202587</t>
+  </si>
+  <si>
+    <t>19.06.202588</t>
+  </si>
+  <si>
+    <t>19.06.202589</t>
+  </si>
+  <si>
+    <t>19.06.202590</t>
+  </si>
+  <si>
+    <t>19.06.202591</t>
+  </si>
+  <si>
+    <t>19.06.202592</t>
+  </si>
+  <si>
+    <t>19.06.202593</t>
+  </si>
+  <si>
+    <t>19.06.202594</t>
+  </si>
+  <si>
+    <t>19.06.202595</t>
+  </si>
+  <si>
+    <t>19.06.202596</t>
+  </si>
+  <si>
+    <t>19.06.20251</t>
+  </si>
+  <si>
+    <t>19.06.20252</t>
+  </si>
+  <si>
+    <t>19.06.20253</t>
+  </si>
+  <si>
+    <t>19.06.20254</t>
+  </si>
+  <si>
+    <t>19.06.20255</t>
+  </si>
+  <si>
+    <t>19.06.20256</t>
+  </si>
+  <si>
+    <t>19.06.20257</t>
+  </si>
+  <si>
+    <t>19.06.20258</t>
+  </si>
+  <si>
+    <t>19.06.20259</t>
+  </si>
+  <si>
+    <t>19.06.202510</t>
+  </si>
+  <si>
+    <t>19.06.202511</t>
+  </si>
+  <si>
+    <t>19.06.202512</t>
+  </si>
+  <si>
+    <t>19.06.202513</t>
+  </si>
+  <si>
+    <t>19.06.202514</t>
+  </si>
+  <si>
+    <t>19.06.202515</t>
+  </si>
+  <si>
+    <t>19.06.202516</t>
+  </si>
+  <si>
+    <t>19.06.202517</t>
+  </si>
+  <si>
+    <t>19.06.202518</t>
+  </si>
+  <si>
+    <t>19.06.202519</t>
+  </si>
+  <si>
+    <t>19.06.202520</t>
+  </si>
+  <si>
+    <t>19.06.202521</t>
+  </si>
+  <si>
+    <t>19.06.202522</t>
+  </si>
+  <si>
+    <t>19.06.202523</t>
+  </si>
+  <si>
+    <t>19.06.202524</t>
+  </si>
+  <si>
+    <t>19.06.202525</t>
+  </si>
+  <si>
+    <t>19.06.202526</t>
+  </si>
+  <si>
+    <t>19.06.202527</t>
+  </si>
+  <si>
+    <t>19.06.202528</t>
+  </si>
+  <si>
+    <t>19.06.202529</t>
+  </si>
+  <si>
+    <t>19.06.202530</t>
+  </si>
+  <si>
+    <t>19.06.202531</t>
+  </si>
+  <si>
+    <t>19.06.202532</t>
+  </si>
+  <si>
+    <t>19.06.202533</t>
+  </si>
+  <si>
+    <t>19.06.202534</t>
+  </si>
+  <si>
+    <t>19.06.202535</t>
+  </si>
+  <si>
+    <t>19.06.202536</t>
+  </si>
+  <si>
+    <t>19.06.202537</t>
+  </si>
+  <si>
+    <t>19.06.202538</t>
+  </si>
+  <si>
+    <t>19.06.202539</t>
+  </si>
+  <si>
+    <t>19.06.202540</t>
+  </si>
+  <si>
+    <t>19.06.202541</t>
+  </si>
+  <si>
+    <t>19.06.202542</t>
+  </si>
+  <si>
+    <t>19.06.202543</t>
+  </si>
+  <si>
+    <t>19.06.202544</t>
+  </si>
+  <si>
+    <t>19.06.202545</t>
+  </si>
+  <si>
+    <t>19.06.202546</t>
+  </si>
+  <si>
+    <t>19.06.202547</t>
+  </si>
+  <si>
+    <t>19.06.202548</t>
+  </si>
+  <si>
+    <t>19.06.202549</t>
+  </si>
+  <si>
+    <t>19.06.202550</t>
+  </si>
+  <si>
+    <t>19.06.202551</t>
+  </si>
+  <si>
+    <t>19.06.202552</t>
+  </si>
+  <si>
+    <t>19.06.202553</t>
+  </si>
+  <si>
+    <t>19.06.202554</t>
+  </si>
+  <si>
+    <t>19.06.202555</t>
+  </si>
+  <si>
+    <t>19.06.202556</t>
+  </si>
+  <si>
+    <t>19.06.202557</t>
+  </si>
+  <si>
+    <t>19.06.202558</t>
+  </si>
+  <si>
+    <t>19.06.202559</t>
+  </si>
+  <si>
+    <t>19.06.202560</t>
+  </si>
+  <si>
+    <t>19.06.202561</t>
+  </si>
+  <si>
+    <t>19.06.202562</t>
+  </si>
+  <si>
+    <t>19.06.202563</t>
+  </si>
+  <si>
+    <t>19.06.202564</t>
+  </si>
+  <si>
+    <t>19.06.202565</t>
+  </si>
+  <si>
+    <t>19.06.202566</t>
+  </si>
+  <si>
+    <t>19.06.202567</t>
+  </si>
+  <si>
+    <t>19.06.202568</t>
+  </si>
+  <si>
+    <t>19.06.202569</t>
+  </si>
+  <si>
+    <t>19.06.202570</t>
+  </si>
+  <si>
+    <t>19.06.202571</t>
+  </si>
+  <si>
+    <t>19.06.202572</t>
+  </si>
+  <si>
+    <t>19.06.202573</t>
+  </si>
+  <si>
+    <t>19.06.202574</t>
+  </si>
+  <si>
+    <t>19.06.202575</t>
+  </si>
+  <si>
+    <t>20.06.202576</t>
+  </si>
+  <si>
+    <t>20.06.202577</t>
+  </si>
+  <si>
+    <t>20.06.202578</t>
+  </si>
+  <si>
+    <t>20.06.202579</t>
+  </si>
+  <si>
+    <t>20.06.202580</t>
+  </si>
+  <si>
+    <t>20.06.202581</t>
+  </si>
+  <si>
+    <t>20.06.202582</t>
+  </si>
+  <si>
+    <t>20.06.202583</t>
+  </si>
+  <si>
+    <t>20.06.202584</t>
+  </si>
+  <si>
+    <t>20.06.202585</t>
+  </si>
+  <si>
+    <t>20.06.202586</t>
+  </si>
+  <si>
+    <t>20.06.202587</t>
+  </si>
+  <si>
+    <t>20.06.202588</t>
+  </si>
+  <si>
+    <t>20.06.202589</t>
+  </si>
+  <si>
+    <t>20.06.202590</t>
+  </si>
+  <si>
+    <t>20.06.202591</t>
+  </si>
+  <si>
+    <t>20.06.202592</t>
+  </si>
+  <si>
+    <t>20.06.202593</t>
+  </si>
+  <si>
+    <t>20.06.202594</t>
+  </si>
+  <si>
+    <t>20.06.202595</t>
+  </si>
+  <si>
+    <t>20.06.202596</t>
+  </si>
+  <si>
+    <t>20.06.20251</t>
+  </si>
+  <si>
+    <t>20.06.20252</t>
+  </si>
+  <si>
+    <t>20.06.20253</t>
+  </si>
+  <si>
+    <t>20.06.20254</t>
+  </si>
+  <si>
+    <t>20.06.20255</t>
+  </si>
+  <si>
+    <t>20.06.20256</t>
+  </si>
+  <si>
+    <t>20.06.20257</t>
+  </si>
+  <si>
+    <t>20.06.20258</t>
+  </si>
+  <si>
+    <t>20.06.20259</t>
+  </si>
+  <si>
+    <t>20.06.202510</t>
+  </si>
+  <si>
+    <t>20.06.202511</t>
+  </si>
+  <si>
+    <t>20.06.202512</t>
+  </si>
+  <si>
+    <t>20.06.202513</t>
+  </si>
+  <si>
+    <t>20.06.202514</t>
+  </si>
+  <si>
+    <t>20.06.202515</t>
+  </si>
+  <si>
+    <t>20.06.202516</t>
+  </si>
+  <si>
+    <t>20.06.202517</t>
+  </si>
+  <si>
+    <t>20.06.202518</t>
+  </si>
+  <si>
+    <t>20.06.202519</t>
+  </si>
+  <si>
+    <t>20.06.202520</t>
+  </si>
+  <si>
+    <t>20.06.202521</t>
+  </si>
+  <si>
+    <t>20.06.202522</t>
+  </si>
+  <si>
+    <t>20.06.202523</t>
+  </si>
+  <si>
+    <t>20.06.202524</t>
+  </si>
+  <si>
+    <t>20.06.202525</t>
   </si>
 </sst>
 </file>
@@ -789,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,13 +1354,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45824.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.673</v>
       </c>
       <c r="C2">
-        <v>11.41</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -831,13 +1371,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45824.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.391</v>
       </c>
       <c r="C3">
-        <v>11.859</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -848,13 +1388,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45824.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>8.08</v>
       </c>
       <c r="C4">
-        <v>4.97</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -865,10 +1405,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45824.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B5">
-        <v>1.269</v>
+        <v>21.615</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -882,13 +1422,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45824.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>23.491</v>
       </c>
       <c r="C6">
-        <v>3.234</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -899,13 +1439,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45824.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>13.616</v>
       </c>
       <c r="C7">
-        <v>3.487</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -916,13 +1456,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45824.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>18.459</v>
       </c>
       <c r="C8">
-        <v>17.375</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -933,13 +1473,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45824.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>33.05</v>
       </c>
       <c r="C9">
-        <v>29.205</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -950,13 +1490,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45824.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>34.467</v>
       </c>
       <c r="C10">
-        <v>47.759</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -967,13 +1507,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45824.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>21.765</v>
       </c>
       <c r="C11">
-        <v>43.63</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -984,13 +1524,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45824.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>35.634</v>
       </c>
       <c r="C12">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1001,13 +1541,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45824.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>9.643000000000001</v>
       </c>
       <c r="C13">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1018,13 +1558,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45824.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>28.592</v>
+        <v>0.255</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1035,13 +1575,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45824.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>28.056</v>
+        <v>1.662</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1052,13 +1592,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45824.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>26.529</v>
+        <v>5.111</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1069,13 +1609,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45824.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9.568</v>
       </c>
       <c r="C17">
-        <v>15.949</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1086,13 +1626,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45824.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="C18">
-        <v>31.978</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1103,13 +1643,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45824.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2.601</v>
       </c>
       <c r="C19">
-        <v>10.709</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1120,13 +1660,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45824.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>6.205</v>
       </c>
       <c r="C20">
-        <v>2.917</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1137,10 +1677,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45824.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B21">
-        <v>8.864000000000001</v>
+        <v>9.451000000000001</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1154,13 +1694,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45824.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>21.021</v>
       </c>
       <c r="C22">
-        <v>12.081</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1171,13 +1711,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45824.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>22.866</v>
+        <v>2.662</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1188,13 +1728,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45824.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.053</v>
+        <v>8.555</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1205,13 +1745,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45824.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.428000000000001</v>
+        <v>11.277</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1222,10 +1762,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45824.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B26">
-        <v>2.895</v>
+        <v>15.103</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1239,13 +1779,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45824.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>3.691</v>
       </c>
       <c r="C27">
-        <v>13.525</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1256,13 +1796,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45824.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>10.103</v>
+        <v>3.733</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1273,13 +1813,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45824.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1.685</v>
       </c>
       <c r="C29">
-        <v>39.638</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1290,13 +1830,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45824.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>17.821</v>
       </c>
       <c r="C30">
-        <v>53.003</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1307,13 +1847,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45824.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>12.274</v>
+        <v>9.792999999999999</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1324,13 +1864,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45824.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.51</v>
+        <v>5.797</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1341,13 +1881,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45824.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>24.449</v>
+        <v>14.648</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1358,13 +1898,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45824.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B34">
-        <v>7.503</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>6.841</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1375,13 +1915,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45824.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>12.809</v>
+        <v>14.771</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1392,13 +1932,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45824.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.066</v>
+        <v>0.644</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1409,13 +1949,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45824.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3.417</v>
       </c>
       <c r="C37">
-        <v>10.652</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1426,13 +1966,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45824.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1.906</v>
       </c>
       <c r="C38">
-        <v>16.787</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1443,13 +1983,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45824.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.791</v>
       </c>
       <c r="C39">
-        <v>24.085</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1460,13 +2000,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45824.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>27.662</v>
+        <v>6.215</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1477,13 +2017,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45824.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>5.701</v>
+        <v>5.446</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1494,13 +2034,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45824.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B42">
-        <v>1.503</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>5.951</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1511,10 +2051,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45824.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B43">
-        <v>8.901</v>
+        <v>2.566</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1528,10 +2068,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45824.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B44">
-        <v>0.862</v>
+        <v>6.931</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1545,13 +2085,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45824.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B45">
-        <v>13.507</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>6.482</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1562,13 +2102,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45824.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B46">
-        <v>2.168</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1.055</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1579,13 +2119,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45824.51041666666</v>
+        <v>45825.65625</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>17.14</v>
       </c>
       <c r="C47">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1596,13 +2136,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45824.52083333334</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>18.084</v>
+        <v>10.867</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1613,13 +2153,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45824.53125</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>29.715</v>
+        <v>0.677</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1630,13 +2170,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45824.54166666666</v>
+        <v>45825.71875</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>25.44</v>
+        <v>0.632</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1647,13 +2187,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45824.55208333334</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>31.448</v>
+        <v>3.267</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1664,13 +2204,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45824.5625</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.902</v>
       </c>
       <c r="C52">
-        <v>38.733</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1681,13 +2221,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45824.57291666666</v>
+        <v>45825.75</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="C53">
-        <v>11.428</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1698,10 +2238,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45824.58333333334</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B54">
-        <v>19.014</v>
+        <v>22.058</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1715,10 +2255,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45824.59375</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B55">
-        <v>37.499</v>
+        <v>6.862</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1732,13 +2272,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45824.60416666666</v>
+        <v>45825.78125</v>
       </c>
       <c r="B56">
-        <v>9.239000000000001</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.358</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1749,10 +2289,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45824.61458333334</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B57">
-        <v>4.74</v>
+        <v>14.148</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1766,10 +2306,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45824.625</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B58">
-        <v>1.428</v>
+        <v>8.755000000000001</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1783,13 +2323,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45824.63541666666</v>
+        <v>45825.8125</v>
       </c>
       <c r="B59">
-        <v>5.387</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>8.414999999999999</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1800,10 +2340,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45824.64583333334</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B60">
-        <v>12.649</v>
+        <v>10.419</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1817,10 +2357,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45824.65625</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B61">
-        <v>5.946</v>
+        <v>19.779</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1834,10 +2374,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45824.66666666666</v>
+        <v>45825.84375</v>
       </c>
       <c r="B62">
-        <v>11.718</v>
+        <v>4.725</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1851,13 +2391,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45824.67708333334</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>3.061</v>
       </c>
       <c r="C63">
-        <v>5.314</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1868,13 +2408,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45824.6875</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1.128</v>
       </c>
       <c r="C64">
-        <v>7.003</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1885,13 +2425,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45824.69791666666</v>
+        <v>45825.875</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>24.044</v>
       </c>
       <c r="C65">
-        <v>11.72</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1902,13 +2442,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45824.70833333334</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>15.198</v>
+        <v>12.326</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1919,13 +2459,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45824.71875</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>19.651</v>
+        <v>43.032</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1936,13 +2476,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45824.72916666666</v>
+        <v>45825.90625</v>
       </c>
       <c r="B68">
-        <v>12.777</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>36.932</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1953,13 +2493,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45824.73958333334</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B69">
-        <v>22.61</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>62.453</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1970,13 +2510,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45824.75</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B70">
-        <v>9.974</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>40.018</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1987,13 +2527,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45824.76041666666</v>
+        <v>45825.9375</v>
       </c>
       <c r="B71">
-        <v>47.515</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>52.584</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2004,13 +2544,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45824.77083333334</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B72">
-        <v>60.332</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>25.329</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2021,10 +2561,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45824.78125</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B73">
-        <v>50.094</v>
+        <v>4.059</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2038,13 +2578,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45824.79166666666</v>
+        <v>45825.96875</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>7.748</v>
       </c>
       <c r="C74">
-        <v>4.919</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2055,10 +2595,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45824.80208333334</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B75">
-        <v>0.105</v>
+        <v>4.642</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2072,13 +2612,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45824.8125</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>10.876</v>
       </c>
       <c r="C76">
-        <v>9.577</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2089,13 +2629,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45824.82291666666</v>
+        <v>45826</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>36.377</v>
       </c>
       <c r="C77">
-        <v>11.296</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2106,13 +2646,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45824.83333333334</v>
+        <v>45826.01041666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>9.172000000000001</v>
       </c>
       <c r="C78">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2123,13 +2663,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45824.84375</v>
+        <v>45826.02083333334</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>2.992</v>
+        <v>1.492</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2140,13 +2680,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45824.85416666666</v>
+        <v>45826.03125</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>8.948</v>
+        <v>2.879</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2157,13 +2697,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45824.86458333334</v>
+        <v>45826.04166666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>26.568</v>
       </c>
       <c r="C81">
-        <v>15.404</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2174,10 +2714,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45824.875</v>
+        <v>45826.05208333334</v>
       </c>
       <c r="B82">
-        <v>11.254</v>
+        <v>6.691</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2191,10 +2731,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45824.88541666666</v>
+        <v>45826.0625</v>
       </c>
       <c r="B83">
-        <v>15.719</v>
+        <v>24.634</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2208,13 +2748,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45824.89583333334</v>
+        <v>45826.07291666666</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>3.616</v>
+        <v>1.658</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2225,13 +2765,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45824.90625</v>
+        <v>45826.08333333334</v>
       </c>
       <c r="B85">
-        <v>1.192</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>20.323</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2242,10 +2782,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45824.91666666666</v>
+        <v>45826.09375</v>
       </c>
       <c r="B86">
-        <v>11.785</v>
+        <v>5.6</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2259,10 +2799,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45824.92708333334</v>
+        <v>45826.10416666666</v>
       </c>
       <c r="B87">
-        <v>17.553</v>
+        <v>16.113</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2276,10 +2816,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45824.9375</v>
+        <v>45826.11458333334</v>
       </c>
       <c r="B88">
-        <v>5.97</v>
+        <v>16.32</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2293,13 +2833,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45824.94791666666</v>
+        <v>45826.125</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>2.57</v>
+        <v>13.734</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2310,13 +2850,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45824.95833333334</v>
+        <v>45826.13541666666</v>
       </c>
       <c r="B90">
-        <v>3.826</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>9.821999999999999</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2327,10 +2867,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45824.96875</v>
+        <v>45826.14583333334</v>
       </c>
       <c r="B91">
-        <v>8.612</v>
+        <v>13.049</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2344,13 +2884,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45824.97916666666</v>
+        <v>45826.15625</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>1.517</v>
+        <v>0.376</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2361,13 +2901,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45824.98958333334</v>
+        <v>45826.16666666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>5.276</v>
+        <v>15.968</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2378,13 +2918,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45825</v>
+        <v>45826.17708333334</v>
       </c>
       <c r="B94">
-        <v>1.043</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>14.949</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2395,13 +2935,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45825.01041666666</v>
+        <v>45826.1875</v>
       </c>
       <c r="B95">
-        <v>8.292999999999999</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>2.215</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2412,13 +2952,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45825.02083333334</v>
+        <v>45826.19791666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>12.353</v>
       </c>
       <c r="C96">
-        <v>7.178</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2429,13 +2969,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45825.03125</v>
+        <v>45826.20833333334</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>8.445</v>
       </c>
       <c r="C97">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2446,10 +2986,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45825.04166666666</v>
+        <v>45826.21875</v>
       </c>
       <c r="B98">
-        <v>3.673</v>
+        <v>3.79</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2463,10 +3003,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45825.05208333334</v>
+        <v>45826.22916666666</v>
       </c>
       <c r="B99">
-        <v>2.391</v>
+        <v>10.206</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2480,10 +3020,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45825.0625</v>
+        <v>45826.23958333334</v>
       </c>
       <c r="B100">
-        <v>8.08</v>
+        <v>25.138</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2497,10 +3037,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45825.07291666666</v>
+        <v>45826.25</v>
       </c>
       <c r="B101">
-        <v>21.615</v>
+        <v>23.665</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2514,10 +3054,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45825.08333333334</v>
+        <v>45826.26041666666</v>
       </c>
       <c r="B102">
-        <v>23.491</v>
+        <v>22.162</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2531,10 +3071,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45825.09375</v>
+        <v>45826.27083333334</v>
       </c>
       <c r="B103">
-        <v>13.616</v>
+        <v>5.895</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2548,13 +3088,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45825.10416666666</v>
+        <v>45826.28125</v>
       </c>
       <c r="B104">
-        <v>18.459</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>13.925</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2565,13 +3105,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45825.11458333334</v>
+        <v>45826.29166666666</v>
       </c>
       <c r="B105">
-        <v>33.05</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>12.765</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2582,13 +3122,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45825.125</v>
+        <v>45826.30208333334</v>
       </c>
       <c r="B106">
-        <v>34.467</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>12.29</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2599,13 +3139,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45825.13541666666</v>
+        <v>45826.3125</v>
       </c>
       <c r="B107">
-        <v>21.765</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>9.448</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2616,13 +3156,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45825.14583333334</v>
+        <v>45826.32291666666</v>
       </c>
       <c r="B108">
-        <v>35.634</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>27.139</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2633,10 +3173,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45825.15625</v>
+        <v>45826.33333333334</v>
       </c>
       <c r="B109">
-        <v>9.643000000000001</v>
+        <v>3.137</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2650,13 +3190,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45825.16666666666</v>
+        <v>45826.34375</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>2.616</v>
       </c>
       <c r="C110">
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2667,13 +3207,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45825.17708333334</v>
+        <v>45826.35416666666</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>4.578</v>
       </c>
       <c r="C111">
-        <v>1.662</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2684,13 +3224,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45825.1875</v>
+        <v>45826.36458333334</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>19.478</v>
       </c>
       <c r="C112">
-        <v>5.111</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2701,13 +3241,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45825.19791666666</v>
+        <v>45826.375</v>
       </c>
       <c r="B113">
-        <v>9.568</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>17.094</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2718,13 +3258,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45825.20833333334</v>
+        <v>45826.38541666666</v>
       </c>
       <c r="B114">
-        <v>5.95</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>0.982</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2735,13 +3275,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45825.21875</v>
+        <v>45826.39583333334</v>
       </c>
       <c r="B115">
-        <v>2.601</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>2.917</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2752,10 +3292,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45825.22916666666</v>
+        <v>45826.40625</v>
       </c>
       <c r="B116">
-        <v>6.205</v>
+        <v>2.072</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2769,10 +3309,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45825.23958333334</v>
+        <v>45826.41666666666</v>
       </c>
       <c r="B117">
-        <v>9.451000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2786,13 +3326,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45825.25</v>
+        <v>45826.42708333334</v>
       </c>
       <c r="B118">
-        <v>21.021</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>14.631</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2803,13 +3343,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45825.26041666666</v>
+        <v>45826.4375</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>2.872</v>
       </c>
       <c r="C119">
-        <v>2.662</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2820,13 +3360,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45825.27083333334</v>
+        <v>45826.44791666666</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>8.555</v>
+        <v>0.338</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2837,13 +3377,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45825.28125</v>
+        <v>45826.45833333334</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>11.277</v>
+        <v>26.966</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -2854,13 +3394,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45825.29166666666</v>
+        <v>45826.46875</v>
       </c>
       <c r="B122">
-        <v>15.103</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>54.299</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -2871,13 +3411,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45825.30208333334</v>
+        <v>45826.47916666666</v>
       </c>
       <c r="B123">
-        <v>3.691</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>48.214</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -2888,13 +3428,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45825.3125</v>
+        <v>45826.48958333334</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>3.733</v>
+        <v>54.886</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -2905,13 +3445,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45825.32291666666</v>
+        <v>45826.5</v>
       </c>
       <c r="B125">
-        <v>1.685</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>37.753</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -2922,13 +3462,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45825.33333333334</v>
+        <v>45826.51041666666</v>
       </c>
       <c r="B126">
-        <v>17.821</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>13.374</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -2939,13 +3479,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45825.34375</v>
+        <v>45826.52083333334</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>9.792999999999999</v>
+        <v>12.415</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -2956,13 +3496,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45825.35416666666</v>
+        <v>45826.53125</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>5.797</v>
+        <v>8.702999999999999</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -2973,13 +3513,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45825.36458333334</v>
+        <v>45826.54166666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>5.727</v>
       </c>
       <c r="C129">
-        <v>14.648</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -2990,13 +3530,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45825.375</v>
+        <v>45826.55208333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>4.408</v>
       </c>
       <c r="C130">
-        <v>6.841</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3007,13 +3547,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45825.38541666666</v>
+        <v>45826.5625</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>12.321</v>
       </c>
       <c r="C131">
-        <v>14.771</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3024,13 +3564,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45825.39583333334</v>
+        <v>45826.57291666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>3.048</v>
       </c>
       <c r="C132">
-        <v>0.644</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3041,13 +3581,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45825.40625</v>
+        <v>45826.58333333334</v>
       </c>
       <c r="B133">
-        <v>3.417</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>14.607</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3058,19 +3598,3079 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45825.41666666666</v>
+        <v>45826.59375</v>
       </c>
       <c r="B134">
-        <v>1.906</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>5.822</v>
       </c>
       <c r="D134">
         <v>37</v>
       </c>
       <c r="E134" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45826.60416666666</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>19.423</v>
+      </c>
+      <c r="D135">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45826.61458333334</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>17.321</v>
+      </c>
+      <c r="D136">
+        <v>39</v>
+      </c>
+      <c r="E136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45826.625</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>31.179</v>
+      </c>
+      <c r="D137">
+        <v>40</v>
+      </c>
+      <c r="E137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45826.63541666666</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>48.534</v>
+      </c>
+      <c r="D138">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45826.64583333334</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>27.827</v>
+      </c>
+      <c r="D139">
+        <v>42</v>
+      </c>
+      <c r="E139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45826.65625</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>20.976</v>
+      </c>
+      <c r="D140">
+        <v>43</v>
+      </c>
+      <c r="E140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45826.66666666666</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>10.763</v>
+      </c>
+      <c r="D141">
+        <v>44</v>
+      </c>
+      <c r="E141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45826.67708333334</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>32.733</v>
+      </c>
+      <c r="D142">
+        <v>45</v>
+      </c>
+      <c r="E142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45826.6875</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>3.588</v>
+      </c>
+      <c r="D143">
+        <v>46</v>
+      </c>
+      <c r="E143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45826.69791666666</v>
+      </c>
+      <c r="B144">
+        <v>8.151</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>47</v>
+      </c>
+      <c r="E144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45826.70833333334</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>4.961</v>
+      </c>
+      <c r="D145">
+        <v>48</v>
+      </c>
+      <c r="E145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45826.71875</v>
+      </c>
+      <c r="B146">
+        <v>4.266</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>49</v>
+      </c>
+      <c r="E146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45826.72916666666</v>
+      </c>
+      <c r="B147">
+        <v>14.092</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45826.73958333334</v>
+      </c>
+      <c r="B148">
+        <v>1.952</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>51</v>
+      </c>
+      <c r="E148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45826.75</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>7.608</v>
+      </c>
+      <c r="D149">
+        <v>52</v>
+      </c>
+      <c r="E149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45826.76041666666</v>
+      </c>
+      <c r="B150">
+        <v>2.93</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>53</v>
+      </c>
+      <c r="E150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45826.77083333334</v>
+      </c>
+      <c r="B151">
+        <v>7.184</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>54</v>
+      </c>
+      <c r="E151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45826.78125</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>2.546</v>
+      </c>
+      <c r="D152">
+        <v>55</v>
+      </c>
+      <c r="E152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45826.79166666666</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>19.049</v>
+      </c>
+      <c r="D153">
+        <v>56</v>
+      </c>
+      <c r="E153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45826.80208333334</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>7.949</v>
+      </c>
+      <c r="D154">
+        <v>57</v>
+      </c>
+      <c r="E154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45826.8125</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0.233</v>
+      </c>
+      <c r="D155">
+        <v>58</v>
+      </c>
+      <c r="E155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45826.82291666666</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>2.871</v>
+      </c>
+      <c r="D156">
+        <v>59</v>
+      </c>
+      <c r="E156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45826.83333333334</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>14.031</v>
+      </c>
+      <c r="D157">
+        <v>60</v>
+      </c>
+      <c r="E157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45826.84375</v>
+      </c>
+      <c r="B158">
+        <v>1.266</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45826.85416666666</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0.262</v>
+      </c>
+      <c r="D159">
+        <v>62</v>
+      </c>
+      <c r="E159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45826.86458333334</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0.258</v>
+      </c>
+      <c r="D160">
+        <v>63</v>
+      </c>
+      <c r="E160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45826.875</v>
+      </c>
+      <c r="B161">
+        <v>54.105</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>64</v>
+      </c>
+      <c r="E161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45826.88541666666</v>
+      </c>
+      <c r="B162">
+        <v>1.218</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>65</v>
+      </c>
+      <c r="E162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45826.89583333334</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>18.733</v>
+      </c>
+      <c r="D163">
+        <v>66</v>
+      </c>
+      <c r="E163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45826.90625</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>43.855</v>
+      </c>
+      <c r="D164">
+        <v>67</v>
+      </c>
+      <c r="E164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45826.91666666666</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>7.74</v>
+      </c>
+      <c r="D165">
+        <v>68</v>
+      </c>
+      <c r="E165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45826.92708333334</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>27.428</v>
+      </c>
+      <c r="D166">
+        <v>69</v>
+      </c>
+      <c r="E166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45826.9375</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>6.784</v>
+      </c>
+      <c r="D167">
+        <v>70</v>
+      </c>
+      <c r="E167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45826.94791666666</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0.025</v>
+      </c>
+      <c r="D168">
+        <v>71</v>
+      </c>
+      <c r="E168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45826.95833333334</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>4.649</v>
+      </c>
+      <c r="D169">
+        <v>72</v>
+      </c>
+      <c r="E169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45826.96875</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>25.193</v>
+      </c>
+      <c r="D170">
+        <v>73</v>
+      </c>
+      <c r="E170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45826.97916666666</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>22.469</v>
+      </c>
+      <c r="D171">
+        <v>74</v>
+      </c>
+      <c r="E171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45826.98958333334</v>
+      </c>
+      <c r="B172">
+        <v>12.329</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>75</v>
+      </c>
+      <c r="E172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>3.226</v>
+      </c>
+      <c r="D173">
+        <v>76</v>
+      </c>
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45827.01041666666</v>
+      </c>
+      <c r="B174">
+        <v>2.382</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>77</v>
+      </c>
+      <c r="E174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45827.02083333334</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>3.396</v>
+      </c>
+      <c r="D175">
+        <v>78</v>
+      </c>
+      <c r="E175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45827.03125</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>4.108</v>
+      </c>
+      <c r="D176">
+        <v>79</v>
+      </c>
+      <c r="E176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45827.04166666666</v>
+      </c>
+      <c r="B177">
+        <v>5.544</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>80</v>
+      </c>
+      <c r="E177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45827.05208333334</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>21.225</v>
+      </c>
+      <c r="D178">
+        <v>81</v>
+      </c>
+      <c r="E178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45827.0625</v>
+      </c>
+      <c r="B179">
+        <v>4.921</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>82</v>
+      </c>
+      <c r="E179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45827.07291666666</v>
+      </c>
+      <c r="B180">
+        <v>3.408</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>83</v>
+      </c>
+      <c r="E180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45827.08333333334</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>6.773</v>
+      </c>
+      <c r="D181">
+        <v>84</v>
+      </c>
+      <c r="E181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45827.09375</v>
+      </c>
+      <c r="B182">
+        <v>7.746</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>85</v>
+      </c>
+      <c r="E182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45827.10416666666</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>4.522</v>
+      </c>
+      <c r="D183">
+        <v>86</v>
+      </c>
+      <c r="E183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45827.11458333334</v>
+      </c>
+      <c r="B184">
+        <v>14.632</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>87</v>
+      </c>
+      <c r="E184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45827.125</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>5.317</v>
+      </c>
+      <c r="D185">
+        <v>88</v>
+      </c>
+      <c r="E185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45827.13541666666</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>1.073</v>
+      </c>
+      <c r="D186">
+        <v>89</v>
+      </c>
+      <c r="E186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45827.14583333334</v>
+      </c>
+      <c r="B187">
+        <v>8.882</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>90</v>
+      </c>
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45827.15625</v>
+      </c>
+      <c r="B188">
+        <v>0.312</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>91</v>
+      </c>
+      <c r="E188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45827.16666666666</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>11.438</v>
+      </c>
+      <c r="D189">
+        <v>92</v>
+      </c>
+      <c r="E189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45827.17708333334</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>5.827</v>
+      </c>
+      <c r="D190">
+        <v>93</v>
+      </c>
+      <c r="E190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45827.1875</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>4.026</v>
+      </c>
+      <c r="D191">
+        <v>94</v>
+      </c>
+      <c r="E191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45827.19791666666</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>21.883</v>
+      </c>
+      <c r="D192">
+        <v>95</v>
+      </c>
+      <c r="E192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45827.20833333334</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>12.033</v>
+      </c>
+      <c r="D193">
+        <v>96</v>
+      </c>
+      <c r="E193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45827.21875</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>11.08</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45827.22916666666</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>21.002</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45827.23958333334</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>13.308</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45827.25</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>21.916</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45827.26041666666</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>6.103</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45827.27083333334</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>9.943</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45827.28125</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>19.023</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45827.29166666666</v>
+      </c>
+      <c r="B201">
+        <v>0.628</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45827.30208333334</v>
+      </c>
+      <c r="B202">
+        <v>12.597</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45827.3125</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0.54</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45827.32291666666</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>1.971</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45827.33333333334</v>
+      </c>
+      <c r="B205">
+        <v>8.321999999999999</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45827.34375</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>1.086</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45827.35416666666</v>
+      </c>
+      <c r="B207">
+        <v>7.511</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45827.36458333334</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>3.262</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45827.375</v>
+      </c>
+      <c r="B209">
+        <v>3.677</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45827.38541666666</v>
+      </c>
+      <c r="B210">
+        <v>20.216</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45827.39583333334</v>
+      </c>
+      <c r="B211">
+        <v>2.509</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45827.40625</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>3.84</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45827.41666666666</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>8.007</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45827.42708333334</v>
+      </c>
+      <c r="B214">
+        <v>5.714</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45827.4375</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>6.334</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45827.44791666666</v>
+      </c>
+      <c r="B216">
+        <v>1.718</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45827.45833333334</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>2.28</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45827.46875</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>10.019</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45827.47916666666</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>6.661</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45827.48958333334</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>4.015</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45827.5</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>11.036</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45827.51041666666</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>11.796</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45827.52083333334</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>22.96</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45827.53125</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>20.155</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45827.54166666666</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>32.162</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45827.55208333334</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>44.966</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45827.5625</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>42.715</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45827.57291666666</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>20.222</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45827.58333333334</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>31.803</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45827.59375</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>42.317</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45827.60416666666</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>36.074</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45827.61458333334</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>37.248</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45827.625</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>32.765</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45827.63541666666</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>33.755</v>
+      </c>
+      <c r="D234">
+        <v>41</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45827.64583333334</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>7.296</v>
+      </c>
+      <c r="D235">
+        <v>42</v>
+      </c>
+      <c r="E235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45827.65625</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>12.939</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45827.66666666666</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>5.391</v>
+      </c>
+      <c r="D237">
+        <v>44</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45827.67708333334</v>
+      </c>
+      <c r="B238">
+        <v>1.873</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45827.6875</v>
+      </c>
+      <c r="B239">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45827.69791666666</v>
+      </c>
+      <c r="B240">
+        <v>13.861</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45827.70833333334</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>25.355</v>
+      </c>
+      <c r="D241">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45827.71875</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>33.201</v>
+      </c>
+      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45827.72916666666</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>10.246</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45827.73958333334</v>
+      </c>
+      <c r="B244">
+        <v>14.84</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45827.75</v>
+      </c>
+      <c r="B245">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>52</v>
+      </c>
+      <c r="E245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45827.76041666666</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>7.259</v>
+      </c>
+      <c r="D246">
+        <v>53</v>
+      </c>
+      <c r="E246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45827.77083333334</v>
+      </c>
+      <c r="B247">
+        <v>4.29</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>54</v>
+      </c>
+      <c r="E247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45827.78125</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>3.656</v>
+      </c>
+      <c r="D248">
+        <v>55</v>
+      </c>
+      <c r="E248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45827.79166666666</v>
+      </c>
+      <c r="B249">
+        <v>7.802</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>56</v>
+      </c>
+      <c r="E249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45827.80208333334</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>0.435</v>
+      </c>
+      <c r="D250">
+        <v>57</v>
+      </c>
+      <c r="E250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45827.8125</v>
+      </c>
+      <c r="B251">
+        <v>1.942</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>58</v>
+      </c>
+      <c r="E251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45827.82291666666</v>
+      </c>
+      <c r="B252">
+        <v>7.686</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>59</v>
+      </c>
+      <c r="E252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45827.83333333334</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>7.712</v>
+      </c>
+      <c r="D253">
+        <v>60</v>
+      </c>
+      <c r="E253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45827.84375</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>3.025</v>
+      </c>
+      <c r="D254">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45827.85416666666</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>20.89</v>
+      </c>
+      <c r="D255">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45827.86458333334</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>21.706</v>
+      </c>
+      <c r="D256">
+        <v>63</v>
+      </c>
+      <c r="E256" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45827.875</v>
+      </c>
+      <c r="B257">
+        <v>12.128</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45827.88541666666</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>3.104</v>
+      </c>
+      <c r="D258">
+        <v>65</v>
+      </c>
+      <c r="E258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>45827.89583333334</v>
+      </c>
+      <c r="B259">
+        <v>4.964</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>66</v>
+      </c>
+      <c r="E259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>45827.90625</v>
+      </c>
+      <c r="B260">
+        <v>1.995</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>67</v>
+      </c>
+      <c r="E260" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>45827.91666666666</v>
+      </c>
+      <c r="B261">
+        <v>11.021</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>68</v>
+      </c>
+      <c r="E261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>45827.92708333334</v>
+      </c>
+      <c r="B262">
+        <v>11.839</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>69</v>
+      </c>
+      <c r="E262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>45827.9375</v>
+      </c>
+      <c r="B263">
+        <v>11.961</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>70</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>45827.94791666666</v>
+      </c>
+      <c r="B264">
+        <v>20.912</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>71</v>
+      </c>
+      <c r="E264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>45827.95833333334</v>
+      </c>
+      <c r="B265">
+        <v>9.497999999999999</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>72</v>
+      </c>
+      <c r="E265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>45827.96875</v>
+      </c>
+      <c r="B266">
+        <v>10.444</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>73</v>
+      </c>
+      <c r="E266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>45827.97916666666</v>
+      </c>
+      <c r="B267">
+        <v>7.333</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>74</v>
+      </c>
+      <c r="E267" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>45827.98958333334</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>9.115</v>
+      </c>
+      <c r="D268">
+        <v>75</v>
+      </c>
+      <c r="E268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B269">
+        <v>0.535</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>76</v>
+      </c>
+      <c r="E269" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>45828.01041666666</v>
+      </c>
+      <c r="B270">
+        <v>22.2</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>77</v>
+      </c>
+      <c r="E270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>45828.02083333334</v>
+      </c>
+      <c r="B271">
+        <v>20.587</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>78</v>
+      </c>
+      <c r="E271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>45828.03125</v>
+      </c>
+      <c r="B272">
+        <v>12.817</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>45828.04166666666</v>
+      </c>
+      <c r="B273">
+        <v>22</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>45828.05208333334</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>15.821</v>
+      </c>
+      <c r="D274">
+        <v>81</v>
+      </c>
+      <c r="E274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>45828.0625</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>26.327</v>
+      </c>
+      <c r="D275">
+        <v>82</v>
+      </c>
+      <c r="E275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>45828.07291666666</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>3.602</v>
+      </c>
+      <c r="D276">
+        <v>83</v>
+      </c>
+      <c r="E276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>45828.08333333334</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>20.125</v>
+      </c>
+      <c r="D277">
+        <v>84</v>
+      </c>
+      <c r="E277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>45828.09375</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>37.897</v>
+      </c>
+      <c r="D278">
+        <v>85</v>
+      </c>
+      <c r="E278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>45828.10416666666</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>83.831</v>
+      </c>
+      <c r="D279">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>45828.11458333334</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>56.989</v>
+      </c>
+      <c r="D280">
+        <v>87</v>
+      </c>
+      <c r="E280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>45828.125</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>0.417</v>
+      </c>
+      <c r="D281">
+        <v>88</v>
+      </c>
+      <c r="E281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>45828.13541666666</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>12.439</v>
+      </c>
+      <c r="D282">
+        <v>89</v>
+      </c>
+      <c r="E282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>45828.14583333334</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>20.847</v>
+      </c>
+      <c r="D283">
+        <v>90</v>
+      </c>
+      <c r="E283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45828.15625</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>10.376</v>
+      </c>
+      <c r="D284">
+        <v>91</v>
+      </c>
+      <c r="E284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>45828.16666666666</v>
+      </c>
+      <c r="B285">
+        <v>32.559</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>92</v>
+      </c>
+      <c r="E285" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>45828.17708333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>13.963</v>
+      </c>
+      <c r="D286">
+        <v>93</v>
+      </c>
+      <c r="E286" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>45828.1875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>37.905</v>
+      </c>
+      <c r="D287">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>45828.19791666666</v>
+      </c>
+      <c r="B288">
+        <v>11.196</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>95</v>
+      </c>
+      <c r="E288" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>45828.20833333334</v>
+      </c>
+      <c r="B289">
+        <v>40.093</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>96</v>
+      </c>
+      <c r="E289" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>45828.21875</v>
+      </c>
+      <c r="B290">
+        <v>8.488</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>45828.22916666666</v>
+      </c>
+      <c r="B291">
+        <v>1.907</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>45828.23958333334</v>
+      </c>
+      <c r="B292">
+        <v>8.851000000000001</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>45828.25</v>
+      </c>
+      <c r="B293">
+        <v>18.896</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+      <c r="E293" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>45828.26041666666</v>
+      </c>
+      <c r="B294">
+        <v>22.81</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>45828.27083333334</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>6.034</v>
+      </c>
+      <c r="D295">
+        <v>6</v>
+      </c>
+      <c r="E295" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>45828.28125</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>10.438</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>45828.29166666666</v>
+      </c>
+      <c r="B297">
+        <v>15.656</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>45828.30208333334</v>
+      </c>
+      <c r="B298">
+        <v>18.602</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>45828.3125</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>5.288</v>
+      </c>
+      <c r="D299">
+        <v>10</v>
+      </c>
+      <c r="E299" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>45828.32291666666</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>8.063000000000001</v>
+      </c>
+      <c r="D300">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>45828.33333333334</v>
+      </c>
+      <c r="B301">
+        <v>0.515</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>45828.34375</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>10.116</v>
+      </c>
+      <c r="D302">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>45828.35416666666</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>4.306</v>
+      </c>
+      <c r="D303">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>45828.36458333334</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>13.155</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>45828.375</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>46.978</v>
+      </c>
+      <c r="D305">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>45828.38541666666</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>64.861</v>
+      </c>
+      <c r="D306">
+        <v>17</v>
+      </c>
+      <c r="E306" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>45828.39583333334</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>27.887</v>
+      </c>
+      <c r="D307">
+        <v>18</v>
+      </c>
+      <c r="E307" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>45828.40625</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>5.41</v>
+      </c>
+      <c r="D308">
+        <v>19</v>
+      </c>
+      <c r="E308" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>45828.41666666666</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>9.013</v>
+      </c>
+      <c r="D309">
+        <v>20</v>
+      </c>
+      <c r="E309" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>45828.42708333334</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>21.363</v>
+      </c>
+      <c r="D310">
+        <v>21</v>
+      </c>
+      <c r="E310" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>45828.4375</v>
+      </c>
+      <c r="B311">
+        <v>7.497</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>22</v>
+      </c>
+      <c r="E311" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>45828.44791666666</v>
+      </c>
+      <c r="B312">
+        <v>3.038</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>23</v>
+      </c>
+      <c r="E312" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>45828.45833333334</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>10.963</v>
+      </c>
+      <c r="D313">
+        <v>24</v>
+      </c>
+      <c r="E313" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>45828.46875</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>6.011</v>
+      </c>
+      <c r="D314">
+        <v>25</v>
+      </c>
+      <c r="E314" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,400 +31,406 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.08.20251</t>
-  </si>
-  <si>
-    <t>20.08.20252</t>
-  </si>
-  <si>
-    <t>20.08.20253</t>
-  </si>
-  <si>
-    <t>20.08.20254</t>
-  </si>
-  <si>
-    <t>20.08.20255</t>
-  </si>
-  <si>
-    <t>20.08.20256</t>
-  </si>
-  <si>
-    <t>20.08.20257</t>
-  </si>
-  <si>
-    <t>20.08.20258</t>
-  </si>
-  <si>
-    <t>20.08.20259</t>
-  </si>
-  <si>
-    <t>20.08.202510</t>
-  </si>
-  <si>
-    <t>20.08.202511</t>
-  </si>
-  <si>
-    <t>20.08.202512</t>
-  </si>
-  <si>
-    <t>20.08.202513</t>
-  </si>
-  <si>
-    <t>20.08.202514</t>
-  </si>
-  <si>
-    <t>20.08.202515</t>
-  </si>
-  <si>
-    <t>20.08.202516</t>
-  </si>
-  <si>
-    <t>20.08.202517</t>
-  </si>
-  <si>
-    <t>20.08.202518</t>
-  </si>
-  <si>
-    <t>20.08.202519</t>
-  </si>
-  <si>
-    <t>20.08.202520</t>
-  </si>
-  <si>
-    <t>20.08.202521</t>
-  </si>
-  <si>
-    <t>20.08.202522</t>
-  </si>
-  <si>
-    <t>20.08.202523</t>
-  </si>
-  <si>
-    <t>20.08.202524</t>
-  </si>
-  <si>
-    <t>20.08.202525</t>
-  </si>
-  <si>
-    <t>20.08.202526</t>
-  </si>
-  <si>
-    <t>20.08.202527</t>
-  </si>
-  <si>
-    <t>20.08.202528</t>
-  </si>
-  <si>
-    <t>20.08.202529</t>
-  </si>
-  <si>
-    <t>20.08.202530</t>
-  </si>
-  <si>
-    <t>20.08.202531</t>
-  </si>
-  <si>
-    <t>20.08.202532</t>
-  </si>
-  <si>
-    <t>20.08.202533</t>
-  </si>
-  <si>
-    <t>20.08.202534</t>
-  </si>
-  <si>
-    <t>20.08.202535</t>
-  </si>
-  <si>
-    <t>20.08.202536</t>
-  </si>
-  <si>
-    <t>20.08.202537</t>
-  </si>
-  <si>
-    <t>20.08.202538</t>
-  </si>
-  <si>
-    <t>20.08.202539</t>
-  </si>
-  <si>
-    <t>20.08.202540</t>
-  </si>
-  <si>
-    <t>20.08.202541</t>
-  </si>
-  <si>
-    <t>20.08.202542</t>
-  </si>
-  <si>
-    <t>20.08.202543</t>
-  </si>
-  <si>
-    <t>20.08.202544</t>
-  </si>
-  <si>
-    <t>20.08.202545</t>
-  </si>
-  <si>
-    <t>20.08.202546</t>
-  </si>
-  <si>
-    <t>20.08.202547</t>
-  </si>
-  <si>
-    <t>20.08.202548</t>
-  </si>
-  <si>
-    <t>20.08.202549</t>
-  </si>
-  <si>
-    <t>20.08.202550</t>
-  </si>
-  <si>
-    <t>20.08.202551</t>
-  </si>
-  <si>
-    <t>20.08.202552</t>
-  </si>
-  <si>
-    <t>20.08.202553</t>
-  </si>
-  <si>
-    <t>20.08.202554</t>
-  </si>
-  <si>
-    <t>20.08.202555</t>
-  </si>
-  <si>
-    <t>20.08.202556</t>
-  </si>
-  <si>
-    <t>20.08.202557</t>
-  </si>
-  <si>
-    <t>20.08.202558</t>
-  </si>
-  <si>
-    <t>20.08.202559</t>
-  </si>
-  <si>
-    <t>20.08.202560</t>
-  </si>
-  <si>
-    <t>20.08.202561</t>
-  </si>
-  <si>
-    <t>20.08.202562</t>
-  </si>
-  <si>
-    <t>20.08.202563</t>
-  </si>
-  <si>
-    <t>20.08.202564</t>
-  </si>
-  <si>
-    <t>20.08.202565</t>
-  </si>
-  <si>
-    <t>20.08.202566</t>
-  </si>
-  <si>
-    <t>20.08.202567</t>
-  </si>
-  <si>
-    <t>20.08.202568</t>
-  </si>
-  <si>
-    <t>20.08.202569</t>
-  </si>
-  <si>
-    <t>20.08.202570</t>
-  </si>
-  <si>
-    <t>20.08.202571</t>
-  </si>
-  <si>
-    <t>20.08.202572</t>
-  </si>
-  <si>
-    <t>20.08.202573</t>
-  </si>
-  <si>
-    <t>20.08.202574</t>
-  </si>
-  <si>
-    <t>20.08.202575</t>
-  </si>
-  <si>
-    <t>20.08.202576</t>
-  </si>
-  <si>
-    <t>20.08.202577</t>
-  </si>
-  <si>
-    <t>20.08.202578</t>
-  </si>
-  <si>
-    <t>20.08.202579</t>
-  </si>
-  <si>
-    <t>20.08.202580</t>
-  </si>
-  <si>
-    <t>20.08.202581</t>
-  </si>
-  <si>
-    <t>20.08.202582</t>
-  </si>
-  <si>
-    <t>20.08.202583</t>
-  </si>
-  <si>
-    <t>20.08.202584</t>
-  </si>
-  <si>
-    <t>20.08.202585</t>
-  </si>
-  <si>
-    <t>20.08.202586</t>
-  </si>
-  <si>
-    <t>20.08.202587</t>
-  </si>
-  <si>
-    <t>20.08.202588</t>
-  </si>
-  <si>
-    <t>20.08.202589</t>
-  </si>
-  <si>
-    <t>20.08.202590</t>
-  </si>
-  <si>
-    <t>20.08.202591</t>
-  </si>
-  <si>
-    <t>20.08.202592</t>
-  </si>
-  <si>
-    <t>21.08.202593</t>
-  </si>
-  <si>
-    <t>21.08.202594</t>
-  </si>
-  <si>
-    <t>21.08.202595</t>
-  </si>
-  <si>
-    <t>21.08.202596</t>
-  </si>
-  <si>
-    <t>21.08.20251</t>
-  </si>
-  <si>
-    <t>21.08.20252</t>
-  </si>
-  <si>
-    <t>21.08.20253</t>
-  </si>
-  <si>
-    <t>21.08.20254</t>
-  </si>
-  <si>
-    <t>21.08.20255</t>
-  </si>
-  <si>
-    <t>21.08.20256</t>
-  </si>
-  <si>
-    <t>21.08.20257</t>
-  </si>
-  <si>
-    <t>21.08.20258</t>
-  </si>
-  <si>
-    <t>21.08.20259</t>
-  </si>
-  <si>
-    <t>21.08.202510</t>
-  </si>
-  <si>
-    <t>21.08.202511</t>
-  </si>
-  <si>
-    <t>21.08.202512</t>
-  </si>
-  <si>
-    <t>21.08.202513</t>
-  </si>
-  <si>
-    <t>21.08.202514</t>
-  </si>
-  <si>
-    <t>21.08.202515</t>
-  </si>
-  <si>
-    <t>21.08.202516</t>
-  </si>
-  <si>
-    <t>21.08.202517</t>
-  </si>
-  <si>
-    <t>21.08.202518</t>
-  </si>
-  <si>
-    <t>21.08.202519</t>
-  </si>
-  <si>
-    <t>21.08.202520</t>
-  </si>
-  <si>
-    <t>21.08.202521</t>
-  </si>
-  <si>
-    <t>21.08.202522</t>
-  </si>
-  <si>
-    <t>21.08.202523</t>
-  </si>
-  <si>
-    <t>21.08.202524</t>
-  </si>
-  <si>
-    <t>21.08.202525</t>
-  </si>
-  <si>
-    <t>21.08.202526</t>
-  </si>
-  <si>
-    <t>21.08.202527</t>
-  </si>
-  <si>
-    <t>21.08.202528</t>
-  </si>
-  <si>
-    <t>21.08.202529</t>
-  </si>
-  <si>
-    <t>21.08.202530</t>
-  </si>
-  <si>
-    <t>21.08.202531</t>
-  </si>
-  <si>
-    <t>21.08.202532</t>
-  </si>
-  <si>
-    <t>21.08.202533</t>
-  </si>
-  <si>
-    <t>21.08.202534</t>
-  </si>
-  <si>
-    <t>21.08.202535</t>
-  </si>
-  <si>
-    <t>21.08.202536</t>
+    <t>17.09.20251</t>
+  </si>
+  <si>
+    <t>17.09.20252</t>
+  </si>
+  <si>
+    <t>17.09.20253</t>
+  </si>
+  <si>
+    <t>17.09.20254</t>
+  </si>
+  <si>
+    <t>17.09.20255</t>
+  </si>
+  <si>
+    <t>17.09.20256</t>
+  </si>
+  <si>
+    <t>17.09.20257</t>
+  </si>
+  <si>
+    <t>17.09.20258</t>
+  </si>
+  <si>
+    <t>17.09.20259</t>
+  </si>
+  <si>
+    <t>17.09.202510</t>
+  </si>
+  <si>
+    <t>17.09.202511</t>
+  </si>
+  <si>
+    <t>17.09.202512</t>
+  </si>
+  <si>
+    <t>17.09.202513</t>
+  </si>
+  <si>
+    <t>17.09.202514</t>
+  </si>
+  <si>
+    <t>17.09.202515</t>
+  </si>
+  <si>
+    <t>17.09.202516</t>
+  </si>
+  <si>
+    <t>17.09.202517</t>
+  </si>
+  <si>
+    <t>17.09.202518</t>
+  </si>
+  <si>
+    <t>17.09.202519</t>
+  </si>
+  <si>
+    <t>17.09.202520</t>
+  </si>
+  <si>
+    <t>17.09.202521</t>
+  </si>
+  <si>
+    <t>17.09.202522</t>
+  </si>
+  <si>
+    <t>17.09.202523</t>
+  </si>
+  <si>
+    <t>17.09.202524</t>
+  </si>
+  <si>
+    <t>17.09.202525</t>
+  </si>
+  <si>
+    <t>17.09.202526</t>
+  </si>
+  <si>
+    <t>17.09.202527</t>
+  </si>
+  <si>
+    <t>17.09.202528</t>
+  </si>
+  <si>
+    <t>17.09.202529</t>
+  </si>
+  <si>
+    <t>17.09.202530</t>
+  </si>
+  <si>
+    <t>17.09.202531</t>
+  </si>
+  <si>
+    <t>17.09.202532</t>
+  </si>
+  <si>
+    <t>17.09.202533</t>
+  </si>
+  <si>
+    <t>17.09.202534</t>
+  </si>
+  <si>
+    <t>17.09.202535</t>
+  </si>
+  <si>
+    <t>17.09.202536</t>
+  </si>
+  <si>
+    <t>17.09.202537</t>
+  </si>
+  <si>
+    <t>17.09.202538</t>
+  </si>
+  <si>
+    <t>17.09.202539</t>
+  </si>
+  <si>
+    <t>17.09.202540</t>
+  </si>
+  <si>
+    <t>17.09.202541</t>
+  </si>
+  <si>
+    <t>17.09.202542</t>
+  </si>
+  <si>
+    <t>17.09.202543</t>
+  </si>
+  <si>
+    <t>17.09.202544</t>
+  </si>
+  <si>
+    <t>17.09.202545</t>
+  </si>
+  <si>
+    <t>17.09.202546</t>
+  </si>
+  <si>
+    <t>17.09.202547</t>
+  </si>
+  <si>
+    <t>17.09.202548</t>
+  </si>
+  <si>
+    <t>17.09.202549</t>
+  </si>
+  <si>
+    <t>17.09.202550</t>
+  </si>
+  <si>
+    <t>17.09.202551</t>
+  </si>
+  <si>
+    <t>17.09.202552</t>
+  </si>
+  <si>
+    <t>17.09.202553</t>
+  </si>
+  <si>
+    <t>17.09.202554</t>
+  </si>
+  <si>
+    <t>17.09.202555</t>
+  </si>
+  <si>
+    <t>17.09.202556</t>
+  </si>
+  <si>
+    <t>17.09.202557</t>
+  </si>
+  <si>
+    <t>17.09.202558</t>
+  </si>
+  <si>
+    <t>17.09.202559</t>
+  </si>
+  <si>
+    <t>17.09.202560</t>
+  </si>
+  <si>
+    <t>17.09.202561</t>
+  </si>
+  <si>
+    <t>17.09.202562</t>
+  </si>
+  <si>
+    <t>17.09.202563</t>
+  </si>
+  <si>
+    <t>17.09.202564</t>
+  </si>
+  <si>
+    <t>17.09.202565</t>
+  </si>
+  <si>
+    <t>17.09.202566</t>
+  </si>
+  <si>
+    <t>17.09.202567</t>
+  </si>
+  <si>
+    <t>17.09.202568</t>
+  </si>
+  <si>
+    <t>17.09.202569</t>
+  </si>
+  <si>
+    <t>17.09.202570</t>
+  </si>
+  <si>
+    <t>17.09.202571</t>
+  </si>
+  <si>
+    <t>17.09.202572</t>
+  </si>
+  <si>
+    <t>17.09.202573</t>
+  </si>
+  <si>
+    <t>17.09.202574</t>
+  </si>
+  <si>
+    <t>17.09.202575</t>
+  </si>
+  <si>
+    <t>17.09.202576</t>
+  </si>
+  <si>
+    <t>17.09.202577</t>
+  </si>
+  <si>
+    <t>17.09.202578</t>
+  </si>
+  <si>
+    <t>17.09.202579</t>
+  </si>
+  <si>
+    <t>17.09.202580</t>
+  </si>
+  <si>
+    <t>17.09.202581</t>
+  </si>
+  <si>
+    <t>17.09.202582</t>
+  </si>
+  <si>
+    <t>17.09.202583</t>
+  </si>
+  <si>
+    <t>17.09.202584</t>
+  </si>
+  <si>
+    <t>17.09.202585</t>
+  </si>
+  <si>
+    <t>17.09.202586</t>
+  </si>
+  <si>
+    <t>17.09.202587</t>
+  </si>
+  <si>
+    <t>17.09.202588</t>
+  </si>
+  <si>
+    <t>17.09.202589</t>
+  </si>
+  <si>
+    <t>17.09.202590</t>
+  </si>
+  <si>
+    <t>17.09.202591</t>
+  </si>
+  <si>
+    <t>17.09.202592</t>
+  </si>
+  <si>
+    <t>18.09.202593</t>
+  </si>
+  <si>
+    <t>18.09.202594</t>
+  </si>
+  <si>
+    <t>18.09.202595</t>
+  </si>
+  <si>
+    <t>18.09.202596</t>
+  </si>
+  <si>
+    <t>18.09.20251</t>
+  </si>
+  <si>
+    <t>18.09.20252</t>
+  </si>
+  <si>
+    <t>18.09.20253</t>
+  </si>
+  <si>
+    <t>18.09.20254</t>
+  </si>
+  <si>
+    <t>18.09.20255</t>
+  </si>
+  <si>
+    <t>18.09.20256</t>
+  </si>
+  <si>
+    <t>18.09.20257</t>
+  </si>
+  <si>
+    <t>18.09.20258</t>
+  </si>
+  <si>
+    <t>18.09.20259</t>
+  </si>
+  <si>
+    <t>18.09.202510</t>
+  </si>
+  <si>
+    <t>18.09.202511</t>
+  </si>
+  <si>
+    <t>18.09.202512</t>
+  </si>
+  <si>
+    <t>18.09.202513</t>
+  </si>
+  <si>
+    <t>18.09.202514</t>
+  </si>
+  <si>
+    <t>18.09.202515</t>
+  </si>
+  <si>
+    <t>18.09.202516</t>
+  </si>
+  <si>
+    <t>18.09.202517</t>
+  </si>
+  <si>
+    <t>18.09.202518</t>
+  </si>
+  <si>
+    <t>18.09.202519</t>
+  </si>
+  <si>
+    <t>18.09.202520</t>
+  </si>
+  <si>
+    <t>18.09.202521</t>
+  </si>
+  <si>
+    <t>18.09.202522</t>
+  </si>
+  <si>
+    <t>18.09.202523</t>
+  </si>
+  <si>
+    <t>18.09.202524</t>
+  </si>
+  <si>
+    <t>18.09.202525</t>
+  </si>
+  <si>
+    <t>18.09.202526</t>
+  </si>
+  <si>
+    <t>18.09.202527</t>
+  </si>
+  <si>
+    <t>18.09.202528</t>
+  </si>
+  <si>
+    <t>18.09.202529</t>
+  </si>
+  <si>
+    <t>18.09.202530</t>
+  </si>
+  <si>
+    <t>18.09.202531</t>
+  </si>
+  <si>
+    <t>18.09.202532</t>
+  </si>
+  <si>
+    <t>18.09.202533</t>
+  </si>
+  <si>
+    <t>18.09.202534</t>
+  </si>
+  <si>
+    <t>18.09.202535</t>
+  </si>
+  <si>
+    <t>18.09.202536</t>
+  </si>
+  <si>
+    <t>18.09.202537</t>
+  </si>
+  <si>
+    <t>18.09.202538</t>
   </si>
 </sst>
 </file>
@@ -786,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,13 +817,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45889.04166666666</v>
+        <v>45917.04166666666</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>49.717</v>
+        <v>16.201</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -828,13 +834,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45889.05208333334</v>
+        <v>45917.05208333334</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>61.774</v>
+        <v>9.157</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -845,13 +851,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45889.0625</v>
+        <v>45917.0625</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>73.589</v>
+        <v>5.422</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -862,13 +868,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45889.07291666666</v>
+        <v>45917.07291666666</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>55.088</v>
+        <v>0.242</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -879,13 +885,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45889.08333333334</v>
+        <v>45917.08333333334</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.486</v>
+        <v>18.496</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -896,13 +902,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45889.09375</v>
+        <v>45917.09375</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.023</v>
       </c>
       <c r="C7">
-        <v>12.499</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -913,13 +919,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45889.10416666666</v>
+        <v>45917.10416666666</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>13.027</v>
       </c>
       <c r="C8">
-        <v>11.994</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -930,13 +936,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45889.11458333334</v>
+        <v>45917.11458333334</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>8.141999999999999</v>
       </c>
       <c r="C9">
-        <v>13.829</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -947,10 +953,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45889.125</v>
+        <v>45917.125</v>
       </c>
       <c r="B10">
-        <v>2.039</v>
+        <v>5.948</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -964,10 +970,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45889.13541666666</v>
+        <v>45917.13541666666</v>
       </c>
       <c r="B11">
-        <v>5.678</v>
+        <v>2.622</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -981,10 +987,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45889.14583333334</v>
+        <v>45917.14583333334</v>
       </c>
       <c r="B12">
-        <v>13.943</v>
+        <v>5.048</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -998,10 +1004,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45889.15625</v>
+        <v>45917.15625</v>
       </c>
       <c r="B13">
-        <v>18.62</v>
+        <v>28.006</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1015,10 +1021,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45889.16666666666</v>
+        <v>45917.16666666666</v>
       </c>
       <c r="B14">
-        <v>15.207</v>
+        <v>8.198</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1032,13 +1038,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45889.17708333334</v>
+        <v>45917.17708333334</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>16.857</v>
       </c>
       <c r="C15">
-        <v>4.874</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1049,13 +1055,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45889.1875</v>
+        <v>45917.1875</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>10.706</v>
       </c>
       <c r="C16">
-        <v>3.204</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1066,13 +1072,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45889.19791666666</v>
+        <v>45917.19791666666</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.864</v>
       </c>
       <c r="C17">
-        <v>3.154</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1083,13 +1089,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45889.20833333334</v>
+        <v>45917.20833333334</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2.534</v>
       </c>
       <c r="C18">
-        <v>4.131</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1100,13 +1106,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45889.21875</v>
+        <v>45917.21875</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>8.988</v>
       </c>
       <c r="C19">
-        <v>2.539</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1117,13 +1123,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45889.22916666666</v>
+        <v>45917.22916666666</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>7.457</v>
       </c>
       <c r="C20">
-        <v>6.602</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1134,13 +1140,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45889.23958333334</v>
+        <v>45917.23958333334</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>7.323</v>
       </c>
       <c r="C21">
-        <v>10.388</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1151,13 +1157,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45889.25</v>
+        <v>45917.25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="C22">
-        <v>21.115</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1168,13 +1174,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45889.26041666666</v>
+        <v>45917.26041666666</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>17.734</v>
       </c>
       <c r="C23">
-        <v>24.625</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1185,13 +1191,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45889.27083333334</v>
+        <v>45917.27083333334</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2.661</v>
       </c>
       <c r="C24">
-        <v>23.114</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1202,13 +1208,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45889.28125</v>
+        <v>45917.28125</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>10.051</v>
       </c>
       <c r="C25">
-        <v>40.063</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1219,13 +1225,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45889.29166666666</v>
+        <v>45917.29166666666</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>22.571</v>
       </c>
       <c r="C26">
-        <v>12.445</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1236,13 +1242,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45889.30208333334</v>
+        <v>45917.30208333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>41.02</v>
       </c>
       <c r="C27">
-        <v>20.601</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1253,13 +1259,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45889.3125</v>
+        <v>45917.3125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>24.796</v>
       </c>
       <c r="C28">
-        <v>10.259</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1270,13 +1276,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45889.32291666666</v>
+        <v>45917.32291666666</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>29.649</v>
+        <v>3.261</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1287,13 +1293,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45889.33333333334</v>
+        <v>45917.33333333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="C30">
-        <v>11.809</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1304,13 +1310,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45889.34375</v>
+        <v>45917.34375</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>23.091</v>
       </c>
       <c r="C31">
-        <v>9.006</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1321,13 +1327,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45889.35416666666</v>
+        <v>45917.35416666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>14.633</v>
       </c>
       <c r="C32">
-        <v>7.415</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1338,13 +1344,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45889.36458333334</v>
+        <v>45917.36458333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>4.184</v>
       </c>
       <c r="C33">
-        <v>36.401</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1355,13 +1361,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45889.375</v>
+        <v>45917.375</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>24.358</v>
+        <v>9.768000000000001</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1372,13 +1378,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45889.38541666666</v>
+        <v>45917.38541666666</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>6.941</v>
+        <v>1.938</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1389,13 +1395,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45889.39583333334</v>
+        <v>45917.39583333334</v>
       </c>
       <c r="B36">
-        <v>1.239</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>7.104</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1406,13 +1412,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45889.40625</v>
+        <v>45917.40625</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>7.884</v>
+        <v>12.038</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1423,13 +1429,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45889.41666666666</v>
+        <v>45917.41666666666</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>18.16</v>
+        <v>3.262</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1440,13 +1446,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45889.42708333334</v>
+        <v>45917.42708333334</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>28.082</v>
+        <v>8.342000000000001</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1457,13 +1463,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45889.4375</v>
+        <v>45917.4375</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>3.516</v>
       </c>
       <c r="C40">
-        <v>11.799</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1474,10 +1480,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45889.44791666666</v>
+        <v>45917.44791666666</v>
       </c>
       <c r="B41">
-        <v>2.994</v>
+        <v>3.067</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1491,10 +1497,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45889.45833333334</v>
+        <v>45917.45833333334</v>
       </c>
       <c r="B42">
-        <v>0.996</v>
+        <v>24.97</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1508,10 +1514,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45889.46875</v>
+        <v>45917.46875</v>
       </c>
       <c r="B43">
-        <v>13.596</v>
+        <v>5.466</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1525,10 +1531,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45889.47916666666</v>
+        <v>45917.47916666666</v>
       </c>
       <c r="B44">
-        <v>30.408</v>
+        <v>0.77</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1542,13 +1548,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45889.48958333334</v>
+        <v>45917.48958333334</v>
       </c>
       <c r="B45">
-        <v>41.454</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>9.234</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1559,10 +1565,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45889.5</v>
+        <v>45917.5</v>
       </c>
       <c r="B46">
-        <v>56.07</v>
+        <v>4.943</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1576,13 +1582,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45889.51041666666</v>
+        <v>45917.51041666666</v>
       </c>
       <c r="B47">
-        <v>28.294</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>66.209</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1593,13 +1599,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45889.52083333334</v>
+        <v>45917.52083333334</v>
       </c>
       <c r="B48">
-        <v>3.364</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>28.481</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1610,13 +1616,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45889.53125</v>
+        <v>45917.53125</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>3.056</v>
+        <v>28.767</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1627,13 +1633,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45889.54166666666</v>
+        <v>45917.54166666666</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>39.895</v>
+        <v>21.878</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1644,13 +1650,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45889.55208333334</v>
+        <v>45917.55208333334</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>30.255</v>
+        <v>21.549</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1661,13 +1667,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45889.5625</v>
+        <v>45917.5625</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>9.727</v>
+        <v>55.442</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1678,13 +1684,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45889.57291666666</v>
+        <v>45917.57291666666</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>21.502</v>
+        <v>52.114</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1695,13 +1701,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45889.58333333334</v>
+        <v>45917.58333333334</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>2.416</v>
       </c>
       <c r="C54">
-        <v>9.567</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1712,13 +1718,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45889.59375</v>
+        <v>45917.59375</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.911</v>
       </c>
       <c r="C55">
-        <v>5.183</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1729,10 +1735,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45889.60416666666</v>
+        <v>45917.60416666666</v>
       </c>
       <c r="B56">
-        <v>4.03</v>
+        <v>10.987</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1746,13 +1752,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45889.61458333334</v>
+        <v>45917.61458333334</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.873</v>
+        <v>0.415</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1763,13 +1769,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45889.625</v>
+        <v>45917.625</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1.182</v>
+        <v>51.64</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1780,13 +1786,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45889.63541666666</v>
+        <v>45917.63541666666</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>5.994</v>
+        <v>30.924</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1797,13 +1803,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45889.64583333334</v>
+        <v>45917.64583333334</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>4.797</v>
+        <v>4.305</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1814,13 +1820,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45889.65625</v>
+        <v>45917.65625</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>4.188</v>
       </c>
       <c r="C61">
-        <v>2.055</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1831,13 +1837,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45889.66666666666</v>
+        <v>45917.66666666666</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>17.179</v>
+        <v>19.371</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1848,13 +1854,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45889.67708333334</v>
+        <v>45917.67708333334</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>21.215</v>
+        <v>12.639</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1865,13 +1871,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45889.6875</v>
+        <v>45917.6875</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>39.188</v>
+        <v>19.967</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1882,13 +1888,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45889.69791666666</v>
+        <v>45917.69791666666</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>26.667</v>
+        <v>20.564</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1899,13 +1905,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45889.70833333334</v>
+        <v>45917.70833333334</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>25.37</v>
+        <v>9.183</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1916,13 +1922,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45889.71875</v>
+        <v>45917.71875</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1.529</v>
       </c>
       <c r="C67">
-        <v>34.515</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1933,13 +1939,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45889.72916666666</v>
+        <v>45917.72916666666</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>39.659</v>
+        <v>15.215</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1950,13 +1956,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45889.73958333334</v>
+        <v>45917.73958333334</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>28.849</v>
+        <v>30.322</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1967,13 +1973,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45889.75</v>
+        <v>45917.75</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>9.800000000000001</v>
+        <v>13.383</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1984,13 +1990,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45889.76041666666</v>
+        <v>45917.76041666666</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>6.186</v>
+        <v>20.818</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2001,13 +2007,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45889.77083333334</v>
+        <v>45917.77083333334</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>3.308</v>
+        <v>30.109</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2018,13 +2024,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45889.78125</v>
+        <v>45917.78125</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0.979</v>
+        <v>5.728</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2035,10 +2041,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45889.79166666666</v>
+        <v>45917.79166666666</v>
       </c>
       <c r="B74">
-        <v>10.609</v>
+        <v>14.003</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2052,10 +2058,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45889.80208333334</v>
+        <v>45917.80208333334</v>
       </c>
       <c r="B75">
-        <v>0.857</v>
+        <v>16.67</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2069,13 +2075,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45889.8125</v>
+        <v>45917.8125</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>9.397</v>
       </c>
       <c r="C76">
-        <v>6.961</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2086,13 +2092,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45889.82291666666</v>
+        <v>45917.82291666666</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>23.502</v>
       </c>
       <c r="C77">
-        <v>22.214</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2103,13 +2109,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45889.83333333334</v>
+        <v>45917.83333333334</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>53.613</v>
       </c>
       <c r="C78">
-        <v>8.554</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2120,13 +2126,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45889.84375</v>
+        <v>45917.84375</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>23.352</v>
       </c>
       <c r="C79">
-        <v>14.153</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2137,13 +2143,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45889.85416666666</v>
+        <v>45917.85416666666</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>19.27</v>
+        <v>6.843</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2154,13 +2160,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45889.86458333334</v>
+        <v>45917.86458333334</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>24.901</v>
+        <v>1.048</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2171,13 +2177,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45889.875</v>
+        <v>45917.875</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>6.952</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2188,13 +2194,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45889.88541666666</v>
+        <v>45917.88541666666</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>15.802</v>
+        <v>16.524</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2205,13 +2211,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45889.89583333334</v>
+        <v>45917.89583333334</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>3.214</v>
+        <v>12.337</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2222,13 +2228,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45889.90625</v>
+        <v>45917.90625</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>4.019</v>
+        <v>20.224</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2239,13 +2245,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45889.91666666666</v>
+        <v>45917.91666666666</v>
       </c>
       <c r="B86">
-        <v>3.601</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>4.245</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2256,13 +2262,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45889.92708333334</v>
+        <v>45917.92708333334</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>3.245</v>
+        <v>4.371</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2273,13 +2279,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45889.9375</v>
+        <v>45917.9375</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>3.201</v>
+        <v>0.909</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2290,13 +2296,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45889.94791666666</v>
+        <v>45917.94791666666</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>9.608000000000001</v>
+        <v>1.164</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2307,13 +2313,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45889.95833333334</v>
+        <v>45917.95833333334</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>17.395</v>
       </c>
       <c r="C90">
-        <v>11.702</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2324,13 +2330,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45889.96875</v>
+        <v>45917.96875</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="C91">
-        <v>2.221</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2341,13 +2347,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45889.97916666666</v>
+        <v>45917.97916666666</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>4.867</v>
+        <v>4.895</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2358,13 +2364,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45889.98958333334</v>
+        <v>45917.98958333334</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>2.544</v>
+        <v>5.562</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2375,13 +2381,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B94">
-        <v>10.162</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>4.068</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2392,13 +2398,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B95">
-        <v>18.689</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>20.508</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2409,13 +2415,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B96">
-        <v>10.369</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>12.698</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2426,13 +2432,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B97">
-        <v>6.21</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>15.691</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2443,13 +2449,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>1.357</v>
+        <v>18.554</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2460,13 +2466,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B99">
-        <v>8.151999999999999</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>4.921</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2477,13 +2483,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B100">
-        <v>11.742</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>5.036</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2494,13 +2500,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B101">
-        <v>16.328</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>6.034</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2511,13 +2517,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B102">
-        <v>4.695</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>10.001</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2528,10 +2534,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B103">
-        <v>8.755000000000001</v>
+        <v>4.659</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2545,13 +2551,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B104">
-        <v>15.542</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1.491</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2562,10 +2568,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B105">
-        <v>10.004</v>
+        <v>1.387</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2579,13 +2585,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B106">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.224</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2596,13 +2602,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B107">
-        <v>6.779</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>5.399</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2613,10 +2619,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B108">
-        <v>8.157</v>
+        <v>4.209</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2630,13 +2636,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B109">
-        <v>3.271</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>6.711</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2647,13 +2653,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>1.94</v>
+        <v>9.347</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2664,13 +2670,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>4.705</v>
+        <v>7.267</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2681,13 +2687,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>11.956</v>
+        <v>2.538</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2698,13 +2704,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>3.567</v>
+        <v>4.577</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2715,13 +2721,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>5.933</v>
+        <v>31.461</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2732,13 +2738,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>2.232</v>
+        <v>14.68</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2749,13 +2755,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>2.489</v>
       </c>
       <c r="C116">
-        <v>0.457</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2766,13 +2772,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B117">
-        <v>7.947</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>3.721</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2783,13 +2789,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B118">
-        <v>9.361000000000001</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2800,10 +2806,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B119">
-        <v>5.425</v>
+        <v>5.858</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2817,13 +2823,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B120">
-        <v>2.464</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1.462</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2834,10 +2840,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B121">
-        <v>10.559</v>
+        <v>1.094</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2851,10 +2857,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B122">
-        <v>2.588</v>
+        <v>7.218</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2868,13 +2874,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B123">
-        <v>1.195</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>13.446</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -2885,13 +2891,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B124">
-        <v>11.682</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>10.867</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -2902,13 +2908,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>15.072</v>
+        <v>4.542</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -2919,13 +2925,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>1.303</v>
+        <v>1.289</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -2936,13 +2942,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B127">
-        <v>11.244</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>17.762</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -2953,13 +2959,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B128">
-        <v>17.16</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>28.454</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -2970,13 +2976,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B129">
-        <v>3.451</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>50.526</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -2987,13 +2993,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B130">
-        <v>33.049</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>30.959</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3004,13 +3010,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B131">
-        <v>37.947</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>25.903</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3021,13 +3027,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B132">
-        <v>40.796</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>6.328</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3038,19 +3044,53 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B133">
-        <v>16.256</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1.228</v>
       </c>
       <c r="D133">
         <v>36</v>
       </c>
       <c r="E133" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45918.41666666666</v>
+      </c>
+      <c r="B134">
+        <v>4.805</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45918.42708333334</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>7.977</v>
+      </c>
+      <c r="D135">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>17.09.20251</t>
-  </si>
-  <si>
-    <t>17.09.20252</t>
-  </si>
-  <si>
-    <t>17.09.20253</t>
-  </si>
-  <si>
-    <t>17.09.20254</t>
-  </si>
-  <si>
-    <t>17.09.20255</t>
-  </si>
-  <si>
-    <t>17.09.20256</t>
-  </si>
-  <si>
-    <t>17.09.20257</t>
-  </si>
-  <si>
-    <t>17.09.20258</t>
-  </si>
-  <si>
-    <t>17.09.20259</t>
-  </si>
-  <si>
-    <t>17.09.202510</t>
-  </si>
-  <si>
-    <t>17.09.202511</t>
-  </si>
-  <si>
-    <t>17.09.202512</t>
-  </si>
-  <si>
-    <t>17.09.202513</t>
-  </si>
-  <si>
-    <t>17.09.202514</t>
-  </si>
-  <si>
-    <t>17.09.202515</t>
-  </si>
-  <si>
-    <t>17.09.202516</t>
-  </si>
-  <si>
-    <t>17.09.202517</t>
-  </si>
-  <si>
-    <t>17.09.202518</t>
-  </si>
-  <si>
-    <t>17.09.202519</t>
-  </si>
-  <si>
-    <t>17.09.202520</t>
-  </si>
-  <si>
-    <t>17.09.202521</t>
-  </si>
-  <si>
-    <t>17.09.202522</t>
-  </si>
-  <si>
-    <t>17.09.202523</t>
-  </si>
-  <si>
-    <t>17.09.202524</t>
-  </si>
-  <si>
-    <t>17.09.202525</t>
-  </si>
-  <si>
-    <t>17.09.202526</t>
-  </si>
-  <si>
-    <t>17.09.202527</t>
-  </si>
-  <si>
-    <t>17.09.202528</t>
-  </si>
-  <si>
-    <t>17.09.202529</t>
-  </si>
-  <si>
-    <t>17.09.202530</t>
-  </si>
-  <si>
-    <t>17.09.202531</t>
-  </si>
-  <si>
-    <t>17.09.202532</t>
-  </si>
-  <si>
-    <t>17.09.202533</t>
-  </si>
-  <si>
-    <t>17.09.202534</t>
-  </si>
-  <si>
-    <t>17.09.202535</t>
-  </si>
-  <si>
-    <t>17.09.202536</t>
-  </si>
-  <si>
-    <t>17.09.202537</t>
-  </si>
-  <si>
-    <t>17.09.202538</t>
-  </si>
-  <si>
-    <t>17.09.202539</t>
-  </si>
-  <si>
-    <t>17.09.202540</t>
-  </si>
-  <si>
-    <t>17.09.202541</t>
-  </si>
-  <si>
-    <t>17.09.202542</t>
-  </si>
-  <si>
-    <t>17.09.202543</t>
-  </si>
-  <si>
-    <t>17.09.202544</t>
-  </si>
-  <si>
-    <t>17.09.202545</t>
-  </si>
-  <si>
-    <t>17.09.202546</t>
-  </si>
-  <si>
-    <t>17.09.202547</t>
-  </si>
-  <si>
-    <t>17.09.202548</t>
-  </si>
-  <si>
-    <t>17.09.202549</t>
-  </si>
-  <si>
-    <t>17.09.202550</t>
-  </si>
-  <si>
-    <t>17.09.202551</t>
-  </si>
-  <si>
-    <t>17.09.202552</t>
-  </si>
-  <si>
-    <t>17.09.202553</t>
-  </si>
-  <si>
-    <t>17.09.202554</t>
-  </si>
-  <si>
-    <t>17.09.202555</t>
-  </si>
-  <si>
-    <t>17.09.202556</t>
-  </si>
-  <si>
-    <t>17.09.202557</t>
-  </si>
-  <si>
-    <t>17.09.202558</t>
-  </si>
-  <si>
-    <t>17.09.202559</t>
-  </si>
-  <si>
-    <t>17.09.202560</t>
-  </si>
-  <si>
-    <t>17.09.202561</t>
-  </si>
-  <si>
-    <t>17.09.202562</t>
-  </si>
-  <si>
-    <t>17.09.202563</t>
-  </si>
-  <si>
-    <t>17.09.202564</t>
-  </si>
-  <si>
-    <t>17.09.202565</t>
-  </si>
-  <si>
-    <t>17.09.202566</t>
-  </si>
-  <si>
-    <t>17.09.202567</t>
-  </si>
-  <si>
-    <t>17.09.202568</t>
-  </si>
-  <si>
-    <t>17.09.202569</t>
-  </si>
-  <si>
-    <t>17.09.202570</t>
-  </si>
-  <si>
-    <t>17.09.202571</t>
-  </si>
-  <si>
-    <t>17.09.202572</t>
-  </si>
-  <si>
-    <t>17.09.202573</t>
-  </si>
-  <si>
-    <t>17.09.202574</t>
-  </si>
-  <si>
-    <t>17.09.202575</t>
-  </si>
-  <si>
-    <t>17.09.202576</t>
-  </si>
-  <si>
-    <t>17.09.202577</t>
-  </si>
-  <si>
-    <t>17.09.202578</t>
-  </si>
-  <si>
-    <t>17.09.202579</t>
-  </si>
-  <si>
-    <t>17.09.202580</t>
-  </si>
-  <si>
-    <t>17.09.202581</t>
-  </si>
-  <si>
-    <t>17.09.202582</t>
-  </si>
-  <si>
-    <t>17.09.202583</t>
-  </si>
-  <si>
-    <t>17.09.202584</t>
-  </si>
-  <si>
-    <t>17.09.202585</t>
-  </si>
-  <si>
-    <t>17.09.202586</t>
-  </si>
-  <si>
-    <t>17.09.202587</t>
-  </si>
-  <si>
-    <t>17.09.202588</t>
-  </si>
-  <si>
-    <t>17.09.202589</t>
-  </si>
-  <si>
-    <t>17.09.202590</t>
-  </si>
-  <si>
-    <t>17.09.202591</t>
-  </si>
-  <si>
-    <t>17.09.202592</t>
-  </si>
-  <si>
-    <t>18.09.202593</t>
-  </si>
-  <si>
-    <t>18.09.202594</t>
-  </si>
-  <si>
-    <t>18.09.202595</t>
-  </si>
-  <si>
-    <t>18.09.202596</t>
-  </si>
-  <si>
     <t>18.09.20251</t>
   </si>
   <si>
@@ -431,6 +143,288 @@
   </si>
   <si>
     <t>18.09.202538</t>
+  </si>
+  <si>
+    <t>18.09.202539</t>
+  </si>
+  <si>
+    <t>18.09.202540</t>
+  </si>
+  <si>
+    <t>18.09.202541</t>
+  </si>
+  <si>
+    <t>18.09.202542</t>
+  </si>
+  <si>
+    <t>18.09.202543</t>
+  </si>
+  <si>
+    <t>18.09.202544</t>
+  </si>
+  <si>
+    <t>18.09.202545</t>
+  </si>
+  <si>
+    <t>18.09.202546</t>
+  </si>
+  <si>
+    <t>18.09.202547</t>
+  </si>
+  <si>
+    <t>18.09.202548</t>
+  </si>
+  <si>
+    <t>18.09.202549</t>
+  </si>
+  <si>
+    <t>18.09.202550</t>
+  </si>
+  <si>
+    <t>18.09.202551</t>
+  </si>
+  <si>
+    <t>18.09.202552</t>
+  </si>
+  <si>
+    <t>18.09.202553</t>
+  </si>
+  <si>
+    <t>18.09.202554</t>
+  </si>
+  <si>
+    <t>18.09.202555</t>
+  </si>
+  <si>
+    <t>18.09.202556</t>
+  </si>
+  <si>
+    <t>18.09.202557</t>
+  </si>
+  <si>
+    <t>18.09.202558</t>
+  </si>
+  <si>
+    <t>18.09.202559</t>
+  </si>
+  <si>
+    <t>18.09.202560</t>
+  </si>
+  <si>
+    <t>18.09.202561</t>
+  </si>
+  <si>
+    <t>18.09.202562</t>
+  </si>
+  <si>
+    <t>18.09.202563</t>
+  </si>
+  <si>
+    <t>18.09.202564</t>
+  </si>
+  <si>
+    <t>18.09.202565</t>
+  </si>
+  <si>
+    <t>18.09.202566</t>
+  </si>
+  <si>
+    <t>18.09.202567</t>
+  </si>
+  <si>
+    <t>18.09.202568</t>
+  </si>
+  <si>
+    <t>18.09.202569</t>
+  </si>
+  <si>
+    <t>18.09.202570</t>
+  </si>
+  <si>
+    <t>18.09.202571</t>
+  </si>
+  <si>
+    <t>18.09.202572</t>
+  </si>
+  <si>
+    <t>18.09.202573</t>
+  </si>
+  <si>
+    <t>18.09.202574</t>
+  </si>
+  <si>
+    <t>18.09.202575</t>
+  </si>
+  <si>
+    <t>18.09.202576</t>
+  </si>
+  <si>
+    <t>18.09.202577</t>
+  </si>
+  <si>
+    <t>18.09.202578</t>
+  </si>
+  <si>
+    <t>18.09.202579</t>
+  </si>
+  <si>
+    <t>18.09.202580</t>
+  </si>
+  <si>
+    <t>18.09.202581</t>
+  </si>
+  <si>
+    <t>18.09.202582</t>
+  </si>
+  <si>
+    <t>18.09.202583</t>
+  </si>
+  <si>
+    <t>18.09.202584</t>
+  </si>
+  <si>
+    <t>18.09.202585</t>
+  </si>
+  <si>
+    <t>18.09.202586</t>
+  </si>
+  <si>
+    <t>18.09.202587</t>
+  </si>
+  <si>
+    <t>18.09.202588</t>
+  </si>
+  <si>
+    <t>18.09.202589</t>
+  </si>
+  <si>
+    <t>18.09.202590</t>
+  </si>
+  <si>
+    <t>18.09.202591</t>
+  </si>
+  <si>
+    <t>18.09.202592</t>
+  </si>
+  <si>
+    <t>19.09.202593</t>
+  </si>
+  <si>
+    <t>19.09.202594</t>
+  </si>
+  <si>
+    <t>19.09.202595</t>
+  </si>
+  <si>
+    <t>19.09.202596</t>
+  </si>
+  <si>
+    <t>19.09.20251</t>
+  </si>
+  <si>
+    <t>19.09.20252</t>
+  </si>
+  <si>
+    <t>19.09.20253</t>
+  </si>
+  <si>
+    <t>19.09.20254</t>
+  </si>
+  <si>
+    <t>19.09.20255</t>
+  </si>
+  <si>
+    <t>19.09.20256</t>
+  </si>
+  <si>
+    <t>19.09.20257</t>
+  </si>
+  <si>
+    <t>19.09.20258</t>
+  </si>
+  <si>
+    <t>19.09.20259</t>
+  </si>
+  <si>
+    <t>19.09.202510</t>
+  </si>
+  <si>
+    <t>19.09.202511</t>
+  </si>
+  <si>
+    <t>19.09.202512</t>
+  </si>
+  <si>
+    <t>19.09.202513</t>
+  </si>
+  <si>
+    <t>19.09.202514</t>
+  </si>
+  <si>
+    <t>19.09.202515</t>
+  </si>
+  <si>
+    <t>19.09.202516</t>
+  </si>
+  <si>
+    <t>19.09.202517</t>
+  </si>
+  <si>
+    <t>19.09.202518</t>
+  </si>
+  <si>
+    <t>19.09.202519</t>
+  </si>
+  <si>
+    <t>19.09.202520</t>
+  </si>
+  <si>
+    <t>19.09.202521</t>
+  </si>
+  <si>
+    <t>19.09.202522</t>
+  </si>
+  <si>
+    <t>19.09.202523</t>
+  </si>
+  <si>
+    <t>19.09.202524</t>
+  </si>
+  <si>
+    <t>19.09.202525</t>
+  </si>
+  <si>
+    <t>19.09.202526</t>
+  </si>
+  <si>
+    <t>19.09.202527</t>
+  </si>
+  <si>
+    <t>19.09.202528</t>
+  </si>
+  <si>
+    <t>19.09.202529</t>
+  </si>
+  <si>
+    <t>19.09.202530</t>
+  </si>
+  <si>
+    <t>19.09.202531</t>
+  </si>
+  <si>
+    <t>19.09.202532</t>
+  </si>
+  <si>
+    <t>19.09.202533</t>
+  </si>
+  <si>
+    <t>19.09.202534</t>
+  </si>
+  <si>
+    <t>19.09.202535</t>
+  </si>
+  <si>
+    <t>19.09.202536</t>
   </si>
 </sst>
 </file>
@@ -792,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,13 +811,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45917.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>16.201</v>
+        <v>18.554</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -834,13 +828,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45917.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.157</v>
+        <v>4.921</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -851,13 +845,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45917.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.422</v>
+        <v>5.036</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -868,13 +862,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45917.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.242</v>
+        <v>6.034</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -885,13 +879,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45917.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18.496</v>
+        <v>10.001</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -902,10 +896,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45917.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B7">
-        <v>2.023</v>
+        <v>4.659</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -919,13 +913,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45917.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B8">
-        <v>13.027</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.491</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -936,10 +930,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45917.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B9">
-        <v>8.141999999999999</v>
+        <v>1.387</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -953,13 +947,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45917.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B10">
-        <v>5.948</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.224</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -970,13 +964,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45917.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B11">
-        <v>2.622</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5.399</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -987,10 +981,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45917.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B12">
-        <v>5.048</v>
+        <v>4.209</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1004,13 +998,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45917.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B13">
-        <v>28.006</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>6.711</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1021,13 +1015,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45917.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B14">
-        <v>8.198</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>9.347</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1038,13 +1032,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45917.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B15">
-        <v>16.857</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>7.267</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1055,13 +1049,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45917.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B16">
-        <v>10.706</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.538</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1072,13 +1066,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45917.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B17">
-        <v>4.864</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4.577</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1089,13 +1083,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45917.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B18">
-        <v>2.534</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>31.461</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1106,13 +1100,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45917.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B19">
-        <v>8.988</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>14.68</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1123,10 +1117,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45917.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B20">
-        <v>7.457</v>
+        <v>2.489</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1140,13 +1134,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45917.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B21">
-        <v>7.323</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3.721</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1157,13 +1151,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45917.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B22">
-        <v>9.590999999999999</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1174,10 +1168,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45917.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B23">
-        <v>17.734</v>
+        <v>5.858</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1191,13 +1185,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45917.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B24">
-        <v>2.661</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.462</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1208,10 +1202,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45917.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B25">
-        <v>10.051</v>
+        <v>1.094</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1225,10 +1219,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45917.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B26">
-        <v>22.571</v>
+        <v>7.218</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1242,13 +1236,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45917.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B27">
-        <v>41.02</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>13.446</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1259,13 +1253,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45917.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B28">
-        <v>24.796</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>10.867</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1276,13 +1270,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45917.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3.261</v>
+        <v>4.542</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1293,13 +1287,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45917.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B30">
-        <v>8.994999999999999</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1.289</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1310,13 +1304,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45917.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B31">
-        <v>23.091</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>17.762</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1327,13 +1321,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45917.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B32">
-        <v>14.633</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>28.454</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1344,13 +1338,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45917.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B33">
-        <v>4.184</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>50.526</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1361,13 +1355,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45917.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>9.768000000000001</v>
+        <v>30.959</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1378,13 +1372,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45917.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1.938</v>
+        <v>25.903</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1395,13 +1389,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45917.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>7.104</v>
+        <v>6.328</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1412,13 +1406,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45917.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>12.038</v>
+        <v>1.228</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1429,13 +1423,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45917.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>4.805</v>
       </c>
       <c r="C38">
-        <v>3.262</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1446,13 +1440,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45917.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>8.342000000000001</v>
+        <v>7.977</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1463,13 +1457,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45917.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B40">
-        <v>3.516</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>31.211</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1480,13 +1474,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45917.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B41">
-        <v>3.067</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>26.44</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1497,13 +1491,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45917.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B42">
-        <v>24.97</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>23.797</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1514,10 +1508,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45917.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B43">
-        <v>5.466</v>
+        <v>4.825</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1531,10 +1525,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45917.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B44">
-        <v>0.77</v>
+        <v>17.302</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1548,13 +1542,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45917.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>6.654</v>
       </c>
       <c r="C45">
-        <v>9.234</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1565,13 +1559,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45917.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B46">
-        <v>4.943</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1582,13 +1576,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45917.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>66.209</v>
+        <v>0.455</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1599,13 +1593,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45917.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>28.481</v>
+        <v>6.583</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1616,13 +1610,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45917.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>16.638</v>
       </c>
       <c r="C49">
-        <v>28.767</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1633,13 +1627,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45917.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>21.878</v>
+        <v>10.993</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1650,13 +1644,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45917.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>21.549</v>
+        <v>21.307</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1667,13 +1661,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45917.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>55.442</v>
+        <v>6.036</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1684,13 +1678,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45917.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>52.114</v>
+        <v>3.725</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1701,13 +1695,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45917.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B54">
-        <v>2.416</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>23.727</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1718,13 +1712,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45917.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B55">
-        <v>0.911</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>24.216</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1735,13 +1729,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45917.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B56">
-        <v>10.987</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>23.167</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1752,13 +1746,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45917.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.415</v>
+        <v>23.193</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1769,13 +1763,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45917.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>51.64</v>
+        <v>31.541</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1786,13 +1780,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45917.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>30.924</v>
+        <v>19.271</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1803,13 +1797,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45917.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>4.305</v>
+        <v>30.954</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1820,10 +1814,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45917.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B61">
-        <v>4.188</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1837,13 +1831,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45917.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>19.371</v>
+        <v>49.567</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1854,13 +1848,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45917.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>12.639</v>
+        <v>35.977</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1871,13 +1865,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45917.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>19.967</v>
+        <v>16.705</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1888,13 +1882,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45917.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>4.058</v>
       </c>
       <c r="C65">
-        <v>20.564</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1905,13 +1899,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45917.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>9.183</v>
+        <v>12.237</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1922,13 +1916,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45917.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B67">
-        <v>1.529</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>15.807</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1939,13 +1933,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45917.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>15.215</v>
+        <v>9.435</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1956,13 +1950,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45917.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>30.322</v>
+        <v>10.184</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1973,13 +1967,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45917.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>13.383</v>
+        <v>22.428</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1990,13 +1984,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45917.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>20.818</v>
+        <v>35.887</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2007,13 +2001,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45917.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>30.109</v>
+        <v>11.089</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2024,13 +2018,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45917.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>5.728</v>
+        <v>12.672</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2041,13 +2035,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45917.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B74">
-        <v>14.003</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>15.218</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2058,13 +2052,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45917.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B75">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>35.167</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2075,13 +2069,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45917.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B76">
-        <v>9.397</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>36.277</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2092,13 +2086,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45917.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B77">
-        <v>23.502</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>38.109</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2109,13 +2103,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45917.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B78">
-        <v>53.613</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>16.743</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2126,13 +2120,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45917.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B79">
-        <v>23.352</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>12.136</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2143,13 +2137,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45917.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>6.843</v>
+        <v>5.305</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2160,13 +2154,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45917.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1.347</v>
       </c>
       <c r="C81">
-        <v>1.048</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2177,13 +2171,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45917.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>8.289999999999999</v>
+        <v>7.514</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2194,13 +2188,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45917.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>16.524</v>
+        <v>13.503</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2211,13 +2205,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45917.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>12.337</v>
+        <v>19.074</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2228,13 +2222,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45917.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>20.224</v>
+        <v>20.814</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2245,13 +2239,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45917.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>4.245</v>
+        <v>9.038</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2262,13 +2256,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45917.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>4.371</v>
+        <v>23.832</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2279,13 +2273,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45917.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0.909</v>
+        <v>17.021</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2296,13 +2290,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45917.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>1.164</v>
+        <v>8.535</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2313,13 +2307,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45917.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B90">
-        <v>17.395</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>6.635</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2330,13 +2324,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45917.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B91">
-        <v>8.351000000000001</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1.999</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2347,13 +2341,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45917.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>4.895</v>
+        <v>4.166</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2364,13 +2358,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45917.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.492</v>
       </c>
       <c r="C93">
-        <v>5.562</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2381,13 +2375,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>4.068</v>
+        <v>38.172</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2398,13 +2392,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>20.508</v>
+        <v>17.746</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2415,13 +2409,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>12.698</v>
+        <v>5.69</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2432,13 +2426,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>15.691</v>
+        <v>4.257</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2449,13 +2443,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>18.554</v>
+        <v>35.601</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2466,13 +2460,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>4.921</v>
+        <v>3.06</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2483,13 +2477,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>5.036</v>
+        <v>8.983000000000001</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2500,13 +2494,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="C101">
-        <v>6.034</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2517,13 +2511,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>10.001</v>
+        <v>4.128</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2534,10 +2528,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B103">
-        <v>4.659</v>
+        <v>0.157</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2551,13 +2545,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>1.491</v>
+        <v>3.729</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2568,10 +2562,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B105">
-        <v>1.387</v>
+        <v>1.202</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2585,13 +2579,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="C106">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2602,13 +2596,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1.932</v>
       </c>
       <c r="C107">
-        <v>5.399</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2619,13 +2613,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B108">
-        <v>4.209</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>2.538</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2636,13 +2630,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>0.323</v>
       </c>
       <c r="C109">
-        <v>6.711</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2653,13 +2647,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>9.347</v>
+        <v>2.746</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2670,13 +2664,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>3.078</v>
       </c>
       <c r="C111">
-        <v>7.267</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2687,13 +2681,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>2.538</v>
+        <v>7.317</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2704,13 +2698,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>4.577</v>
+        <v>10.8</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2721,13 +2715,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>31.461</v>
+        <v>2.364</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2738,13 +2732,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1.769</v>
       </c>
       <c r="C115">
-        <v>14.68</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2755,13 +2749,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B116">
-        <v>2.489</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>13.294</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2772,13 +2766,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>3.721</v>
+        <v>2.908</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2789,13 +2783,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>2.16</v>
+        <v>5.524</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2806,13 +2800,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B119">
-        <v>5.858</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>6.609</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2823,13 +2817,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>1.462</v>
+        <v>16.038</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2840,13 +2834,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B121">
-        <v>1.094</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>9.16</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -2857,10 +2851,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B122">
-        <v>7.218</v>
+        <v>15.045</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2874,13 +2868,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>22.905</v>
       </c>
       <c r="C123">
-        <v>13.446</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -2891,13 +2885,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>14.94</v>
       </c>
       <c r="C124">
-        <v>10.867</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -2908,13 +2902,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>14.582</v>
       </c>
       <c r="C125">
-        <v>4.542</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -2925,13 +2919,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>26.782</v>
       </c>
       <c r="C126">
-        <v>1.289</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -2942,13 +2936,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>51.163</v>
       </c>
       <c r="C127">
-        <v>17.762</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -2959,13 +2953,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>59.764</v>
       </c>
       <c r="C128">
-        <v>28.454</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -2976,13 +2970,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>30.655</v>
       </c>
       <c r="C129">
-        <v>50.526</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -2993,13 +2987,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>30.552</v>
       </c>
       <c r="C130">
-        <v>30.959</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3010,13 +3004,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="C131">
-        <v>25.903</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3027,13 +3021,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1.255</v>
       </c>
       <c r="C132">
-        <v>6.328</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3044,53 +3038,19 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>1.228</v>
+        <v>29.053</v>
       </c>
       <c r="D133">
         <v>36</v>
       </c>
       <c r="E133" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="2">
-        <v>45918.41666666666</v>
-      </c>
-      <c r="B134">
-        <v>4.805</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>37</v>
-      </c>
-      <c r="E134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="2">
-        <v>45918.42708333334</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>7.977</v>
-      </c>
-      <c r="D135">
-        <v>38</v>
-      </c>
-      <c r="E135" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,400 +31,364 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>18.09.20251</t>
-  </si>
-  <si>
-    <t>18.09.20252</t>
-  </si>
-  <si>
-    <t>18.09.20253</t>
-  </si>
-  <si>
-    <t>18.09.20254</t>
-  </si>
-  <si>
-    <t>18.09.20255</t>
-  </si>
-  <si>
-    <t>18.09.20256</t>
-  </si>
-  <si>
-    <t>18.09.20257</t>
-  </si>
-  <si>
-    <t>18.09.20258</t>
-  </si>
-  <si>
-    <t>18.09.20259</t>
-  </si>
-  <si>
-    <t>18.09.202510</t>
-  </si>
-  <si>
-    <t>18.09.202511</t>
-  </si>
-  <si>
-    <t>18.09.202512</t>
-  </si>
-  <si>
-    <t>18.09.202513</t>
-  </si>
-  <si>
-    <t>18.09.202514</t>
-  </si>
-  <si>
-    <t>18.09.202515</t>
-  </si>
-  <si>
-    <t>18.09.202516</t>
-  </si>
-  <si>
-    <t>18.09.202517</t>
-  </si>
-  <si>
-    <t>18.09.202518</t>
-  </si>
-  <si>
-    <t>18.09.202519</t>
-  </si>
-  <si>
-    <t>18.09.202520</t>
-  </si>
-  <si>
-    <t>18.09.202521</t>
-  </si>
-  <si>
-    <t>18.09.202522</t>
-  </si>
-  <si>
-    <t>18.09.202523</t>
-  </si>
-  <si>
-    <t>18.09.202524</t>
-  </si>
-  <si>
-    <t>18.09.202525</t>
-  </si>
-  <si>
-    <t>18.09.202526</t>
-  </si>
-  <si>
-    <t>18.09.202527</t>
-  </si>
-  <si>
-    <t>18.09.202528</t>
-  </si>
-  <si>
-    <t>18.09.202529</t>
-  </si>
-  <si>
-    <t>18.09.202530</t>
-  </si>
-  <si>
-    <t>18.09.202531</t>
-  </si>
-  <si>
-    <t>18.09.202532</t>
-  </si>
-  <si>
-    <t>18.09.202533</t>
-  </si>
-  <si>
-    <t>18.09.202534</t>
-  </si>
-  <si>
-    <t>18.09.202535</t>
-  </si>
-  <si>
-    <t>18.09.202536</t>
-  </si>
-  <si>
-    <t>18.09.202537</t>
-  </si>
-  <si>
-    <t>18.09.202538</t>
-  </si>
-  <si>
-    <t>18.09.202539</t>
-  </si>
-  <si>
-    <t>18.09.202540</t>
-  </si>
-  <si>
-    <t>18.09.202541</t>
-  </si>
-  <si>
-    <t>18.09.202542</t>
-  </si>
-  <si>
-    <t>18.09.202543</t>
-  </si>
-  <si>
-    <t>18.09.202544</t>
-  </si>
-  <si>
-    <t>18.09.202545</t>
-  </si>
-  <si>
-    <t>18.09.202546</t>
-  </si>
-  <si>
-    <t>18.09.202547</t>
-  </si>
-  <si>
-    <t>18.09.202548</t>
-  </si>
-  <si>
-    <t>18.09.202549</t>
-  </si>
-  <si>
-    <t>18.09.202550</t>
-  </si>
-  <si>
-    <t>18.09.202551</t>
-  </si>
-  <si>
-    <t>18.09.202552</t>
-  </si>
-  <si>
-    <t>18.09.202553</t>
-  </si>
-  <si>
-    <t>18.09.202554</t>
-  </si>
-  <si>
-    <t>18.09.202555</t>
-  </si>
-  <si>
-    <t>18.09.202556</t>
-  </si>
-  <si>
-    <t>18.09.202557</t>
-  </si>
-  <si>
-    <t>18.09.202558</t>
-  </si>
-  <si>
-    <t>18.09.202559</t>
-  </si>
-  <si>
-    <t>18.09.202560</t>
-  </si>
-  <si>
-    <t>18.09.202561</t>
-  </si>
-  <si>
-    <t>18.09.202562</t>
-  </si>
-  <si>
-    <t>18.09.202563</t>
-  </si>
-  <si>
-    <t>18.09.202564</t>
-  </si>
-  <si>
-    <t>18.09.202565</t>
-  </si>
-  <si>
-    <t>18.09.202566</t>
-  </si>
-  <si>
-    <t>18.09.202567</t>
-  </si>
-  <si>
-    <t>18.09.202568</t>
-  </si>
-  <si>
-    <t>18.09.202569</t>
-  </si>
-  <si>
-    <t>18.09.202570</t>
-  </si>
-  <si>
-    <t>18.09.202571</t>
-  </si>
-  <si>
-    <t>18.09.202572</t>
-  </si>
-  <si>
-    <t>18.09.202573</t>
-  </si>
-  <si>
-    <t>18.09.202574</t>
-  </si>
-  <si>
-    <t>18.09.202575</t>
-  </si>
-  <si>
-    <t>18.09.202576</t>
-  </si>
-  <si>
-    <t>18.09.202577</t>
-  </si>
-  <si>
-    <t>18.09.202578</t>
-  </si>
-  <si>
-    <t>18.09.202579</t>
-  </si>
-  <si>
-    <t>18.09.202580</t>
-  </si>
-  <si>
-    <t>18.09.202581</t>
-  </si>
-  <si>
-    <t>18.09.202582</t>
-  </si>
-  <si>
-    <t>18.09.202583</t>
-  </si>
-  <si>
-    <t>18.09.202584</t>
-  </si>
-  <si>
-    <t>18.09.202585</t>
-  </si>
-  <si>
-    <t>18.09.202586</t>
-  </si>
-  <si>
-    <t>18.09.202587</t>
-  </si>
-  <si>
-    <t>18.09.202588</t>
-  </si>
-  <si>
-    <t>18.09.202589</t>
-  </si>
-  <si>
-    <t>18.09.202590</t>
-  </si>
-  <si>
-    <t>18.09.202591</t>
-  </si>
-  <si>
-    <t>18.09.202592</t>
-  </si>
-  <si>
-    <t>19.09.202593</t>
-  </si>
-  <si>
-    <t>19.09.202594</t>
-  </si>
-  <si>
-    <t>19.09.202595</t>
-  </si>
-  <si>
-    <t>19.09.202596</t>
-  </si>
-  <si>
-    <t>19.09.20251</t>
-  </si>
-  <si>
-    <t>19.09.20252</t>
-  </si>
-  <si>
-    <t>19.09.20253</t>
-  </si>
-  <si>
-    <t>19.09.20254</t>
-  </si>
-  <si>
-    <t>19.09.20255</t>
-  </si>
-  <si>
-    <t>19.09.20256</t>
-  </si>
-  <si>
-    <t>19.09.20257</t>
-  </si>
-  <si>
-    <t>19.09.20258</t>
-  </si>
-  <si>
-    <t>19.09.20259</t>
-  </si>
-  <si>
-    <t>19.09.202510</t>
-  </si>
-  <si>
-    <t>19.09.202511</t>
-  </si>
-  <si>
-    <t>19.09.202512</t>
-  </si>
-  <si>
-    <t>19.09.202513</t>
-  </si>
-  <si>
-    <t>19.09.202514</t>
-  </si>
-  <si>
-    <t>19.09.202515</t>
-  </si>
-  <si>
-    <t>19.09.202516</t>
-  </si>
-  <si>
-    <t>19.09.202517</t>
-  </si>
-  <si>
-    <t>19.09.202518</t>
-  </si>
-  <si>
-    <t>19.09.202519</t>
-  </si>
-  <si>
-    <t>19.09.202520</t>
-  </si>
-  <si>
-    <t>19.09.202521</t>
-  </si>
-  <si>
-    <t>19.09.202522</t>
-  </si>
-  <si>
-    <t>19.09.202523</t>
-  </si>
-  <si>
-    <t>19.09.202524</t>
-  </si>
-  <si>
-    <t>19.09.202525</t>
-  </si>
-  <si>
-    <t>19.09.202526</t>
-  </si>
-  <si>
-    <t>19.09.202527</t>
-  </si>
-  <si>
-    <t>19.09.202528</t>
-  </si>
-  <si>
-    <t>19.09.202529</t>
-  </si>
-  <si>
-    <t>19.09.202530</t>
-  </si>
-  <si>
-    <t>19.09.202531</t>
-  </si>
-  <si>
-    <t>19.09.202532</t>
-  </si>
-  <si>
-    <t>19.09.202533</t>
-  </si>
-  <si>
-    <t>19.09.202534</t>
-  </si>
-  <si>
-    <t>19.09.202535</t>
-  </si>
-  <si>
-    <t>19.09.202536</t>
+    <t>22.09.20251</t>
+  </si>
+  <si>
+    <t>22.09.20252</t>
+  </si>
+  <si>
+    <t>22.09.20253</t>
+  </si>
+  <si>
+    <t>22.09.20254</t>
+  </si>
+  <si>
+    <t>22.09.20255</t>
+  </si>
+  <si>
+    <t>22.09.20256</t>
+  </si>
+  <si>
+    <t>22.09.20257</t>
+  </si>
+  <si>
+    <t>22.09.20258</t>
+  </si>
+  <si>
+    <t>22.09.20259</t>
+  </si>
+  <si>
+    <t>22.09.202510</t>
+  </si>
+  <si>
+    <t>22.09.202511</t>
+  </si>
+  <si>
+    <t>22.09.202512</t>
+  </si>
+  <si>
+    <t>22.09.202513</t>
+  </si>
+  <si>
+    <t>22.09.202514</t>
+  </si>
+  <si>
+    <t>22.09.202515</t>
+  </si>
+  <si>
+    <t>22.09.202516</t>
+  </si>
+  <si>
+    <t>22.09.202517</t>
+  </si>
+  <si>
+    <t>22.09.202518</t>
+  </si>
+  <si>
+    <t>22.09.202519</t>
+  </si>
+  <si>
+    <t>22.09.202520</t>
+  </si>
+  <si>
+    <t>22.09.202521</t>
+  </si>
+  <si>
+    <t>22.09.202522</t>
+  </si>
+  <si>
+    <t>22.09.202523</t>
+  </si>
+  <si>
+    <t>22.09.202524</t>
+  </si>
+  <si>
+    <t>22.09.202525</t>
+  </si>
+  <si>
+    <t>22.09.202526</t>
+  </si>
+  <si>
+    <t>22.09.202527</t>
+  </si>
+  <si>
+    <t>22.09.202528</t>
+  </si>
+  <si>
+    <t>22.09.202529</t>
+  </si>
+  <si>
+    <t>22.09.202530</t>
+  </si>
+  <si>
+    <t>22.09.202531</t>
+  </si>
+  <si>
+    <t>22.09.202532</t>
+  </si>
+  <si>
+    <t>22.09.202533</t>
+  </si>
+  <si>
+    <t>22.09.202534</t>
+  </si>
+  <si>
+    <t>22.09.202535</t>
+  </si>
+  <si>
+    <t>22.09.202536</t>
+  </si>
+  <si>
+    <t>22.09.202537</t>
+  </si>
+  <si>
+    <t>22.09.202538</t>
+  </si>
+  <si>
+    <t>22.09.202539</t>
+  </si>
+  <si>
+    <t>22.09.202540</t>
+  </si>
+  <si>
+    <t>22.09.202541</t>
+  </si>
+  <si>
+    <t>22.09.202542</t>
+  </si>
+  <si>
+    <t>22.09.202543</t>
+  </si>
+  <si>
+    <t>22.09.202544</t>
+  </si>
+  <si>
+    <t>22.09.202545</t>
+  </si>
+  <si>
+    <t>22.09.202546</t>
+  </si>
+  <si>
+    <t>22.09.202547</t>
+  </si>
+  <si>
+    <t>22.09.202548</t>
+  </si>
+  <si>
+    <t>22.09.202549</t>
+  </si>
+  <si>
+    <t>22.09.202550</t>
+  </si>
+  <si>
+    <t>22.09.202551</t>
+  </si>
+  <si>
+    <t>22.09.202552</t>
+  </si>
+  <si>
+    <t>22.09.202553</t>
+  </si>
+  <si>
+    <t>22.09.202554</t>
+  </si>
+  <si>
+    <t>22.09.202555</t>
+  </si>
+  <si>
+    <t>22.09.202556</t>
+  </si>
+  <si>
+    <t>22.09.202557</t>
+  </si>
+  <si>
+    <t>22.09.202558</t>
+  </si>
+  <si>
+    <t>22.09.202559</t>
+  </si>
+  <si>
+    <t>22.09.202560</t>
+  </si>
+  <si>
+    <t>22.09.202561</t>
+  </si>
+  <si>
+    <t>22.09.202562</t>
+  </si>
+  <si>
+    <t>22.09.202563</t>
+  </si>
+  <si>
+    <t>22.09.202564</t>
+  </si>
+  <si>
+    <t>22.09.202565</t>
+  </si>
+  <si>
+    <t>22.09.202566</t>
+  </si>
+  <si>
+    <t>22.09.202567</t>
+  </si>
+  <si>
+    <t>22.09.202568</t>
+  </si>
+  <si>
+    <t>22.09.202569</t>
+  </si>
+  <si>
+    <t>22.09.202570</t>
+  </si>
+  <si>
+    <t>22.09.202571</t>
+  </si>
+  <si>
+    <t>22.09.202572</t>
+  </si>
+  <si>
+    <t>22.09.202573</t>
+  </si>
+  <si>
+    <t>22.09.202574</t>
+  </si>
+  <si>
+    <t>22.09.202575</t>
+  </si>
+  <si>
+    <t>22.09.202576</t>
+  </si>
+  <si>
+    <t>22.09.202577</t>
+  </si>
+  <si>
+    <t>22.09.202578</t>
+  </si>
+  <si>
+    <t>22.09.202579</t>
+  </si>
+  <si>
+    <t>22.09.202580</t>
+  </si>
+  <si>
+    <t>22.09.202581</t>
+  </si>
+  <si>
+    <t>22.09.202582</t>
+  </si>
+  <si>
+    <t>22.09.202583</t>
+  </si>
+  <si>
+    <t>22.09.202584</t>
+  </si>
+  <si>
+    <t>22.09.202585</t>
+  </si>
+  <si>
+    <t>22.09.202586</t>
+  </si>
+  <si>
+    <t>22.09.202587</t>
+  </si>
+  <si>
+    <t>22.09.202588</t>
+  </si>
+  <si>
+    <t>22.09.202589</t>
+  </si>
+  <si>
+    <t>22.09.202590</t>
+  </si>
+  <si>
+    <t>22.09.202591</t>
+  </si>
+  <si>
+    <t>22.09.202592</t>
+  </si>
+  <si>
+    <t>23.09.202593</t>
+  </si>
+  <si>
+    <t>23.09.202594</t>
+  </si>
+  <si>
+    <t>23.09.202595</t>
+  </si>
+  <si>
+    <t>23.09.202596</t>
+  </si>
+  <si>
+    <t>23.09.20251</t>
+  </si>
+  <si>
+    <t>23.09.20252</t>
+  </si>
+  <si>
+    <t>23.09.20253</t>
+  </si>
+  <si>
+    <t>23.09.20254</t>
+  </si>
+  <si>
+    <t>23.09.20255</t>
+  </si>
+  <si>
+    <t>23.09.20256</t>
+  </si>
+  <si>
+    <t>23.09.20257</t>
+  </si>
+  <si>
+    <t>23.09.20258</t>
+  </si>
+  <si>
+    <t>23.09.20259</t>
+  </si>
+  <si>
+    <t>23.09.202510</t>
+  </si>
+  <si>
+    <t>23.09.202511</t>
+  </si>
+  <si>
+    <t>23.09.202512</t>
+  </si>
+  <si>
+    <t>23.09.202513</t>
+  </si>
+  <si>
+    <t>23.09.202514</t>
+  </si>
+  <si>
+    <t>23.09.202515</t>
+  </si>
+  <si>
+    <t>23.09.202516</t>
+  </si>
+  <si>
+    <t>23.09.202517</t>
+  </si>
+  <si>
+    <t>23.09.202518</t>
+  </si>
+  <si>
+    <t>23.09.202519</t>
+  </si>
+  <si>
+    <t>23.09.202520</t>
+  </si>
+  <si>
+    <t>23.09.202521</t>
+  </si>
+  <si>
+    <t>23.09.202522</t>
+  </si>
+  <si>
+    <t>23.09.202523</t>
+  </si>
+  <si>
+    <t>23.09.202524</t>
   </si>
 </sst>
 </file>
@@ -786,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,13 +775,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45918.04166666666</v>
+        <v>45922.04166666666</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>18.554</v>
+        <v>17.538</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -828,13 +792,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45918.05208333334</v>
+        <v>45922.05208333334</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.921</v>
+        <v>12.35</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -845,13 +809,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45918.0625</v>
+        <v>45922.0625</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.036</v>
+        <v>5.735</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -862,13 +826,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45918.07291666666</v>
+        <v>45922.07291666666</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.034</v>
+        <v>1.65</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -879,13 +843,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45918.08333333334</v>
+        <v>45922.08333333334</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.001</v>
+        <v>4.406</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -896,13 +860,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45918.09375</v>
+        <v>45922.09375</v>
       </c>
       <c r="B7">
-        <v>4.659</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.253</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -913,13 +877,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45918.10416666666</v>
+        <v>45922.10416666666</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.491</v>
+        <v>4.265</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -930,13 +894,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45918.11458333334</v>
+        <v>45922.11458333334</v>
       </c>
       <c r="B9">
-        <v>1.387</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5.478</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -947,13 +911,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45918.125</v>
+        <v>45922.125</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.224</v>
+        <v>3.689</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -964,13 +928,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45918.13541666666</v>
+        <v>45922.13541666666</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.399</v>
+        <v>3.064</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -981,10 +945,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45918.14583333334</v>
+        <v>45922.14583333334</v>
       </c>
       <c r="B12">
-        <v>4.209</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -998,13 +962,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45918.15625</v>
+        <v>45922.15625</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.976</v>
       </c>
       <c r="C13">
-        <v>6.711</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1015,13 +979,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45918.16666666666</v>
+        <v>45922.16666666666</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.347</v>
+        <v>0.355</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1032,13 +996,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45918.17708333334</v>
+        <v>45922.17708333334</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.267</v>
+        <v>6.304</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1049,13 +1013,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45918.1875</v>
+        <v>45922.1875</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>8.848000000000001</v>
       </c>
       <c r="C16">
-        <v>2.538</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1066,13 +1030,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45918.19791666666</v>
+        <v>45922.19791666666</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5.742</v>
       </c>
       <c r="C17">
-        <v>4.577</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1083,13 +1047,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45918.20833333334</v>
+        <v>45922.20833333334</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>6.722</v>
       </c>
       <c r="C18">
-        <v>31.461</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1100,13 +1064,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45918.21875</v>
+        <v>45922.21875</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>7.151</v>
       </c>
       <c r="C19">
-        <v>14.68</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1117,10 +1081,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45918.22916666666</v>
+        <v>45922.22916666666</v>
       </c>
       <c r="B20">
-        <v>2.489</v>
+        <v>24.614</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1134,13 +1098,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45918.23958333334</v>
+        <v>45922.23958333334</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>56.298</v>
       </c>
       <c r="C21">
-        <v>3.721</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1151,13 +1115,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45918.25</v>
+        <v>45922.25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>35.219</v>
       </c>
       <c r="C22">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1168,10 +1132,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45918.26041666666</v>
+        <v>45922.26041666666</v>
       </c>
       <c r="B23">
-        <v>5.858</v>
+        <v>2.877</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1185,13 +1149,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45918.27083333334</v>
+        <v>45922.27083333334</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4.295</v>
       </c>
       <c r="C24">
-        <v>1.462</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1202,10 +1166,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45918.28125</v>
+        <v>45922.28125</v>
       </c>
       <c r="B25">
-        <v>1.094</v>
+        <v>11.959</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1219,10 +1183,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45918.29166666666</v>
+        <v>45922.29166666666</v>
       </c>
       <c r="B26">
-        <v>7.218</v>
+        <v>6.561</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1236,13 +1200,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45918.30208333334</v>
+        <v>45922.30208333334</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>13.446</v>
+        <v>2.454</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1253,13 +1217,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45918.3125</v>
+        <v>45922.3125</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>10.867</v>
+        <v>16.308</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1270,13 +1234,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45918.32291666666</v>
+        <v>45922.32291666666</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>4.542</v>
+        <v>6.366</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1287,13 +1251,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45918.33333333334</v>
+        <v>45922.33333333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>30.081</v>
       </c>
       <c r="C30">
-        <v>1.289</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1304,13 +1268,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45918.34375</v>
+        <v>45922.34375</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>6.818</v>
       </c>
       <c r="C31">
-        <v>17.762</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1321,13 +1285,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45918.35416666666</v>
+        <v>45922.35416666666</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>28.454</v>
+        <v>5.886</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1338,13 +1302,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45918.36458333334</v>
+        <v>45922.36458333334</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>50.526</v>
+        <v>1.471</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1355,13 +1319,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45918.375</v>
+        <v>45922.375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.478</v>
       </c>
       <c r="C34">
-        <v>30.959</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1372,13 +1336,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45918.38541666666</v>
+        <v>45922.38541666666</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>25.903</v>
+        <v>13.333</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1389,13 +1353,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45918.39583333334</v>
+        <v>45922.39583333334</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>6.328</v>
+        <v>1.057</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1406,13 +1370,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45918.40625</v>
+        <v>45922.40625</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>4.783</v>
       </c>
       <c r="C37">
-        <v>1.228</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1423,10 +1387,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45918.41666666666</v>
+        <v>45922.41666666666</v>
       </c>
       <c r="B38">
-        <v>4.805</v>
+        <v>0.219</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1440,13 +1404,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45918.42708333334</v>
+        <v>45922.42708333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1.064</v>
       </c>
       <c r="C39">
-        <v>7.977</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1457,13 +1421,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45918.4375</v>
+        <v>45922.4375</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>31.211</v>
+        <v>5.338</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1474,13 +1438,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45918.44791666666</v>
+        <v>45922.44791666666</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>26.44</v>
+        <v>9.816000000000001</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1491,13 +1455,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45918.45833333334</v>
+        <v>45922.45833333334</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>23.797</v>
+        <v>0.918</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1508,13 +1472,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45918.46875</v>
+        <v>45922.46875</v>
       </c>
       <c r="B43">
-        <v>4.825</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2.601</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1525,13 +1489,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45918.47916666666</v>
+        <v>45922.47916666666</v>
       </c>
       <c r="B44">
-        <v>17.302</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>9.303000000000001</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1542,13 +1506,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45918.48958333334</v>
+        <v>45922.48958333334</v>
       </c>
       <c r="B45">
-        <v>6.654</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.599</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1559,13 +1523,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45918.5</v>
+        <v>45922.5</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>9.789999999999999</v>
+        <v>17.508</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1576,13 +1540,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45918.51041666666</v>
+        <v>45922.51041666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1.683</v>
       </c>
       <c r="C47">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1593,13 +1557,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45918.52083333334</v>
+        <v>45922.52083333334</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>6.583</v>
+        <v>4.499</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1610,13 +1574,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45918.53125</v>
+        <v>45922.53125</v>
       </c>
       <c r="B49">
-        <v>16.638</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>15.005</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1627,13 +1591,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45918.54166666666</v>
+        <v>45922.54166666666</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>10.993</v>
+        <v>9.141999999999999</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1644,13 +1608,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45918.55208333334</v>
+        <v>45922.55208333334</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>21.307</v>
+        <v>6.915</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1661,13 +1625,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45918.5625</v>
+        <v>45922.5625</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>6.036</v>
+        <v>18.893</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1678,13 +1642,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45918.57291666666</v>
+        <v>45922.57291666666</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>3.725</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1695,13 +1659,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45918.58333333334</v>
+        <v>45922.58333333334</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>9.865</v>
       </c>
       <c r="C54">
-        <v>23.727</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1712,13 +1676,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45918.59375</v>
+        <v>45922.59375</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>24.216</v>
+        <v>5.973</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1729,13 +1693,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45918.60416666666</v>
+        <v>45922.60416666666</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>23.167</v>
+        <v>10.109</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1746,13 +1710,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45918.61458333334</v>
+        <v>45922.61458333334</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>23.193</v>
+        <v>0.945</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1763,13 +1727,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45918.625</v>
+        <v>45922.625</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>31.541</v>
+        <v>15.665</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1780,13 +1744,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45918.63541666666</v>
+        <v>45922.63541666666</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>19.271</v>
+        <v>3.494</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1797,13 +1761,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45918.64583333334</v>
+        <v>45922.64583333334</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>3.435</v>
       </c>
       <c r="C60">
-        <v>30.954</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1814,10 +1778,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45918.65625</v>
+        <v>45922.65625</v>
       </c>
       <c r="B61">
-        <v>0.8090000000000001</v>
+        <v>7.691</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1831,13 +1795,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45918.66666666666</v>
+        <v>45922.66666666666</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>49.567</v>
+        <v>10.931</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1848,13 +1812,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45918.67708333334</v>
+        <v>45922.67708333334</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>5.015</v>
       </c>
       <c r="C63">
-        <v>35.977</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1865,13 +1829,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45918.6875</v>
+        <v>45922.6875</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>10.021</v>
       </c>
       <c r="C64">
-        <v>16.705</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1882,10 +1846,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45918.69791666666</v>
+        <v>45922.69791666666</v>
       </c>
       <c r="B65">
-        <v>4.058</v>
+        <v>1.17</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1899,13 +1863,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45918.70833333334</v>
+        <v>45922.70833333334</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>12.237</v>
+        <v>12.069</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1916,13 +1880,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45918.71875</v>
+        <v>45922.71875</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>15.807</v>
+        <v>0.122</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1933,13 +1897,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45918.72916666666</v>
+        <v>45922.72916666666</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="C68">
-        <v>9.435</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1950,13 +1914,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45918.73958333334</v>
+        <v>45922.73958333334</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="C69">
-        <v>10.184</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1967,13 +1931,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45918.75</v>
+        <v>45922.75</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>3.148</v>
       </c>
       <c r="C70">
-        <v>22.428</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1984,13 +1948,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45918.76041666666</v>
+        <v>45922.76041666666</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>13.885</v>
       </c>
       <c r="C71">
-        <v>35.887</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2001,13 +1965,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45918.77083333334</v>
+        <v>45922.77083333334</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>16.108</v>
       </c>
       <c r="C72">
-        <v>11.089</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2018,13 +1982,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45918.78125</v>
+        <v>45922.78125</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>9.166</v>
       </c>
       <c r="C73">
-        <v>12.672</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2035,13 +1999,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45918.79166666666</v>
+        <v>45922.79166666666</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>15.218</v>
+        <v>10.706</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2052,13 +2016,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45918.80208333334</v>
+        <v>45922.80208333334</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>35.167</v>
+        <v>0.543</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2069,13 +2033,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45918.8125</v>
+        <v>45922.8125</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>36.277</v>
+        <v>4.578</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2086,13 +2050,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45918.82291666666</v>
+        <v>45922.82291666666</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="C77">
-        <v>38.109</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2103,13 +2067,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45918.83333333334</v>
+        <v>45922.83333333334</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="C78">
-        <v>16.743</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2120,13 +2084,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45918.84375</v>
+        <v>45922.84375</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>12.136</v>
+        <v>0.862</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2137,13 +2101,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45918.85416666666</v>
+        <v>45922.85416666666</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>5.305</v>
+        <v>4.482</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2154,13 +2118,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45918.86458333334</v>
+        <v>45922.86458333334</v>
       </c>
       <c r="B81">
-        <v>1.347</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>7.77</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2171,13 +2135,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45918.875</v>
+        <v>45922.875</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>7.514</v>
+        <v>0.752</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2188,13 +2152,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45918.88541666666</v>
+        <v>45922.88541666666</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>13.503</v>
+        <v>5.011</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2205,13 +2169,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45918.89583333334</v>
+        <v>45922.89583333334</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>19.074</v>
+        <v>25.04</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2222,13 +2186,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45918.90625</v>
+        <v>45922.90625</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>20.814</v>
+        <v>6.988</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2239,13 +2203,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45918.91666666666</v>
+        <v>45922.91666666666</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>9.038</v>
+        <v>6.419</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2256,13 +2220,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45918.92708333334</v>
+        <v>45922.92708333334</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>23.832</v>
+        <v>27.533</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2273,13 +2237,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45918.9375</v>
+        <v>45922.9375</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>17.021</v>
+        <v>35.531</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2290,13 +2254,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45918.94791666666</v>
+        <v>45922.94791666666</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>8.535</v>
+        <v>5.597</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2307,13 +2271,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45918.95833333334</v>
+        <v>45922.95833333334</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>3.089</v>
       </c>
       <c r="C90">
-        <v>6.635</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2324,13 +2288,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45918.96875</v>
+        <v>45922.96875</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1.999</v>
+        <v>1.361</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2341,13 +2305,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45918.97916666666</v>
+        <v>45922.97916666666</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>4.166</v>
+        <v>13.508</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2358,13 +2322,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45918.98958333334</v>
+        <v>45922.98958333334</v>
       </c>
       <c r="B93">
-        <v>0.492</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.962</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2375,13 +2339,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>7.378</v>
       </c>
       <c r="C94">
-        <v>38.172</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2392,13 +2356,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="C95">
-        <v>17.746</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2409,13 +2373,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>28.974</v>
       </c>
       <c r="C96">
-        <v>5.69</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2426,13 +2390,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>22.983</v>
       </c>
       <c r="C97">
-        <v>4.257</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2443,13 +2407,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>6.151</v>
       </c>
       <c r="C98">
-        <v>35.601</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2460,13 +2424,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>14.015</v>
       </c>
       <c r="C99">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2477,13 +2441,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>14.557</v>
       </c>
       <c r="C100">
-        <v>8.983000000000001</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2494,10 +2458,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B101">
-        <v>0.412</v>
+        <v>8.19</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2511,13 +2475,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>2.664</v>
       </c>
       <c r="C102">
-        <v>4.128</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2528,13 +2492,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B103">
-        <v>0.157</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>4.663</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2545,13 +2509,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1.619</v>
       </c>
       <c r="C104">
-        <v>3.729</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2562,10 +2526,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B105">
-        <v>1.202</v>
+        <v>3.168</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2579,10 +2543,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B106">
-        <v>0.033</v>
+        <v>4.319</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2596,10 +2560,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B107">
-        <v>1.932</v>
+        <v>13.745</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2613,13 +2577,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>36.753</v>
       </c>
       <c r="C108">
-        <v>2.538</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2630,10 +2594,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B109">
-        <v>0.323</v>
+        <v>12.843</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2647,13 +2611,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>6.792</v>
       </c>
       <c r="C110">
-        <v>2.746</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2664,10 +2628,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B111">
-        <v>3.078</v>
+        <v>5.279</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2681,13 +2645,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>19.433</v>
       </c>
       <c r="C112">
-        <v>7.317</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2698,13 +2662,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>10.875</v>
       </c>
       <c r="C113">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2715,13 +2679,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1.639</v>
       </c>
       <c r="C114">
-        <v>2.364</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2732,10 +2696,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B115">
-        <v>1.769</v>
+        <v>4.069</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2749,13 +2713,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="C116">
-        <v>13.294</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2766,13 +2730,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>7.919</v>
       </c>
       <c r="C117">
-        <v>2.908</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2783,13 +2747,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>5.524</v>
+        <v>3.373</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2800,13 +2764,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>5.361</v>
       </c>
       <c r="C119">
-        <v>6.609</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2817,13 +2781,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>16.038</v>
+        <v>2.608</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2834,223 +2798,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>9.16</v>
+        <v>6.691</v>
       </c>
       <c r="D121">
         <v>24</v>
       </c>
       <c r="E121" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="2">
-        <v>45919.29166666666</v>
-      </c>
-      <c r="B122">
-        <v>15.045</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>25</v>
-      </c>
-      <c r="E122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="2">
-        <v>45919.30208333334</v>
-      </c>
-      <c r="B123">
-        <v>22.905</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>26</v>
-      </c>
-      <c r="E123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="2">
-        <v>45919.3125</v>
-      </c>
-      <c r="B124">
-        <v>14.94</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>27</v>
-      </c>
-      <c r="E124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="2">
-        <v>45919.32291666666</v>
-      </c>
-      <c r="B125">
-        <v>14.582</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>28</v>
-      </c>
-      <c r="E125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="2">
-        <v>45919.33333333334</v>
-      </c>
-      <c r="B126">
-        <v>26.782</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>29</v>
-      </c>
-      <c r="E126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="2">
-        <v>45919.34375</v>
-      </c>
-      <c r="B127">
-        <v>51.163</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>30</v>
-      </c>
-      <c r="E127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="2">
-        <v>45919.35416666666</v>
-      </c>
-      <c r="B128">
-        <v>59.764</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>31</v>
-      </c>
-      <c r="E128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="2">
-        <v>45919.36458333334</v>
-      </c>
-      <c r="B129">
-        <v>30.655</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>32</v>
-      </c>
-      <c r="E129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="2">
-        <v>45919.375</v>
-      </c>
-      <c r="B130">
-        <v>30.552</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>33</v>
-      </c>
-      <c r="E130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="2">
-        <v>45919.38541666666</v>
-      </c>
-      <c r="B131">
-        <v>6.9</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>34</v>
-      </c>
-      <c r="E131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="2">
-        <v>45919.39583333334</v>
-      </c>
-      <c r="B132">
-        <v>1.255</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>35</v>
-      </c>
-      <c r="E132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="2">
-        <v>45919.40625</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>29.053</v>
-      </c>
-      <c r="D133">
-        <v>36</v>
-      </c>
-      <c r="E133" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,364 +31,400 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>22.09.20251</t>
-  </si>
-  <si>
-    <t>22.09.20252</t>
-  </si>
-  <si>
-    <t>22.09.20253</t>
-  </si>
-  <si>
-    <t>22.09.20254</t>
-  </si>
-  <si>
-    <t>22.09.20255</t>
-  </si>
-  <si>
-    <t>22.09.20256</t>
-  </si>
-  <si>
-    <t>22.09.20257</t>
-  </si>
-  <si>
-    <t>22.09.20258</t>
-  </si>
-  <si>
-    <t>22.09.20259</t>
-  </si>
-  <si>
-    <t>22.09.202510</t>
-  </si>
-  <si>
-    <t>22.09.202511</t>
-  </si>
-  <si>
-    <t>22.09.202512</t>
-  </si>
-  <si>
-    <t>22.09.202513</t>
-  </si>
-  <si>
-    <t>22.09.202514</t>
-  </si>
-  <si>
-    <t>22.09.202515</t>
-  </si>
-  <si>
-    <t>22.09.202516</t>
-  </si>
-  <si>
-    <t>22.09.202517</t>
-  </si>
-  <si>
-    <t>22.09.202518</t>
-  </si>
-  <si>
-    <t>22.09.202519</t>
-  </si>
-  <si>
-    <t>22.09.202520</t>
-  </si>
-  <si>
-    <t>22.09.202521</t>
-  </si>
-  <si>
-    <t>22.09.202522</t>
-  </si>
-  <si>
-    <t>22.09.202523</t>
-  </si>
-  <si>
-    <t>22.09.202524</t>
-  </si>
-  <si>
-    <t>22.09.202525</t>
-  </si>
-  <si>
-    <t>22.09.202526</t>
-  </si>
-  <si>
-    <t>22.09.202527</t>
-  </si>
-  <si>
-    <t>22.09.202528</t>
-  </si>
-  <si>
-    <t>22.09.202529</t>
-  </si>
-  <si>
-    <t>22.09.202530</t>
-  </si>
-  <si>
-    <t>22.09.202531</t>
-  </si>
-  <si>
-    <t>22.09.202532</t>
-  </si>
-  <si>
-    <t>22.09.202533</t>
-  </si>
-  <si>
-    <t>22.09.202534</t>
-  </si>
-  <si>
-    <t>22.09.202535</t>
-  </si>
-  <si>
-    <t>22.09.202536</t>
-  </si>
-  <si>
-    <t>22.09.202537</t>
-  </si>
-  <si>
-    <t>22.09.202538</t>
-  </si>
-  <si>
-    <t>22.09.202539</t>
-  </si>
-  <si>
-    <t>22.09.202540</t>
-  </si>
-  <si>
-    <t>22.09.202541</t>
-  </si>
-  <si>
-    <t>22.09.202542</t>
-  </si>
-  <si>
-    <t>22.09.202543</t>
-  </si>
-  <si>
-    <t>22.09.202544</t>
-  </si>
-  <si>
-    <t>22.09.202545</t>
-  </si>
-  <si>
-    <t>22.09.202546</t>
-  </si>
-  <si>
-    <t>22.09.202547</t>
-  </si>
-  <si>
-    <t>22.09.202548</t>
-  </si>
-  <si>
-    <t>22.09.202549</t>
-  </si>
-  <si>
-    <t>22.09.202550</t>
-  </si>
-  <si>
-    <t>22.09.202551</t>
-  </si>
-  <si>
-    <t>22.09.202552</t>
-  </si>
-  <si>
-    <t>22.09.202553</t>
-  </si>
-  <si>
-    <t>22.09.202554</t>
-  </si>
-  <si>
-    <t>22.09.202555</t>
-  </si>
-  <si>
-    <t>22.09.202556</t>
-  </si>
-  <si>
-    <t>22.09.202557</t>
-  </si>
-  <si>
-    <t>22.09.202558</t>
-  </si>
-  <si>
-    <t>22.09.202559</t>
-  </si>
-  <si>
-    <t>22.09.202560</t>
-  </si>
-  <si>
-    <t>22.09.202561</t>
-  </si>
-  <si>
-    <t>22.09.202562</t>
-  </si>
-  <si>
-    <t>22.09.202563</t>
-  </si>
-  <si>
-    <t>22.09.202564</t>
-  </si>
-  <si>
-    <t>22.09.202565</t>
-  </si>
-  <si>
-    <t>22.09.202566</t>
-  </si>
-  <si>
-    <t>22.09.202567</t>
-  </si>
-  <si>
-    <t>22.09.202568</t>
-  </si>
-  <si>
-    <t>22.09.202569</t>
-  </si>
-  <si>
-    <t>22.09.202570</t>
-  </si>
-  <si>
-    <t>22.09.202571</t>
-  </si>
-  <si>
-    <t>22.09.202572</t>
-  </si>
-  <si>
-    <t>22.09.202573</t>
-  </si>
-  <si>
-    <t>22.09.202574</t>
-  </si>
-  <si>
-    <t>22.09.202575</t>
-  </si>
-  <si>
-    <t>22.09.202576</t>
-  </si>
-  <si>
-    <t>22.09.202577</t>
-  </si>
-  <si>
-    <t>22.09.202578</t>
-  </si>
-  <si>
-    <t>22.09.202579</t>
-  </si>
-  <si>
-    <t>22.09.202580</t>
-  </si>
-  <si>
-    <t>22.09.202581</t>
-  </si>
-  <si>
-    <t>22.09.202582</t>
-  </si>
-  <si>
-    <t>22.09.202583</t>
-  </si>
-  <si>
-    <t>22.09.202584</t>
-  </si>
-  <si>
-    <t>22.09.202585</t>
-  </si>
-  <si>
-    <t>22.09.202586</t>
-  </si>
-  <si>
-    <t>22.09.202587</t>
-  </si>
-  <si>
-    <t>22.09.202588</t>
-  </si>
-  <si>
-    <t>22.09.202589</t>
-  </si>
-  <si>
-    <t>22.09.202590</t>
-  </si>
-  <si>
-    <t>22.09.202591</t>
-  </si>
-  <si>
-    <t>22.09.202592</t>
-  </si>
-  <si>
-    <t>23.09.202593</t>
-  </si>
-  <si>
-    <t>23.09.202594</t>
-  </si>
-  <si>
-    <t>23.09.202595</t>
-  </si>
-  <si>
-    <t>23.09.202596</t>
-  </si>
-  <si>
-    <t>23.09.20251</t>
-  </si>
-  <si>
-    <t>23.09.20252</t>
-  </si>
-  <si>
-    <t>23.09.20253</t>
-  </si>
-  <si>
-    <t>23.09.20254</t>
-  </si>
-  <si>
-    <t>23.09.20255</t>
-  </si>
-  <si>
-    <t>23.09.20256</t>
-  </si>
-  <si>
-    <t>23.09.20257</t>
-  </si>
-  <si>
-    <t>23.09.20258</t>
-  </si>
-  <si>
-    <t>23.09.20259</t>
-  </si>
-  <si>
-    <t>23.09.202510</t>
-  </si>
-  <si>
-    <t>23.09.202511</t>
-  </si>
-  <si>
-    <t>23.09.202512</t>
-  </si>
-  <si>
-    <t>23.09.202513</t>
-  </si>
-  <si>
-    <t>23.09.202514</t>
-  </si>
-  <si>
-    <t>23.09.202515</t>
-  </si>
-  <si>
-    <t>23.09.202516</t>
-  </si>
-  <si>
-    <t>23.09.202517</t>
-  </si>
-  <si>
-    <t>23.09.202518</t>
-  </si>
-  <si>
-    <t>23.09.202519</t>
-  </si>
-  <si>
-    <t>23.09.202520</t>
-  </si>
-  <si>
-    <t>23.09.202521</t>
-  </si>
-  <si>
-    <t>23.09.202522</t>
-  </si>
-  <si>
-    <t>23.09.202523</t>
-  </si>
-  <si>
-    <t>23.09.202524</t>
+    <t>01.10.20251</t>
+  </si>
+  <si>
+    <t>01.10.20252</t>
+  </si>
+  <si>
+    <t>01.10.20253</t>
+  </si>
+  <si>
+    <t>01.10.20254</t>
+  </si>
+  <si>
+    <t>01.10.20255</t>
+  </si>
+  <si>
+    <t>01.10.20256</t>
+  </si>
+  <si>
+    <t>01.10.20257</t>
+  </si>
+  <si>
+    <t>01.10.20258</t>
+  </si>
+  <si>
+    <t>01.10.20259</t>
+  </si>
+  <si>
+    <t>01.10.202510</t>
+  </si>
+  <si>
+    <t>01.10.202511</t>
+  </si>
+  <si>
+    <t>01.10.202512</t>
+  </si>
+  <si>
+    <t>01.10.202513</t>
+  </si>
+  <si>
+    <t>01.10.202514</t>
+  </si>
+  <si>
+    <t>01.10.202515</t>
+  </si>
+  <si>
+    <t>01.10.202516</t>
+  </si>
+  <si>
+    <t>01.10.202517</t>
+  </si>
+  <si>
+    <t>01.10.202518</t>
+  </si>
+  <si>
+    <t>01.10.202519</t>
+  </si>
+  <si>
+    <t>01.10.202520</t>
+  </si>
+  <si>
+    <t>01.10.202521</t>
+  </si>
+  <si>
+    <t>01.10.202522</t>
+  </si>
+  <si>
+    <t>01.10.202523</t>
+  </si>
+  <si>
+    <t>01.10.202524</t>
+  </si>
+  <si>
+    <t>01.10.202525</t>
+  </si>
+  <si>
+    <t>01.10.202526</t>
+  </si>
+  <si>
+    <t>01.10.202527</t>
+  </si>
+  <si>
+    <t>01.10.202528</t>
+  </si>
+  <si>
+    <t>01.10.202529</t>
+  </si>
+  <si>
+    <t>01.10.202530</t>
+  </si>
+  <si>
+    <t>01.10.202531</t>
+  </si>
+  <si>
+    <t>01.10.202532</t>
+  </si>
+  <si>
+    <t>01.10.202533</t>
+  </si>
+  <si>
+    <t>01.10.202534</t>
+  </si>
+  <si>
+    <t>01.10.202535</t>
+  </si>
+  <si>
+    <t>01.10.202536</t>
+  </si>
+  <si>
+    <t>01.10.202537</t>
+  </si>
+  <si>
+    <t>01.10.202538</t>
+  </si>
+  <si>
+    <t>01.10.202539</t>
+  </si>
+  <si>
+    <t>01.10.202540</t>
+  </si>
+  <si>
+    <t>01.10.202541</t>
+  </si>
+  <si>
+    <t>01.10.202542</t>
+  </si>
+  <si>
+    <t>01.10.202543</t>
+  </si>
+  <si>
+    <t>01.10.202544</t>
+  </si>
+  <si>
+    <t>01.10.202545</t>
+  </si>
+  <si>
+    <t>01.10.202546</t>
+  </si>
+  <si>
+    <t>01.10.202547</t>
+  </si>
+  <si>
+    <t>01.10.202548</t>
+  </si>
+  <si>
+    <t>01.10.202549</t>
+  </si>
+  <si>
+    <t>01.10.202550</t>
+  </si>
+  <si>
+    <t>01.10.202551</t>
+  </si>
+  <si>
+    <t>01.10.202552</t>
+  </si>
+  <si>
+    <t>01.10.202553</t>
+  </si>
+  <si>
+    <t>01.10.202554</t>
+  </si>
+  <si>
+    <t>01.10.202555</t>
+  </si>
+  <si>
+    <t>01.10.202556</t>
+  </si>
+  <si>
+    <t>01.10.202557</t>
+  </si>
+  <si>
+    <t>01.10.202558</t>
+  </si>
+  <si>
+    <t>01.10.202559</t>
+  </si>
+  <si>
+    <t>01.10.202560</t>
+  </si>
+  <si>
+    <t>01.10.202561</t>
+  </si>
+  <si>
+    <t>01.10.202562</t>
+  </si>
+  <si>
+    <t>01.10.202563</t>
+  </si>
+  <si>
+    <t>01.10.202564</t>
+  </si>
+  <si>
+    <t>01.10.202565</t>
+  </si>
+  <si>
+    <t>01.10.202566</t>
+  </si>
+  <si>
+    <t>01.10.202567</t>
+  </si>
+  <si>
+    <t>01.10.202568</t>
+  </si>
+  <si>
+    <t>01.10.202569</t>
+  </si>
+  <si>
+    <t>01.10.202570</t>
+  </si>
+  <si>
+    <t>01.10.202571</t>
+  </si>
+  <si>
+    <t>01.10.202572</t>
+  </si>
+  <si>
+    <t>01.10.202573</t>
+  </si>
+  <si>
+    <t>01.10.202574</t>
+  </si>
+  <si>
+    <t>01.10.202575</t>
+  </si>
+  <si>
+    <t>01.10.202576</t>
+  </si>
+  <si>
+    <t>01.10.202577</t>
+  </si>
+  <si>
+    <t>01.10.202578</t>
+  </si>
+  <si>
+    <t>01.10.202579</t>
+  </si>
+  <si>
+    <t>01.10.202580</t>
+  </si>
+  <si>
+    <t>01.10.202581</t>
+  </si>
+  <si>
+    <t>01.10.202582</t>
+  </si>
+  <si>
+    <t>01.10.202583</t>
+  </si>
+  <si>
+    <t>01.10.202584</t>
+  </si>
+  <si>
+    <t>01.10.202585</t>
+  </si>
+  <si>
+    <t>01.10.202586</t>
+  </si>
+  <si>
+    <t>01.10.202587</t>
+  </si>
+  <si>
+    <t>01.10.202588</t>
+  </si>
+  <si>
+    <t>01.10.202589</t>
+  </si>
+  <si>
+    <t>01.10.202590</t>
+  </si>
+  <si>
+    <t>01.10.202591</t>
+  </si>
+  <si>
+    <t>01.10.202592</t>
+  </si>
+  <si>
+    <t>02.10.202593</t>
+  </si>
+  <si>
+    <t>02.10.202594</t>
+  </si>
+  <si>
+    <t>02.10.202595</t>
+  </si>
+  <si>
+    <t>02.10.202596</t>
+  </si>
+  <si>
+    <t>02.10.20251</t>
+  </si>
+  <si>
+    <t>02.10.20252</t>
+  </si>
+  <si>
+    <t>02.10.20253</t>
+  </si>
+  <si>
+    <t>02.10.20254</t>
+  </si>
+  <si>
+    <t>02.10.20255</t>
+  </si>
+  <si>
+    <t>02.10.20256</t>
+  </si>
+  <si>
+    <t>02.10.20257</t>
+  </si>
+  <si>
+    <t>02.10.20258</t>
+  </si>
+  <si>
+    <t>02.10.20259</t>
+  </si>
+  <si>
+    <t>02.10.202510</t>
+  </si>
+  <si>
+    <t>02.10.202511</t>
+  </si>
+  <si>
+    <t>02.10.202512</t>
+  </si>
+  <si>
+    <t>02.10.202513</t>
+  </si>
+  <si>
+    <t>02.10.202514</t>
+  </si>
+  <si>
+    <t>02.10.202515</t>
+  </si>
+  <si>
+    <t>02.10.202516</t>
+  </si>
+  <si>
+    <t>02.10.202517</t>
+  </si>
+  <si>
+    <t>02.10.202518</t>
+  </si>
+  <si>
+    <t>02.10.202519</t>
+  </si>
+  <si>
+    <t>02.10.202520</t>
+  </si>
+  <si>
+    <t>02.10.202521</t>
+  </si>
+  <si>
+    <t>02.10.202522</t>
+  </si>
+  <si>
+    <t>02.10.202523</t>
+  </si>
+  <si>
+    <t>02.10.202524</t>
+  </si>
+  <si>
+    <t>02.10.202525</t>
+  </si>
+  <si>
+    <t>02.10.202526</t>
+  </si>
+  <si>
+    <t>02.10.202527</t>
+  </si>
+  <si>
+    <t>02.10.202528</t>
+  </si>
+  <si>
+    <t>02.10.202529</t>
+  </si>
+  <si>
+    <t>02.10.202530</t>
+  </si>
+  <si>
+    <t>02.10.202531</t>
+  </si>
+  <si>
+    <t>02.10.202532</t>
+  </si>
+  <si>
+    <t>02.10.202533</t>
+  </si>
+  <si>
+    <t>02.10.202534</t>
+  </si>
+  <si>
+    <t>02.10.202535</t>
+  </si>
+  <si>
+    <t>02.10.202536</t>
   </si>
 </sst>
 </file>
@@ -750,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,13 +811,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45922.04166666666</v>
+        <v>45931.04166666666</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>17.538</v>
+        <v>14.067</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -792,13 +828,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45922.05208333334</v>
+        <v>45931.05208333334</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.35</v>
+        <v>18.367</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -809,13 +845,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45922.0625</v>
+        <v>45931.0625</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.735</v>
+        <v>14.555</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -826,13 +862,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45922.07291666666</v>
+        <v>45931.07291666666</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.65</v>
+        <v>25.129</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -843,13 +879,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45922.08333333334</v>
+        <v>45931.08333333334</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.406</v>
+        <v>18.893</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -860,13 +896,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45922.09375</v>
+        <v>45931.09375</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.253</v>
+        <v>13.036</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -877,13 +913,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45922.10416666666</v>
+        <v>45931.10416666666</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.265</v>
+        <v>14.427</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -894,13 +930,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45922.11458333334</v>
+        <v>45931.11458333334</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.478</v>
+        <v>15.72</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -911,13 +947,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45922.125</v>
+        <v>45931.125</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.689</v>
+        <v>22.357</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -928,13 +964,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45922.13541666666</v>
+        <v>45931.13541666666</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.064</v>
+        <v>15.964</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -945,13 +981,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45922.14583333334</v>
+        <v>45931.14583333334</v>
       </c>
       <c r="B12">
-        <v>9.348000000000001</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>21.423</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -962,13 +998,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45922.15625</v>
+        <v>45931.15625</v>
       </c>
       <c r="B13">
-        <v>1.976</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>19.024</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -979,13 +1015,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45922.16666666666</v>
+        <v>45931.16666666666</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2.873</v>
       </c>
       <c r="C14">
-        <v>0.355</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -996,13 +1032,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45922.17708333334</v>
+        <v>45931.17708333334</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="C15">
-        <v>6.304</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1013,13 +1049,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45922.1875</v>
+        <v>45931.1875</v>
       </c>
       <c r="B16">
-        <v>8.848000000000001</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1030,13 +1066,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45922.19791666666</v>
+        <v>45931.19791666666</v>
       </c>
       <c r="B17">
-        <v>5.742</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.862</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1047,13 +1083,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45922.20833333334</v>
+        <v>45931.20833333334</v>
       </c>
       <c r="B18">
-        <v>6.722</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>26.861</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1064,13 +1100,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45922.21875</v>
+        <v>45931.21875</v>
       </c>
       <c r="B19">
-        <v>7.151</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>30.978</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1081,13 +1117,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45922.22916666666</v>
+        <v>45931.22916666666</v>
       </c>
       <c r="B20">
-        <v>24.614</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>18.181</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1098,13 +1134,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45922.23958333334</v>
+        <v>45931.23958333334</v>
       </c>
       <c r="B21">
-        <v>56.298</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>6.761</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1115,13 +1151,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45922.25</v>
+        <v>45931.25</v>
       </c>
       <c r="B22">
-        <v>35.219</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>19.762</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1132,13 +1168,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45922.26041666666</v>
+        <v>45931.26041666666</v>
       </c>
       <c r="B23">
-        <v>2.877</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>11.744</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1149,13 +1185,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45922.27083333334</v>
+        <v>45931.27083333334</v>
       </c>
       <c r="B24">
-        <v>4.295</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>7.303</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1166,13 +1202,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45922.28125</v>
+        <v>45931.28125</v>
       </c>
       <c r="B25">
-        <v>11.959</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5.996</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1183,13 +1219,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45922.29166666666</v>
+        <v>45931.29166666666</v>
       </c>
       <c r="B26">
-        <v>6.561</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>4.396</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1200,13 +1236,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45922.30208333334</v>
+        <v>45931.30208333334</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2.454</v>
+        <v>5.005</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1217,13 +1253,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45922.3125</v>
+        <v>45931.3125</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>16.308</v>
+        <v>7.33</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1234,13 +1270,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45922.32291666666</v>
+        <v>45931.32291666666</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>6.366</v>
+        <v>16.004</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1251,13 +1287,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45922.33333333334</v>
+        <v>45931.33333333334</v>
       </c>
       <c r="B30">
-        <v>30.081</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3.871</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1268,13 +1304,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45922.34375</v>
+        <v>45931.34375</v>
       </c>
       <c r="B31">
-        <v>6.818</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>20.71</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1285,13 +1321,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45922.35416666666</v>
+        <v>45931.35416666666</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>5.886</v>
+        <v>4.692</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1302,13 +1338,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45922.36458333334</v>
+        <v>45931.36458333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2.778</v>
       </c>
       <c r="C33">
-        <v>1.471</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1319,10 +1355,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45922.375</v>
+        <v>45931.375</v>
       </c>
       <c r="B34">
-        <v>0.478</v>
+        <v>0.624</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1336,13 +1372,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45922.38541666666</v>
+        <v>45931.38541666666</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>13.333</v>
+        <v>4.703</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1353,13 +1389,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45922.39583333334</v>
+        <v>45931.39583333334</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.057</v>
+        <v>1.914</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1370,13 +1406,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45922.40625</v>
+        <v>45931.40625</v>
       </c>
       <c r="B37">
-        <v>4.783</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>17.712</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1387,13 +1423,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45922.41666666666</v>
+        <v>45931.41666666666</v>
       </c>
       <c r="B38">
-        <v>0.219</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>18.292</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1404,13 +1440,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45922.42708333334</v>
+        <v>45931.42708333334</v>
       </c>
       <c r="B39">
-        <v>1.064</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>14.71</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1421,13 +1457,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45922.4375</v>
+        <v>45931.4375</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C40">
-        <v>5.338</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1438,13 +1474,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45922.44791666666</v>
+        <v>45931.44791666666</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>9.816000000000001</v>
+        <v>6.807</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1455,13 +1491,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45922.45833333334</v>
+        <v>45931.45833333334</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0.918</v>
+        <v>16.008</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1472,13 +1508,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45922.46875</v>
+        <v>45931.46875</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>2.601</v>
+        <v>20.617</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1489,13 +1525,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45922.47916666666</v>
+        <v>45931.47916666666</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>9.303000000000001</v>
+        <v>6.826</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1506,13 +1542,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45922.48958333334</v>
+        <v>45931.48958333334</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>5.599</v>
+        <v>8.728</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1523,13 +1559,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45922.5</v>
+        <v>45931.5</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>17.508</v>
+        <v>20.815</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1540,13 +1576,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45922.51041666666</v>
+        <v>45931.51041666666</v>
       </c>
       <c r="B47">
-        <v>1.683</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>43.312</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1557,13 +1593,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45922.52083333334</v>
+        <v>45931.52083333334</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>4.499</v>
+        <v>32</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1574,13 +1610,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45922.53125</v>
+        <v>45931.53125</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="C49">
-        <v>15.005</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1591,13 +1627,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45922.54166666666</v>
+        <v>45931.54166666666</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1.557</v>
       </c>
       <c r="C50">
-        <v>9.141999999999999</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1608,13 +1644,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45922.55208333334</v>
+        <v>45931.55208333334</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>41.474</v>
       </c>
       <c r="C51">
-        <v>6.915</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1625,13 +1661,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45922.5625</v>
+        <v>45931.5625</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>6.064</v>
       </c>
       <c r="C52">
-        <v>18.893</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1642,13 +1678,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45922.57291666666</v>
+        <v>45931.57291666666</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.651</v>
       </c>
       <c r="C53">
-        <v>8.109999999999999</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1659,13 +1695,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45922.58333333334</v>
+        <v>45931.58333333334</v>
       </c>
       <c r="B54">
-        <v>9.865</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>8.965</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1676,13 +1712,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45922.59375</v>
+        <v>45931.59375</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>2.036</v>
       </c>
       <c r="C55">
-        <v>5.973</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1693,13 +1729,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45922.60416666666</v>
+        <v>45931.60416666666</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>10.109</v>
+        <v>1.047</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1710,13 +1746,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45922.61458333334</v>
+        <v>45931.61458333334</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.945</v>
+        <v>22.306</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1727,13 +1763,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45922.625</v>
+        <v>45931.625</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>15.665</v>
+        <v>0.475</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1744,13 +1780,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45922.63541666666</v>
+        <v>45931.63541666666</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>16.665</v>
       </c>
       <c r="C59">
-        <v>3.494</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1761,10 +1797,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45922.64583333334</v>
+        <v>45931.64583333334</v>
       </c>
       <c r="B60">
-        <v>3.435</v>
+        <v>4.708</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1778,13 +1814,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45922.65625</v>
+        <v>45931.65625</v>
       </c>
       <c r="B61">
-        <v>7.691</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>3.736</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1795,13 +1831,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45922.66666666666</v>
+        <v>45931.66666666666</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>10.931</v>
+        <v>27.954</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1812,13 +1848,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45922.67708333334</v>
+        <v>45931.67708333334</v>
       </c>
       <c r="B63">
-        <v>5.015</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>42.533</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1829,13 +1865,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45922.6875</v>
+        <v>45931.6875</v>
       </c>
       <c r="B64">
-        <v>10.021</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>74.989</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1846,13 +1882,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45922.69791666666</v>
+        <v>45931.69791666666</v>
       </c>
       <c r="B65">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>93.649</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1863,13 +1899,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45922.70833333334</v>
+        <v>45931.70833333334</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>12.069</v>
+        <v>95.77800000000001</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1880,13 +1916,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45922.71875</v>
+        <v>45931.71875</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0.122</v>
+        <v>9.077999999999999</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1897,13 +1933,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45922.72916666666</v>
+        <v>45931.72916666666</v>
       </c>
       <c r="B68">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>13.436</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1914,13 +1950,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45922.73958333334</v>
+        <v>45931.73958333334</v>
       </c>
       <c r="B69">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>28.21</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1931,13 +1967,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45922.75</v>
+        <v>45931.75</v>
       </c>
       <c r="B70">
-        <v>3.148</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>27.846</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1948,13 +1984,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45922.76041666666</v>
+        <v>45931.76041666666</v>
       </c>
       <c r="B71">
-        <v>13.885</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>30.65</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1965,13 +2001,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45922.77083333334</v>
+        <v>45931.77083333334</v>
       </c>
       <c r="B72">
-        <v>16.108</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>17.314</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1982,13 +2018,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45922.78125</v>
+        <v>45931.78125</v>
       </c>
       <c r="B73">
-        <v>9.166</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>19.894</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -1999,13 +2035,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45922.79166666666</v>
+        <v>45931.79166666666</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>10.706</v>
+        <v>19.894</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2016,13 +2052,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45922.80208333334</v>
+        <v>45931.80208333334</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0.543</v>
+        <v>16.779</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2033,13 +2069,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45922.8125</v>
+        <v>45931.8125</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>4.578</v>
+        <v>15.714</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2050,13 +2086,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45922.82291666666</v>
+        <v>45931.82291666666</v>
       </c>
       <c r="B77">
-        <v>0.435</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>8.101000000000001</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2067,13 +2103,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45922.83333333334</v>
+        <v>45931.83333333334</v>
       </c>
       <c r="B78">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2084,13 +2120,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45922.84375</v>
+        <v>45931.84375</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>0.862</v>
+        <v>5.028</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2101,13 +2137,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45922.85416666666</v>
+        <v>45931.85416666666</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>4.482</v>
+        <v>3.037</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2118,13 +2154,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45922.86458333334</v>
+        <v>45931.86458333334</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>17.398</v>
       </c>
       <c r="C81">
-        <v>7.77</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2135,13 +2171,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45922.875</v>
+        <v>45931.875</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>19.232</v>
       </c>
       <c r="C82">
-        <v>0.752</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2152,13 +2188,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45922.88541666666</v>
+        <v>45931.88541666666</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>4.043</v>
       </c>
       <c r="C83">
-        <v>5.011</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2169,13 +2205,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45922.89583333334</v>
+        <v>45931.89583333334</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1.386</v>
       </c>
       <c r="C84">
-        <v>25.04</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2186,13 +2222,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45922.90625</v>
+        <v>45931.90625</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>6.666</v>
       </c>
       <c r="C85">
-        <v>6.988</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2203,13 +2239,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45922.91666666666</v>
+        <v>45931.91666666666</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>6.419</v>
+        <v>8.581</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2220,13 +2256,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45922.92708333334</v>
+        <v>45931.92708333334</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="C87">
-        <v>27.533</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2237,13 +2273,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45922.9375</v>
+        <v>45931.9375</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>35.531</v>
+        <v>5.197</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2254,13 +2290,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45922.94791666666</v>
+        <v>45931.94791666666</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>5.597</v>
+        <v>0.416</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2271,10 +2307,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45922.95833333334</v>
+        <v>45931.95833333334</v>
       </c>
       <c r="B90">
-        <v>3.089</v>
+        <v>8.121</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2288,13 +2324,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45922.96875</v>
+        <v>45931.96875</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1.361</v>
+        <v>9.489000000000001</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2305,13 +2341,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45922.97916666666</v>
+        <v>45931.97916666666</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>13.508</v>
+        <v>6.223</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2322,13 +2358,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45922.98958333334</v>
+        <v>45931.98958333334</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>0.962</v>
+        <v>8.962</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2339,10 +2375,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45923</v>
+        <v>45932</v>
       </c>
       <c r="B94">
-        <v>7.378</v>
+        <v>0.348</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2356,10 +2392,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
       <c r="B95">
-        <v>27.5</v>
+        <v>5.116</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2373,10 +2409,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
       <c r="B96">
-        <v>28.974</v>
+        <v>0.766</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2390,10 +2426,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
       <c r="B97">
-        <v>22.983</v>
+        <v>7.373</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2407,10 +2443,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45923.04166666666</v>
+        <v>45932.04166666666</v>
       </c>
       <c r="B98">
-        <v>6.151</v>
+        <v>17.767</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2424,10 +2460,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45923.05208333334</v>
+        <v>45932.05208333334</v>
       </c>
       <c r="B99">
-        <v>14.015</v>
+        <v>13.568</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2441,13 +2477,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45923.0625</v>
+        <v>45932.0625</v>
       </c>
       <c r="B100">
-        <v>14.557</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.179</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2458,13 +2494,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45923.07291666666</v>
+        <v>45932.07291666666</v>
       </c>
       <c r="B101">
-        <v>8.19</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2475,10 +2511,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45923.08333333334</v>
+        <v>45932.08333333334</v>
       </c>
       <c r="B102">
-        <v>2.664</v>
+        <v>6.362</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2492,13 +2528,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45923.09375</v>
+        <v>45932.09375</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>4.401</v>
       </c>
       <c r="C103">
-        <v>4.663</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2509,13 +2545,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45923.10416666666</v>
+        <v>45932.10416666666</v>
       </c>
       <c r="B104">
-        <v>1.619</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.802</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2526,10 +2562,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45923.11458333334</v>
+        <v>45932.11458333334</v>
       </c>
       <c r="B105">
-        <v>3.168</v>
+        <v>5.035</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2543,10 +2579,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45923.125</v>
+        <v>45932.125</v>
       </c>
       <c r="B106">
-        <v>4.319</v>
+        <v>6.489</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2560,13 +2596,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45923.13541666666</v>
+        <v>45932.13541666666</v>
       </c>
       <c r="B107">
-        <v>13.745</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>2.171</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2577,10 +2613,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45923.14583333334</v>
+        <v>45932.14583333334</v>
       </c>
       <c r="B108">
-        <v>36.753</v>
+        <v>1.297</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2594,10 +2630,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45923.15625</v>
+        <v>45932.15625</v>
       </c>
       <c r="B109">
-        <v>12.843</v>
+        <v>3.389</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2611,10 +2647,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45923.16666666666</v>
+        <v>45932.16666666666</v>
       </c>
       <c r="B110">
-        <v>6.792</v>
+        <v>22.288</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2628,10 +2664,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45923.17708333334</v>
+        <v>45932.17708333334</v>
       </c>
       <c r="B111">
-        <v>5.279</v>
+        <v>31.928</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2645,10 +2681,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45923.1875</v>
+        <v>45932.1875</v>
       </c>
       <c r="B112">
-        <v>19.433</v>
+        <v>12.569</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2662,10 +2698,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45923.19791666666</v>
+        <v>45932.19791666666</v>
       </c>
       <c r="B113">
-        <v>10.875</v>
+        <v>4.857</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2679,10 +2715,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45923.20833333334</v>
+        <v>45932.20833333334</v>
       </c>
       <c r="B114">
-        <v>1.639</v>
+        <v>3.87</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2696,13 +2732,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45923.21875</v>
+        <v>45932.21875</v>
       </c>
       <c r="B115">
-        <v>4.069</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>21.613</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2713,13 +2749,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45923.22916666666</v>
+        <v>45932.22916666666</v>
       </c>
       <c r="B116">
-        <v>5.64</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>7.514</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2730,10 +2766,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45923.23958333334</v>
+        <v>45932.23958333334</v>
       </c>
       <c r="B117">
-        <v>7.919</v>
+        <v>8.34</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2747,13 +2783,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45923.25</v>
+        <v>45932.25</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>9.65</v>
       </c>
       <c r="C118">
-        <v>3.373</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2764,10 +2800,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45923.26041666666</v>
+        <v>45932.26041666666</v>
       </c>
       <c r="B119">
-        <v>5.361</v>
+        <v>3.62</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2781,13 +2817,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45923.27083333334</v>
+        <v>45932.27083333334</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>12.904</v>
       </c>
       <c r="C120">
-        <v>2.608</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2798,19 +2834,223 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45923.28125</v>
+        <v>45932.28125</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>13.621</v>
       </c>
       <c r="C121">
-        <v>6.691</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>24</v>
       </c>
       <c r="E121" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>45932.29166666666</v>
+      </c>
+      <c r="B122">
+        <v>7.396</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>45932.30208333334</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>1.42</v>
+      </c>
+      <c r="D123">
+        <v>26</v>
+      </c>
+      <c r="E123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>45932.3125</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>2.367</v>
+      </c>
+      <c r="D124">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>45932.32291666666</v>
+      </c>
+      <c r="B125">
+        <v>0.458</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>28</v>
+      </c>
+      <c r="E125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>45932.33333333334</v>
+      </c>
+      <c r="B126">
+        <v>2.169</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>29</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>45932.34375</v>
+      </c>
+      <c r="B127">
+        <v>4.05</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>45932.35416666666</v>
+      </c>
+      <c r="B128">
+        <v>13.802</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>45932.36458333334</v>
+      </c>
+      <c r="B129">
+        <v>29.297</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>45932.375</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>8.151</v>
+      </c>
+      <c r="D130">
+        <v>33</v>
+      </c>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45932.38541666666</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>51.756</v>
+      </c>
+      <c r="D131">
+        <v>34</v>
+      </c>
+      <c r="E131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45932.39583333334</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>13.474</v>
+      </c>
+      <c r="D132">
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45932.40625</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>44.795</v>
+      </c>
+      <c r="D133">
+        <v>36</v>
+      </c>
+      <c r="E133" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,400 +31,694 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>01.10.20251</t>
-  </si>
-  <si>
-    <t>01.10.20252</t>
-  </si>
-  <si>
-    <t>01.10.20253</t>
-  </si>
-  <si>
-    <t>01.10.20254</t>
-  </si>
-  <si>
-    <t>01.10.20255</t>
-  </si>
-  <si>
-    <t>01.10.20256</t>
-  </si>
-  <si>
-    <t>01.10.20257</t>
-  </si>
-  <si>
-    <t>01.10.20258</t>
-  </si>
-  <si>
-    <t>01.10.20259</t>
-  </si>
-  <si>
-    <t>01.10.202510</t>
-  </si>
-  <si>
-    <t>01.10.202511</t>
-  </si>
-  <si>
-    <t>01.10.202512</t>
-  </si>
-  <si>
-    <t>01.10.202513</t>
-  </si>
-  <si>
-    <t>01.10.202514</t>
-  </si>
-  <si>
-    <t>01.10.202515</t>
-  </si>
-  <si>
-    <t>01.10.202516</t>
-  </si>
-  <si>
-    <t>01.10.202517</t>
-  </si>
-  <si>
-    <t>01.10.202518</t>
-  </si>
-  <si>
-    <t>01.10.202519</t>
-  </si>
-  <si>
-    <t>01.10.202520</t>
-  </si>
-  <si>
-    <t>01.10.202521</t>
-  </si>
-  <si>
-    <t>01.10.202522</t>
-  </si>
-  <si>
-    <t>01.10.202523</t>
-  </si>
-  <si>
-    <t>01.10.202524</t>
-  </si>
-  <si>
-    <t>01.10.202525</t>
-  </si>
-  <si>
-    <t>01.10.202526</t>
-  </si>
-  <si>
-    <t>01.10.202527</t>
-  </si>
-  <si>
-    <t>01.10.202528</t>
-  </si>
-  <si>
-    <t>01.10.202529</t>
-  </si>
-  <si>
-    <t>01.10.202530</t>
-  </si>
-  <si>
-    <t>01.10.202531</t>
-  </si>
-  <si>
-    <t>01.10.202532</t>
-  </si>
-  <si>
-    <t>01.10.202533</t>
-  </si>
-  <si>
-    <t>01.10.202534</t>
-  </si>
-  <si>
-    <t>01.10.202535</t>
-  </si>
-  <si>
-    <t>01.10.202536</t>
-  </si>
-  <si>
-    <t>01.10.202537</t>
-  </si>
-  <si>
-    <t>01.10.202538</t>
-  </si>
-  <si>
-    <t>01.10.202539</t>
-  </si>
-  <si>
-    <t>01.10.202540</t>
-  </si>
-  <si>
-    <t>01.10.202541</t>
-  </si>
-  <si>
-    <t>01.10.202542</t>
-  </si>
-  <si>
-    <t>01.10.202543</t>
-  </si>
-  <si>
-    <t>01.10.202544</t>
-  </si>
-  <si>
-    <t>01.10.202545</t>
-  </si>
-  <si>
-    <t>01.10.202546</t>
-  </si>
-  <si>
-    <t>01.10.202547</t>
-  </si>
-  <si>
-    <t>01.10.202548</t>
-  </si>
-  <si>
-    <t>01.10.202549</t>
-  </si>
-  <si>
-    <t>01.10.202550</t>
-  </si>
-  <si>
-    <t>01.10.202551</t>
-  </si>
-  <si>
-    <t>01.10.202552</t>
-  </si>
-  <si>
-    <t>01.10.202553</t>
-  </si>
-  <si>
-    <t>01.10.202554</t>
-  </si>
-  <si>
-    <t>01.10.202555</t>
-  </si>
-  <si>
-    <t>01.10.202556</t>
-  </si>
-  <si>
-    <t>01.10.202557</t>
-  </si>
-  <si>
-    <t>01.10.202558</t>
-  </si>
-  <si>
-    <t>01.10.202559</t>
-  </si>
-  <si>
-    <t>01.10.202560</t>
-  </si>
-  <si>
-    <t>01.10.202561</t>
-  </si>
-  <si>
-    <t>01.10.202562</t>
-  </si>
-  <si>
-    <t>01.10.202563</t>
-  </si>
-  <si>
-    <t>01.10.202564</t>
-  </si>
-  <si>
-    <t>01.10.202565</t>
-  </si>
-  <si>
-    <t>01.10.202566</t>
-  </si>
-  <si>
-    <t>01.10.202567</t>
-  </si>
-  <si>
-    <t>01.10.202568</t>
-  </si>
-  <si>
-    <t>01.10.202569</t>
-  </si>
-  <si>
-    <t>01.10.202570</t>
-  </si>
-  <si>
-    <t>01.10.202571</t>
-  </si>
-  <si>
-    <t>01.10.202572</t>
-  </si>
-  <si>
-    <t>01.10.202573</t>
-  </si>
-  <si>
-    <t>01.10.202574</t>
-  </si>
-  <si>
-    <t>01.10.202575</t>
-  </si>
-  <si>
-    <t>01.10.202576</t>
-  </si>
-  <si>
-    <t>01.10.202577</t>
-  </si>
-  <si>
-    <t>01.10.202578</t>
-  </si>
-  <si>
-    <t>01.10.202579</t>
-  </si>
-  <si>
-    <t>01.10.202580</t>
-  </si>
-  <si>
-    <t>01.10.202581</t>
-  </si>
-  <si>
-    <t>01.10.202582</t>
-  </si>
-  <si>
-    <t>01.10.202583</t>
-  </si>
-  <si>
-    <t>01.10.202584</t>
-  </si>
-  <si>
-    <t>01.10.202585</t>
-  </si>
-  <si>
-    <t>01.10.202586</t>
-  </si>
-  <si>
-    <t>01.10.202587</t>
-  </si>
-  <si>
-    <t>01.10.202588</t>
-  </si>
-  <si>
-    <t>01.10.202589</t>
-  </si>
-  <si>
-    <t>01.10.202590</t>
-  </si>
-  <si>
-    <t>01.10.202591</t>
-  </si>
-  <si>
-    <t>01.10.202592</t>
-  </si>
-  <si>
-    <t>02.10.202593</t>
-  </si>
-  <si>
-    <t>02.10.202594</t>
-  </si>
-  <si>
-    <t>02.10.202595</t>
-  </si>
-  <si>
-    <t>02.10.202596</t>
-  </si>
-  <si>
-    <t>02.10.20251</t>
-  </si>
-  <si>
-    <t>02.10.20252</t>
-  </si>
-  <si>
-    <t>02.10.20253</t>
-  </si>
-  <si>
-    <t>02.10.20254</t>
-  </si>
-  <si>
-    <t>02.10.20255</t>
-  </si>
-  <si>
-    <t>02.10.20256</t>
-  </si>
-  <si>
-    <t>02.10.20257</t>
-  </si>
-  <si>
-    <t>02.10.20258</t>
-  </si>
-  <si>
-    <t>02.10.20259</t>
-  </si>
-  <si>
-    <t>02.10.202510</t>
-  </si>
-  <si>
-    <t>02.10.202511</t>
-  </si>
-  <si>
-    <t>02.10.202512</t>
-  </si>
-  <si>
-    <t>02.10.202513</t>
-  </si>
-  <si>
-    <t>02.10.202514</t>
-  </si>
-  <si>
-    <t>02.10.202515</t>
-  </si>
-  <si>
-    <t>02.10.202516</t>
-  </si>
-  <si>
-    <t>02.10.202517</t>
-  </si>
-  <si>
-    <t>02.10.202518</t>
-  </si>
-  <si>
-    <t>02.10.202519</t>
-  </si>
-  <si>
-    <t>02.10.202520</t>
-  </si>
-  <si>
-    <t>02.10.202521</t>
-  </si>
-  <si>
-    <t>02.10.202522</t>
-  </si>
-  <si>
-    <t>02.10.202523</t>
-  </si>
-  <si>
-    <t>02.10.202524</t>
-  </si>
-  <si>
-    <t>02.10.202525</t>
-  </si>
-  <si>
-    <t>02.10.202526</t>
-  </si>
-  <si>
-    <t>02.10.202527</t>
-  </si>
-  <si>
-    <t>02.10.202528</t>
-  </si>
-  <si>
-    <t>02.10.202529</t>
-  </si>
-  <si>
-    <t>02.10.202530</t>
-  </si>
-  <si>
-    <t>02.10.202531</t>
-  </si>
-  <si>
-    <t>02.10.202532</t>
-  </si>
-  <si>
-    <t>02.10.202533</t>
-  </si>
-  <si>
-    <t>02.10.202534</t>
-  </si>
-  <si>
-    <t>02.10.202535</t>
-  </si>
-  <si>
-    <t>02.10.202536</t>
+    <t>14.10.20251</t>
+  </si>
+  <si>
+    <t>14.10.20252</t>
+  </si>
+  <si>
+    <t>14.10.20253</t>
+  </si>
+  <si>
+    <t>14.10.20254</t>
+  </si>
+  <si>
+    <t>14.10.20255</t>
+  </si>
+  <si>
+    <t>14.10.20256</t>
+  </si>
+  <si>
+    <t>14.10.20257</t>
+  </si>
+  <si>
+    <t>14.10.20258</t>
+  </si>
+  <si>
+    <t>14.10.20259</t>
+  </si>
+  <si>
+    <t>14.10.202510</t>
+  </si>
+  <si>
+    <t>14.10.202511</t>
+  </si>
+  <si>
+    <t>14.10.202512</t>
+  </si>
+  <si>
+    <t>14.10.202513</t>
+  </si>
+  <si>
+    <t>14.10.202514</t>
+  </si>
+  <si>
+    <t>14.10.202515</t>
+  </si>
+  <si>
+    <t>14.10.202516</t>
+  </si>
+  <si>
+    <t>14.10.202517</t>
+  </si>
+  <si>
+    <t>14.10.202518</t>
+  </si>
+  <si>
+    <t>14.10.202519</t>
+  </si>
+  <si>
+    <t>14.10.202520</t>
+  </si>
+  <si>
+    <t>14.10.202521</t>
+  </si>
+  <si>
+    <t>14.10.202522</t>
+  </si>
+  <si>
+    <t>14.10.202523</t>
+  </si>
+  <si>
+    <t>14.10.202524</t>
+  </si>
+  <si>
+    <t>14.10.202525</t>
+  </si>
+  <si>
+    <t>14.10.202526</t>
+  </si>
+  <si>
+    <t>14.10.202527</t>
+  </si>
+  <si>
+    <t>14.10.202528</t>
+  </si>
+  <si>
+    <t>14.10.202529</t>
+  </si>
+  <si>
+    <t>14.10.202530</t>
+  </si>
+  <si>
+    <t>14.10.202531</t>
+  </si>
+  <si>
+    <t>14.10.202532</t>
+  </si>
+  <si>
+    <t>14.10.202533</t>
+  </si>
+  <si>
+    <t>14.10.202534</t>
+  </si>
+  <si>
+    <t>14.10.202535</t>
+  </si>
+  <si>
+    <t>14.10.202536</t>
+  </si>
+  <si>
+    <t>14.10.202537</t>
+  </si>
+  <si>
+    <t>14.10.202538</t>
+  </si>
+  <si>
+    <t>14.10.202539</t>
+  </si>
+  <si>
+    <t>14.10.202540</t>
+  </si>
+  <si>
+    <t>14.10.202541</t>
+  </si>
+  <si>
+    <t>14.10.202542</t>
+  </si>
+  <si>
+    <t>14.10.202543</t>
+  </si>
+  <si>
+    <t>14.10.202544</t>
+  </si>
+  <si>
+    <t>14.10.202545</t>
+  </si>
+  <si>
+    <t>14.10.202546</t>
+  </si>
+  <si>
+    <t>14.10.202547</t>
+  </si>
+  <si>
+    <t>14.10.202548</t>
+  </si>
+  <si>
+    <t>14.10.202549</t>
+  </si>
+  <si>
+    <t>14.10.202550</t>
+  </si>
+  <si>
+    <t>14.10.202551</t>
+  </si>
+  <si>
+    <t>14.10.202552</t>
+  </si>
+  <si>
+    <t>14.10.202553</t>
+  </si>
+  <si>
+    <t>14.10.202554</t>
+  </si>
+  <si>
+    <t>14.10.202555</t>
+  </si>
+  <si>
+    <t>14.10.202556</t>
+  </si>
+  <si>
+    <t>14.10.202557</t>
+  </si>
+  <si>
+    <t>14.10.202558</t>
+  </si>
+  <si>
+    <t>14.10.202559</t>
+  </si>
+  <si>
+    <t>14.10.202560</t>
+  </si>
+  <si>
+    <t>14.10.202561</t>
+  </si>
+  <si>
+    <t>14.10.202562</t>
+  </si>
+  <si>
+    <t>14.10.202563</t>
+  </si>
+  <si>
+    <t>14.10.202564</t>
+  </si>
+  <si>
+    <t>14.10.202565</t>
+  </si>
+  <si>
+    <t>14.10.202566</t>
+  </si>
+  <si>
+    <t>14.10.202567</t>
+  </si>
+  <si>
+    <t>14.10.202568</t>
+  </si>
+  <si>
+    <t>14.10.202569</t>
+  </si>
+  <si>
+    <t>14.10.202570</t>
+  </si>
+  <si>
+    <t>14.10.202571</t>
+  </si>
+  <si>
+    <t>14.10.202572</t>
+  </si>
+  <si>
+    <t>14.10.202573</t>
+  </si>
+  <si>
+    <t>14.10.202574</t>
+  </si>
+  <si>
+    <t>14.10.202575</t>
+  </si>
+  <si>
+    <t>14.10.202576</t>
+  </si>
+  <si>
+    <t>14.10.202577</t>
+  </si>
+  <si>
+    <t>14.10.202578</t>
+  </si>
+  <si>
+    <t>14.10.202579</t>
+  </si>
+  <si>
+    <t>14.10.202580</t>
+  </si>
+  <si>
+    <t>14.10.202581</t>
+  </si>
+  <si>
+    <t>14.10.202582</t>
+  </si>
+  <si>
+    <t>14.10.202583</t>
+  </si>
+  <si>
+    <t>14.10.202584</t>
+  </si>
+  <si>
+    <t>14.10.202585</t>
+  </si>
+  <si>
+    <t>14.10.202586</t>
+  </si>
+  <si>
+    <t>14.10.202587</t>
+  </si>
+  <si>
+    <t>14.10.202588</t>
+  </si>
+  <si>
+    <t>14.10.202589</t>
+  </si>
+  <si>
+    <t>14.10.202590</t>
+  </si>
+  <si>
+    <t>14.10.202591</t>
+  </si>
+  <si>
+    <t>14.10.202592</t>
+  </si>
+  <si>
+    <t>15.10.202593</t>
+  </si>
+  <si>
+    <t>15.10.202594</t>
+  </si>
+  <si>
+    <t>15.10.202595</t>
+  </si>
+  <si>
+    <t>15.10.202596</t>
+  </si>
+  <si>
+    <t>15.10.20251</t>
+  </si>
+  <si>
+    <t>15.10.20252</t>
+  </si>
+  <si>
+    <t>15.10.20253</t>
+  </si>
+  <si>
+    <t>15.10.20254</t>
+  </si>
+  <si>
+    <t>15.10.20255</t>
+  </si>
+  <si>
+    <t>15.10.20256</t>
+  </si>
+  <si>
+    <t>15.10.20257</t>
+  </si>
+  <si>
+    <t>15.10.20258</t>
+  </si>
+  <si>
+    <t>15.10.20259</t>
+  </si>
+  <si>
+    <t>15.10.202510</t>
+  </si>
+  <si>
+    <t>15.10.202511</t>
+  </si>
+  <si>
+    <t>15.10.202512</t>
+  </si>
+  <si>
+    <t>15.10.202513</t>
+  </si>
+  <si>
+    <t>15.10.202514</t>
+  </si>
+  <si>
+    <t>15.10.202515</t>
+  </si>
+  <si>
+    <t>15.10.202516</t>
+  </si>
+  <si>
+    <t>15.10.202517</t>
+  </si>
+  <si>
+    <t>15.10.202518</t>
+  </si>
+  <si>
+    <t>15.10.202519</t>
+  </si>
+  <si>
+    <t>15.10.202520</t>
+  </si>
+  <si>
+    <t>15.10.202521</t>
+  </si>
+  <si>
+    <t>15.10.202522</t>
+  </si>
+  <si>
+    <t>15.10.202523</t>
+  </si>
+  <si>
+    <t>15.10.202524</t>
+  </si>
+  <si>
+    <t>15.10.202525</t>
+  </si>
+  <si>
+    <t>15.10.202526</t>
+  </si>
+  <si>
+    <t>15.10.202527</t>
+  </si>
+  <si>
+    <t>15.10.202528</t>
+  </si>
+  <si>
+    <t>15.10.202529</t>
+  </si>
+  <si>
+    <t>15.10.202530</t>
+  </si>
+  <si>
+    <t>15.10.202531</t>
+  </si>
+  <si>
+    <t>15.10.202532</t>
+  </si>
+  <si>
+    <t>15.10.202533</t>
+  </si>
+  <si>
+    <t>15.10.202534</t>
+  </si>
+  <si>
+    <t>15.10.202535</t>
+  </si>
+  <si>
+    <t>15.10.202536</t>
+  </si>
+  <si>
+    <t>15.10.202537</t>
+  </si>
+  <si>
+    <t>15.10.202538</t>
+  </si>
+  <si>
+    <t>15.10.202539</t>
+  </si>
+  <si>
+    <t>15.10.202540</t>
+  </si>
+  <si>
+    <t>15.10.202541</t>
+  </si>
+  <si>
+    <t>15.10.202542</t>
+  </si>
+  <si>
+    <t>15.10.202543</t>
+  </si>
+  <si>
+    <t>15.10.202544</t>
+  </si>
+  <si>
+    <t>15.10.202545</t>
+  </si>
+  <si>
+    <t>15.10.202546</t>
+  </si>
+  <si>
+    <t>15.10.202547</t>
+  </si>
+  <si>
+    <t>15.10.202548</t>
+  </si>
+  <si>
+    <t>15.10.202549</t>
+  </si>
+  <si>
+    <t>15.10.202550</t>
+  </si>
+  <si>
+    <t>15.10.202551</t>
+  </si>
+  <si>
+    <t>15.10.202552</t>
+  </si>
+  <si>
+    <t>15.10.202553</t>
+  </si>
+  <si>
+    <t>15.10.202554</t>
+  </si>
+  <si>
+    <t>15.10.202555</t>
+  </si>
+  <si>
+    <t>15.10.202556</t>
+  </si>
+  <si>
+    <t>15.10.202557</t>
+  </si>
+  <si>
+    <t>15.10.202558</t>
+  </si>
+  <si>
+    <t>15.10.202559</t>
+  </si>
+  <si>
+    <t>15.10.202560</t>
+  </si>
+  <si>
+    <t>15.10.202561</t>
+  </si>
+  <si>
+    <t>15.10.202562</t>
+  </si>
+  <si>
+    <t>15.10.202563</t>
+  </si>
+  <si>
+    <t>15.10.202564</t>
+  </si>
+  <si>
+    <t>15.10.202565</t>
+  </si>
+  <si>
+    <t>15.10.202566</t>
+  </si>
+  <si>
+    <t>15.10.202567</t>
+  </si>
+  <si>
+    <t>15.10.202568</t>
+  </si>
+  <si>
+    <t>15.10.202569</t>
+  </si>
+  <si>
+    <t>15.10.202570</t>
+  </si>
+  <si>
+    <t>15.10.202571</t>
+  </si>
+  <si>
+    <t>15.10.202572</t>
+  </si>
+  <si>
+    <t>15.10.202573</t>
+  </si>
+  <si>
+    <t>15.10.202574</t>
+  </si>
+  <si>
+    <t>15.10.202575</t>
+  </si>
+  <si>
+    <t>15.10.202576</t>
+  </si>
+  <si>
+    <t>15.10.202577</t>
+  </si>
+  <si>
+    <t>15.10.202578</t>
+  </si>
+  <si>
+    <t>15.10.202579</t>
+  </si>
+  <si>
+    <t>15.10.202580</t>
+  </si>
+  <si>
+    <t>15.10.202581</t>
+  </si>
+  <si>
+    <t>15.10.202582</t>
+  </si>
+  <si>
+    <t>15.10.202583</t>
+  </si>
+  <si>
+    <t>15.10.202584</t>
+  </si>
+  <si>
+    <t>15.10.202585</t>
+  </si>
+  <si>
+    <t>15.10.202586</t>
+  </si>
+  <si>
+    <t>15.10.202587</t>
+  </si>
+  <si>
+    <t>15.10.202588</t>
+  </si>
+  <si>
+    <t>15.10.202589</t>
+  </si>
+  <si>
+    <t>15.10.202590</t>
+  </si>
+  <si>
+    <t>15.10.202591</t>
+  </si>
+  <si>
+    <t>15.10.202592</t>
+  </si>
+  <si>
+    <t>16.10.202593</t>
+  </si>
+  <si>
+    <t>16.10.202594</t>
+  </si>
+  <si>
+    <t>16.10.202595</t>
+  </si>
+  <si>
+    <t>16.10.202596</t>
+  </si>
+  <si>
+    <t>16.10.20251</t>
+  </si>
+  <si>
+    <t>16.10.20252</t>
+  </si>
+  <si>
+    <t>16.10.20253</t>
+  </si>
+  <si>
+    <t>16.10.20254</t>
+  </si>
+  <si>
+    <t>16.10.20255</t>
+  </si>
+  <si>
+    <t>16.10.20256</t>
+  </si>
+  <si>
+    <t>16.10.20257</t>
+  </si>
+  <si>
+    <t>16.10.20258</t>
+  </si>
+  <si>
+    <t>16.10.20259</t>
+  </si>
+  <si>
+    <t>16.10.202510</t>
+  </si>
+  <si>
+    <t>16.10.202511</t>
+  </si>
+  <si>
+    <t>16.10.202512</t>
+  </si>
+  <si>
+    <t>16.10.202513</t>
+  </si>
+  <si>
+    <t>16.10.202514</t>
+  </si>
+  <si>
+    <t>16.10.202515</t>
+  </si>
+  <si>
+    <t>16.10.202516</t>
+  </si>
+  <si>
+    <t>16.10.202517</t>
+  </si>
+  <si>
+    <t>16.10.202518</t>
+  </si>
+  <si>
+    <t>16.10.202519</t>
+  </si>
+  <si>
+    <t>16.10.202520</t>
+  </si>
+  <si>
+    <t>16.10.202521</t>
+  </si>
+  <si>
+    <t>16.10.202522</t>
+  </si>
+  <si>
+    <t>16.10.202523</t>
+  </si>
+  <si>
+    <t>16.10.202524</t>
+  </si>
+  <si>
+    <t>16.10.202525</t>
+  </si>
+  <si>
+    <t>16.10.202526</t>
+  </si>
+  <si>
+    <t>16.10.202527</t>
+  </si>
+  <si>
+    <t>16.10.202528</t>
+  </si>
+  <si>
+    <t>16.10.202529</t>
+  </si>
+  <si>
+    <t>16.10.202530</t>
+  </si>
+  <si>
+    <t>16.10.202531</t>
+  </si>
+  <si>
+    <t>16.10.202532</t>
+  </si>
+  <si>
+    <t>16.10.202533</t>
+  </si>
+  <si>
+    <t>16.10.202534</t>
+  </si>
+  <si>
+    <t>16.10.202535</t>
+  </si>
+  <si>
+    <t>16.10.202536</t>
+  </si>
+  <si>
+    <t>16.10.202537</t>
+  </si>
+  <si>
+    <t>16.10.202538</t>
   </si>
 </sst>
 </file>
@@ -786,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,13 +1105,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45931.04166666666</v>
+        <v>45944.04166666666</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C2">
-        <v>14.067</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -828,13 +1122,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45931.05208333334</v>
+        <v>45944.05208333334</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.458</v>
       </c>
       <c r="C3">
-        <v>18.367</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -845,13 +1139,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45931.0625</v>
+        <v>45944.0625</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.694</v>
       </c>
       <c r="C4">
-        <v>14.555</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -862,13 +1156,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45931.07291666666</v>
+        <v>45944.07291666666</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25.129</v>
+        <v>3.56</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -879,13 +1173,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45931.08333333334</v>
+        <v>45944.08333333334</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.993</v>
       </c>
       <c r="C6">
-        <v>18.893</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -896,13 +1190,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45931.09375</v>
+        <v>45944.09375</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.036</v>
+        <v>14.084</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -913,13 +1207,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45931.10416666666</v>
+        <v>45944.10416666666</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>14.427</v>
+        <v>3.747</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -930,13 +1224,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45931.11458333334</v>
+        <v>45944.11458333334</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.671</v>
       </c>
       <c r="C9">
-        <v>15.72</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -947,13 +1241,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45931.125</v>
+        <v>45944.125</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>22.357</v>
+        <v>3.59</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -964,13 +1258,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45931.13541666666</v>
+        <v>45944.13541666666</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15.964</v>
+        <v>14.76</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -981,13 +1275,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45931.14583333334</v>
+        <v>45944.14583333334</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>21.423</v>
+        <v>12.575</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -998,13 +1292,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45931.15625</v>
+        <v>45944.15625</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>19.024</v>
+        <v>14.553</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1015,13 +1309,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45931.16666666666</v>
+        <v>45944.16666666666</v>
       </c>
       <c r="B14">
-        <v>2.873</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3.832</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1032,10 +1326,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45931.17708333334</v>
+        <v>45944.17708333334</v>
       </c>
       <c r="B15">
-        <v>1.22</v>
+        <v>1.662</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1049,13 +1343,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45931.1875</v>
+        <v>45944.1875</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02</v>
+        <v>2.589</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1066,13 +1360,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45931.19791666666</v>
+        <v>45944.19791666666</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.862</v>
+        <v>3.099</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1083,13 +1377,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45931.20833333334</v>
+        <v>45944.20833333334</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>26.861</v>
+        <v>21.073</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1100,13 +1394,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45931.21875</v>
+        <v>45944.21875</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>30.978</v>
+        <v>9.419</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1117,13 +1411,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45931.22916666666</v>
+        <v>45944.22916666666</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>18.181</v>
+        <v>3.732</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1134,13 +1428,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45931.23958333334</v>
+        <v>45944.23958333334</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>9.263999999999999</v>
       </c>
       <c r="C21">
-        <v>6.761</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1151,13 +1445,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45931.25</v>
+        <v>45944.25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3.582</v>
       </c>
       <c r="C22">
-        <v>19.762</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1168,13 +1462,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45931.26041666666</v>
+        <v>45944.26041666666</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>6.171</v>
       </c>
       <c r="C23">
-        <v>11.744</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1185,13 +1479,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45931.27083333334</v>
+        <v>45944.27083333334</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5.952</v>
       </c>
       <c r="C24">
-        <v>7.303</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1202,13 +1496,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45931.28125</v>
+        <v>45944.28125</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="C25">
-        <v>5.996</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1219,13 +1513,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45931.29166666666</v>
+        <v>45944.29166666666</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>4.396</v>
+        <v>10.817</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1236,13 +1530,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45931.30208333334</v>
+        <v>45944.30208333334</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>5.005</v>
+        <v>10.324</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1253,13 +1547,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45931.3125</v>
+        <v>45944.3125</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>7.33</v>
+        <v>17.893</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1270,13 +1564,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45931.32291666666</v>
+        <v>45944.32291666666</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>16.004</v>
+        <v>32.236</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1287,13 +1581,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45931.33333333334</v>
+        <v>45944.33333333334</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3.871</v>
+        <v>3.251</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1304,13 +1598,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45931.34375</v>
+        <v>45944.34375</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>20.71</v>
+        <v>8.721</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1321,13 +1615,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45931.35416666666</v>
+        <v>45944.35416666666</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4.692</v>
+        <v>25.759</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1338,13 +1632,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45931.36458333334</v>
+        <v>45944.36458333334</v>
       </c>
       <c r="B33">
-        <v>2.778</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>12.311</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1355,13 +1649,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45931.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B34">
-        <v>0.624</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>4.622</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1372,13 +1666,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45931.38541666666</v>
+        <v>45944.38541666666</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>4.703</v>
+        <v>8.013</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1389,13 +1683,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45931.39583333334</v>
+        <v>45944.39583333334</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.914</v>
+        <v>13.061</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1406,13 +1700,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45931.40625</v>
+        <v>45944.40625</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>17.712</v>
+        <v>6.53</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1423,13 +1717,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45931.41666666666</v>
+        <v>45944.41666666666</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>18.292</v>
+        <v>6.308</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1440,13 +1734,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45931.42708333334</v>
+        <v>45944.42708333334</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>14.71</v>
+        <v>1.643</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1457,13 +1751,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45931.4375</v>
+        <v>45944.4375</v>
       </c>
       <c r="B40">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>3.702</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1474,13 +1768,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45931.44791666666</v>
+        <v>45944.44791666666</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>6.807</v>
+        <v>10.311</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1491,13 +1785,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45931.45833333334</v>
+        <v>45944.45833333334</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>16.008</v>
+        <v>4.044</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1508,13 +1802,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45931.46875</v>
+        <v>45944.46875</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>20.617</v>
+        <v>12.594</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1525,13 +1819,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45931.47916666666</v>
+        <v>45944.47916666666</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>6.826</v>
+        <v>37.926</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1542,13 +1836,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45931.48958333334</v>
+        <v>45944.48958333334</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>8.728</v>
+        <v>19.646</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1559,13 +1853,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45931.5</v>
+        <v>45944.5</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>20.815</v>
+        <v>45.737</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1576,13 +1870,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45931.51041666666</v>
+        <v>45944.51041666666</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>43.312</v>
+        <v>10.86</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1593,13 +1887,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45931.52083333334</v>
+        <v>45944.52083333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>5.476</v>
       </c>
       <c r="C48">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1610,13 +1904,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45931.53125</v>
+        <v>45944.53125</v>
       </c>
       <c r="B49">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.912</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1627,10 +1921,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45931.54166666666</v>
+        <v>45944.54166666666</v>
       </c>
       <c r="B50">
-        <v>1.557</v>
+        <v>0.364</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1644,10 +1938,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45931.55208333334</v>
+        <v>45944.55208333334</v>
       </c>
       <c r="B51">
-        <v>41.474</v>
+        <v>8.134</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1661,10 +1955,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45931.5625</v>
+        <v>45944.5625</v>
       </c>
       <c r="B52">
-        <v>6.064</v>
+        <v>19.011</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1678,10 +1972,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45931.57291666666</v>
+        <v>45944.57291666666</v>
       </c>
       <c r="B53">
-        <v>0.651</v>
+        <v>33.004</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1695,13 +1989,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45931.58333333334</v>
+        <v>45944.58333333334</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>8.664</v>
       </c>
       <c r="C54">
-        <v>8.965</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1712,10 +2006,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45931.59375</v>
+        <v>45944.59375</v>
       </c>
       <c r="B55">
-        <v>2.036</v>
+        <v>11.886</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1729,13 +2023,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45931.60416666666</v>
+        <v>45944.60416666666</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1.047</v>
+        <v>18.789</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1746,13 +2040,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45931.61458333334</v>
+        <v>45944.61458333334</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>22.306</v>
+        <v>18.172</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1763,13 +2057,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45931.625</v>
+        <v>45944.625</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0.475</v>
+        <v>28.853</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1780,13 +2074,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45931.63541666666</v>
+        <v>45944.63541666666</v>
       </c>
       <c r="B59">
-        <v>16.665</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>40.252</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1797,13 +2091,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45931.64583333334</v>
+        <v>45944.64583333334</v>
       </c>
       <c r="B60">
-        <v>4.708</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>42.341</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1814,13 +2108,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45931.65625</v>
+        <v>45944.65625</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>3.736</v>
+        <v>49.208</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1831,13 +2125,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45931.66666666666</v>
+        <v>45944.66666666666</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>27.954</v>
+        <v>44.908</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1848,13 +2142,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45931.67708333334</v>
+        <v>45944.67708333334</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>42.533</v>
+        <v>43.704</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1865,13 +2159,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45931.6875</v>
+        <v>45944.6875</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>74.989</v>
+        <v>27.145</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1882,13 +2176,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45931.69791666666</v>
+        <v>45944.69791666666</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>93.649</v>
+        <v>4.542</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1899,13 +2193,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45931.70833333334</v>
+        <v>45944.70833333334</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>95.77800000000001</v>
+        <v>8.015000000000001</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1916,13 +2210,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45931.71875</v>
+        <v>45944.71875</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>9.077999999999999</v>
+        <v>14.669</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1933,13 +2227,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45931.72916666666</v>
+        <v>45944.72916666666</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>13.436</v>
+        <v>6.496</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1950,13 +2244,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45931.73958333334</v>
+        <v>45944.73958333334</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>28.21</v>
+        <v>3.733</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1967,13 +2261,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45931.75</v>
+        <v>45944.75</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>27.846</v>
+        <v>24.942</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1984,13 +2278,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45931.76041666666</v>
+        <v>45944.76041666666</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>30.65</v>
+        <v>30.683</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2001,13 +2295,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45931.77083333334</v>
+        <v>45944.77083333334</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>17.314</v>
+        <v>12.081</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2018,13 +2312,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45931.78125</v>
+        <v>45944.78125</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>19.894</v>
+        <v>19.512</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2035,13 +2329,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45931.79166666666</v>
+        <v>45944.79166666666</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>19.894</v>
+        <v>21.012</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2052,13 +2346,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45931.80208333334</v>
+        <v>45944.80208333334</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>16.779</v>
+        <v>6.767</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2069,13 +2363,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45931.8125</v>
+        <v>45944.8125</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>15.714</v>
+        <v>10.896</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2086,13 +2380,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45931.82291666666</v>
+        <v>45944.82291666666</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>8.101000000000001</v>
+        <v>18.307</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2103,13 +2397,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45931.83333333334</v>
+        <v>45944.83333333334</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>3.39</v>
+        <v>13.708</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2120,13 +2414,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45931.84375</v>
+        <v>45944.84375</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>5.028</v>
+        <v>5.97</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2137,13 +2431,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45931.85416666666</v>
+        <v>45944.85416666666</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>3.037</v>
+        <v>8.308</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2154,13 +2448,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45931.86458333334</v>
+        <v>45944.86458333334</v>
       </c>
       <c r="B81">
-        <v>17.398</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>2.518</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2171,10 +2465,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45931.875</v>
+        <v>45944.875</v>
       </c>
       <c r="B82">
-        <v>19.232</v>
+        <v>0.534</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2188,10 +2482,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45931.88541666666</v>
+        <v>45944.88541666666</v>
       </c>
       <c r="B83">
-        <v>4.043</v>
+        <v>7.615</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2205,10 +2499,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45931.89583333334</v>
+        <v>45944.89583333334</v>
       </c>
       <c r="B84">
-        <v>1.386</v>
+        <v>3.948</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2222,13 +2516,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45931.90625</v>
+        <v>45944.90625</v>
       </c>
       <c r="B85">
-        <v>6.666</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1.193</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2239,13 +2533,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45931.91666666666</v>
+        <v>45944.91666666666</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1.509</v>
       </c>
       <c r="C86">
-        <v>8.581</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2256,13 +2550,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45931.92708333334</v>
+        <v>45944.92708333334</v>
       </c>
       <c r="B87">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>15.739</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2273,13 +2567,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45931.9375</v>
+        <v>45944.9375</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>5.197</v>
+        <v>2.096</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2290,13 +2584,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45931.94791666666</v>
+        <v>45944.94791666666</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0.416</v>
+        <v>10.018</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2307,13 +2601,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45931.95833333334</v>
+        <v>45944.95833333334</v>
       </c>
       <c r="B90">
-        <v>8.121</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>2.611</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2324,13 +2618,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45931.96875</v>
+        <v>45944.96875</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>9.489000000000001</v>
+        <v>16.854</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2341,13 +2635,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45931.97916666666</v>
+        <v>45944.97916666666</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>6.223</v>
+        <v>20.338</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2358,13 +2652,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45931.98958333334</v>
+        <v>45944.98958333334</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>8.962</v>
+        <v>16.176</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2375,13 +2669,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="B94">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>22.561</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2392,13 +2686,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45932.01041666666</v>
+        <v>45945.01041666666</v>
       </c>
       <c r="B95">
-        <v>5.116</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>22.818</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2409,13 +2703,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45932.02083333334</v>
+        <v>45945.02083333334</v>
       </c>
       <c r="B96">
-        <v>0.766</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>26.962</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2426,13 +2720,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45932.03125</v>
+        <v>45945.03125</v>
       </c>
       <c r="B97">
-        <v>7.373</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>36.998</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2443,13 +2737,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45932.04166666666</v>
+        <v>45945.04166666666</v>
       </c>
       <c r="B98">
-        <v>17.767</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>24.188</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2460,13 +2754,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45932.05208333334</v>
+        <v>45945.05208333334</v>
       </c>
       <c r="B99">
-        <v>13.568</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>17.951</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2477,13 +2771,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45932.0625</v>
+        <v>45945.0625</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0.179</v>
+        <v>5.473</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2494,13 +2788,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45932.07291666666</v>
+        <v>45945.07291666666</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0.042</v>
+        <v>16.783</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2511,13 +2805,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45932.08333333334</v>
+        <v>45945.08333333334</v>
       </c>
       <c r="B102">
-        <v>6.362</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>26.182</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2528,13 +2822,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45932.09375</v>
+        <v>45945.09375</v>
       </c>
       <c r="B103">
-        <v>4.401</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>20.602</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2545,13 +2839,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45932.10416666666</v>
+        <v>45945.10416666666</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>0.802</v>
+        <v>36.632</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2562,13 +2856,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45932.11458333334</v>
+        <v>45945.11458333334</v>
       </c>
       <c r="B105">
-        <v>5.035</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>30.645</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2579,13 +2873,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45932.125</v>
+        <v>45945.125</v>
       </c>
       <c r="B106">
-        <v>6.489</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>23.276</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2596,13 +2890,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45932.13541666666</v>
+        <v>45945.13541666666</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>2.171</v>
+        <v>9.193</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2613,10 +2907,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45932.14583333334</v>
+        <v>45945.14583333334</v>
       </c>
       <c r="B108">
-        <v>1.297</v>
+        <v>2.922</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2630,10 +2924,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45932.15625</v>
+        <v>45945.15625</v>
       </c>
       <c r="B109">
-        <v>3.389</v>
+        <v>2.02</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2647,10 +2941,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45932.16666666666</v>
+        <v>45945.16666666666</v>
       </c>
       <c r="B110">
-        <v>22.288</v>
+        <v>1.834</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2664,13 +2958,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45932.17708333334</v>
+        <v>45945.17708333334</v>
       </c>
       <c r="B111">
-        <v>31.928</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2681,13 +2975,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45932.1875</v>
+        <v>45945.1875</v>
       </c>
       <c r="B112">
-        <v>12.569</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>0.974</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2698,10 +2992,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45932.19791666666</v>
+        <v>45945.19791666666</v>
       </c>
       <c r="B113">
-        <v>4.857</v>
+        <v>4.404</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2715,13 +3009,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45932.20833333334</v>
+        <v>45945.20833333334</v>
       </c>
       <c r="B114">
-        <v>3.87</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1.637</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2732,13 +3026,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45932.21875</v>
+        <v>45945.21875</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>11.425</v>
       </c>
       <c r="C115">
-        <v>21.613</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2749,13 +3043,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45932.22916666666</v>
+        <v>45945.22916666666</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>16.067</v>
       </c>
       <c r="C116">
-        <v>7.514</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2766,10 +3060,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45932.23958333334</v>
+        <v>45945.23958333334</v>
       </c>
       <c r="B117">
-        <v>8.34</v>
+        <v>6.481</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2783,10 +3077,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45932.25</v>
+        <v>45945.25</v>
       </c>
       <c r="B118">
-        <v>9.65</v>
+        <v>0.043</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2800,10 +3094,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45932.26041666666</v>
+        <v>45945.26041666666</v>
       </c>
       <c r="B119">
-        <v>3.62</v>
+        <v>10.89</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2817,10 +3111,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45932.27083333334</v>
+        <v>45945.27083333334</v>
       </c>
       <c r="B120">
-        <v>12.904</v>
+        <v>2.463</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2834,10 +3128,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45932.28125</v>
+        <v>45945.28125</v>
       </c>
       <c r="B121">
-        <v>13.621</v>
+        <v>15.622</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2851,13 +3145,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45932.29166666666</v>
+        <v>45945.29166666666</v>
       </c>
       <c r="B122">
-        <v>7.396</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1.698</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -2868,13 +3162,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45932.30208333334</v>
+        <v>45945.30208333334</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>0.364</v>
       </c>
       <c r="C123">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -2885,13 +3179,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45932.3125</v>
+        <v>45945.3125</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>3.337</v>
       </c>
       <c r="C124">
-        <v>2.367</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -2902,10 +3196,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45932.32291666666</v>
+        <v>45945.32291666666</v>
       </c>
       <c r="B125">
-        <v>0.458</v>
+        <v>3.69</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2919,10 +3213,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45932.33333333334</v>
+        <v>45945.33333333334</v>
       </c>
       <c r="B126">
-        <v>2.169</v>
+        <v>9.766999999999999</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2936,13 +3230,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45932.34375</v>
+        <v>45945.34375</v>
       </c>
       <c r="B127">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1.783</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -2953,13 +3247,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45932.35416666666</v>
+        <v>45945.35416666666</v>
       </c>
       <c r="B128">
-        <v>13.802</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>6.222</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -2970,10 +3264,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45932.36458333334</v>
+        <v>45945.36458333334</v>
       </c>
       <c r="B129">
-        <v>29.297</v>
+        <v>1.653</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2987,13 +3281,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45932.375</v>
+        <v>45945.375</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="C130">
-        <v>8.151</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3004,13 +3298,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45932.38541666666</v>
+        <v>45945.38541666666</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="C131">
-        <v>51.756</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3021,13 +3315,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45932.39583333334</v>
+        <v>45945.39583333334</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>5.539</v>
       </c>
       <c r="C132">
-        <v>13.474</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3038,19 +3332,1685 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45932.40625</v>
+        <v>45945.40625</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>44.795</v>
+        <v>3.055</v>
       </c>
       <c r="D133">
         <v>36</v>
       </c>
       <c r="E133" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45945.41666666666</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>8.433999999999999</v>
+      </c>
+      <c r="D134">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45945.42708333334</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>7.737</v>
+      </c>
+      <c r="D135">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45945.4375</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>10.386</v>
+      </c>
+      <c r="D136">
+        <v>39</v>
+      </c>
+      <c r="E136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45945.44791666666</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>11.241</v>
+      </c>
+      <c r="D137">
+        <v>40</v>
+      </c>
+      <c r="E137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>11.894</v>
+      </c>
+      <c r="D138">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45945.46875</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>18.077</v>
+      </c>
+      <c r="D139">
+        <v>42</v>
+      </c>
+      <c r="E139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45945.47916666666</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>7.933</v>
+      </c>
+      <c r="D140">
+        <v>43</v>
+      </c>
+      <c r="E140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45945.48958333334</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>12.604</v>
+      </c>
+      <c r="D141">
+        <v>44</v>
+      </c>
+      <c r="E141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45945.5</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>15.148</v>
+      </c>
+      <c r="D142">
+        <v>45</v>
+      </c>
+      <c r="E142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45945.51041666666</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0.896</v>
+      </c>
+      <c r="D143">
+        <v>46</v>
+      </c>
+      <c r="E143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45945.52083333334</v>
+      </c>
+      <c r="B144">
+        <v>0.393</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>47</v>
+      </c>
+      <c r="E144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45945.53125</v>
+      </c>
+      <c r="B145">
+        <v>5.771</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>48</v>
+      </c>
+      <c r="E145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45945.54166666666</v>
+      </c>
+      <c r="B146">
+        <v>0.3</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>49</v>
+      </c>
+      <c r="E146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45945.55208333334</v>
+      </c>
+      <c r="B147">
+        <v>5.607</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45945.5625</v>
+      </c>
+      <c r="B148">
+        <v>19.604</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>51</v>
+      </c>
+      <c r="E148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45945.57291666666</v>
+      </c>
+      <c r="B149">
+        <v>2.731</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>52</v>
+      </c>
+      <c r="E149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45945.58333333334</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>1.822</v>
+      </c>
+      <c r="D150">
+        <v>53</v>
+      </c>
+      <c r="E150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45945.59375</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0.315</v>
+      </c>
+      <c r="D151">
+        <v>54</v>
+      </c>
+      <c r="E151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45945.60416666666</v>
+      </c>
+      <c r="B152">
+        <v>4.485</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>55</v>
+      </c>
+      <c r="E152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45945.61458333334</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>8.861000000000001</v>
+      </c>
+      <c r="D153">
+        <v>56</v>
+      </c>
+      <c r="E153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45945.625</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>14.808</v>
+      </c>
+      <c r="D154">
+        <v>57</v>
+      </c>
+      <c r="E154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45945.63541666666</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>10.29</v>
+      </c>
+      <c r="D155">
+        <v>58</v>
+      </c>
+      <c r="E155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45945.64583333334</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>25.905</v>
+      </c>
+      <c r="D156">
+        <v>59</v>
+      </c>
+      <c r="E156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45945.65625</v>
+      </c>
+      <c r="B157">
+        <v>4.119</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>60</v>
+      </c>
+      <c r="E157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45945.66666666666</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>1.663</v>
+      </c>
+      <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45945.67708333334</v>
+      </c>
+      <c r="B159">
+        <v>1.999</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>62</v>
+      </c>
+      <c r="E159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45945.6875</v>
+      </c>
+      <c r="B160">
+        <v>5.878</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>63</v>
+      </c>
+      <c r="E160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45945.69791666666</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>1.056</v>
+      </c>
+      <c r="D161">
+        <v>64</v>
+      </c>
+      <c r="E161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45945.70833333334</v>
+      </c>
+      <c r="B162">
+        <v>12.309</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>65</v>
+      </c>
+      <c r="E162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45945.71875</v>
+      </c>
+      <c r="B163">
+        <v>1.27</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>66</v>
+      </c>
+      <c r="E163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45945.72916666666</v>
+      </c>
+      <c r="B164">
+        <v>6.905</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>67</v>
+      </c>
+      <c r="E164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45945.73958333334</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>28.188</v>
+      </c>
+      <c r="D165">
+        <v>68</v>
+      </c>
+      <c r="E165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45945.75</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>6.233</v>
+      </c>
+      <c r="D166">
+        <v>69</v>
+      </c>
+      <c r="E166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45945.76041666666</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>20.047</v>
+      </c>
+      <c r="D167">
+        <v>70</v>
+      </c>
+      <c r="E167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45945.77083333334</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>18.477</v>
+      </c>
+      <c r="D168">
+        <v>71</v>
+      </c>
+      <c r="E168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45945.78125</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>10.494</v>
+      </c>
+      <c r="D169">
+        <v>72</v>
+      </c>
+      <c r="E169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45945.79166666666</v>
+      </c>
+      <c r="B170">
+        <v>19.37</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>73</v>
+      </c>
+      <c r="E170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45945.80208333334</v>
+      </c>
+      <c r="B171">
+        <v>5.042</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>74</v>
+      </c>
+      <c r="E171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45945.8125</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>3.091</v>
+      </c>
+      <c r="D172">
+        <v>75</v>
+      </c>
+      <c r="E172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45945.82291666666</v>
+      </c>
+      <c r="B173">
+        <v>4.622</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>76</v>
+      </c>
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45945.83333333334</v>
+      </c>
+      <c r="B174">
+        <v>0.435</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>77</v>
+      </c>
+      <c r="E174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45945.84375</v>
+      </c>
+      <c r="B175">
+        <v>0.446</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>78</v>
+      </c>
+      <c r="E175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45945.85416666666</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>3.74</v>
+      </c>
+      <c r="D176">
+        <v>79</v>
+      </c>
+      <c r="E176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45945.86458333334</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>13.431</v>
+      </c>
+      <c r="D177">
+        <v>80</v>
+      </c>
+      <c r="E177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45945.875</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>4.377</v>
+      </c>
+      <c r="D178">
+        <v>81</v>
+      </c>
+      <c r="E178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45945.88541666666</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>5.135</v>
+      </c>
+      <c r="D179">
+        <v>82</v>
+      </c>
+      <c r="E179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45945.89583333334</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>33.945</v>
+      </c>
+      <c r="D180">
+        <v>83</v>
+      </c>
+      <c r="E180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45945.90625</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>20.19</v>
+      </c>
+      <c r="D181">
+        <v>84</v>
+      </c>
+      <c r="E181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45945.91666666666</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>29.289</v>
+      </c>
+      <c r="D182">
+        <v>85</v>
+      </c>
+      <c r="E182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45945.92708333334</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>30.91</v>
+      </c>
+      <c r="D183">
+        <v>86</v>
+      </c>
+      <c r="E183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45945.9375</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>14.402</v>
+      </c>
+      <c r="D184">
+        <v>87</v>
+      </c>
+      <c r="E184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45945.94791666666</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>7.997</v>
+      </c>
+      <c r="D185">
+        <v>88</v>
+      </c>
+      <c r="E185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45945.95833333334</v>
+      </c>
+      <c r="B186">
+        <v>0.336</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>89</v>
+      </c>
+      <c r="E186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45945.96875</v>
+      </c>
+      <c r="B187">
+        <v>11.298</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>90</v>
+      </c>
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45945.97916666666</v>
+      </c>
+      <c r="B188">
+        <v>4.25</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>91</v>
+      </c>
+      <c r="E188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45945.98958333334</v>
+      </c>
+      <c r="B189">
+        <v>7.715</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>92</v>
+      </c>
+      <c r="E189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B190">
+        <v>26.029</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>93</v>
+      </c>
+      <c r="E190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45946.01041666666</v>
+      </c>
+      <c r="B191">
+        <v>13.195</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>94</v>
+      </c>
+      <c r="E191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45946.02083333334</v>
+      </c>
+      <c r="B192">
+        <v>29.661</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>95</v>
+      </c>
+      <c r="E192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45946.03125</v>
+      </c>
+      <c r="B193">
+        <v>26.139</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>96</v>
+      </c>
+      <c r="E193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45946.04166666666</v>
+      </c>
+      <c r="B194">
+        <v>35.271</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45946.05208333334</v>
+      </c>
+      <c r="B195">
+        <v>18.944</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45946.0625</v>
+      </c>
+      <c r="B196">
+        <v>15.55</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45946.07291666666</v>
+      </c>
+      <c r="B197">
+        <v>7.27</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45946.08333333334</v>
+      </c>
+      <c r="B198">
+        <v>0.391</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45946.09375</v>
+      </c>
+      <c r="B199">
+        <v>7.068</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45946.10416666666</v>
+      </c>
+      <c r="B200">
+        <v>10.502</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45946.11458333334</v>
+      </c>
+      <c r="B201">
+        <v>8.331</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45946.125</v>
+      </c>
+      <c r="B202">
+        <v>5.299</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45946.13541666666</v>
+      </c>
+      <c r="B203">
+        <v>16.185</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45946.14583333334</v>
+      </c>
+      <c r="B204">
+        <v>18.099</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45946.15625</v>
+      </c>
+      <c r="B205">
+        <v>25.505</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45946.16666666666</v>
+      </c>
+      <c r="B206">
+        <v>6.425</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45946.17708333334</v>
+      </c>
+      <c r="B207">
+        <v>21.859</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45946.1875</v>
+      </c>
+      <c r="B208">
+        <v>20.277</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45946.19791666666</v>
+      </c>
+      <c r="B209">
+        <v>13.904</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45946.20833333334</v>
+      </c>
+      <c r="B210">
+        <v>0.382</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45946.21875</v>
+      </c>
+      <c r="B211">
+        <v>8.467000000000001</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45946.22916666666</v>
+      </c>
+      <c r="B212">
+        <v>5.503</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45946.23958333334</v>
+      </c>
+      <c r="B213">
+        <v>13.944</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45946.25</v>
+      </c>
+      <c r="B214">
+        <v>8.608000000000001</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45946.26041666666</v>
+      </c>
+      <c r="B215">
+        <v>10.37</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45946.27083333334</v>
+      </c>
+      <c r="B216">
+        <v>17.62</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45946.28125</v>
+      </c>
+      <c r="B217">
+        <v>11.526</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45946.29166666666</v>
+      </c>
+      <c r="B218">
+        <v>25.835</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45946.30208333334</v>
+      </c>
+      <c r="B219">
+        <v>6.607</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45946.3125</v>
+      </c>
+      <c r="B220">
+        <v>12.268</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45946.32291666666</v>
+      </c>
+      <c r="B221">
+        <v>1.174</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45946.33333333334</v>
+      </c>
+      <c r="B222">
+        <v>27.44</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45946.34375</v>
+      </c>
+      <c r="B223">
+        <v>2.437</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45946.35416666666</v>
+      </c>
+      <c r="B224">
+        <v>17.83</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45946.36458333334</v>
+      </c>
+      <c r="B225">
+        <v>4.549</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45946.375</v>
+      </c>
+      <c r="B226">
+        <v>27.405</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45946.38541666666</v>
+      </c>
+      <c r="B227">
+        <v>38.468</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45946.39583333334</v>
+      </c>
+      <c r="B228">
+        <v>39.915</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45946.40625</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>1.304</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45946.41666666666</v>
+      </c>
+      <c r="B230">
+        <v>23.033</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45946.42708333334</v>
+      </c>
+      <c r="B231">
+        <v>3.097</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,373 +31,382 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.10.20251</t>
-  </si>
-  <si>
-    <t>23.10.20252</t>
-  </si>
-  <si>
-    <t>23.10.20253</t>
-  </si>
-  <si>
-    <t>23.10.20254</t>
-  </si>
-  <si>
-    <t>23.10.20255</t>
-  </si>
-  <si>
-    <t>23.10.20256</t>
-  </si>
-  <si>
-    <t>23.10.20257</t>
-  </si>
-  <si>
-    <t>23.10.20258</t>
-  </si>
-  <si>
-    <t>23.10.20259</t>
-  </si>
-  <si>
-    <t>23.10.202510</t>
-  </si>
-  <si>
-    <t>23.10.202511</t>
-  </si>
-  <si>
-    <t>23.10.202512</t>
-  </si>
-  <si>
-    <t>23.10.202513</t>
-  </si>
-  <si>
-    <t>23.10.202514</t>
-  </si>
-  <si>
-    <t>23.10.202515</t>
-  </si>
-  <si>
-    <t>23.10.202516</t>
-  </si>
-  <si>
-    <t>23.10.202517</t>
-  </si>
-  <si>
-    <t>23.10.202518</t>
-  </si>
-  <si>
-    <t>23.10.202519</t>
-  </si>
-  <si>
-    <t>23.10.202520</t>
-  </si>
-  <si>
-    <t>23.10.202521</t>
-  </si>
-  <si>
-    <t>23.10.202522</t>
-  </si>
-  <si>
-    <t>23.10.202523</t>
-  </si>
-  <si>
-    <t>23.10.202524</t>
-  </si>
-  <si>
-    <t>23.10.202525</t>
-  </si>
-  <si>
-    <t>23.10.202526</t>
-  </si>
-  <si>
-    <t>23.10.202527</t>
-  </si>
-  <si>
-    <t>23.10.202528</t>
-  </si>
-  <si>
-    <t>23.10.202529</t>
-  </si>
-  <si>
-    <t>23.10.202530</t>
-  </si>
-  <si>
-    <t>23.10.202531</t>
-  </si>
-  <si>
-    <t>23.10.202532</t>
-  </si>
-  <si>
-    <t>23.10.202533</t>
-  </si>
-  <si>
-    <t>23.10.202534</t>
-  </si>
-  <si>
-    <t>23.10.202535</t>
-  </si>
-  <si>
-    <t>23.10.202536</t>
-  </si>
-  <si>
-    <t>23.10.202537</t>
-  </si>
-  <si>
-    <t>23.10.202538</t>
-  </si>
-  <si>
-    <t>23.10.202539</t>
-  </si>
-  <si>
-    <t>23.10.202540</t>
-  </si>
-  <si>
-    <t>23.10.202541</t>
-  </si>
-  <si>
-    <t>23.10.202542</t>
-  </si>
-  <si>
-    <t>23.10.202543</t>
-  </si>
-  <si>
-    <t>23.10.202544</t>
-  </si>
-  <si>
-    <t>23.10.202545</t>
-  </si>
-  <si>
-    <t>23.10.202546</t>
-  </si>
-  <si>
-    <t>23.10.202547</t>
-  </si>
-  <si>
-    <t>23.10.202548</t>
-  </si>
-  <si>
-    <t>23.10.202549</t>
-  </si>
-  <si>
-    <t>23.10.202550</t>
-  </si>
-  <si>
-    <t>23.10.202551</t>
-  </si>
-  <si>
-    <t>23.10.202552</t>
-  </si>
-  <si>
-    <t>23.10.202553</t>
-  </si>
-  <si>
-    <t>23.10.202554</t>
-  </si>
-  <si>
-    <t>23.10.202555</t>
-  </si>
-  <si>
-    <t>23.10.202556</t>
-  </si>
-  <si>
-    <t>23.10.202557</t>
-  </si>
-  <si>
-    <t>23.10.202558</t>
-  </si>
-  <si>
-    <t>23.10.202559</t>
-  </si>
-  <si>
-    <t>23.10.202560</t>
-  </si>
-  <si>
-    <t>23.10.202561</t>
-  </si>
-  <si>
-    <t>23.10.202562</t>
-  </si>
-  <si>
-    <t>23.10.202563</t>
-  </si>
-  <si>
-    <t>23.10.202564</t>
-  </si>
-  <si>
-    <t>23.10.202565</t>
-  </si>
-  <si>
-    <t>23.10.202566</t>
-  </si>
-  <si>
-    <t>23.10.202567</t>
-  </si>
-  <si>
-    <t>23.10.202568</t>
-  </si>
-  <si>
-    <t>23.10.202569</t>
-  </si>
-  <si>
-    <t>23.10.202570</t>
-  </si>
-  <si>
-    <t>23.10.202571</t>
-  </si>
-  <si>
-    <t>23.10.202572</t>
-  </si>
-  <si>
-    <t>23.10.202573</t>
-  </si>
-  <si>
-    <t>23.10.202574</t>
-  </si>
-  <si>
-    <t>23.10.202575</t>
-  </si>
-  <si>
-    <t>23.10.202576</t>
-  </si>
-  <si>
-    <t>23.10.202577</t>
-  </si>
-  <si>
-    <t>23.10.202578</t>
-  </si>
-  <si>
-    <t>23.10.202579</t>
-  </si>
-  <si>
-    <t>23.10.202580</t>
-  </si>
-  <si>
-    <t>23.10.202581</t>
-  </si>
-  <si>
-    <t>23.10.202582</t>
-  </si>
-  <si>
-    <t>23.10.202583</t>
-  </si>
-  <si>
-    <t>23.10.202584</t>
-  </si>
-  <si>
-    <t>23.10.202585</t>
-  </si>
-  <si>
-    <t>23.10.202586</t>
-  </si>
-  <si>
-    <t>23.10.202587</t>
-  </si>
-  <si>
-    <t>23.10.202588</t>
-  </si>
-  <si>
-    <t>23.10.202589</t>
-  </si>
-  <si>
-    <t>23.10.202590</t>
-  </si>
-  <si>
-    <t>23.10.202591</t>
-  </si>
-  <si>
-    <t>23.10.202592</t>
-  </si>
-  <si>
-    <t>24.10.202593</t>
-  </si>
-  <si>
-    <t>24.10.202594</t>
-  </si>
-  <si>
-    <t>24.10.202595</t>
-  </si>
-  <si>
-    <t>24.10.202596</t>
-  </si>
-  <si>
-    <t>24.10.20251</t>
-  </si>
-  <si>
-    <t>24.10.20252</t>
-  </si>
-  <si>
-    <t>24.10.20253</t>
-  </si>
-  <si>
-    <t>24.10.20254</t>
-  </si>
-  <si>
-    <t>24.10.20255</t>
-  </si>
-  <si>
-    <t>24.10.20256</t>
-  </si>
-  <si>
-    <t>24.10.20257</t>
-  </si>
-  <si>
-    <t>24.10.20258</t>
-  </si>
-  <si>
-    <t>24.10.20259</t>
-  </si>
-  <si>
-    <t>24.10.202510</t>
-  </si>
-  <si>
-    <t>24.10.202511</t>
-  </si>
-  <si>
-    <t>24.10.202512</t>
-  </si>
-  <si>
-    <t>24.10.202513</t>
-  </si>
-  <si>
-    <t>24.10.202514</t>
-  </si>
-  <si>
-    <t>24.10.202515</t>
-  </si>
-  <si>
-    <t>24.10.202516</t>
-  </si>
-  <si>
-    <t>24.10.202517</t>
-  </si>
-  <si>
-    <t>24.10.202518</t>
-  </si>
-  <si>
-    <t>24.10.202519</t>
-  </si>
-  <si>
-    <t>24.10.202520</t>
-  </si>
-  <si>
-    <t>24.10.202521</t>
-  </si>
-  <si>
-    <t>24.10.202522</t>
-  </si>
-  <si>
-    <t>24.10.202523</t>
-  </si>
-  <si>
-    <t>24.10.202524</t>
-  </si>
-  <si>
-    <t>24.10.202525</t>
-  </si>
-  <si>
-    <t>24.10.202526</t>
-  </si>
-  <si>
-    <t>24.10.202527</t>
+    <t>07.11.20251</t>
+  </si>
+  <si>
+    <t>07.11.20252</t>
+  </si>
+  <si>
+    <t>07.11.20253</t>
+  </si>
+  <si>
+    <t>07.11.20254</t>
+  </si>
+  <si>
+    <t>07.11.20255</t>
+  </si>
+  <si>
+    <t>07.11.20256</t>
+  </si>
+  <si>
+    <t>07.11.20257</t>
+  </si>
+  <si>
+    <t>07.11.20258</t>
+  </si>
+  <si>
+    <t>07.11.20259</t>
+  </si>
+  <si>
+    <t>07.11.202510</t>
+  </si>
+  <si>
+    <t>07.11.202511</t>
+  </si>
+  <si>
+    <t>07.11.202512</t>
+  </si>
+  <si>
+    <t>07.11.202513</t>
+  </si>
+  <si>
+    <t>07.11.202514</t>
+  </si>
+  <si>
+    <t>07.11.202515</t>
+  </si>
+  <si>
+    <t>07.11.202516</t>
+  </si>
+  <si>
+    <t>07.11.202517</t>
+  </si>
+  <si>
+    <t>07.11.202518</t>
+  </si>
+  <si>
+    <t>07.11.202519</t>
+  </si>
+  <si>
+    <t>07.11.202520</t>
+  </si>
+  <si>
+    <t>07.11.202521</t>
+  </si>
+  <si>
+    <t>07.11.202522</t>
+  </si>
+  <si>
+    <t>07.11.202523</t>
+  </si>
+  <si>
+    <t>07.11.202524</t>
+  </si>
+  <si>
+    <t>07.11.202525</t>
+  </si>
+  <si>
+    <t>07.11.202526</t>
+  </si>
+  <si>
+    <t>07.11.202527</t>
+  </si>
+  <si>
+    <t>07.11.202528</t>
+  </si>
+  <si>
+    <t>07.11.202529</t>
+  </si>
+  <si>
+    <t>07.11.202530</t>
+  </si>
+  <si>
+    <t>07.11.202531</t>
+  </si>
+  <si>
+    <t>07.11.202532</t>
+  </si>
+  <si>
+    <t>07.11.202533</t>
+  </si>
+  <si>
+    <t>07.11.202534</t>
+  </si>
+  <si>
+    <t>07.11.202535</t>
+  </si>
+  <si>
+    <t>07.11.202536</t>
+  </si>
+  <si>
+    <t>07.11.202537</t>
+  </si>
+  <si>
+    <t>07.11.202538</t>
+  </si>
+  <si>
+    <t>07.11.202539</t>
+  </si>
+  <si>
+    <t>07.11.202540</t>
+  </si>
+  <si>
+    <t>07.11.202541</t>
+  </si>
+  <si>
+    <t>07.11.202542</t>
+  </si>
+  <si>
+    <t>07.11.202543</t>
+  </si>
+  <si>
+    <t>07.11.202544</t>
+  </si>
+  <si>
+    <t>07.11.202545</t>
+  </si>
+  <si>
+    <t>07.11.202546</t>
+  </si>
+  <si>
+    <t>07.11.202547</t>
+  </si>
+  <si>
+    <t>07.11.202548</t>
+  </si>
+  <si>
+    <t>07.11.202549</t>
+  </si>
+  <si>
+    <t>07.11.202550</t>
+  </si>
+  <si>
+    <t>07.11.202551</t>
+  </si>
+  <si>
+    <t>07.11.202552</t>
+  </si>
+  <si>
+    <t>07.11.202553</t>
+  </si>
+  <si>
+    <t>07.11.202554</t>
+  </si>
+  <si>
+    <t>07.11.202555</t>
+  </si>
+  <si>
+    <t>07.11.202556</t>
+  </si>
+  <si>
+    <t>07.11.202557</t>
+  </si>
+  <si>
+    <t>07.11.202558</t>
+  </si>
+  <si>
+    <t>07.11.202559</t>
+  </si>
+  <si>
+    <t>07.11.202560</t>
+  </si>
+  <si>
+    <t>07.11.202561</t>
+  </si>
+  <si>
+    <t>07.11.202562</t>
+  </si>
+  <si>
+    <t>07.11.202563</t>
+  </si>
+  <si>
+    <t>07.11.202564</t>
+  </si>
+  <si>
+    <t>07.11.202565</t>
+  </si>
+  <si>
+    <t>07.11.202566</t>
+  </si>
+  <si>
+    <t>07.11.202567</t>
+  </si>
+  <si>
+    <t>07.11.202568</t>
+  </si>
+  <si>
+    <t>07.11.202569</t>
+  </si>
+  <si>
+    <t>07.11.202570</t>
+  </si>
+  <si>
+    <t>07.11.202571</t>
+  </si>
+  <si>
+    <t>07.11.202572</t>
+  </si>
+  <si>
+    <t>07.11.202573</t>
+  </si>
+  <si>
+    <t>07.11.202574</t>
+  </si>
+  <si>
+    <t>07.11.202575</t>
+  </si>
+  <si>
+    <t>07.11.202576</t>
+  </si>
+  <si>
+    <t>07.11.202577</t>
+  </si>
+  <si>
+    <t>07.11.202578</t>
+  </si>
+  <si>
+    <t>07.11.202579</t>
+  </si>
+  <si>
+    <t>07.11.202580</t>
+  </si>
+  <si>
+    <t>07.11.202581</t>
+  </si>
+  <si>
+    <t>07.11.202582</t>
+  </si>
+  <si>
+    <t>07.11.202583</t>
+  </si>
+  <si>
+    <t>07.11.202584</t>
+  </si>
+  <si>
+    <t>07.11.202585</t>
+  </si>
+  <si>
+    <t>07.11.202586</t>
+  </si>
+  <si>
+    <t>07.11.202587</t>
+  </si>
+  <si>
+    <t>07.11.202588</t>
+  </si>
+  <si>
+    <t>07.11.202589</t>
+  </si>
+  <si>
+    <t>07.11.202590</t>
+  </si>
+  <si>
+    <t>07.11.202591</t>
+  </si>
+  <si>
+    <t>07.11.202592</t>
+  </si>
+  <si>
+    <t>07.11.202593</t>
+  </si>
+  <si>
+    <t>07.11.202594</t>
+  </si>
+  <si>
+    <t>07.11.202595</t>
+  </si>
+  <si>
+    <t>07.11.202596</t>
+  </si>
+  <si>
+    <t>08.11.20251</t>
+  </si>
+  <si>
+    <t>08.11.20252</t>
+  </si>
+  <si>
+    <t>08.11.20253</t>
+  </si>
+  <si>
+    <t>08.11.20254</t>
+  </si>
+  <si>
+    <t>08.11.20255</t>
+  </si>
+  <si>
+    <t>08.11.20256</t>
+  </si>
+  <si>
+    <t>08.11.20257</t>
+  </si>
+  <si>
+    <t>08.11.20258</t>
+  </si>
+  <si>
+    <t>08.11.20259</t>
+  </si>
+  <si>
+    <t>08.11.202510</t>
+  </si>
+  <si>
+    <t>08.11.202511</t>
+  </si>
+  <si>
+    <t>08.11.202512</t>
+  </si>
+  <si>
+    <t>08.11.202513</t>
+  </si>
+  <si>
+    <t>08.11.202514</t>
+  </si>
+  <si>
+    <t>08.11.202515</t>
+  </si>
+  <si>
+    <t>08.11.202516</t>
+  </si>
+  <si>
+    <t>08.11.202517</t>
+  </si>
+  <si>
+    <t>08.11.202518</t>
+  </si>
+  <si>
+    <t>08.11.202519</t>
+  </si>
+  <si>
+    <t>08.11.202520</t>
+  </si>
+  <si>
+    <t>08.11.202521</t>
+  </si>
+  <si>
+    <t>08.11.202522</t>
+  </si>
+  <si>
+    <t>08.11.202523</t>
+  </si>
+  <si>
+    <t>08.11.202524</t>
+  </si>
+  <si>
+    <t>08.11.202525</t>
+  </si>
+  <si>
+    <t>08.11.202526</t>
+  </si>
+  <si>
+    <t>08.11.202527</t>
+  </si>
+  <si>
+    <t>08.11.202528</t>
+  </si>
+  <si>
+    <t>08.11.202529</t>
+  </si>
+  <si>
+    <t>08.11.202530</t>
   </si>
 </sst>
 </file>
@@ -759,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,13 +793,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45953.04166666666</v>
+        <v>45968</v>
       </c>
       <c r="B2">
-        <v>9.595000000000001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8.305</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -801,13 +810,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45953.05208333334</v>
+        <v>45968.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7.082</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -818,13 +827,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45953.0625</v>
+        <v>45968.02083333334</v>
       </c>
       <c r="B4">
-        <v>5.823</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -835,10 +844,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45953.07291666666</v>
+        <v>45968.03125</v>
       </c>
       <c r="B5">
-        <v>4.778</v>
+        <v>14.204</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -852,13 +861,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45953.08333333334</v>
+        <v>45968.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.044</v>
+        <v>1.631</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -869,10 +878,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45953.09375</v>
+        <v>45968.05208333334</v>
       </c>
       <c r="B7">
-        <v>10.59</v>
+        <v>28.264</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -886,10 +895,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45953.10416666666</v>
+        <v>45968.0625</v>
       </c>
       <c r="B8">
-        <v>11.844</v>
+        <v>45.547</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -903,10 +912,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45953.11458333334</v>
+        <v>45968.07291666666</v>
       </c>
       <c r="B9">
-        <v>9.013</v>
+        <v>73.276</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -920,10 +929,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45953.125</v>
+        <v>45968.08333333334</v>
       </c>
       <c r="B10">
-        <v>5.932</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -937,10 +946,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45953.13541666666</v>
+        <v>45968.09375</v>
       </c>
       <c r="B11">
-        <v>16.087</v>
+        <v>42.933</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -954,10 +963,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45953.14583333334</v>
+        <v>45968.10416666666</v>
       </c>
       <c r="B12">
-        <v>22.845</v>
+        <v>20.26</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -971,10 +980,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45953.15625</v>
+        <v>45968.11458333334</v>
       </c>
       <c r="B13">
-        <v>19.7</v>
+        <v>15.371</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -988,10 +997,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45953.16666666666</v>
+        <v>45968.125</v>
       </c>
       <c r="B14">
-        <v>15.034</v>
+        <v>12.475</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1005,10 +1014,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45953.17708333334</v>
+        <v>45968.13541666666</v>
       </c>
       <c r="B15">
-        <v>27.202</v>
+        <v>13.924</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1022,10 +1031,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45953.1875</v>
+        <v>45968.14583333334</v>
       </c>
       <c r="B16">
-        <v>11.322</v>
+        <v>43.144</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1039,13 +1048,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45953.19791666666</v>
+        <v>45968.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>8.204000000000001</v>
       </c>
       <c r="C17">
-        <v>3.217</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1056,13 +1065,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45953.20833333334</v>
+        <v>45968.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3.192</v>
       </c>
       <c r="C18">
-        <v>15.23</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1073,13 +1082,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45953.21875</v>
+        <v>45968.17708333334</v>
       </c>
       <c r="B19">
-        <v>5.363</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.173</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1090,10 +1099,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45953.22916666666</v>
+        <v>45968.1875</v>
       </c>
       <c r="B20">
-        <v>0.5610000000000001</v>
+        <v>11.39</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1107,13 +1116,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45953.23958333334</v>
+        <v>45968.19791666666</v>
       </c>
       <c r="B21">
-        <v>6.433</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2.683</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1124,13 +1133,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45953.25</v>
+        <v>45968.20833333334</v>
       </c>
       <c r="B22">
-        <v>2.795</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>27.13</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1141,13 +1150,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45953.26041666666</v>
+        <v>45968.21875</v>
       </c>
       <c r="B23">
-        <v>7.801</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>9.709</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1158,13 +1167,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45953.27083333334</v>
+        <v>45968.22916666666</v>
       </c>
       <c r="B24">
-        <v>15.344</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>6.625</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1175,10 +1184,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45953.28125</v>
+        <v>45968.23958333334</v>
       </c>
       <c r="B25">
-        <v>5.654</v>
+        <v>1.719</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1192,13 +1201,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45953.29166666666</v>
+        <v>45968.25</v>
       </c>
       <c r="B26">
-        <v>12.268</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>23.685</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1209,13 +1218,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45953.30208333334</v>
+        <v>45968.26041666666</v>
       </c>
       <c r="B27">
-        <v>16.565</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>14.578</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1226,10 +1235,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45953.3125</v>
+        <v>45968.27083333334</v>
       </c>
       <c r="B28">
-        <v>7.478</v>
+        <v>2.61</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1243,13 +1252,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45953.32291666666</v>
+        <v>45968.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3.865</v>
       </c>
       <c r="C29">
-        <v>9.162000000000001</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1260,13 +1269,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45953.33333333334</v>
+        <v>45968.29166666666</v>
       </c>
       <c r="B30">
-        <v>20.282</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>4.855</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1277,13 +1286,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45953.34375</v>
+        <v>45968.30208333334</v>
       </c>
       <c r="B31">
-        <v>12.239</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>7.182</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1294,13 +1303,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45953.35416666666</v>
+        <v>45968.3125</v>
       </c>
       <c r="B32">
-        <v>20.015</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>14.691</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1311,13 +1320,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45953.36458333334</v>
+        <v>45968.32291666666</v>
       </c>
       <c r="B33">
-        <v>23.173</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>17.032</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1328,13 +1337,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45953.375</v>
+        <v>45968.33333333334</v>
       </c>
       <c r="B34">
-        <v>55.696</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>27.044</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1345,13 +1354,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45953.38541666666</v>
+        <v>45968.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>3.162</v>
+        <v>24.531</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1362,13 +1371,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45953.39583333334</v>
+        <v>45968.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>18.848</v>
+        <v>5.392</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1379,13 +1388,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45953.40625</v>
+        <v>45968.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4.349</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1396,10 +1405,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45953.41666666666</v>
+        <v>45968.375</v>
       </c>
       <c r="B38">
-        <v>13.325</v>
+        <v>3.581</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1413,10 +1422,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45953.42708333334</v>
+        <v>45968.38541666666</v>
       </c>
       <c r="B39">
-        <v>21.882</v>
+        <v>7.533</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1430,13 +1439,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45953.4375</v>
+        <v>45968.39583333334</v>
       </c>
       <c r="B40">
-        <v>4.79</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>7.671</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1447,13 +1456,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45953.44791666666</v>
+        <v>45968.40625</v>
       </c>
       <c r="B41">
-        <v>14.663</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>4.402</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1464,13 +1473,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45953.45833333334</v>
+        <v>45968.41666666666</v>
       </c>
       <c r="B42">
-        <v>6.173</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>12.541</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1481,13 +1490,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45953.46875</v>
+        <v>45968.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>3.592</v>
+        <v>13.035</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1498,13 +1507,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45953.47916666666</v>
+        <v>45968.4375</v>
       </c>
       <c r="B44">
-        <v>2.778</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1.725</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1515,13 +1524,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45953.48958333334</v>
+        <v>45968.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>6.92</v>
+        <v>10.19</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1532,13 +1541,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45953.5</v>
+        <v>45968.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>12.285</v>
       </c>
       <c r="C46">
-        <v>23.084</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1549,13 +1558,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45953.51041666666</v>
+        <v>45968.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>23.737</v>
       </c>
       <c r="C47">
-        <v>9.955</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1566,13 +1575,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45953.52083333334</v>
+        <v>45968.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>11.414</v>
       </c>
       <c r="C48">
-        <v>6.23</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1583,13 +1592,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45953.53125</v>
+        <v>45968.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>7.973</v>
       </c>
       <c r="C49">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1600,13 +1609,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45953.54166666666</v>
+        <v>45968.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>11.37</v>
       </c>
       <c r="C50">
-        <v>12.249</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1617,13 +1626,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45953.55208333334</v>
+        <v>45968.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>7.552</v>
       </c>
       <c r="C51">
-        <v>40.218</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1634,13 +1643,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45953.5625</v>
+        <v>45968.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>35.443</v>
+        <v>1.4</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1651,13 +1660,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45953.57291666666</v>
+        <v>45968.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>4.091</v>
       </c>
       <c r="C53">
-        <v>17.137</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1668,13 +1677,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45953.58333333334</v>
+        <v>45968.54166666666</v>
       </c>
       <c r="B54">
-        <v>2.793</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>39.013</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1685,13 +1694,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45953.59375</v>
+        <v>45968.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0.598</v>
+        <v>40.663</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1702,13 +1711,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45953.60416666666</v>
+        <v>45968.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>11.617</v>
+        <v>33.652</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1719,13 +1728,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45953.61458333334</v>
+        <v>45968.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>6.891</v>
+        <v>29.463</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1736,13 +1745,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45953.625</v>
+        <v>45968.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>6.422</v>
+        <v>56.999</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1753,13 +1762,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45953.63541666666</v>
+        <v>45968.59375</v>
       </c>
       <c r="B59">
-        <v>1.805</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>48.975</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1770,13 +1779,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45953.64583333334</v>
+        <v>45968.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>4.468</v>
+        <v>25.337</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1787,13 +1796,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45953.65625</v>
+        <v>45968.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>2.757</v>
+        <v>9.188000000000001</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1804,13 +1813,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45953.66666666666</v>
+        <v>45968.625</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>24.103</v>
+        <v>15.304</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1821,13 +1830,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45953.67708333334</v>
+        <v>45968.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0.8090000000000001</v>
+        <v>27.97</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1838,13 +1847,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45953.6875</v>
+        <v>45968.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0.327</v>
+        <v>5.177</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1855,13 +1864,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45953.69791666666</v>
+        <v>45968.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>3.456</v>
+        <v>1.178</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1872,13 +1881,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45953.70833333334</v>
+        <v>45968.66666666666</v>
       </c>
       <c r="B66">
-        <v>3.528</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>7.045</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1889,13 +1898,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45953.71875</v>
+        <v>45968.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>6.125</v>
       </c>
       <c r="C67">
-        <v>6.458</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1906,13 +1915,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45953.72916666666</v>
+        <v>45968.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>14.16</v>
+        <v>2.475</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1923,13 +1932,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45953.73958333334</v>
+        <v>45968.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>9.901999999999999</v>
+        <v>15.875</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1940,13 +1949,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45953.75</v>
+        <v>45968.70833333334</v>
       </c>
       <c r="B70">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>7.384</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1957,13 +1966,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45953.76041666666</v>
+        <v>45968.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>4.042</v>
+        <v>12.302</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1974,13 +1983,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45953.77083333334</v>
+        <v>45968.72916666666</v>
       </c>
       <c r="B72">
-        <v>3.233</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>9.157999999999999</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1991,13 +2000,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45953.78125</v>
+        <v>45968.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0.731</v>
+        <v>28.116</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2008,13 +2017,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45953.79166666666</v>
+        <v>45968.75</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2.651</v>
+        <v>59.455</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2025,13 +2034,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45953.80208333334</v>
+        <v>45968.76041666666</v>
       </c>
       <c r="B75">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>53.623</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2042,13 +2051,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45953.8125</v>
+        <v>45968.77083333334</v>
       </c>
       <c r="B76">
-        <v>7.749</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>44.765</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2059,13 +2068,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45953.82291666666</v>
+        <v>45968.78125</v>
       </c>
       <c r="B77">
-        <v>8.750999999999999</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>34.409</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2076,13 +2085,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45953.83333333334</v>
+        <v>45968.79166666666</v>
       </c>
       <c r="B78">
-        <v>14.098</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>43.339</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2093,13 +2102,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45953.84375</v>
+        <v>45968.80208333334</v>
       </c>
       <c r="B79">
-        <v>25.856</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>25.091</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2110,13 +2119,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45953.85416666666</v>
+        <v>45968.8125</v>
       </c>
       <c r="B80">
-        <v>3.943</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>6.709</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2127,10 +2136,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45953.86458333334</v>
+        <v>45968.82291666666</v>
       </c>
       <c r="B81">
-        <v>5.184</v>
+        <v>7.841</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2144,10 +2153,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45953.875</v>
+        <v>45968.83333333334</v>
       </c>
       <c r="B82">
-        <v>27.666</v>
+        <v>16.774</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2161,10 +2170,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45953.88541666666</v>
+        <v>45968.84375</v>
       </c>
       <c r="B83">
-        <v>19.94</v>
+        <v>34.975</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2178,10 +2187,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45953.89583333334</v>
+        <v>45968.85416666666</v>
       </c>
       <c r="B84">
-        <v>10.211</v>
+        <v>23.617</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2195,10 +2204,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45953.90625</v>
+        <v>45968.86458333334</v>
       </c>
       <c r="B85">
-        <v>13.029</v>
+        <v>7.154</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2212,13 +2221,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45953.91666666666</v>
+        <v>45968.875</v>
       </c>
       <c r="B86">
-        <v>7.706</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>11.758</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2229,13 +2238,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45953.92708333334</v>
+        <v>45968.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1.315</v>
+        <v>10.722</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2246,13 +2255,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45953.9375</v>
+        <v>45968.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>3.144</v>
+        <v>19.829</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2263,13 +2272,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45953.94791666666</v>
+        <v>45968.90625</v>
       </c>
       <c r="B89">
-        <v>1.349</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>19.173</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2280,13 +2289,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45953.95833333334</v>
+        <v>45968.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>3.383</v>
+        <v>12.434</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2297,13 +2306,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45953.96875</v>
+        <v>45968.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0.124</v>
+        <v>14.232</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2314,13 +2323,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45953.97916666666</v>
+        <v>45968.9375</v>
       </c>
       <c r="B92">
-        <v>4.299</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>27.065</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2331,13 +2340,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45953.98958333334</v>
+        <v>45968.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>5.711</v>
+        <v>14.867</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2348,13 +2357,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45954</v>
+        <v>45968.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>8.688000000000001</v>
+        <v>23.144</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2365,13 +2374,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45954.01041666666</v>
+        <v>45968.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>0.481</v>
+        <v>14.677</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2382,13 +2391,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45954.02083333334</v>
+        <v>45968.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>2.846</v>
+        <v>5.123</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2399,13 +2408,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45954.03125</v>
+        <v>45968.98958333334</v>
       </c>
       <c r="B97">
-        <v>2.202</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>12.441</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2416,10 +2425,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45954.04166666666</v>
+        <v>45969</v>
       </c>
       <c r="B98">
-        <v>4.589</v>
+        <v>7.559</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2433,10 +2442,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B99">
-        <v>12.398</v>
+        <v>6.991</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2450,10 +2459,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45954.0625</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B100">
-        <v>16.983</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2467,10 +2476,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.03125</v>
       </c>
       <c r="B101">
-        <v>15.136</v>
+        <v>9.797000000000001</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2484,10 +2493,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B102">
-        <v>33.512</v>
+        <v>11.012</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2501,10 +2510,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45954.09375</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B103">
-        <v>39.914</v>
+        <v>12.328</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2518,13 +2527,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.0625</v>
       </c>
       <c r="B104">
-        <v>18.777</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.295</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2535,13 +2544,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B105">
-        <v>30.556</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>3.446</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2552,13 +2561,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45954.125</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B106">
-        <v>27.338</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>3.608</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2569,13 +2578,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.09375</v>
       </c>
       <c r="B107">
-        <v>5.707</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>4.819</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2586,13 +2595,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B108">
-        <v>4.481</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1.947</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2603,13 +2612,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45954.15625</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>1.333</v>
+        <v>4.935</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2620,13 +2629,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.125</v>
       </c>
       <c r="B110">
-        <v>3.132</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>5.403</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2637,13 +2646,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B111">
-        <v>0.5639999999999999</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>14.21</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2654,13 +2663,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45954.1875</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>7.623</v>
+        <v>4.45</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2671,13 +2680,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.15625</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>0.976</v>
+        <v>10.007</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2688,13 +2697,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B114">
-        <v>11.139</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>18.442</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2705,13 +2714,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45954.21875</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B115">
-        <v>20.373</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>15.97</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2722,13 +2731,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.1875</v>
       </c>
       <c r="B116">
-        <v>14.634</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>4.745</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2739,13 +2748,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B117">
-        <v>0.6850000000000001</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>4.906</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2756,13 +2765,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45954.25</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>19.516</v>
+        <v>32.572</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2773,13 +2782,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.21875</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>34.352</v>
+        <v>42.72</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2790,13 +2799,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>8.228999999999999</v>
+        <v>40.523</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2807,13 +2816,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45954.28125</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>3.384</v>
+        <v>14.729</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -2824,13 +2833,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.25</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>0.051</v>
+        <v>55.478</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -2841,13 +2850,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B123">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>27.102</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -2858,19 +2867,70 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45954.3125</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B124">
-        <v>0.131</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>9.146000000000001</v>
       </c>
       <c r="D124">
         <v>27</v>
       </c>
       <c r="E124" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>45969.28125</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>11.311</v>
+      </c>
+      <c r="D125">
+        <v>28</v>
+      </c>
+      <c r="E125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>45969.29166666666</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>6.839</v>
+      </c>
+      <c r="D126">
+        <v>29</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>45969.30208333334</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>11.886</v>
+      </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>07.11.20251</t>
-  </si>
-  <si>
-    <t>07.11.20252</t>
-  </si>
-  <si>
-    <t>07.11.20253</t>
-  </si>
-  <si>
-    <t>07.11.20254</t>
-  </si>
-  <si>
-    <t>07.11.20255</t>
-  </si>
-  <si>
-    <t>07.11.20256</t>
-  </si>
-  <si>
-    <t>07.11.20257</t>
-  </si>
-  <si>
-    <t>07.11.20258</t>
-  </si>
-  <si>
-    <t>07.11.20259</t>
-  </si>
-  <si>
-    <t>07.11.202510</t>
-  </si>
-  <si>
-    <t>07.11.202511</t>
-  </si>
-  <si>
-    <t>07.11.202512</t>
-  </si>
-  <si>
-    <t>07.11.202513</t>
-  </si>
-  <si>
-    <t>07.11.202514</t>
-  </si>
-  <si>
-    <t>07.11.202515</t>
-  </si>
-  <si>
-    <t>07.11.202516</t>
-  </si>
-  <si>
-    <t>07.11.202517</t>
-  </si>
-  <si>
-    <t>07.11.202518</t>
-  </si>
-  <si>
-    <t>07.11.202519</t>
-  </si>
-  <si>
-    <t>07.11.202520</t>
-  </si>
-  <si>
-    <t>07.11.202521</t>
-  </si>
-  <si>
-    <t>07.11.202522</t>
-  </si>
-  <si>
-    <t>07.11.202523</t>
-  </si>
-  <si>
-    <t>07.11.202524</t>
-  </si>
-  <si>
-    <t>07.11.202525</t>
-  </si>
-  <si>
-    <t>07.11.202526</t>
-  </si>
-  <si>
-    <t>07.11.202527</t>
-  </si>
-  <si>
-    <t>07.11.202528</t>
-  </si>
-  <si>
-    <t>07.11.202529</t>
-  </si>
-  <si>
-    <t>07.11.202530</t>
-  </si>
-  <si>
-    <t>07.11.202531</t>
-  </si>
-  <si>
-    <t>07.11.202532</t>
-  </si>
-  <si>
-    <t>07.11.202533</t>
-  </si>
-  <si>
-    <t>07.11.202534</t>
-  </si>
-  <si>
-    <t>07.11.202535</t>
-  </si>
-  <si>
-    <t>07.11.202536</t>
-  </si>
-  <si>
-    <t>07.11.202537</t>
-  </si>
-  <si>
-    <t>07.11.202538</t>
-  </si>
-  <si>
-    <t>07.11.202539</t>
-  </si>
-  <si>
-    <t>07.11.202540</t>
-  </si>
-  <si>
-    <t>07.11.202541</t>
-  </si>
-  <si>
-    <t>07.11.202542</t>
-  </si>
-  <si>
-    <t>07.11.202543</t>
-  </si>
-  <si>
-    <t>07.11.202544</t>
-  </si>
-  <si>
-    <t>07.11.202545</t>
-  </si>
-  <si>
-    <t>07.11.202546</t>
-  </si>
-  <si>
-    <t>07.11.202547</t>
-  </si>
-  <si>
-    <t>07.11.202548</t>
-  </si>
-  <si>
-    <t>07.11.202549</t>
-  </si>
-  <si>
-    <t>07.11.202550</t>
-  </si>
-  <si>
-    <t>07.11.202551</t>
-  </si>
-  <si>
-    <t>07.11.202552</t>
-  </si>
-  <si>
-    <t>07.11.202553</t>
-  </si>
-  <si>
-    <t>07.11.202554</t>
-  </si>
-  <si>
-    <t>07.11.202555</t>
-  </si>
-  <si>
-    <t>07.11.202556</t>
-  </si>
-  <si>
-    <t>07.11.202557</t>
-  </si>
-  <si>
-    <t>07.11.202558</t>
-  </si>
-  <si>
-    <t>07.11.202559</t>
-  </si>
-  <si>
-    <t>07.11.202560</t>
-  </si>
-  <si>
-    <t>07.11.202561</t>
-  </si>
-  <si>
-    <t>07.11.202562</t>
-  </si>
-  <si>
-    <t>07.11.202563</t>
-  </si>
-  <si>
-    <t>07.11.202564</t>
-  </si>
-  <si>
-    <t>07.11.202565</t>
-  </si>
-  <si>
-    <t>07.11.202566</t>
-  </si>
-  <si>
-    <t>07.11.202567</t>
-  </si>
-  <si>
-    <t>07.11.202568</t>
-  </si>
-  <si>
-    <t>07.11.202569</t>
-  </si>
-  <si>
-    <t>07.11.202570</t>
-  </si>
-  <si>
-    <t>07.11.202571</t>
-  </si>
-  <si>
-    <t>07.11.202572</t>
-  </si>
-  <si>
-    <t>07.11.202573</t>
-  </si>
-  <si>
-    <t>07.11.202574</t>
-  </si>
-  <si>
-    <t>07.11.202575</t>
-  </si>
-  <si>
-    <t>07.11.202576</t>
-  </si>
-  <si>
-    <t>07.11.202577</t>
-  </si>
-  <si>
-    <t>07.11.202578</t>
-  </si>
-  <si>
-    <t>07.11.202579</t>
-  </si>
-  <si>
-    <t>07.11.202580</t>
-  </si>
-  <si>
-    <t>07.11.202581</t>
-  </si>
-  <si>
-    <t>07.11.202582</t>
-  </si>
-  <si>
-    <t>07.11.202583</t>
-  </si>
-  <si>
-    <t>07.11.202584</t>
-  </si>
-  <si>
-    <t>07.11.202585</t>
-  </si>
-  <si>
-    <t>07.11.202586</t>
-  </si>
-  <si>
-    <t>07.11.202587</t>
-  </si>
-  <si>
-    <t>07.11.202588</t>
-  </si>
-  <si>
-    <t>07.11.202589</t>
-  </si>
-  <si>
-    <t>07.11.202590</t>
-  </si>
-  <si>
-    <t>07.11.202591</t>
-  </si>
-  <si>
-    <t>07.11.202592</t>
-  </si>
-  <si>
-    <t>07.11.202593</t>
-  </si>
-  <si>
-    <t>07.11.202594</t>
-  </si>
-  <si>
-    <t>07.11.202595</t>
-  </si>
-  <si>
-    <t>07.11.202596</t>
-  </si>
-  <si>
     <t>08.11.20251</t>
   </si>
   <si>
@@ -407,6 +119,291 @@
   </si>
   <si>
     <t>08.11.202530</t>
+  </si>
+  <si>
+    <t>08.11.202531</t>
+  </si>
+  <si>
+    <t>08.11.202532</t>
+  </si>
+  <si>
+    <t>08.11.202533</t>
+  </si>
+  <si>
+    <t>08.11.202534</t>
+  </si>
+  <si>
+    <t>08.11.202535</t>
+  </si>
+  <si>
+    <t>08.11.202536</t>
+  </si>
+  <si>
+    <t>08.11.202537</t>
+  </si>
+  <si>
+    <t>08.11.202538</t>
+  </si>
+  <si>
+    <t>08.11.202539</t>
+  </si>
+  <si>
+    <t>08.11.202540</t>
+  </si>
+  <si>
+    <t>08.11.202541</t>
+  </si>
+  <si>
+    <t>08.11.202542</t>
+  </si>
+  <si>
+    <t>08.11.202543</t>
+  </si>
+  <si>
+    <t>08.11.202544</t>
+  </si>
+  <si>
+    <t>08.11.202545</t>
+  </si>
+  <si>
+    <t>08.11.202546</t>
+  </si>
+  <si>
+    <t>08.11.202547</t>
+  </si>
+  <si>
+    <t>08.11.202548</t>
+  </si>
+  <si>
+    <t>08.11.202549</t>
+  </si>
+  <si>
+    <t>08.11.202550</t>
+  </si>
+  <si>
+    <t>08.11.202551</t>
+  </si>
+  <si>
+    <t>08.11.202552</t>
+  </si>
+  <si>
+    <t>08.11.202553</t>
+  </si>
+  <si>
+    <t>08.11.202554</t>
+  </si>
+  <si>
+    <t>08.11.202555</t>
+  </si>
+  <si>
+    <t>08.11.202556</t>
+  </si>
+  <si>
+    <t>08.11.202557</t>
+  </si>
+  <si>
+    <t>08.11.202558</t>
+  </si>
+  <si>
+    <t>08.11.202559</t>
+  </si>
+  <si>
+    <t>08.11.202560</t>
+  </si>
+  <si>
+    <t>08.11.202561</t>
+  </si>
+  <si>
+    <t>08.11.202562</t>
+  </si>
+  <si>
+    <t>08.11.202563</t>
+  </si>
+  <si>
+    <t>08.11.202564</t>
+  </si>
+  <si>
+    <t>08.11.202565</t>
+  </si>
+  <si>
+    <t>08.11.202566</t>
+  </si>
+  <si>
+    <t>08.11.202567</t>
+  </si>
+  <si>
+    <t>08.11.202568</t>
+  </si>
+  <si>
+    <t>08.11.202569</t>
+  </si>
+  <si>
+    <t>08.11.202570</t>
+  </si>
+  <si>
+    <t>08.11.202571</t>
+  </si>
+  <si>
+    <t>08.11.202572</t>
+  </si>
+  <si>
+    <t>08.11.202573</t>
+  </si>
+  <si>
+    <t>08.11.202574</t>
+  </si>
+  <si>
+    <t>08.11.202575</t>
+  </si>
+  <si>
+    <t>08.11.202576</t>
+  </si>
+  <si>
+    <t>08.11.202577</t>
+  </si>
+  <si>
+    <t>08.11.202578</t>
+  </si>
+  <si>
+    <t>08.11.202579</t>
+  </si>
+  <si>
+    <t>08.11.202580</t>
+  </si>
+  <si>
+    <t>08.11.202581</t>
+  </si>
+  <si>
+    <t>08.11.202582</t>
+  </si>
+  <si>
+    <t>08.11.202583</t>
+  </si>
+  <si>
+    <t>08.11.202584</t>
+  </si>
+  <si>
+    <t>08.11.202585</t>
+  </si>
+  <si>
+    <t>08.11.202586</t>
+  </si>
+  <si>
+    <t>08.11.202587</t>
+  </si>
+  <si>
+    <t>08.11.202588</t>
+  </si>
+  <si>
+    <t>08.11.202589</t>
+  </si>
+  <si>
+    <t>08.11.202590</t>
+  </si>
+  <si>
+    <t>08.11.202591</t>
+  </si>
+  <si>
+    <t>08.11.202592</t>
+  </si>
+  <si>
+    <t>08.11.202593</t>
+  </si>
+  <si>
+    <t>08.11.202594</t>
+  </si>
+  <si>
+    <t>08.11.202595</t>
+  </si>
+  <si>
+    <t>08.11.202596</t>
+  </si>
+  <si>
+    <t>09.11.20251</t>
+  </si>
+  <si>
+    <t>09.11.20252</t>
+  </si>
+  <si>
+    <t>09.11.20253</t>
+  </si>
+  <si>
+    <t>09.11.20254</t>
+  </si>
+  <si>
+    <t>09.11.20255</t>
+  </si>
+  <si>
+    <t>09.11.20256</t>
+  </si>
+  <si>
+    <t>09.11.20257</t>
+  </si>
+  <si>
+    <t>09.11.20258</t>
+  </si>
+  <si>
+    <t>09.11.20259</t>
+  </si>
+  <si>
+    <t>09.11.202510</t>
+  </si>
+  <si>
+    <t>09.11.202511</t>
+  </si>
+  <si>
+    <t>09.11.202512</t>
+  </si>
+  <si>
+    <t>09.11.202513</t>
+  </si>
+  <si>
+    <t>09.11.202514</t>
+  </si>
+  <si>
+    <t>09.11.202515</t>
+  </si>
+  <si>
+    <t>09.11.202516</t>
+  </si>
+  <si>
+    <t>09.11.202517</t>
+  </si>
+  <si>
+    <t>09.11.202518</t>
+  </si>
+  <si>
+    <t>09.11.202519</t>
+  </si>
+  <si>
+    <t>09.11.202520</t>
+  </si>
+  <si>
+    <t>09.11.202521</t>
+  </si>
+  <si>
+    <t>09.11.202522</t>
+  </si>
+  <si>
+    <t>09.11.202523</t>
+  </si>
+  <si>
+    <t>09.11.202524</t>
+  </si>
+  <si>
+    <t>09.11.202525</t>
+  </si>
+  <si>
+    <t>09.11.202526</t>
+  </si>
+  <si>
+    <t>09.11.202527</t>
+  </si>
+  <si>
+    <t>09.11.202528</t>
+  </si>
+  <si>
+    <t>09.11.202529</t>
   </si>
 </sst>
 </file>
@@ -768,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,13 +790,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7.559</v>
       </c>
       <c r="C2">
-        <v>8.305</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -810,13 +807,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45968.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.991</v>
       </c>
       <c r="C3">
-        <v>7.082</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -827,13 +824,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45968.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C4">
-        <v>0.629</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -844,10 +841,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45968.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B5">
-        <v>14.204</v>
+        <v>9.797000000000001</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -861,13 +858,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45968.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>11.012</v>
       </c>
       <c r="C6">
-        <v>1.631</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -878,10 +875,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45968.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B7">
-        <v>28.264</v>
+        <v>12.328</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -895,13 +892,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45968.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B8">
-        <v>45.547</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.295</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -912,13 +909,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45968.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B9">
-        <v>73.276</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3.446</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -929,13 +926,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45968.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3.608</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -946,13 +943,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45968.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B11">
-        <v>42.933</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4.819</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -963,13 +960,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45968.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B12">
-        <v>20.26</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.947</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -980,13 +977,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45968.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B13">
-        <v>15.371</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4.935</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -997,13 +994,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45968.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B14">
-        <v>12.475</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>5.403</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1014,13 +1011,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45968.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B15">
-        <v>13.924</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>14.21</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1031,13 +1028,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45968.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B16">
-        <v>43.144</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1048,13 +1045,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45968.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B17">
-        <v>8.204000000000001</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>10.007</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1065,13 +1062,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45968.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B18">
-        <v>3.192</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>18.442</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1082,13 +1079,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45968.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.173</v>
+        <v>15.97</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1099,13 +1096,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45968.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B20">
-        <v>11.39</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>4.745</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1116,13 +1113,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45968.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.683</v>
+        <v>4.906</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1133,13 +1130,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45968.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>27.13</v>
+        <v>32.572</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1150,13 +1147,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45968.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.709</v>
+        <v>42.72</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1167,13 +1164,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45968.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.625</v>
+        <v>40.523</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1184,13 +1181,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45968.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B25">
-        <v>1.719</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>14.729</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1201,13 +1198,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45968.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>23.685</v>
+        <v>55.478</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1218,13 +1215,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45968.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>14.578</v>
+        <v>27.102</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1235,13 +1232,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45968.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B28">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>9.146000000000001</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1252,13 +1249,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45968.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B29">
-        <v>3.865</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>11.311</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1269,13 +1266,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45968.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>4.855</v>
+        <v>6.839</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1286,13 +1283,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45968.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>7.182</v>
+        <v>11.886</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1303,13 +1300,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45968.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>14.691</v>
+        <v>2.451</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1320,13 +1317,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45968.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>17.032</v>
+        <v>13.706</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1337,13 +1334,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45968.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>23.215</v>
       </c>
       <c r="C34">
-        <v>27.044</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1354,13 +1351,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45968.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>48.616</v>
       </c>
       <c r="C35">
-        <v>24.531</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1371,13 +1368,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45968.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>20.649</v>
       </c>
       <c r="C36">
-        <v>5.392</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1388,13 +1385,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45968.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>29.451</v>
       </c>
       <c r="C37">
-        <v>4.349</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1405,10 +1402,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45968.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B38">
-        <v>3.581</v>
+        <v>9.75</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1422,10 +1419,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45968.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B39">
-        <v>7.533</v>
+        <v>1.984</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1439,13 +1436,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45968.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>13.015</v>
       </c>
       <c r="C40">
-        <v>7.671</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1456,13 +1453,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45968.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>13.205</v>
       </c>
       <c r="C41">
-        <v>4.402</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1473,13 +1470,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45968.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>12.541</v>
+        <v>24.467</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1490,13 +1487,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45968.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>13.035</v>
+        <v>16.819</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1507,13 +1504,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45968.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1.725</v>
+        <v>11.179</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1524,13 +1521,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45968.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2.916</v>
       </c>
       <c r="C45">
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1541,13 +1538,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45968.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B46">
-        <v>12.285</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>19.532</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1558,13 +1555,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45968.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B47">
-        <v>23.737</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>16.58</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1575,10 +1572,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45968.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B48">
-        <v>11.414</v>
+        <v>1.709</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1592,10 +1589,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45968.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B49">
-        <v>7.973</v>
+        <v>0.703</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1609,13 +1606,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45968.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B50">
-        <v>11.37</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2.462</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1626,13 +1623,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45968.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B51">
-        <v>7.552</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2.664</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1643,13 +1640,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45968.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>6.383</v>
       </c>
       <c r="C52">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1660,10 +1657,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45968.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B53">
-        <v>4.091</v>
+        <v>10.47</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1677,13 +1674,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45968.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1.717</v>
       </c>
       <c r="C54">
-        <v>39.013</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1694,13 +1691,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45968.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>40.663</v>
+        <v>0.711</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1711,13 +1708,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45968.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>9.016</v>
       </c>
       <c r="C56">
-        <v>33.652</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1728,13 +1725,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45968.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>3.625</v>
       </c>
       <c r="C57">
-        <v>29.463</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1745,13 +1742,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45968.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>56.999</v>
+        <v>0.825</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1762,13 +1759,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45968.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>48.975</v>
+        <v>16.911</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1779,13 +1776,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45968.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>25.337</v>
+        <v>19.879</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1796,13 +1793,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45968.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>9.188000000000001</v>
+        <v>25.587</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1813,13 +1810,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45968.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>15.304</v>
+        <v>38.336</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1830,13 +1827,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45968.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>27.97</v>
+        <v>49.273</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1847,13 +1844,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45968.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>5.177</v>
+        <v>53.803</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1864,13 +1861,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45968.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1.178</v>
+        <v>13.146</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1881,13 +1878,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45968.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>7.045</v>
+        <v>7.689</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1898,13 +1895,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45968.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B67">
-        <v>6.125</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>71.08799999999999</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1915,13 +1912,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45968.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>2.475</v>
+        <v>102.073</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1932,13 +1929,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45968.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>15.875</v>
+        <v>37.887</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1949,13 +1946,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45968.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>7.384</v>
+        <v>33.246</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1966,13 +1963,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45968.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>12.302</v>
+        <v>45.54</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1983,13 +1980,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45968.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>9.157999999999999</v>
+        <v>58.506</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2000,13 +1997,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45968.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>28.116</v>
+        <v>39.025</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2017,13 +2014,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45968.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>59.455</v>
+        <v>11.847</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2034,13 +2031,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45968.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>53.623</v>
+        <v>48.106</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2051,13 +2048,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45968.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>44.765</v>
+        <v>37.897</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2068,13 +2065,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45968.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>34.409</v>
+        <v>9.526</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2085,13 +2082,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45968.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>5.091</v>
       </c>
       <c r="C78">
-        <v>43.339</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2102,13 +2099,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45968.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>5.363</v>
       </c>
       <c r="C79">
-        <v>25.091</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2119,13 +2116,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45968.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>6.709</v>
+        <v>4.519</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2136,13 +2133,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45968.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B81">
-        <v>7.841</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>4.431</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2153,13 +2150,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45968.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B82">
-        <v>16.774</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>14.913</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2170,13 +2167,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45968.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B83">
-        <v>34.975</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>5.578</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2187,10 +2184,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45968.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B84">
-        <v>23.617</v>
+        <v>1.431</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2204,10 +2201,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45968.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B85">
-        <v>7.154</v>
+        <v>9.343</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2221,13 +2218,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45968.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>36.622</v>
       </c>
       <c r="C86">
-        <v>11.758</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2238,13 +2235,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45968.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>57.396</v>
       </c>
       <c r="C87">
-        <v>10.722</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2255,13 +2252,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45968.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>62.819</v>
       </c>
       <c r="C88">
-        <v>19.829</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2272,13 +2269,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45968.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>23.907</v>
       </c>
       <c r="C89">
-        <v>19.173</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2289,13 +2286,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45968.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>60.164</v>
       </c>
       <c r="C90">
-        <v>12.434</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2306,13 +2303,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45968.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>63.151</v>
       </c>
       <c r="C91">
-        <v>14.232</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2323,13 +2320,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45968.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>35.703</v>
       </c>
       <c r="C92">
-        <v>27.065</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2340,13 +2337,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45968.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>14.867</v>
+        <v>46.904</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2357,13 +2354,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45968.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>23.144</v>
+        <v>40.492</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2374,13 +2371,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45968.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>14.677</v>
+        <v>28.099</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2391,13 +2388,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45968.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>5.123</v>
+        <v>24.926</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2408,13 +2405,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45968.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>12.441</v>
+        <v>19.937</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2425,13 +2422,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B98">
-        <v>7.559</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>3.336</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2442,13 +2439,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B99">
-        <v>6.991</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>12.392</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2459,10 +2456,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B100">
-        <v>8.300000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2476,10 +2473,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B101">
-        <v>9.797000000000001</v>
+        <v>2.548</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2493,10 +2490,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
       <c r="B102">
-        <v>11.012</v>
+        <v>2.714</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2510,10 +2507,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
       <c r="B103">
-        <v>12.328</v>
+        <v>3.152</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2527,13 +2524,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1.415</v>
       </c>
       <c r="C104">
-        <v>0.295</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2544,13 +2541,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>3.446</v>
+        <v>4.466</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2561,13 +2558,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>3.608</v>
+        <v>43.296</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2578,13 +2575,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>4.819</v>
+        <v>8.038</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2595,13 +2592,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>1.947</v>
+        <v>10.085</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2612,13 +2609,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>4.935</v>
+        <v>18.859</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2629,13 +2626,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>5.403</v>
+        <v>14.02</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2646,13 +2643,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>14.21</v>
+        <v>12.082</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2663,13 +2660,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>4.45</v>
+        <v>23.1</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2680,13 +2677,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>10.007</v>
+        <v>39.492</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2697,13 +2694,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>18.442</v>
+        <v>43.429</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2714,13 +2711,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>15.97</v>
+        <v>56.841</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2731,13 +2728,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>4.745</v>
+        <v>43.718</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2748,13 +2745,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>4.906</v>
+        <v>28.822</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2765,13 +2762,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>32.572</v>
+        <v>32.618</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2782,13 +2779,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>42.72</v>
+        <v>37.322</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2799,13 +2796,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>40.523</v>
+        <v>31.802</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2816,13 +2813,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>14.729</v>
+        <v>36.693</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -2833,13 +2830,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>55.478</v>
+        <v>49.894</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -2850,13 +2847,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>27.102</v>
+        <v>44.773</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -2867,13 +2864,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>9.146000000000001</v>
+        <v>26.665</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -2884,13 +2881,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>11.311</v>
+        <v>2.122</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -2901,36 +2898,19 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>6.839</v>
+        <v>10.869</v>
       </c>
       <c r="D126">
         <v>29</v>
       </c>
       <c r="E126" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="2">
-        <v>45969.30208333334</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>11.886</v>
-      </c>
-      <c r="D127">
-        <v>30</v>
-      </c>
-      <c r="E127" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,379 +31,733 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>08.11.20251</t>
-  </si>
-  <si>
-    <t>08.11.20252</t>
-  </si>
-  <si>
-    <t>08.11.20253</t>
-  </si>
-  <si>
-    <t>08.11.20254</t>
-  </si>
-  <si>
-    <t>08.11.20255</t>
-  </si>
-  <si>
-    <t>08.11.20256</t>
-  </si>
-  <si>
-    <t>08.11.20257</t>
-  </si>
-  <si>
-    <t>08.11.20258</t>
-  </si>
-  <si>
-    <t>08.11.20259</t>
-  </si>
-  <si>
-    <t>08.11.202510</t>
-  </si>
-  <si>
-    <t>08.11.202511</t>
-  </si>
-  <si>
-    <t>08.11.202512</t>
-  </si>
-  <si>
-    <t>08.11.202513</t>
-  </si>
-  <si>
-    <t>08.11.202514</t>
-  </si>
-  <si>
-    <t>08.11.202515</t>
-  </si>
-  <si>
-    <t>08.11.202516</t>
-  </si>
-  <si>
-    <t>08.11.202517</t>
-  </si>
-  <si>
-    <t>08.11.202518</t>
-  </si>
-  <si>
-    <t>08.11.202519</t>
-  </si>
-  <si>
-    <t>08.11.202520</t>
-  </si>
-  <si>
-    <t>08.11.202521</t>
-  </si>
-  <si>
-    <t>08.11.202522</t>
-  </si>
-  <si>
-    <t>08.11.202523</t>
-  </si>
-  <si>
-    <t>08.11.202524</t>
-  </si>
-  <si>
-    <t>08.11.202525</t>
-  </si>
-  <si>
-    <t>08.11.202526</t>
-  </si>
-  <si>
-    <t>08.11.202527</t>
-  </si>
-  <si>
-    <t>08.11.202528</t>
-  </si>
-  <si>
-    <t>08.11.202529</t>
-  </si>
-  <si>
-    <t>08.11.202530</t>
-  </si>
-  <si>
-    <t>08.11.202531</t>
-  </si>
-  <si>
-    <t>08.11.202532</t>
-  </si>
-  <si>
-    <t>08.11.202533</t>
-  </si>
-  <si>
-    <t>08.11.202534</t>
-  </si>
-  <si>
-    <t>08.11.202535</t>
-  </si>
-  <si>
-    <t>08.11.202536</t>
-  </si>
-  <si>
-    <t>08.11.202537</t>
-  </si>
-  <si>
-    <t>08.11.202538</t>
-  </si>
-  <si>
-    <t>08.11.202539</t>
-  </si>
-  <si>
-    <t>08.11.202540</t>
-  </si>
-  <si>
-    <t>08.11.202541</t>
-  </si>
-  <si>
-    <t>08.11.202542</t>
-  </si>
-  <si>
-    <t>08.11.202543</t>
-  </si>
-  <si>
-    <t>08.11.202544</t>
-  </si>
-  <si>
-    <t>08.11.202545</t>
-  </si>
-  <si>
-    <t>08.11.202546</t>
-  </si>
-  <si>
-    <t>08.11.202547</t>
-  </si>
-  <si>
-    <t>08.11.202548</t>
-  </si>
-  <si>
-    <t>08.11.202549</t>
-  </si>
-  <si>
-    <t>08.11.202550</t>
-  </si>
-  <si>
-    <t>08.11.202551</t>
-  </si>
-  <si>
-    <t>08.11.202552</t>
-  </si>
-  <si>
-    <t>08.11.202553</t>
-  </si>
-  <si>
-    <t>08.11.202554</t>
-  </si>
-  <si>
-    <t>08.11.202555</t>
-  </si>
-  <si>
-    <t>08.11.202556</t>
-  </si>
-  <si>
-    <t>08.11.202557</t>
-  </si>
-  <si>
-    <t>08.11.202558</t>
-  </si>
-  <si>
-    <t>08.11.202559</t>
-  </si>
-  <si>
-    <t>08.11.202560</t>
-  </si>
-  <si>
-    <t>08.11.202561</t>
-  </si>
-  <si>
-    <t>08.11.202562</t>
-  </si>
-  <si>
-    <t>08.11.202563</t>
-  </si>
-  <si>
-    <t>08.11.202564</t>
-  </si>
-  <si>
-    <t>08.11.202565</t>
-  </si>
-  <si>
-    <t>08.11.202566</t>
-  </si>
-  <si>
-    <t>08.11.202567</t>
-  </si>
-  <si>
-    <t>08.11.202568</t>
-  </si>
-  <si>
-    <t>08.11.202569</t>
-  </si>
-  <si>
-    <t>08.11.202570</t>
-  </si>
-  <si>
-    <t>08.11.202571</t>
-  </si>
-  <si>
-    <t>08.11.202572</t>
-  </si>
-  <si>
-    <t>08.11.202573</t>
-  </si>
-  <si>
-    <t>08.11.202574</t>
-  </si>
-  <si>
-    <t>08.11.202575</t>
-  </si>
-  <si>
-    <t>08.11.202576</t>
-  </si>
-  <si>
-    <t>08.11.202577</t>
-  </si>
-  <si>
-    <t>08.11.202578</t>
-  </si>
-  <si>
-    <t>08.11.202579</t>
-  </si>
-  <si>
-    <t>08.11.202580</t>
-  </si>
-  <si>
-    <t>08.11.202581</t>
-  </si>
-  <si>
-    <t>08.11.202582</t>
-  </si>
-  <si>
-    <t>08.11.202583</t>
-  </si>
-  <si>
-    <t>08.11.202584</t>
-  </si>
-  <si>
-    <t>08.11.202585</t>
-  </si>
-  <si>
-    <t>08.11.202586</t>
-  </si>
-  <si>
-    <t>08.11.202587</t>
-  </si>
-  <si>
-    <t>08.11.202588</t>
-  </si>
-  <si>
-    <t>08.11.202589</t>
-  </si>
-  <si>
-    <t>08.11.202590</t>
-  </si>
-  <si>
-    <t>08.11.202591</t>
-  </si>
-  <si>
-    <t>08.11.202592</t>
-  </si>
-  <si>
-    <t>08.11.202593</t>
-  </si>
-  <si>
-    <t>08.11.202594</t>
-  </si>
-  <si>
-    <t>08.11.202595</t>
-  </si>
-  <si>
-    <t>08.11.202596</t>
-  </si>
-  <si>
-    <t>09.11.20251</t>
-  </si>
-  <si>
-    <t>09.11.20252</t>
-  </si>
-  <si>
-    <t>09.11.20253</t>
-  </si>
-  <si>
-    <t>09.11.20254</t>
-  </si>
-  <si>
-    <t>09.11.20255</t>
-  </si>
-  <si>
-    <t>09.11.20256</t>
-  </si>
-  <si>
-    <t>09.11.20257</t>
-  </si>
-  <si>
-    <t>09.11.20258</t>
-  </si>
-  <si>
-    <t>09.11.20259</t>
-  </si>
-  <si>
-    <t>09.11.202510</t>
-  </si>
-  <si>
-    <t>09.11.202511</t>
-  </si>
-  <si>
-    <t>09.11.202512</t>
-  </si>
-  <si>
-    <t>09.11.202513</t>
-  </si>
-  <si>
-    <t>09.11.202514</t>
-  </si>
-  <si>
-    <t>09.11.202515</t>
-  </si>
-  <si>
-    <t>09.11.202516</t>
-  </si>
-  <si>
-    <t>09.11.202517</t>
-  </si>
-  <si>
-    <t>09.11.202518</t>
-  </si>
-  <si>
-    <t>09.11.202519</t>
-  </si>
-  <si>
-    <t>09.11.202520</t>
-  </si>
-  <si>
-    <t>09.11.202521</t>
-  </si>
-  <si>
-    <t>09.11.202522</t>
-  </si>
-  <si>
-    <t>09.11.202523</t>
-  </si>
-  <si>
-    <t>09.11.202524</t>
-  </si>
-  <si>
-    <t>09.11.202525</t>
-  </si>
-  <si>
-    <t>09.11.202526</t>
-  </si>
-  <si>
-    <t>09.11.202527</t>
-  </si>
-  <si>
-    <t>09.11.202528</t>
-  </si>
-  <si>
-    <t>09.11.202529</t>
+    <t>11.11.20251</t>
+  </si>
+  <si>
+    <t>11.11.20252</t>
+  </si>
+  <si>
+    <t>11.11.20253</t>
+  </si>
+  <si>
+    <t>11.11.20254</t>
+  </si>
+  <si>
+    <t>11.11.20255</t>
+  </si>
+  <si>
+    <t>11.11.20256</t>
+  </si>
+  <si>
+    <t>11.11.20257</t>
+  </si>
+  <si>
+    <t>11.11.20258</t>
+  </si>
+  <si>
+    <t>11.11.20259</t>
+  </si>
+  <si>
+    <t>11.11.202510</t>
+  </si>
+  <si>
+    <t>11.11.202511</t>
+  </si>
+  <si>
+    <t>11.11.202512</t>
+  </si>
+  <si>
+    <t>11.11.202513</t>
+  </si>
+  <si>
+    <t>11.11.202514</t>
+  </si>
+  <si>
+    <t>11.11.202515</t>
+  </si>
+  <si>
+    <t>11.11.202516</t>
+  </si>
+  <si>
+    <t>11.11.202517</t>
+  </si>
+  <si>
+    <t>11.11.202518</t>
+  </si>
+  <si>
+    <t>11.11.202519</t>
+  </si>
+  <si>
+    <t>11.11.202520</t>
+  </si>
+  <si>
+    <t>11.11.202521</t>
+  </si>
+  <si>
+    <t>11.11.202522</t>
+  </si>
+  <si>
+    <t>11.11.202523</t>
+  </si>
+  <si>
+    <t>11.11.202524</t>
+  </si>
+  <si>
+    <t>11.11.202525</t>
+  </si>
+  <si>
+    <t>11.11.202526</t>
+  </si>
+  <si>
+    <t>11.11.202527</t>
+  </si>
+  <si>
+    <t>11.11.202528</t>
+  </si>
+  <si>
+    <t>11.11.202529</t>
+  </si>
+  <si>
+    <t>11.11.202530</t>
+  </si>
+  <si>
+    <t>11.11.202531</t>
+  </si>
+  <si>
+    <t>11.11.202532</t>
+  </si>
+  <si>
+    <t>11.11.202533</t>
+  </si>
+  <si>
+    <t>11.11.202534</t>
+  </si>
+  <si>
+    <t>11.11.202535</t>
+  </si>
+  <si>
+    <t>11.11.202536</t>
+  </si>
+  <si>
+    <t>11.11.202537</t>
+  </si>
+  <si>
+    <t>11.11.202538</t>
+  </si>
+  <si>
+    <t>11.11.202539</t>
+  </si>
+  <si>
+    <t>11.11.202540</t>
+  </si>
+  <si>
+    <t>11.11.202541</t>
+  </si>
+  <si>
+    <t>11.11.202542</t>
+  </si>
+  <si>
+    <t>11.11.202543</t>
+  </si>
+  <si>
+    <t>11.11.202544</t>
+  </si>
+  <si>
+    <t>11.11.202545</t>
+  </si>
+  <si>
+    <t>11.11.202546</t>
+  </si>
+  <si>
+    <t>11.11.202547</t>
+  </si>
+  <si>
+    <t>11.11.202548</t>
+  </si>
+  <si>
+    <t>11.11.202549</t>
+  </si>
+  <si>
+    <t>11.11.202550</t>
+  </si>
+  <si>
+    <t>11.11.202551</t>
+  </si>
+  <si>
+    <t>11.11.202552</t>
+  </si>
+  <si>
+    <t>11.11.202553</t>
+  </si>
+  <si>
+    <t>11.11.202554</t>
+  </si>
+  <si>
+    <t>11.11.202555</t>
+  </si>
+  <si>
+    <t>11.11.202556</t>
+  </si>
+  <si>
+    <t>11.11.202557</t>
+  </si>
+  <si>
+    <t>11.11.202558</t>
+  </si>
+  <si>
+    <t>11.11.202559</t>
+  </si>
+  <si>
+    <t>11.11.202560</t>
+  </si>
+  <si>
+    <t>11.11.202561</t>
+  </si>
+  <si>
+    <t>11.11.202562</t>
+  </si>
+  <si>
+    <t>11.11.202563</t>
+  </si>
+  <si>
+    <t>11.11.202564</t>
+  </si>
+  <si>
+    <t>11.11.202565</t>
+  </si>
+  <si>
+    <t>11.11.202566</t>
+  </si>
+  <si>
+    <t>11.11.202567</t>
+  </si>
+  <si>
+    <t>11.11.202568</t>
+  </si>
+  <si>
+    <t>11.11.202569</t>
+  </si>
+  <si>
+    <t>11.11.202570</t>
+  </si>
+  <si>
+    <t>11.11.202571</t>
+  </si>
+  <si>
+    <t>11.11.202572</t>
+  </si>
+  <si>
+    <t>11.11.202573</t>
+  </si>
+  <si>
+    <t>11.11.202574</t>
+  </si>
+  <si>
+    <t>11.11.202575</t>
+  </si>
+  <si>
+    <t>11.11.202576</t>
+  </si>
+  <si>
+    <t>11.11.202577</t>
+  </si>
+  <si>
+    <t>11.11.202578</t>
+  </si>
+  <si>
+    <t>11.11.202579</t>
+  </si>
+  <si>
+    <t>11.11.202580</t>
+  </si>
+  <si>
+    <t>11.11.202581</t>
+  </si>
+  <si>
+    <t>11.11.202582</t>
+  </si>
+  <si>
+    <t>11.11.202583</t>
+  </si>
+  <si>
+    <t>11.11.202584</t>
+  </si>
+  <si>
+    <t>11.11.202585</t>
+  </si>
+  <si>
+    <t>11.11.202586</t>
+  </si>
+  <si>
+    <t>11.11.202587</t>
+  </si>
+  <si>
+    <t>11.11.202588</t>
+  </si>
+  <si>
+    <t>11.11.202589</t>
+  </si>
+  <si>
+    <t>11.11.202590</t>
+  </si>
+  <si>
+    <t>11.11.202591</t>
+  </si>
+  <si>
+    <t>11.11.202592</t>
+  </si>
+  <si>
+    <t>11.11.202593</t>
+  </si>
+  <si>
+    <t>11.11.202594</t>
+  </si>
+  <si>
+    <t>11.11.202595</t>
+  </si>
+  <si>
+    <t>11.11.202596</t>
+  </si>
+  <si>
+    <t>12.11.20251</t>
+  </si>
+  <si>
+    <t>12.11.20252</t>
+  </si>
+  <si>
+    <t>12.11.20253</t>
+  </si>
+  <si>
+    <t>12.11.20254</t>
+  </si>
+  <si>
+    <t>12.11.20255</t>
+  </si>
+  <si>
+    <t>12.11.20256</t>
+  </si>
+  <si>
+    <t>12.11.20257</t>
+  </si>
+  <si>
+    <t>12.11.20258</t>
+  </si>
+  <si>
+    <t>12.11.20259</t>
+  </si>
+  <si>
+    <t>12.11.202510</t>
+  </si>
+  <si>
+    <t>12.11.202511</t>
+  </si>
+  <si>
+    <t>12.11.202512</t>
+  </si>
+  <si>
+    <t>12.11.202513</t>
+  </si>
+  <si>
+    <t>12.11.202514</t>
+  </si>
+  <si>
+    <t>12.11.202515</t>
+  </si>
+  <si>
+    <t>12.11.202516</t>
+  </si>
+  <si>
+    <t>12.11.202517</t>
+  </si>
+  <si>
+    <t>12.11.202518</t>
+  </si>
+  <si>
+    <t>12.11.202519</t>
+  </si>
+  <si>
+    <t>12.11.202520</t>
+  </si>
+  <si>
+    <t>12.11.202521</t>
+  </si>
+  <si>
+    <t>12.11.202522</t>
+  </si>
+  <si>
+    <t>12.11.202523</t>
+  </si>
+  <si>
+    <t>12.11.202524</t>
+  </si>
+  <si>
+    <t>12.11.202525</t>
+  </si>
+  <si>
+    <t>12.11.202526</t>
+  </si>
+  <si>
+    <t>12.11.202527</t>
+  </si>
+  <si>
+    <t>12.11.202528</t>
+  </si>
+  <si>
+    <t>12.11.202529</t>
+  </si>
+  <si>
+    <t>12.11.202530</t>
+  </si>
+  <si>
+    <t>12.11.202531</t>
+  </si>
+  <si>
+    <t>12.11.202532</t>
+  </si>
+  <si>
+    <t>12.11.202533</t>
+  </si>
+  <si>
+    <t>12.11.202534</t>
+  </si>
+  <si>
+    <t>12.11.202535</t>
+  </si>
+  <si>
+    <t>12.11.202536</t>
+  </si>
+  <si>
+    <t>12.11.202537</t>
+  </si>
+  <si>
+    <t>12.11.202538</t>
+  </si>
+  <si>
+    <t>12.11.202539</t>
+  </si>
+  <si>
+    <t>12.11.202540</t>
+  </si>
+  <si>
+    <t>12.11.202541</t>
+  </si>
+  <si>
+    <t>12.11.202542</t>
+  </si>
+  <si>
+    <t>12.11.202543</t>
+  </si>
+  <si>
+    <t>12.11.202544</t>
+  </si>
+  <si>
+    <t>12.11.202545</t>
+  </si>
+  <si>
+    <t>12.11.202546</t>
+  </si>
+  <si>
+    <t>12.11.202547</t>
+  </si>
+  <si>
+    <t>12.11.202548</t>
+  </si>
+  <si>
+    <t>12.11.202549</t>
+  </si>
+  <si>
+    <t>12.11.202550</t>
+  </si>
+  <si>
+    <t>12.11.202551</t>
+  </si>
+  <si>
+    <t>12.11.202552</t>
+  </si>
+  <si>
+    <t>12.11.202553</t>
+  </si>
+  <si>
+    <t>12.11.202554</t>
+  </si>
+  <si>
+    <t>12.11.202555</t>
+  </si>
+  <si>
+    <t>12.11.202556</t>
+  </si>
+  <si>
+    <t>12.11.202557</t>
+  </si>
+  <si>
+    <t>12.11.202558</t>
+  </si>
+  <si>
+    <t>12.11.202559</t>
+  </si>
+  <si>
+    <t>12.11.202560</t>
+  </si>
+  <si>
+    <t>12.11.202561</t>
+  </si>
+  <si>
+    <t>12.11.202562</t>
+  </si>
+  <si>
+    <t>12.11.202563</t>
+  </si>
+  <si>
+    <t>12.11.202564</t>
+  </si>
+  <si>
+    <t>12.11.202565</t>
+  </si>
+  <si>
+    <t>12.11.202566</t>
+  </si>
+  <si>
+    <t>12.11.202567</t>
+  </si>
+  <si>
+    <t>12.11.202568</t>
+  </si>
+  <si>
+    <t>12.11.202569</t>
+  </si>
+  <si>
+    <t>12.11.202570</t>
+  </si>
+  <si>
+    <t>12.11.202571</t>
+  </si>
+  <si>
+    <t>12.11.202572</t>
+  </si>
+  <si>
+    <t>12.11.202573</t>
+  </si>
+  <si>
+    <t>12.11.202574</t>
+  </si>
+  <si>
+    <t>12.11.202575</t>
+  </si>
+  <si>
+    <t>12.11.202576</t>
+  </si>
+  <si>
+    <t>12.11.202577</t>
+  </si>
+  <si>
+    <t>12.11.202578</t>
+  </si>
+  <si>
+    <t>12.11.202579</t>
+  </si>
+  <si>
+    <t>12.11.202580</t>
+  </si>
+  <si>
+    <t>12.11.202581</t>
+  </si>
+  <si>
+    <t>12.11.202582</t>
+  </si>
+  <si>
+    <t>12.11.202583</t>
+  </si>
+  <si>
+    <t>12.11.202584</t>
+  </si>
+  <si>
+    <t>12.11.202585</t>
+  </si>
+  <si>
+    <t>12.11.202586</t>
+  </si>
+  <si>
+    <t>12.11.202587</t>
+  </si>
+  <si>
+    <t>12.11.202588</t>
+  </si>
+  <si>
+    <t>12.11.202589</t>
+  </si>
+  <si>
+    <t>12.11.202590</t>
+  </si>
+  <si>
+    <t>12.11.202591</t>
+  </si>
+  <si>
+    <t>12.11.202592</t>
+  </si>
+  <si>
+    <t>12.11.202593</t>
+  </si>
+  <si>
+    <t>12.11.202594</t>
+  </si>
+  <si>
+    <t>12.11.202595</t>
+  </si>
+  <si>
+    <t>12.11.202596</t>
+  </si>
+  <si>
+    <t>13.11.20251</t>
+  </si>
+  <si>
+    <t>13.11.20252</t>
+  </si>
+  <si>
+    <t>13.11.20253</t>
+  </si>
+  <si>
+    <t>13.11.20254</t>
+  </si>
+  <si>
+    <t>13.11.20255</t>
+  </si>
+  <si>
+    <t>13.11.20256</t>
+  </si>
+  <si>
+    <t>13.11.20257</t>
+  </si>
+  <si>
+    <t>13.11.20258</t>
+  </si>
+  <si>
+    <t>13.11.20259</t>
+  </si>
+  <si>
+    <t>13.11.202510</t>
+  </si>
+  <si>
+    <t>13.11.202511</t>
+  </si>
+  <si>
+    <t>13.11.202512</t>
+  </si>
+  <si>
+    <t>13.11.202513</t>
+  </si>
+  <si>
+    <t>13.11.202514</t>
+  </si>
+  <si>
+    <t>13.11.202515</t>
+  </si>
+  <si>
+    <t>13.11.202516</t>
+  </si>
+  <si>
+    <t>13.11.202517</t>
+  </si>
+  <si>
+    <t>13.11.202518</t>
+  </si>
+  <si>
+    <t>13.11.202519</t>
+  </si>
+  <si>
+    <t>13.11.202520</t>
+  </si>
+  <si>
+    <t>13.11.202521</t>
+  </si>
+  <si>
+    <t>13.11.202522</t>
+  </si>
+  <si>
+    <t>13.11.202523</t>
+  </si>
+  <si>
+    <t>13.11.202524</t>
+  </si>
+  <si>
+    <t>13.11.202525</t>
+  </si>
+  <si>
+    <t>13.11.202526</t>
+  </si>
+  <si>
+    <t>13.11.202527</t>
+  </si>
+  <si>
+    <t>13.11.202528</t>
+  </si>
+  <si>
+    <t>13.11.202529</t>
+  </si>
+  <si>
+    <t>13.11.202530</t>
+  </si>
+  <si>
+    <t>13.11.202531</t>
+  </si>
+  <si>
+    <t>13.11.202532</t>
+  </si>
+  <si>
+    <t>13.11.202533</t>
+  </si>
+  <si>
+    <t>13.11.202534</t>
+  </si>
+  <si>
+    <t>13.11.202535</t>
+  </si>
+  <si>
+    <t>13.11.202536</t>
+  </si>
+  <si>
+    <t>13.11.202537</t>
+  </si>
+  <si>
+    <t>13.11.202538</t>
+  </si>
+  <si>
+    <t>13.11.202539</t>
+  </si>
+  <si>
+    <t>13.11.202540</t>
+  </si>
+  <si>
+    <t>13.11.202541</t>
+  </si>
+  <si>
+    <t>13.11.202542</t>
+  </si>
+  <si>
+    <t>13.11.202543</t>
+  </si>
+  <si>
+    <t>13.11.202544</t>
+  </si>
+  <si>
+    <t>13.11.202545</t>
+  </si>
+  <si>
+    <t>13.11.202546</t>
+  </si>
+  <si>
+    <t>13.11.202547</t>
+  </si>
+  <si>
+    <t>13.11.202548</t>
+  </si>
+  <si>
+    <t>13.11.202549</t>
+  </si>
+  <si>
+    <t>13.11.202550</t>
+  </si>
+  <si>
+    <t>13.11.202551</t>
   </si>
 </sst>
 </file>
@@ -765,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -790,10 +1144,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B2">
-        <v>7.559</v>
+        <v>30.593</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -807,13 +1161,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45969.01041666666</v>
+        <v>45972.01041666666</v>
       </c>
       <c r="B3">
-        <v>6.991</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -824,13 +1178,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45969.02083333334</v>
+        <v>45972.02083333334</v>
       </c>
       <c r="B4">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -841,10 +1195,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45969.03125</v>
+        <v>45972.03125</v>
       </c>
       <c r="B5">
-        <v>9.797000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -858,13 +1212,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45969.04166666666</v>
+        <v>45972.04166666666</v>
       </c>
       <c r="B6">
-        <v>11.012</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>27.899</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -875,13 +1229,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45969.05208333334</v>
+        <v>45972.05208333334</v>
       </c>
       <c r="B7">
-        <v>12.328</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>14.722</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -892,13 +1246,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45969.0625</v>
+        <v>45972.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.295</v>
+        <v>1.073</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -909,13 +1263,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45969.07291666666</v>
+        <v>45972.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.446</v>
+        <v>20.784</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -926,13 +1280,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45969.08333333334</v>
+        <v>45972.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.608</v>
+        <v>26.337</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -943,13 +1297,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45969.09375</v>
+        <v>45972.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.819</v>
+        <v>5.769</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -960,13 +1314,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45969.10416666666</v>
+        <v>45972.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.947</v>
+        <v>0.191</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -977,13 +1331,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45969.11458333334</v>
+        <v>45972.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.029</v>
       </c>
       <c r="C13">
-        <v>4.935</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -994,13 +1348,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45969.125</v>
+        <v>45972.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.935</v>
       </c>
       <c r="C14">
-        <v>5.403</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1011,13 +1365,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45969.13541666666</v>
+        <v>45972.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C15">
-        <v>14.21</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1028,13 +1382,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45969.14583333334</v>
+        <v>45972.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.883</v>
       </c>
       <c r="C16">
-        <v>4.45</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1045,13 +1399,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45969.15625</v>
+        <v>45972.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.007</v>
+        <v>6.746</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1062,13 +1416,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45969.16666666666</v>
+        <v>45972.16666666666</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>18.442</v>
+        <v>8.949</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1079,13 +1433,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45969.17708333334</v>
+        <v>45972.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>15.97</v>
+        <v>10.756</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1096,13 +1450,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45969.1875</v>
+        <v>45972.1875</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.745</v>
+        <v>5.757</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1113,13 +1467,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45969.19791666666</v>
+        <v>45972.19791666666</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.906</v>
+        <v>11.782</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1130,13 +1484,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45969.20833333334</v>
+        <v>45972.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>32.572</v>
+        <v>8.346</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1147,13 +1501,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45969.21875</v>
+        <v>45972.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>42.72</v>
+        <v>20.014</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1164,13 +1518,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45969.22916666666</v>
+        <v>45972.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>40.523</v>
+        <v>36.828</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1181,13 +1535,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45969.23958333334</v>
+        <v>45972.23958333334</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>14.729</v>
+        <v>12.915</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1198,13 +1552,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45969.25</v>
+        <v>45972.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>55.478</v>
+        <v>36.497</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1215,13 +1569,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45969.26041666666</v>
+        <v>45972.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>27.102</v>
+        <v>50.797</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1232,13 +1586,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45969.27083333334</v>
+        <v>45972.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>9.146000000000001</v>
+        <v>20.719</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1249,13 +1603,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45969.28125</v>
+        <v>45972.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>11.311</v>
+        <v>46.087</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1266,13 +1620,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45969.29166666666</v>
+        <v>45972.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>6.839</v>
+        <v>59.661</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1283,13 +1637,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45969.30208333334</v>
+        <v>45972.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>11.886</v>
+        <v>53.857</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1300,13 +1654,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45969.3125</v>
+        <v>45972.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>2.451</v>
+        <v>48.024</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1317,13 +1671,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45969.32291666666</v>
+        <v>45972.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>13.706</v>
+        <v>13.215</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1334,13 +1688,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45969.33333333334</v>
+        <v>45972.33333333334</v>
       </c>
       <c r="B34">
-        <v>23.215</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>21.556</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1351,13 +1705,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45969.34375</v>
+        <v>45972.34375</v>
       </c>
       <c r="B35">
-        <v>48.616</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>21.724</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1368,13 +1722,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45969.35416666666</v>
+        <v>45972.35416666666</v>
       </c>
       <c r="B36">
-        <v>20.649</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>13.705</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1385,13 +1739,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45969.36458333334</v>
+        <v>45972.36458333334</v>
       </c>
       <c r="B37">
-        <v>29.451</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>27.392</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1402,13 +1756,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45969.375</v>
+        <v>45972.375</v>
       </c>
       <c r="B38">
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>23.747</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1419,13 +1773,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45969.38541666666</v>
+        <v>45972.38541666666</v>
       </c>
       <c r="B39">
-        <v>1.984</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>15.186</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1436,13 +1790,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45969.39583333334</v>
+        <v>45972.39583333334</v>
       </c>
       <c r="B40">
-        <v>13.015</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>13.354</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1453,13 +1807,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45969.40625</v>
+        <v>45972.40625</v>
       </c>
       <c r="B41">
-        <v>13.205</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>58.402</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1470,13 +1824,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45969.41666666666</v>
+        <v>45972.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>24.467</v>
+        <v>62.455</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1487,13 +1841,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45969.42708333334</v>
+        <v>45972.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>16.819</v>
+        <v>13.07</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1504,13 +1858,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45969.4375</v>
+        <v>45972.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>11.179</v>
+        <v>15.68</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1521,13 +1875,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45969.44791666666</v>
+        <v>45972.44791666666</v>
       </c>
       <c r="B45">
-        <v>2.916</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.266</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1538,13 +1892,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45969.45833333334</v>
+        <v>45972.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>19.532</v>
+        <v>28.833</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1555,13 +1909,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45969.46875</v>
+        <v>45972.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>16.58</v>
+        <v>29.159</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1572,10 +1926,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45969.47916666666</v>
+        <v>45972.47916666666</v>
       </c>
       <c r="B48">
-        <v>1.709</v>
+        <v>0.891</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1589,13 +1943,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45969.48958333334</v>
+        <v>45972.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.703</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2.771</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1606,13 +1960,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45969.5</v>
+        <v>45972.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>2.462</v>
+        <v>7.657</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1623,13 +1977,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45969.51041666666</v>
+        <v>45972.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>4.869</v>
       </c>
       <c r="C51">
-        <v>2.664</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1640,10 +1994,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45969.52083333334</v>
+        <v>45972.52083333334</v>
       </c>
       <c r="B52">
-        <v>6.383</v>
+        <v>8.965999999999999</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1657,10 +2011,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45969.53125</v>
+        <v>45972.53125</v>
       </c>
       <c r="B53">
-        <v>10.47</v>
+        <v>6.964</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1674,13 +2028,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45969.54166666666</v>
+        <v>45972.54166666666</v>
       </c>
       <c r="B54">
-        <v>1.717</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>12.157</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1691,13 +2045,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45969.55208333334</v>
+        <v>45972.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0.711</v>
+        <v>0.544</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1708,10 +2062,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45969.5625</v>
+        <v>45972.5625</v>
       </c>
       <c r="B56">
-        <v>9.016</v>
+        <v>0.075</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1725,13 +2079,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45969.57291666666</v>
+        <v>45972.57291666666</v>
       </c>
       <c r="B57">
-        <v>3.625</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>6.658</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1742,13 +2096,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45969.58333333334</v>
+        <v>45972.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0.825</v>
+        <v>41.658</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1759,13 +2113,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45969.59375</v>
+        <v>45972.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>16.911</v>
+        <v>22.481</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1776,13 +2130,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45969.60416666666</v>
+        <v>45972.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>19.879</v>
+        <v>5.932</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1793,13 +2147,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45969.61458333334</v>
+        <v>45972.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="C61">
-        <v>25.587</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1810,13 +2164,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45969.625</v>
+        <v>45972.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>14.476</v>
       </c>
       <c r="C62">
-        <v>38.336</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1827,13 +2181,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45969.63541666666</v>
+        <v>45972.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1.843</v>
       </c>
       <c r="C63">
-        <v>49.273</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1844,13 +2198,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45969.64583333334</v>
+        <v>45972.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>53.803</v>
+        <v>2.061</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1861,13 +2215,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45969.65625</v>
+        <v>45972.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>9.449</v>
       </c>
       <c r="C65">
-        <v>13.146</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1878,13 +2232,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45969.66666666666</v>
+        <v>45972.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>8.837</v>
       </c>
       <c r="C66">
-        <v>7.689</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1895,13 +2249,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45969.67708333334</v>
+        <v>45972.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>22.721</v>
       </c>
       <c r="C67">
-        <v>71.08799999999999</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1912,13 +2266,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45969.6875</v>
+        <v>45972.6875</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>26.579</v>
       </c>
       <c r="C68">
-        <v>102.073</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1929,13 +2283,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45969.69791666666</v>
+        <v>45972.69791666666</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>8.211</v>
       </c>
       <c r="C69">
-        <v>37.887</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1946,13 +2300,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45969.70833333334</v>
+        <v>45972.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>33.246</v>
+        <v>12.037</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1963,13 +2317,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45969.71875</v>
+        <v>45972.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>4.179</v>
       </c>
       <c r="C71">
-        <v>45.54</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1980,13 +2334,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45969.72916666666</v>
+        <v>45972.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>7.924</v>
       </c>
       <c r="C72">
-        <v>58.506</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1997,13 +2351,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45969.73958333334</v>
+        <v>45972.73958333334</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>14.265</v>
       </c>
       <c r="C73">
-        <v>39.025</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2014,13 +2368,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45969.75</v>
+        <v>45972.75</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>11.847</v>
+        <v>3.704</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2031,13 +2385,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45969.76041666666</v>
+        <v>45972.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>48.106</v>
+        <v>18.23</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2048,13 +2402,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45969.77083333334</v>
+        <v>45972.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>37.897</v>
+        <v>21.622</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2065,13 +2419,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45969.78125</v>
+        <v>45972.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>9.526</v>
+        <v>33.302</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2082,13 +2436,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45969.79166666666</v>
+        <v>45972.79166666666</v>
       </c>
       <c r="B78">
-        <v>5.091</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>38.733</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2099,10 +2453,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45969.80208333334</v>
+        <v>45972.80208333334</v>
       </c>
       <c r="B79">
-        <v>5.363</v>
+        <v>10.396</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2116,13 +2470,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45969.8125</v>
+        <v>45972.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>2.898</v>
       </c>
       <c r="C80">
-        <v>4.519</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2133,13 +2487,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45969.82291666666</v>
+        <v>45972.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>5.337</v>
       </c>
       <c r="C81">
-        <v>4.431</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2150,13 +2504,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45969.83333333334</v>
+        <v>45972.83333333334</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>13.679</v>
       </c>
       <c r="C82">
-        <v>14.913</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2167,13 +2521,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45969.84375</v>
+        <v>45972.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>4.042</v>
       </c>
       <c r="C83">
-        <v>5.578</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2184,13 +2538,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45969.85416666666</v>
+        <v>45972.85416666666</v>
       </c>
       <c r="B84">
-        <v>1.431</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>16.921</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2201,13 +2555,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45969.86458333334</v>
+        <v>45972.86458333334</v>
       </c>
       <c r="B85">
-        <v>9.343</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>23.652</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2218,13 +2572,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45969.875</v>
+        <v>45972.875</v>
       </c>
       <c r="B86">
-        <v>36.622</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2235,13 +2589,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45969.88541666666</v>
+        <v>45972.88541666666</v>
       </c>
       <c r="B87">
-        <v>57.396</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>8.999000000000001</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2252,10 +2606,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45969.89583333334</v>
+        <v>45972.89583333334</v>
       </c>
       <c r="B88">
-        <v>62.819</v>
+        <v>1.433</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2269,13 +2623,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45969.90625</v>
+        <v>45972.90625</v>
       </c>
       <c r="B89">
-        <v>23.907</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>12.402</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2286,10 +2640,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45969.91666666666</v>
+        <v>45972.91666666666</v>
       </c>
       <c r="B90">
-        <v>60.164</v>
+        <v>2.344</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2303,10 +2657,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45969.92708333334</v>
+        <v>45972.92708333334</v>
       </c>
       <c r="B91">
-        <v>63.151</v>
+        <v>7.522</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2320,13 +2674,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45969.9375</v>
+        <v>45972.9375</v>
       </c>
       <c r="B92">
-        <v>35.703</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>6.448</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2337,13 +2691,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45969.94791666666</v>
+        <v>45972.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>46.904</v>
+        <v>3.354</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2354,13 +2708,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45969.95833333334</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>7.278</v>
       </c>
       <c r="C94">
-        <v>40.492</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2371,13 +2725,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45969.96875</v>
+        <v>45972.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>21.802</v>
       </c>
       <c r="C95">
-        <v>28.099</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2388,13 +2742,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45969.97916666666</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>7.771</v>
       </c>
       <c r="C96">
-        <v>24.926</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2405,13 +2759,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45969.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>5.273</v>
       </c>
       <c r="C97">
-        <v>19.937</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2422,13 +2776,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45970</v>
+        <v>45973</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>3.336</v>
+        <v>4.784</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2439,13 +2793,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45970.01041666666</v>
+        <v>45973.01041666666</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>12.392</v>
+        <v>12.196</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2456,13 +2810,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45970.02083333334</v>
+        <v>45973.02083333334</v>
       </c>
       <c r="B100">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2473,13 +2827,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45970.03125</v>
+        <v>45973.03125</v>
       </c>
       <c r="B101">
-        <v>2.548</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>7.028</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2490,13 +2844,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45970.04166666666</v>
+        <v>45973.04166666666</v>
       </c>
       <c r="B102">
-        <v>2.714</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>8.757999999999999</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2507,13 +2861,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45970.05208333334</v>
+        <v>45973.05208333334</v>
       </c>
       <c r="B103">
-        <v>3.152</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>9.231999999999999</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2524,13 +2878,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45970.0625</v>
+        <v>45973.0625</v>
       </c>
       <c r="B104">
-        <v>1.415</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>19.429</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2541,13 +2895,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45970.07291666666</v>
+        <v>45973.07291666666</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>4.466</v>
+        <v>18.232</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2558,13 +2912,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45970.08333333334</v>
+        <v>45973.08333333334</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>43.296</v>
+        <v>6.623</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2575,13 +2929,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45970.09375</v>
+        <v>45973.09375</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>8.038</v>
+        <v>13.805</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2592,13 +2946,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45970.10416666666</v>
+        <v>45973.10416666666</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>10.085</v>
+        <v>16.994</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2609,13 +2963,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45970.11458333334</v>
+        <v>45973.11458333334</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>18.859</v>
+        <v>13.618</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2626,13 +2980,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45970.125</v>
+        <v>45973.125</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>14.02</v>
+        <v>25.371</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2643,13 +2997,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45970.13541666666</v>
+        <v>45973.13541666666</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>12.082</v>
+        <v>6.155</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2660,13 +3014,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45970.14583333334</v>
+        <v>45973.14583333334</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>23.1</v>
+        <v>10.666</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2677,13 +3031,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45970.15625</v>
+        <v>45973.15625</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>39.492</v>
+        <v>2.325</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2694,13 +3048,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45970.16666666666</v>
+        <v>45973.16666666666</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>43.429</v>
+        <v>29.444</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2711,13 +3065,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45970.17708333334</v>
+        <v>45973.17708333334</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>4.294</v>
       </c>
       <c r="C115">
-        <v>56.841</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2728,13 +3082,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45970.1875</v>
+        <v>45973.1875</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>26.701</v>
       </c>
       <c r="C116">
-        <v>43.718</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2745,13 +3099,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45970.19791666666</v>
+        <v>45973.19791666666</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>13.791</v>
       </c>
       <c r="C117">
-        <v>28.822</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2762,13 +3116,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45970.20833333334</v>
+        <v>45973.20833333334</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>32.618</v>
+        <v>4.06</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2779,13 +3133,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45970.21875</v>
+        <v>45973.21875</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>7.29</v>
       </c>
       <c r="C119">
-        <v>37.322</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2796,13 +3150,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45970.22916666666</v>
+        <v>45973.22916666666</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>8.175000000000001</v>
       </c>
       <c r="C120">
-        <v>31.802</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -2813,13 +3167,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45970.23958333334</v>
+        <v>45973.23958333334</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>9.803000000000001</v>
       </c>
       <c r="C121">
-        <v>36.693</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -2830,13 +3184,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45970.25</v>
+        <v>45973.25</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>49.894</v>
+        <v>8.298999999999999</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -2847,13 +3201,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45970.26041666666</v>
+        <v>45973.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>2.715</v>
       </c>
       <c r="C123">
-        <v>44.773</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -2864,13 +3218,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45970.27083333334</v>
+        <v>45973.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>8.641</v>
       </c>
       <c r="C124">
-        <v>26.665</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -2881,13 +3235,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45970.28125</v>
+        <v>45973.28125</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>2.122</v>
+        <v>3.757</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -2898,19 +3252,2025 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45970.29166666666</v>
+        <v>45973.29166666666</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>10.869</v>
+        <v>12.685</v>
       </c>
       <c r="D126">
         <v>29</v>
       </c>
       <c r="E126" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>45973.30208333334</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>8.577999999999999</v>
+      </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>45973.3125</v>
+      </c>
+      <c r="B128">
+        <v>13.191</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>45973.32291666666</v>
+      </c>
+      <c r="B129">
+        <v>11.228</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>45973.33333333334</v>
+      </c>
+      <c r="B130">
+        <v>7.838</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>33</v>
+      </c>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45973.34375</v>
+      </c>
+      <c r="B131">
+        <v>7.225</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>34</v>
+      </c>
+      <c r="E131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45973.35416666666</v>
+      </c>
+      <c r="B132">
+        <v>1.41</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45973.36458333334</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0.17</v>
+      </c>
+      <c r="D133">
+        <v>36</v>
+      </c>
+      <c r="E133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45973.375</v>
+      </c>
+      <c r="B134">
+        <v>12.041</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45973.38541666666</v>
+      </c>
+      <c r="B135">
+        <v>12.192</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45973.39583333334</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>9.542</v>
+      </c>
+      <c r="D136">
+        <v>39</v>
+      </c>
+      <c r="E136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45973.40625</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>40.058</v>
+      </c>
+      <c r="D137">
+        <v>40</v>
+      </c>
+      <c r="E137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45973.41666666666</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>8.116</v>
+      </c>
+      <c r="D138">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45973.42708333334</v>
+      </c>
+      <c r="B139">
+        <v>1.863</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>42</v>
+      </c>
+      <c r="E139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45973.4375</v>
+      </c>
+      <c r="B140">
+        <v>2.085</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>43</v>
+      </c>
+      <c r="E140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45973.44791666666</v>
+      </c>
+      <c r="B141">
+        <v>2.36</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>44</v>
+      </c>
+      <c r="E141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45973.45833333334</v>
+      </c>
+      <c r="B142">
+        <v>11.083</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>45</v>
+      </c>
+      <c r="E142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45973.46875</v>
+      </c>
+      <c r="B143">
+        <v>0.145</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>46</v>
+      </c>
+      <c r="E143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45973.47916666666</v>
+      </c>
+      <c r="B144">
+        <v>10.864</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>47</v>
+      </c>
+      <c r="E144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45973.48958333334</v>
+      </c>
+      <c r="B145">
+        <v>34.74</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>48</v>
+      </c>
+      <c r="E145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45973.5</v>
+      </c>
+      <c r="B146">
+        <v>3.904</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>49</v>
+      </c>
+      <c r="E146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45973.51041666666</v>
+      </c>
+      <c r="B147">
+        <v>4.647</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45973.52083333334</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>2.728</v>
+      </c>
+      <c r="D148">
+        <v>51</v>
+      </c>
+      <c r="E148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45973.53125</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>27.926</v>
+      </c>
+      <c r="D149">
+        <v>52</v>
+      </c>
+      <c r="E149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45973.54166666666</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>58.593</v>
+      </c>
+      <c r="D150">
+        <v>53</v>
+      </c>
+      <c r="E150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45973.55208333334</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>46.314</v>
+      </c>
+      <c r="D151">
+        <v>54</v>
+      </c>
+      <c r="E151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45973.5625</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>32.009</v>
+      </c>
+      <c r="D152">
+        <v>55</v>
+      </c>
+      <c r="E152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45973.57291666666</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>27.151</v>
+      </c>
+      <c r="D153">
+        <v>56</v>
+      </c>
+      <c r="E153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45973.58333333334</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>59.512</v>
+      </c>
+      <c r="D154">
+        <v>57</v>
+      </c>
+      <c r="E154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45973.59375</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>42.064</v>
+      </c>
+      <c r="D155">
+        <v>58</v>
+      </c>
+      <c r="E155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45973.60416666666</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>40.9</v>
+      </c>
+      <c r="D156">
+        <v>59</v>
+      </c>
+      <c r="E156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45973.61458333334</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>41.482</v>
+      </c>
+      <c r="D157">
+        <v>60</v>
+      </c>
+      <c r="E157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45973.625</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>9.526</v>
+      </c>
+      <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45973.63541666666</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>21.241</v>
+      </c>
+      <c r="D159">
+        <v>62</v>
+      </c>
+      <c r="E159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45973.64583333334</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>9.754</v>
+      </c>
+      <c r="D160">
+        <v>63</v>
+      </c>
+      <c r="E160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45973.65625</v>
+      </c>
+      <c r="B161">
+        <v>1.811</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>64</v>
+      </c>
+      <c r="E161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45973.66666666666</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>11.17</v>
+      </c>
+      <c r="D162">
+        <v>65</v>
+      </c>
+      <c r="E162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45973.67708333334</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>11.865</v>
+      </c>
+      <c r="D163">
+        <v>66</v>
+      </c>
+      <c r="E163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45973.6875</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>24.833</v>
+      </c>
+      <c r="D164">
+        <v>67</v>
+      </c>
+      <c r="E164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45973.69791666666</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>25.086</v>
+      </c>
+      <c r="D165">
+        <v>68</v>
+      </c>
+      <c r="E165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45973.70833333334</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>27.781</v>
+      </c>
+      <c r="D166">
+        <v>69</v>
+      </c>
+      <c r="E166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45973.71875</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>44.774</v>
+      </c>
+      <c r="D167">
+        <v>70</v>
+      </c>
+      <c r="E167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45973.72916666666</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>33.691</v>
+      </c>
+      <c r="D168">
+        <v>71</v>
+      </c>
+      <c r="E168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45973.73958333334</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>1.063</v>
+      </c>
+      <c r="D169">
+        <v>72</v>
+      </c>
+      <c r="E169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45973.75</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>25.065</v>
+      </c>
+      <c r="D170">
+        <v>73</v>
+      </c>
+      <c r="E170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45973.76041666666</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>10.643</v>
+      </c>
+      <c r="D171">
+        <v>74</v>
+      </c>
+      <c r="E171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45973.77083333334</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>9.976000000000001</v>
+      </c>
+      <c r="D172">
+        <v>75</v>
+      </c>
+      <c r="E172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45973.78125</v>
+      </c>
+      <c r="B173">
+        <v>0.138</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>76</v>
+      </c>
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45973.79166666666</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>28.734</v>
+      </c>
+      <c r="D174">
+        <v>77</v>
+      </c>
+      <c r="E174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45973.80208333334</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>26.876</v>
+      </c>
+      <c r="D175">
+        <v>78</v>
+      </c>
+      <c r="E175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45973.8125</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>24.493</v>
+      </c>
+      <c r="D176">
+        <v>79</v>
+      </c>
+      <c r="E176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45973.82291666666</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>27.715</v>
+      </c>
+      <c r="D177">
+        <v>80</v>
+      </c>
+      <c r="E177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45973.83333333334</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>27.384</v>
+      </c>
+      <c r="D178">
+        <v>81</v>
+      </c>
+      <c r="E178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45973.84375</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>17.748</v>
+      </c>
+      <c r="D179">
+        <v>82</v>
+      </c>
+      <c r="E179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45973.85416666666</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>5.644</v>
+      </c>
+      <c r="D180">
+        <v>83</v>
+      </c>
+      <c r="E180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45973.86458333334</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>8.467000000000001</v>
+      </c>
+      <c r="D181">
+        <v>84</v>
+      </c>
+      <c r="E181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45973.875</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>7.962</v>
+      </c>
+      <c r="D182">
+        <v>85</v>
+      </c>
+      <c r="E182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45973.88541666666</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>9.592000000000001</v>
+      </c>
+      <c r="D183">
+        <v>86</v>
+      </c>
+      <c r="E183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45973.89583333334</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>12.289</v>
+      </c>
+      <c r="D184">
+        <v>87</v>
+      </c>
+      <c r="E184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45973.90625</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>20.328</v>
+      </c>
+      <c r="D185">
+        <v>88</v>
+      </c>
+      <c r="E185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45973.91666666666</v>
+      </c>
+      <c r="B186">
+        <v>1.389</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>89</v>
+      </c>
+      <c r="E186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45973.92708333334</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>7.288</v>
+      </c>
+      <c r="D187">
+        <v>90</v>
+      </c>
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45973.9375</v>
+      </c>
+      <c r="B188">
+        <v>2.823</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>91</v>
+      </c>
+      <c r="E188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45973.94791666666</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>7.946</v>
+      </c>
+      <c r="D189">
+        <v>92</v>
+      </c>
+      <c r="E189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45973.95833333334</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>3.573</v>
+      </c>
+      <c r="D190">
+        <v>93</v>
+      </c>
+      <c r="E190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45973.96875</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0.846</v>
+      </c>
+      <c r="D191">
+        <v>94</v>
+      </c>
+      <c r="E191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45973.97916666666</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>3.07</v>
+      </c>
+      <c r="D192">
+        <v>95</v>
+      </c>
+      <c r="E192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45973.98958333334</v>
+      </c>
+      <c r="B193">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>96</v>
+      </c>
+      <c r="E193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>4.354</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45974.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>14.038</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45974.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>10.571</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45974.03125</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0.841</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45974.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45974.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>1.875</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45974.0625</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>1.337</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45974.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>10.749</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45974.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>6.756</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45974.09375</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>1.424</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45974.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>7.441</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45974.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>0.355</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45974.125</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>7.852</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45974.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>2.023</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45974.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>1.925</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45974.15625</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0.656</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45974.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>0.228</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45974.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>1.196</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45974.1875</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>3.087</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45974.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>6.424</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45974.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>12.708</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45974.21875</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>7.139</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45974.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>5.025</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45974.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>1.687</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45974.25</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>10.255</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45974.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>11.807</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45974.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>1.426</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45974.28125</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>5.833</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45974.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>10.439</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45974.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0.575</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45974.3125</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>3.922</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45974.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>6.028</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45974.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>10.131</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45974.34375</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>3.175</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45974.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>5.735</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45974.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>11.4</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45974.375</v>
+      </c>
+      <c r="B230">
+        <v>16.022</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45974.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>11.034</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45974.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45974.40625</v>
+      </c>
+      <c r="B233">
+        <v>15.748</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45974.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>36.696</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>41</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45974.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>20.149</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>42</v>
+      </c>
+      <c r="E235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45974.4375</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>0.836</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45974.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>2.804</v>
+      </c>
+      <c r="D237">
+        <v>44</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45974.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>13.601</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45974.46875</v>
+      </c>
+      <c r="B239">
+        <v>1.385</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45974.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>11.201</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45974.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>36.612</v>
+      </c>
+      <c r="D241">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45974.5</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>26.965</v>
+      </c>
+      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45974.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>33.702</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45974.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>49.054</v>
+      </c>
+      <c r="D244">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="198">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,382 +31,583 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.11.20251</t>
-  </si>
-  <si>
-    <t>20.11.20252</t>
-  </si>
-  <si>
-    <t>20.11.20253</t>
-  </si>
-  <si>
-    <t>20.11.20254</t>
-  </si>
-  <si>
-    <t>20.11.20255</t>
-  </si>
-  <si>
-    <t>20.11.20256</t>
-  </si>
-  <si>
-    <t>20.11.20257</t>
-  </si>
-  <si>
-    <t>20.11.20258</t>
-  </si>
-  <si>
-    <t>20.11.20259</t>
-  </si>
-  <si>
-    <t>20.11.202510</t>
-  </si>
-  <si>
-    <t>20.11.202511</t>
-  </si>
-  <si>
-    <t>20.11.202512</t>
-  </si>
-  <si>
-    <t>20.11.202513</t>
-  </si>
-  <si>
-    <t>20.11.202514</t>
-  </si>
-  <si>
-    <t>20.11.202515</t>
-  </si>
-  <si>
-    <t>20.11.202516</t>
-  </si>
-  <si>
-    <t>20.11.202517</t>
-  </si>
-  <si>
-    <t>20.11.202518</t>
-  </si>
-  <si>
-    <t>20.11.202519</t>
-  </si>
-  <si>
-    <t>20.11.202520</t>
-  </si>
-  <si>
-    <t>20.11.202521</t>
-  </si>
-  <si>
-    <t>20.11.202522</t>
-  </si>
-  <si>
-    <t>20.11.202523</t>
-  </si>
-  <si>
-    <t>20.11.202524</t>
-  </si>
-  <si>
-    <t>20.11.202525</t>
-  </si>
-  <si>
-    <t>20.11.202526</t>
-  </si>
-  <si>
-    <t>20.11.202527</t>
-  </si>
-  <si>
-    <t>20.11.202528</t>
-  </si>
-  <si>
-    <t>20.11.202529</t>
-  </si>
-  <si>
-    <t>20.11.202530</t>
-  </si>
-  <si>
-    <t>20.11.202531</t>
-  </si>
-  <si>
-    <t>20.11.202532</t>
-  </si>
-  <si>
-    <t>20.11.202533</t>
-  </si>
-  <si>
-    <t>20.11.202534</t>
-  </si>
-  <si>
-    <t>20.11.202535</t>
-  </si>
-  <si>
-    <t>20.11.202536</t>
-  </si>
-  <si>
-    <t>20.11.202537</t>
-  </si>
-  <si>
-    <t>20.11.202538</t>
-  </si>
-  <si>
-    <t>20.11.202539</t>
-  </si>
-  <si>
-    <t>20.11.202540</t>
-  </si>
-  <si>
-    <t>20.11.202541</t>
-  </si>
-  <si>
-    <t>20.11.202542</t>
-  </si>
-  <si>
-    <t>20.11.202543</t>
-  </si>
-  <si>
-    <t>20.11.202544</t>
-  </si>
-  <si>
-    <t>20.11.202545</t>
-  </si>
-  <si>
-    <t>20.11.202546</t>
-  </si>
-  <si>
-    <t>20.11.202547</t>
-  </si>
-  <si>
-    <t>20.11.202548</t>
-  </si>
-  <si>
-    <t>20.11.202549</t>
-  </si>
-  <si>
-    <t>20.11.202550</t>
-  </si>
-  <si>
-    <t>20.11.202551</t>
-  </si>
-  <si>
-    <t>20.11.202552</t>
-  </si>
-  <si>
-    <t>20.11.202553</t>
-  </si>
-  <si>
-    <t>20.11.202554</t>
-  </si>
-  <si>
-    <t>20.11.202555</t>
-  </si>
-  <si>
-    <t>20.11.202556</t>
-  </si>
-  <si>
-    <t>20.11.202557</t>
-  </si>
-  <si>
-    <t>20.11.202558</t>
-  </si>
-  <si>
-    <t>20.11.202559</t>
-  </si>
-  <si>
-    <t>20.11.202560</t>
-  </si>
-  <si>
-    <t>20.11.202561</t>
-  </si>
-  <si>
-    <t>20.11.202562</t>
-  </si>
-  <si>
-    <t>20.11.202563</t>
-  </si>
-  <si>
-    <t>20.11.202564</t>
-  </si>
-  <si>
-    <t>20.11.202565</t>
-  </si>
-  <si>
-    <t>20.11.202566</t>
-  </si>
-  <si>
-    <t>20.11.202567</t>
-  </si>
-  <si>
-    <t>20.11.202568</t>
-  </si>
-  <si>
-    <t>20.11.202569</t>
-  </si>
-  <si>
-    <t>20.11.202570</t>
-  </si>
-  <si>
-    <t>20.11.202571</t>
-  </si>
-  <si>
-    <t>20.11.202572</t>
-  </si>
-  <si>
-    <t>20.11.202573</t>
-  </si>
-  <si>
-    <t>20.11.202574</t>
-  </si>
-  <si>
-    <t>20.11.202575</t>
-  </si>
-  <si>
-    <t>20.11.202576</t>
-  </si>
-  <si>
-    <t>20.11.202577</t>
-  </si>
-  <si>
-    <t>20.11.202578</t>
-  </si>
-  <si>
-    <t>20.11.202579</t>
-  </si>
-  <si>
-    <t>20.11.202580</t>
-  </si>
-  <si>
-    <t>20.11.202581</t>
-  </si>
-  <si>
-    <t>20.11.202582</t>
-  </si>
-  <si>
-    <t>20.11.202583</t>
-  </si>
-  <si>
-    <t>20.11.202584</t>
-  </si>
-  <si>
-    <t>20.11.202585</t>
-  </si>
-  <si>
-    <t>20.11.202586</t>
-  </si>
-  <si>
-    <t>20.11.202587</t>
-  </si>
-  <si>
-    <t>20.11.202588</t>
-  </si>
-  <si>
-    <t>20.11.202589</t>
-  </si>
-  <si>
-    <t>20.11.202590</t>
-  </si>
-  <si>
-    <t>20.11.202591</t>
-  </si>
-  <si>
-    <t>20.11.202592</t>
-  </si>
-  <si>
-    <t>20.11.202593</t>
-  </si>
-  <si>
-    <t>20.11.202594</t>
-  </si>
-  <si>
-    <t>20.11.202595</t>
-  </si>
-  <si>
-    <t>20.11.202596</t>
-  </si>
-  <si>
-    <t>21.11.20251</t>
-  </si>
-  <si>
-    <t>21.11.20252</t>
-  </si>
-  <si>
-    <t>21.11.20253</t>
-  </si>
-  <si>
-    <t>21.11.20254</t>
-  </si>
-  <si>
-    <t>21.11.20255</t>
-  </si>
-  <si>
-    <t>21.11.20256</t>
-  </si>
-  <si>
-    <t>21.11.20257</t>
-  </si>
-  <si>
-    <t>21.11.20258</t>
-  </si>
-  <si>
-    <t>21.11.20259</t>
-  </si>
-  <si>
-    <t>21.11.202510</t>
-  </si>
-  <si>
-    <t>21.11.202511</t>
-  </si>
-  <si>
-    <t>21.11.202512</t>
-  </si>
-  <si>
-    <t>21.11.202513</t>
-  </si>
-  <si>
-    <t>21.11.202514</t>
-  </si>
-  <si>
-    <t>21.11.202515</t>
-  </si>
-  <si>
-    <t>21.11.202516</t>
-  </si>
-  <si>
-    <t>21.11.202517</t>
-  </si>
-  <si>
-    <t>21.11.202518</t>
-  </si>
-  <si>
-    <t>21.11.202519</t>
-  </si>
-  <si>
-    <t>21.11.202520</t>
-  </si>
-  <si>
-    <t>21.11.202521</t>
-  </si>
-  <si>
-    <t>21.11.202522</t>
-  </si>
-  <si>
-    <t>21.11.202523</t>
-  </si>
-  <si>
-    <t>21.11.202524</t>
-  </si>
-  <si>
-    <t>21.11.202525</t>
-  </si>
-  <si>
-    <t>21.11.202526</t>
-  </si>
-  <si>
-    <t>21.11.202527</t>
-  </si>
-  <si>
-    <t>21.11.202528</t>
-  </si>
-  <si>
-    <t>21.11.202529</t>
-  </si>
-  <si>
-    <t>21.11.202530</t>
+    <t>22.11.20251</t>
+  </si>
+  <si>
+    <t>23.11.20252</t>
+  </si>
+  <si>
+    <t>23.11.20253</t>
+  </si>
+  <si>
+    <t>23.11.20254</t>
+  </si>
+  <si>
+    <t>23.11.20255</t>
+  </si>
+  <si>
+    <t>23.11.20256</t>
+  </si>
+  <si>
+    <t>23.11.20257</t>
+  </si>
+  <si>
+    <t>23.11.20258</t>
+  </si>
+  <si>
+    <t>23.11.20259</t>
+  </si>
+  <si>
+    <t>23.11.202510</t>
+  </si>
+  <si>
+    <t>23.11.202511</t>
+  </si>
+  <si>
+    <t>23.11.202512</t>
+  </si>
+  <si>
+    <t>23.11.202513</t>
+  </si>
+  <si>
+    <t>23.11.202514</t>
+  </si>
+  <si>
+    <t>23.11.202515</t>
+  </si>
+  <si>
+    <t>23.11.202516</t>
+  </si>
+  <si>
+    <t>23.11.202517</t>
+  </si>
+  <si>
+    <t>23.11.202518</t>
+  </si>
+  <si>
+    <t>23.11.202519</t>
+  </si>
+  <si>
+    <t>23.11.202520</t>
+  </si>
+  <si>
+    <t>23.11.202521</t>
+  </si>
+  <si>
+    <t>23.11.202522</t>
+  </si>
+  <si>
+    <t>23.11.202523</t>
+  </si>
+  <si>
+    <t>23.11.202524</t>
+  </si>
+  <si>
+    <t>23.11.202525</t>
+  </si>
+  <si>
+    <t>23.11.202526</t>
+  </si>
+  <si>
+    <t>23.11.202527</t>
+  </si>
+  <si>
+    <t>23.11.202528</t>
+  </si>
+  <si>
+    <t>23.11.202529</t>
+  </si>
+  <si>
+    <t>23.11.202530</t>
+  </si>
+  <si>
+    <t>23.11.202531</t>
+  </si>
+  <si>
+    <t>23.11.202532</t>
+  </si>
+  <si>
+    <t>23.11.202533</t>
+  </si>
+  <si>
+    <t>23.11.202534</t>
+  </si>
+  <si>
+    <t>23.11.202535</t>
+  </si>
+  <si>
+    <t>23.11.202536</t>
+  </si>
+  <si>
+    <t>23.11.202537</t>
+  </si>
+  <si>
+    <t>23.11.202538</t>
+  </si>
+  <si>
+    <t>23.11.202539</t>
+  </si>
+  <si>
+    <t>23.11.202540</t>
+  </si>
+  <si>
+    <t>23.11.202541</t>
+  </si>
+  <si>
+    <t>23.11.202542</t>
+  </si>
+  <si>
+    <t>23.11.202543</t>
+  </si>
+  <si>
+    <t>23.11.202544</t>
+  </si>
+  <si>
+    <t>23.11.202545</t>
+  </si>
+  <si>
+    <t>23.11.202546</t>
+  </si>
+  <si>
+    <t>23.11.202547</t>
+  </si>
+  <si>
+    <t>23.11.202548</t>
+  </si>
+  <si>
+    <t>23.11.202549</t>
+  </si>
+  <si>
+    <t>23.11.202550</t>
+  </si>
+  <si>
+    <t>23.11.202551</t>
+  </si>
+  <si>
+    <t>23.11.202552</t>
+  </si>
+  <si>
+    <t>23.11.202553</t>
+  </si>
+  <si>
+    <t>23.11.202554</t>
+  </si>
+  <si>
+    <t>23.11.202555</t>
+  </si>
+  <si>
+    <t>23.11.202556</t>
+  </si>
+  <si>
+    <t>23.11.202557</t>
+  </si>
+  <si>
+    <t>23.11.202558</t>
+  </si>
+  <si>
+    <t>23.11.202559</t>
+  </si>
+  <si>
+    <t>23.11.202560</t>
+  </si>
+  <si>
+    <t>23.11.202561</t>
+  </si>
+  <si>
+    <t>23.11.202562</t>
+  </si>
+  <si>
+    <t>23.11.202563</t>
+  </si>
+  <si>
+    <t>23.11.202564</t>
+  </si>
+  <si>
+    <t>23.11.202565</t>
+  </si>
+  <si>
+    <t>23.11.202566</t>
+  </si>
+  <si>
+    <t>23.11.202567</t>
+  </si>
+  <si>
+    <t>23.11.202568</t>
+  </si>
+  <si>
+    <t>23.11.202569</t>
+  </si>
+  <si>
+    <t>23.11.202570</t>
+  </si>
+  <si>
+    <t>23.11.202571</t>
+  </si>
+  <si>
+    <t>23.11.202572</t>
+  </si>
+  <si>
+    <t>23.11.202573</t>
+  </si>
+  <si>
+    <t>23.11.202574</t>
+  </si>
+  <si>
+    <t>23.11.202575</t>
+  </si>
+  <si>
+    <t>23.11.202576</t>
+  </si>
+  <si>
+    <t>23.11.202577</t>
+  </si>
+  <si>
+    <t>23.11.202578</t>
+  </si>
+  <si>
+    <t>23.11.202579</t>
+  </si>
+  <si>
+    <t>23.11.202580</t>
+  </si>
+  <si>
+    <t>23.11.202581</t>
+  </si>
+  <si>
+    <t>23.11.202582</t>
+  </si>
+  <si>
+    <t>23.11.202583</t>
+  </si>
+  <si>
+    <t>23.11.202584</t>
+  </si>
+  <si>
+    <t>23.11.202585</t>
+  </si>
+  <si>
+    <t>23.11.202586</t>
+  </si>
+  <si>
+    <t>23.11.202587</t>
+  </si>
+  <si>
+    <t>23.11.202588</t>
+  </si>
+  <si>
+    <t>23.11.202589</t>
+  </si>
+  <si>
+    <t>23.11.202590</t>
+  </si>
+  <si>
+    <t>23.11.202591</t>
+  </si>
+  <si>
+    <t>23.11.202592</t>
+  </si>
+  <si>
+    <t>23.11.202593</t>
+  </si>
+  <si>
+    <t>23.11.202594</t>
+  </si>
+  <si>
+    <t>23.11.202595</t>
+  </si>
+  <si>
+    <t>23.11.202596</t>
+  </si>
+  <si>
+    <t>23.11.20251</t>
+  </si>
+  <si>
+    <t>24.11.20253</t>
+  </si>
+  <si>
+    <t>24.11.20254</t>
+  </si>
+  <si>
+    <t>24.11.20255</t>
+  </si>
+  <si>
+    <t>24.11.20256</t>
+  </si>
+  <si>
+    <t>24.11.20257</t>
+  </si>
+  <si>
+    <t>24.11.20258</t>
+  </si>
+  <si>
+    <t>24.11.20259</t>
+  </si>
+  <si>
+    <t>24.11.202510</t>
+  </si>
+  <si>
+    <t>24.11.202511</t>
+  </si>
+  <si>
+    <t>24.11.202512</t>
+  </si>
+  <si>
+    <t>24.11.202513</t>
+  </si>
+  <si>
+    <t>24.11.202514</t>
+  </si>
+  <si>
+    <t>24.11.202515</t>
+  </si>
+  <si>
+    <t>24.11.202516</t>
+  </si>
+  <si>
+    <t>24.11.202517</t>
+  </si>
+  <si>
+    <t>24.11.202518</t>
+  </si>
+  <si>
+    <t>24.11.202519</t>
+  </si>
+  <si>
+    <t>24.11.202520</t>
+  </si>
+  <si>
+    <t>24.11.202521</t>
+  </si>
+  <si>
+    <t>24.11.202522</t>
+  </si>
+  <si>
+    <t>24.11.202523</t>
+  </si>
+  <si>
+    <t>24.11.202524</t>
+  </si>
+  <si>
+    <t>24.11.202525</t>
+  </si>
+  <si>
+    <t>24.11.202526</t>
+  </si>
+  <si>
+    <t>24.11.202527</t>
+  </si>
+  <si>
+    <t>24.11.202528</t>
+  </si>
+  <si>
+    <t>24.11.202529</t>
+  </si>
+  <si>
+    <t>24.11.202530</t>
+  </si>
+  <si>
+    <t>24.11.202531</t>
+  </si>
+  <si>
+    <t>24.11.202532</t>
+  </si>
+  <si>
+    <t>24.11.202533</t>
+  </si>
+  <si>
+    <t>24.11.202534</t>
+  </si>
+  <si>
+    <t>24.11.202535</t>
+  </si>
+  <si>
+    <t>24.11.202536</t>
+  </si>
+  <si>
+    <t>24.11.202537</t>
+  </si>
+  <si>
+    <t>24.11.202538</t>
+  </si>
+  <si>
+    <t>24.11.202539</t>
+  </si>
+  <si>
+    <t>24.11.202540</t>
+  </si>
+  <si>
+    <t>24.11.202541</t>
+  </si>
+  <si>
+    <t>24.11.202542</t>
+  </si>
+  <si>
+    <t>24.11.202543</t>
+  </si>
+  <si>
+    <t>24.11.202544</t>
+  </si>
+  <si>
+    <t>24.11.202545</t>
+  </si>
+  <si>
+    <t>24.11.202546</t>
+  </si>
+  <si>
+    <t>24.11.202547</t>
+  </si>
+  <si>
+    <t>24.11.202548</t>
+  </si>
+  <si>
+    <t>24.11.202549</t>
+  </si>
+  <si>
+    <t>24.11.202550</t>
+  </si>
+  <si>
+    <t>24.11.202551</t>
+  </si>
+  <si>
+    <t>24.11.202552</t>
+  </si>
+  <si>
+    <t>24.11.202553</t>
+  </si>
+  <si>
+    <t>24.11.202554</t>
+  </si>
+  <si>
+    <t>24.11.202555</t>
+  </si>
+  <si>
+    <t>24.11.202556</t>
+  </si>
+  <si>
+    <t>24.11.202557</t>
+  </si>
+  <si>
+    <t>24.11.202558</t>
+  </si>
+  <si>
+    <t>24.11.202559</t>
+  </si>
+  <si>
+    <t>24.11.202560</t>
+  </si>
+  <si>
+    <t>24.11.202561</t>
+  </si>
+  <si>
+    <t>24.11.202562</t>
+  </si>
+  <si>
+    <t>24.11.202563</t>
+  </si>
+  <si>
+    <t>24.11.202564</t>
+  </si>
+  <si>
+    <t>24.11.202565</t>
+  </si>
+  <si>
+    <t>24.11.202566</t>
+  </si>
+  <si>
+    <t>24.11.202567</t>
+  </si>
+  <si>
+    <t>24.11.202568</t>
+  </si>
+  <si>
+    <t>24.11.202569</t>
+  </si>
+  <si>
+    <t>24.11.202570</t>
+  </si>
+  <si>
+    <t>24.11.202571</t>
+  </si>
+  <si>
+    <t>24.11.202572</t>
+  </si>
+  <si>
+    <t>24.11.202573</t>
+  </si>
+  <si>
+    <t>24.11.202574</t>
+  </si>
+  <si>
+    <t>24.11.202575</t>
+  </si>
+  <si>
+    <t>24.11.202576</t>
+  </si>
+  <si>
+    <t>24.11.202577</t>
+  </si>
+  <si>
+    <t>24.11.202578</t>
+  </si>
+  <si>
+    <t>24.11.202579</t>
+  </si>
+  <si>
+    <t>24.11.202580</t>
+  </si>
+  <si>
+    <t>24.11.202581</t>
+  </si>
+  <si>
+    <t>24.11.202582</t>
+  </si>
+  <si>
+    <t>24.11.202583</t>
+  </si>
+  <si>
+    <t>24.11.202584</t>
+  </si>
+  <si>
+    <t>24.11.202585</t>
+  </si>
+  <si>
+    <t>24.11.202586</t>
+  </si>
+  <si>
+    <t>24.11.202587</t>
+  </si>
+  <si>
+    <t>24.11.202588</t>
+  </si>
+  <si>
+    <t>24.11.202589</t>
+  </si>
+  <si>
+    <t>24.11.202590</t>
+  </si>
+  <si>
+    <t>24.11.202591</t>
+  </si>
+  <si>
+    <t>24.11.202592</t>
+  </si>
+  <si>
+    <t>24.11.202593</t>
+  </si>
+  <si>
+    <t>24.11.202594</t>
+  </si>
+  <si>
+    <t>24.11.202595</t>
+  </si>
+  <si>
+    <t>24.11.202596</t>
+  </si>
+  <si>
+    <t>24.11.20251</t>
+  </si>
+  <si>
+    <t>24.11.20252</t>
   </si>
 </sst>
 </file>
@@ -768,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,10 +994,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45981</v>
+        <v>45983.99444444444</v>
       </c>
       <c r="B2">
-        <v>14.609</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -810,10 +1011,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45981.01041666666</v>
+        <v>45984.00486111111</v>
       </c>
       <c r="B3">
-        <v>12.36</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -827,10 +1028,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45981.02083333334</v>
+        <v>45984.01527777778</v>
       </c>
       <c r="B4">
-        <v>12.567</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -844,10 +1045,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45981.03125</v>
+        <v>45984.02569444444</v>
       </c>
       <c r="B5">
-        <v>23.198</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -861,10 +1062,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45981.04166666666</v>
+        <v>45984.03611111111</v>
       </c>
       <c r="B6">
-        <v>29.02</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -878,10 +1079,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45981.05208333334</v>
+        <v>45984.04652777778</v>
       </c>
       <c r="B7">
-        <v>27.992</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -895,10 +1096,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45981.0625</v>
+        <v>45984.05694444444</v>
       </c>
       <c r="B8">
-        <v>14.712</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -912,10 +1113,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45981.07291666666</v>
+        <v>45984.06736111111</v>
       </c>
       <c r="B9">
-        <v>4.296</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -929,13 +1130,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45981.08333333334</v>
+        <v>45984.07777777778</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.215</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -946,10 +1147,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45981.09375</v>
+        <v>45984.08819444444</v>
       </c>
       <c r="B11">
-        <v>9.069000000000001</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -963,10 +1164,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45981.10416666666</v>
+        <v>45984.09861111111</v>
       </c>
       <c r="B12">
-        <v>6.798</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -980,10 +1181,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45981.11458333334</v>
+        <v>45984.10902777778</v>
       </c>
       <c r="B13">
-        <v>12.82</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -997,10 +1198,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45981.125</v>
+        <v>45984.11944444444</v>
       </c>
       <c r="B14">
-        <v>7.275</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1014,10 +1215,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45981.13541666666</v>
+        <v>45984.12986111111</v>
       </c>
       <c r="B15">
-        <v>10.129</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1031,10 +1232,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45981.14583333334</v>
+        <v>45984.14027777778</v>
       </c>
       <c r="B16">
-        <v>2.773</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1048,10 +1249,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45981.15625</v>
+        <v>45984.15069444444</v>
       </c>
       <c r="B17">
-        <v>12.612</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1065,13 +1266,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45981.16666666666</v>
+        <v>45984.16111111111</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.974</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1082,13 +1283,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45981.17708333334</v>
+        <v>45984.17152777778</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.002</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1099,13 +1300,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45981.1875</v>
+        <v>45984.18194444444</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.437</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1116,10 +1317,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45981.19791666666</v>
+        <v>45984.19236111111</v>
       </c>
       <c r="B21">
-        <v>8.35</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1133,13 +1334,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45981.20833333334</v>
+        <v>45984.20277777778</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.143</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1150,13 +1351,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45981.21875</v>
+        <v>45984.21319444444</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.048</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1167,10 +1368,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45981.22916666666</v>
+        <v>45984.22361111111</v>
       </c>
       <c r="B24">
-        <v>0.9370000000000001</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1184,13 +1385,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45981.23958333334</v>
+        <v>45984.23402777778</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.6840000000000001</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1201,13 +1402,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45981.25</v>
+        <v>45984.24444444444</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>29.165</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1218,13 +1419,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45981.26041666666</v>
+        <v>45984.25486111111</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>17.936</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1235,13 +1436,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45981.27083333334</v>
+        <v>45984.26527777778</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2.992</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1252,13 +1453,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45981.28125</v>
+        <v>45984.27569444444</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>8.836</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1269,13 +1470,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45981.29166666666</v>
+        <v>45984.28611111111</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>18.377</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1286,13 +1487,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45981.30208333334</v>
+        <v>45984.29652777778</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>9.685</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1303,13 +1504,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45981.3125</v>
+        <v>45984.30694444444</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4.578</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1320,13 +1521,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45981.32291666666</v>
+        <v>45984.31736111111</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>26.558</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1337,10 +1538,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45981.33333333334</v>
+        <v>45984.32777777778</v>
       </c>
       <c r="B34">
-        <v>2.225</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1354,13 +1555,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45981.34375</v>
+        <v>45984.33819444444</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>8.736000000000001</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1371,10 +1572,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45981.35416666666</v>
+        <v>45984.34861111111</v>
       </c>
       <c r="B36">
-        <v>10.558</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1388,13 +1589,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45981.36458333334</v>
+        <v>45984.35902777778</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>7.561</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1405,10 +1606,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45981.375</v>
+        <v>45984.36944444444</v>
       </c>
       <c r="B38">
-        <v>7.074</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1422,10 +1623,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45981.38541666666</v>
+        <v>45984.37986111111</v>
       </c>
       <c r="B39">
-        <v>9.557</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1439,10 +1640,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45981.39583333334</v>
+        <v>45984.39027777778</v>
       </c>
       <c r="B40">
-        <v>2.091</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1456,13 +1657,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45981.40625</v>
+        <v>45984.40069444444</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.556</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1473,13 +1674,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45981.41666666666</v>
+        <v>45984.41111111111</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>7.055</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1490,13 +1691,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45981.42708333334</v>
+        <v>45984.42152777778</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>2.036</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1507,10 +1708,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45981.4375</v>
+        <v>45984.43194444444</v>
       </c>
       <c r="B44">
-        <v>19.347</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1524,10 +1725,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45981.44791666666</v>
+        <v>45984.44236111111</v>
       </c>
       <c r="B45">
-        <v>11.324</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1541,13 +1742,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45981.45833333334</v>
+        <v>45984.45277777778</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>12.506</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1558,13 +1759,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45981.46875</v>
+        <v>45984.46319444444</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>21.172</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1575,13 +1776,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45981.47916666666</v>
+        <v>45984.47361111111</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>6.608</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1592,13 +1793,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45981.48958333334</v>
+        <v>45984.48402777778</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>26.213</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1609,13 +1810,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45981.5</v>
+        <v>45984.49444444444</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>20.213</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1626,10 +1827,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45981.51041666666</v>
+        <v>45984.50486111111</v>
       </c>
       <c r="B51">
-        <v>2.715</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1643,10 +1844,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45981.52083333334</v>
+        <v>45984.51527777778</v>
       </c>
       <c r="B52">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1660,10 +1861,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45981.53125</v>
+        <v>45984.52569444444</v>
       </c>
       <c r="B53">
-        <v>1.547</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1677,10 +1878,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45981.54166666666</v>
+        <v>45984.53611111111</v>
       </c>
       <c r="B54">
-        <v>6.763</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1694,10 +1895,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45981.55208333334</v>
+        <v>45984.54652777778</v>
       </c>
       <c r="B55">
-        <v>12.012</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1711,10 +1912,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45981.5625</v>
+        <v>45984.55694444444</v>
       </c>
       <c r="B56">
-        <v>9.885</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1728,10 +1929,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45981.57291666666</v>
+        <v>45984.56736111111</v>
       </c>
       <c r="B57">
-        <v>21.469</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1745,13 +1946,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45981.58333333334</v>
+        <v>45984.57777777778</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>5.028</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1762,13 +1963,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45981.59375</v>
+        <v>45984.58819444444</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>15.002</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1779,13 +1980,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45981.60416666666</v>
+        <v>45984.59861111111</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>14.807</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1796,13 +1997,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45981.61458333334</v>
+        <v>45984.60902777778</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>5.894</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1813,13 +2014,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45981.625</v>
+        <v>45984.61944444444</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>4.744</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1830,13 +2031,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45981.63541666666</v>
+        <v>45984.62986111111</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1.564</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1847,13 +2048,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45981.64583333334</v>
+        <v>45984.64027777778</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>4.709</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1864,10 +2065,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45981.65625</v>
+        <v>45984.65069444444</v>
       </c>
       <c r="B65">
-        <v>4.703</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1881,10 +2082,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45981.66666666666</v>
+        <v>45984.66111111111</v>
       </c>
       <c r="B66">
-        <v>9.662000000000001</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1898,10 +2099,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45981.67708333334</v>
+        <v>45984.67152777778</v>
       </c>
       <c r="B67">
-        <v>19.416</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1915,10 +2116,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45981.6875</v>
+        <v>45984.68194444444</v>
       </c>
       <c r="B68">
-        <v>9.77</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1932,10 +2133,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45981.69791666666</v>
+        <v>45984.69236111111</v>
       </c>
       <c r="B69">
-        <v>9.792</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1949,13 +2150,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45981.70833333334</v>
+        <v>45984.70277777778</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>21.577</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1966,13 +2167,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45981.71875</v>
+        <v>45984.71319444444</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0.431</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1983,10 +2184,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45981.72916666666</v>
+        <v>45984.72361111111</v>
       </c>
       <c r="B72">
-        <v>0.388</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2000,13 +2201,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45981.73958333334</v>
+        <v>45984.73402777778</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>14.146</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2017,13 +2218,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45981.75</v>
+        <v>45984.74444444444</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>6.207</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2034,13 +2235,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45981.76041666666</v>
+        <v>45984.75486111111</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>3.138</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2051,10 +2252,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45981.77083333334</v>
+        <v>45984.76527777778</v>
       </c>
       <c r="B76">
-        <v>19.257</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2068,10 +2269,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45981.78125</v>
+        <v>45984.77569444444</v>
       </c>
       <c r="B77">
-        <v>9.548</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2085,10 +2286,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45981.79166666666</v>
+        <v>45984.78611111111</v>
       </c>
       <c r="B78">
-        <v>17.368</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2102,10 +2303,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45981.80208333334</v>
+        <v>45984.79652777778</v>
       </c>
       <c r="B79">
-        <v>34.563</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2119,10 +2320,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45981.8125</v>
+        <v>45984.80694444444</v>
       </c>
       <c r="B80">
-        <v>1.559</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2136,13 +2337,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45981.82291666666</v>
+        <v>45984.81736111111</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>3.185</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2153,13 +2354,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45981.83333333334</v>
+        <v>45984.82777777778</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>12.461</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2170,13 +2371,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45981.84375</v>
+        <v>45984.83819444444</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>10.88</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2187,10 +2388,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45981.85416666666</v>
+        <v>45984.84861111111</v>
       </c>
       <c r="B84">
-        <v>0.829</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2204,13 +2405,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45981.86458333334</v>
+        <v>45984.85902777778</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>12.198</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2221,13 +2422,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45981.875</v>
+        <v>45984.86944444444</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2238,13 +2439,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45981.88541666666</v>
+        <v>45984.87986111111</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>40.242</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2255,13 +2456,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45981.89583333334</v>
+        <v>45984.89027777778</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>31.321</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2272,13 +2473,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45981.90625</v>
+        <v>45984.90069444444</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>23.775</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2289,10 +2490,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45981.91666666666</v>
+        <v>45984.91111111111</v>
       </c>
       <c r="B90">
-        <v>6.625</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2306,13 +2507,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45981.92708333334</v>
+        <v>45984.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1.429</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2323,13 +2524,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45981.9375</v>
+        <v>45984.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>11.552</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2340,13 +2541,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45981.94791666666</v>
+        <v>45984.94236111111</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>6.534</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2357,13 +2558,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45981.95833333334</v>
+        <v>45984.95277777778</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>26.552</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2374,13 +2575,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45981.96875</v>
+        <v>45984.96319444444</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>16.46</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2391,13 +2592,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45981.97916666666</v>
+        <v>45984.97361111111</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>16.719</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2408,13 +2609,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45981.98958333334</v>
+        <v>45984.98402777778</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>17.049</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2425,13 +2626,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45982</v>
+        <v>45984.99444444444</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.176</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2442,10 +2643,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45982.01041666666</v>
+        <v>45984.99444444444</v>
       </c>
       <c r="B99">
-        <v>13.274</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2454,15 +2655,15 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45982.02083333334</v>
+        <v>45985.00486111111</v>
       </c>
       <c r="B100">
-        <v>15.63</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2471,15 +2672,15 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45982.03125</v>
+        <v>45985.01527777778</v>
       </c>
       <c r="B101">
-        <v>25.486</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2488,15 +2689,15 @@
         <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45982.04166666666</v>
+        <v>45985.02569444444</v>
       </c>
       <c r="B102">
-        <v>9.239000000000001</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2505,15 +2706,15 @@
         <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45982.05208333334</v>
+        <v>45985.03611111111</v>
       </c>
       <c r="B103">
-        <v>3.061</v>
+        <v>0</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2522,15 +2723,15 @@
         <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45982.0625</v>
+        <v>45985.04652777778</v>
       </c>
       <c r="B104">
-        <v>21.698</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2539,15 +2740,15 @@
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45982.07291666666</v>
+        <v>45985.05694444444</v>
       </c>
       <c r="B105">
-        <v>22.357</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2556,15 +2757,15 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45982.08333333334</v>
+        <v>45985.06736111111</v>
       </c>
       <c r="B106">
-        <v>14.273</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2573,15 +2774,15 @@
         <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45982.09375</v>
+        <v>45985.07777777778</v>
       </c>
       <c r="B107">
-        <v>20.155</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2590,15 +2791,15 @@
         <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45982.10416666666</v>
+        <v>45985.08819444444</v>
       </c>
       <c r="B108">
-        <v>15.189</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2607,15 +2808,15 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45982.11458333334</v>
+        <v>45985.09861111111</v>
       </c>
       <c r="B109">
-        <v>15.261</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2624,15 +2825,15 @@
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45982.125</v>
+        <v>45985.10902777778</v>
       </c>
       <c r="B110">
-        <v>7.017</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2641,15 +2842,15 @@
         <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45982.13541666666</v>
+        <v>45985.11944444444</v>
       </c>
       <c r="B111">
-        <v>19.578</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2658,15 +2859,15 @@
         <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45982.14583333334</v>
+        <v>45985.12986111111</v>
       </c>
       <c r="B112">
-        <v>33.466</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2675,15 +2876,15 @@
         <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45982.15625</v>
+        <v>45985.14027777778</v>
       </c>
       <c r="B113">
-        <v>42.181</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2692,15 +2893,15 @@
         <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45982.16666666666</v>
+        <v>45985.15069444444</v>
       </c>
       <c r="B114">
-        <v>16.492</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2709,15 +2910,15 @@
         <v>17</v>
       </c>
       <c r="E114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45982.17708333334</v>
+        <v>45985.16111111111</v>
       </c>
       <c r="B115">
-        <v>3.833</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2726,32 +2927,32 @@
         <v>18</v>
       </c>
       <c r="E115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45982.1875</v>
+        <v>45985.17152777778</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>2.927</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45982.19791666666</v>
+        <v>45985.18194444444</v>
       </c>
       <c r="B117">
-        <v>14.972</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2760,15 +2961,15 @@
         <v>20</v>
       </c>
       <c r="E117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45982.20833333334</v>
+        <v>45985.19236111111</v>
       </c>
       <c r="B118">
-        <v>20.137</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2777,160 +2978,1316 @@
         <v>21</v>
       </c>
       <c r="E118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45982.21875</v>
+        <v>45985.20277777778</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>10.183</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45982.22916666666</v>
+        <v>45985.21319444444</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>9.836</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45982.23958333334</v>
+        <v>45985.22361111111</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>1.163</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>24</v>
       </c>
       <c r="E121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45982.25</v>
+        <v>45985.23402777778</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>16.718</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>25</v>
       </c>
       <c r="E122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45982.26041666666</v>
+        <v>45985.24444444444</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>26.151</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>26</v>
       </c>
       <c r="E123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45982.27083333334</v>
+        <v>45985.25486111111</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>7.002</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45982.28125</v>
+        <v>45985.26527777778</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>13.461</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>28</v>
       </c>
       <c r="E125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45982.29166666666</v>
+        <v>45985.27569444444</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>22.184</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>29</v>
       </c>
       <c r="E126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45982.30208333334</v>
+        <v>45985.28611111111</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>25.015</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>30</v>
       </c>
       <c r="E127" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>45985.29652777778</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>45985.30694444444</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>45985.31736111111</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>33</v>
+      </c>
+      <c r="E130" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45985.32777777778</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>34</v>
+      </c>
+      <c r="E131" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45985.33819444444</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45985.34861111111</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>36</v>
+      </c>
+      <c r="E133" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45985.35902777778</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45985.36944444444</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45985.37986111111</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>39</v>
+      </c>
+      <c r="E136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45985.39027777778</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>40</v>
+      </c>
+      <c r="E137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45985.40069444444</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45985.41111111111</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>42</v>
+      </c>
+      <c r="E139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45985.42152777778</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>43</v>
+      </c>
+      <c r="E140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45985.43194444444</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>44</v>
+      </c>
+      <c r="E141" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45985.44236111111</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>45</v>
+      </c>
+      <c r="E142" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45985.45277777778</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>46</v>
+      </c>
+      <c r="E143" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45985.46319444444</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>47</v>
+      </c>
+      <c r="E144" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45985.47361111111</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>48</v>
+      </c>
+      <c r="E145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45985.48402777778</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>49</v>
+      </c>
+      <c r="E146" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45985.49444444444</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45985.50486111111</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>51</v>
+      </c>
+      <c r="E148" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45985.51527777778</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>52</v>
+      </c>
+      <c r="E149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45985.52569444444</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>53</v>
+      </c>
+      <c r="E150" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45985.53611111111</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>54</v>
+      </c>
+      <c r="E151" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45985.54652777778</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>55</v>
+      </c>
+      <c r="E152" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45985.55694444444</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>56</v>
+      </c>
+      <c r="E153" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45985.56736111111</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>57</v>
+      </c>
+      <c r="E154" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45985.57777777778</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>58</v>
+      </c>
+      <c r="E155" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45985.58819444444</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>59</v>
+      </c>
+      <c r="E156" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45985.59861111111</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>60</v>
+      </c>
+      <c r="E157" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45985.60902777778</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45985.61944444444</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>62</v>
+      </c>
+      <c r="E159" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45985.62986111111</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>63</v>
+      </c>
+      <c r="E160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45985.64027777778</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>64</v>
+      </c>
+      <c r="E161" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45985.65069444444</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>65</v>
+      </c>
+      <c r="E162" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45985.66111111111</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>66</v>
+      </c>
+      <c r="E163" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45985.67152777778</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>67</v>
+      </c>
+      <c r="E164" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45985.68194444444</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>68</v>
+      </c>
+      <c r="E165" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45985.69236111111</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>69</v>
+      </c>
+      <c r="E166" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45985.70277777778</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>70</v>
+      </c>
+      <c r="E167" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45985.71319444444</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>71</v>
+      </c>
+      <c r="E168" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45985.72361111111</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>72</v>
+      </c>
+      <c r="E169" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45985.73402777778</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>73</v>
+      </c>
+      <c r="E170" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45985.74444444444</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>74</v>
+      </c>
+      <c r="E171" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45985.75486111111</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>75</v>
+      </c>
+      <c r="E172" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45985.76527777778</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>76</v>
+      </c>
+      <c r="E173" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45985.77569444444</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>77</v>
+      </c>
+      <c r="E174" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45985.78611111111</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>78</v>
+      </c>
+      <c r="E175" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45985.79652777778</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>79</v>
+      </c>
+      <c r="E176" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45985.80694444444</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>80</v>
+      </c>
+      <c r="E177" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45985.81736111111</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>81</v>
+      </c>
+      <c r="E178" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45985.82777777778</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>82</v>
+      </c>
+      <c r="E179" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45985.83819444444</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>83</v>
+      </c>
+      <c r="E180" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45985.84861111111</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>84</v>
+      </c>
+      <c r="E181" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45985.85902777778</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>85</v>
+      </c>
+      <c r="E182" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45985.86944444444</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>86</v>
+      </c>
+      <c r="E183" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45985.87986111111</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>87</v>
+      </c>
+      <c r="E184" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45985.89027777778</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>88</v>
+      </c>
+      <c r="E185" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45985.90069444444</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>89</v>
+      </c>
+      <c r="E186" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45985.91111111111</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>90</v>
+      </c>
+      <c r="E187" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45985.92152777778</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>91</v>
+      </c>
+      <c r="E188" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45985.93194444444</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>92</v>
+      </c>
+      <c r="E189" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45985.94236111111</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>93</v>
+      </c>
+      <c r="E190" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45985.95277777778</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>94</v>
+      </c>
+      <c r="E191" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45985.96319444444</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>95</v>
+      </c>
+      <c r="E192" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45985.97361111111</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>96</v>
+      </c>
+      <c r="E193" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45985.98402777778</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45985.99444444444</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="486">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,583 +31,1447 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>02.12.20251</t>
-  </si>
-  <si>
-    <t>03.12.20252</t>
-  </si>
-  <si>
-    <t>03.12.20253</t>
-  </si>
-  <si>
-    <t>03.12.20254</t>
-  </si>
-  <si>
-    <t>03.12.20255</t>
-  </si>
-  <si>
-    <t>03.12.20256</t>
-  </si>
-  <si>
-    <t>03.12.20257</t>
-  </si>
-  <si>
-    <t>03.12.20258</t>
-  </si>
-  <si>
-    <t>03.12.20259</t>
-  </si>
-  <si>
-    <t>03.12.202510</t>
-  </si>
-  <si>
-    <t>03.12.202511</t>
-  </si>
-  <si>
-    <t>03.12.202512</t>
-  </si>
-  <si>
-    <t>03.12.202513</t>
-  </si>
-  <si>
-    <t>03.12.202514</t>
-  </si>
-  <si>
-    <t>03.12.202515</t>
-  </si>
-  <si>
-    <t>03.12.202516</t>
-  </si>
-  <si>
-    <t>03.12.202517</t>
-  </si>
-  <si>
-    <t>03.12.202518</t>
-  </si>
-  <si>
-    <t>03.12.202519</t>
-  </si>
-  <si>
-    <t>03.12.202520</t>
-  </si>
-  <si>
-    <t>03.12.202521</t>
-  </si>
-  <si>
-    <t>03.12.202522</t>
-  </si>
-  <si>
-    <t>03.12.202523</t>
-  </si>
-  <si>
-    <t>03.12.202524</t>
-  </si>
-  <si>
-    <t>03.12.202525</t>
-  </si>
-  <si>
-    <t>03.12.202526</t>
-  </si>
-  <si>
-    <t>03.12.202527</t>
-  </si>
-  <si>
-    <t>03.12.202528</t>
-  </si>
-  <si>
-    <t>03.12.202529</t>
-  </si>
-  <si>
-    <t>03.12.202530</t>
-  </si>
-  <si>
-    <t>03.12.202531</t>
-  </si>
-  <si>
-    <t>03.12.202532</t>
-  </si>
-  <si>
-    <t>03.12.202533</t>
-  </si>
-  <si>
-    <t>03.12.202534</t>
-  </si>
-  <si>
-    <t>03.12.202535</t>
-  </si>
-  <si>
-    <t>03.12.202536</t>
-  </si>
-  <si>
-    <t>03.12.202537</t>
-  </si>
-  <si>
-    <t>03.12.202538</t>
-  </si>
-  <si>
-    <t>03.12.202539</t>
-  </si>
-  <si>
-    <t>03.12.202540</t>
-  </si>
-  <si>
-    <t>03.12.202541</t>
-  </si>
-  <si>
-    <t>03.12.202542</t>
-  </si>
-  <si>
-    <t>03.12.202543</t>
-  </si>
-  <si>
-    <t>03.12.202544</t>
-  </si>
-  <si>
-    <t>03.12.202545</t>
-  </si>
-  <si>
-    <t>03.12.202546</t>
-  </si>
-  <si>
-    <t>03.12.202547</t>
-  </si>
-  <si>
-    <t>03.12.202548</t>
-  </si>
-  <si>
-    <t>03.12.202549</t>
-  </si>
-  <si>
-    <t>03.12.202550</t>
-  </si>
-  <si>
-    <t>03.12.202551</t>
-  </si>
-  <si>
-    <t>03.12.202552</t>
-  </si>
-  <si>
-    <t>03.12.202553</t>
-  </si>
-  <si>
-    <t>03.12.202554</t>
-  </si>
-  <si>
-    <t>03.12.202555</t>
-  </si>
-  <si>
-    <t>03.12.202556</t>
-  </si>
-  <si>
-    <t>03.12.202557</t>
-  </si>
-  <si>
-    <t>03.12.202558</t>
-  </si>
-  <si>
-    <t>03.12.202559</t>
-  </si>
-  <si>
-    <t>03.12.202560</t>
-  </si>
-  <si>
-    <t>03.12.202561</t>
-  </si>
-  <si>
-    <t>03.12.202562</t>
-  </si>
-  <si>
-    <t>03.12.202563</t>
-  </si>
-  <si>
-    <t>03.12.202564</t>
-  </si>
-  <si>
-    <t>03.12.202565</t>
-  </si>
-  <si>
-    <t>03.12.202566</t>
-  </si>
-  <si>
-    <t>03.12.202567</t>
-  </si>
-  <si>
-    <t>03.12.202568</t>
-  </si>
-  <si>
-    <t>03.12.202569</t>
-  </si>
-  <si>
-    <t>03.12.202570</t>
-  </si>
-  <si>
-    <t>03.12.202571</t>
-  </si>
-  <si>
-    <t>03.12.202572</t>
-  </si>
-  <si>
-    <t>03.12.202573</t>
-  </si>
-  <si>
-    <t>03.12.202574</t>
-  </si>
-  <si>
-    <t>03.12.202575</t>
-  </si>
-  <si>
-    <t>03.12.202576</t>
-  </si>
-  <si>
-    <t>03.12.202577</t>
-  </si>
-  <si>
-    <t>03.12.202578</t>
-  </si>
-  <si>
-    <t>03.12.202579</t>
-  </si>
-  <si>
-    <t>03.12.202580</t>
-  </si>
-  <si>
-    <t>03.12.202581</t>
-  </si>
-  <si>
-    <t>03.12.202582</t>
-  </si>
-  <si>
-    <t>03.12.202583</t>
-  </si>
-  <si>
-    <t>03.12.202584</t>
-  </si>
-  <si>
-    <t>03.12.202585</t>
-  </si>
-  <si>
-    <t>03.12.202586</t>
-  </si>
-  <si>
-    <t>03.12.202587</t>
-  </si>
-  <si>
-    <t>03.12.202588</t>
-  </si>
-  <si>
-    <t>03.12.202589</t>
-  </si>
-  <si>
-    <t>03.12.202590</t>
-  </si>
-  <si>
-    <t>03.12.202591</t>
-  </si>
-  <si>
-    <t>03.12.202592</t>
-  </si>
-  <si>
-    <t>03.12.202593</t>
-  </si>
-  <si>
-    <t>03.12.202594</t>
-  </si>
-  <si>
-    <t>03.12.202595</t>
-  </si>
-  <si>
-    <t>03.12.202596</t>
-  </si>
-  <si>
-    <t>03.12.20251</t>
-  </si>
-  <si>
-    <t>04.12.20253</t>
-  </si>
-  <si>
-    <t>04.12.20254</t>
-  </si>
-  <si>
-    <t>04.12.20255</t>
-  </si>
-  <si>
-    <t>04.12.20256</t>
-  </si>
-  <si>
-    <t>04.12.20257</t>
-  </si>
-  <si>
-    <t>04.12.20258</t>
-  </si>
-  <si>
-    <t>04.12.20259</t>
-  </si>
-  <si>
-    <t>04.12.202510</t>
-  </si>
-  <si>
-    <t>04.12.202511</t>
-  </si>
-  <si>
-    <t>04.12.202512</t>
-  </si>
-  <si>
-    <t>04.12.202513</t>
-  </si>
-  <si>
-    <t>04.12.202514</t>
-  </si>
-  <si>
-    <t>04.12.202515</t>
-  </si>
-  <si>
-    <t>04.12.202516</t>
-  </si>
-  <si>
-    <t>04.12.202517</t>
-  </si>
-  <si>
-    <t>04.12.202518</t>
-  </si>
-  <si>
-    <t>04.12.202519</t>
-  </si>
-  <si>
-    <t>04.12.202520</t>
-  </si>
-  <si>
-    <t>04.12.202521</t>
-  </si>
-  <si>
-    <t>04.12.202522</t>
-  </si>
-  <si>
-    <t>04.12.202523</t>
-  </si>
-  <si>
-    <t>04.12.202524</t>
-  </si>
-  <si>
-    <t>04.12.202525</t>
-  </si>
-  <si>
-    <t>04.12.202526</t>
-  </si>
-  <si>
-    <t>04.12.202527</t>
-  </si>
-  <si>
-    <t>04.12.202528</t>
-  </si>
-  <si>
-    <t>04.12.202529</t>
-  </si>
-  <si>
-    <t>04.12.202530</t>
-  </si>
-  <si>
-    <t>04.12.202531</t>
-  </si>
-  <si>
-    <t>04.12.202532</t>
-  </si>
-  <si>
-    <t>04.12.202533</t>
-  </si>
-  <si>
-    <t>04.12.202534</t>
-  </si>
-  <si>
-    <t>04.12.202535</t>
-  </si>
-  <si>
-    <t>04.12.202536</t>
-  </si>
-  <si>
-    <t>04.12.202537</t>
-  </si>
-  <si>
-    <t>04.12.202538</t>
-  </si>
-  <si>
-    <t>04.12.202539</t>
-  </si>
-  <si>
-    <t>04.12.202540</t>
-  </si>
-  <si>
-    <t>04.12.202541</t>
-  </si>
-  <si>
-    <t>04.12.202542</t>
-  </si>
-  <si>
-    <t>04.12.202543</t>
-  </si>
-  <si>
-    <t>04.12.202544</t>
-  </si>
-  <si>
-    <t>04.12.202545</t>
-  </si>
-  <si>
-    <t>04.12.202546</t>
-  </si>
-  <si>
-    <t>04.12.202547</t>
-  </si>
-  <si>
-    <t>04.12.202548</t>
-  </si>
-  <si>
-    <t>04.12.202549</t>
-  </si>
-  <si>
-    <t>04.12.202550</t>
-  </si>
-  <si>
-    <t>04.12.202551</t>
-  </si>
-  <si>
-    <t>04.12.202552</t>
-  </si>
-  <si>
-    <t>04.12.202553</t>
-  </si>
-  <si>
-    <t>04.12.202554</t>
-  </si>
-  <si>
-    <t>04.12.202555</t>
-  </si>
-  <si>
-    <t>04.12.202556</t>
-  </si>
-  <si>
-    <t>04.12.202557</t>
-  </si>
-  <si>
-    <t>04.12.202558</t>
-  </si>
-  <si>
-    <t>04.12.202559</t>
-  </si>
-  <si>
-    <t>04.12.202560</t>
-  </si>
-  <si>
-    <t>04.12.202561</t>
-  </si>
-  <si>
-    <t>04.12.202562</t>
-  </si>
-  <si>
-    <t>04.12.202563</t>
-  </si>
-  <si>
-    <t>04.12.202564</t>
-  </si>
-  <si>
-    <t>04.12.202565</t>
-  </si>
-  <si>
-    <t>04.12.202566</t>
-  </si>
-  <si>
-    <t>04.12.202567</t>
-  </si>
-  <si>
-    <t>04.12.202568</t>
-  </si>
-  <si>
-    <t>04.12.202569</t>
-  </si>
-  <si>
-    <t>04.12.202570</t>
-  </si>
-  <si>
-    <t>04.12.202571</t>
-  </si>
-  <si>
-    <t>04.12.202572</t>
-  </si>
-  <si>
-    <t>04.12.202573</t>
-  </si>
-  <si>
-    <t>04.12.202574</t>
-  </si>
-  <si>
-    <t>04.12.202575</t>
-  </si>
-  <si>
-    <t>04.12.202576</t>
-  </si>
-  <si>
-    <t>04.12.202577</t>
-  </si>
-  <si>
-    <t>04.12.202578</t>
-  </si>
-  <si>
-    <t>04.12.202579</t>
-  </si>
-  <si>
-    <t>04.12.202580</t>
-  </si>
-  <si>
-    <t>04.12.202581</t>
-  </si>
-  <si>
-    <t>04.12.202582</t>
-  </si>
-  <si>
-    <t>04.12.202583</t>
-  </si>
-  <si>
-    <t>04.12.202584</t>
-  </si>
-  <si>
-    <t>04.12.202585</t>
-  </si>
-  <si>
-    <t>04.12.202586</t>
-  </si>
-  <si>
-    <t>04.12.202587</t>
-  </si>
-  <si>
-    <t>04.12.202588</t>
-  </si>
-  <si>
-    <t>04.12.202589</t>
-  </si>
-  <si>
-    <t>04.12.202590</t>
-  </si>
-  <si>
-    <t>04.12.202591</t>
-  </si>
-  <si>
-    <t>04.12.202592</t>
-  </si>
-  <si>
-    <t>04.12.202593</t>
-  </si>
-  <si>
-    <t>04.12.202594</t>
-  </si>
-  <si>
-    <t>04.12.202595</t>
-  </si>
-  <si>
-    <t>04.12.202596</t>
-  </si>
-  <si>
-    <t>04.12.20251</t>
-  </si>
-  <si>
-    <t>04.12.20252</t>
+    <t>10.12.20251</t>
+  </si>
+  <si>
+    <t>11.12.20252</t>
+  </si>
+  <si>
+    <t>11.12.20253</t>
+  </si>
+  <si>
+    <t>11.12.20254</t>
+  </si>
+  <si>
+    <t>11.12.20255</t>
+  </si>
+  <si>
+    <t>11.12.20256</t>
+  </si>
+  <si>
+    <t>11.12.20257</t>
+  </si>
+  <si>
+    <t>11.12.20258</t>
+  </si>
+  <si>
+    <t>11.12.20259</t>
+  </si>
+  <si>
+    <t>11.12.202510</t>
+  </si>
+  <si>
+    <t>11.12.202511</t>
+  </si>
+  <si>
+    <t>11.12.202512</t>
+  </si>
+  <si>
+    <t>11.12.202513</t>
+  </si>
+  <si>
+    <t>11.12.202514</t>
+  </si>
+  <si>
+    <t>11.12.202515</t>
+  </si>
+  <si>
+    <t>11.12.202516</t>
+  </si>
+  <si>
+    <t>11.12.202517</t>
+  </si>
+  <si>
+    <t>11.12.202518</t>
+  </si>
+  <si>
+    <t>11.12.202519</t>
+  </si>
+  <si>
+    <t>11.12.202520</t>
+  </si>
+  <si>
+    <t>11.12.202521</t>
+  </si>
+  <si>
+    <t>11.12.202522</t>
+  </si>
+  <si>
+    <t>11.12.202523</t>
+  </si>
+  <si>
+    <t>11.12.202524</t>
+  </si>
+  <si>
+    <t>11.12.202525</t>
+  </si>
+  <si>
+    <t>11.12.202526</t>
+  </si>
+  <si>
+    <t>11.12.202527</t>
+  </si>
+  <si>
+    <t>11.12.202528</t>
+  </si>
+  <si>
+    <t>11.12.202529</t>
+  </si>
+  <si>
+    <t>11.12.202530</t>
+  </si>
+  <si>
+    <t>11.12.202531</t>
+  </si>
+  <si>
+    <t>11.12.202532</t>
+  </si>
+  <si>
+    <t>11.12.202533</t>
+  </si>
+  <si>
+    <t>11.12.202534</t>
+  </si>
+  <si>
+    <t>11.12.202535</t>
+  </si>
+  <si>
+    <t>11.12.202536</t>
+  </si>
+  <si>
+    <t>11.12.202537</t>
+  </si>
+  <si>
+    <t>11.12.202538</t>
+  </si>
+  <si>
+    <t>11.12.202539</t>
+  </si>
+  <si>
+    <t>11.12.202540</t>
+  </si>
+  <si>
+    <t>11.12.202541</t>
+  </si>
+  <si>
+    <t>11.12.202542</t>
+  </si>
+  <si>
+    <t>11.12.202543</t>
+  </si>
+  <si>
+    <t>11.12.202544</t>
+  </si>
+  <si>
+    <t>11.12.202545</t>
+  </si>
+  <si>
+    <t>11.12.202546</t>
+  </si>
+  <si>
+    <t>11.12.202547</t>
+  </si>
+  <si>
+    <t>11.12.202548</t>
+  </si>
+  <si>
+    <t>11.12.202549</t>
+  </si>
+  <si>
+    <t>11.12.202550</t>
+  </si>
+  <si>
+    <t>11.12.202551</t>
+  </si>
+  <si>
+    <t>11.12.202552</t>
+  </si>
+  <si>
+    <t>11.12.202553</t>
+  </si>
+  <si>
+    <t>11.12.202554</t>
+  </si>
+  <si>
+    <t>11.12.202555</t>
+  </si>
+  <si>
+    <t>11.12.202556</t>
+  </si>
+  <si>
+    <t>11.12.202557</t>
+  </si>
+  <si>
+    <t>11.12.202558</t>
+  </si>
+  <si>
+    <t>11.12.202559</t>
+  </si>
+  <si>
+    <t>11.12.202560</t>
+  </si>
+  <si>
+    <t>11.12.202561</t>
+  </si>
+  <si>
+    <t>11.12.202562</t>
+  </si>
+  <si>
+    <t>11.12.202563</t>
+  </si>
+  <si>
+    <t>11.12.202564</t>
+  </si>
+  <si>
+    <t>11.12.202565</t>
+  </si>
+  <si>
+    <t>11.12.202566</t>
+  </si>
+  <si>
+    <t>11.12.202567</t>
+  </si>
+  <si>
+    <t>11.12.202568</t>
+  </si>
+  <si>
+    <t>11.12.202569</t>
+  </si>
+  <si>
+    <t>11.12.202570</t>
+  </si>
+  <si>
+    <t>11.12.202571</t>
+  </si>
+  <si>
+    <t>11.12.202572</t>
+  </si>
+  <si>
+    <t>11.12.202573</t>
+  </si>
+  <si>
+    <t>11.12.202574</t>
+  </si>
+  <si>
+    <t>11.12.202575</t>
+  </si>
+  <si>
+    <t>11.12.202576</t>
+  </si>
+  <si>
+    <t>11.12.202577</t>
+  </si>
+  <si>
+    <t>11.12.202578</t>
+  </si>
+  <si>
+    <t>11.12.202579</t>
+  </si>
+  <si>
+    <t>11.12.202580</t>
+  </si>
+  <si>
+    <t>11.12.202581</t>
+  </si>
+  <si>
+    <t>11.12.202582</t>
+  </si>
+  <si>
+    <t>11.12.202583</t>
+  </si>
+  <si>
+    <t>11.12.202584</t>
+  </si>
+  <si>
+    <t>11.12.202585</t>
+  </si>
+  <si>
+    <t>11.12.202586</t>
+  </si>
+  <si>
+    <t>11.12.202587</t>
+  </si>
+  <si>
+    <t>11.12.202588</t>
+  </si>
+  <si>
+    <t>11.12.202589</t>
+  </si>
+  <si>
+    <t>11.12.202590</t>
+  </si>
+  <si>
+    <t>11.12.202591</t>
+  </si>
+  <si>
+    <t>11.12.202592</t>
+  </si>
+  <si>
+    <t>11.12.202593</t>
+  </si>
+  <si>
+    <t>11.12.202594</t>
+  </si>
+  <si>
+    <t>11.12.202595</t>
+  </si>
+  <si>
+    <t>11.12.202596</t>
+  </si>
+  <si>
+    <t>11.12.20251</t>
+  </si>
+  <si>
+    <t>12.12.20253</t>
+  </si>
+  <si>
+    <t>12.12.20254</t>
+  </si>
+  <si>
+    <t>12.12.20255</t>
+  </si>
+  <si>
+    <t>12.12.20256</t>
+  </si>
+  <si>
+    <t>12.12.20257</t>
+  </si>
+  <si>
+    <t>12.12.20258</t>
+  </si>
+  <si>
+    <t>12.12.20259</t>
+  </si>
+  <si>
+    <t>12.12.202510</t>
+  </si>
+  <si>
+    <t>12.12.202511</t>
+  </si>
+  <si>
+    <t>12.12.202512</t>
+  </si>
+  <si>
+    <t>12.12.202513</t>
+  </si>
+  <si>
+    <t>12.12.202514</t>
+  </si>
+  <si>
+    <t>12.12.202515</t>
+  </si>
+  <si>
+    <t>12.12.202516</t>
+  </si>
+  <si>
+    <t>12.12.202517</t>
+  </si>
+  <si>
+    <t>12.12.202518</t>
+  </si>
+  <si>
+    <t>12.12.202519</t>
+  </si>
+  <si>
+    <t>12.12.202520</t>
+  </si>
+  <si>
+    <t>12.12.202521</t>
+  </si>
+  <si>
+    <t>12.12.202522</t>
+  </si>
+  <si>
+    <t>12.12.202523</t>
+  </si>
+  <si>
+    <t>12.12.202524</t>
+  </si>
+  <si>
+    <t>12.12.202525</t>
+  </si>
+  <si>
+    <t>12.12.202526</t>
+  </si>
+  <si>
+    <t>12.12.202527</t>
+  </si>
+  <si>
+    <t>12.12.202528</t>
+  </si>
+  <si>
+    <t>12.12.202529</t>
+  </si>
+  <si>
+    <t>12.12.202530</t>
+  </si>
+  <si>
+    <t>12.12.202531</t>
+  </si>
+  <si>
+    <t>12.12.202532</t>
+  </si>
+  <si>
+    <t>12.12.202533</t>
+  </si>
+  <si>
+    <t>12.12.202534</t>
+  </si>
+  <si>
+    <t>12.12.202535</t>
+  </si>
+  <si>
+    <t>12.12.202536</t>
+  </si>
+  <si>
+    <t>12.12.202537</t>
+  </si>
+  <si>
+    <t>12.12.202538</t>
+  </si>
+  <si>
+    <t>12.12.202539</t>
+  </si>
+  <si>
+    <t>12.12.202540</t>
+  </si>
+  <si>
+    <t>12.12.202541</t>
+  </si>
+  <si>
+    <t>12.12.202542</t>
+  </si>
+  <si>
+    <t>12.12.202543</t>
+  </si>
+  <si>
+    <t>12.12.202544</t>
+  </si>
+  <si>
+    <t>12.12.202545</t>
+  </si>
+  <si>
+    <t>12.12.202546</t>
+  </si>
+  <si>
+    <t>12.12.202547</t>
+  </si>
+  <si>
+    <t>12.12.202548</t>
+  </si>
+  <si>
+    <t>12.12.202549</t>
+  </si>
+  <si>
+    <t>12.12.202550</t>
+  </si>
+  <si>
+    <t>12.12.202551</t>
+  </si>
+  <si>
+    <t>12.12.202552</t>
+  </si>
+  <si>
+    <t>12.12.202553</t>
+  </si>
+  <si>
+    <t>12.12.202554</t>
+  </si>
+  <si>
+    <t>12.12.202555</t>
+  </si>
+  <si>
+    <t>12.12.202556</t>
+  </si>
+  <si>
+    <t>12.12.202557</t>
+  </si>
+  <si>
+    <t>12.12.202558</t>
+  </si>
+  <si>
+    <t>12.12.202559</t>
+  </si>
+  <si>
+    <t>12.12.202560</t>
+  </si>
+  <si>
+    <t>12.12.202561</t>
+  </si>
+  <si>
+    <t>12.12.202562</t>
+  </si>
+  <si>
+    <t>12.12.202563</t>
+  </si>
+  <si>
+    <t>12.12.202564</t>
+  </si>
+  <si>
+    <t>12.12.202565</t>
+  </si>
+  <si>
+    <t>12.12.202566</t>
+  </si>
+  <si>
+    <t>12.12.202567</t>
+  </si>
+  <si>
+    <t>12.12.202568</t>
+  </si>
+  <si>
+    <t>12.12.202569</t>
+  </si>
+  <si>
+    <t>12.12.202570</t>
+  </si>
+  <si>
+    <t>12.12.202571</t>
+  </si>
+  <si>
+    <t>12.12.202572</t>
+  </si>
+  <si>
+    <t>12.12.202573</t>
+  </si>
+  <si>
+    <t>12.12.202574</t>
+  </si>
+  <si>
+    <t>12.12.202575</t>
+  </si>
+  <si>
+    <t>12.12.202576</t>
+  </si>
+  <si>
+    <t>12.12.202577</t>
+  </si>
+  <si>
+    <t>12.12.202578</t>
+  </si>
+  <si>
+    <t>12.12.202579</t>
+  </si>
+  <si>
+    <t>12.12.202580</t>
+  </si>
+  <si>
+    <t>12.12.202581</t>
+  </si>
+  <si>
+    <t>12.12.202582</t>
+  </si>
+  <si>
+    <t>12.12.202583</t>
+  </si>
+  <si>
+    <t>12.12.202584</t>
+  </si>
+  <si>
+    <t>12.12.202585</t>
+  </si>
+  <si>
+    <t>12.12.202586</t>
+  </si>
+  <si>
+    <t>12.12.202587</t>
+  </si>
+  <si>
+    <t>12.12.202588</t>
+  </si>
+  <si>
+    <t>12.12.202589</t>
+  </si>
+  <si>
+    <t>12.12.202590</t>
+  </si>
+  <si>
+    <t>12.12.202591</t>
+  </si>
+  <si>
+    <t>12.12.202592</t>
+  </si>
+  <si>
+    <t>12.12.202593</t>
+  </si>
+  <si>
+    <t>12.12.202594</t>
+  </si>
+  <si>
+    <t>12.12.202595</t>
+  </si>
+  <si>
+    <t>12.12.202596</t>
+  </si>
+  <si>
+    <t>12.12.20251</t>
+  </si>
+  <si>
+    <t>12.12.20252</t>
+  </si>
+  <si>
+    <t>13.12.20254</t>
+  </si>
+  <si>
+    <t>13.12.20255</t>
+  </si>
+  <si>
+    <t>13.12.20256</t>
+  </si>
+  <si>
+    <t>13.12.20257</t>
+  </si>
+  <si>
+    <t>13.12.20258</t>
+  </si>
+  <si>
+    <t>13.12.20259</t>
+  </si>
+  <si>
+    <t>13.12.202510</t>
+  </si>
+  <si>
+    <t>13.12.202511</t>
+  </si>
+  <si>
+    <t>13.12.202512</t>
+  </si>
+  <si>
+    <t>13.12.202513</t>
+  </si>
+  <si>
+    <t>13.12.202514</t>
+  </si>
+  <si>
+    <t>13.12.202515</t>
+  </si>
+  <si>
+    <t>13.12.202516</t>
+  </si>
+  <si>
+    <t>13.12.202517</t>
+  </si>
+  <si>
+    <t>13.12.202518</t>
+  </si>
+  <si>
+    <t>13.12.202519</t>
+  </si>
+  <si>
+    <t>13.12.202520</t>
+  </si>
+  <si>
+    <t>13.12.202521</t>
+  </si>
+  <si>
+    <t>13.12.202522</t>
+  </si>
+  <si>
+    <t>13.12.202523</t>
+  </si>
+  <si>
+    <t>13.12.202524</t>
+  </si>
+  <si>
+    <t>13.12.202525</t>
+  </si>
+  <si>
+    <t>13.12.202526</t>
+  </si>
+  <si>
+    <t>13.12.202527</t>
+  </si>
+  <si>
+    <t>13.12.202528</t>
+  </si>
+  <si>
+    <t>13.12.202529</t>
+  </si>
+  <si>
+    <t>13.12.202530</t>
+  </si>
+  <si>
+    <t>13.12.202531</t>
+  </si>
+  <si>
+    <t>13.12.202532</t>
+  </si>
+  <si>
+    <t>13.12.202533</t>
+  </si>
+  <si>
+    <t>13.12.202534</t>
+  </si>
+  <si>
+    <t>13.12.202535</t>
+  </si>
+  <si>
+    <t>13.12.202536</t>
+  </si>
+  <si>
+    <t>13.12.202537</t>
+  </si>
+  <si>
+    <t>13.12.202538</t>
+  </si>
+  <si>
+    <t>13.12.202539</t>
+  </si>
+  <si>
+    <t>13.12.202540</t>
+  </si>
+  <si>
+    <t>13.12.202541</t>
+  </si>
+  <si>
+    <t>13.12.202542</t>
+  </si>
+  <si>
+    <t>13.12.202543</t>
+  </si>
+  <si>
+    <t>13.12.202544</t>
+  </si>
+  <si>
+    <t>13.12.202545</t>
+  </si>
+  <si>
+    <t>13.12.202546</t>
+  </si>
+  <si>
+    <t>13.12.202547</t>
+  </si>
+  <si>
+    <t>13.12.202548</t>
+  </si>
+  <si>
+    <t>13.12.202549</t>
+  </si>
+  <si>
+    <t>13.12.202550</t>
+  </si>
+  <si>
+    <t>13.12.202551</t>
+  </si>
+  <si>
+    <t>13.12.202552</t>
+  </si>
+  <si>
+    <t>13.12.202553</t>
+  </si>
+  <si>
+    <t>13.12.202554</t>
+  </si>
+  <si>
+    <t>13.12.202555</t>
+  </si>
+  <si>
+    <t>13.12.202556</t>
+  </si>
+  <si>
+    <t>13.12.202557</t>
+  </si>
+  <si>
+    <t>13.12.202558</t>
+  </si>
+  <si>
+    <t>13.12.202559</t>
+  </si>
+  <si>
+    <t>13.12.202560</t>
+  </si>
+  <si>
+    <t>13.12.202561</t>
+  </si>
+  <si>
+    <t>13.12.202562</t>
+  </si>
+  <si>
+    <t>13.12.202563</t>
+  </si>
+  <si>
+    <t>13.12.202564</t>
+  </si>
+  <si>
+    <t>13.12.202565</t>
+  </si>
+  <si>
+    <t>13.12.202566</t>
+  </si>
+  <si>
+    <t>13.12.202567</t>
+  </si>
+  <si>
+    <t>13.12.202568</t>
+  </si>
+  <si>
+    <t>13.12.202569</t>
+  </si>
+  <si>
+    <t>13.12.202570</t>
+  </si>
+  <si>
+    <t>13.12.202571</t>
+  </si>
+  <si>
+    <t>13.12.202572</t>
+  </si>
+  <si>
+    <t>13.12.202573</t>
+  </si>
+  <si>
+    <t>13.12.202574</t>
+  </si>
+  <si>
+    <t>13.12.202575</t>
+  </si>
+  <si>
+    <t>13.12.202576</t>
+  </si>
+  <si>
+    <t>13.12.202577</t>
+  </si>
+  <si>
+    <t>13.12.202578</t>
+  </si>
+  <si>
+    <t>13.12.202579</t>
+  </si>
+  <si>
+    <t>13.12.202580</t>
+  </si>
+  <si>
+    <t>13.12.202581</t>
+  </si>
+  <si>
+    <t>13.12.202582</t>
+  </si>
+  <si>
+    <t>13.12.202583</t>
+  </si>
+  <si>
+    <t>13.12.202584</t>
+  </si>
+  <si>
+    <t>13.12.202585</t>
+  </si>
+  <si>
+    <t>13.12.202586</t>
+  </si>
+  <si>
+    <t>13.12.202587</t>
+  </si>
+  <si>
+    <t>13.12.202588</t>
+  </si>
+  <si>
+    <t>13.12.202589</t>
+  </si>
+  <si>
+    <t>13.12.202590</t>
+  </si>
+  <si>
+    <t>13.12.202591</t>
+  </si>
+  <si>
+    <t>13.12.202592</t>
+  </si>
+  <si>
+    <t>13.12.202593</t>
+  </si>
+  <si>
+    <t>13.12.202594</t>
+  </si>
+  <si>
+    <t>13.12.202595</t>
+  </si>
+  <si>
+    <t>13.12.202596</t>
+  </si>
+  <si>
+    <t>13.12.20251</t>
+  </si>
+  <si>
+    <t>13.12.20252</t>
+  </si>
+  <si>
+    <t>13.12.20253</t>
+  </si>
+  <si>
+    <t>14.12.20255</t>
+  </si>
+  <si>
+    <t>14.12.20256</t>
+  </si>
+  <si>
+    <t>14.12.20257</t>
+  </si>
+  <si>
+    <t>14.12.20258</t>
+  </si>
+  <si>
+    <t>14.12.20259</t>
+  </si>
+  <si>
+    <t>14.12.202510</t>
+  </si>
+  <si>
+    <t>14.12.202511</t>
+  </si>
+  <si>
+    <t>14.12.202512</t>
+  </si>
+  <si>
+    <t>14.12.202513</t>
+  </si>
+  <si>
+    <t>14.12.202514</t>
+  </si>
+  <si>
+    <t>14.12.202515</t>
+  </si>
+  <si>
+    <t>14.12.202516</t>
+  </si>
+  <si>
+    <t>14.12.202517</t>
+  </si>
+  <si>
+    <t>14.12.202518</t>
+  </si>
+  <si>
+    <t>14.12.202519</t>
+  </si>
+  <si>
+    <t>14.12.202520</t>
+  </si>
+  <si>
+    <t>14.12.202521</t>
+  </si>
+  <si>
+    <t>14.12.202522</t>
+  </si>
+  <si>
+    <t>14.12.202523</t>
+  </si>
+  <si>
+    <t>14.12.202524</t>
+  </si>
+  <si>
+    <t>14.12.202525</t>
+  </si>
+  <si>
+    <t>14.12.202526</t>
+  </si>
+  <si>
+    <t>14.12.202527</t>
+  </si>
+  <si>
+    <t>14.12.202528</t>
+  </si>
+  <si>
+    <t>14.12.202529</t>
+  </si>
+  <si>
+    <t>14.12.202530</t>
+  </si>
+  <si>
+    <t>14.12.202531</t>
+  </si>
+  <si>
+    <t>14.12.202532</t>
+  </si>
+  <si>
+    <t>14.12.202533</t>
+  </si>
+  <si>
+    <t>14.12.202534</t>
+  </si>
+  <si>
+    <t>14.12.202535</t>
+  </si>
+  <si>
+    <t>14.12.202536</t>
+  </si>
+  <si>
+    <t>14.12.202537</t>
+  </si>
+  <si>
+    <t>14.12.202538</t>
+  </si>
+  <si>
+    <t>14.12.202539</t>
+  </si>
+  <si>
+    <t>14.12.202540</t>
+  </si>
+  <si>
+    <t>14.12.202541</t>
+  </si>
+  <si>
+    <t>14.12.202542</t>
+  </si>
+  <si>
+    <t>14.12.202543</t>
+  </si>
+  <si>
+    <t>14.12.202544</t>
+  </si>
+  <si>
+    <t>14.12.202545</t>
+  </si>
+  <si>
+    <t>14.12.202546</t>
+  </si>
+  <si>
+    <t>14.12.202547</t>
+  </si>
+  <si>
+    <t>14.12.202548</t>
+  </si>
+  <si>
+    <t>14.12.202549</t>
+  </si>
+  <si>
+    <t>14.12.202550</t>
+  </si>
+  <si>
+    <t>14.12.202551</t>
+  </si>
+  <si>
+    <t>14.12.202552</t>
+  </si>
+  <si>
+    <t>14.12.202553</t>
+  </si>
+  <si>
+    <t>14.12.202554</t>
+  </si>
+  <si>
+    <t>14.12.202555</t>
+  </si>
+  <si>
+    <t>14.12.202556</t>
+  </si>
+  <si>
+    <t>14.12.202557</t>
+  </si>
+  <si>
+    <t>14.12.202558</t>
+  </si>
+  <si>
+    <t>14.12.202559</t>
+  </si>
+  <si>
+    <t>14.12.202560</t>
+  </si>
+  <si>
+    <t>14.12.202561</t>
+  </si>
+  <si>
+    <t>14.12.202562</t>
+  </si>
+  <si>
+    <t>14.12.202563</t>
+  </si>
+  <si>
+    <t>14.12.202564</t>
+  </si>
+  <si>
+    <t>14.12.202565</t>
+  </si>
+  <si>
+    <t>14.12.202566</t>
+  </si>
+  <si>
+    <t>14.12.202567</t>
+  </si>
+  <si>
+    <t>14.12.202568</t>
+  </si>
+  <si>
+    <t>14.12.202569</t>
+  </si>
+  <si>
+    <t>14.12.202570</t>
+  </si>
+  <si>
+    <t>14.12.202571</t>
+  </si>
+  <si>
+    <t>14.12.202572</t>
+  </si>
+  <si>
+    <t>14.12.202573</t>
+  </si>
+  <si>
+    <t>14.12.202574</t>
+  </si>
+  <si>
+    <t>14.12.202575</t>
+  </si>
+  <si>
+    <t>14.12.202576</t>
+  </si>
+  <si>
+    <t>14.12.202577</t>
+  </si>
+  <si>
+    <t>14.12.202578</t>
+  </si>
+  <si>
+    <t>14.12.202579</t>
+  </si>
+  <si>
+    <t>14.12.202580</t>
+  </si>
+  <si>
+    <t>14.12.202581</t>
+  </si>
+  <si>
+    <t>14.12.202582</t>
+  </si>
+  <si>
+    <t>14.12.202583</t>
+  </si>
+  <si>
+    <t>14.12.202584</t>
+  </si>
+  <si>
+    <t>14.12.202585</t>
+  </si>
+  <si>
+    <t>14.12.202586</t>
+  </si>
+  <si>
+    <t>14.12.202587</t>
+  </si>
+  <si>
+    <t>14.12.202588</t>
+  </si>
+  <si>
+    <t>14.12.202589</t>
+  </si>
+  <si>
+    <t>14.12.202590</t>
+  </si>
+  <si>
+    <t>14.12.202591</t>
+  </si>
+  <si>
+    <t>14.12.202592</t>
+  </si>
+  <si>
+    <t>14.12.202593</t>
+  </si>
+  <si>
+    <t>14.12.202594</t>
+  </si>
+  <si>
+    <t>14.12.202595</t>
+  </si>
+  <si>
+    <t>14.12.202596</t>
+  </si>
+  <si>
+    <t>14.12.20251</t>
+  </si>
+  <si>
+    <t>14.12.20252</t>
+  </si>
+  <si>
+    <t>14.12.20253</t>
+  </si>
+  <si>
+    <t>14.12.20254</t>
+  </si>
+  <si>
+    <t>15.12.20256</t>
+  </si>
+  <si>
+    <t>15.12.20257</t>
+  </si>
+  <si>
+    <t>15.12.20258</t>
+  </si>
+  <si>
+    <t>15.12.20259</t>
+  </si>
+  <si>
+    <t>15.12.202510</t>
+  </si>
+  <si>
+    <t>15.12.202511</t>
+  </si>
+  <si>
+    <t>15.12.202512</t>
+  </si>
+  <si>
+    <t>15.12.202513</t>
+  </si>
+  <si>
+    <t>15.12.202514</t>
+  </si>
+  <si>
+    <t>15.12.202515</t>
+  </si>
+  <si>
+    <t>15.12.202516</t>
+  </si>
+  <si>
+    <t>15.12.202517</t>
+  </si>
+  <si>
+    <t>15.12.202518</t>
+  </si>
+  <si>
+    <t>15.12.202519</t>
+  </si>
+  <si>
+    <t>15.12.202520</t>
+  </si>
+  <si>
+    <t>15.12.202521</t>
+  </si>
+  <si>
+    <t>15.12.202522</t>
+  </si>
+  <si>
+    <t>15.12.202523</t>
+  </si>
+  <si>
+    <t>15.12.202524</t>
+  </si>
+  <si>
+    <t>15.12.202525</t>
+  </si>
+  <si>
+    <t>15.12.202526</t>
+  </si>
+  <si>
+    <t>15.12.202527</t>
+  </si>
+  <si>
+    <t>15.12.202528</t>
+  </si>
+  <si>
+    <t>15.12.202529</t>
+  </si>
+  <si>
+    <t>15.12.202530</t>
+  </si>
+  <si>
+    <t>15.12.202531</t>
+  </si>
+  <si>
+    <t>15.12.202532</t>
+  </si>
+  <si>
+    <t>15.12.202533</t>
+  </si>
+  <si>
+    <t>15.12.202534</t>
+  </si>
+  <si>
+    <t>15.12.202535</t>
+  </si>
+  <si>
+    <t>15.12.202536</t>
+  </si>
+  <si>
+    <t>15.12.202537</t>
+  </si>
+  <si>
+    <t>15.12.202538</t>
+  </si>
+  <si>
+    <t>15.12.202539</t>
+  </si>
+  <si>
+    <t>15.12.202540</t>
+  </si>
+  <si>
+    <t>15.12.202541</t>
+  </si>
+  <si>
+    <t>15.12.202542</t>
+  </si>
+  <si>
+    <t>15.12.202543</t>
+  </si>
+  <si>
+    <t>15.12.202544</t>
+  </si>
+  <si>
+    <t>15.12.202545</t>
+  </si>
+  <si>
+    <t>15.12.202546</t>
+  </si>
+  <si>
+    <t>15.12.202547</t>
+  </si>
+  <si>
+    <t>15.12.202548</t>
+  </si>
+  <si>
+    <t>15.12.202549</t>
+  </si>
+  <si>
+    <t>15.12.202550</t>
+  </si>
+  <si>
+    <t>15.12.202551</t>
+  </si>
+  <si>
+    <t>15.12.202552</t>
+  </si>
+  <si>
+    <t>15.12.202553</t>
+  </si>
+  <si>
+    <t>15.12.202554</t>
+  </si>
+  <si>
+    <t>15.12.202555</t>
+  </si>
+  <si>
+    <t>15.12.202556</t>
+  </si>
+  <si>
+    <t>15.12.202557</t>
+  </si>
+  <si>
+    <t>15.12.202558</t>
+  </si>
+  <si>
+    <t>15.12.202559</t>
+  </si>
+  <si>
+    <t>15.12.202560</t>
+  </si>
+  <si>
+    <t>15.12.202561</t>
+  </si>
+  <si>
+    <t>15.12.202562</t>
+  </si>
+  <si>
+    <t>15.12.202563</t>
+  </si>
+  <si>
+    <t>15.12.202564</t>
+  </si>
+  <si>
+    <t>15.12.202565</t>
+  </si>
+  <si>
+    <t>15.12.202566</t>
+  </si>
+  <si>
+    <t>15.12.202567</t>
+  </si>
+  <si>
+    <t>15.12.202568</t>
+  </si>
+  <si>
+    <t>15.12.202569</t>
+  </si>
+  <si>
+    <t>15.12.202570</t>
+  </si>
+  <si>
+    <t>15.12.202571</t>
+  </si>
+  <si>
+    <t>15.12.202572</t>
+  </si>
+  <si>
+    <t>15.12.202573</t>
+  </si>
+  <si>
+    <t>15.12.202574</t>
+  </si>
+  <si>
+    <t>15.12.202575</t>
+  </si>
+  <si>
+    <t>15.12.202576</t>
+  </si>
+  <si>
+    <t>15.12.202577</t>
+  </si>
+  <si>
+    <t>15.12.202578</t>
+  </si>
+  <si>
+    <t>15.12.202579</t>
+  </si>
+  <si>
+    <t>15.12.202580</t>
+  </si>
+  <si>
+    <t>15.12.202581</t>
+  </si>
+  <si>
+    <t>15.12.202582</t>
+  </si>
+  <si>
+    <t>15.12.202583</t>
+  </si>
+  <si>
+    <t>15.12.202584</t>
+  </si>
+  <si>
+    <t>15.12.202585</t>
+  </si>
+  <si>
+    <t>15.12.202586</t>
+  </si>
+  <si>
+    <t>15.12.202587</t>
+  </si>
+  <si>
+    <t>15.12.202588</t>
+  </si>
+  <si>
+    <t>15.12.202589</t>
+  </si>
+  <si>
+    <t>15.12.202590</t>
+  </si>
+  <si>
+    <t>15.12.202591</t>
+  </si>
+  <si>
+    <t>15.12.202592</t>
+  </si>
+  <si>
+    <t>15.12.202593</t>
+  </si>
+  <si>
+    <t>15.12.202594</t>
+  </si>
+  <si>
+    <t>15.12.202595</t>
+  </si>
+  <si>
+    <t>15.12.202596</t>
+  </si>
+  <si>
+    <t>15.12.20251</t>
+  </si>
+  <si>
+    <t>15.12.20252</t>
+  </si>
+  <si>
+    <t>15.12.20253</t>
+  </si>
+  <si>
+    <t>15.12.20254</t>
+  </si>
+  <si>
+    <t>15.12.20255</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1858,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45993.99444444444</v>
+        <v>46001.99444444444</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1011,7 +1875,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45994.00486111111</v>
+        <v>46002.00486111111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1028,7 +1892,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45994.01527777778</v>
+        <v>46002.01527777778</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1045,7 +1909,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45994.02569444444</v>
+        <v>46002.02569444444</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1062,7 +1926,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45994.03611111111</v>
+        <v>46002.03611111111</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1079,7 +1943,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45994.04652777778</v>
+        <v>46002.04652777778</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1096,7 +1960,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45994.05694444444</v>
+        <v>46002.05694444444</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1113,7 +1977,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45994.06736111111</v>
+        <v>46002.06736111111</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1130,7 +1994,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45994.07777777778</v>
+        <v>46002.07777777778</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1147,7 +2011,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45994.08819444444</v>
+        <v>46002.08819444444</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1164,7 +2028,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45994.09861111111</v>
+        <v>46002.09861111111</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1181,7 +2045,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45994.10902777778</v>
+        <v>46002.10902777778</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1198,7 +2062,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45994.11944444444</v>
+        <v>46002.11944444444</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1215,7 +2079,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45994.12986111111</v>
+        <v>46002.12986111111</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1232,7 +2096,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45994.14027777778</v>
+        <v>46002.14027777778</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1249,7 +2113,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45994.15069444444</v>
+        <v>46002.15069444444</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1266,7 +2130,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45994.16111111111</v>
+        <v>46002.16111111111</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1283,7 +2147,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45994.17152777778</v>
+        <v>46002.17152777778</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1300,7 +2164,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45994.18194444444</v>
+        <v>46002.18194444444</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1317,7 +2181,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45994.19236111111</v>
+        <v>46002.19236111111</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1334,7 +2198,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45994.20277777778</v>
+        <v>46002.20277777778</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1351,7 +2215,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45994.21319444444</v>
+        <v>46002.21319444444</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1368,7 +2232,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45994.22361111111</v>
+        <v>46002.22361111111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1385,7 +2249,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45994.23402777778</v>
+        <v>46002.23402777778</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1402,7 +2266,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45994.24444444444</v>
+        <v>46002.24444444444</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1419,7 +2283,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45994.25486111111</v>
+        <v>46002.25486111111</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1436,7 +2300,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45994.26527777778</v>
+        <v>46002.26527777778</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1453,7 +2317,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45994.27569444444</v>
+        <v>46002.27569444444</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1470,7 +2334,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45994.28611111111</v>
+        <v>46002.28611111111</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1487,7 +2351,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45994.29652777778</v>
+        <v>46002.29652777778</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1504,7 +2368,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45994.30694444444</v>
+        <v>46002.30694444444</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1521,7 +2385,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45994.31736111111</v>
+        <v>46002.31736111111</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1538,7 +2402,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45994.32777777778</v>
+        <v>46002.32777777778</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1555,7 +2419,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45994.33819444444</v>
+        <v>46002.33819444444</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1572,7 +2436,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45994.34861111111</v>
+        <v>46002.34861111111</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1589,7 +2453,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45994.35902777778</v>
+        <v>46002.35902777778</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1606,7 +2470,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45994.36944444444</v>
+        <v>46002.36944444444</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1623,7 +2487,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45994.37986111111</v>
+        <v>46002.37986111111</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1640,7 +2504,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45994.39027777778</v>
+        <v>46002.39027777778</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1657,7 +2521,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45994.40069444444</v>
+        <v>46002.40069444444</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1674,7 +2538,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45994.41111111111</v>
+        <v>46002.41111111111</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1691,7 +2555,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45994.42152777778</v>
+        <v>46002.42152777778</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1708,7 +2572,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45994.43194444444</v>
+        <v>46002.43194444444</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1725,7 +2589,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45994.44236111111</v>
+        <v>46002.44236111111</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1742,7 +2606,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45994.45277777778</v>
+        <v>46002.45277777778</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1759,7 +2623,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45994.46319444444</v>
+        <v>46002.46319444444</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1776,7 +2640,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45994.47361111111</v>
+        <v>46002.47361111111</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1793,7 +2657,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45994.48402777778</v>
+        <v>46002.48402777778</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1810,7 +2674,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45994.49444444444</v>
+        <v>46002.49444444444</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1827,7 +2691,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45994.50486111111</v>
+        <v>46002.50486111111</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1844,7 +2708,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45994.51527777778</v>
+        <v>46002.51527777778</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1861,7 +2725,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45994.52569444444</v>
+        <v>46002.52569444444</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1878,7 +2742,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45994.53611111111</v>
+        <v>46002.53611111111</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1895,7 +2759,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45994.54652777778</v>
+        <v>46002.54652777778</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1912,7 +2776,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45994.55694444444</v>
+        <v>46002.55694444444</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1929,7 +2793,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45994.56736111111</v>
+        <v>46002.56736111111</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1946,7 +2810,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45994.57777777778</v>
+        <v>46002.57777777778</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1963,7 +2827,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45994.58819444444</v>
+        <v>46002.58819444444</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1980,7 +2844,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45994.59861111111</v>
+        <v>46002.59861111111</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1997,7 +2861,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45994.60902777778</v>
+        <v>46002.60902777778</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2014,7 +2878,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45994.61944444444</v>
+        <v>46002.61944444444</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2031,7 +2895,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45994.62986111111</v>
+        <v>46002.62986111111</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2048,7 +2912,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45994.64027777778</v>
+        <v>46002.64027777778</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2065,7 +2929,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45994.65069444444</v>
+        <v>46002.65069444444</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2082,7 +2946,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45994.66111111111</v>
+        <v>46002.66111111111</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2099,7 +2963,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45994.67152777778</v>
+        <v>46002.67152777778</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2116,7 +2980,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45994.68194444444</v>
+        <v>46002.68194444444</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2133,7 +2997,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45994.69236111111</v>
+        <v>46002.69236111111</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2150,7 +3014,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45994.70277777778</v>
+        <v>46002.70277777778</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2167,7 +3031,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45994.71319444444</v>
+        <v>46002.71319444444</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2184,7 +3048,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45994.72361111111</v>
+        <v>46002.72361111111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2201,7 +3065,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45994.73402777778</v>
+        <v>46002.73402777778</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2218,7 +3082,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45994.74444444444</v>
+        <v>46002.74444444444</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2235,7 +3099,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45994.75486111111</v>
+        <v>46002.75486111111</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2252,7 +3116,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45994.76527777778</v>
+        <v>46002.76527777778</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2269,7 +3133,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45994.77569444444</v>
+        <v>46002.77569444444</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2286,7 +3150,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45994.78611111111</v>
+        <v>46002.78611111111</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2303,7 +3167,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45994.79652777778</v>
+        <v>46002.79652777778</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2320,7 +3184,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45994.80694444444</v>
+        <v>46002.80694444444</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2337,7 +3201,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45994.81736111111</v>
+        <v>46002.81736111111</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2354,7 +3218,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45994.82777777778</v>
+        <v>46002.82777777778</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2371,7 +3235,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45994.83819444444</v>
+        <v>46002.83819444444</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2388,7 +3252,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45994.84861111111</v>
+        <v>46002.84861111111</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2405,7 +3269,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45994.85902777778</v>
+        <v>46002.85902777778</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2422,7 +3286,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45994.86944444444</v>
+        <v>46002.86944444444</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2439,7 +3303,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45994.87986111111</v>
+        <v>46002.87986111111</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2456,7 +3320,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45994.89027777778</v>
+        <v>46002.89027777778</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2473,7 +3337,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45994.90069444444</v>
+        <v>46002.90069444444</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2490,7 +3354,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45994.91111111111</v>
+        <v>46002.91111111111</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2507,7 +3371,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45994.92152777778</v>
+        <v>46002.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2524,7 +3388,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45994.93194444444</v>
+        <v>46002.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2541,7 +3405,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45994.94236111111</v>
+        <v>46002.94236111111</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2558,7 +3422,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45994.95277777778</v>
+        <v>46002.95277777778</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2575,7 +3439,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45994.96319444444</v>
+        <v>46002.96319444444</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2592,7 +3456,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45994.97361111111</v>
+        <v>46002.97361111111</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2609,7 +3473,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45994.98402777778</v>
+        <v>46002.98402777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2626,7 +3490,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45994.99444444444</v>
+        <v>46002.99444444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2643,7 +3507,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45994.99444444444</v>
+        <v>46002.99444444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2660,7 +3524,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45995.00486111111</v>
+        <v>46003.00486111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2677,7 +3541,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45995.01527777778</v>
+        <v>46003.01527777778</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2694,7 +3558,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45995.02569444444</v>
+        <v>46003.02569444444</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2711,7 +3575,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45995.03611111111</v>
+        <v>46003.03611111111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2728,7 +3592,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45995.04652777778</v>
+        <v>46003.04652777778</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2745,7 +3609,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45995.05694444444</v>
+        <v>46003.05694444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2762,7 +3626,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45995.06736111111</v>
+        <v>46003.06736111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2779,7 +3643,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45995.07777777778</v>
+        <v>46003.07777777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2796,7 +3660,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45995.08819444444</v>
+        <v>46003.08819444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2813,7 +3677,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45995.09861111111</v>
+        <v>46003.09861111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2830,7 +3694,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45995.10902777778</v>
+        <v>46003.10902777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2847,7 +3711,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45995.11944444444</v>
+        <v>46003.11944444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2864,7 +3728,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45995.12986111111</v>
+        <v>46003.12986111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2881,7 +3745,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45995.14027777778</v>
+        <v>46003.14027777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2898,7 +3762,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45995.15069444444</v>
+        <v>46003.15069444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2915,7 +3779,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45995.16111111111</v>
+        <v>46003.16111111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2932,7 +3796,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45995.17152777778</v>
+        <v>46003.17152777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2949,7 +3813,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45995.18194444444</v>
+        <v>46003.18194444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2966,7 +3830,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45995.19236111111</v>
+        <v>46003.19236111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2983,7 +3847,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45995.20277777778</v>
+        <v>46003.20277777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3000,7 +3864,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45995.21319444444</v>
+        <v>46003.21319444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3017,7 +3881,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45995.22361111111</v>
+        <v>46003.22361111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3034,7 +3898,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45995.23402777778</v>
+        <v>46003.23402777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3051,7 +3915,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45995.24444444444</v>
+        <v>46003.24444444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3068,7 +3932,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45995.25486111111</v>
+        <v>46003.25486111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3085,7 +3949,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45995.26527777778</v>
+        <v>46003.26527777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3102,7 +3966,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45995.27569444444</v>
+        <v>46003.27569444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3119,7 +3983,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45995.28611111111</v>
+        <v>46003.28611111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3136,7 +4000,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45995.29652777778</v>
+        <v>46003.29652777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3153,7 +4017,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45995.30694444444</v>
+        <v>46003.30694444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3170,7 +4034,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45995.31736111111</v>
+        <v>46003.31736111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3187,7 +4051,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45995.32777777778</v>
+        <v>46003.32777777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3204,7 +4068,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45995.33819444444</v>
+        <v>46003.33819444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3221,7 +4085,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45995.34861111111</v>
+        <v>46003.34861111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3238,7 +4102,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45995.35902777778</v>
+        <v>46003.35902777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3255,7 +4119,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45995.36944444444</v>
+        <v>46003.36944444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3272,7 +4136,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45995.37986111111</v>
+        <v>46003.37986111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3289,7 +4153,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45995.39027777778</v>
+        <v>46003.39027777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3306,7 +4170,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45995.40069444444</v>
+        <v>46003.40069444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3323,7 +4187,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45995.41111111111</v>
+        <v>46003.41111111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3340,7 +4204,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45995.42152777778</v>
+        <v>46003.42152777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3357,7 +4221,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45995.43194444444</v>
+        <v>46003.43194444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3374,7 +4238,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45995.44236111111</v>
+        <v>46003.44236111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3391,7 +4255,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45995.45277777778</v>
+        <v>46003.45277777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3408,7 +4272,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45995.46319444444</v>
+        <v>46003.46319444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3425,7 +4289,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45995.47361111111</v>
+        <v>46003.47361111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3442,7 +4306,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45995.48402777778</v>
+        <v>46003.48402777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3459,7 +4323,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45995.49444444444</v>
+        <v>46003.49444444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3476,7 +4340,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45995.50486111111</v>
+        <v>46003.50486111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3493,7 +4357,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45995.51527777778</v>
+        <v>46003.51527777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3510,7 +4374,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45995.52569444444</v>
+        <v>46003.52569444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3527,7 +4391,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45995.53611111111</v>
+        <v>46003.53611111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3544,7 +4408,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45995.54652777778</v>
+        <v>46003.54652777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3561,7 +4425,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45995.55694444444</v>
+        <v>46003.55694444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3578,7 +4442,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45995.56736111111</v>
+        <v>46003.56736111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3595,7 +4459,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45995.57777777778</v>
+        <v>46003.57777777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3612,7 +4476,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45995.58819444444</v>
+        <v>46003.58819444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3629,7 +4493,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45995.59861111111</v>
+        <v>46003.59861111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3646,7 +4510,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45995.60902777778</v>
+        <v>46003.60902777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3663,7 +4527,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45995.61944444444</v>
+        <v>46003.61944444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3680,7 +4544,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45995.62986111111</v>
+        <v>46003.62986111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3697,7 +4561,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45995.64027777778</v>
+        <v>46003.64027777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3714,7 +4578,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45995.65069444444</v>
+        <v>46003.65069444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3731,7 +4595,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45995.66111111111</v>
+        <v>46003.66111111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3748,7 +4612,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45995.67152777778</v>
+        <v>46003.67152777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3765,7 +4629,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45995.68194444444</v>
+        <v>46003.68194444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3782,7 +4646,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45995.69236111111</v>
+        <v>46003.69236111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3799,7 +4663,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45995.70277777778</v>
+        <v>46003.70277777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3816,7 +4680,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45995.71319444444</v>
+        <v>46003.71319444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3833,7 +4697,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45995.72361111111</v>
+        <v>46003.72361111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3850,7 +4714,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45995.73402777778</v>
+        <v>46003.73402777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3867,7 +4731,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45995.74444444444</v>
+        <v>46003.74444444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3884,7 +4748,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45995.75486111111</v>
+        <v>46003.75486111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3901,7 +4765,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45995.76527777778</v>
+        <v>46003.76527777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3918,7 +4782,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45995.77569444444</v>
+        <v>46003.77569444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3935,7 +4799,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45995.78611111111</v>
+        <v>46003.78611111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3952,7 +4816,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45995.79652777778</v>
+        <v>46003.79652777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3969,7 +4833,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45995.80694444444</v>
+        <v>46003.80694444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3986,7 +4850,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45995.81736111111</v>
+        <v>46003.81736111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4003,7 +4867,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45995.82777777778</v>
+        <v>46003.82777777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4020,7 +4884,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45995.83819444444</v>
+        <v>46003.83819444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4037,7 +4901,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45995.84861111111</v>
+        <v>46003.84861111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4054,7 +4918,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45995.85902777778</v>
+        <v>46003.85902777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4071,7 +4935,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45995.86944444444</v>
+        <v>46003.86944444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4088,7 +4952,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45995.87986111111</v>
+        <v>46003.87986111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4105,7 +4969,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45995.89027777778</v>
+        <v>46003.89027777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4122,7 +4986,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45995.90069444444</v>
+        <v>46003.90069444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4139,7 +5003,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45995.91111111111</v>
+        <v>46003.91111111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4156,7 +5020,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45995.92152777778</v>
+        <v>46003.92152777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4173,7 +5037,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45995.93194444444</v>
+        <v>46003.93194444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4190,7 +5054,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45995.94236111111</v>
+        <v>46003.94236111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4207,7 +5071,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45995.95277777778</v>
+        <v>46003.95277777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4224,7 +5088,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45995.96319444444</v>
+        <v>46003.96319444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4241,7 +5105,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45995.97361111111</v>
+        <v>46003.97361111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4258,7 +5122,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>45995.98402777778</v>
+        <v>46003.98402777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4275,7 +5139,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>45995.99444444444</v>
+        <v>46003.99444444444</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4288,6 +5152,4953 @@
       </c>
       <c r="E195" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>46003.99444444444</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>46004.00486111111</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>46004.01527777778</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>46004.02569444444</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>46004.03611111111</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>46004.04652777778</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>46004.05694444444</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>46004.06736111111</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>46004.07777777778</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>46004.08819444444</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>46004.09861111111</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>46004.10902777778</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>46004.11944444444</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>46004.12986111111</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>46004.14027777778</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>46004.15069444444</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>46004.16111111111</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>46004.17152777778</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>46004.18194444444</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>46004.19236111111</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>46004.20277777778</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>46004.21319444444</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>46004.22361111111</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>46004.23402777778</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>46004.24444444444</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>46004.25486111111</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>46004.26527777778</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>46004.27569444444</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>46004.28611111111</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>46004.29652777778</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>46004.30694444444</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>46004.31736111111</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>46004.32777777778</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>46004.33819444444</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>46004.34861111111</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>46004.35902777778</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>46004.36944444444</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>46004.37986111111</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>46004.39027777778</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>41</v>
+      </c>
+      <c r="E234" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>46004.40069444444</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>42</v>
+      </c>
+      <c r="E235" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>46004.41111111111</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>46004.42152777778</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>44</v>
+      </c>
+      <c r="E237" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>46004.43194444444</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>46004.44236111111</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>46004.45277777778</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>46004.46319444444</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>46004.47361111111</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>46004.48402777778</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>46004.49444444444</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>46004.50486111111</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>52</v>
+      </c>
+      <c r="E245" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>46004.51527777778</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>53</v>
+      </c>
+      <c r="E246" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>46004.52569444444</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>54</v>
+      </c>
+      <c r="E247" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>46004.53611111111</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>55</v>
+      </c>
+      <c r="E248" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>46004.54652777778</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>56</v>
+      </c>
+      <c r="E249" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>46004.55694444444</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>57</v>
+      </c>
+      <c r="E250" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>46004.56736111111</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>58</v>
+      </c>
+      <c r="E251" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>46004.57777777778</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>59</v>
+      </c>
+      <c r="E252" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>46004.58819444444</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>60</v>
+      </c>
+      <c r="E253" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>46004.59861111111</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>46004.60902777778</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>46004.61944444444</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>63</v>
+      </c>
+      <c r="E256" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>46004.62986111111</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>46004.64027777778</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>65</v>
+      </c>
+      <c r="E258" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>46004.65069444444</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>66</v>
+      </c>
+      <c r="E259" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>46004.66111111111</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>67</v>
+      </c>
+      <c r="E260" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>46004.67152777778</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>68</v>
+      </c>
+      <c r="E261" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>46004.68194444444</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>69</v>
+      </c>
+      <c r="E262" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>46004.69236111111</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>70</v>
+      </c>
+      <c r="E263" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>46004.70277777778</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>71</v>
+      </c>
+      <c r="E264" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>46004.71319444444</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>72</v>
+      </c>
+      <c r="E265" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>46004.72361111111</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>73</v>
+      </c>
+      <c r="E266" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>46004.73402777778</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>74</v>
+      </c>
+      <c r="E267" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>46004.74444444444</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>75</v>
+      </c>
+      <c r="E268" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>46004.75486111111</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>76</v>
+      </c>
+      <c r="E269" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>46004.76527777778</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>77</v>
+      </c>
+      <c r="E270" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>46004.77569444444</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>78</v>
+      </c>
+      <c r="E271" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>46004.78611111111</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>46004.79652777778</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>46004.80694444444</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>81</v>
+      </c>
+      <c r="E274" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>46004.81736111111</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>82</v>
+      </c>
+      <c r="E275" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>46004.82777777778</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>83</v>
+      </c>
+      <c r="E276" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>46004.83819444444</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>84</v>
+      </c>
+      <c r="E277" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>46004.84861111111</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>85</v>
+      </c>
+      <c r="E278" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>46004.85902777778</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>46004.86944444444</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>87</v>
+      </c>
+      <c r="E280" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>46004.87986111111</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>88</v>
+      </c>
+      <c r="E281" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>46004.89027777778</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>89</v>
+      </c>
+      <c r="E282" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>46004.90069444444</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>90</v>
+      </c>
+      <c r="E283" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>46004.91111111111</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>91</v>
+      </c>
+      <c r="E284" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>46004.92152777778</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>92</v>
+      </c>
+      <c r="E285" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>46004.93194444444</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>93</v>
+      </c>
+      <c r="E286" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>46004.94236111111</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>46004.95277777778</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>95</v>
+      </c>
+      <c r="E288" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>46004.96319444444</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>96</v>
+      </c>
+      <c r="E289" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>46004.97361111111</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>46004.98402777778</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>46004.99444444444</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>46004.99444444444</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+      <c r="E293" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>46005.00486111111</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>46005.01527777778</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>6</v>
+      </c>
+      <c r="E295" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>46005.02569444444</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>46005.03611111111</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>46005.04652777778</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>46005.05694444444</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>10</v>
+      </c>
+      <c r="E299" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>46005.06736111111</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>46005.07777777778</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>46005.08819444444</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>46005.09861111111</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>46005.10902777778</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>46005.11944444444</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>46005.12986111111</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>17</v>
+      </c>
+      <c r="E306" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>46005.14027777778</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>18</v>
+      </c>
+      <c r="E307" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>46005.15069444444</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>19</v>
+      </c>
+      <c r="E308" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>46005.16111111111</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>20</v>
+      </c>
+      <c r="E309" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>46005.17152777778</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>21</v>
+      </c>
+      <c r="E310" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>46005.18194444444</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>22</v>
+      </c>
+      <c r="E311" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>46005.19236111111</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>23</v>
+      </c>
+      <c r="E312" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>46005.20277777778</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>24</v>
+      </c>
+      <c r="E313" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>46005.21319444444</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>25</v>
+      </c>
+      <c r="E314" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>46005.22361111111</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>26</v>
+      </c>
+      <c r="E315" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>46005.23402777778</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>27</v>
+      </c>
+      <c r="E316" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>46005.24444444444</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>28</v>
+      </c>
+      <c r="E317" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>46005.25486111111</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>29</v>
+      </c>
+      <c r="E318" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>46005.26527777778</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>30</v>
+      </c>
+      <c r="E319" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>46005.27569444444</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>31</v>
+      </c>
+      <c r="E320" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>46005.28611111111</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>32</v>
+      </c>
+      <c r="E321" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>46005.29652777778</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>33</v>
+      </c>
+      <c r="E322" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>46005.30694444444</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>34</v>
+      </c>
+      <c r="E323" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>46005.31736111111</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>35</v>
+      </c>
+      <c r="E324" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>46005.32777777778</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>36</v>
+      </c>
+      <c r="E325" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>46005.33819444444</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>37</v>
+      </c>
+      <c r="E326" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>46005.34861111111</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>38</v>
+      </c>
+      <c r="E327" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>46005.35902777778</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>39</v>
+      </c>
+      <c r="E328" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>46005.36944444444</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>40</v>
+      </c>
+      <c r="E329" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>46005.37986111111</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>41</v>
+      </c>
+      <c r="E330" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>46005.39027777778</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>42</v>
+      </c>
+      <c r="E331" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>46005.40069444444</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>43</v>
+      </c>
+      <c r="E332" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>46005.41111111111</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>44</v>
+      </c>
+      <c r="E333" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>46005.42152777778</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>45</v>
+      </c>
+      <c r="E334" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>46005.43194444444</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>46</v>
+      </c>
+      <c r="E335" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>46005.44236111111</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>47</v>
+      </c>
+      <c r="E336" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>46005.45277777778</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>48</v>
+      </c>
+      <c r="E337" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>46005.46319444444</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>49</v>
+      </c>
+      <c r="E338" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>46005.47361111111</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>50</v>
+      </c>
+      <c r="E339" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>46005.48402777778</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>51</v>
+      </c>
+      <c r="E340" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>46005.49444444444</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>52</v>
+      </c>
+      <c r="E341" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>46005.50486111111</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>53</v>
+      </c>
+      <c r="E342" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>46005.51527777778</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>54</v>
+      </c>
+      <c r="E343" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>46005.52569444444</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>55</v>
+      </c>
+      <c r="E344" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>46005.53611111111</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>56</v>
+      </c>
+      <c r="E345" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>46005.54652777778</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>57</v>
+      </c>
+      <c r="E346" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>46005.55694444444</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>58</v>
+      </c>
+      <c r="E347" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>46005.56736111111</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>59</v>
+      </c>
+      <c r="E348" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>46005.57777777778</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>60</v>
+      </c>
+      <c r="E349" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>46005.58819444444</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>61</v>
+      </c>
+      <c r="E350" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>46005.59861111111</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>62</v>
+      </c>
+      <c r="E351" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>46005.60902777778</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>63</v>
+      </c>
+      <c r="E352" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>46005.61944444444</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>64</v>
+      </c>
+      <c r="E353" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>46005.62986111111</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>65</v>
+      </c>
+      <c r="E354" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>46005.64027777778</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>66</v>
+      </c>
+      <c r="E355" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>46005.65069444444</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>67</v>
+      </c>
+      <c r="E356" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>46005.66111111111</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>68</v>
+      </c>
+      <c r="E357" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>46005.67152777778</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>69</v>
+      </c>
+      <c r="E358" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>46005.68194444444</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>70</v>
+      </c>
+      <c r="E359" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>46005.69236111111</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>71</v>
+      </c>
+      <c r="E360" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>46005.70277777778</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>72</v>
+      </c>
+      <c r="E361" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>46005.71319444444</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>73</v>
+      </c>
+      <c r="E362" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>46005.72361111111</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>74</v>
+      </c>
+      <c r="E363" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>46005.73402777778</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>75</v>
+      </c>
+      <c r="E364" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>46005.74444444444</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>76</v>
+      </c>
+      <c r="E365" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>46005.75486111111</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>77</v>
+      </c>
+      <c r="E366" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>46005.76527777778</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>78</v>
+      </c>
+      <c r="E367" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>46005.77569444444</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>79</v>
+      </c>
+      <c r="E368" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>46005.78611111111</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>80</v>
+      </c>
+      <c r="E369" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>46005.79652777778</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>81</v>
+      </c>
+      <c r="E370" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>46005.80694444444</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>82</v>
+      </c>
+      <c r="E371" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
+        <v>46005.81736111111</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>83</v>
+      </c>
+      <c r="E372" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>46005.82777777778</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>84</v>
+      </c>
+      <c r="E373" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>46005.83819444444</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>85</v>
+      </c>
+      <c r="E374" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>46005.84861111111</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>86</v>
+      </c>
+      <c r="E375" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>46005.85902777778</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>87</v>
+      </c>
+      <c r="E376" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
+        <v>46005.86944444444</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>88</v>
+      </c>
+      <c r="E377" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
+        <v>46005.87986111111</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>89</v>
+      </c>
+      <c r="E378" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
+        <v>46005.89027777778</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>90</v>
+      </c>
+      <c r="E379" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
+        <v>46005.90069444444</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>91</v>
+      </c>
+      <c r="E380" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
+        <v>46005.91111111111</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>92</v>
+      </c>
+      <c r="E381" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
+        <v>46005.92152777778</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>93</v>
+      </c>
+      <c r="E382" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="2">
+        <v>46005.93194444444</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>94</v>
+      </c>
+      <c r="E383" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="2">
+        <v>46005.94236111111</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>95</v>
+      </c>
+      <c r="E384" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="2">
+        <v>46005.95277777778</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>96</v>
+      </c>
+      <c r="E385" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="2">
+        <v>46005.96319444444</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="2">
+        <v>46005.97361111111</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>2</v>
+      </c>
+      <c r="E387" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="2">
+        <v>46005.98402777778</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>3</v>
+      </c>
+      <c r="E388" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2">
+        <v>46005.99444444444</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>4</v>
+      </c>
+      <c r="E389" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="2">
+        <v>46005.99444444444</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>5</v>
+      </c>
+      <c r="E390" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2">
+        <v>46006.00486111111</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>6</v>
+      </c>
+      <c r="E391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="2">
+        <v>46006.01527777778</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>7</v>
+      </c>
+      <c r="E392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2">
+        <v>46006.02569444444</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>8</v>
+      </c>
+      <c r="E393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="2">
+        <v>46006.03611111111</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>9</v>
+      </c>
+      <c r="E394" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="2">
+        <v>46006.04652777778</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+      <c r="D395">
+        <v>10</v>
+      </c>
+      <c r="E395" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2">
+        <v>46006.05694444444</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+      <c r="D396">
+        <v>11</v>
+      </c>
+      <c r="E396" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="2">
+        <v>46006.06736111111</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>12</v>
+      </c>
+      <c r="E397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="2">
+        <v>46006.07777777778</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <v>13</v>
+      </c>
+      <c r="E398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="2">
+        <v>46006.08819444444</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>14</v>
+      </c>
+      <c r="E399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="2">
+        <v>46006.09861111111</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>15</v>
+      </c>
+      <c r="E400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="2">
+        <v>46006.10902777778</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>16</v>
+      </c>
+      <c r="E401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2">
+        <v>46006.11944444444</v>
+      </c>
+      <c r="B402">
+        <v>0</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>17</v>
+      </c>
+      <c r="E402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="2">
+        <v>46006.12986111111</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>18</v>
+      </c>
+      <c r="E403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="2">
+        <v>46006.14027777778</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>19</v>
+      </c>
+      <c r="E404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="2">
+        <v>46006.15069444444</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>20</v>
+      </c>
+      <c r="E405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="2">
+        <v>46006.16111111111</v>
+      </c>
+      <c r="B406">
+        <v>0</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="D406">
+        <v>21</v>
+      </c>
+      <c r="E406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="2">
+        <v>46006.17152777778</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>22</v>
+      </c>
+      <c r="E407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="2">
+        <v>46006.18194444444</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>23</v>
+      </c>
+      <c r="E408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="2">
+        <v>46006.19236111111</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>24</v>
+      </c>
+      <c r="E409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="2">
+        <v>46006.20277777778</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <v>25</v>
+      </c>
+      <c r="E410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="2">
+        <v>46006.21319444444</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>26</v>
+      </c>
+      <c r="E411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="2">
+        <v>46006.22361111111</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>27</v>
+      </c>
+      <c r="E412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="2">
+        <v>46006.23402777778</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>28</v>
+      </c>
+      <c r="E413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="2">
+        <v>46006.24444444444</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>29</v>
+      </c>
+      <c r="E414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="2">
+        <v>46006.25486111111</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>30</v>
+      </c>
+      <c r="E415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="2">
+        <v>46006.26527777778</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>31</v>
+      </c>
+      <c r="E416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="2">
+        <v>46006.27569444444</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>32</v>
+      </c>
+      <c r="E417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="2">
+        <v>46006.28611111111</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>33</v>
+      </c>
+      <c r="E418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="2">
+        <v>46006.29652777778</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>34</v>
+      </c>
+      <c r="E419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="2">
+        <v>46006.30694444444</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>35</v>
+      </c>
+      <c r="E420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="2">
+        <v>46006.31736111111</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>36</v>
+      </c>
+      <c r="E421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="2">
+        <v>46006.32777777778</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>37</v>
+      </c>
+      <c r="E422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="2">
+        <v>46006.33819444444</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>38</v>
+      </c>
+      <c r="E423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="2">
+        <v>46006.34861111111</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>39</v>
+      </c>
+      <c r="E424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="2">
+        <v>46006.35902777778</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>40</v>
+      </c>
+      <c r="E425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2">
+        <v>46006.36944444444</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>41</v>
+      </c>
+      <c r="E426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="2">
+        <v>46006.37986111111</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>42</v>
+      </c>
+      <c r="E427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="2">
+        <v>46006.39027777778</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>43</v>
+      </c>
+      <c r="E428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="2">
+        <v>46006.40069444444</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>44</v>
+      </c>
+      <c r="E429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="2">
+        <v>46006.41111111111</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>45</v>
+      </c>
+      <c r="E430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="2">
+        <v>46006.42152777778</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>46</v>
+      </c>
+      <c r="E431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="2">
+        <v>46006.43194444444</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>47</v>
+      </c>
+      <c r="E432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="2">
+        <v>46006.44236111111</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>48</v>
+      </c>
+      <c r="E433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="2">
+        <v>46006.45277777778</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>49</v>
+      </c>
+      <c r="E434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="2">
+        <v>46006.46319444444</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>50</v>
+      </c>
+      <c r="E435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="2">
+        <v>46006.47361111111</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>51</v>
+      </c>
+      <c r="E436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="2">
+        <v>46006.48402777778</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>52</v>
+      </c>
+      <c r="E437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="2">
+        <v>46006.49444444444</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>53</v>
+      </c>
+      <c r="E438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="2">
+        <v>46006.50486111111</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>54</v>
+      </c>
+      <c r="E439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="2">
+        <v>46006.51527777778</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>55</v>
+      </c>
+      <c r="E440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="2">
+        <v>46006.52569444444</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>56</v>
+      </c>
+      <c r="E441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="2">
+        <v>46006.53611111111</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>57</v>
+      </c>
+      <c r="E442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="2">
+        <v>46006.54652777778</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>58</v>
+      </c>
+      <c r="E443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="2">
+        <v>46006.55694444444</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>59</v>
+      </c>
+      <c r="E444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="2">
+        <v>46006.56736111111</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>60</v>
+      </c>
+      <c r="E445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="2">
+        <v>46006.57777777778</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>61</v>
+      </c>
+      <c r="E446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="2">
+        <v>46006.58819444444</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>62</v>
+      </c>
+      <c r="E447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="2">
+        <v>46006.59861111111</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>63</v>
+      </c>
+      <c r="E448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="2">
+        <v>46006.60902777778</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>64</v>
+      </c>
+      <c r="E449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="2">
+        <v>46006.61944444444</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>65</v>
+      </c>
+      <c r="E450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="2">
+        <v>46006.62986111111</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>66</v>
+      </c>
+      <c r="E451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="2">
+        <v>46006.64027777778</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>67</v>
+      </c>
+      <c r="E452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="2">
+        <v>46006.65069444444</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>68</v>
+      </c>
+      <c r="E453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="2">
+        <v>46006.66111111111</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>69</v>
+      </c>
+      <c r="E454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2">
+        <v>46006.67152777778</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>70</v>
+      </c>
+      <c r="E455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="2">
+        <v>46006.68194444444</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>71</v>
+      </c>
+      <c r="E456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2">
+        <v>46006.69236111111</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>72</v>
+      </c>
+      <c r="E457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="2">
+        <v>46006.70277777778</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>73</v>
+      </c>
+      <c r="E458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="2">
+        <v>46006.71319444444</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>74</v>
+      </c>
+      <c r="E459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="2">
+        <v>46006.72361111111</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>75</v>
+      </c>
+      <c r="E460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="2">
+        <v>46006.73402777778</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>76</v>
+      </c>
+      <c r="E461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="2">
+        <v>46006.74444444444</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>77</v>
+      </c>
+      <c r="E462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="2">
+        <v>46006.75486111111</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>78</v>
+      </c>
+      <c r="E463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="2">
+        <v>46006.76527777778</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>79</v>
+      </c>
+      <c r="E464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="2">
+        <v>46006.77569444444</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>80</v>
+      </c>
+      <c r="E465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="2">
+        <v>46006.78611111111</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>81</v>
+      </c>
+      <c r="E466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="2">
+        <v>46006.79652777778</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>82</v>
+      </c>
+      <c r="E467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="2">
+        <v>46006.80694444444</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>83</v>
+      </c>
+      <c r="E468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="2">
+        <v>46006.81736111111</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>84</v>
+      </c>
+      <c r="E469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="2">
+        <v>46006.82777777778</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <v>85</v>
+      </c>
+      <c r="E470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="2">
+        <v>46006.83819444444</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>86</v>
+      </c>
+      <c r="E471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2">
+        <v>46006.84861111111</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>87</v>
+      </c>
+      <c r="E472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="2">
+        <v>46006.85902777778</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>88</v>
+      </c>
+      <c r="E473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="2">
+        <v>46006.86944444444</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>89</v>
+      </c>
+      <c r="E474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="2">
+        <v>46006.87986111111</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>90</v>
+      </c>
+      <c r="E475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="2">
+        <v>46006.89027777778</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>91</v>
+      </c>
+      <c r="E476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="2">
+        <v>46006.90069444444</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>92</v>
+      </c>
+      <c r="E477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="2">
+        <v>46006.91111111111</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>93</v>
+      </c>
+      <c r="E478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="2">
+        <v>46006.92152777778</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>94</v>
+      </c>
+      <c r="E479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="2">
+        <v>46006.93194444444</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>95</v>
+      </c>
+      <c r="E480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="2">
+        <v>46006.94236111111</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>96</v>
+      </c>
+      <c r="E481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="2">
+        <v>46006.95277777778</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="2">
+        <v>46006.96319444444</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>2</v>
+      </c>
+      <c r="E483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="2">
+        <v>46006.97361111111</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484">
+        <v>3</v>
+      </c>
+      <c r="E484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="2">
+        <v>46006.98402777778</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>4</v>
+      </c>
+      <c r="E485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="2">
+        <v>46006.99444444444</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486">
+        <v>5</v>
+      </c>
+      <c r="E486" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -31,583 +31,583 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>29.12.20251</t>
-  </si>
-  <si>
-    <t>30.12.20252</t>
-  </si>
-  <si>
-    <t>30.12.20253</t>
-  </si>
-  <si>
-    <t>30.12.20254</t>
-  </si>
-  <si>
-    <t>30.12.20255</t>
-  </si>
-  <si>
-    <t>30.12.20256</t>
-  </si>
-  <si>
-    <t>30.12.20257</t>
-  </si>
-  <si>
-    <t>30.12.20258</t>
-  </si>
-  <si>
-    <t>30.12.20259</t>
-  </si>
-  <si>
-    <t>30.12.202510</t>
-  </si>
-  <si>
-    <t>30.12.202511</t>
-  </si>
-  <si>
-    <t>30.12.202512</t>
-  </si>
-  <si>
-    <t>30.12.202513</t>
-  </si>
-  <si>
-    <t>30.12.202514</t>
-  </si>
-  <si>
-    <t>30.12.202515</t>
-  </si>
-  <si>
-    <t>30.12.202516</t>
-  </si>
-  <si>
-    <t>30.12.202517</t>
-  </si>
-  <si>
-    <t>30.12.202518</t>
-  </si>
-  <si>
-    <t>30.12.202519</t>
-  </si>
-  <si>
-    <t>30.12.202520</t>
-  </si>
-  <si>
-    <t>30.12.202521</t>
-  </si>
-  <si>
-    <t>30.12.202522</t>
-  </si>
-  <si>
-    <t>30.12.202523</t>
-  </si>
-  <si>
-    <t>30.12.202524</t>
-  </si>
-  <si>
-    <t>30.12.202525</t>
-  </si>
-  <si>
-    <t>30.12.202526</t>
-  </si>
-  <si>
-    <t>30.12.202527</t>
-  </si>
-  <si>
-    <t>30.12.202528</t>
-  </si>
-  <si>
-    <t>30.12.202529</t>
-  </si>
-  <si>
-    <t>30.12.202530</t>
-  </si>
-  <si>
-    <t>30.12.202531</t>
-  </si>
-  <si>
-    <t>30.12.202532</t>
-  </si>
-  <si>
-    <t>30.12.202533</t>
-  </si>
-  <si>
-    <t>30.12.202534</t>
-  </si>
-  <si>
-    <t>30.12.202535</t>
-  </si>
-  <si>
-    <t>30.12.202536</t>
-  </si>
-  <si>
-    <t>30.12.202537</t>
-  </si>
-  <si>
-    <t>30.12.202538</t>
-  </si>
-  <si>
-    <t>30.12.202539</t>
-  </si>
-  <si>
-    <t>30.12.202540</t>
-  </si>
-  <si>
-    <t>30.12.202541</t>
-  </si>
-  <si>
-    <t>30.12.202542</t>
-  </si>
-  <si>
-    <t>30.12.202543</t>
-  </si>
-  <si>
-    <t>30.12.202544</t>
-  </si>
-  <si>
-    <t>30.12.202545</t>
-  </si>
-  <si>
-    <t>30.12.202546</t>
-  </si>
-  <si>
-    <t>30.12.202547</t>
-  </si>
-  <si>
-    <t>30.12.202548</t>
-  </si>
-  <si>
-    <t>30.12.202549</t>
-  </si>
-  <si>
-    <t>30.12.202550</t>
-  </si>
-  <si>
-    <t>30.12.202551</t>
-  </si>
-  <si>
-    <t>30.12.202552</t>
-  </si>
-  <si>
-    <t>30.12.202553</t>
-  </si>
-  <si>
-    <t>30.12.202554</t>
-  </si>
-  <si>
-    <t>30.12.202555</t>
-  </si>
-  <si>
-    <t>30.12.202556</t>
-  </si>
-  <si>
-    <t>30.12.202557</t>
-  </si>
-  <si>
-    <t>30.12.202558</t>
-  </si>
-  <si>
-    <t>30.12.202559</t>
-  </si>
-  <si>
-    <t>30.12.202560</t>
-  </si>
-  <si>
-    <t>30.12.202561</t>
-  </si>
-  <si>
-    <t>30.12.202562</t>
-  </si>
-  <si>
-    <t>30.12.202563</t>
-  </si>
-  <si>
-    <t>30.12.202564</t>
-  </si>
-  <si>
-    <t>30.12.202565</t>
-  </si>
-  <si>
-    <t>30.12.202566</t>
-  </si>
-  <si>
-    <t>30.12.202567</t>
-  </si>
-  <si>
-    <t>30.12.202568</t>
-  </si>
-  <si>
-    <t>30.12.202569</t>
-  </si>
-  <si>
-    <t>30.12.202570</t>
-  </si>
-  <si>
-    <t>30.12.202571</t>
-  </si>
-  <si>
-    <t>30.12.202572</t>
-  </si>
-  <si>
-    <t>30.12.202573</t>
-  </si>
-  <si>
-    <t>30.12.202574</t>
-  </si>
-  <si>
-    <t>30.12.202575</t>
-  </si>
-  <si>
-    <t>30.12.202576</t>
-  </si>
-  <si>
-    <t>30.12.202577</t>
-  </si>
-  <si>
-    <t>30.12.202578</t>
-  </si>
-  <si>
-    <t>30.12.202579</t>
-  </si>
-  <si>
-    <t>30.12.202580</t>
-  </si>
-  <si>
-    <t>30.12.202581</t>
-  </si>
-  <si>
-    <t>30.12.202582</t>
-  </si>
-  <si>
-    <t>30.12.202583</t>
-  </si>
-  <si>
-    <t>30.12.202584</t>
-  </si>
-  <si>
-    <t>30.12.202585</t>
-  </si>
-  <si>
-    <t>30.12.202586</t>
-  </si>
-  <si>
-    <t>30.12.202587</t>
-  </si>
-  <si>
-    <t>30.12.202588</t>
-  </si>
-  <si>
-    <t>30.12.202589</t>
-  </si>
-  <si>
-    <t>30.12.202590</t>
-  </si>
-  <si>
-    <t>30.12.202591</t>
-  </si>
-  <si>
-    <t>30.12.202592</t>
-  </si>
-  <si>
-    <t>30.12.202593</t>
-  </si>
-  <si>
-    <t>30.12.202594</t>
-  </si>
-  <si>
-    <t>30.12.202595</t>
-  </si>
-  <si>
-    <t>30.12.202596</t>
-  </si>
-  <si>
-    <t>30.12.20251</t>
-  </si>
-  <si>
-    <t>31.12.20253</t>
-  </si>
-  <si>
-    <t>31.12.20254</t>
-  </si>
-  <si>
-    <t>31.12.20255</t>
-  </si>
-  <si>
-    <t>31.12.20256</t>
-  </si>
-  <si>
-    <t>31.12.20257</t>
-  </si>
-  <si>
-    <t>31.12.20258</t>
-  </si>
-  <si>
-    <t>31.12.20259</t>
-  </si>
-  <si>
-    <t>31.12.202510</t>
-  </si>
-  <si>
-    <t>31.12.202511</t>
-  </si>
-  <si>
-    <t>31.12.202512</t>
-  </si>
-  <si>
-    <t>31.12.202513</t>
-  </si>
-  <si>
-    <t>31.12.202514</t>
-  </si>
-  <si>
-    <t>31.12.202515</t>
-  </si>
-  <si>
-    <t>31.12.202516</t>
-  </si>
-  <si>
-    <t>31.12.202517</t>
-  </si>
-  <si>
-    <t>31.12.202518</t>
-  </si>
-  <si>
-    <t>31.12.202519</t>
-  </si>
-  <si>
-    <t>31.12.202520</t>
-  </si>
-  <si>
-    <t>31.12.202521</t>
-  </si>
-  <si>
-    <t>31.12.202522</t>
-  </si>
-  <si>
-    <t>31.12.202523</t>
-  </si>
-  <si>
-    <t>31.12.202524</t>
-  </si>
-  <si>
-    <t>31.12.202525</t>
-  </si>
-  <si>
-    <t>31.12.202526</t>
-  </si>
-  <si>
-    <t>31.12.202527</t>
-  </si>
-  <si>
-    <t>31.12.202528</t>
-  </si>
-  <si>
-    <t>31.12.202529</t>
-  </si>
-  <si>
-    <t>31.12.202530</t>
-  </si>
-  <si>
-    <t>31.12.202531</t>
-  </si>
-  <si>
-    <t>31.12.202532</t>
-  </si>
-  <si>
-    <t>31.12.202533</t>
-  </si>
-  <si>
-    <t>31.12.202534</t>
-  </si>
-  <si>
-    <t>31.12.202535</t>
-  </si>
-  <si>
-    <t>31.12.202536</t>
-  </si>
-  <si>
-    <t>31.12.202537</t>
-  </si>
-  <si>
-    <t>31.12.202538</t>
-  </si>
-  <si>
-    <t>31.12.202539</t>
-  </si>
-  <si>
-    <t>31.12.202540</t>
-  </si>
-  <si>
-    <t>31.12.202541</t>
-  </si>
-  <si>
-    <t>31.12.202542</t>
-  </si>
-  <si>
-    <t>31.12.202543</t>
-  </si>
-  <si>
-    <t>31.12.202544</t>
-  </si>
-  <si>
-    <t>31.12.202545</t>
-  </si>
-  <si>
-    <t>31.12.202546</t>
-  </si>
-  <si>
-    <t>31.12.202547</t>
-  </si>
-  <si>
-    <t>31.12.202548</t>
-  </si>
-  <si>
-    <t>31.12.202549</t>
-  </si>
-  <si>
-    <t>31.12.202550</t>
-  </si>
-  <si>
-    <t>31.12.202551</t>
-  </si>
-  <si>
-    <t>31.12.202552</t>
-  </si>
-  <si>
-    <t>31.12.202553</t>
-  </si>
-  <si>
-    <t>31.12.202554</t>
-  </si>
-  <si>
-    <t>31.12.202555</t>
-  </si>
-  <si>
-    <t>31.12.202556</t>
-  </si>
-  <si>
-    <t>31.12.202557</t>
-  </si>
-  <si>
-    <t>31.12.202558</t>
-  </si>
-  <si>
-    <t>31.12.202559</t>
-  </si>
-  <si>
-    <t>31.12.202560</t>
-  </si>
-  <si>
-    <t>31.12.202561</t>
-  </si>
-  <si>
-    <t>31.12.202562</t>
-  </si>
-  <si>
-    <t>31.12.202563</t>
-  </si>
-  <si>
-    <t>31.12.202564</t>
-  </si>
-  <si>
-    <t>31.12.202565</t>
-  </si>
-  <si>
-    <t>31.12.202566</t>
-  </si>
-  <si>
-    <t>31.12.202567</t>
-  </si>
-  <si>
-    <t>31.12.202568</t>
-  </si>
-  <si>
-    <t>31.12.202569</t>
-  </si>
-  <si>
-    <t>31.12.202570</t>
-  </si>
-  <si>
-    <t>31.12.202571</t>
-  </si>
-  <si>
-    <t>31.12.202572</t>
-  </si>
-  <si>
-    <t>31.12.202573</t>
-  </si>
-  <si>
-    <t>31.12.202574</t>
-  </si>
-  <si>
-    <t>31.12.202575</t>
-  </si>
-  <si>
-    <t>31.12.202576</t>
-  </si>
-  <si>
-    <t>31.12.202577</t>
-  </si>
-  <si>
-    <t>31.12.202578</t>
-  </si>
-  <si>
-    <t>31.12.202579</t>
-  </si>
-  <si>
-    <t>31.12.202580</t>
-  </si>
-  <si>
-    <t>31.12.202581</t>
-  </si>
-  <si>
-    <t>31.12.202582</t>
-  </si>
-  <si>
-    <t>31.12.202583</t>
-  </si>
-  <si>
-    <t>31.12.202584</t>
-  </si>
-  <si>
-    <t>31.12.202585</t>
-  </si>
-  <si>
-    <t>31.12.202586</t>
-  </si>
-  <si>
-    <t>31.12.202587</t>
-  </si>
-  <si>
-    <t>31.12.202588</t>
-  </si>
-  <si>
-    <t>31.12.202589</t>
-  </si>
-  <si>
-    <t>31.12.202590</t>
-  </si>
-  <si>
-    <t>31.12.202591</t>
-  </si>
-  <si>
-    <t>31.12.202592</t>
-  </si>
-  <si>
-    <t>31.12.202593</t>
-  </si>
-  <si>
-    <t>31.12.202594</t>
-  </si>
-  <si>
-    <t>31.12.202595</t>
-  </si>
-  <si>
-    <t>31.12.202596</t>
-  </si>
-  <si>
-    <t>31.12.20251</t>
-  </si>
-  <si>
-    <t>31.12.20252</t>
+    <t>20.01.20261</t>
+  </si>
+  <si>
+    <t>21.01.20262</t>
+  </si>
+  <si>
+    <t>21.01.20263</t>
+  </si>
+  <si>
+    <t>21.01.20264</t>
+  </si>
+  <si>
+    <t>21.01.20265</t>
+  </si>
+  <si>
+    <t>21.01.20266</t>
+  </si>
+  <si>
+    <t>21.01.20267</t>
+  </si>
+  <si>
+    <t>21.01.20268</t>
+  </si>
+  <si>
+    <t>21.01.20269</t>
+  </si>
+  <si>
+    <t>21.01.202610</t>
+  </si>
+  <si>
+    <t>21.01.202611</t>
+  </si>
+  <si>
+    <t>21.01.202612</t>
+  </si>
+  <si>
+    <t>21.01.202613</t>
+  </si>
+  <si>
+    <t>21.01.202614</t>
+  </si>
+  <si>
+    <t>21.01.202615</t>
+  </si>
+  <si>
+    <t>21.01.202616</t>
+  </si>
+  <si>
+    <t>21.01.202617</t>
+  </si>
+  <si>
+    <t>21.01.202618</t>
+  </si>
+  <si>
+    <t>21.01.202619</t>
+  </si>
+  <si>
+    <t>21.01.202620</t>
+  </si>
+  <si>
+    <t>21.01.202621</t>
+  </si>
+  <si>
+    <t>21.01.202622</t>
+  </si>
+  <si>
+    <t>21.01.202623</t>
+  </si>
+  <si>
+    <t>21.01.202624</t>
+  </si>
+  <si>
+    <t>21.01.202625</t>
+  </si>
+  <si>
+    <t>21.01.202626</t>
+  </si>
+  <si>
+    <t>21.01.202627</t>
+  </si>
+  <si>
+    <t>21.01.202628</t>
+  </si>
+  <si>
+    <t>21.01.202629</t>
+  </si>
+  <si>
+    <t>21.01.202630</t>
+  </si>
+  <si>
+    <t>21.01.202631</t>
+  </si>
+  <si>
+    <t>21.01.202632</t>
+  </si>
+  <si>
+    <t>21.01.202633</t>
+  </si>
+  <si>
+    <t>21.01.202634</t>
+  </si>
+  <si>
+    <t>21.01.202635</t>
+  </si>
+  <si>
+    <t>21.01.202636</t>
+  </si>
+  <si>
+    <t>21.01.202637</t>
+  </si>
+  <si>
+    <t>21.01.202638</t>
+  </si>
+  <si>
+    <t>21.01.202639</t>
+  </si>
+  <si>
+    <t>21.01.202640</t>
+  </si>
+  <si>
+    <t>21.01.202641</t>
+  </si>
+  <si>
+    <t>21.01.202642</t>
+  </si>
+  <si>
+    <t>21.01.202643</t>
+  </si>
+  <si>
+    <t>21.01.202644</t>
+  </si>
+  <si>
+    <t>21.01.202645</t>
+  </si>
+  <si>
+    <t>21.01.202646</t>
+  </si>
+  <si>
+    <t>21.01.202647</t>
+  </si>
+  <si>
+    <t>21.01.202648</t>
+  </si>
+  <si>
+    <t>21.01.202649</t>
+  </si>
+  <si>
+    <t>21.01.202650</t>
+  </si>
+  <si>
+    <t>21.01.202651</t>
+  </si>
+  <si>
+    <t>21.01.202652</t>
+  </si>
+  <si>
+    <t>21.01.202653</t>
+  </si>
+  <si>
+    <t>21.01.202654</t>
+  </si>
+  <si>
+    <t>21.01.202655</t>
+  </si>
+  <si>
+    <t>21.01.202656</t>
+  </si>
+  <si>
+    <t>21.01.202657</t>
+  </si>
+  <si>
+    <t>21.01.202658</t>
+  </si>
+  <si>
+    <t>21.01.202659</t>
+  </si>
+  <si>
+    <t>21.01.202660</t>
+  </si>
+  <si>
+    <t>21.01.202661</t>
+  </si>
+  <si>
+    <t>21.01.202662</t>
+  </si>
+  <si>
+    <t>21.01.202663</t>
+  </si>
+  <si>
+    <t>21.01.202664</t>
+  </si>
+  <si>
+    <t>21.01.202665</t>
+  </si>
+  <si>
+    <t>21.01.202666</t>
+  </si>
+  <si>
+    <t>21.01.202667</t>
+  </si>
+  <si>
+    <t>21.01.202668</t>
+  </si>
+  <si>
+    <t>21.01.202669</t>
+  </si>
+  <si>
+    <t>21.01.202670</t>
+  </si>
+  <si>
+    <t>21.01.202671</t>
+  </si>
+  <si>
+    <t>21.01.202672</t>
+  </si>
+  <si>
+    <t>21.01.202673</t>
+  </si>
+  <si>
+    <t>21.01.202674</t>
+  </si>
+  <si>
+    <t>21.01.202675</t>
+  </si>
+  <si>
+    <t>21.01.202676</t>
+  </si>
+  <si>
+    <t>21.01.202677</t>
+  </si>
+  <si>
+    <t>21.01.202678</t>
+  </si>
+  <si>
+    <t>21.01.202679</t>
+  </si>
+  <si>
+    <t>21.01.202680</t>
+  </si>
+  <si>
+    <t>21.01.202681</t>
+  </si>
+  <si>
+    <t>21.01.202682</t>
+  </si>
+  <si>
+    <t>21.01.202683</t>
+  </si>
+  <si>
+    <t>21.01.202684</t>
+  </si>
+  <si>
+    <t>21.01.202685</t>
+  </si>
+  <si>
+    <t>21.01.202686</t>
+  </si>
+  <si>
+    <t>21.01.202687</t>
+  </si>
+  <si>
+    <t>21.01.202688</t>
+  </si>
+  <si>
+    <t>21.01.202689</t>
+  </si>
+  <si>
+    <t>21.01.202690</t>
+  </si>
+  <si>
+    <t>21.01.202691</t>
+  </si>
+  <si>
+    <t>21.01.202692</t>
+  </si>
+  <si>
+    <t>21.01.202693</t>
+  </si>
+  <si>
+    <t>21.01.202694</t>
+  </si>
+  <si>
+    <t>21.01.202695</t>
+  </si>
+  <si>
+    <t>21.01.202696</t>
+  </si>
+  <si>
+    <t>21.01.20261</t>
+  </si>
+  <si>
+    <t>22.01.20263</t>
+  </si>
+  <si>
+    <t>22.01.20264</t>
+  </si>
+  <si>
+    <t>22.01.20265</t>
+  </si>
+  <si>
+    <t>22.01.20266</t>
+  </si>
+  <si>
+    <t>22.01.20267</t>
+  </si>
+  <si>
+    <t>22.01.20268</t>
+  </si>
+  <si>
+    <t>22.01.20269</t>
+  </si>
+  <si>
+    <t>22.01.202610</t>
+  </si>
+  <si>
+    <t>22.01.202611</t>
+  </si>
+  <si>
+    <t>22.01.202612</t>
+  </si>
+  <si>
+    <t>22.01.202613</t>
+  </si>
+  <si>
+    <t>22.01.202614</t>
+  </si>
+  <si>
+    <t>22.01.202615</t>
+  </si>
+  <si>
+    <t>22.01.202616</t>
+  </si>
+  <si>
+    <t>22.01.202617</t>
+  </si>
+  <si>
+    <t>22.01.202618</t>
+  </si>
+  <si>
+    <t>22.01.202619</t>
+  </si>
+  <si>
+    <t>22.01.202620</t>
+  </si>
+  <si>
+    <t>22.01.202621</t>
+  </si>
+  <si>
+    <t>22.01.202622</t>
+  </si>
+  <si>
+    <t>22.01.202623</t>
+  </si>
+  <si>
+    <t>22.01.202624</t>
+  </si>
+  <si>
+    <t>22.01.202625</t>
+  </si>
+  <si>
+    <t>22.01.202626</t>
+  </si>
+  <si>
+    <t>22.01.202627</t>
+  </si>
+  <si>
+    <t>22.01.202628</t>
+  </si>
+  <si>
+    <t>22.01.202629</t>
+  </si>
+  <si>
+    <t>22.01.202630</t>
+  </si>
+  <si>
+    <t>22.01.202631</t>
+  </si>
+  <si>
+    <t>22.01.202632</t>
+  </si>
+  <si>
+    <t>22.01.202633</t>
+  </si>
+  <si>
+    <t>22.01.202634</t>
+  </si>
+  <si>
+    <t>22.01.202635</t>
+  </si>
+  <si>
+    <t>22.01.202636</t>
+  </si>
+  <si>
+    <t>22.01.202637</t>
+  </si>
+  <si>
+    <t>22.01.202638</t>
+  </si>
+  <si>
+    <t>22.01.202639</t>
+  </si>
+  <si>
+    <t>22.01.202640</t>
+  </si>
+  <si>
+    <t>22.01.202641</t>
+  </si>
+  <si>
+    <t>22.01.202642</t>
+  </si>
+  <si>
+    <t>22.01.202643</t>
+  </si>
+  <si>
+    <t>22.01.202644</t>
+  </si>
+  <si>
+    <t>22.01.202645</t>
+  </si>
+  <si>
+    <t>22.01.202646</t>
+  </si>
+  <si>
+    <t>22.01.202647</t>
+  </si>
+  <si>
+    <t>22.01.202648</t>
+  </si>
+  <si>
+    <t>22.01.202649</t>
+  </si>
+  <si>
+    <t>22.01.202650</t>
+  </si>
+  <si>
+    <t>22.01.202651</t>
+  </si>
+  <si>
+    <t>22.01.202652</t>
+  </si>
+  <si>
+    <t>22.01.202653</t>
+  </si>
+  <si>
+    <t>22.01.202654</t>
+  </si>
+  <si>
+    <t>22.01.202655</t>
+  </si>
+  <si>
+    <t>22.01.202656</t>
+  </si>
+  <si>
+    <t>22.01.202657</t>
+  </si>
+  <si>
+    <t>22.01.202658</t>
+  </si>
+  <si>
+    <t>22.01.202659</t>
+  </si>
+  <si>
+    <t>22.01.202660</t>
+  </si>
+  <si>
+    <t>22.01.202661</t>
+  </si>
+  <si>
+    <t>22.01.202662</t>
+  </si>
+  <si>
+    <t>22.01.202663</t>
+  </si>
+  <si>
+    <t>22.01.202664</t>
+  </si>
+  <si>
+    <t>22.01.202665</t>
+  </si>
+  <si>
+    <t>22.01.202666</t>
+  </si>
+  <si>
+    <t>22.01.202667</t>
+  </si>
+  <si>
+    <t>22.01.202668</t>
+  </si>
+  <si>
+    <t>22.01.202669</t>
+  </si>
+  <si>
+    <t>22.01.202670</t>
+  </si>
+  <si>
+    <t>22.01.202671</t>
+  </si>
+  <si>
+    <t>22.01.202672</t>
+  </si>
+  <si>
+    <t>22.01.202673</t>
+  </si>
+  <si>
+    <t>22.01.202674</t>
+  </si>
+  <si>
+    <t>22.01.202675</t>
+  </si>
+  <si>
+    <t>22.01.202676</t>
+  </si>
+  <si>
+    <t>22.01.202677</t>
+  </si>
+  <si>
+    <t>22.01.202678</t>
+  </si>
+  <si>
+    <t>22.01.202679</t>
+  </si>
+  <si>
+    <t>22.01.202680</t>
+  </si>
+  <si>
+    <t>22.01.202681</t>
+  </si>
+  <si>
+    <t>22.01.202682</t>
+  </si>
+  <si>
+    <t>22.01.202683</t>
+  </si>
+  <si>
+    <t>22.01.202684</t>
+  </si>
+  <si>
+    <t>22.01.202685</t>
+  </si>
+  <si>
+    <t>22.01.202686</t>
+  </si>
+  <si>
+    <t>22.01.202687</t>
+  </si>
+  <si>
+    <t>22.01.202688</t>
+  </si>
+  <si>
+    <t>22.01.202689</t>
+  </si>
+  <si>
+    <t>22.01.202690</t>
+  </si>
+  <si>
+    <t>22.01.202691</t>
+  </si>
+  <si>
+    <t>22.01.202692</t>
+  </si>
+  <si>
+    <t>22.01.202693</t>
+  </si>
+  <si>
+    <t>22.01.202694</t>
+  </si>
+  <si>
+    <t>22.01.202695</t>
+  </si>
+  <si>
+    <t>22.01.202696</t>
+  </si>
+  <si>
+    <t>22.01.20261</t>
+  </si>
+  <si>
+    <t>22.01.20262</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46020.99444444444</v>
+        <v>46042.99444444444</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46021.00486111111</v>
+        <v>46043.00486111111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46021.01527777778</v>
+        <v>46043.01527777778</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46021.02569444444</v>
+        <v>46043.02569444444</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46021.03611111111</v>
+        <v>46043.03611111111</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46021.04652777778</v>
+        <v>46043.04652777778</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46021.05694444444</v>
+        <v>46043.05694444444</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46021.06736111111</v>
+        <v>46043.06736111111</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46021.07777777778</v>
+        <v>46043.07777777778</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46021.08819444444</v>
+        <v>46043.08819444444</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46021.09861111111</v>
+        <v>46043.09861111111</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46021.10902777778</v>
+        <v>46043.10902777778</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46021.11944444444</v>
+        <v>46043.11944444444</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46021.12986111111</v>
+        <v>46043.12986111111</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46021.14027777778</v>
+        <v>46043.14027777778</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46021.15069444444</v>
+        <v>46043.15069444444</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46021.16111111111</v>
+        <v>46043.16111111111</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46021.17152777778</v>
+        <v>46043.17152777778</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46021.18194444444</v>
+        <v>46043.18194444444</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46021.19236111111</v>
+        <v>46043.19236111111</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46021.20277777778</v>
+        <v>46043.20277777778</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46021.21319444444</v>
+        <v>46043.21319444444</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46021.22361111111</v>
+        <v>46043.22361111111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46021.23402777778</v>
+        <v>46043.23402777778</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46021.24444444444</v>
+        <v>46043.24444444444</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46021.25486111111</v>
+        <v>46043.25486111111</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46021.26527777778</v>
+        <v>46043.26527777778</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46021.27569444444</v>
+        <v>46043.27569444444</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46021.28611111111</v>
+        <v>46043.28611111111</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46021.29652777778</v>
+        <v>46043.29652777778</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46021.30694444444</v>
+        <v>46043.30694444444</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46021.31736111111</v>
+        <v>46043.31736111111</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46021.32777777778</v>
+        <v>46043.32777777778</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46021.33819444444</v>
+        <v>46043.33819444444</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46021.34861111111</v>
+        <v>46043.34861111111</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46021.35902777778</v>
+        <v>46043.35902777778</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46021.36944444444</v>
+        <v>46043.36944444444</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46021.37986111111</v>
+        <v>46043.37986111111</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46021.39027777778</v>
+        <v>46043.39027777778</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46021.40069444444</v>
+        <v>46043.40069444444</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46021.41111111111</v>
+        <v>46043.41111111111</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46021.42152777778</v>
+        <v>46043.42152777778</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46021.43194444444</v>
+        <v>46043.43194444444</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46021.44236111111</v>
+        <v>46043.44236111111</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46021.45277777778</v>
+        <v>46043.45277777778</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46021.46319444444</v>
+        <v>46043.46319444444</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46021.47361111111</v>
+        <v>46043.47361111111</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46021.48402777778</v>
+        <v>46043.48402777778</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46021.49444444444</v>
+        <v>46043.49444444444</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46021.50486111111</v>
+        <v>46043.50486111111</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46021.51527777778</v>
+        <v>46043.51527777778</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46021.52569444444</v>
+        <v>46043.52569444444</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46021.53611111111</v>
+        <v>46043.53611111111</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46021.54652777778</v>
+        <v>46043.54652777778</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46021.55694444444</v>
+        <v>46043.55694444444</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46021.56736111111</v>
+        <v>46043.56736111111</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46021.57777777778</v>
+        <v>46043.57777777778</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46021.58819444444</v>
+        <v>46043.58819444444</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46021.59861111111</v>
+        <v>46043.59861111111</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46021.60902777778</v>
+        <v>46043.60902777778</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46021.61944444444</v>
+        <v>46043.61944444444</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46021.62986111111</v>
+        <v>46043.62986111111</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46021.64027777778</v>
+        <v>46043.64027777778</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46021.65069444444</v>
+        <v>46043.65069444444</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46021.66111111111</v>
+        <v>46043.66111111111</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46021.67152777778</v>
+        <v>46043.67152777778</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46021.68194444444</v>
+        <v>46043.68194444444</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46021.69236111111</v>
+        <v>46043.69236111111</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46021.70277777778</v>
+        <v>46043.70277777778</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46021.71319444444</v>
+        <v>46043.71319444444</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46021.72361111111</v>
+        <v>46043.72361111111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46021.73402777778</v>
+        <v>46043.73402777778</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46021.74444444444</v>
+        <v>46043.74444444444</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46021.75486111111</v>
+        <v>46043.75486111111</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46021.76527777778</v>
+        <v>46043.76527777778</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46021.77569444444</v>
+        <v>46043.77569444444</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46021.78611111111</v>
+        <v>46043.78611111111</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46021.79652777778</v>
+        <v>46043.79652777778</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46021.80694444444</v>
+        <v>46043.80694444444</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46021.81736111111</v>
+        <v>46043.81736111111</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46021.82777777778</v>
+        <v>46043.82777777778</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46021.83819444444</v>
+        <v>46043.83819444444</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46021.84861111111</v>
+        <v>46043.84861111111</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46021.85902777778</v>
+        <v>46043.85902777778</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46021.86944444444</v>
+        <v>46043.86944444444</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46021.87986111111</v>
+        <v>46043.87986111111</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46021.89027777778</v>
+        <v>46043.89027777778</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46021.90069444444</v>
+        <v>46043.90069444444</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46021.91111111111</v>
+        <v>46043.91111111111</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46021.92152777778</v>
+        <v>46043.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46021.93194444444</v>
+        <v>46043.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46021.94236111111</v>
+        <v>46043.94236111111</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46021.95277777778</v>
+        <v>46043.95277777778</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46021.96319444444</v>
+        <v>46043.96319444444</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46021.97361111111</v>
+        <v>46043.97361111111</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46021.98402777778</v>
+        <v>46043.98402777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46021.99444444444</v>
+        <v>46043.99444444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46021.99444444444</v>
+        <v>46043.99444444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46022.00486111111</v>
+        <v>46044.00486111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46022.01527777778</v>
+        <v>46044.01527777778</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46022.02569444444</v>
+        <v>46044.02569444444</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46022.03611111111</v>
+        <v>46044.03611111111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46022.04652777778</v>
+        <v>46044.04652777778</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46022.05694444444</v>
+        <v>46044.05694444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46022.06736111111</v>
+        <v>46044.06736111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46022.07777777778</v>
+        <v>46044.07777777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46022.08819444444</v>
+        <v>46044.08819444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46022.09861111111</v>
+        <v>46044.09861111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46022.10902777778</v>
+        <v>46044.10902777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46022.11944444444</v>
+        <v>46044.11944444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46022.12986111111</v>
+        <v>46044.12986111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46022.14027777778</v>
+        <v>46044.14027777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46022.15069444444</v>
+        <v>46044.15069444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46022.16111111111</v>
+        <v>46044.16111111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46022.17152777778</v>
+        <v>46044.17152777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46022.18194444444</v>
+        <v>46044.18194444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46022.19236111111</v>
+        <v>46044.19236111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46022.20277777778</v>
+        <v>46044.20277777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46022.21319444444</v>
+        <v>46044.21319444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46022.22361111111</v>
+        <v>46044.22361111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46022.23402777778</v>
+        <v>46044.23402777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46022.24444444444</v>
+        <v>46044.24444444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46022.25486111111</v>
+        <v>46044.25486111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46022.26527777778</v>
+        <v>46044.26527777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46022.27569444444</v>
+        <v>46044.27569444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46022.28611111111</v>
+        <v>46044.28611111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46022.29652777778</v>
+        <v>46044.29652777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46022.30694444444</v>
+        <v>46044.30694444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46022.31736111111</v>
+        <v>46044.31736111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46022.32777777778</v>
+        <v>46044.32777777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46022.33819444444</v>
+        <v>46044.33819444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46022.34861111111</v>
+        <v>46044.34861111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46022.35902777778</v>
+        <v>46044.35902777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46022.36944444444</v>
+        <v>46044.36944444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46022.37986111111</v>
+        <v>46044.37986111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46022.39027777778</v>
+        <v>46044.39027777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46022.40069444444</v>
+        <v>46044.40069444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46022.41111111111</v>
+        <v>46044.41111111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46022.42152777778</v>
+        <v>46044.42152777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46022.43194444444</v>
+        <v>46044.43194444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46022.44236111111</v>
+        <v>46044.44236111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46022.45277777778</v>
+        <v>46044.45277777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46022.46319444444</v>
+        <v>46044.46319444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46022.47361111111</v>
+        <v>46044.47361111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46022.48402777778</v>
+        <v>46044.48402777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46022.49444444444</v>
+        <v>46044.49444444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46022.50486111111</v>
+        <v>46044.50486111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46022.51527777778</v>
+        <v>46044.51527777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46022.52569444444</v>
+        <v>46044.52569444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46022.53611111111</v>
+        <v>46044.53611111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46022.54652777778</v>
+        <v>46044.54652777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46022.55694444444</v>
+        <v>46044.55694444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46022.56736111111</v>
+        <v>46044.56736111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46022.57777777778</v>
+        <v>46044.57777777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46022.58819444444</v>
+        <v>46044.58819444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46022.59861111111</v>
+        <v>46044.59861111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46022.60902777778</v>
+        <v>46044.60902777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46022.61944444444</v>
+        <v>46044.61944444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46022.62986111111</v>
+        <v>46044.62986111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46022.64027777778</v>
+        <v>46044.64027777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46022.65069444444</v>
+        <v>46044.65069444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46022.66111111111</v>
+        <v>46044.66111111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46022.67152777778</v>
+        <v>46044.67152777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46022.68194444444</v>
+        <v>46044.68194444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46022.69236111111</v>
+        <v>46044.69236111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46022.70277777778</v>
+        <v>46044.70277777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46022.71319444444</v>
+        <v>46044.71319444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46022.72361111111</v>
+        <v>46044.72361111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46022.73402777778</v>
+        <v>46044.73402777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46022.74444444444</v>
+        <v>46044.74444444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46022.75486111111</v>
+        <v>46044.75486111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46022.76527777778</v>
+        <v>46044.76527777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46022.77569444444</v>
+        <v>46044.77569444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46022.78611111111</v>
+        <v>46044.78611111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46022.79652777778</v>
+        <v>46044.79652777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46022.80694444444</v>
+        <v>46044.80694444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46022.81736111111</v>
+        <v>46044.81736111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46022.82777777778</v>
+        <v>46044.82777777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46022.83819444444</v>
+        <v>46044.83819444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46022.84861111111</v>
+        <v>46044.84861111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46022.85902777778</v>
+        <v>46044.85902777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46022.86944444444</v>
+        <v>46044.86944444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46022.87986111111</v>
+        <v>46044.87986111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46022.89027777778</v>
+        <v>46044.89027777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46022.90069444444</v>
+        <v>46044.90069444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46022.91111111111</v>
+        <v>46044.91111111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46022.92152777778</v>
+        <v>46044.92152777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46022.93194444444</v>
+        <v>46044.93194444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46022.94236111111</v>
+        <v>46044.94236111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46022.95277777778</v>
+        <v>46044.95277777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46022.96319444444</v>
+        <v>46044.96319444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46022.97361111111</v>
+        <v>46044.97361111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46022.98402777778</v>
+        <v>46044.98402777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46022.99444444444</v>
+        <v>46044.99444444444</v>
       </c>
       <c r="B195">
         <v>0</v>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -31,583 +31,583 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.01.20261</t>
-  </si>
-  <si>
-    <t>21.01.20262</t>
-  </si>
-  <si>
-    <t>21.01.20263</t>
-  </si>
-  <si>
-    <t>21.01.20264</t>
-  </si>
-  <si>
-    <t>21.01.20265</t>
-  </si>
-  <si>
-    <t>21.01.20266</t>
-  </si>
-  <si>
-    <t>21.01.20267</t>
-  </si>
-  <si>
-    <t>21.01.20268</t>
-  </si>
-  <si>
-    <t>21.01.20269</t>
-  </si>
-  <si>
-    <t>21.01.202610</t>
-  </si>
-  <si>
-    <t>21.01.202611</t>
-  </si>
-  <si>
-    <t>21.01.202612</t>
-  </si>
-  <si>
-    <t>21.01.202613</t>
-  </si>
-  <si>
-    <t>21.01.202614</t>
-  </si>
-  <si>
-    <t>21.01.202615</t>
-  </si>
-  <si>
-    <t>21.01.202616</t>
-  </si>
-  <si>
-    <t>21.01.202617</t>
-  </si>
-  <si>
-    <t>21.01.202618</t>
-  </si>
-  <si>
-    <t>21.01.202619</t>
-  </si>
-  <si>
-    <t>21.01.202620</t>
-  </si>
-  <si>
-    <t>21.01.202621</t>
-  </si>
-  <si>
-    <t>21.01.202622</t>
-  </si>
-  <si>
-    <t>21.01.202623</t>
-  </si>
-  <si>
-    <t>21.01.202624</t>
-  </si>
-  <si>
-    <t>21.01.202625</t>
-  </si>
-  <si>
-    <t>21.01.202626</t>
-  </si>
-  <si>
-    <t>21.01.202627</t>
-  </si>
-  <si>
-    <t>21.01.202628</t>
-  </si>
-  <si>
-    <t>21.01.202629</t>
-  </si>
-  <si>
-    <t>21.01.202630</t>
-  </si>
-  <si>
-    <t>21.01.202631</t>
-  </si>
-  <si>
-    <t>21.01.202632</t>
-  </si>
-  <si>
-    <t>21.01.202633</t>
-  </si>
-  <si>
-    <t>21.01.202634</t>
-  </si>
-  <si>
-    <t>21.01.202635</t>
-  </si>
-  <si>
-    <t>21.01.202636</t>
-  </si>
-  <si>
-    <t>21.01.202637</t>
-  </si>
-  <si>
-    <t>21.01.202638</t>
-  </si>
-  <si>
-    <t>21.01.202639</t>
-  </si>
-  <si>
-    <t>21.01.202640</t>
-  </si>
-  <si>
-    <t>21.01.202641</t>
-  </si>
-  <si>
-    <t>21.01.202642</t>
-  </si>
-  <si>
-    <t>21.01.202643</t>
-  </si>
-  <si>
-    <t>21.01.202644</t>
-  </si>
-  <si>
-    <t>21.01.202645</t>
-  </si>
-  <si>
-    <t>21.01.202646</t>
-  </si>
-  <si>
-    <t>21.01.202647</t>
-  </si>
-  <si>
-    <t>21.01.202648</t>
-  </si>
-  <si>
-    <t>21.01.202649</t>
-  </si>
-  <si>
-    <t>21.01.202650</t>
-  </si>
-  <si>
-    <t>21.01.202651</t>
-  </si>
-  <si>
-    <t>21.01.202652</t>
-  </si>
-  <si>
-    <t>21.01.202653</t>
-  </si>
-  <si>
-    <t>21.01.202654</t>
-  </si>
-  <si>
-    <t>21.01.202655</t>
-  </si>
-  <si>
-    <t>21.01.202656</t>
-  </si>
-  <si>
-    <t>21.01.202657</t>
-  </si>
-  <si>
-    <t>21.01.202658</t>
-  </si>
-  <si>
-    <t>21.01.202659</t>
-  </si>
-  <si>
-    <t>21.01.202660</t>
-  </si>
-  <si>
-    <t>21.01.202661</t>
-  </si>
-  <si>
-    <t>21.01.202662</t>
-  </si>
-  <si>
-    <t>21.01.202663</t>
-  </si>
-  <si>
-    <t>21.01.202664</t>
-  </si>
-  <si>
-    <t>21.01.202665</t>
-  </si>
-  <si>
-    <t>21.01.202666</t>
-  </si>
-  <si>
-    <t>21.01.202667</t>
-  </si>
-  <si>
-    <t>21.01.202668</t>
-  </si>
-  <si>
-    <t>21.01.202669</t>
-  </si>
-  <si>
-    <t>21.01.202670</t>
-  </si>
-  <si>
-    <t>21.01.202671</t>
-  </si>
-  <si>
-    <t>21.01.202672</t>
-  </si>
-  <si>
-    <t>21.01.202673</t>
-  </si>
-  <si>
-    <t>21.01.202674</t>
-  </si>
-  <si>
-    <t>21.01.202675</t>
-  </si>
-  <si>
-    <t>21.01.202676</t>
-  </si>
-  <si>
-    <t>21.01.202677</t>
-  </si>
-  <si>
-    <t>21.01.202678</t>
-  </si>
-  <si>
-    <t>21.01.202679</t>
-  </si>
-  <si>
-    <t>21.01.202680</t>
-  </si>
-  <si>
-    <t>21.01.202681</t>
-  </si>
-  <si>
-    <t>21.01.202682</t>
-  </si>
-  <si>
-    <t>21.01.202683</t>
-  </si>
-  <si>
-    <t>21.01.202684</t>
-  </si>
-  <si>
-    <t>21.01.202685</t>
-  </si>
-  <si>
-    <t>21.01.202686</t>
-  </si>
-  <si>
-    <t>21.01.202687</t>
-  </si>
-  <si>
-    <t>21.01.202688</t>
-  </si>
-  <si>
-    <t>21.01.202689</t>
-  </si>
-  <si>
-    <t>21.01.202690</t>
-  </si>
-  <si>
-    <t>21.01.202691</t>
-  </si>
-  <si>
-    <t>21.01.202692</t>
-  </si>
-  <si>
-    <t>21.01.202693</t>
-  </si>
-  <si>
-    <t>21.01.202694</t>
-  </si>
-  <si>
-    <t>21.01.202695</t>
-  </si>
-  <si>
-    <t>21.01.202696</t>
-  </si>
-  <si>
-    <t>21.01.20261</t>
-  </si>
-  <si>
-    <t>22.01.20263</t>
-  </si>
-  <si>
-    <t>22.01.20264</t>
-  </si>
-  <si>
-    <t>22.01.20265</t>
-  </si>
-  <si>
-    <t>22.01.20266</t>
-  </si>
-  <si>
-    <t>22.01.20267</t>
-  </si>
-  <si>
-    <t>22.01.20268</t>
-  </si>
-  <si>
-    <t>22.01.20269</t>
-  </si>
-  <si>
-    <t>22.01.202610</t>
-  </si>
-  <si>
-    <t>22.01.202611</t>
-  </si>
-  <si>
-    <t>22.01.202612</t>
-  </si>
-  <si>
-    <t>22.01.202613</t>
-  </si>
-  <si>
-    <t>22.01.202614</t>
-  </si>
-  <si>
-    <t>22.01.202615</t>
-  </si>
-  <si>
-    <t>22.01.202616</t>
-  </si>
-  <si>
-    <t>22.01.202617</t>
-  </si>
-  <si>
-    <t>22.01.202618</t>
-  </si>
-  <si>
-    <t>22.01.202619</t>
-  </si>
-  <si>
-    <t>22.01.202620</t>
-  </si>
-  <si>
-    <t>22.01.202621</t>
-  </si>
-  <si>
-    <t>22.01.202622</t>
-  </si>
-  <si>
-    <t>22.01.202623</t>
-  </si>
-  <si>
-    <t>22.01.202624</t>
-  </si>
-  <si>
-    <t>22.01.202625</t>
-  </si>
-  <si>
-    <t>22.01.202626</t>
-  </si>
-  <si>
-    <t>22.01.202627</t>
-  </si>
-  <si>
-    <t>22.01.202628</t>
-  </si>
-  <si>
-    <t>22.01.202629</t>
-  </si>
-  <si>
-    <t>22.01.202630</t>
-  </si>
-  <si>
-    <t>22.01.202631</t>
-  </si>
-  <si>
-    <t>22.01.202632</t>
-  </si>
-  <si>
-    <t>22.01.202633</t>
-  </si>
-  <si>
-    <t>22.01.202634</t>
-  </si>
-  <si>
-    <t>22.01.202635</t>
-  </si>
-  <si>
-    <t>22.01.202636</t>
-  </si>
-  <si>
-    <t>22.01.202637</t>
-  </si>
-  <si>
-    <t>22.01.202638</t>
-  </si>
-  <si>
-    <t>22.01.202639</t>
-  </si>
-  <si>
-    <t>22.01.202640</t>
-  </si>
-  <si>
-    <t>22.01.202641</t>
-  </si>
-  <si>
-    <t>22.01.202642</t>
-  </si>
-  <si>
-    <t>22.01.202643</t>
-  </si>
-  <si>
-    <t>22.01.202644</t>
-  </si>
-  <si>
-    <t>22.01.202645</t>
-  </si>
-  <si>
-    <t>22.01.202646</t>
-  </si>
-  <si>
-    <t>22.01.202647</t>
-  </si>
-  <si>
-    <t>22.01.202648</t>
-  </si>
-  <si>
-    <t>22.01.202649</t>
-  </si>
-  <si>
-    <t>22.01.202650</t>
-  </si>
-  <si>
-    <t>22.01.202651</t>
-  </si>
-  <si>
-    <t>22.01.202652</t>
-  </si>
-  <si>
-    <t>22.01.202653</t>
-  </si>
-  <si>
-    <t>22.01.202654</t>
-  </si>
-  <si>
-    <t>22.01.202655</t>
-  </si>
-  <si>
-    <t>22.01.202656</t>
-  </si>
-  <si>
-    <t>22.01.202657</t>
-  </si>
-  <si>
-    <t>22.01.202658</t>
-  </si>
-  <si>
-    <t>22.01.202659</t>
-  </si>
-  <si>
-    <t>22.01.202660</t>
-  </si>
-  <si>
-    <t>22.01.202661</t>
-  </si>
-  <si>
-    <t>22.01.202662</t>
-  </si>
-  <si>
-    <t>22.01.202663</t>
-  </si>
-  <si>
-    <t>22.01.202664</t>
-  </si>
-  <si>
-    <t>22.01.202665</t>
-  </si>
-  <si>
-    <t>22.01.202666</t>
-  </si>
-  <si>
-    <t>22.01.202667</t>
-  </si>
-  <si>
-    <t>22.01.202668</t>
-  </si>
-  <si>
-    <t>22.01.202669</t>
-  </si>
-  <si>
-    <t>22.01.202670</t>
-  </si>
-  <si>
-    <t>22.01.202671</t>
-  </si>
-  <si>
-    <t>22.01.202672</t>
-  </si>
-  <si>
-    <t>22.01.202673</t>
-  </si>
-  <si>
-    <t>22.01.202674</t>
-  </si>
-  <si>
-    <t>22.01.202675</t>
-  </si>
-  <si>
-    <t>22.01.202676</t>
-  </si>
-  <si>
-    <t>22.01.202677</t>
-  </si>
-  <si>
-    <t>22.01.202678</t>
-  </si>
-  <si>
-    <t>22.01.202679</t>
-  </si>
-  <si>
-    <t>22.01.202680</t>
-  </si>
-  <si>
-    <t>22.01.202681</t>
-  </si>
-  <si>
-    <t>22.01.202682</t>
-  </si>
-  <si>
-    <t>22.01.202683</t>
-  </si>
-  <si>
-    <t>22.01.202684</t>
-  </si>
-  <si>
-    <t>22.01.202685</t>
-  </si>
-  <si>
-    <t>22.01.202686</t>
-  </si>
-  <si>
-    <t>22.01.202687</t>
-  </si>
-  <si>
-    <t>22.01.202688</t>
-  </si>
-  <si>
-    <t>22.01.202689</t>
-  </si>
-  <si>
-    <t>22.01.202690</t>
-  </si>
-  <si>
-    <t>22.01.202691</t>
-  </si>
-  <si>
-    <t>22.01.202692</t>
-  </si>
-  <si>
-    <t>22.01.202693</t>
-  </si>
-  <si>
-    <t>22.01.202694</t>
-  </si>
-  <si>
-    <t>22.01.202695</t>
-  </si>
-  <si>
-    <t>22.01.202696</t>
-  </si>
-  <si>
     <t>22.01.20261</t>
   </si>
   <si>
-    <t>22.01.20262</t>
+    <t>23.01.20262</t>
+  </si>
+  <si>
+    <t>23.01.20263</t>
+  </si>
+  <si>
+    <t>23.01.20264</t>
+  </si>
+  <si>
+    <t>23.01.20265</t>
+  </si>
+  <si>
+    <t>23.01.20266</t>
+  </si>
+  <si>
+    <t>23.01.20267</t>
+  </si>
+  <si>
+    <t>23.01.20268</t>
+  </si>
+  <si>
+    <t>23.01.20269</t>
+  </si>
+  <si>
+    <t>23.01.202610</t>
+  </si>
+  <si>
+    <t>23.01.202611</t>
+  </si>
+  <si>
+    <t>23.01.202612</t>
+  </si>
+  <si>
+    <t>23.01.202613</t>
+  </si>
+  <si>
+    <t>23.01.202614</t>
+  </si>
+  <si>
+    <t>23.01.202615</t>
+  </si>
+  <si>
+    <t>23.01.202616</t>
+  </si>
+  <si>
+    <t>23.01.202617</t>
+  </si>
+  <si>
+    <t>23.01.202618</t>
+  </si>
+  <si>
+    <t>23.01.202619</t>
+  </si>
+  <si>
+    <t>23.01.202620</t>
+  </si>
+  <si>
+    <t>23.01.202621</t>
+  </si>
+  <si>
+    <t>23.01.202622</t>
+  </si>
+  <si>
+    <t>23.01.202623</t>
+  </si>
+  <si>
+    <t>23.01.202624</t>
+  </si>
+  <si>
+    <t>23.01.202625</t>
+  </si>
+  <si>
+    <t>23.01.202626</t>
+  </si>
+  <si>
+    <t>23.01.202627</t>
+  </si>
+  <si>
+    <t>23.01.202628</t>
+  </si>
+  <si>
+    <t>23.01.202629</t>
+  </si>
+  <si>
+    <t>23.01.202630</t>
+  </si>
+  <si>
+    <t>23.01.202631</t>
+  </si>
+  <si>
+    <t>23.01.202632</t>
+  </si>
+  <si>
+    <t>23.01.202633</t>
+  </si>
+  <si>
+    <t>23.01.202634</t>
+  </si>
+  <si>
+    <t>23.01.202635</t>
+  </si>
+  <si>
+    <t>23.01.202636</t>
+  </si>
+  <si>
+    <t>23.01.202637</t>
+  </si>
+  <si>
+    <t>23.01.202638</t>
+  </si>
+  <si>
+    <t>23.01.202639</t>
+  </si>
+  <si>
+    <t>23.01.202640</t>
+  </si>
+  <si>
+    <t>23.01.202641</t>
+  </si>
+  <si>
+    <t>23.01.202642</t>
+  </si>
+  <si>
+    <t>23.01.202643</t>
+  </si>
+  <si>
+    <t>23.01.202644</t>
+  </si>
+  <si>
+    <t>23.01.202645</t>
+  </si>
+  <si>
+    <t>23.01.202646</t>
+  </si>
+  <si>
+    <t>23.01.202647</t>
+  </si>
+  <si>
+    <t>23.01.202648</t>
+  </si>
+  <si>
+    <t>23.01.202649</t>
+  </si>
+  <si>
+    <t>23.01.202650</t>
+  </si>
+  <si>
+    <t>23.01.202651</t>
+  </si>
+  <si>
+    <t>23.01.202652</t>
+  </si>
+  <si>
+    <t>23.01.202653</t>
+  </si>
+  <si>
+    <t>23.01.202654</t>
+  </si>
+  <si>
+    <t>23.01.202655</t>
+  </si>
+  <si>
+    <t>23.01.202656</t>
+  </si>
+  <si>
+    <t>23.01.202657</t>
+  </si>
+  <si>
+    <t>23.01.202658</t>
+  </si>
+  <si>
+    <t>23.01.202659</t>
+  </si>
+  <si>
+    <t>23.01.202660</t>
+  </si>
+  <si>
+    <t>23.01.202661</t>
+  </si>
+  <si>
+    <t>23.01.202662</t>
+  </si>
+  <si>
+    <t>23.01.202663</t>
+  </si>
+  <si>
+    <t>23.01.202664</t>
+  </si>
+  <si>
+    <t>23.01.202665</t>
+  </si>
+  <si>
+    <t>23.01.202666</t>
+  </si>
+  <si>
+    <t>23.01.202667</t>
+  </si>
+  <si>
+    <t>23.01.202668</t>
+  </si>
+  <si>
+    <t>23.01.202669</t>
+  </si>
+  <si>
+    <t>23.01.202670</t>
+  </si>
+  <si>
+    <t>23.01.202671</t>
+  </si>
+  <si>
+    <t>23.01.202672</t>
+  </si>
+  <si>
+    <t>23.01.202673</t>
+  </si>
+  <si>
+    <t>23.01.202674</t>
+  </si>
+  <si>
+    <t>23.01.202675</t>
+  </si>
+  <si>
+    <t>23.01.202676</t>
+  </si>
+  <si>
+    <t>23.01.202677</t>
+  </si>
+  <si>
+    <t>23.01.202678</t>
+  </si>
+  <si>
+    <t>23.01.202679</t>
+  </si>
+  <si>
+    <t>23.01.202680</t>
+  </si>
+  <si>
+    <t>23.01.202681</t>
+  </si>
+  <si>
+    <t>23.01.202682</t>
+  </si>
+  <si>
+    <t>23.01.202683</t>
+  </si>
+  <si>
+    <t>23.01.202684</t>
+  </si>
+  <si>
+    <t>23.01.202685</t>
+  </si>
+  <si>
+    <t>23.01.202686</t>
+  </si>
+  <si>
+    <t>23.01.202687</t>
+  </si>
+  <si>
+    <t>23.01.202688</t>
+  </si>
+  <si>
+    <t>23.01.202689</t>
+  </si>
+  <si>
+    <t>23.01.202690</t>
+  </si>
+  <si>
+    <t>23.01.202691</t>
+  </si>
+  <si>
+    <t>23.01.202692</t>
+  </si>
+  <si>
+    <t>23.01.202693</t>
+  </si>
+  <si>
+    <t>23.01.202694</t>
+  </si>
+  <si>
+    <t>23.01.202695</t>
+  </si>
+  <si>
+    <t>23.01.202696</t>
+  </si>
+  <si>
+    <t>23.01.20261</t>
+  </si>
+  <si>
+    <t>24.01.20263</t>
+  </si>
+  <si>
+    <t>24.01.20264</t>
+  </si>
+  <si>
+    <t>24.01.20265</t>
+  </si>
+  <si>
+    <t>24.01.20266</t>
+  </si>
+  <si>
+    <t>24.01.20267</t>
+  </si>
+  <si>
+    <t>24.01.20268</t>
+  </si>
+  <si>
+    <t>24.01.20269</t>
+  </si>
+  <si>
+    <t>24.01.202610</t>
+  </si>
+  <si>
+    <t>24.01.202611</t>
+  </si>
+  <si>
+    <t>24.01.202612</t>
+  </si>
+  <si>
+    <t>24.01.202613</t>
+  </si>
+  <si>
+    <t>24.01.202614</t>
+  </si>
+  <si>
+    <t>24.01.202615</t>
+  </si>
+  <si>
+    <t>24.01.202616</t>
+  </si>
+  <si>
+    <t>24.01.202617</t>
+  </si>
+  <si>
+    <t>24.01.202618</t>
+  </si>
+  <si>
+    <t>24.01.202619</t>
+  </si>
+  <si>
+    <t>24.01.202620</t>
+  </si>
+  <si>
+    <t>24.01.202621</t>
+  </si>
+  <si>
+    <t>24.01.202622</t>
+  </si>
+  <si>
+    <t>24.01.202623</t>
+  </si>
+  <si>
+    <t>24.01.202624</t>
+  </si>
+  <si>
+    <t>24.01.202625</t>
+  </si>
+  <si>
+    <t>24.01.202626</t>
+  </si>
+  <si>
+    <t>24.01.202627</t>
+  </si>
+  <si>
+    <t>24.01.202628</t>
+  </si>
+  <si>
+    <t>24.01.202629</t>
+  </si>
+  <si>
+    <t>24.01.202630</t>
+  </si>
+  <si>
+    <t>24.01.202631</t>
+  </si>
+  <si>
+    <t>24.01.202632</t>
+  </si>
+  <si>
+    <t>24.01.202633</t>
+  </si>
+  <si>
+    <t>24.01.202634</t>
+  </si>
+  <si>
+    <t>24.01.202635</t>
+  </si>
+  <si>
+    <t>24.01.202636</t>
+  </si>
+  <si>
+    <t>24.01.202637</t>
+  </si>
+  <si>
+    <t>24.01.202638</t>
+  </si>
+  <si>
+    <t>24.01.202639</t>
+  </si>
+  <si>
+    <t>24.01.202640</t>
+  </si>
+  <si>
+    <t>24.01.202641</t>
+  </si>
+  <si>
+    <t>24.01.202642</t>
+  </si>
+  <si>
+    <t>24.01.202643</t>
+  </si>
+  <si>
+    <t>24.01.202644</t>
+  </si>
+  <si>
+    <t>24.01.202645</t>
+  </si>
+  <si>
+    <t>24.01.202646</t>
+  </si>
+  <si>
+    <t>24.01.202647</t>
+  </si>
+  <si>
+    <t>24.01.202648</t>
+  </si>
+  <si>
+    <t>24.01.202649</t>
+  </si>
+  <si>
+    <t>24.01.202650</t>
+  </si>
+  <si>
+    <t>24.01.202651</t>
+  </si>
+  <si>
+    <t>24.01.202652</t>
+  </si>
+  <si>
+    <t>24.01.202653</t>
+  </si>
+  <si>
+    <t>24.01.202654</t>
+  </si>
+  <si>
+    <t>24.01.202655</t>
+  </si>
+  <si>
+    <t>24.01.202656</t>
+  </si>
+  <si>
+    <t>24.01.202657</t>
+  </si>
+  <si>
+    <t>24.01.202658</t>
+  </si>
+  <si>
+    <t>24.01.202659</t>
+  </si>
+  <si>
+    <t>24.01.202660</t>
+  </si>
+  <si>
+    <t>24.01.202661</t>
+  </si>
+  <si>
+    <t>24.01.202662</t>
+  </si>
+  <si>
+    <t>24.01.202663</t>
+  </si>
+  <si>
+    <t>24.01.202664</t>
+  </si>
+  <si>
+    <t>24.01.202665</t>
+  </si>
+  <si>
+    <t>24.01.202666</t>
+  </si>
+  <si>
+    <t>24.01.202667</t>
+  </si>
+  <si>
+    <t>24.01.202668</t>
+  </si>
+  <si>
+    <t>24.01.202669</t>
+  </si>
+  <si>
+    <t>24.01.202670</t>
+  </si>
+  <si>
+    <t>24.01.202671</t>
+  </si>
+  <si>
+    <t>24.01.202672</t>
+  </si>
+  <si>
+    <t>24.01.202673</t>
+  </si>
+  <si>
+    <t>24.01.202674</t>
+  </si>
+  <si>
+    <t>24.01.202675</t>
+  </si>
+  <si>
+    <t>24.01.202676</t>
+  </si>
+  <si>
+    <t>24.01.202677</t>
+  </si>
+  <si>
+    <t>24.01.202678</t>
+  </si>
+  <si>
+    <t>24.01.202679</t>
+  </si>
+  <si>
+    <t>24.01.202680</t>
+  </si>
+  <si>
+    <t>24.01.202681</t>
+  </si>
+  <si>
+    <t>24.01.202682</t>
+  </si>
+  <si>
+    <t>24.01.202683</t>
+  </si>
+  <si>
+    <t>24.01.202684</t>
+  </si>
+  <si>
+    <t>24.01.202685</t>
+  </si>
+  <si>
+    <t>24.01.202686</t>
+  </si>
+  <si>
+    <t>24.01.202687</t>
+  </si>
+  <si>
+    <t>24.01.202688</t>
+  </si>
+  <si>
+    <t>24.01.202689</t>
+  </si>
+  <si>
+    <t>24.01.202690</t>
+  </si>
+  <si>
+    <t>24.01.202691</t>
+  </si>
+  <si>
+    <t>24.01.202692</t>
+  </si>
+  <si>
+    <t>24.01.202693</t>
+  </si>
+  <si>
+    <t>24.01.202694</t>
+  </si>
+  <si>
+    <t>24.01.202695</t>
+  </si>
+  <si>
+    <t>24.01.202696</t>
+  </si>
+  <si>
+    <t>24.01.20261</t>
+  </si>
+  <si>
+    <t>24.01.20262</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46042.99444444444</v>
+        <v>46044.99444444444</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46043.00486111111</v>
+        <v>46045.00486111111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46043.01527777778</v>
+        <v>46045.01527777778</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46043.02569444444</v>
+        <v>46045.02569444444</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46043.03611111111</v>
+        <v>46045.03611111111</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46043.04652777778</v>
+        <v>46045.04652777778</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46043.05694444444</v>
+        <v>46045.05694444444</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46043.06736111111</v>
+        <v>46045.06736111111</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46043.07777777778</v>
+        <v>46045.07777777778</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46043.08819444444</v>
+        <v>46045.08819444444</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46043.09861111111</v>
+        <v>46045.09861111111</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46043.10902777778</v>
+        <v>46045.10902777778</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46043.11944444444</v>
+        <v>46045.11944444444</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46043.12986111111</v>
+        <v>46045.12986111111</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46043.14027777778</v>
+        <v>46045.14027777778</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46043.15069444444</v>
+        <v>46045.15069444444</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46043.16111111111</v>
+        <v>46045.16111111111</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46043.17152777778</v>
+        <v>46045.17152777778</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46043.18194444444</v>
+        <v>46045.18194444444</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46043.19236111111</v>
+        <v>46045.19236111111</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46043.20277777778</v>
+        <v>46045.20277777778</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46043.21319444444</v>
+        <v>46045.21319444444</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46043.22361111111</v>
+        <v>46045.22361111111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46043.23402777778</v>
+        <v>46045.23402777778</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46043.24444444444</v>
+        <v>46045.24444444444</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46043.25486111111</v>
+        <v>46045.25486111111</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46043.26527777778</v>
+        <v>46045.26527777778</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46043.27569444444</v>
+        <v>46045.27569444444</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46043.28611111111</v>
+        <v>46045.28611111111</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46043.29652777778</v>
+        <v>46045.29652777778</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46043.30694444444</v>
+        <v>46045.30694444444</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46043.31736111111</v>
+        <v>46045.31736111111</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46043.32777777778</v>
+        <v>46045.32777777778</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46043.33819444444</v>
+        <v>46045.33819444444</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46043.34861111111</v>
+        <v>46045.34861111111</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46043.35902777778</v>
+        <v>46045.35902777778</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46043.36944444444</v>
+        <v>46045.36944444444</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46043.37986111111</v>
+        <v>46045.37986111111</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46043.39027777778</v>
+        <v>46045.39027777778</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46043.40069444444</v>
+        <v>46045.40069444444</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46043.41111111111</v>
+        <v>46045.41111111111</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46043.42152777778</v>
+        <v>46045.42152777778</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46043.43194444444</v>
+        <v>46045.43194444444</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46043.44236111111</v>
+        <v>46045.44236111111</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46043.45277777778</v>
+        <v>46045.45277777778</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46043.46319444444</v>
+        <v>46045.46319444444</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46043.47361111111</v>
+        <v>46045.47361111111</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46043.48402777778</v>
+        <v>46045.48402777778</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46043.49444444444</v>
+        <v>46045.49444444444</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46043.50486111111</v>
+        <v>46045.50486111111</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46043.51527777778</v>
+        <v>46045.51527777778</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46043.52569444444</v>
+        <v>46045.52569444444</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46043.53611111111</v>
+        <v>46045.53611111111</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46043.54652777778</v>
+        <v>46045.54652777778</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46043.55694444444</v>
+        <v>46045.55694444444</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46043.56736111111</v>
+        <v>46045.56736111111</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46043.57777777778</v>
+        <v>46045.57777777778</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46043.58819444444</v>
+        <v>46045.58819444444</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46043.59861111111</v>
+        <v>46045.59861111111</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46043.60902777778</v>
+        <v>46045.60902777778</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46043.61944444444</v>
+        <v>46045.61944444444</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46043.62986111111</v>
+        <v>46045.62986111111</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46043.64027777778</v>
+        <v>46045.64027777778</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46043.65069444444</v>
+        <v>46045.65069444444</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46043.66111111111</v>
+        <v>46045.66111111111</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46043.67152777778</v>
+        <v>46045.67152777778</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46043.68194444444</v>
+        <v>46045.68194444444</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46043.69236111111</v>
+        <v>46045.69236111111</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46043.70277777778</v>
+        <v>46045.70277777778</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46043.71319444444</v>
+        <v>46045.71319444444</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46043.72361111111</v>
+        <v>46045.72361111111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46043.73402777778</v>
+        <v>46045.73402777778</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46043.74444444444</v>
+        <v>46045.74444444444</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46043.75486111111</v>
+        <v>46045.75486111111</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46043.76527777778</v>
+        <v>46045.76527777778</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46043.77569444444</v>
+        <v>46045.77569444444</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46043.78611111111</v>
+        <v>46045.78611111111</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46043.79652777778</v>
+        <v>46045.79652777778</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46043.80694444444</v>
+        <v>46045.80694444444</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46043.81736111111</v>
+        <v>46045.81736111111</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46043.82777777778</v>
+        <v>46045.82777777778</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46043.83819444444</v>
+        <v>46045.83819444444</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46043.84861111111</v>
+        <v>46045.84861111111</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46043.85902777778</v>
+        <v>46045.85902777778</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46043.86944444444</v>
+        <v>46045.86944444444</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46043.87986111111</v>
+        <v>46045.87986111111</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46043.89027777778</v>
+        <v>46045.89027777778</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46043.90069444444</v>
+        <v>46045.90069444444</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46043.91111111111</v>
+        <v>46045.91111111111</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46043.92152777778</v>
+        <v>46045.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46043.93194444444</v>
+        <v>46045.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46043.94236111111</v>
+        <v>46045.94236111111</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46043.95277777778</v>
+        <v>46045.95277777778</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46043.96319444444</v>
+        <v>46045.96319444444</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46043.97361111111</v>
+        <v>46045.97361111111</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46043.98402777778</v>
+        <v>46045.98402777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46043.99444444444</v>
+        <v>46045.99444444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46043.99444444444</v>
+        <v>46045.99444444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46044.00486111111</v>
+        <v>46046.00486111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46044.01527777778</v>
+        <v>46046.01527777778</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46044.02569444444</v>
+        <v>46046.02569444444</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46044.03611111111</v>
+        <v>46046.03611111111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46044.04652777778</v>
+        <v>46046.04652777778</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46044.05694444444</v>
+        <v>46046.05694444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46044.06736111111</v>
+        <v>46046.06736111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46044.07777777778</v>
+        <v>46046.07777777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46044.08819444444</v>
+        <v>46046.08819444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46044.09861111111</v>
+        <v>46046.09861111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46044.10902777778</v>
+        <v>46046.10902777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46044.11944444444</v>
+        <v>46046.11944444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46044.12986111111</v>
+        <v>46046.12986111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46044.14027777778</v>
+        <v>46046.14027777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46044.15069444444</v>
+        <v>46046.15069444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46044.16111111111</v>
+        <v>46046.16111111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46044.17152777778</v>
+        <v>46046.17152777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46044.18194444444</v>
+        <v>46046.18194444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46044.19236111111</v>
+        <v>46046.19236111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46044.20277777778</v>
+        <v>46046.20277777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46044.21319444444</v>
+        <v>46046.21319444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46044.22361111111</v>
+        <v>46046.22361111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46044.23402777778</v>
+        <v>46046.23402777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46044.24444444444</v>
+        <v>46046.24444444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46044.25486111111</v>
+        <v>46046.25486111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46044.26527777778</v>
+        <v>46046.26527777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46044.27569444444</v>
+        <v>46046.27569444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46044.28611111111</v>
+        <v>46046.28611111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46044.29652777778</v>
+        <v>46046.29652777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46044.30694444444</v>
+        <v>46046.30694444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46044.31736111111</v>
+        <v>46046.31736111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46044.32777777778</v>
+        <v>46046.32777777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46044.33819444444</v>
+        <v>46046.33819444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46044.34861111111</v>
+        <v>46046.34861111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46044.35902777778</v>
+        <v>46046.35902777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46044.36944444444</v>
+        <v>46046.36944444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46044.37986111111</v>
+        <v>46046.37986111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46044.39027777778</v>
+        <v>46046.39027777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46044.40069444444</v>
+        <v>46046.40069444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46044.41111111111</v>
+        <v>46046.41111111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46044.42152777778</v>
+        <v>46046.42152777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46044.43194444444</v>
+        <v>46046.43194444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46044.44236111111</v>
+        <v>46046.44236111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46044.45277777778</v>
+        <v>46046.45277777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46044.46319444444</v>
+        <v>46046.46319444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46044.47361111111</v>
+        <v>46046.47361111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46044.48402777778</v>
+        <v>46046.48402777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46044.49444444444</v>
+        <v>46046.49444444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46044.50486111111</v>
+        <v>46046.50486111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46044.51527777778</v>
+        <v>46046.51527777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46044.52569444444</v>
+        <v>46046.52569444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46044.53611111111</v>
+        <v>46046.53611111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46044.54652777778</v>
+        <v>46046.54652777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46044.55694444444</v>
+        <v>46046.55694444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46044.56736111111</v>
+        <v>46046.56736111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46044.57777777778</v>
+        <v>46046.57777777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46044.58819444444</v>
+        <v>46046.58819444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46044.59861111111</v>
+        <v>46046.59861111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46044.60902777778</v>
+        <v>46046.60902777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46044.61944444444</v>
+        <v>46046.61944444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46044.62986111111</v>
+        <v>46046.62986111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46044.64027777778</v>
+        <v>46046.64027777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46044.65069444444</v>
+        <v>46046.65069444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46044.66111111111</v>
+        <v>46046.66111111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46044.67152777778</v>
+        <v>46046.67152777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46044.68194444444</v>
+        <v>46046.68194444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46044.69236111111</v>
+        <v>46046.69236111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46044.70277777778</v>
+        <v>46046.70277777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46044.71319444444</v>
+        <v>46046.71319444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46044.72361111111</v>
+        <v>46046.72361111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46044.73402777778</v>
+        <v>46046.73402777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46044.74444444444</v>
+        <v>46046.74444444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46044.75486111111</v>
+        <v>46046.75486111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46044.76527777778</v>
+        <v>46046.76527777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46044.77569444444</v>
+        <v>46046.77569444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46044.78611111111</v>
+        <v>46046.78611111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46044.79652777778</v>
+        <v>46046.79652777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46044.80694444444</v>
+        <v>46046.80694444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46044.81736111111</v>
+        <v>46046.81736111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46044.82777777778</v>
+        <v>46046.82777777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46044.83819444444</v>
+        <v>46046.83819444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46044.84861111111</v>
+        <v>46046.84861111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46044.85902777778</v>
+        <v>46046.85902777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46044.86944444444</v>
+        <v>46046.86944444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46044.87986111111</v>
+        <v>46046.87986111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46044.89027777778</v>
+        <v>46046.89027777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46044.90069444444</v>
+        <v>46046.90069444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46044.91111111111</v>
+        <v>46046.91111111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46044.92152777778</v>
+        <v>46046.92152777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46044.93194444444</v>
+        <v>46046.93194444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46044.94236111111</v>
+        <v>46046.94236111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46044.95277777778</v>
+        <v>46046.95277777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46044.96319444444</v>
+        <v>46046.96319444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46044.97361111111</v>
+        <v>46046.97361111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46044.98402777778</v>
+        <v>46046.98402777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46044.99444444444</v>
+        <v>46046.99444444444</v>
       </c>
       <c r="B195">
         <v>0</v>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -31,583 +31,583 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>22.01.20261</t>
-  </si>
-  <si>
-    <t>23.01.20262</t>
-  </si>
-  <si>
-    <t>23.01.20263</t>
-  </si>
-  <si>
-    <t>23.01.20264</t>
-  </si>
-  <si>
-    <t>23.01.20265</t>
-  </si>
-  <si>
-    <t>23.01.20266</t>
-  </si>
-  <si>
-    <t>23.01.20267</t>
-  </si>
-  <si>
-    <t>23.01.20268</t>
-  </si>
-  <si>
-    <t>23.01.20269</t>
-  </si>
-  <si>
-    <t>23.01.202610</t>
-  </si>
-  <si>
-    <t>23.01.202611</t>
-  </si>
-  <si>
-    <t>23.01.202612</t>
-  </si>
-  <si>
-    <t>23.01.202613</t>
-  </si>
-  <si>
-    <t>23.01.202614</t>
-  </si>
-  <si>
-    <t>23.01.202615</t>
-  </si>
-  <si>
-    <t>23.01.202616</t>
-  </si>
-  <si>
-    <t>23.01.202617</t>
-  </si>
-  <si>
-    <t>23.01.202618</t>
-  </si>
-  <si>
-    <t>23.01.202619</t>
-  </si>
-  <si>
-    <t>23.01.202620</t>
-  </si>
-  <si>
-    <t>23.01.202621</t>
-  </si>
-  <si>
-    <t>23.01.202622</t>
-  </si>
-  <si>
-    <t>23.01.202623</t>
-  </si>
-  <si>
-    <t>23.01.202624</t>
-  </si>
-  <si>
-    <t>23.01.202625</t>
-  </si>
-  <si>
-    <t>23.01.202626</t>
-  </si>
-  <si>
-    <t>23.01.202627</t>
-  </si>
-  <si>
-    <t>23.01.202628</t>
-  </si>
-  <si>
-    <t>23.01.202629</t>
-  </si>
-  <si>
-    <t>23.01.202630</t>
-  </si>
-  <si>
-    <t>23.01.202631</t>
-  </si>
-  <si>
-    <t>23.01.202632</t>
-  </si>
-  <si>
-    <t>23.01.202633</t>
-  </si>
-  <si>
-    <t>23.01.202634</t>
-  </si>
-  <si>
-    <t>23.01.202635</t>
-  </si>
-  <si>
-    <t>23.01.202636</t>
-  </si>
-  <si>
-    <t>23.01.202637</t>
-  </si>
-  <si>
-    <t>23.01.202638</t>
-  </si>
-  <si>
-    <t>23.01.202639</t>
-  </si>
-  <si>
-    <t>23.01.202640</t>
-  </si>
-  <si>
-    <t>23.01.202641</t>
-  </si>
-  <si>
-    <t>23.01.202642</t>
-  </si>
-  <si>
-    <t>23.01.202643</t>
-  </si>
-  <si>
-    <t>23.01.202644</t>
-  </si>
-  <si>
-    <t>23.01.202645</t>
-  </si>
-  <si>
-    <t>23.01.202646</t>
-  </si>
-  <si>
-    <t>23.01.202647</t>
-  </si>
-  <si>
-    <t>23.01.202648</t>
-  </si>
-  <si>
-    <t>23.01.202649</t>
-  </si>
-  <si>
-    <t>23.01.202650</t>
-  </si>
-  <si>
-    <t>23.01.202651</t>
-  </si>
-  <si>
-    <t>23.01.202652</t>
-  </si>
-  <si>
-    <t>23.01.202653</t>
-  </si>
-  <si>
-    <t>23.01.202654</t>
-  </si>
-  <si>
-    <t>23.01.202655</t>
-  </si>
-  <si>
-    <t>23.01.202656</t>
-  </si>
-  <si>
-    <t>23.01.202657</t>
-  </si>
-  <si>
-    <t>23.01.202658</t>
-  </si>
-  <si>
-    <t>23.01.202659</t>
-  </si>
-  <si>
-    <t>23.01.202660</t>
-  </si>
-  <si>
-    <t>23.01.202661</t>
-  </si>
-  <si>
-    <t>23.01.202662</t>
-  </si>
-  <si>
-    <t>23.01.202663</t>
-  </si>
-  <si>
-    <t>23.01.202664</t>
-  </si>
-  <si>
-    <t>23.01.202665</t>
-  </si>
-  <si>
-    <t>23.01.202666</t>
-  </si>
-  <si>
-    <t>23.01.202667</t>
-  </si>
-  <si>
-    <t>23.01.202668</t>
-  </si>
-  <si>
-    <t>23.01.202669</t>
-  </si>
-  <si>
-    <t>23.01.202670</t>
-  </si>
-  <si>
-    <t>23.01.202671</t>
-  </si>
-  <si>
-    <t>23.01.202672</t>
-  </si>
-  <si>
-    <t>23.01.202673</t>
-  </si>
-  <si>
-    <t>23.01.202674</t>
-  </si>
-  <si>
-    <t>23.01.202675</t>
-  </si>
-  <si>
-    <t>23.01.202676</t>
-  </si>
-  <si>
-    <t>23.01.202677</t>
-  </si>
-  <si>
-    <t>23.01.202678</t>
-  </si>
-  <si>
-    <t>23.01.202679</t>
-  </si>
-  <si>
-    <t>23.01.202680</t>
-  </si>
-  <si>
-    <t>23.01.202681</t>
-  </si>
-  <si>
-    <t>23.01.202682</t>
-  </si>
-  <si>
-    <t>23.01.202683</t>
-  </si>
-  <si>
-    <t>23.01.202684</t>
-  </si>
-  <si>
-    <t>23.01.202685</t>
-  </si>
-  <si>
-    <t>23.01.202686</t>
-  </si>
-  <si>
-    <t>23.01.202687</t>
-  </si>
-  <si>
-    <t>23.01.202688</t>
-  </si>
-  <si>
-    <t>23.01.202689</t>
-  </si>
-  <si>
-    <t>23.01.202690</t>
-  </si>
-  <si>
-    <t>23.01.202691</t>
-  </si>
-  <si>
-    <t>23.01.202692</t>
-  </si>
-  <si>
-    <t>23.01.202693</t>
-  </si>
-  <si>
-    <t>23.01.202694</t>
-  </si>
-  <si>
-    <t>23.01.202695</t>
-  </si>
-  <si>
-    <t>23.01.202696</t>
-  </si>
-  <si>
-    <t>23.01.20261</t>
-  </si>
-  <si>
-    <t>24.01.20263</t>
-  </si>
-  <si>
-    <t>24.01.20264</t>
-  </si>
-  <si>
-    <t>24.01.20265</t>
-  </si>
-  <si>
-    <t>24.01.20266</t>
-  </si>
-  <si>
-    <t>24.01.20267</t>
-  </si>
-  <si>
-    <t>24.01.20268</t>
-  </si>
-  <si>
-    <t>24.01.20269</t>
-  </si>
-  <si>
-    <t>24.01.202610</t>
-  </si>
-  <si>
-    <t>24.01.202611</t>
-  </si>
-  <si>
-    <t>24.01.202612</t>
-  </si>
-  <si>
-    <t>24.01.202613</t>
-  </si>
-  <si>
-    <t>24.01.202614</t>
-  </si>
-  <si>
-    <t>24.01.202615</t>
-  </si>
-  <si>
-    <t>24.01.202616</t>
-  </si>
-  <si>
-    <t>24.01.202617</t>
-  </si>
-  <si>
-    <t>24.01.202618</t>
-  </si>
-  <si>
-    <t>24.01.202619</t>
-  </si>
-  <si>
-    <t>24.01.202620</t>
-  </si>
-  <si>
-    <t>24.01.202621</t>
-  </si>
-  <si>
-    <t>24.01.202622</t>
-  </si>
-  <si>
-    <t>24.01.202623</t>
-  </si>
-  <si>
-    <t>24.01.202624</t>
-  </si>
-  <si>
-    <t>24.01.202625</t>
-  </si>
-  <si>
-    <t>24.01.202626</t>
-  </si>
-  <si>
-    <t>24.01.202627</t>
-  </si>
-  <si>
-    <t>24.01.202628</t>
-  </si>
-  <si>
-    <t>24.01.202629</t>
-  </si>
-  <si>
-    <t>24.01.202630</t>
-  </si>
-  <si>
-    <t>24.01.202631</t>
-  </si>
-  <si>
-    <t>24.01.202632</t>
-  </si>
-  <si>
-    <t>24.01.202633</t>
-  </si>
-  <si>
-    <t>24.01.202634</t>
-  </si>
-  <si>
-    <t>24.01.202635</t>
-  </si>
-  <si>
-    <t>24.01.202636</t>
-  </si>
-  <si>
-    <t>24.01.202637</t>
-  </si>
-  <si>
-    <t>24.01.202638</t>
-  </si>
-  <si>
-    <t>24.01.202639</t>
-  </si>
-  <si>
-    <t>24.01.202640</t>
-  </si>
-  <si>
-    <t>24.01.202641</t>
-  </si>
-  <si>
-    <t>24.01.202642</t>
-  </si>
-  <si>
-    <t>24.01.202643</t>
-  </si>
-  <si>
-    <t>24.01.202644</t>
-  </si>
-  <si>
-    <t>24.01.202645</t>
-  </si>
-  <si>
-    <t>24.01.202646</t>
-  </si>
-  <si>
-    <t>24.01.202647</t>
-  </si>
-  <si>
-    <t>24.01.202648</t>
-  </si>
-  <si>
-    <t>24.01.202649</t>
-  </si>
-  <si>
-    <t>24.01.202650</t>
-  </si>
-  <si>
-    <t>24.01.202651</t>
-  </si>
-  <si>
-    <t>24.01.202652</t>
-  </si>
-  <si>
-    <t>24.01.202653</t>
-  </si>
-  <si>
-    <t>24.01.202654</t>
-  </si>
-  <si>
-    <t>24.01.202655</t>
-  </si>
-  <si>
-    <t>24.01.202656</t>
-  </si>
-  <si>
-    <t>24.01.202657</t>
-  </si>
-  <si>
-    <t>24.01.202658</t>
-  </si>
-  <si>
-    <t>24.01.202659</t>
-  </si>
-  <si>
-    <t>24.01.202660</t>
-  </si>
-  <si>
-    <t>24.01.202661</t>
-  </si>
-  <si>
-    <t>24.01.202662</t>
-  </si>
-  <si>
-    <t>24.01.202663</t>
-  </si>
-  <si>
-    <t>24.01.202664</t>
-  </si>
-  <si>
-    <t>24.01.202665</t>
-  </si>
-  <si>
-    <t>24.01.202666</t>
-  </si>
-  <si>
-    <t>24.01.202667</t>
-  </si>
-  <si>
-    <t>24.01.202668</t>
-  </si>
-  <si>
-    <t>24.01.202669</t>
-  </si>
-  <si>
-    <t>24.01.202670</t>
-  </si>
-  <si>
-    <t>24.01.202671</t>
-  </si>
-  <si>
-    <t>24.01.202672</t>
-  </si>
-  <si>
-    <t>24.01.202673</t>
-  </si>
-  <si>
-    <t>24.01.202674</t>
-  </si>
-  <si>
-    <t>24.01.202675</t>
-  </si>
-  <si>
-    <t>24.01.202676</t>
-  </si>
-  <si>
-    <t>24.01.202677</t>
-  </si>
-  <si>
-    <t>24.01.202678</t>
-  </si>
-  <si>
-    <t>24.01.202679</t>
-  </si>
-  <si>
-    <t>24.01.202680</t>
-  </si>
-  <si>
-    <t>24.01.202681</t>
-  </si>
-  <si>
-    <t>24.01.202682</t>
-  </si>
-  <si>
-    <t>24.01.202683</t>
-  </si>
-  <si>
-    <t>24.01.202684</t>
-  </si>
-  <si>
-    <t>24.01.202685</t>
-  </si>
-  <si>
-    <t>24.01.202686</t>
-  </si>
-  <si>
-    <t>24.01.202687</t>
-  </si>
-  <si>
-    <t>24.01.202688</t>
-  </si>
-  <si>
-    <t>24.01.202689</t>
-  </si>
-  <si>
-    <t>24.01.202690</t>
-  </si>
-  <si>
-    <t>24.01.202691</t>
-  </si>
-  <si>
-    <t>24.01.202692</t>
-  </si>
-  <si>
-    <t>24.01.202693</t>
-  </si>
-  <si>
-    <t>24.01.202694</t>
-  </si>
-  <si>
-    <t>24.01.202695</t>
-  </si>
-  <si>
-    <t>24.01.202696</t>
-  </si>
-  <si>
     <t>24.01.20261</t>
   </si>
   <si>
-    <t>24.01.20262</t>
+    <t>25.01.20262</t>
+  </si>
+  <si>
+    <t>25.01.20263</t>
+  </si>
+  <si>
+    <t>25.01.20264</t>
+  </si>
+  <si>
+    <t>25.01.20265</t>
+  </si>
+  <si>
+    <t>25.01.20266</t>
+  </si>
+  <si>
+    <t>25.01.20267</t>
+  </si>
+  <si>
+    <t>25.01.20268</t>
+  </si>
+  <si>
+    <t>25.01.20269</t>
+  </si>
+  <si>
+    <t>25.01.202610</t>
+  </si>
+  <si>
+    <t>25.01.202611</t>
+  </si>
+  <si>
+    <t>25.01.202612</t>
+  </si>
+  <si>
+    <t>25.01.202613</t>
+  </si>
+  <si>
+    <t>25.01.202614</t>
+  </si>
+  <si>
+    <t>25.01.202615</t>
+  </si>
+  <si>
+    <t>25.01.202616</t>
+  </si>
+  <si>
+    <t>25.01.202617</t>
+  </si>
+  <si>
+    <t>25.01.202618</t>
+  </si>
+  <si>
+    <t>25.01.202619</t>
+  </si>
+  <si>
+    <t>25.01.202620</t>
+  </si>
+  <si>
+    <t>25.01.202621</t>
+  </si>
+  <si>
+    <t>25.01.202622</t>
+  </si>
+  <si>
+    <t>25.01.202623</t>
+  </si>
+  <si>
+    <t>25.01.202624</t>
+  </si>
+  <si>
+    <t>25.01.202625</t>
+  </si>
+  <si>
+    <t>25.01.202626</t>
+  </si>
+  <si>
+    <t>25.01.202627</t>
+  </si>
+  <si>
+    <t>25.01.202628</t>
+  </si>
+  <si>
+    <t>25.01.202629</t>
+  </si>
+  <si>
+    <t>25.01.202630</t>
+  </si>
+  <si>
+    <t>25.01.202631</t>
+  </si>
+  <si>
+    <t>25.01.202632</t>
+  </si>
+  <si>
+    <t>25.01.202633</t>
+  </si>
+  <si>
+    <t>25.01.202634</t>
+  </si>
+  <si>
+    <t>25.01.202635</t>
+  </si>
+  <si>
+    <t>25.01.202636</t>
+  </si>
+  <si>
+    <t>25.01.202637</t>
+  </si>
+  <si>
+    <t>25.01.202638</t>
+  </si>
+  <si>
+    <t>25.01.202639</t>
+  </si>
+  <si>
+    <t>25.01.202640</t>
+  </si>
+  <si>
+    <t>25.01.202641</t>
+  </si>
+  <si>
+    <t>25.01.202642</t>
+  </si>
+  <si>
+    <t>25.01.202643</t>
+  </si>
+  <si>
+    <t>25.01.202644</t>
+  </si>
+  <si>
+    <t>25.01.202645</t>
+  </si>
+  <si>
+    <t>25.01.202646</t>
+  </si>
+  <si>
+    <t>25.01.202647</t>
+  </si>
+  <si>
+    <t>25.01.202648</t>
+  </si>
+  <si>
+    <t>25.01.202649</t>
+  </si>
+  <si>
+    <t>25.01.202650</t>
+  </si>
+  <si>
+    <t>25.01.202651</t>
+  </si>
+  <si>
+    <t>25.01.202652</t>
+  </si>
+  <si>
+    <t>25.01.202653</t>
+  </si>
+  <si>
+    <t>25.01.202654</t>
+  </si>
+  <si>
+    <t>25.01.202655</t>
+  </si>
+  <si>
+    <t>25.01.202656</t>
+  </si>
+  <si>
+    <t>25.01.202657</t>
+  </si>
+  <si>
+    <t>25.01.202658</t>
+  </si>
+  <si>
+    <t>25.01.202659</t>
+  </si>
+  <si>
+    <t>25.01.202660</t>
+  </si>
+  <si>
+    <t>25.01.202661</t>
+  </si>
+  <si>
+    <t>25.01.202662</t>
+  </si>
+  <si>
+    <t>25.01.202663</t>
+  </si>
+  <si>
+    <t>25.01.202664</t>
+  </si>
+  <si>
+    <t>25.01.202665</t>
+  </si>
+  <si>
+    <t>25.01.202666</t>
+  </si>
+  <si>
+    <t>25.01.202667</t>
+  </si>
+  <si>
+    <t>25.01.202668</t>
+  </si>
+  <si>
+    <t>25.01.202669</t>
+  </si>
+  <si>
+    <t>25.01.202670</t>
+  </si>
+  <si>
+    <t>25.01.202671</t>
+  </si>
+  <si>
+    <t>25.01.202672</t>
+  </si>
+  <si>
+    <t>25.01.202673</t>
+  </si>
+  <si>
+    <t>25.01.202674</t>
+  </si>
+  <si>
+    <t>25.01.202675</t>
+  </si>
+  <si>
+    <t>25.01.202676</t>
+  </si>
+  <si>
+    <t>25.01.202677</t>
+  </si>
+  <si>
+    <t>25.01.202678</t>
+  </si>
+  <si>
+    <t>25.01.202679</t>
+  </si>
+  <si>
+    <t>25.01.202680</t>
+  </si>
+  <si>
+    <t>25.01.202681</t>
+  </si>
+  <si>
+    <t>25.01.202682</t>
+  </si>
+  <si>
+    <t>25.01.202683</t>
+  </si>
+  <si>
+    <t>25.01.202684</t>
+  </si>
+  <si>
+    <t>25.01.202685</t>
+  </si>
+  <si>
+    <t>25.01.202686</t>
+  </si>
+  <si>
+    <t>25.01.202687</t>
+  </si>
+  <si>
+    <t>25.01.202688</t>
+  </si>
+  <si>
+    <t>25.01.202689</t>
+  </si>
+  <si>
+    <t>25.01.202690</t>
+  </si>
+  <si>
+    <t>25.01.202691</t>
+  </si>
+  <si>
+    <t>25.01.202692</t>
+  </si>
+  <si>
+    <t>25.01.202693</t>
+  </si>
+  <si>
+    <t>25.01.202694</t>
+  </si>
+  <si>
+    <t>25.01.202695</t>
+  </si>
+  <si>
+    <t>25.01.202696</t>
+  </si>
+  <si>
+    <t>25.01.20261</t>
+  </si>
+  <si>
+    <t>26.01.20263</t>
+  </si>
+  <si>
+    <t>26.01.20264</t>
+  </si>
+  <si>
+    <t>26.01.20265</t>
+  </si>
+  <si>
+    <t>26.01.20266</t>
+  </si>
+  <si>
+    <t>26.01.20267</t>
+  </si>
+  <si>
+    <t>26.01.20268</t>
+  </si>
+  <si>
+    <t>26.01.20269</t>
+  </si>
+  <si>
+    <t>26.01.202610</t>
+  </si>
+  <si>
+    <t>26.01.202611</t>
+  </si>
+  <si>
+    <t>26.01.202612</t>
+  </si>
+  <si>
+    <t>26.01.202613</t>
+  </si>
+  <si>
+    <t>26.01.202614</t>
+  </si>
+  <si>
+    <t>26.01.202615</t>
+  </si>
+  <si>
+    <t>26.01.202616</t>
+  </si>
+  <si>
+    <t>26.01.202617</t>
+  </si>
+  <si>
+    <t>26.01.202618</t>
+  </si>
+  <si>
+    <t>26.01.202619</t>
+  </si>
+  <si>
+    <t>26.01.202620</t>
+  </si>
+  <si>
+    <t>26.01.202621</t>
+  </si>
+  <si>
+    <t>26.01.202622</t>
+  </si>
+  <si>
+    <t>26.01.202623</t>
+  </si>
+  <si>
+    <t>26.01.202624</t>
+  </si>
+  <si>
+    <t>26.01.202625</t>
+  </si>
+  <si>
+    <t>26.01.202626</t>
+  </si>
+  <si>
+    <t>26.01.202627</t>
+  </si>
+  <si>
+    <t>26.01.202628</t>
+  </si>
+  <si>
+    <t>26.01.202629</t>
+  </si>
+  <si>
+    <t>26.01.202630</t>
+  </si>
+  <si>
+    <t>26.01.202631</t>
+  </si>
+  <si>
+    <t>26.01.202632</t>
+  </si>
+  <si>
+    <t>26.01.202633</t>
+  </si>
+  <si>
+    <t>26.01.202634</t>
+  </si>
+  <si>
+    <t>26.01.202635</t>
+  </si>
+  <si>
+    <t>26.01.202636</t>
+  </si>
+  <si>
+    <t>26.01.202637</t>
+  </si>
+  <si>
+    <t>26.01.202638</t>
+  </si>
+  <si>
+    <t>26.01.202639</t>
+  </si>
+  <si>
+    <t>26.01.202640</t>
+  </si>
+  <si>
+    <t>26.01.202641</t>
+  </si>
+  <si>
+    <t>26.01.202642</t>
+  </si>
+  <si>
+    <t>26.01.202643</t>
+  </si>
+  <si>
+    <t>26.01.202644</t>
+  </si>
+  <si>
+    <t>26.01.202645</t>
+  </si>
+  <si>
+    <t>26.01.202646</t>
+  </si>
+  <si>
+    <t>26.01.202647</t>
+  </si>
+  <si>
+    <t>26.01.202648</t>
+  </si>
+  <si>
+    <t>26.01.202649</t>
+  </si>
+  <si>
+    <t>26.01.202650</t>
+  </si>
+  <si>
+    <t>26.01.202651</t>
+  </si>
+  <si>
+    <t>26.01.202652</t>
+  </si>
+  <si>
+    <t>26.01.202653</t>
+  </si>
+  <si>
+    <t>26.01.202654</t>
+  </si>
+  <si>
+    <t>26.01.202655</t>
+  </si>
+  <si>
+    <t>26.01.202656</t>
+  </si>
+  <si>
+    <t>26.01.202657</t>
+  </si>
+  <si>
+    <t>26.01.202658</t>
+  </si>
+  <si>
+    <t>26.01.202659</t>
+  </si>
+  <si>
+    <t>26.01.202660</t>
+  </si>
+  <si>
+    <t>26.01.202661</t>
+  </si>
+  <si>
+    <t>26.01.202662</t>
+  </si>
+  <si>
+    <t>26.01.202663</t>
+  </si>
+  <si>
+    <t>26.01.202664</t>
+  </si>
+  <si>
+    <t>26.01.202665</t>
+  </si>
+  <si>
+    <t>26.01.202666</t>
+  </si>
+  <si>
+    <t>26.01.202667</t>
+  </si>
+  <si>
+    <t>26.01.202668</t>
+  </si>
+  <si>
+    <t>26.01.202669</t>
+  </si>
+  <si>
+    <t>26.01.202670</t>
+  </si>
+  <si>
+    <t>26.01.202671</t>
+  </si>
+  <si>
+    <t>26.01.202672</t>
+  </si>
+  <si>
+    <t>26.01.202673</t>
+  </si>
+  <si>
+    <t>26.01.202674</t>
+  </si>
+  <si>
+    <t>26.01.202675</t>
+  </si>
+  <si>
+    <t>26.01.202676</t>
+  </si>
+  <si>
+    <t>26.01.202677</t>
+  </si>
+  <si>
+    <t>26.01.202678</t>
+  </si>
+  <si>
+    <t>26.01.202679</t>
+  </si>
+  <si>
+    <t>26.01.202680</t>
+  </si>
+  <si>
+    <t>26.01.202681</t>
+  </si>
+  <si>
+    <t>26.01.202682</t>
+  </si>
+  <si>
+    <t>26.01.202683</t>
+  </si>
+  <si>
+    <t>26.01.202684</t>
+  </si>
+  <si>
+    <t>26.01.202685</t>
+  </si>
+  <si>
+    <t>26.01.202686</t>
+  </si>
+  <si>
+    <t>26.01.202687</t>
+  </si>
+  <si>
+    <t>26.01.202688</t>
+  </si>
+  <si>
+    <t>26.01.202689</t>
+  </si>
+  <si>
+    <t>26.01.202690</t>
+  </si>
+  <si>
+    <t>26.01.202691</t>
+  </si>
+  <si>
+    <t>26.01.202692</t>
+  </si>
+  <si>
+    <t>26.01.202693</t>
+  </si>
+  <si>
+    <t>26.01.202694</t>
+  </si>
+  <si>
+    <t>26.01.202695</t>
+  </si>
+  <si>
+    <t>26.01.202696</t>
+  </si>
+  <si>
+    <t>26.01.20261</t>
+  </si>
+  <si>
+    <t>26.01.20262</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46044.99444444444</v>
+        <v>46046.99444444444</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46045.00486111111</v>
+        <v>46047.00486111111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46045.01527777778</v>
+        <v>46047.01527777778</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46045.02569444444</v>
+        <v>46047.02569444444</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46045.03611111111</v>
+        <v>46047.03611111111</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46045.04652777778</v>
+        <v>46047.04652777778</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46045.05694444444</v>
+        <v>46047.05694444444</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46045.06736111111</v>
+        <v>46047.06736111111</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46045.07777777778</v>
+        <v>46047.07777777778</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46045.08819444444</v>
+        <v>46047.08819444444</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46045.09861111111</v>
+        <v>46047.09861111111</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46045.10902777778</v>
+        <v>46047.10902777778</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46045.11944444444</v>
+        <v>46047.11944444444</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46045.12986111111</v>
+        <v>46047.12986111111</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46045.14027777778</v>
+        <v>46047.14027777778</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46045.15069444444</v>
+        <v>46047.15069444444</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46045.16111111111</v>
+        <v>46047.16111111111</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46045.17152777778</v>
+        <v>46047.17152777778</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46045.18194444444</v>
+        <v>46047.18194444444</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46045.19236111111</v>
+        <v>46047.19236111111</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46045.20277777778</v>
+        <v>46047.20277777778</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46045.21319444444</v>
+        <v>46047.21319444444</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46045.22361111111</v>
+        <v>46047.22361111111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46045.23402777778</v>
+        <v>46047.23402777778</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46045.24444444444</v>
+        <v>46047.24444444444</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46045.25486111111</v>
+        <v>46047.25486111111</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46045.26527777778</v>
+        <v>46047.26527777778</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46045.27569444444</v>
+        <v>46047.27569444444</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46045.28611111111</v>
+        <v>46047.28611111111</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46045.29652777778</v>
+        <v>46047.29652777778</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46045.30694444444</v>
+        <v>46047.30694444444</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46045.31736111111</v>
+        <v>46047.31736111111</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46045.32777777778</v>
+        <v>46047.32777777778</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46045.33819444444</v>
+        <v>46047.33819444444</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46045.34861111111</v>
+        <v>46047.34861111111</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46045.35902777778</v>
+        <v>46047.35902777778</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46045.36944444444</v>
+        <v>46047.36944444444</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46045.37986111111</v>
+        <v>46047.37986111111</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46045.39027777778</v>
+        <v>46047.39027777778</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46045.40069444444</v>
+        <v>46047.40069444444</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46045.41111111111</v>
+        <v>46047.41111111111</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46045.42152777778</v>
+        <v>46047.42152777778</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46045.43194444444</v>
+        <v>46047.43194444444</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46045.44236111111</v>
+        <v>46047.44236111111</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46045.45277777778</v>
+        <v>46047.45277777778</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46045.46319444444</v>
+        <v>46047.46319444444</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46045.47361111111</v>
+        <v>46047.47361111111</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46045.48402777778</v>
+        <v>46047.48402777778</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46045.49444444444</v>
+        <v>46047.49444444444</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46045.50486111111</v>
+        <v>46047.50486111111</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46045.51527777778</v>
+        <v>46047.51527777778</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46045.52569444444</v>
+        <v>46047.52569444444</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46045.53611111111</v>
+        <v>46047.53611111111</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46045.54652777778</v>
+        <v>46047.54652777778</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46045.55694444444</v>
+        <v>46047.55694444444</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46045.56736111111</v>
+        <v>46047.56736111111</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46045.57777777778</v>
+        <v>46047.57777777778</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46045.58819444444</v>
+        <v>46047.58819444444</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46045.59861111111</v>
+        <v>46047.59861111111</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46045.60902777778</v>
+        <v>46047.60902777778</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46045.61944444444</v>
+        <v>46047.61944444444</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46045.62986111111</v>
+        <v>46047.62986111111</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46045.64027777778</v>
+        <v>46047.64027777778</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46045.65069444444</v>
+        <v>46047.65069444444</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46045.66111111111</v>
+        <v>46047.66111111111</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46045.67152777778</v>
+        <v>46047.67152777778</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46045.68194444444</v>
+        <v>46047.68194444444</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46045.69236111111</v>
+        <v>46047.69236111111</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46045.70277777778</v>
+        <v>46047.70277777778</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46045.71319444444</v>
+        <v>46047.71319444444</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46045.72361111111</v>
+        <v>46047.72361111111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46045.73402777778</v>
+        <v>46047.73402777778</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46045.74444444444</v>
+        <v>46047.74444444444</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46045.75486111111</v>
+        <v>46047.75486111111</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46045.76527777778</v>
+        <v>46047.76527777778</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46045.77569444444</v>
+        <v>46047.77569444444</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46045.78611111111</v>
+        <v>46047.78611111111</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46045.79652777778</v>
+        <v>46047.79652777778</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46045.80694444444</v>
+        <v>46047.80694444444</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46045.81736111111</v>
+        <v>46047.81736111111</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46045.82777777778</v>
+        <v>46047.82777777778</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46045.83819444444</v>
+        <v>46047.83819444444</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46045.84861111111</v>
+        <v>46047.84861111111</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46045.85902777778</v>
+        <v>46047.85902777778</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46045.86944444444</v>
+        <v>46047.86944444444</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46045.87986111111</v>
+        <v>46047.87986111111</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46045.89027777778</v>
+        <v>46047.89027777778</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46045.90069444444</v>
+        <v>46047.90069444444</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46045.91111111111</v>
+        <v>46047.91111111111</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46045.92152777778</v>
+        <v>46047.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46045.93194444444</v>
+        <v>46047.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46045.94236111111</v>
+        <v>46047.94236111111</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46045.95277777778</v>
+        <v>46047.95277777778</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46045.96319444444</v>
+        <v>46047.96319444444</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46045.97361111111</v>
+        <v>46047.97361111111</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46045.98402777778</v>
+        <v>46047.98402777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46045.99444444444</v>
+        <v>46047.99444444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46045.99444444444</v>
+        <v>46047.99444444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46046.00486111111</v>
+        <v>46048.00486111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46046.01527777778</v>
+        <v>46048.01527777778</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46046.02569444444</v>
+        <v>46048.02569444444</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46046.03611111111</v>
+        <v>46048.03611111111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46046.04652777778</v>
+        <v>46048.04652777778</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46046.05694444444</v>
+        <v>46048.05694444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46046.06736111111</v>
+        <v>46048.06736111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46046.07777777778</v>
+        <v>46048.07777777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46046.08819444444</v>
+        <v>46048.08819444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46046.09861111111</v>
+        <v>46048.09861111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46046.10902777778</v>
+        <v>46048.10902777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46046.11944444444</v>
+        <v>46048.11944444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46046.12986111111</v>
+        <v>46048.12986111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46046.14027777778</v>
+        <v>46048.14027777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46046.15069444444</v>
+        <v>46048.15069444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46046.16111111111</v>
+        <v>46048.16111111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46046.17152777778</v>
+        <v>46048.17152777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46046.18194444444</v>
+        <v>46048.18194444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46046.19236111111</v>
+        <v>46048.19236111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46046.20277777778</v>
+        <v>46048.20277777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46046.21319444444</v>
+        <v>46048.21319444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46046.22361111111</v>
+        <v>46048.22361111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46046.23402777778</v>
+        <v>46048.23402777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46046.24444444444</v>
+        <v>46048.24444444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46046.25486111111</v>
+        <v>46048.25486111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46046.26527777778</v>
+        <v>46048.26527777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46046.27569444444</v>
+        <v>46048.27569444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46046.28611111111</v>
+        <v>46048.28611111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46046.29652777778</v>
+        <v>46048.29652777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46046.30694444444</v>
+        <v>46048.30694444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46046.31736111111</v>
+        <v>46048.31736111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46046.32777777778</v>
+        <v>46048.32777777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46046.33819444444</v>
+        <v>46048.33819444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46046.34861111111</v>
+        <v>46048.34861111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46046.35902777778</v>
+        <v>46048.35902777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46046.36944444444</v>
+        <v>46048.36944444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46046.37986111111</v>
+        <v>46048.37986111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46046.39027777778</v>
+        <v>46048.39027777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46046.40069444444</v>
+        <v>46048.40069444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46046.41111111111</v>
+        <v>46048.41111111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46046.42152777778</v>
+        <v>46048.42152777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46046.43194444444</v>
+        <v>46048.43194444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46046.44236111111</v>
+        <v>46048.44236111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46046.45277777778</v>
+        <v>46048.45277777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46046.46319444444</v>
+        <v>46048.46319444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46046.47361111111</v>
+        <v>46048.47361111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46046.48402777778</v>
+        <v>46048.48402777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46046.49444444444</v>
+        <v>46048.49444444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46046.50486111111</v>
+        <v>46048.50486111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46046.51527777778</v>
+        <v>46048.51527777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46046.52569444444</v>
+        <v>46048.52569444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46046.53611111111</v>
+        <v>46048.53611111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46046.54652777778</v>
+        <v>46048.54652777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46046.55694444444</v>
+        <v>46048.55694444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46046.56736111111</v>
+        <v>46048.56736111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46046.57777777778</v>
+        <v>46048.57777777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46046.58819444444</v>
+        <v>46048.58819444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46046.59861111111</v>
+        <v>46048.59861111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46046.60902777778</v>
+        <v>46048.60902777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46046.61944444444</v>
+        <v>46048.61944444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46046.62986111111</v>
+        <v>46048.62986111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46046.64027777778</v>
+        <v>46048.64027777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46046.65069444444</v>
+        <v>46048.65069444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46046.66111111111</v>
+        <v>46048.66111111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46046.67152777778</v>
+        <v>46048.67152777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46046.68194444444</v>
+        <v>46048.68194444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46046.69236111111</v>
+        <v>46048.69236111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46046.70277777778</v>
+        <v>46048.70277777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46046.71319444444</v>
+        <v>46048.71319444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46046.72361111111</v>
+        <v>46048.72361111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46046.73402777778</v>
+        <v>46048.73402777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46046.74444444444</v>
+        <v>46048.74444444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46046.75486111111</v>
+        <v>46048.75486111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46046.76527777778</v>
+        <v>46048.76527777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46046.77569444444</v>
+        <v>46048.77569444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46046.78611111111</v>
+        <v>46048.78611111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46046.79652777778</v>
+        <v>46048.79652777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46046.80694444444</v>
+        <v>46048.80694444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46046.81736111111</v>
+        <v>46048.81736111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46046.82777777778</v>
+        <v>46048.82777777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46046.83819444444</v>
+        <v>46048.83819444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46046.84861111111</v>
+        <v>46048.84861111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46046.85902777778</v>
+        <v>46048.85902777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46046.86944444444</v>
+        <v>46048.86944444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46046.87986111111</v>
+        <v>46048.87986111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46046.89027777778</v>
+        <v>46048.89027777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46046.90069444444</v>
+        <v>46048.90069444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46046.91111111111</v>
+        <v>46048.91111111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46046.92152777778</v>
+        <v>46048.92152777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46046.93194444444</v>
+        <v>46048.93194444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46046.94236111111</v>
+        <v>46048.94236111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46046.95277777778</v>
+        <v>46048.95277777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46046.96319444444</v>
+        <v>46048.96319444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46046.97361111111</v>
+        <v>46048.97361111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46046.98402777778</v>
+        <v>46048.98402777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46046.99444444444</v>
+        <v>46048.99444444444</v>
       </c>
       <c r="B195">
         <v>0</v>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -31,297 +31,12 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>24.01.20261</t>
-  </si>
-  <si>
-    <t>25.01.20262</t>
-  </si>
-  <si>
-    <t>25.01.20263</t>
-  </si>
-  <si>
-    <t>25.01.20264</t>
-  </si>
-  <si>
-    <t>25.01.20265</t>
-  </si>
-  <si>
-    <t>25.01.20266</t>
-  </si>
-  <si>
-    <t>25.01.20267</t>
-  </si>
-  <si>
-    <t>25.01.20268</t>
-  </si>
-  <si>
-    <t>25.01.20269</t>
-  </si>
-  <si>
-    <t>25.01.202610</t>
-  </si>
-  <si>
-    <t>25.01.202611</t>
-  </si>
-  <si>
-    <t>25.01.202612</t>
-  </si>
-  <si>
-    <t>25.01.202613</t>
-  </si>
-  <si>
-    <t>25.01.202614</t>
-  </si>
-  <si>
-    <t>25.01.202615</t>
-  </si>
-  <si>
-    <t>25.01.202616</t>
-  </si>
-  <si>
-    <t>25.01.202617</t>
-  </si>
-  <si>
-    <t>25.01.202618</t>
-  </si>
-  <si>
-    <t>25.01.202619</t>
-  </si>
-  <si>
-    <t>25.01.202620</t>
-  </si>
-  <si>
-    <t>25.01.202621</t>
-  </si>
-  <si>
-    <t>25.01.202622</t>
-  </si>
-  <si>
-    <t>25.01.202623</t>
-  </si>
-  <si>
-    <t>25.01.202624</t>
-  </si>
-  <si>
-    <t>25.01.202625</t>
-  </si>
-  <si>
-    <t>25.01.202626</t>
-  </si>
-  <si>
-    <t>25.01.202627</t>
-  </si>
-  <si>
-    <t>25.01.202628</t>
-  </si>
-  <si>
-    <t>25.01.202629</t>
-  </si>
-  <si>
-    <t>25.01.202630</t>
-  </si>
-  <si>
-    <t>25.01.202631</t>
-  </si>
-  <si>
-    <t>25.01.202632</t>
-  </si>
-  <si>
-    <t>25.01.202633</t>
-  </si>
-  <si>
-    <t>25.01.202634</t>
-  </si>
-  <si>
-    <t>25.01.202635</t>
-  </si>
-  <si>
-    <t>25.01.202636</t>
-  </si>
-  <si>
-    <t>25.01.202637</t>
-  </si>
-  <si>
-    <t>25.01.202638</t>
-  </si>
-  <si>
-    <t>25.01.202639</t>
-  </si>
-  <si>
-    <t>25.01.202640</t>
-  </si>
-  <si>
-    <t>25.01.202641</t>
-  </si>
-  <si>
-    <t>25.01.202642</t>
-  </si>
-  <si>
-    <t>25.01.202643</t>
-  </si>
-  <si>
-    <t>25.01.202644</t>
-  </si>
-  <si>
-    <t>25.01.202645</t>
-  </si>
-  <si>
-    <t>25.01.202646</t>
-  </si>
-  <si>
-    <t>25.01.202647</t>
-  </si>
-  <si>
-    <t>25.01.202648</t>
-  </si>
-  <si>
-    <t>25.01.202649</t>
-  </si>
-  <si>
-    <t>25.01.202650</t>
-  </si>
-  <si>
-    <t>25.01.202651</t>
-  </si>
-  <si>
-    <t>25.01.202652</t>
-  </si>
-  <si>
-    <t>25.01.202653</t>
-  </si>
-  <si>
-    <t>25.01.202654</t>
-  </si>
-  <si>
-    <t>25.01.202655</t>
-  </si>
-  <si>
-    <t>25.01.202656</t>
-  </si>
-  <si>
-    <t>25.01.202657</t>
-  </si>
-  <si>
-    <t>25.01.202658</t>
-  </si>
-  <si>
-    <t>25.01.202659</t>
-  </si>
-  <si>
-    <t>25.01.202660</t>
-  </si>
-  <si>
-    <t>25.01.202661</t>
-  </si>
-  <si>
-    <t>25.01.202662</t>
-  </si>
-  <si>
-    <t>25.01.202663</t>
-  </si>
-  <si>
-    <t>25.01.202664</t>
-  </si>
-  <si>
-    <t>25.01.202665</t>
-  </si>
-  <si>
-    <t>25.01.202666</t>
-  </si>
-  <si>
-    <t>25.01.202667</t>
-  </si>
-  <si>
-    <t>25.01.202668</t>
-  </si>
-  <si>
-    <t>25.01.202669</t>
-  </si>
-  <si>
-    <t>25.01.202670</t>
-  </si>
-  <si>
-    <t>25.01.202671</t>
-  </si>
-  <si>
-    <t>25.01.202672</t>
-  </si>
-  <si>
-    <t>25.01.202673</t>
-  </si>
-  <si>
-    <t>25.01.202674</t>
-  </si>
-  <si>
-    <t>25.01.202675</t>
-  </si>
-  <si>
-    <t>25.01.202676</t>
-  </si>
-  <si>
-    <t>25.01.202677</t>
-  </si>
-  <si>
-    <t>25.01.202678</t>
-  </si>
-  <si>
-    <t>25.01.202679</t>
-  </si>
-  <si>
-    <t>25.01.202680</t>
-  </si>
-  <si>
-    <t>25.01.202681</t>
-  </si>
-  <si>
-    <t>25.01.202682</t>
-  </si>
-  <si>
-    <t>25.01.202683</t>
-  </si>
-  <si>
-    <t>25.01.202684</t>
-  </si>
-  <si>
-    <t>25.01.202685</t>
-  </si>
-  <si>
-    <t>25.01.202686</t>
-  </si>
-  <si>
-    <t>25.01.202687</t>
-  </si>
-  <si>
-    <t>25.01.202688</t>
-  </si>
-  <si>
-    <t>25.01.202689</t>
-  </si>
-  <si>
-    <t>25.01.202690</t>
-  </si>
-  <si>
-    <t>25.01.202691</t>
-  </si>
-  <si>
-    <t>25.01.202692</t>
-  </si>
-  <si>
-    <t>25.01.202693</t>
-  </si>
-  <si>
-    <t>25.01.202694</t>
-  </si>
-  <si>
-    <t>25.01.202695</t>
-  </si>
-  <si>
-    <t>25.01.202696</t>
-  </si>
-  <si>
     <t>25.01.20261</t>
   </si>
   <si>
+    <t>26.01.20262</t>
+  </si>
+  <si>
     <t>26.01.20263</t>
   </si>
   <si>
@@ -607,7 +322,292 @@
     <t>26.01.20261</t>
   </si>
   <si>
-    <t>26.01.20262</t>
+    <t>27.01.20263</t>
+  </si>
+  <si>
+    <t>27.01.20264</t>
+  </si>
+  <si>
+    <t>27.01.20265</t>
+  </si>
+  <si>
+    <t>27.01.20266</t>
+  </si>
+  <si>
+    <t>27.01.20267</t>
+  </si>
+  <si>
+    <t>27.01.20268</t>
+  </si>
+  <si>
+    <t>27.01.20269</t>
+  </si>
+  <si>
+    <t>27.01.202610</t>
+  </si>
+  <si>
+    <t>27.01.202611</t>
+  </si>
+  <si>
+    <t>27.01.202612</t>
+  </si>
+  <si>
+    <t>27.01.202613</t>
+  </si>
+  <si>
+    <t>27.01.202614</t>
+  </si>
+  <si>
+    <t>27.01.202615</t>
+  </si>
+  <si>
+    <t>27.01.202616</t>
+  </si>
+  <si>
+    <t>27.01.202617</t>
+  </si>
+  <si>
+    <t>27.01.202618</t>
+  </si>
+  <si>
+    <t>27.01.202619</t>
+  </si>
+  <si>
+    <t>27.01.202620</t>
+  </si>
+  <si>
+    <t>27.01.202621</t>
+  </si>
+  <si>
+    <t>27.01.202622</t>
+  </si>
+  <si>
+    <t>27.01.202623</t>
+  </si>
+  <si>
+    <t>27.01.202624</t>
+  </si>
+  <si>
+    <t>27.01.202625</t>
+  </si>
+  <si>
+    <t>27.01.202626</t>
+  </si>
+  <si>
+    <t>27.01.202627</t>
+  </si>
+  <si>
+    <t>27.01.202628</t>
+  </si>
+  <si>
+    <t>27.01.202629</t>
+  </si>
+  <si>
+    <t>27.01.202630</t>
+  </si>
+  <si>
+    <t>27.01.202631</t>
+  </si>
+  <si>
+    <t>27.01.202632</t>
+  </si>
+  <si>
+    <t>27.01.202633</t>
+  </si>
+  <si>
+    <t>27.01.202634</t>
+  </si>
+  <si>
+    <t>27.01.202635</t>
+  </si>
+  <si>
+    <t>27.01.202636</t>
+  </si>
+  <si>
+    <t>27.01.202637</t>
+  </si>
+  <si>
+    <t>27.01.202638</t>
+  </si>
+  <si>
+    <t>27.01.202639</t>
+  </si>
+  <si>
+    <t>27.01.202640</t>
+  </si>
+  <si>
+    <t>27.01.202641</t>
+  </si>
+  <si>
+    <t>27.01.202642</t>
+  </si>
+  <si>
+    <t>27.01.202643</t>
+  </si>
+  <si>
+    <t>27.01.202644</t>
+  </si>
+  <si>
+    <t>27.01.202645</t>
+  </si>
+  <si>
+    <t>27.01.202646</t>
+  </si>
+  <si>
+    <t>27.01.202647</t>
+  </si>
+  <si>
+    <t>27.01.202648</t>
+  </si>
+  <si>
+    <t>27.01.202649</t>
+  </si>
+  <si>
+    <t>27.01.202650</t>
+  </si>
+  <si>
+    <t>27.01.202651</t>
+  </si>
+  <si>
+    <t>27.01.202652</t>
+  </si>
+  <si>
+    <t>27.01.202653</t>
+  </si>
+  <si>
+    <t>27.01.202654</t>
+  </si>
+  <si>
+    <t>27.01.202655</t>
+  </si>
+  <si>
+    <t>27.01.202656</t>
+  </si>
+  <si>
+    <t>27.01.202657</t>
+  </si>
+  <si>
+    <t>27.01.202658</t>
+  </si>
+  <si>
+    <t>27.01.202659</t>
+  </si>
+  <si>
+    <t>27.01.202660</t>
+  </si>
+  <si>
+    <t>27.01.202661</t>
+  </si>
+  <si>
+    <t>27.01.202662</t>
+  </si>
+  <si>
+    <t>27.01.202663</t>
+  </si>
+  <si>
+    <t>27.01.202664</t>
+  </si>
+  <si>
+    <t>27.01.202665</t>
+  </si>
+  <si>
+    <t>27.01.202666</t>
+  </si>
+  <si>
+    <t>27.01.202667</t>
+  </si>
+  <si>
+    <t>27.01.202668</t>
+  </si>
+  <si>
+    <t>27.01.202669</t>
+  </si>
+  <si>
+    <t>27.01.202670</t>
+  </si>
+  <si>
+    <t>27.01.202671</t>
+  </si>
+  <si>
+    <t>27.01.202672</t>
+  </si>
+  <si>
+    <t>27.01.202673</t>
+  </si>
+  <si>
+    <t>27.01.202674</t>
+  </si>
+  <si>
+    <t>27.01.202675</t>
+  </si>
+  <si>
+    <t>27.01.202676</t>
+  </si>
+  <si>
+    <t>27.01.202677</t>
+  </si>
+  <si>
+    <t>27.01.202678</t>
+  </si>
+  <si>
+    <t>27.01.202679</t>
+  </si>
+  <si>
+    <t>27.01.202680</t>
+  </si>
+  <si>
+    <t>27.01.202681</t>
+  </si>
+  <si>
+    <t>27.01.202682</t>
+  </si>
+  <si>
+    <t>27.01.202683</t>
+  </si>
+  <si>
+    <t>27.01.202684</t>
+  </si>
+  <si>
+    <t>27.01.202685</t>
+  </si>
+  <si>
+    <t>27.01.202686</t>
+  </si>
+  <si>
+    <t>27.01.202687</t>
+  </si>
+  <si>
+    <t>27.01.202688</t>
+  </si>
+  <si>
+    <t>27.01.202689</t>
+  </si>
+  <si>
+    <t>27.01.202690</t>
+  </si>
+  <si>
+    <t>27.01.202691</t>
+  </si>
+  <si>
+    <t>27.01.202692</t>
+  </si>
+  <si>
+    <t>27.01.202693</t>
+  </si>
+  <si>
+    <t>27.01.202694</t>
+  </si>
+  <si>
+    <t>27.01.202695</t>
+  </si>
+  <si>
+    <t>27.01.202696</t>
+  </si>
+  <si>
+    <t>27.01.20261</t>
+  </si>
+  <si>
+    <t>27.01.20262</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46046.99444444444</v>
+        <v>46047.99444444444</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46047.00486111111</v>
+        <v>46048.00486111111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46047.01527777778</v>
+        <v>46048.01527777778</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46047.02569444444</v>
+        <v>46048.02569444444</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46047.03611111111</v>
+        <v>46048.03611111111</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46047.04652777778</v>
+        <v>46048.04652777778</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46047.05694444444</v>
+        <v>46048.05694444444</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46047.06736111111</v>
+        <v>46048.06736111111</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46047.07777777778</v>
+        <v>46048.07777777778</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46047.08819444444</v>
+        <v>46048.08819444444</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46047.09861111111</v>
+        <v>46048.09861111111</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46047.10902777778</v>
+        <v>46048.10902777778</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46047.11944444444</v>
+        <v>46048.11944444444</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46047.12986111111</v>
+        <v>46048.12986111111</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46047.14027777778</v>
+        <v>46048.14027777778</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46047.15069444444</v>
+        <v>46048.15069444444</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46047.16111111111</v>
+        <v>46048.16111111111</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46047.17152777778</v>
+        <v>46048.17152777778</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46047.18194444444</v>
+        <v>46048.18194444444</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46047.19236111111</v>
+        <v>46048.19236111111</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46047.20277777778</v>
+        <v>46048.20277777778</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46047.21319444444</v>
+        <v>46048.21319444444</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46047.22361111111</v>
+        <v>46048.22361111111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46047.23402777778</v>
+        <v>46048.23402777778</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46047.24444444444</v>
+        <v>46048.24444444444</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46047.25486111111</v>
+        <v>46048.25486111111</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46047.26527777778</v>
+        <v>46048.26527777778</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46047.27569444444</v>
+        <v>46048.27569444444</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46047.28611111111</v>
+        <v>46048.28611111111</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46047.29652777778</v>
+        <v>46048.29652777778</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46047.30694444444</v>
+        <v>46048.30694444444</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46047.31736111111</v>
+        <v>46048.31736111111</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46047.32777777778</v>
+        <v>46048.32777777778</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46047.33819444444</v>
+        <v>46048.33819444444</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46047.34861111111</v>
+        <v>46048.34861111111</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46047.35902777778</v>
+        <v>46048.35902777778</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46047.36944444444</v>
+        <v>46048.36944444444</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46047.37986111111</v>
+        <v>46048.37986111111</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46047.39027777778</v>
+        <v>46048.39027777778</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46047.40069444444</v>
+        <v>46048.40069444444</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46047.41111111111</v>
+        <v>46048.41111111111</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46047.42152777778</v>
+        <v>46048.42152777778</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46047.43194444444</v>
+        <v>46048.43194444444</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46047.44236111111</v>
+        <v>46048.44236111111</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46047.45277777778</v>
+        <v>46048.45277777778</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46047.46319444444</v>
+        <v>46048.46319444444</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46047.47361111111</v>
+        <v>46048.47361111111</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46047.48402777778</v>
+        <v>46048.48402777778</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46047.49444444444</v>
+        <v>46048.49444444444</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46047.50486111111</v>
+        <v>46048.50486111111</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46047.51527777778</v>
+        <v>46048.51527777778</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46047.52569444444</v>
+        <v>46048.52569444444</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46047.53611111111</v>
+        <v>46048.53611111111</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46047.54652777778</v>
+        <v>46048.54652777778</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46047.55694444444</v>
+        <v>46048.55694444444</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46047.56736111111</v>
+        <v>46048.56736111111</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46047.57777777778</v>
+        <v>46048.57777777778</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46047.58819444444</v>
+        <v>46048.58819444444</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46047.59861111111</v>
+        <v>46048.59861111111</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46047.60902777778</v>
+        <v>46048.60902777778</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46047.61944444444</v>
+        <v>46048.61944444444</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46047.62986111111</v>
+        <v>46048.62986111111</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46047.64027777778</v>
+        <v>46048.64027777778</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46047.65069444444</v>
+        <v>46048.65069444444</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46047.66111111111</v>
+        <v>46048.66111111111</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46047.67152777778</v>
+        <v>46048.67152777778</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46047.68194444444</v>
+        <v>46048.68194444444</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46047.69236111111</v>
+        <v>46048.69236111111</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46047.70277777778</v>
+        <v>46048.70277777778</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46047.71319444444</v>
+        <v>46048.71319444444</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46047.72361111111</v>
+        <v>46048.72361111111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46047.73402777778</v>
+        <v>46048.73402777778</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46047.74444444444</v>
+        <v>46048.74444444444</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46047.75486111111</v>
+        <v>46048.75486111111</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46047.76527777778</v>
+        <v>46048.76527777778</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46047.77569444444</v>
+        <v>46048.77569444444</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46047.78611111111</v>
+        <v>46048.78611111111</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46047.79652777778</v>
+        <v>46048.79652777778</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46047.80694444444</v>
+        <v>46048.80694444444</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46047.81736111111</v>
+        <v>46048.81736111111</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46047.82777777778</v>
+        <v>46048.82777777778</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46047.83819444444</v>
+        <v>46048.83819444444</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46047.84861111111</v>
+        <v>46048.84861111111</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46047.85902777778</v>
+        <v>46048.85902777778</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46047.86944444444</v>
+        <v>46048.86944444444</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46047.87986111111</v>
+        <v>46048.87986111111</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46047.89027777778</v>
+        <v>46048.89027777778</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46047.90069444444</v>
+        <v>46048.90069444444</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46047.91111111111</v>
+        <v>46048.91111111111</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46047.92152777778</v>
+        <v>46048.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46047.93194444444</v>
+        <v>46048.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46047.94236111111</v>
+        <v>46048.94236111111</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46047.95277777778</v>
+        <v>46048.95277777778</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46047.96319444444</v>
+        <v>46048.96319444444</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46047.97361111111</v>
+        <v>46048.97361111111</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46047.98402777778</v>
+        <v>46048.98402777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46047.99444444444</v>
+        <v>46048.99444444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46047.99444444444</v>
+        <v>46048.99444444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46048.00486111111</v>
+        <v>46049.00486111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46048.01527777778</v>
+        <v>46049.01527777778</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46048.02569444444</v>
+        <v>46049.02569444444</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46048.03611111111</v>
+        <v>46049.03611111111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46048.04652777778</v>
+        <v>46049.04652777778</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46048.05694444444</v>
+        <v>46049.05694444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46048.06736111111</v>
+        <v>46049.06736111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46048.07777777778</v>
+        <v>46049.07777777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46048.08819444444</v>
+        <v>46049.08819444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46048.09861111111</v>
+        <v>46049.09861111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46048.10902777778</v>
+        <v>46049.10902777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46048.11944444444</v>
+        <v>46049.11944444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46048.12986111111</v>
+        <v>46049.12986111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46048.14027777778</v>
+        <v>46049.14027777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46048.15069444444</v>
+        <v>46049.15069444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46048.16111111111</v>
+        <v>46049.16111111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46048.17152777778</v>
+        <v>46049.17152777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46048.18194444444</v>
+        <v>46049.18194444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46048.19236111111</v>
+        <v>46049.19236111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46048.20277777778</v>
+        <v>46049.20277777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46048.21319444444</v>
+        <v>46049.21319444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46048.22361111111</v>
+        <v>46049.22361111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46048.23402777778</v>
+        <v>46049.23402777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46048.24444444444</v>
+        <v>46049.24444444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46048.25486111111</v>
+        <v>46049.25486111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46048.26527777778</v>
+        <v>46049.26527777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46048.27569444444</v>
+        <v>46049.27569444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46048.28611111111</v>
+        <v>46049.28611111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46048.29652777778</v>
+        <v>46049.29652777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46048.30694444444</v>
+        <v>46049.30694444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46048.31736111111</v>
+        <v>46049.31736111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46048.32777777778</v>
+        <v>46049.32777777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46048.33819444444</v>
+        <v>46049.33819444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46048.34861111111</v>
+        <v>46049.34861111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46048.35902777778</v>
+        <v>46049.35902777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46048.36944444444</v>
+        <v>46049.36944444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46048.37986111111</v>
+        <v>46049.37986111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46048.39027777778</v>
+        <v>46049.39027777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46048.40069444444</v>
+        <v>46049.40069444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46048.41111111111</v>
+        <v>46049.41111111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46048.42152777778</v>
+        <v>46049.42152777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46048.43194444444</v>
+        <v>46049.43194444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46048.44236111111</v>
+        <v>46049.44236111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46048.45277777778</v>
+        <v>46049.45277777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46048.46319444444</v>
+        <v>46049.46319444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46048.47361111111</v>
+        <v>46049.47361111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46048.48402777778</v>
+        <v>46049.48402777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46048.49444444444</v>
+        <v>46049.49444444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46048.50486111111</v>
+        <v>46049.50486111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46048.51527777778</v>
+        <v>46049.51527777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46048.52569444444</v>
+        <v>46049.52569444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46048.53611111111</v>
+        <v>46049.53611111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46048.54652777778</v>
+        <v>46049.54652777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46048.55694444444</v>
+        <v>46049.55694444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46048.56736111111</v>
+        <v>46049.56736111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46048.57777777778</v>
+        <v>46049.57777777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46048.58819444444</v>
+        <v>46049.58819444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46048.59861111111</v>
+        <v>46049.59861111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46048.60902777778</v>
+        <v>46049.60902777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46048.61944444444</v>
+        <v>46049.61944444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46048.62986111111</v>
+        <v>46049.62986111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46048.64027777778</v>
+        <v>46049.64027777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46048.65069444444</v>
+        <v>46049.65069444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46048.66111111111</v>
+        <v>46049.66111111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46048.67152777778</v>
+        <v>46049.67152777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46048.68194444444</v>
+        <v>46049.68194444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46048.69236111111</v>
+        <v>46049.69236111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46048.70277777778</v>
+        <v>46049.70277777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46048.71319444444</v>
+        <v>46049.71319444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46048.72361111111</v>
+        <v>46049.72361111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46048.73402777778</v>
+        <v>46049.73402777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46048.74444444444</v>
+        <v>46049.74444444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46048.75486111111</v>
+        <v>46049.75486111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46048.76527777778</v>
+        <v>46049.76527777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46048.77569444444</v>
+        <v>46049.77569444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46048.78611111111</v>
+        <v>46049.78611111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46048.79652777778</v>
+        <v>46049.79652777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46048.80694444444</v>
+        <v>46049.80694444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46048.81736111111</v>
+        <v>46049.81736111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46048.82777777778</v>
+        <v>46049.82777777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46048.83819444444</v>
+        <v>46049.83819444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46048.84861111111</v>
+        <v>46049.84861111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46048.85902777778</v>
+        <v>46049.85902777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46048.86944444444</v>
+        <v>46049.86944444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46048.87986111111</v>
+        <v>46049.87986111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46048.89027777778</v>
+        <v>46049.89027777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46048.90069444444</v>
+        <v>46049.90069444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46048.91111111111</v>
+        <v>46049.91111111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46048.92152777778</v>
+        <v>46049.92152777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46048.93194444444</v>
+        <v>46049.93194444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46048.94236111111</v>
+        <v>46049.94236111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46048.95277777778</v>
+        <v>46049.95277777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46048.96319444444</v>
+        <v>46049.96319444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46048.97361111111</v>
+        <v>46049.97361111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46048.98402777778</v>
+        <v>46049.98402777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46048.99444444444</v>
+        <v>46049.99444444444</v>
       </c>
       <c r="B195">
         <v>0</v>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -31,297 +31,12 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>15.02.20261</t>
-  </si>
-  <si>
-    <t>16.02.20262</t>
-  </si>
-  <si>
-    <t>16.02.20263</t>
-  </si>
-  <si>
-    <t>16.02.20264</t>
-  </si>
-  <si>
-    <t>16.02.20265</t>
-  </si>
-  <si>
-    <t>16.02.20266</t>
-  </si>
-  <si>
-    <t>16.02.20267</t>
-  </si>
-  <si>
-    <t>16.02.20268</t>
-  </si>
-  <si>
-    <t>16.02.20269</t>
-  </si>
-  <si>
-    <t>16.02.202610</t>
-  </si>
-  <si>
-    <t>16.02.202611</t>
-  </si>
-  <si>
-    <t>16.02.202612</t>
-  </si>
-  <si>
-    <t>16.02.202613</t>
-  </si>
-  <si>
-    <t>16.02.202614</t>
-  </si>
-  <si>
-    <t>16.02.202615</t>
-  </si>
-  <si>
-    <t>16.02.202616</t>
-  </si>
-  <si>
-    <t>16.02.202617</t>
-  </si>
-  <si>
-    <t>16.02.202618</t>
-  </si>
-  <si>
-    <t>16.02.202619</t>
-  </si>
-  <si>
-    <t>16.02.202620</t>
-  </si>
-  <si>
-    <t>16.02.202621</t>
-  </si>
-  <si>
-    <t>16.02.202622</t>
-  </si>
-  <si>
-    <t>16.02.202623</t>
-  </si>
-  <si>
-    <t>16.02.202624</t>
-  </si>
-  <si>
-    <t>16.02.202625</t>
-  </si>
-  <si>
-    <t>16.02.202626</t>
-  </si>
-  <si>
-    <t>16.02.202627</t>
-  </si>
-  <si>
-    <t>16.02.202628</t>
-  </si>
-  <si>
-    <t>16.02.202629</t>
-  </si>
-  <si>
-    <t>16.02.202630</t>
-  </si>
-  <si>
-    <t>16.02.202631</t>
-  </si>
-  <si>
-    <t>16.02.202632</t>
-  </si>
-  <si>
-    <t>16.02.202633</t>
-  </si>
-  <si>
-    <t>16.02.202634</t>
-  </si>
-  <si>
-    <t>16.02.202635</t>
-  </si>
-  <si>
-    <t>16.02.202636</t>
-  </si>
-  <si>
-    <t>16.02.202637</t>
-  </si>
-  <si>
-    <t>16.02.202638</t>
-  </si>
-  <si>
-    <t>16.02.202639</t>
-  </si>
-  <si>
-    <t>16.02.202640</t>
-  </si>
-  <si>
-    <t>16.02.202641</t>
-  </si>
-  <si>
-    <t>16.02.202642</t>
-  </si>
-  <si>
-    <t>16.02.202643</t>
-  </si>
-  <si>
-    <t>16.02.202644</t>
-  </si>
-  <si>
-    <t>16.02.202645</t>
-  </si>
-  <si>
-    <t>16.02.202646</t>
-  </si>
-  <si>
-    <t>16.02.202647</t>
-  </si>
-  <si>
-    <t>16.02.202648</t>
-  </si>
-  <si>
-    <t>16.02.202649</t>
-  </si>
-  <si>
-    <t>16.02.202650</t>
-  </si>
-  <si>
-    <t>16.02.202651</t>
-  </si>
-  <si>
-    <t>16.02.202652</t>
-  </si>
-  <si>
-    <t>16.02.202653</t>
-  </si>
-  <si>
-    <t>16.02.202654</t>
-  </si>
-  <si>
-    <t>16.02.202655</t>
-  </si>
-  <si>
-    <t>16.02.202656</t>
-  </si>
-  <si>
-    <t>16.02.202657</t>
-  </si>
-  <si>
-    <t>16.02.202658</t>
-  </si>
-  <si>
-    <t>16.02.202659</t>
-  </si>
-  <si>
-    <t>16.02.202660</t>
-  </si>
-  <si>
-    <t>16.02.202661</t>
-  </si>
-  <si>
-    <t>16.02.202662</t>
-  </si>
-  <si>
-    <t>16.02.202663</t>
-  </si>
-  <si>
-    <t>16.02.202664</t>
-  </si>
-  <si>
-    <t>16.02.202665</t>
-  </si>
-  <si>
-    <t>16.02.202666</t>
-  </si>
-  <si>
-    <t>16.02.202667</t>
-  </si>
-  <si>
-    <t>16.02.202668</t>
-  </si>
-  <si>
-    <t>16.02.202669</t>
-  </si>
-  <si>
-    <t>16.02.202670</t>
-  </si>
-  <si>
-    <t>16.02.202671</t>
-  </si>
-  <si>
-    <t>16.02.202672</t>
-  </si>
-  <si>
-    <t>16.02.202673</t>
-  </si>
-  <si>
-    <t>16.02.202674</t>
-  </si>
-  <si>
-    <t>16.02.202675</t>
-  </si>
-  <si>
-    <t>16.02.202676</t>
-  </si>
-  <si>
-    <t>16.02.202677</t>
-  </si>
-  <si>
-    <t>16.02.202678</t>
-  </si>
-  <si>
-    <t>16.02.202679</t>
-  </si>
-  <si>
-    <t>16.02.202680</t>
-  </si>
-  <si>
-    <t>16.02.202681</t>
-  </si>
-  <si>
-    <t>16.02.202682</t>
-  </si>
-  <si>
-    <t>16.02.202683</t>
-  </si>
-  <si>
-    <t>16.02.202684</t>
-  </si>
-  <si>
-    <t>16.02.202685</t>
-  </si>
-  <si>
-    <t>16.02.202686</t>
-  </si>
-  <si>
-    <t>16.02.202687</t>
-  </si>
-  <si>
-    <t>16.02.202688</t>
-  </si>
-  <si>
-    <t>16.02.202689</t>
-  </si>
-  <si>
-    <t>16.02.202690</t>
-  </si>
-  <si>
-    <t>16.02.202691</t>
-  </si>
-  <si>
-    <t>16.02.202692</t>
-  </si>
-  <si>
-    <t>16.02.202693</t>
-  </si>
-  <si>
-    <t>16.02.202694</t>
-  </si>
-  <si>
-    <t>16.02.202695</t>
-  </si>
-  <si>
-    <t>16.02.202696</t>
-  </si>
-  <si>
     <t>16.02.20261</t>
   </si>
   <si>
+    <t>17.02.20262</t>
+  </si>
+  <si>
     <t>17.02.20263</t>
   </si>
   <si>
@@ -607,7 +322,292 @@
     <t>17.02.20261</t>
   </si>
   <si>
-    <t>17.02.20262</t>
+    <t>18.02.20263</t>
+  </si>
+  <si>
+    <t>18.02.20264</t>
+  </si>
+  <si>
+    <t>18.02.20265</t>
+  </si>
+  <si>
+    <t>18.02.20266</t>
+  </si>
+  <si>
+    <t>18.02.20267</t>
+  </si>
+  <si>
+    <t>18.02.20268</t>
+  </si>
+  <si>
+    <t>18.02.20269</t>
+  </si>
+  <si>
+    <t>18.02.202610</t>
+  </si>
+  <si>
+    <t>18.02.202611</t>
+  </si>
+  <si>
+    <t>18.02.202612</t>
+  </si>
+  <si>
+    <t>18.02.202613</t>
+  </si>
+  <si>
+    <t>18.02.202614</t>
+  </si>
+  <si>
+    <t>18.02.202615</t>
+  </si>
+  <si>
+    <t>18.02.202616</t>
+  </si>
+  <si>
+    <t>18.02.202617</t>
+  </si>
+  <si>
+    <t>18.02.202618</t>
+  </si>
+  <si>
+    <t>18.02.202619</t>
+  </si>
+  <si>
+    <t>18.02.202620</t>
+  </si>
+  <si>
+    <t>18.02.202621</t>
+  </si>
+  <si>
+    <t>18.02.202622</t>
+  </si>
+  <si>
+    <t>18.02.202623</t>
+  </si>
+  <si>
+    <t>18.02.202624</t>
+  </si>
+  <si>
+    <t>18.02.202625</t>
+  </si>
+  <si>
+    <t>18.02.202626</t>
+  </si>
+  <si>
+    <t>18.02.202627</t>
+  </si>
+  <si>
+    <t>18.02.202628</t>
+  </si>
+  <si>
+    <t>18.02.202629</t>
+  </si>
+  <si>
+    <t>18.02.202630</t>
+  </si>
+  <si>
+    <t>18.02.202631</t>
+  </si>
+  <si>
+    <t>18.02.202632</t>
+  </si>
+  <si>
+    <t>18.02.202633</t>
+  </si>
+  <si>
+    <t>18.02.202634</t>
+  </si>
+  <si>
+    <t>18.02.202635</t>
+  </si>
+  <si>
+    <t>18.02.202636</t>
+  </si>
+  <si>
+    <t>18.02.202637</t>
+  </si>
+  <si>
+    <t>18.02.202638</t>
+  </si>
+  <si>
+    <t>18.02.202639</t>
+  </si>
+  <si>
+    <t>18.02.202640</t>
+  </si>
+  <si>
+    <t>18.02.202641</t>
+  </si>
+  <si>
+    <t>18.02.202642</t>
+  </si>
+  <si>
+    <t>18.02.202643</t>
+  </si>
+  <si>
+    <t>18.02.202644</t>
+  </si>
+  <si>
+    <t>18.02.202645</t>
+  </si>
+  <si>
+    <t>18.02.202646</t>
+  </si>
+  <si>
+    <t>18.02.202647</t>
+  </si>
+  <si>
+    <t>18.02.202648</t>
+  </si>
+  <si>
+    <t>18.02.202649</t>
+  </si>
+  <si>
+    <t>18.02.202650</t>
+  </si>
+  <si>
+    <t>18.02.202651</t>
+  </si>
+  <si>
+    <t>18.02.202652</t>
+  </si>
+  <si>
+    <t>18.02.202653</t>
+  </si>
+  <si>
+    <t>18.02.202654</t>
+  </si>
+  <si>
+    <t>18.02.202655</t>
+  </si>
+  <si>
+    <t>18.02.202656</t>
+  </si>
+  <si>
+    <t>18.02.202657</t>
+  </si>
+  <si>
+    <t>18.02.202658</t>
+  </si>
+  <si>
+    <t>18.02.202659</t>
+  </si>
+  <si>
+    <t>18.02.202660</t>
+  </si>
+  <si>
+    <t>18.02.202661</t>
+  </si>
+  <si>
+    <t>18.02.202662</t>
+  </si>
+  <si>
+    <t>18.02.202663</t>
+  </si>
+  <si>
+    <t>18.02.202664</t>
+  </si>
+  <si>
+    <t>18.02.202665</t>
+  </si>
+  <si>
+    <t>18.02.202666</t>
+  </si>
+  <si>
+    <t>18.02.202667</t>
+  </si>
+  <si>
+    <t>18.02.202668</t>
+  </si>
+  <si>
+    <t>18.02.202669</t>
+  </si>
+  <si>
+    <t>18.02.202670</t>
+  </si>
+  <si>
+    <t>18.02.202671</t>
+  </si>
+  <si>
+    <t>18.02.202672</t>
+  </si>
+  <si>
+    <t>18.02.202673</t>
+  </si>
+  <si>
+    <t>18.02.202674</t>
+  </si>
+  <si>
+    <t>18.02.202675</t>
+  </si>
+  <si>
+    <t>18.02.202676</t>
+  </si>
+  <si>
+    <t>18.02.202677</t>
+  </si>
+  <si>
+    <t>18.02.202678</t>
+  </si>
+  <si>
+    <t>18.02.202679</t>
+  </si>
+  <si>
+    <t>18.02.202680</t>
+  </si>
+  <si>
+    <t>18.02.202681</t>
+  </si>
+  <si>
+    <t>18.02.202682</t>
+  </si>
+  <si>
+    <t>18.02.202683</t>
+  </si>
+  <si>
+    <t>18.02.202684</t>
+  </si>
+  <si>
+    <t>18.02.202685</t>
+  </si>
+  <si>
+    <t>18.02.202686</t>
+  </si>
+  <si>
+    <t>18.02.202687</t>
+  </si>
+  <si>
+    <t>18.02.202688</t>
+  </si>
+  <si>
+    <t>18.02.202689</t>
+  </si>
+  <si>
+    <t>18.02.202690</t>
+  </si>
+  <si>
+    <t>18.02.202691</t>
+  </si>
+  <si>
+    <t>18.02.202692</t>
+  </si>
+  <si>
+    <t>18.02.202693</t>
+  </si>
+  <si>
+    <t>18.02.202694</t>
+  </si>
+  <si>
+    <t>18.02.202695</t>
+  </si>
+  <si>
+    <t>18.02.202696</t>
+  </si>
+  <si>
+    <t>18.02.20261</t>
+  </si>
+  <si>
+    <t>18.02.20262</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46068.99444444444</v>
+        <v>46069.99444444444</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46069.00486111111</v>
+        <v>46070.00486111111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46069.01527777778</v>
+        <v>46070.01527777778</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46069.02569444444</v>
+        <v>46070.02569444444</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46069.03611111111</v>
+        <v>46070.03611111111</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46069.04652777778</v>
+        <v>46070.04652777778</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46069.05694444444</v>
+        <v>46070.05694444444</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46069.06736111111</v>
+        <v>46070.06736111111</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46069.07777777778</v>
+        <v>46070.07777777778</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46069.08819444444</v>
+        <v>46070.08819444444</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46069.09861111111</v>
+        <v>46070.09861111111</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46069.10902777778</v>
+        <v>46070.10902777778</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46069.11944444444</v>
+        <v>46070.11944444444</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46069.12986111111</v>
+        <v>46070.12986111111</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46069.14027777778</v>
+        <v>46070.14027777778</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46069.15069444444</v>
+        <v>46070.15069444444</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46069.16111111111</v>
+        <v>46070.16111111111</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46069.17152777778</v>
+        <v>46070.17152777778</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46069.18194444444</v>
+        <v>46070.18194444444</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46069.19236111111</v>
+        <v>46070.19236111111</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46069.20277777778</v>
+        <v>46070.20277777778</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46069.21319444444</v>
+        <v>46070.21319444444</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46069.22361111111</v>
+        <v>46070.22361111111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46069.23402777778</v>
+        <v>46070.23402777778</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46069.24444444444</v>
+        <v>46070.24444444444</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46069.25486111111</v>
+        <v>46070.25486111111</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46069.26527777778</v>
+        <v>46070.26527777778</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46069.27569444444</v>
+        <v>46070.27569444444</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46069.28611111111</v>
+        <v>46070.28611111111</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46069.29652777778</v>
+        <v>46070.29652777778</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46069.30694444444</v>
+        <v>46070.30694444444</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46069.31736111111</v>
+        <v>46070.31736111111</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46069.32777777778</v>
+        <v>46070.32777777778</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46069.33819444444</v>
+        <v>46070.33819444444</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46069.34861111111</v>
+        <v>46070.34861111111</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46069.35902777778</v>
+        <v>46070.35902777778</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46069.36944444444</v>
+        <v>46070.36944444444</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46069.37986111111</v>
+        <v>46070.37986111111</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46069.39027777778</v>
+        <v>46070.39027777778</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46069.40069444444</v>
+        <v>46070.40069444444</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46069.41111111111</v>
+        <v>46070.41111111111</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46069.42152777778</v>
+        <v>46070.42152777778</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46069.43194444444</v>
+        <v>46070.43194444444</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46069.44236111111</v>
+        <v>46070.44236111111</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46069.45277777778</v>
+        <v>46070.45277777778</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46069.46319444444</v>
+        <v>46070.46319444444</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46069.47361111111</v>
+        <v>46070.47361111111</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46069.48402777778</v>
+        <v>46070.48402777778</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46069.49444444444</v>
+        <v>46070.49444444444</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46069.50486111111</v>
+        <v>46070.50486111111</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46069.51527777778</v>
+        <v>46070.51527777778</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46069.52569444444</v>
+        <v>46070.52569444444</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46069.53611111111</v>
+        <v>46070.53611111111</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46069.54652777778</v>
+        <v>46070.54652777778</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46069.55694444444</v>
+        <v>46070.55694444444</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46069.56736111111</v>
+        <v>46070.56736111111</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46069.57777777778</v>
+        <v>46070.57777777778</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46069.58819444444</v>
+        <v>46070.58819444444</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46069.59861111111</v>
+        <v>46070.59861111111</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46069.60902777778</v>
+        <v>46070.60902777778</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46069.61944444444</v>
+        <v>46070.61944444444</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46069.62986111111</v>
+        <v>46070.62986111111</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46069.64027777778</v>
+        <v>46070.64027777778</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46069.65069444444</v>
+        <v>46070.65069444444</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46069.66111111111</v>
+        <v>46070.66111111111</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46069.67152777778</v>
+        <v>46070.67152777778</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46069.68194444444</v>
+        <v>46070.68194444444</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46069.69236111111</v>
+        <v>46070.69236111111</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46069.70277777778</v>
+        <v>46070.70277777778</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46069.71319444444</v>
+        <v>46070.71319444444</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46069.72361111111</v>
+        <v>46070.72361111111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46069.73402777778</v>
+        <v>46070.73402777778</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46069.74444444444</v>
+        <v>46070.74444444444</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46069.75486111111</v>
+        <v>46070.75486111111</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46069.76527777778</v>
+        <v>46070.76527777778</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46069.77569444444</v>
+        <v>46070.77569444444</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46069.78611111111</v>
+        <v>46070.78611111111</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46069.79652777778</v>
+        <v>46070.79652777778</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46069.80694444444</v>
+        <v>46070.80694444444</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46069.81736111111</v>
+        <v>46070.81736111111</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46069.82777777778</v>
+        <v>46070.82777777778</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46069.83819444444</v>
+        <v>46070.83819444444</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46069.84861111111</v>
+        <v>46070.84861111111</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46069.85902777778</v>
+        <v>46070.85902777778</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46069.86944444444</v>
+        <v>46070.86944444444</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46069.87986111111</v>
+        <v>46070.87986111111</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46069.89027777778</v>
+        <v>46070.89027777778</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46069.90069444444</v>
+        <v>46070.90069444444</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46069.91111111111</v>
+        <v>46070.91111111111</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46069.92152777778</v>
+        <v>46070.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46069.93194444444</v>
+        <v>46070.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46069.94236111111</v>
+        <v>46070.94236111111</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46069.95277777778</v>
+        <v>46070.95277777778</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46069.96319444444</v>
+        <v>46070.96319444444</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46069.97361111111</v>
+        <v>46070.97361111111</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46069.98402777778</v>
+        <v>46070.98402777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46069.99444444444</v>
+        <v>46070.99444444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46069.99444444444</v>
+        <v>46070.99444444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46070.00486111111</v>
+        <v>46071.00486111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46070.01527777778</v>
+        <v>46071.01527777778</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46070.02569444444</v>
+        <v>46071.02569444444</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46070.03611111111</v>
+        <v>46071.03611111111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46070.04652777778</v>
+        <v>46071.04652777778</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46070.05694444444</v>
+        <v>46071.05694444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46070.06736111111</v>
+        <v>46071.06736111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46070.07777777778</v>
+        <v>46071.07777777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46070.08819444444</v>
+        <v>46071.08819444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46070.09861111111</v>
+        <v>46071.09861111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46070.10902777778</v>
+        <v>46071.10902777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46070.11944444444</v>
+        <v>46071.11944444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46070.12986111111</v>
+        <v>46071.12986111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46070.14027777778</v>
+        <v>46071.14027777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46070.15069444444</v>
+        <v>46071.15069444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46070.16111111111</v>
+        <v>46071.16111111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46070.17152777778</v>
+        <v>46071.17152777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46070.18194444444</v>
+        <v>46071.18194444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46070.19236111111</v>
+        <v>46071.19236111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46070.20277777778</v>
+        <v>46071.20277777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46070.21319444444</v>
+        <v>46071.21319444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46070.22361111111</v>
+        <v>46071.22361111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46070.23402777778</v>
+        <v>46071.23402777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46070.24444444444</v>
+        <v>46071.24444444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46070.25486111111</v>
+        <v>46071.25486111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46070.26527777778</v>
+        <v>46071.26527777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46070.27569444444</v>
+        <v>46071.27569444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46070.28611111111</v>
+        <v>46071.28611111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46070.29652777778</v>
+        <v>46071.29652777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46070.30694444444</v>
+        <v>46071.30694444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46070.31736111111</v>
+        <v>46071.31736111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46070.32777777778</v>
+        <v>46071.32777777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46070.33819444444</v>
+        <v>46071.33819444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46070.34861111111</v>
+        <v>46071.34861111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46070.35902777778</v>
+        <v>46071.35902777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46070.36944444444</v>
+        <v>46071.36944444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46070.37986111111</v>
+        <v>46071.37986111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46070.39027777778</v>
+        <v>46071.39027777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46070.40069444444</v>
+        <v>46071.40069444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46070.41111111111</v>
+        <v>46071.41111111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46070.42152777778</v>
+        <v>46071.42152777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46070.43194444444</v>
+        <v>46071.43194444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46070.44236111111</v>
+        <v>46071.44236111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46070.45277777778</v>
+        <v>46071.45277777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46070.46319444444</v>
+        <v>46071.46319444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46070.47361111111</v>
+        <v>46071.47361111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46070.48402777778</v>
+        <v>46071.48402777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46070.49444444444</v>
+        <v>46071.49444444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46070.50486111111</v>
+        <v>46071.50486111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46070.51527777778</v>
+        <v>46071.51527777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46070.52569444444</v>
+        <v>46071.52569444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46070.53611111111</v>
+        <v>46071.53611111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46070.54652777778</v>
+        <v>46071.54652777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46070.55694444444</v>
+        <v>46071.55694444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46070.56736111111</v>
+        <v>46071.56736111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46070.57777777778</v>
+        <v>46071.57777777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46070.58819444444</v>
+        <v>46071.58819444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46070.59861111111</v>
+        <v>46071.59861111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46070.60902777778</v>
+        <v>46071.60902777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46070.61944444444</v>
+        <v>46071.61944444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46070.62986111111</v>
+        <v>46071.62986111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46070.64027777778</v>
+        <v>46071.64027777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46070.65069444444</v>
+        <v>46071.65069444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46070.66111111111</v>
+        <v>46071.66111111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46070.67152777778</v>
+        <v>46071.67152777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46070.68194444444</v>
+        <v>46071.68194444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46070.69236111111</v>
+        <v>46071.69236111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46070.70277777778</v>
+        <v>46071.70277777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46070.71319444444</v>
+        <v>46071.71319444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46070.72361111111</v>
+        <v>46071.72361111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46070.73402777778</v>
+        <v>46071.73402777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46070.74444444444</v>
+        <v>46071.74444444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46070.75486111111</v>
+        <v>46071.75486111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46070.76527777778</v>
+        <v>46071.76527777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46070.77569444444</v>
+        <v>46071.77569444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46070.78611111111</v>
+        <v>46071.78611111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46070.79652777778</v>
+        <v>46071.79652777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46070.80694444444</v>
+        <v>46071.80694444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46070.81736111111</v>
+        <v>46071.81736111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46070.82777777778</v>
+        <v>46071.82777777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46070.83819444444</v>
+        <v>46071.83819444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46070.84861111111</v>
+        <v>46071.84861111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46070.85902777778</v>
+        <v>46071.85902777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46070.86944444444</v>
+        <v>46071.86944444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46070.87986111111</v>
+        <v>46071.87986111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46070.89027777778</v>
+        <v>46071.89027777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46070.90069444444</v>
+        <v>46071.90069444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46070.91111111111</v>
+        <v>46071.91111111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46070.92152777778</v>
+        <v>46071.92152777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46070.93194444444</v>
+        <v>46071.93194444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46070.94236111111</v>
+        <v>46071.94236111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46070.95277777778</v>
+        <v>46071.95277777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46070.96319444444</v>
+        <v>46071.96319444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46070.97361111111</v>
+        <v>46071.97361111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46070.98402777778</v>
+        <v>46071.98402777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46070.99444444444</v>
+        <v>46071.99444444444</v>
       </c>
       <c r="B195">
         <v>0</v>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -31,583 +31,583 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>16.02.20261</t>
-  </si>
-  <si>
-    <t>17.02.20262</t>
-  </si>
-  <si>
-    <t>17.02.20263</t>
-  </si>
-  <si>
-    <t>17.02.20264</t>
-  </si>
-  <si>
-    <t>17.02.20265</t>
-  </si>
-  <si>
-    <t>17.02.20266</t>
-  </si>
-  <si>
-    <t>17.02.20267</t>
-  </si>
-  <si>
-    <t>17.02.20268</t>
-  </si>
-  <si>
-    <t>17.02.20269</t>
-  </si>
-  <si>
-    <t>17.02.202610</t>
-  </si>
-  <si>
-    <t>17.02.202611</t>
-  </si>
-  <si>
-    <t>17.02.202612</t>
-  </si>
-  <si>
-    <t>17.02.202613</t>
-  </si>
-  <si>
-    <t>17.02.202614</t>
-  </si>
-  <si>
-    <t>17.02.202615</t>
-  </si>
-  <si>
-    <t>17.02.202616</t>
-  </si>
-  <si>
-    <t>17.02.202617</t>
-  </si>
-  <si>
-    <t>17.02.202618</t>
-  </si>
-  <si>
-    <t>17.02.202619</t>
-  </si>
-  <si>
-    <t>17.02.202620</t>
-  </si>
-  <si>
-    <t>17.02.202621</t>
-  </si>
-  <si>
-    <t>17.02.202622</t>
-  </si>
-  <si>
-    <t>17.02.202623</t>
-  </si>
-  <si>
-    <t>17.02.202624</t>
-  </si>
-  <si>
-    <t>17.02.202625</t>
-  </si>
-  <si>
-    <t>17.02.202626</t>
-  </si>
-  <si>
-    <t>17.02.202627</t>
-  </si>
-  <si>
-    <t>17.02.202628</t>
-  </si>
-  <si>
-    <t>17.02.202629</t>
-  </si>
-  <si>
-    <t>17.02.202630</t>
-  </si>
-  <si>
-    <t>17.02.202631</t>
-  </si>
-  <si>
-    <t>17.02.202632</t>
-  </si>
-  <si>
-    <t>17.02.202633</t>
-  </si>
-  <si>
-    <t>17.02.202634</t>
-  </si>
-  <si>
-    <t>17.02.202635</t>
-  </si>
-  <si>
-    <t>17.02.202636</t>
-  </si>
-  <si>
-    <t>17.02.202637</t>
-  </si>
-  <si>
-    <t>17.02.202638</t>
-  </si>
-  <si>
-    <t>17.02.202639</t>
-  </si>
-  <si>
-    <t>17.02.202640</t>
-  </si>
-  <si>
-    <t>17.02.202641</t>
-  </si>
-  <si>
-    <t>17.02.202642</t>
-  </si>
-  <si>
-    <t>17.02.202643</t>
-  </si>
-  <si>
-    <t>17.02.202644</t>
-  </si>
-  <si>
-    <t>17.02.202645</t>
-  </si>
-  <si>
-    <t>17.02.202646</t>
-  </si>
-  <si>
-    <t>17.02.202647</t>
-  </si>
-  <si>
-    <t>17.02.202648</t>
-  </si>
-  <si>
-    <t>17.02.202649</t>
-  </si>
-  <si>
-    <t>17.02.202650</t>
-  </si>
-  <si>
-    <t>17.02.202651</t>
-  </si>
-  <si>
-    <t>17.02.202652</t>
-  </si>
-  <si>
-    <t>17.02.202653</t>
-  </si>
-  <si>
-    <t>17.02.202654</t>
-  </si>
-  <si>
-    <t>17.02.202655</t>
-  </si>
-  <si>
-    <t>17.02.202656</t>
-  </si>
-  <si>
-    <t>17.02.202657</t>
-  </si>
-  <si>
-    <t>17.02.202658</t>
-  </si>
-  <si>
-    <t>17.02.202659</t>
-  </si>
-  <si>
-    <t>17.02.202660</t>
-  </si>
-  <si>
-    <t>17.02.202661</t>
-  </si>
-  <si>
-    <t>17.02.202662</t>
-  </si>
-  <si>
-    <t>17.02.202663</t>
-  </si>
-  <si>
-    <t>17.02.202664</t>
-  </si>
-  <si>
-    <t>17.02.202665</t>
-  </si>
-  <si>
-    <t>17.02.202666</t>
-  </si>
-  <si>
-    <t>17.02.202667</t>
-  </si>
-  <si>
-    <t>17.02.202668</t>
-  </si>
-  <si>
-    <t>17.02.202669</t>
-  </si>
-  <si>
-    <t>17.02.202670</t>
-  </si>
-  <si>
-    <t>17.02.202671</t>
-  </si>
-  <si>
-    <t>17.02.202672</t>
-  </si>
-  <si>
-    <t>17.02.202673</t>
-  </si>
-  <si>
-    <t>17.02.202674</t>
-  </si>
-  <si>
-    <t>17.02.202675</t>
-  </si>
-  <si>
-    <t>17.02.202676</t>
-  </si>
-  <si>
-    <t>17.02.202677</t>
-  </si>
-  <si>
-    <t>17.02.202678</t>
-  </si>
-  <si>
-    <t>17.02.202679</t>
-  </si>
-  <si>
-    <t>17.02.202680</t>
-  </si>
-  <si>
-    <t>17.02.202681</t>
-  </si>
-  <si>
-    <t>17.02.202682</t>
-  </si>
-  <si>
-    <t>17.02.202683</t>
-  </si>
-  <si>
-    <t>17.02.202684</t>
-  </si>
-  <si>
-    <t>17.02.202685</t>
-  </si>
-  <si>
-    <t>17.02.202686</t>
-  </si>
-  <si>
-    <t>17.02.202687</t>
-  </si>
-  <si>
-    <t>17.02.202688</t>
-  </si>
-  <si>
-    <t>17.02.202689</t>
-  </si>
-  <si>
-    <t>17.02.202690</t>
-  </si>
-  <si>
-    <t>17.02.202691</t>
-  </si>
-  <si>
-    <t>17.02.202692</t>
-  </si>
-  <si>
-    <t>17.02.202693</t>
-  </si>
-  <si>
-    <t>17.02.202694</t>
-  </si>
-  <si>
-    <t>17.02.202695</t>
-  </si>
-  <si>
-    <t>17.02.202696</t>
-  </si>
-  <si>
-    <t>17.02.20261</t>
-  </si>
-  <si>
-    <t>18.02.20263</t>
-  </si>
-  <si>
-    <t>18.02.20264</t>
-  </si>
-  <si>
-    <t>18.02.20265</t>
-  </si>
-  <si>
-    <t>18.02.20266</t>
-  </si>
-  <si>
-    <t>18.02.20267</t>
-  </si>
-  <si>
-    <t>18.02.20268</t>
-  </si>
-  <si>
-    <t>18.02.20269</t>
-  </si>
-  <si>
-    <t>18.02.202610</t>
-  </si>
-  <si>
-    <t>18.02.202611</t>
-  </si>
-  <si>
-    <t>18.02.202612</t>
-  </si>
-  <si>
-    <t>18.02.202613</t>
-  </si>
-  <si>
-    <t>18.02.202614</t>
-  </si>
-  <si>
-    <t>18.02.202615</t>
-  </si>
-  <si>
-    <t>18.02.202616</t>
-  </si>
-  <si>
-    <t>18.02.202617</t>
-  </si>
-  <si>
-    <t>18.02.202618</t>
-  </si>
-  <si>
-    <t>18.02.202619</t>
-  </si>
-  <si>
-    <t>18.02.202620</t>
-  </si>
-  <si>
-    <t>18.02.202621</t>
-  </si>
-  <si>
-    <t>18.02.202622</t>
-  </si>
-  <si>
-    <t>18.02.202623</t>
-  </si>
-  <si>
-    <t>18.02.202624</t>
-  </si>
-  <si>
-    <t>18.02.202625</t>
-  </si>
-  <si>
-    <t>18.02.202626</t>
-  </si>
-  <si>
-    <t>18.02.202627</t>
-  </si>
-  <si>
-    <t>18.02.202628</t>
-  </si>
-  <si>
-    <t>18.02.202629</t>
-  </si>
-  <si>
-    <t>18.02.202630</t>
-  </si>
-  <si>
-    <t>18.02.202631</t>
-  </si>
-  <si>
-    <t>18.02.202632</t>
-  </si>
-  <si>
-    <t>18.02.202633</t>
-  </si>
-  <si>
-    <t>18.02.202634</t>
-  </si>
-  <si>
-    <t>18.02.202635</t>
-  </si>
-  <si>
-    <t>18.02.202636</t>
-  </si>
-  <si>
-    <t>18.02.202637</t>
-  </si>
-  <si>
-    <t>18.02.202638</t>
-  </si>
-  <si>
-    <t>18.02.202639</t>
-  </si>
-  <si>
-    <t>18.02.202640</t>
-  </si>
-  <si>
-    <t>18.02.202641</t>
-  </si>
-  <si>
-    <t>18.02.202642</t>
-  </si>
-  <si>
-    <t>18.02.202643</t>
-  </si>
-  <si>
-    <t>18.02.202644</t>
-  </si>
-  <si>
-    <t>18.02.202645</t>
-  </si>
-  <si>
-    <t>18.02.202646</t>
-  </si>
-  <si>
-    <t>18.02.202647</t>
-  </si>
-  <si>
-    <t>18.02.202648</t>
-  </si>
-  <si>
-    <t>18.02.202649</t>
-  </si>
-  <si>
-    <t>18.02.202650</t>
-  </si>
-  <si>
-    <t>18.02.202651</t>
-  </si>
-  <si>
-    <t>18.02.202652</t>
-  </si>
-  <si>
-    <t>18.02.202653</t>
-  </si>
-  <si>
-    <t>18.02.202654</t>
-  </si>
-  <si>
-    <t>18.02.202655</t>
-  </si>
-  <si>
-    <t>18.02.202656</t>
-  </si>
-  <si>
-    <t>18.02.202657</t>
-  </si>
-  <si>
-    <t>18.02.202658</t>
-  </si>
-  <si>
-    <t>18.02.202659</t>
-  </si>
-  <si>
-    <t>18.02.202660</t>
-  </si>
-  <si>
-    <t>18.02.202661</t>
-  </si>
-  <si>
-    <t>18.02.202662</t>
-  </si>
-  <si>
-    <t>18.02.202663</t>
-  </si>
-  <si>
-    <t>18.02.202664</t>
-  </si>
-  <si>
-    <t>18.02.202665</t>
-  </si>
-  <si>
-    <t>18.02.202666</t>
-  </si>
-  <si>
-    <t>18.02.202667</t>
-  </si>
-  <si>
-    <t>18.02.202668</t>
-  </si>
-  <si>
-    <t>18.02.202669</t>
-  </si>
-  <si>
-    <t>18.02.202670</t>
-  </si>
-  <si>
-    <t>18.02.202671</t>
-  </si>
-  <si>
-    <t>18.02.202672</t>
-  </si>
-  <si>
-    <t>18.02.202673</t>
-  </si>
-  <si>
-    <t>18.02.202674</t>
-  </si>
-  <si>
-    <t>18.02.202675</t>
-  </si>
-  <si>
-    <t>18.02.202676</t>
-  </si>
-  <si>
-    <t>18.02.202677</t>
-  </si>
-  <si>
-    <t>18.02.202678</t>
-  </si>
-  <si>
-    <t>18.02.202679</t>
-  </si>
-  <si>
-    <t>18.02.202680</t>
-  </si>
-  <si>
-    <t>18.02.202681</t>
-  </si>
-  <si>
-    <t>18.02.202682</t>
-  </si>
-  <si>
-    <t>18.02.202683</t>
-  </si>
-  <si>
-    <t>18.02.202684</t>
-  </si>
-  <si>
-    <t>18.02.202685</t>
-  </si>
-  <si>
-    <t>18.02.202686</t>
-  </si>
-  <si>
-    <t>18.02.202687</t>
-  </si>
-  <si>
-    <t>18.02.202688</t>
-  </si>
-  <si>
-    <t>18.02.202689</t>
-  </si>
-  <si>
-    <t>18.02.202690</t>
-  </si>
-  <si>
-    <t>18.02.202691</t>
-  </si>
-  <si>
-    <t>18.02.202692</t>
-  </si>
-  <si>
-    <t>18.02.202693</t>
-  </si>
-  <si>
-    <t>18.02.202694</t>
-  </si>
-  <si>
-    <t>18.02.202695</t>
-  </si>
-  <si>
-    <t>18.02.202696</t>
-  </si>
-  <si>
     <t>18.02.20261</t>
   </si>
   <si>
-    <t>18.02.20262</t>
+    <t>19.02.20262</t>
+  </si>
+  <si>
+    <t>19.02.20263</t>
+  </si>
+  <si>
+    <t>19.02.20264</t>
+  </si>
+  <si>
+    <t>19.02.20265</t>
+  </si>
+  <si>
+    <t>19.02.20266</t>
+  </si>
+  <si>
+    <t>19.02.20267</t>
+  </si>
+  <si>
+    <t>19.02.20268</t>
+  </si>
+  <si>
+    <t>19.02.20269</t>
+  </si>
+  <si>
+    <t>19.02.202610</t>
+  </si>
+  <si>
+    <t>19.02.202611</t>
+  </si>
+  <si>
+    <t>19.02.202612</t>
+  </si>
+  <si>
+    <t>19.02.202613</t>
+  </si>
+  <si>
+    <t>19.02.202614</t>
+  </si>
+  <si>
+    <t>19.02.202615</t>
+  </si>
+  <si>
+    <t>19.02.202616</t>
+  </si>
+  <si>
+    <t>19.02.202617</t>
+  </si>
+  <si>
+    <t>19.02.202618</t>
+  </si>
+  <si>
+    <t>19.02.202619</t>
+  </si>
+  <si>
+    <t>19.02.202620</t>
+  </si>
+  <si>
+    <t>19.02.202621</t>
+  </si>
+  <si>
+    <t>19.02.202622</t>
+  </si>
+  <si>
+    <t>19.02.202623</t>
+  </si>
+  <si>
+    <t>19.02.202624</t>
+  </si>
+  <si>
+    <t>19.02.202625</t>
+  </si>
+  <si>
+    <t>19.02.202626</t>
+  </si>
+  <si>
+    <t>19.02.202627</t>
+  </si>
+  <si>
+    <t>19.02.202628</t>
+  </si>
+  <si>
+    <t>19.02.202629</t>
+  </si>
+  <si>
+    <t>19.02.202630</t>
+  </si>
+  <si>
+    <t>19.02.202631</t>
+  </si>
+  <si>
+    <t>19.02.202632</t>
+  </si>
+  <si>
+    <t>19.02.202633</t>
+  </si>
+  <si>
+    <t>19.02.202634</t>
+  </si>
+  <si>
+    <t>19.02.202635</t>
+  </si>
+  <si>
+    <t>19.02.202636</t>
+  </si>
+  <si>
+    <t>19.02.202637</t>
+  </si>
+  <si>
+    <t>19.02.202638</t>
+  </si>
+  <si>
+    <t>19.02.202639</t>
+  </si>
+  <si>
+    <t>19.02.202640</t>
+  </si>
+  <si>
+    <t>19.02.202641</t>
+  </si>
+  <si>
+    <t>19.02.202642</t>
+  </si>
+  <si>
+    <t>19.02.202643</t>
+  </si>
+  <si>
+    <t>19.02.202644</t>
+  </si>
+  <si>
+    <t>19.02.202645</t>
+  </si>
+  <si>
+    <t>19.02.202646</t>
+  </si>
+  <si>
+    <t>19.02.202647</t>
+  </si>
+  <si>
+    <t>19.02.202648</t>
+  </si>
+  <si>
+    <t>19.02.202649</t>
+  </si>
+  <si>
+    <t>19.02.202650</t>
+  </si>
+  <si>
+    <t>19.02.202651</t>
+  </si>
+  <si>
+    <t>19.02.202652</t>
+  </si>
+  <si>
+    <t>19.02.202653</t>
+  </si>
+  <si>
+    <t>19.02.202654</t>
+  </si>
+  <si>
+    <t>19.02.202655</t>
+  </si>
+  <si>
+    <t>19.02.202656</t>
+  </si>
+  <si>
+    <t>19.02.202657</t>
+  </si>
+  <si>
+    <t>19.02.202658</t>
+  </si>
+  <si>
+    <t>19.02.202659</t>
+  </si>
+  <si>
+    <t>19.02.202660</t>
+  </si>
+  <si>
+    <t>19.02.202661</t>
+  </si>
+  <si>
+    <t>19.02.202662</t>
+  </si>
+  <si>
+    <t>19.02.202663</t>
+  </si>
+  <si>
+    <t>19.02.202664</t>
+  </si>
+  <si>
+    <t>19.02.202665</t>
+  </si>
+  <si>
+    <t>19.02.202666</t>
+  </si>
+  <si>
+    <t>19.02.202667</t>
+  </si>
+  <si>
+    <t>19.02.202668</t>
+  </si>
+  <si>
+    <t>19.02.202669</t>
+  </si>
+  <si>
+    <t>19.02.202670</t>
+  </si>
+  <si>
+    <t>19.02.202671</t>
+  </si>
+  <si>
+    <t>19.02.202672</t>
+  </si>
+  <si>
+    <t>19.02.202673</t>
+  </si>
+  <si>
+    <t>19.02.202674</t>
+  </si>
+  <si>
+    <t>19.02.202675</t>
+  </si>
+  <si>
+    <t>19.02.202676</t>
+  </si>
+  <si>
+    <t>19.02.202677</t>
+  </si>
+  <si>
+    <t>19.02.202678</t>
+  </si>
+  <si>
+    <t>19.02.202679</t>
+  </si>
+  <si>
+    <t>19.02.202680</t>
+  </si>
+  <si>
+    <t>19.02.202681</t>
+  </si>
+  <si>
+    <t>19.02.202682</t>
+  </si>
+  <si>
+    <t>19.02.202683</t>
+  </si>
+  <si>
+    <t>19.02.202684</t>
+  </si>
+  <si>
+    <t>19.02.202685</t>
+  </si>
+  <si>
+    <t>19.02.202686</t>
+  </si>
+  <si>
+    <t>19.02.202687</t>
+  </si>
+  <si>
+    <t>19.02.202688</t>
+  </si>
+  <si>
+    <t>19.02.202689</t>
+  </si>
+  <si>
+    <t>19.02.202690</t>
+  </si>
+  <si>
+    <t>19.02.202691</t>
+  </si>
+  <si>
+    <t>19.02.202692</t>
+  </si>
+  <si>
+    <t>19.02.202693</t>
+  </si>
+  <si>
+    <t>19.02.202694</t>
+  </si>
+  <si>
+    <t>19.02.202695</t>
+  </si>
+  <si>
+    <t>19.02.202696</t>
+  </si>
+  <si>
+    <t>19.02.20261</t>
+  </si>
+  <si>
+    <t>20.02.20263</t>
+  </si>
+  <si>
+    <t>20.02.20264</t>
+  </si>
+  <si>
+    <t>20.02.20265</t>
+  </si>
+  <si>
+    <t>20.02.20266</t>
+  </si>
+  <si>
+    <t>20.02.20267</t>
+  </si>
+  <si>
+    <t>20.02.20268</t>
+  </si>
+  <si>
+    <t>20.02.20269</t>
+  </si>
+  <si>
+    <t>20.02.202610</t>
+  </si>
+  <si>
+    <t>20.02.202611</t>
+  </si>
+  <si>
+    <t>20.02.202612</t>
+  </si>
+  <si>
+    <t>20.02.202613</t>
+  </si>
+  <si>
+    <t>20.02.202614</t>
+  </si>
+  <si>
+    <t>20.02.202615</t>
+  </si>
+  <si>
+    <t>20.02.202616</t>
+  </si>
+  <si>
+    <t>20.02.202617</t>
+  </si>
+  <si>
+    <t>20.02.202618</t>
+  </si>
+  <si>
+    <t>20.02.202619</t>
+  </si>
+  <si>
+    <t>20.02.202620</t>
+  </si>
+  <si>
+    <t>20.02.202621</t>
+  </si>
+  <si>
+    <t>20.02.202622</t>
+  </si>
+  <si>
+    <t>20.02.202623</t>
+  </si>
+  <si>
+    <t>20.02.202624</t>
+  </si>
+  <si>
+    <t>20.02.202625</t>
+  </si>
+  <si>
+    <t>20.02.202626</t>
+  </si>
+  <si>
+    <t>20.02.202627</t>
+  </si>
+  <si>
+    <t>20.02.202628</t>
+  </si>
+  <si>
+    <t>20.02.202629</t>
+  </si>
+  <si>
+    <t>20.02.202630</t>
+  </si>
+  <si>
+    <t>20.02.202631</t>
+  </si>
+  <si>
+    <t>20.02.202632</t>
+  </si>
+  <si>
+    <t>20.02.202633</t>
+  </si>
+  <si>
+    <t>20.02.202634</t>
+  </si>
+  <si>
+    <t>20.02.202635</t>
+  </si>
+  <si>
+    <t>20.02.202636</t>
+  </si>
+  <si>
+    <t>20.02.202637</t>
+  </si>
+  <si>
+    <t>20.02.202638</t>
+  </si>
+  <si>
+    <t>20.02.202639</t>
+  </si>
+  <si>
+    <t>20.02.202640</t>
+  </si>
+  <si>
+    <t>20.02.202641</t>
+  </si>
+  <si>
+    <t>20.02.202642</t>
+  </si>
+  <si>
+    <t>20.02.202643</t>
+  </si>
+  <si>
+    <t>20.02.202644</t>
+  </si>
+  <si>
+    <t>20.02.202645</t>
+  </si>
+  <si>
+    <t>20.02.202646</t>
+  </si>
+  <si>
+    <t>20.02.202647</t>
+  </si>
+  <si>
+    <t>20.02.202648</t>
+  </si>
+  <si>
+    <t>20.02.202649</t>
+  </si>
+  <si>
+    <t>20.02.202650</t>
+  </si>
+  <si>
+    <t>20.02.202651</t>
+  </si>
+  <si>
+    <t>20.02.202652</t>
+  </si>
+  <si>
+    <t>20.02.202653</t>
+  </si>
+  <si>
+    <t>20.02.202654</t>
+  </si>
+  <si>
+    <t>20.02.202655</t>
+  </si>
+  <si>
+    <t>20.02.202656</t>
+  </si>
+  <si>
+    <t>20.02.202657</t>
+  </si>
+  <si>
+    <t>20.02.202658</t>
+  </si>
+  <si>
+    <t>20.02.202659</t>
+  </si>
+  <si>
+    <t>20.02.202660</t>
+  </si>
+  <si>
+    <t>20.02.202661</t>
+  </si>
+  <si>
+    <t>20.02.202662</t>
+  </si>
+  <si>
+    <t>20.02.202663</t>
+  </si>
+  <si>
+    <t>20.02.202664</t>
+  </si>
+  <si>
+    <t>20.02.202665</t>
+  </si>
+  <si>
+    <t>20.02.202666</t>
+  </si>
+  <si>
+    <t>20.02.202667</t>
+  </si>
+  <si>
+    <t>20.02.202668</t>
+  </si>
+  <si>
+    <t>20.02.202669</t>
+  </si>
+  <si>
+    <t>20.02.202670</t>
+  </si>
+  <si>
+    <t>20.02.202671</t>
+  </si>
+  <si>
+    <t>20.02.202672</t>
+  </si>
+  <si>
+    <t>20.02.202673</t>
+  </si>
+  <si>
+    <t>20.02.202674</t>
+  </si>
+  <si>
+    <t>20.02.202675</t>
+  </si>
+  <si>
+    <t>20.02.202676</t>
+  </si>
+  <si>
+    <t>20.02.202677</t>
+  </si>
+  <si>
+    <t>20.02.202678</t>
+  </si>
+  <si>
+    <t>20.02.202679</t>
+  </si>
+  <si>
+    <t>20.02.202680</t>
+  </si>
+  <si>
+    <t>20.02.202681</t>
+  </si>
+  <si>
+    <t>20.02.202682</t>
+  </si>
+  <si>
+    <t>20.02.202683</t>
+  </si>
+  <si>
+    <t>20.02.202684</t>
+  </si>
+  <si>
+    <t>20.02.202685</t>
+  </si>
+  <si>
+    <t>20.02.202686</t>
+  </si>
+  <si>
+    <t>20.02.202687</t>
+  </si>
+  <si>
+    <t>20.02.202688</t>
+  </si>
+  <si>
+    <t>20.02.202689</t>
+  </si>
+  <si>
+    <t>20.02.202690</t>
+  </si>
+  <si>
+    <t>20.02.202691</t>
+  </si>
+  <si>
+    <t>20.02.202692</t>
+  </si>
+  <si>
+    <t>20.02.202693</t>
+  </si>
+  <si>
+    <t>20.02.202694</t>
+  </si>
+  <si>
+    <t>20.02.202695</t>
+  </si>
+  <si>
+    <t>20.02.202696</t>
+  </si>
+  <si>
+    <t>20.02.20261</t>
+  </si>
+  <si>
+    <t>20.02.20262</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46069.99444444444</v>
+        <v>46071.99444444444</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46070.00486111111</v>
+        <v>46072.00486111111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46070.01527777778</v>
+        <v>46072.01527777778</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46070.02569444444</v>
+        <v>46072.02569444444</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46070.03611111111</v>
+        <v>46072.03611111111</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46070.04652777778</v>
+        <v>46072.04652777778</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46070.05694444444</v>
+        <v>46072.05694444444</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46070.06736111111</v>
+        <v>46072.06736111111</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46070.07777777778</v>
+        <v>46072.07777777778</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46070.08819444444</v>
+        <v>46072.08819444444</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46070.09861111111</v>
+        <v>46072.09861111111</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46070.10902777778</v>
+        <v>46072.10902777778</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46070.11944444444</v>
+        <v>46072.11944444444</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46070.12986111111</v>
+        <v>46072.12986111111</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46070.14027777778</v>
+        <v>46072.14027777778</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46070.15069444444</v>
+        <v>46072.15069444444</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46070.16111111111</v>
+        <v>46072.16111111111</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46070.17152777778</v>
+        <v>46072.17152777778</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46070.18194444444</v>
+        <v>46072.18194444444</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46070.19236111111</v>
+        <v>46072.19236111111</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46070.20277777778</v>
+        <v>46072.20277777778</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46070.21319444444</v>
+        <v>46072.21319444444</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46070.22361111111</v>
+        <v>46072.22361111111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46070.23402777778</v>
+        <v>46072.23402777778</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46070.24444444444</v>
+        <v>46072.24444444444</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46070.25486111111</v>
+        <v>46072.25486111111</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46070.26527777778</v>
+        <v>46072.26527777778</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46070.27569444444</v>
+        <v>46072.27569444444</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46070.28611111111</v>
+        <v>46072.28611111111</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46070.29652777778</v>
+        <v>46072.29652777778</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46070.30694444444</v>
+        <v>46072.30694444444</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46070.31736111111</v>
+        <v>46072.31736111111</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46070.32777777778</v>
+        <v>46072.32777777778</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46070.33819444444</v>
+        <v>46072.33819444444</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46070.34861111111</v>
+        <v>46072.34861111111</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46070.35902777778</v>
+        <v>46072.35902777778</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46070.36944444444</v>
+        <v>46072.36944444444</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46070.37986111111</v>
+        <v>46072.37986111111</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46070.39027777778</v>
+        <v>46072.39027777778</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46070.40069444444</v>
+        <v>46072.40069444444</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46070.41111111111</v>
+        <v>46072.41111111111</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46070.42152777778</v>
+        <v>46072.42152777778</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46070.43194444444</v>
+        <v>46072.43194444444</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46070.44236111111</v>
+        <v>46072.44236111111</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46070.45277777778</v>
+        <v>46072.45277777778</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46070.46319444444</v>
+        <v>46072.46319444444</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46070.47361111111</v>
+        <v>46072.47361111111</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46070.48402777778</v>
+        <v>46072.48402777778</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46070.49444444444</v>
+        <v>46072.49444444444</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46070.50486111111</v>
+        <v>46072.50486111111</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46070.51527777778</v>
+        <v>46072.51527777778</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46070.52569444444</v>
+        <v>46072.52569444444</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46070.53611111111</v>
+        <v>46072.53611111111</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46070.54652777778</v>
+        <v>46072.54652777778</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46070.55694444444</v>
+        <v>46072.55694444444</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46070.56736111111</v>
+        <v>46072.56736111111</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46070.57777777778</v>
+        <v>46072.57777777778</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46070.58819444444</v>
+        <v>46072.58819444444</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46070.59861111111</v>
+        <v>46072.59861111111</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46070.60902777778</v>
+        <v>46072.60902777778</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46070.61944444444</v>
+        <v>46072.61944444444</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46070.62986111111</v>
+        <v>46072.62986111111</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46070.64027777778</v>
+        <v>46072.64027777778</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46070.65069444444</v>
+        <v>46072.65069444444</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46070.66111111111</v>
+        <v>46072.66111111111</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46070.67152777778</v>
+        <v>46072.67152777778</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46070.68194444444</v>
+        <v>46072.68194444444</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46070.69236111111</v>
+        <v>46072.69236111111</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46070.70277777778</v>
+        <v>46072.70277777778</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46070.71319444444</v>
+        <v>46072.71319444444</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46070.72361111111</v>
+        <v>46072.72361111111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46070.73402777778</v>
+        <v>46072.73402777778</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46070.74444444444</v>
+        <v>46072.74444444444</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46070.75486111111</v>
+        <v>46072.75486111111</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46070.76527777778</v>
+        <v>46072.76527777778</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46070.77569444444</v>
+        <v>46072.77569444444</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46070.78611111111</v>
+        <v>46072.78611111111</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46070.79652777778</v>
+        <v>46072.79652777778</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46070.80694444444</v>
+        <v>46072.80694444444</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46070.81736111111</v>
+        <v>46072.81736111111</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46070.82777777778</v>
+        <v>46072.82777777778</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46070.83819444444</v>
+        <v>46072.83819444444</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46070.84861111111</v>
+        <v>46072.84861111111</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46070.85902777778</v>
+        <v>46072.85902777778</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46070.86944444444</v>
+        <v>46072.86944444444</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46070.87986111111</v>
+        <v>46072.87986111111</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46070.89027777778</v>
+        <v>46072.89027777778</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46070.90069444444</v>
+        <v>46072.90069444444</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46070.91111111111</v>
+        <v>46072.91111111111</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46070.92152777778</v>
+        <v>46072.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46070.93194444444</v>
+        <v>46072.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46070.94236111111</v>
+        <v>46072.94236111111</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46070.95277777778</v>
+        <v>46072.95277777778</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46070.96319444444</v>
+        <v>46072.96319444444</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46070.97361111111</v>
+        <v>46072.97361111111</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46070.98402777778</v>
+        <v>46072.98402777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46070.99444444444</v>
+        <v>46072.99444444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46070.99444444444</v>
+        <v>46072.99444444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46071.00486111111</v>
+        <v>46073.00486111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46071.01527777778</v>
+        <v>46073.01527777778</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46071.02569444444</v>
+        <v>46073.02569444444</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46071.03611111111</v>
+        <v>46073.03611111111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46071.04652777778</v>
+        <v>46073.04652777778</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46071.05694444444</v>
+        <v>46073.05694444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46071.06736111111</v>
+        <v>46073.06736111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46071.07777777778</v>
+        <v>46073.07777777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46071.08819444444</v>
+        <v>46073.08819444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46071.09861111111</v>
+        <v>46073.09861111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46071.10902777778</v>
+        <v>46073.10902777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46071.11944444444</v>
+        <v>46073.11944444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46071.12986111111</v>
+        <v>46073.12986111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46071.14027777778</v>
+        <v>46073.14027777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46071.15069444444</v>
+        <v>46073.15069444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46071.16111111111</v>
+        <v>46073.16111111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46071.17152777778</v>
+        <v>46073.17152777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46071.18194444444</v>
+        <v>46073.18194444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46071.19236111111</v>
+        <v>46073.19236111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46071.20277777778</v>
+        <v>46073.20277777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46071.21319444444</v>
+        <v>46073.21319444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46071.22361111111</v>
+        <v>46073.22361111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46071.23402777778</v>
+        <v>46073.23402777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46071.24444444444</v>
+        <v>46073.24444444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46071.25486111111</v>
+        <v>46073.25486111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46071.26527777778</v>
+        <v>46073.26527777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46071.27569444444</v>
+        <v>46073.27569444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46071.28611111111</v>
+        <v>46073.28611111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46071.29652777778</v>
+        <v>46073.29652777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46071.30694444444</v>
+        <v>46073.30694444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46071.31736111111</v>
+        <v>46073.31736111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46071.32777777778</v>
+        <v>46073.32777777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46071.33819444444</v>
+        <v>46073.33819444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46071.34861111111</v>
+        <v>46073.34861111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46071.35902777778</v>
+        <v>46073.35902777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46071.36944444444</v>
+        <v>46073.36944444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46071.37986111111</v>
+        <v>46073.37986111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46071.39027777778</v>
+        <v>46073.39027777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46071.40069444444</v>
+        <v>46073.40069444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46071.41111111111</v>
+        <v>46073.41111111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46071.42152777778</v>
+        <v>46073.42152777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46071.43194444444</v>
+        <v>46073.43194444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46071.44236111111</v>
+        <v>46073.44236111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46071.45277777778</v>
+        <v>46073.45277777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46071.46319444444</v>
+        <v>46073.46319444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46071.47361111111</v>
+        <v>46073.47361111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46071.48402777778</v>
+        <v>46073.48402777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46071.49444444444</v>
+        <v>46073.49444444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46071.50486111111</v>
+        <v>46073.50486111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46071.51527777778</v>
+        <v>46073.51527777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46071.52569444444</v>
+        <v>46073.52569444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46071.53611111111</v>
+        <v>46073.53611111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46071.54652777778</v>
+        <v>46073.54652777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46071.55694444444</v>
+        <v>46073.55694444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46071.56736111111</v>
+        <v>46073.56736111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46071.57777777778</v>
+        <v>46073.57777777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46071.58819444444</v>
+        <v>46073.58819444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46071.59861111111</v>
+        <v>46073.59861111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46071.60902777778</v>
+        <v>46073.60902777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46071.61944444444</v>
+        <v>46073.61944444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46071.62986111111</v>
+        <v>46073.62986111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46071.64027777778</v>
+        <v>46073.64027777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46071.65069444444</v>
+        <v>46073.65069444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46071.66111111111</v>
+        <v>46073.66111111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46071.67152777778</v>
+        <v>46073.67152777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46071.68194444444</v>
+        <v>46073.68194444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46071.69236111111</v>
+        <v>46073.69236111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46071.70277777778</v>
+        <v>46073.70277777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46071.71319444444</v>
+        <v>46073.71319444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46071.72361111111</v>
+        <v>46073.72361111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46071.73402777778</v>
+        <v>46073.73402777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46071.74444444444</v>
+        <v>46073.74444444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46071.75486111111</v>
+        <v>46073.75486111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46071.76527777778</v>
+        <v>46073.76527777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46071.77569444444</v>
+        <v>46073.77569444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46071.78611111111</v>
+        <v>46073.78611111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46071.79652777778</v>
+        <v>46073.79652777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46071.80694444444</v>
+        <v>46073.80694444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46071.81736111111</v>
+        <v>46073.81736111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46071.82777777778</v>
+        <v>46073.82777777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46071.83819444444</v>
+        <v>46073.83819444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46071.84861111111</v>
+        <v>46073.84861111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46071.85902777778</v>
+        <v>46073.85902777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46071.86944444444</v>
+        <v>46073.86944444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46071.87986111111</v>
+        <v>46073.87986111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46071.89027777778</v>
+        <v>46073.89027777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46071.90069444444</v>
+        <v>46073.90069444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46071.91111111111</v>
+        <v>46073.91111111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46071.92152777778</v>
+        <v>46073.92152777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46071.93194444444</v>
+        <v>46073.93194444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46071.94236111111</v>
+        <v>46073.94236111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46071.95277777778</v>
+        <v>46073.95277777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46071.96319444444</v>
+        <v>46073.96319444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46071.97361111111</v>
+        <v>46073.97361111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46071.98402777778</v>
+        <v>46073.98402777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46071.99444444444</v>
+        <v>46073.99444444444</v>
       </c>
       <c r="B195">
         <v>0</v>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -31,297 +31,12 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>18.02.20261</t>
-  </si>
-  <si>
-    <t>19.02.20262</t>
-  </si>
-  <si>
-    <t>19.02.20263</t>
-  </si>
-  <si>
-    <t>19.02.20264</t>
-  </si>
-  <si>
-    <t>19.02.20265</t>
-  </si>
-  <si>
-    <t>19.02.20266</t>
-  </si>
-  <si>
-    <t>19.02.20267</t>
-  </si>
-  <si>
-    <t>19.02.20268</t>
-  </si>
-  <si>
-    <t>19.02.20269</t>
-  </si>
-  <si>
-    <t>19.02.202610</t>
-  </si>
-  <si>
-    <t>19.02.202611</t>
-  </si>
-  <si>
-    <t>19.02.202612</t>
-  </si>
-  <si>
-    <t>19.02.202613</t>
-  </si>
-  <si>
-    <t>19.02.202614</t>
-  </si>
-  <si>
-    <t>19.02.202615</t>
-  </si>
-  <si>
-    <t>19.02.202616</t>
-  </si>
-  <si>
-    <t>19.02.202617</t>
-  </si>
-  <si>
-    <t>19.02.202618</t>
-  </si>
-  <si>
-    <t>19.02.202619</t>
-  </si>
-  <si>
-    <t>19.02.202620</t>
-  </si>
-  <si>
-    <t>19.02.202621</t>
-  </si>
-  <si>
-    <t>19.02.202622</t>
-  </si>
-  <si>
-    <t>19.02.202623</t>
-  </si>
-  <si>
-    <t>19.02.202624</t>
-  </si>
-  <si>
-    <t>19.02.202625</t>
-  </si>
-  <si>
-    <t>19.02.202626</t>
-  </si>
-  <si>
-    <t>19.02.202627</t>
-  </si>
-  <si>
-    <t>19.02.202628</t>
-  </si>
-  <si>
-    <t>19.02.202629</t>
-  </si>
-  <si>
-    <t>19.02.202630</t>
-  </si>
-  <si>
-    <t>19.02.202631</t>
-  </si>
-  <si>
-    <t>19.02.202632</t>
-  </si>
-  <si>
-    <t>19.02.202633</t>
-  </si>
-  <si>
-    <t>19.02.202634</t>
-  </si>
-  <si>
-    <t>19.02.202635</t>
-  </si>
-  <si>
-    <t>19.02.202636</t>
-  </si>
-  <si>
-    <t>19.02.202637</t>
-  </si>
-  <si>
-    <t>19.02.202638</t>
-  </si>
-  <si>
-    <t>19.02.202639</t>
-  </si>
-  <si>
-    <t>19.02.202640</t>
-  </si>
-  <si>
-    <t>19.02.202641</t>
-  </si>
-  <si>
-    <t>19.02.202642</t>
-  </si>
-  <si>
-    <t>19.02.202643</t>
-  </si>
-  <si>
-    <t>19.02.202644</t>
-  </si>
-  <si>
-    <t>19.02.202645</t>
-  </si>
-  <si>
-    <t>19.02.202646</t>
-  </si>
-  <si>
-    <t>19.02.202647</t>
-  </si>
-  <si>
-    <t>19.02.202648</t>
-  </si>
-  <si>
-    <t>19.02.202649</t>
-  </si>
-  <si>
-    <t>19.02.202650</t>
-  </si>
-  <si>
-    <t>19.02.202651</t>
-  </si>
-  <si>
-    <t>19.02.202652</t>
-  </si>
-  <si>
-    <t>19.02.202653</t>
-  </si>
-  <si>
-    <t>19.02.202654</t>
-  </si>
-  <si>
-    <t>19.02.202655</t>
-  </si>
-  <si>
-    <t>19.02.202656</t>
-  </si>
-  <si>
-    <t>19.02.202657</t>
-  </si>
-  <si>
-    <t>19.02.202658</t>
-  </si>
-  <si>
-    <t>19.02.202659</t>
-  </si>
-  <si>
-    <t>19.02.202660</t>
-  </si>
-  <si>
-    <t>19.02.202661</t>
-  </si>
-  <si>
-    <t>19.02.202662</t>
-  </si>
-  <si>
-    <t>19.02.202663</t>
-  </si>
-  <si>
-    <t>19.02.202664</t>
-  </si>
-  <si>
-    <t>19.02.202665</t>
-  </si>
-  <si>
-    <t>19.02.202666</t>
-  </si>
-  <si>
-    <t>19.02.202667</t>
-  </si>
-  <si>
-    <t>19.02.202668</t>
-  </si>
-  <si>
-    <t>19.02.202669</t>
-  </si>
-  <si>
-    <t>19.02.202670</t>
-  </si>
-  <si>
-    <t>19.02.202671</t>
-  </si>
-  <si>
-    <t>19.02.202672</t>
-  </si>
-  <si>
-    <t>19.02.202673</t>
-  </si>
-  <si>
-    <t>19.02.202674</t>
-  </si>
-  <si>
-    <t>19.02.202675</t>
-  </si>
-  <si>
-    <t>19.02.202676</t>
-  </si>
-  <si>
-    <t>19.02.202677</t>
-  </si>
-  <si>
-    <t>19.02.202678</t>
-  </si>
-  <si>
-    <t>19.02.202679</t>
-  </si>
-  <si>
-    <t>19.02.202680</t>
-  </si>
-  <si>
-    <t>19.02.202681</t>
-  </si>
-  <si>
-    <t>19.02.202682</t>
-  </si>
-  <si>
-    <t>19.02.202683</t>
-  </si>
-  <si>
-    <t>19.02.202684</t>
-  </si>
-  <si>
-    <t>19.02.202685</t>
-  </si>
-  <si>
-    <t>19.02.202686</t>
-  </si>
-  <si>
-    <t>19.02.202687</t>
-  </si>
-  <si>
-    <t>19.02.202688</t>
-  </si>
-  <si>
-    <t>19.02.202689</t>
-  </si>
-  <si>
-    <t>19.02.202690</t>
-  </si>
-  <si>
-    <t>19.02.202691</t>
-  </si>
-  <si>
-    <t>19.02.202692</t>
-  </si>
-  <si>
-    <t>19.02.202693</t>
-  </si>
-  <si>
-    <t>19.02.202694</t>
-  </si>
-  <si>
-    <t>19.02.202695</t>
-  </si>
-  <si>
-    <t>19.02.202696</t>
-  </si>
-  <si>
     <t>19.02.20261</t>
   </si>
   <si>
+    <t>20.02.20262</t>
+  </si>
+  <si>
     <t>20.02.20263</t>
   </si>
   <si>
@@ -607,7 +322,292 @@
     <t>20.02.20261</t>
   </si>
   <si>
-    <t>20.02.20262</t>
+    <t>21.02.20263</t>
+  </si>
+  <si>
+    <t>21.02.20264</t>
+  </si>
+  <si>
+    <t>21.02.20265</t>
+  </si>
+  <si>
+    <t>21.02.20266</t>
+  </si>
+  <si>
+    <t>21.02.20267</t>
+  </si>
+  <si>
+    <t>21.02.20268</t>
+  </si>
+  <si>
+    <t>21.02.20269</t>
+  </si>
+  <si>
+    <t>21.02.202610</t>
+  </si>
+  <si>
+    <t>21.02.202611</t>
+  </si>
+  <si>
+    <t>21.02.202612</t>
+  </si>
+  <si>
+    <t>21.02.202613</t>
+  </si>
+  <si>
+    <t>21.02.202614</t>
+  </si>
+  <si>
+    <t>21.02.202615</t>
+  </si>
+  <si>
+    <t>21.02.202616</t>
+  </si>
+  <si>
+    <t>21.02.202617</t>
+  </si>
+  <si>
+    <t>21.02.202618</t>
+  </si>
+  <si>
+    <t>21.02.202619</t>
+  </si>
+  <si>
+    <t>21.02.202620</t>
+  </si>
+  <si>
+    <t>21.02.202621</t>
+  </si>
+  <si>
+    <t>21.02.202622</t>
+  </si>
+  <si>
+    <t>21.02.202623</t>
+  </si>
+  <si>
+    <t>21.02.202624</t>
+  </si>
+  <si>
+    <t>21.02.202625</t>
+  </si>
+  <si>
+    <t>21.02.202626</t>
+  </si>
+  <si>
+    <t>21.02.202627</t>
+  </si>
+  <si>
+    <t>21.02.202628</t>
+  </si>
+  <si>
+    <t>21.02.202629</t>
+  </si>
+  <si>
+    <t>21.02.202630</t>
+  </si>
+  <si>
+    <t>21.02.202631</t>
+  </si>
+  <si>
+    <t>21.02.202632</t>
+  </si>
+  <si>
+    <t>21.02.202633</t>
+  </si>
+  <si>
+    <t>21.02.202634</t>
+  </si>
+  <si>
+    <t>21.02.202635</t>
+  </si>
+  <si>
+    <t>21.02.202636</t>
+  </si>
+  <si>
+    <t>21.02.202637</t>
+  </si>
+  <si>
+    <t>21.02.202638</t>
+  </si>
+  <si>
+    <t>21.02.202639</t>
+  </si>
+  <si>
+    <t>21.02.202640</t>
+  </si>
+  <si>
+    <t>21.02.202641</t>
+  </si>
+  <si>
+    <t>21.02.202642</t>
+  </si>
+  <si>
+    <t>21.02.202643</t>
+  </si>
+  <si>
+    <t>21.02.202644</t>
+  </si>
+  <si>
+    <t>21.02.202645</t>
+  </si>
+  <si>
+    <t>21.02.202646</t>
+  </si>
+  <si>
+    <t>21.02.202647</t>
+  </si>
+  <si>
+    <t>21.02.202648</t>
+  </si>
+  <si>
+    <t>21.02.202649</t>
+  </si>
+  <si>
+    <t>21.02.202650</t>
+  </si>
+  <si>
+    <t>21.02.202651</t>
+  </si>
+  <si>
+    <t>21.02.202652</t>
+  </si>
+  <si>
+    <t>21.02.202653</t>
+  </si>
+  <si>
+    <t>21.02.202654</t>
+  </si>
+  <si>
+    <t>21.02.202655</t>
+  </si>
+  <si>
+    <t>21.02.202656</t>
+  </si>
+  <si>
+    <t>21.02.202657</t>
+  </si>
+  <si>
+    <t>21.02.202658</t>
+  </si>
+  <si>
+    <t>21.02.202659</t>
+  </si>
+  <si>
+    <t>21.02.202660</t>
+  </si>
+  <si>
+    <t>21.02.202661</t>
+  </si>
+  <si>
+    <t>21.02.202662</t>
+  </si>
+  <si>
+    <t>21.02.202663</t>
+  </si>
+  <si>
+    <t>21.02.202664</t>
+  </si>
+  <si>
+    <t>21.02.202665</t>
+  </si>
+  <si>
+    <t>21.02.202666</t>
+  </si>
+  <si>
+    <t>21.02.202667</t>
+  </si>
+  <si>
+    <t>21.02.202668</t>
+  </si>
+  <si>
+    <t>21.02.202669</t>
+  </si>
+  <si>
+    <t>21.02.202670</t>
+  </si>
+  <si>
+    <t>21.02.202671</t>
+  </si>
+  <si>
+    <t>21.02.202672</t>
+  </si>
+  <si>
+    <t>21.02.202673</t>
+  </si>
+  <si>
+    <t>21.02.202674</t>
+  </si>
+  <si>
+    <t>21.02.202675</t>
+  </si>
+  <si>
+    <t>21.02.202676</t>
+  </si>
+  <si>
+    <t>21.02.202677</t>
+  </si>
+  <si>
+    <t>21.02.202678</t>
+  </si>
+  <si>
+    <t>21.02.202679</t>
+  </si>
+  <si>
+    <t>21.02.202680</t>
+  </si>
+  <si>
+    <t>21.02.202681</t>
+  </si>
+  <si>
+    <t>21.02.202682</t>
+  </si>
+  <si>
+    <t>21.02.202683</t>
+  </si>
+  <si>
+    <t>21.02.202684</t>
+  </si>
+  <si>
+    <t>21.02.202685</t>
+  </si>
+  <si>
+    <t>21.02.202686</t>
+  </si>
+  <si>
+    <t>21.02.202687</t>
+  </si>
+  <si>
+    <t>21.02.202688</t>
+  </si>
+  <si>
+    <t>21.02.202689</t>
+  </si>
+  <si>
+    <t>21.02.202690</t>
+  </si>
+  <si>
+    <t>21.02.202691</t>
+  </si>
+  <si>
+    <t>21.02.202692</t>
+  </si>
+  <si>
+    <t>21.02.202693</t>
+  </si>
+  <si>
+    <t>21.02.202694</t>
+  </si>
+  <si>
+    <t>21.02.202695</t>
+  </si>
+  <si>
+    <t>21.02.202696</t>
+  </si>
+  <si>
+    <t>21.02.20261</t>
+  </si>
+  <si>
+    <t>21.02.20262</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46071.99444444444</v>
+        <v>46072.99444444444</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46072.00486111111</v>
+        <v>46073.00486111111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46072.01527777778</v>
+        <v>46073.01527777778</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46072.02569444444</v>
+        <v>46073.02569444444</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46072.03611111111</v>
+        <v>46073.03611111111</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46072.04652777778</v>
+        <v>46073.04652777778</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46072.05694444444</v>
+        <v>46073.05694444444</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46072.06736111111</v>
+        <v>46073.06736111111</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46072.07777777778</v>
+        <v>46073.07777777778</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46072.08819444444</v>
+        <v>46073.08819444444</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46072.09861111111</v>
+        <v>46073.09861111111</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46072.10902777778</v>
+        <v>46073.10902777778</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46072.11944444444</v>
+        <v>46073.11944444444</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46072.12986111111</v>
+        <v>46073.12986111111</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46072.14027777778</v>
+        <v>46073.14027777778</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46072.15069444444</v>
+        <v>46073.15069444444</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46072.16111111111</v>
+        <v>46073.16111111111</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46072.17152777778</v>
+        <v>46073.17152777778</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46072.18194444444</v>
+        <v>46073.18194444444</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46072.19236111111</v>
+        <v>46073.19236111111</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46072.20277777778</v>
+        <v>46073.20277777778</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46072.21319444444</v>
+        <v>46073.21319444444</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46072.22361111111</v>
+        <v>46073.22361111111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46072.23402777778</v>
+        <v>46073.23402777778</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46072.24444444444</v>
+        <v>46073.24444444444</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46072.25486111111</v>
+        <v>46073.25486111111</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46072.26527777778</v>
+        <v>46073.26527777778</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46072.27569444444</v>
+        <v>46073.27569444444</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46072.28611111111</v>
+        <v>46073.28611111111</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46072.29652777778</v>
+        <v>46073.29652777778</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46072.30694444444</v>
+        <v>46073.30694444444</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46072.31736111111</v>
+        <v>46073.31736111111</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46072.32777777778</v>
+        <v>46073.32777777778</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46072.33819444444</v>
+        <v>46073.33819444444</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46072.34861111111</v>
+        <v>46073.34861111111</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46072.35902777778</v>
+        <v>46073.35902777778</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46072.36944444444</v>
+        <v>46073.36944444444</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46072.37986111111</v>
+        <v>46073.37986111111</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46072.39027777778</v>
+        <v>46073.39027777778</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46072.40069444444</v>
+        <v>46073.40069444444</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46072.41111111111</v>
+        <v>46073.41111111111</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46072.42152777778</v>
+        <v>46073.42152777778</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46072.43194444444</v>
+        <v>46073.43194444444</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46072.44236111111</v>
+        <v>46073.44236111111</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46072.45277777778</v>
+        <v>46073.45277777778</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46072.46319444444</v>
+        <v>46073.46319444444</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46072.47361111111</v>
+        <v>46073.47361111111</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46072.48402777778</v>
+        <v>46073.48402777778</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46072.49444444444</v>
+        <v>46073.49444444444</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46072.50486111111</v>
+        <v>46073.50486111111</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46072.51527777778</v>
+        <v>46073.51527777778</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46072.52569444444</v>
+        <v>46073.52569444444</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46072.53611111111</v>
+        <v>46073.53611111111</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46072.54652777778</v>
+        <v>46073.54652777778</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46072.55694444444</v>
+        <v>46073.55694444444</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46072.56736111111</v>
+        <v>46073.56736111111</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46072.57777777778</v>
+        <v>46073.57777777778</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46072.58819444444</v>
+        <v>46073.58819444444</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46072.59861111111</v>
+        <v>46073.59861111111</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46072.60902777778</v>
+        <v>46073.60902777778</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46072.61944444444</v>
+        <v>46073.61944444444</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46072.62986111111</v>
+        <v>46073.62986111111</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46072.64027777778</v>
+        <v>46073.64027777778</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46072.65069444444</v>
+        <v>46073.65069444444</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46072.66111111111</v>
+        <v>46073.66111111111</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46072.67152777778</v>
+        <v>46073.67152777778</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46072.68194444444</v>
+        <v>46073.68194444444</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46072.69236111111</v>
+        <v>46073.69236111111</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46072.70277777778</v>
+        <v>46073.70277777778</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46072.71319444444</v>
+        <v>46073.71319444444</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46072.72361111111</v>
+        <v>46073.72361111111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46072.73402777778</v>
+        <v>46073.73402777778</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46072.74444444444</v>
+        <v>46073.74444444444</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46072.75486111111</v>
+        <v>46073.75486111111</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46072.76527777778</v>
+        <v>46073.76527777778</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46072.77569444444</v>
+        <v>46073.77569444444</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46072.78611111111</v>
+        <v>46073.78611111111</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46072.79652777778</v>
+        <v>46073.79652777778</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46072.80694444444</v>
+        <v>46073.80694444444</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46072.81736111111</v>
+        <v>46073.81736111111</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46072.82777777778</v>
+        <v>46073.82777777778</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46072.83819444444</v>
+        <v>46073.83819444444</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46072.84861111111</v>
+        <v>46073.84861111111</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46072.85902777778</v>
+        <v>46073.85902777778</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46072.86944444444</v>
+        <v>46073.86944444444</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46072.87986111111</v>
+        <v>46073.87986111111</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46072.89027777778</v>
+        <v>46073.89027777778</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46072.90069444444</v>
+        <v>46073.90069444444</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46072.91111111111</v>
+        <v>46073.91111111111</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46072.92152777778</v>
+        <v>46073.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46072.93194444444</v>
+        <v>46073.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46072.94236111111</v>
+        <v>46073.94236111111</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46072.95277777778</v>
+        <v>46073.95277777778</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46072.96319444444</v>
+        <v>46073.96319444444</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46072.97361111111</v>
+        <v>46073.97361111111</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46072.98402777778</v>
+        <v>46073.98402777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46072.99444444444</v>
+        <v>46073.99444444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46072.99444444444</v>
+        <v>46073.99444444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46073.00486111111</v>
+        <v>46074.00486111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46073.01527777778</v>
+        <v>46074.01527777778</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46073.02569444444</v>
+        <v>46074.02569444444</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46073.03611111111</v>
+        <v>46074.03611111111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46073.04652777778</v>
+        <v>46074.04652777778</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46073.05694444444</v>
+        <v>46074.05694444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46073.06736111111</v>
+        <v>46074.06736111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46073.07777777778</v>
+        <v>46074.07777777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46073.08819444444</v>
+        <v>46074.08819444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46073.09861111111</v>
+        <v>46074.09861111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46073.10902777778</v>
+        <v>46074.10902777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46073.11944444444</v>
+        <v>46074.11944444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46073.12986111111</v>
+        <v>46074.12986111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46073.14027777778</v>
+        <v>46074.14027777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46073.15069444444</v>
+        <v>46074.15069444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46073.16111111111</v>
+        <v>46074.16111111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46073.17152777778</v>
+        <v>46074.17152777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46073.18194444444</v>
+        <v>46074.18194444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46073.19236111111</v>
+        <v>46074.19236111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46073.20277777778</v>
+        <v>46074.20277777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46073.21319444444</v>
+        <v>46074.21319444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46073.22361111111</v>
+        <v>46074.22361111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46073.23402777778</v>
+        <v>46074.23402777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46073.24444444444</v>
+        <v>46074.24444444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46073.25486111111</v>
+        <v>46074.25486111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46073.26527777778</v>
+        <v>46074.26527777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46073.27569444444</v>
+        <v>46074.27569444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46073.28611111111</v>
+        <v>46074.28611111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46073.29652777778</v>
+        <v>46074.29652777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46073.30694444444</v>
+        <v>46074.30694444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46073.31736111111</v>
+        <v>46074.31736111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46073.32777777778</v>
+        <v>46074.32777777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46073.33819444444</v>
+        <v>46074.33819444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46073.34861111111</v>
+        <v>46074.34861111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46073.35902777778</v>
+        <v>46074.35902777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46073.36944444444</v>
+        <v>46074.36944444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46073.37986111111</v>
+        <v>46074.37986111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46073.39027777778</v>
+        <v>46074.39027777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46073.40069444444</v>
+        <v>46074.40069444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46073.41111111111</v>
+        <v>46074.41111111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46073.42152777778</v>
+        <v>46074.42152777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46073.43194444444</v>
+        <v>46074.43194444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46073.44236111111</v>
+        <v>46074.44236111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46073.45277777778</v>
+        <v>46074.45277777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46073.46319444444</v>
+        <v>46074.46319444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46073.47361111111</v>
+        <v>46074.47361111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46073.48402777778</v>
+        <v>46074.48402777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46073.49444444444</v>
+        <v>46074.49444444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46073.50486111111</v>
+        <v>46074.50486111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46073.51527777778</v>
+        <v>46074.51527777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46073.52569444444</v>
+        <v>46074.52569444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46073.53611111111</v>
+        <v>46074.53611111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46073.54652777778</v>
+        <v>46074.54652777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46073.55694444444</v>
+        <v>46074.55694444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46073.56736111111</v>
+        <v>46074.56736111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46073.57777777778</v>
+        <v>46074.57777777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46073.58819444444</v>
+        <v>46074.58819444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46073.59861111111</v>
+        <v>46074.59861111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46073.60902777778</v>
+        <v>46074.60902777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46073.61944444444</v>
+        <v>46074.61944444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46073.62986111111</v>
+        <v>46074.62986111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46073.64027777778</v>
+        <v>46074.64027777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46073.65069444444</v>
+        <v>46074.65069444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46073.66111111111</v>
+        <v>46074.66111111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46073.67152777778</v>
+        <v>46074.67152777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46073.68194444444</v>
+        <v>46074.68194444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46073.69236111111</v>
+        <v>46074.69236111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46073.70277777778</v>
+        <v>46074.70277777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46073.71319444444</v>
+        <v>46074.71319444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46073.72361111111</v>
+        <v>46074.72361111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46073.73402777778</v>
+        <v>46074.73402777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46073.74444444444</v>
+        <v>46074.74444444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46073.75486111111</v>
+        <v>46074.75486111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46073.76527777778</v>
+        <v>46074.76527777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46073.77569444444</v>
+        <v>46074.77569444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46073.78611111111</v>
+        <v>46074.78611111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46073.79652777778</v>
+        <v>46074.79652777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46073.80694444444</v>
+        <v>46074.80694444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46073.81736111111</v>
+        <v>46074.81736111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46073.82777777778</v>
+        <v>46074.82777777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46073.83819444444</v>
+        <v>46074.83819444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46073.84861111111</v>
+        <v>46074.84861111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46073.85902777778</v>
+        <v>46074.85902777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46073.86944444444</v>
+        <v>46074.86944444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46073.87986111111</v>
+        <v>46074.87986111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46073.89027777778</v>
+        <v>46074.89027777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46073.90069444444</v>
+        <v>46074.90069444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46073.91111111111</v>
+        <v>46074.91111111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46073.92152777778</v>
+        <v>46074.92152777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46073.93194444444</v>
+        <v>46074.93194444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46073.94236111111</v>
+        <v>46074.94236111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46073.95277777778</v>
+        <v>46074.95277777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46073.96319444444</v>
+        <v>46074.96319444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46073.97361111111</v>
+        <v>46074.97361111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46073.98402777778</v>
+        <v>46074.98402777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46073.99444444444</v>
+        <v>46074.99444444444</v>
       </c>
       <c r="B195">
         <v>0</v>

--- a/data_fetching/Entsoe/Unintended_Deviation.xlsx
+++ b/data_fetching/Entsoe/Unintended_Deviation.xlsx
@@ -31,583 +31,583 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>19.02.20261</t>
-  </si>
-  <si>
-    <t>20.02.20262</t>
-  </si>
-  <si>
-    <t>20.02.20263</t>
-  </si>
-  <si>
-    <t>20.02.20264</t>
-  </si>
-  <si>
-    <t>20.02.20265</t>
-  </si>
-  <si>
-    <t>20.02.20266</t>
-  </si>
-  <si>
-    <t>20.02.20267</t>
-  </si>
-  <si>
-    <t>20.02.20268</t>
-  </si>
-  <si>
-    <t>20.02.20269</t>
-  </si>
-  <si>
-    <t>20.02.202610</t>
-  </si>
-  <si>
-    <t>20.02.202611</t>
-  </si>
-  <si>
-    <t>20.02.202612</t>
-  </si>
-  <si>
-    <t>20.02.202613</t>
-  </si>
-  <si>
-    <t>20.02.202614</t>
-  </si>
-  <si>
-    <t>20.02.202615</t>
-  </si>
-  <si>
-    <t>20.02.202616</t>
-  </si>
-  <si>
-    <t>20.02.202617</t>
-  </si>
-  <si>
-    <t>20.02.202618</t>
-  </si>
-  <si>
-    <t>20.02.202619</t>
-  </si>
-  <si>
-    <t>20.02.202620</t>
-  </si>
-  <si>
-    <t>20.02.202621</t>
-  </si>
-  <si>
-    <t>20.02.202622</t>
-  </si>
-  <si>
-    <t>20.02.202623</t>
-  </si>
-  <si>
-    <t>20.02.202624</t>
-  </si>
-  <si>
-    <t>20.02.202625</t>
-  </si>
-  <si>
-    <t>20.02.202626</t>
-  </si>
-  <si>
-    <t>20.02.202627</t>
-  </si>
-  <si>
-    <t>20.02.202628</t>
-  </si>
-  <si>
-    <t>20.02.202629</t>
-  </si>
-  <si>
-    <t>20.02.202630</t>
-  </si>
-  <si>
-    <t>20.02.202631</t>
-  </si>
-  <si>
-    <t>20.02.202632</t>
-  </si>
-  <si>
-    <t>20.02.202633</t>
-  </si>
-  <si>
-    <t>20.02.202634</t>
-  </si>
-  <si>
-    <t>20.02.202635</t>
-  </si>
-  <si>
-    <t>20.02.202636</t>
-  </si>
-  <si>
-    <t>20.02.202637</t>
-  </si>
-  <si>
-    <t>20.02.202638</t>
-  </si>
-  <si>
-    <t>20.02.202639</t>
-  </si>
-  <si>
-    <t>20.02.202640</t>
-  </si>
-  <si>
-    <t>20.02.202641</t>
-  </si>
-  <si>
-    <t>20.02.202642</t>
-  </si>
-  <si>
-    <t>20.02.202643</t>
-  </si>
-  <si>
-    <t>20.02.202644</t>
-  </si>
-  <si>
-    <t>20.02.202645</t>
-  </si>
-  <si>
-    <t>20.02.202646</t>
-  </si>
-  <si>
-    <t>20.02.202647</t>
-  </si>
-  <si>
-    <t>20.02.202648</t>
-  </si>
-  <si>
-    <t>20.02.202649</t>
-  </si>
-  <si>
-    <t>20.02.202650</t>
-  </si>
-  <si>
-    <t>20.02.202651</t>
-  </si>
-  <si>
-    <t>20.02.202652</t>
-  </si>
-  <si>
-    <t>20.02.202653</t>
-  </si>
-  <si>
-    <t>20.02.202654</t>
-  </si>
-  <si>
-    <t>20.02.202655</t>
-  </si>
-  <si>
-    <t>20.02.202656</t>
-  </si>
-  <si>
-    <t>20.02.202657</t>
-  </si>
-  <si>
-    <t>20.02.202658</t>
-  </si>
-  <si>
-    <t>20.02.202659</t>
-  </si>
-  <si>
-    <t>20.02.202660</t>
-  </si>
-  <si>
-    <t>20.02.202661</t>
-  </si>
-  <si>
-    <t>20.02.202662</t>
-  </si>
-  <si>
-    <t>20.02.202663</t>
-  </si>
-  <si>
-    <t>20.02.202664</t>
-  </si>
-  <si>
-    <t>20.02.202665</t>
-  </si>
-  <si>
-    <t>20.02.202666</t>
-  </si>
-  <si>
-    <t>20.02.202667</t>
-  </si>
-  <si>
-    <t>20.02.202668</t>
-  </si>
-  <si>
-    <t>20.02.202669</t>
-  </si>
-  <si>
-    <t>20.02.202670</t>
-  </si>
-  <si>
-    <t>20.02.202671</t>
-  </si>
-  <si>
-    <t>20.02.202672</t>
-  </si>
-  <si>
-    <t>20.02.202673</t>
-  </si>
-  <si>
-    <t>20.02.202674</t>
-  </si>
-  <si>
-    <t>20.02.202675</t>
-  </si>
-  <si>
-    <t>20.02.202676</t>
-  </si>
-  <si>
-    <t>20.02.202677</t>
-  </si>
-  <si>
-    <t>20.02.202678</t>
-  </si>
-  <si>
-    <t>20.02.202679</t>
-  </si>
-  <si>
-    <t>20.02.202680</t>
-  </si>
-  <si>
-    <t>20.02.202681</t>
-  </si>
-  <si>
-    <t>20.02.202682</t>
-  </si>
-  <si>
-    <t>20.02.202683</t>
-  </si>
-  <si>
-    <t>20.02.202684</t>
-  </si>
-  <si>
-    <t>20.02.202685</t>
-  </si>
-  <si>
-    <t>20.02.202686</t>
-  </si>
-  <si>
-    <t>20.02.202687</t>
-  </si>
-  <si>
-    <t>20.02.202688</t>
-  </si>
-  <si>
-    <t>20.02.202689</t>
-  </si>
-  <si>
-    <t>20.02.202690</t>
-  </si>
-  <si>
-    <t>20.02.202691</t>
-  </si>
-  <si>
-    <t>20.02.202692</t>
-  </si>
-  <si>
-    <t>20.02.202693</t>
-  </si>
-  <si>
-    <t>20.02.202694</t>
-  </si>
-  <si>
-    <t>20.02.202695</t>
-  </si>
-  <si>
-    <t>20.02.202696</t>
-  </si>
-  <si>
-    <t>20.02.20261</t>
-  </si>
-  <si>
-    <t>21.02.20263</t>
-  </si>
-  <si>
-    <t>21.02.20264</t>
-  </si>
-  <si>
-    <t>21.02.20265</t>
-  </si>
-  <si>
-    <t>21.02.20266</t>
-  </si>
-  <si>
-    <t>21.02.20267</t>
-  </si>
-  <si>
-    <t>21.02.20268</t>
-  </si>
-  <si>
-    <t>21.02.20269</t>
-  </si>
-  <si>
-    <t>21.02.202610</t>
-  </si>
-  <si>
-    <t>21.02.202611</t>
-  </si>
-  <si>
-    <t>21.02.202612</t>
-  </si>
-  <si>
-    <t>21.02.202613</t>
-  </si>
-  <si>
-    <t>21.02.202614</t>
-  </si>
-  <si>
-    <t>21.02.202615</t>
-  </si>
-  <si>
-    <t>21.02.202616</t>
-  </si>
-  <si>
-    <t>21.02.202617</t>
-  </si>
-  <si>
-    <t>21.02.202618</t>
-  </si>
-  <si>
-    <t>21.02.202619</t>
-  </si>
-  <si>
-    <t>21.02.202620</t>
-  </si>
-  <si>
-    <t>21.02.202621</t>
-  </si>
-  <si>
-    <t>21.02.202622</t>
-  </si>
-  <si>
-    <t>21.02.202623</t>
-  </si>
-  <si>
-    <t>21.02.202624</t>
-  </si>
-  <si>
-    <t>21.02.202625</t>
-  </si>
-  <si>
-    <t>21.02.202626</t>
-  </si>
-  <si>
-    <t>21.02.202627</t>
-  </si>
-  <si>
-    <t>21.02.202628</t>
-  </si>
-  <si>
-    <t>21.02.202629</t>
-  </si>
-  <si>
-    <t>21.02.202630</t>
-  </si>
-  <si>
-    <t>21.02.202631</t>
-  </si>
-  <si>
-    <t>21.02.202632</t>
-  </si>
-  <si>
-    <t>21.02.202633</t>
-  </si>
-  <si>
-    <t>21.02.202634</t>
-  </si>
-  <si>
-    <t>21.02.202635</t>
-  </si>
-  <si>
-    <t>21.02.202636</t>
-  </si>
-  <si>
-    <t>21.02.202637</t>
-  </si>
-  <si>
-    <t>21.02.202638</t>
-  </si>
-  <si>
-    <t>21.02.202639</t>
-  </si>
-  <si>
-    <t>21.02.202640</t>
-  </si>
-  <si>
-    <t>21.02.202641</t>
-  </si>
-  <si>
-    <t>21.02.202642</t>
-  </si>
-  <si>
-    <t>21.02.202643</t>
-  </si>
-  <si>
-    <t>21.02.202644</t>
-  </si>
-  <si>
-    <t>21.02.202645</t>
-  </si>
-  <si>
-    <t>21.02.202646</t>
-  </si>
-  <si>
-    <t>21.02.202647</t>
-  </si>
-  <si>
-    <t>21.02.202648</t>
-  </si>
-  <si>
-    <t>21.02.202649</t>
-  </si>
-  <si>
-    <t>21.02.202650</t>
-  </si>
-  <si>
-    <t>21.02.202651</t>
-  </si>
-  <si>
-    <t>21.02.202652</t>
-  </si>
-  <si>
-    <t>21.02.202653</t>
-  </si>
-  <si>
-    <t>21.02.202654</t>
-  </si>
-  <si>
-    <t>21.02.202655</t>
-  </si>
-  <si>
-    <t>21.02.202656</t>
-  </si>
-  <si>
-    <t>21.02.202657</t>
-  </si>
-  <si>
-    <t>21.02.202658</t>
-  </si>
-  <si>
-    <t>21.02.202659</t>
-  </si>
-  <si>
-    <t>21.02.202660</t>
-  </si>
-  <si>
-    <t>21.02.202661</t>
-  </si>
-  <si>
-    <t>21.02.202662</t>
-  </si>
-  <si>
-    <t>21.02.202663</t>
-  </si>
-  <si>
-    <t>21.02.202664</t>
-  </si>
-  <si>
-    <t>21.02.202665</t>
-  </si>
-  <si>
-    <t>21.02.202666</t>
-  </si>
-  <si>
-    <t>21.02.202667</t>
-  </si>
-  <si>
-    <t>21.02.202668</t>
-  </si>
-  <si>
-    <t>21.02.202669</t>
-  </si>
-  <si>
-    <t>21.02.202670</t>
-  </si>
-  <si>
-    <t>21.02.202671</t>
-  </si>
-  <si>
-    <t>21.02.202672</t>
-  </si>
-  <si>
-    <t>21.02.202673</t>
-  </si>
-  <si>
-    <t>21.02.202674</t>
-  </si>
-  <si>
-    <t>21.02.202675</t>
-  </si>
-  <si>
-    <t>21.02.202676</t>
-  </si>
-  <si>
-    <t>21.02.202677</t>
-  </si>
-  <si>
-    <t>21.02.202678</t>
-  </si>
-  <si>
-    <t>21.02.202679</t>
-  </si>
-  <si>
-    <t>21.02.202680</t>
-  </si>
-  <si>
-    <t>21.02.202681</t>
-  </si>
-  <si>
-    <t>21.02.202682</t>
-  </si>
-  <si>
-    <t>21.02.202683</t>
-  </si>
-  <si>
-    <t>21.02.202684</t>
-  </si>
-  <si>
-    <t>21.02.202685</t>
-  </si>
-  <si>
-    <t>21.02.202686</t>
-  </si>
-  <si>
-    <t>21.02.202687</t>
-  </si>
-  <si>
-    <t>21.02.202688</t>
-  </si>
-  <si>
-    <t>21.02.202689</t>
-  </si>
-  <si>
-    <t>21.02.202690</t>
-  </si>
-  <si>
-    <t>21.02.202691</t>
-  </si>
-  <si>
-    <t>21.02.202692</t>
-  </si>
-  <si>
-    <t>21.02.202693</t>
-  </si>
-  <si>
-    <t>21.02.202694</t>
-  </si>
-  <si>
-    <t>21.02.202695</t>
-  </si>
-  <si>
-    <t>21.02.202696</t>
-  </si>
-  <si>
-    <t>21.02.20261</t>
-  </si>
-  <si>
-    <t>21.02.20262</t>
+    <t>24.02.20261</t>
+  </si>
+  <si>
+    <t>25.02.20262</t>
+  </si>
+  <si>
+    <t>25.02.20263</t>
+  </si>
+  <si>
+    <t>25.02.20264</t>
+  </si>
+  <si>
+    <t>25.02.20265</t>
+  </si>
+  <si>
+    <t>25.02.20266</t>
+  </si>
+  <si>
+    <t>25.02.20267</t>
+  </si>
+  <si>
+    <t>25.02.20268</t>
+  </si>
+  <si>
+    <t>25.02.20269</t>
+  </si>
+  <si>
+    <t>25.02.202610</t>
+  </si>
+  <si>
+    <t>25.02.202611</t>
+  </si>
+  <si>
+    <t>25.02.202612</t>
+  </si>
+  <si>
+    <t>25.02.202613</t>
+  </si>
+  <si>
+    <t>25.02.202614</t>
+  </si>
+  <si>
+    <t>25.02.202615</t>
+  </si>
+  <si>
+    <t>25.02.202616</t>
+  </si>
+  <si>
+    <t>25.02.202617</t>
+  </si>
+  <si>
+    <t>25.02.202618</t>
+  </si>
+  <si>
+    <t>25.02.202619</t>
+  </si>
+  <si>
+    <t>25.02.202620</t>
+  </si>
+  <si>
+    <t>25.02.202621</t>
+  </si>
+  <si>
+    <t>25.02.202622</t>
+  </si>
+  <si>
+    <t>25.02.202623</t>
+  </si>
+  <si>
+    <t>25.02.202624</t>
+  </si>
+  <si>
+    <t>25.02.202625</t>
+  </si>
+  <si>
+    <t>25.02.202626</t>
+  </si>
+  <si>
+    <t>25.02.202627</t>
+  </si>
+  <si>
+    <t>25.02.202628</t>
+  </si>
+  <si>
+    <t>25.02.202629</t>
+  </si>
+  <si>
+    <t>25.02.202630</t>
+  </si>
+  <si>
+    <t>25.02.202631</t>
+  </si>
+  <si>
+    <t>25.02.202632</t>
+  </si>
+  <si>
+    <t>25.02.202633</t>
+  </si>
+  <si>
+    <t>25.02.202634</t>
+  </si>
+  <si>
+    <t>25.02.202635</t>
+  </si>
+  <si>
+    <t>25.02.202636</t>
+  </si>
+  <si>
+    <t>25.02.202637</t>
+  </si>
+  <si>
+    <t>25.02.202638</t>
+  </si>
+  <si>
+    <t>25.02.202639</t>
+  </si>
+  <si>
+    <t>25.02.202640</t>
+  </si>
+  <si>
+    <t>25.02.202641</t>
+  </si>
+  <si>
+    <t>25.02.202642</t>
+  </si>
+  <si>
+    <t>25.02.202643</t>
+  </si>
+  <si>
+    <t>25.02.202644</t>
+  </si>
+  <si>
+    <t>25.02.202645</t>
+  </si>
+  <si>
+    <t>25.02.202646</t>
+  </si>
+  <si>
+    <t>25.02.202647</t>
+  </si>
+  <si>
+    <t>25.02.202648</t>
+  </si>
+  <si>
+    <t>25.02.202649</t>
+  </si>
+  <si>
+    <t>25.02.202650</t>
+  </si>
+  <si>
+    <t>25.02.202651</t>
+  </si>
+  <si>
+    <t>25.02.202652</t>
+  </si>
+  <si>
+    <t>25.02.202653</t>
+  </si>
+  <si>
+    <t>25.02.202654</t>
+  </si>
+  <si>
+    <t>25.02.202655</t>
+  </si>
+  <si>
+    <t>25.02.202656</t>
+  </si>
+  <si>
+    <t>25.02.202657</t>
+  </si>
+  <si>
+    <t>25.02.202658</t>
+  </si>
+  <si>
+    <t>25.02.202659</t>
+  </si>
+  <si>
+    <t>25.02.202660</t>
+  </si>
+  <si>
+    <t>25.02.202661</t>
+  </si>
+  <si>
+    <t>25.02.202662</t>
+  </si>
+  <si>
+    <t>25.02.202663</t>
+  </si>
+  <si>
+    <t>25.02.202664</t>
+  </si>
+  <si>
+    <t>25.02.202665</t>
+  </si>
+  <si>
+    <t>25.02.202666</t>
+  </si>
+  <si>
+    <t>25.02.202667</t>
+  </si>
+  <si>
+    <t>25.02.202668</t>
+  </si>
+  <si>
+    <t>25.02.202669</t>
+  </si>
+  <si>
+    <t>25.02.202670</t>
+  </si>
+  <si>
+    <t>25.02.202671</t>
+  </si>
+  <si>
+    <t>25.02.202672</t>
+  </si>
+  <si>
+    <t>25.02.202673</t>
+  </si>
+  <si>
+    <t>25.02.202674</t>
+  </si>
+  <si>
+    <t>25.02.202675</t>
+  </si>
+  <si>
+    <t>25.02.202676</t>
+  </si>
+  <si>
+    <t>25.02.202677</t>
+  </si>
+  <si>
+    <t>25.02.202678</t>
+  </si>
+  <si>
+    <t>25.02.202679</t>
+  </si>
+  <si>
+    <t>25.02.202680</t>
+  </si>
+  <si>
+    <t>25.02.202681</t>
+  </si>
+  <si>
+    <t>25.02.202682</t>
+  </si>
+  <si>
+    <t>25.02.202683</t>
+  </si>
+  <si>
+    <t>25.02.202684</t>
+  </si>
+  <si>
+    <t>25.02.202685</t>
+  </si>
+  <si>
+    <t>25.02.202686</t>
+  </si>
+  <si>
+    <t>25.02.202687</t>
+  </si>
+  <si>
+    <t>25.02.202688</t>
+  </si>
+  <si>
+    <t>25.02.202689</t>
+  </si>
+  <si>
+    <t>25.02.202690</t>
+  </si>
+  <si>
+    <t>25.02.202691</t>
+  </si>
+  <si>
+    <t>25.02.202692</t>
+  </si>
+  <si>
+    <t>25.02.202693</t>
+  </si>
+  <si>
+    <t>25.02.202694</t>
+  </si>
+  <si>
+    <t>25.02.202695</t>
+  </si>
+  <si>
+    <t>25.02.202696</t>
+  </si>
+  <si>
+    <t>25.02.20261</t>
+  </si>
+  <si>
+    <t>26.02.20263</t>
+  </si>
+  <si>
+    <t>26.02.20264</t>
+  </si>
+  <si>
+    <t>26.02.20265</t>
+  </si>
+  <si>
+    <t>26.02.20266</t>
+  </si>
+  <si>
+    <t>26.02.20267</t>
+  </si>
+  <si>
+    <t>26.02.20268</t>
+  </si>
+  <si>
+    <t>26.02.20269</t>
+  </si>
+  <si>
+    <t>26.02.202610</t>
+  </si>
+  <si>
+    <t>26.02.202611</t>
+  </si>
+  <si>
+    <t>26.02.202612</t>
+  </si>
+  <si>
+    <t>26.02.202613</t>
+  </si>
+  <si>
+    <t>26.02.202614</t>
+  </si>
+  <si>
+    <t>26.02.202615</t>
+  </si>
+  <si>
+    <t>26.02.202616</t>
+  </si>
+  <si>
+    <t>26.02.202617</t>
+  </si>
+  <si>
+    <t>26.02.202618</t>
+  </si>
+  <si>
+    <t>26.02.202619</t>
+  </si>
+  <si>
+    <t>26.02.202620</t>
+  </si>
+  <si>
+    <t>26.02.202621</t>
+  </si>
+  <si>
+    <t>26.02.202622</t>
+  </si>
+  <si>
+    <t>26.02.202623</t>
+  </si>
+  <si>
+    <t>26.02.202624</t>
+  </si>
+  <si>
+    <t>26.02.202625</t>
+  </si>
+  <si>
+    <t>26.02.202626</t>
+  </si>
+  <si>
+    <t>26.02.202627</t>
+  </si>
+  <si>
+    <t>26.02.202628</t>
+  </si>
+  <si>
+    <t>26.02.202629</t>
+  </si>
+  <si>
+    <t>26.02.202630</t>
+  </si>
+  <si>
+    <t>26.02.202631</t>
+  </si>
+  <si>
+    <t>26.02.202632</t>
+  </si>
+  <si>
+    <t>26.02.202633</t>
+  </si>
+  <si>
+    <t>26.02.202634</t>
+  </si>
+  <si>
+    <t>26.02.202635</t>
+  </si>
+  <si>
+    <t>26.02.202636</t>
+  </si>
+  <si>
+    <t>26.02.202637</t>
+  </si>
+  <si>
+    <t>26.02.202638</t>
+  </si>
+  <si>
+    <t>26.02.202639</t>
+  </si>
+  <si>
+    <t>26.02.202640</t>
+  </si>
+  <si>
+    <t>26.02.202641</t>
+  </si>
+  <si>
+    <t>26.02.202642</t>
+  </si>
+  <si>
+    <t>26.02.202643</t>
+  </si>
+  <si>
+    <t>26.02.202644</t>
+  </si>
+  <si>
+    <t>26.02.202645</t>
+  </si>
+  <si>
+    <t>26.02.202646</t>
+  </si>
+  <si>
+    <t>26.02.202647</t>
+  </si>
+  <si>
+    <t>26.02.202648</t>
+  </si>
+  <si>
+    <t>26.02.202649</t>
+  </si>
+  <si>
+    <t>26.02.202650</t>
+  </si>
+  <si>
+    <t>26.02.202651</t>
+  </si>
+  <si>
+    <t>26.02.202652</t>
+  </si>
+  <si>
+    <t>26.02.202653</t>
+  </si>
+  <si>
+    <t>26.02.202654</t>
+  </si>
+  <si>
+    <t>26.02.202655</t>
+  </si>
+  <si>
+    <t>26.02.202656</t>
+  </si>
+  <si>
+    <t>26.02.202657</t>
+  </si>
+  <si>
+    <t>26.02.202658</t>
+  </si>
+  <si>
+    <t>26.02.202659</t>
+  </si>
+  <si>
+    <t>26.02.202660</t>
+  </si>
+  <si>
+    <t>26.02.202661</t>
+  </si>
+  <si>
+    <t>26.02.202662</t>
+  </si>
+  <si>
+    <t>26.02.202663</t>
+  </si>
+  <si>
+    <t>26.02.202664</t>
+  </si>
+  <si>
+    <t>26.02.202665</t>
+  </si>
+  <si>
+    <t>26.02.202666</t>
+  </si>
+  <si>
+    <t>26.02.202667</t>
+  </si>
+  <si>
+    <t>26.02.202668</t>
+  </si>
+  <si>
+    <t>26.02.202669</t>
+  </si>
+  <si>
+    <t>26.02.202670</t>
+  </si>
+  <si>
+    <t>26.02.202671</t>
+  </si>
+  <si>
+    <t>26.02.202672</t>
+  </si>
+  <si>
+    <t>26.02.202673</t>
+  </si>
+  <si>
+    <t>26.02.202674</t>
+  </si>
+  <si>
+    <t>26.02.202675</t>
+  </si>
+  <si>
+    <t>26.02.202676</t>
+  </si>
+  <si>
+    <t>26.02.202677</t>
+  </si>
+  <si>
+    <t>26.02.202678</t>
+  </si>
+  <si>
+    <t>26.02.202679</t>
+  </si>
+  <si>
+    <t>26.02.202680</t>
+  </si>
+  <si>
+    <t>26.02.202681</t>
+  </si>
+  <si>
+    <t>26.02.202682</t>
+  </si>
+  <si>
+    <t>26.02.202683</t>
+  </si>
+  <si>
+    <t>26.02.202684</t>
+  </si>
+  <si>
+    <t>26.02.202685</t>
+  </si>
+  <si>
+    <t>26.02.202686</t>
+  </si>
+  <si>
+    <t>26.02.202687</t>
+  </si>
+  <si>
+    <t>26.02.202688</t>
+  </si>
+  <si>
+    <t>26.02.202689</t>
+  </si>
+  <si>
+    <t>26.02.202690</t>
+  </si>
+  <si>
+    <t>26.02.202691</t>
+  </si>
+  <si>
+    <t>26.02.202692</t>
+  </si>
+  <si>
+    <t>26.02.202693</t>
+  </si>
+  <si>
+    <t>26.02.202694</t>
+  </si>
+  <si>
+    <t>26.02.202695</t>
+  </si>
+  <si>
+    <t>26.02.202696</t>
+  </si>
+  <si>
+    <t>26.02.20261</t>
+  </si>
+  <si>
+    <t>26.02.20262</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46072.99444444444</v>
+        <v>46077.99444444444</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46073.00486111111</v>
+        <v>46078.00486111111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46073.01527777778</v>
+        <v>46078.01527777778</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46073.02569444444</v>
+        <v>46078.02569444444</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46073.03611111111</v>
+        <v>46078.03611111111</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46073.04652777778</v>
+        <v>46078.04652777778</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46073.05694444444</v>
+        <v>46078.05694444444</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46073.06736111111</v>
+        <v>46078.06736111111</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46073.07777777778</v>
+        <v>46078.07777777778</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46073.08819444444</v>
+        <v>46078.08819444444</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46073.09861111111</v>
+        <v>46078.09861111111</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46073.10902777778</v>
+        <v>46078.10902777778</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46073.11944444444</v>
+        <v>46078.11944444444</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46073.12986111111</v>
+        <v>46078.12986111111</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46073.14027777778</v>
+        <v>46078.14027777778</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46073.15069444444</v>
+        <v>46078.15069444444</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46073.16111111111</v>
+        <v>46078.16111111111</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46073.17152777778</v>
+        <v>46078.17152777778</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46073.18194444444</v>
+        <v>46078.18194444444</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46073.19236111111</v>
+        <v>46078.19236111111</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46073.20277777778</v>
+        <v>46078.20277777778</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46073.21319444444</v>
+        <v>46078.21319444444</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46073.22361111111</v>
+        <v>46078.22361111111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46073.23402777778</v>
+        <v>46078.23402777778</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46073.24444444444</v>
+        <v>46078.24444444444</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46073.25486111111</v>
+        <v>46078.25486111111</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46073.26527777778</v>
+        <v>46078.26527777778</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46073.27569444444</v>
+        <v>46078.27569444444</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46073.28611111111</v>
+        <v>46078.28611111111</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46073.29652777778</v>
+        <v>46078.29652777778</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46073.30694444444</v>
+        <v>46078.30694444444</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46073.31736111111</v>
+        <v>46078.31736111111</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46073.32777777778</v>
+        <v>46078.32777777778</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46073.33819444444</v>
+        <v>46078.33819444444</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46073.34861111111</v>
+        <v>46078.34861111111</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46073.35902777778</v>
+        <v>46078.35902777778</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46073.36944444444</v>
+        <v>46078.36944444444</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46073.37986111111</v>
+        <v>46078.37986111111</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46073.39027777778</v>
+        <v>46078.39027777778</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46073.40069444444</v>
+        <v>46078.40069444444</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46073.41111111111</v>
+        <v>46078.41111111111</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46073.42152777778</v>
+        <v>46078.42152777778</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46073.43194444444</v>
+        <v>46078.43194444444</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46073.44236111111</v>
+        <v>46078.44236111111</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46073.45277777778</v>
+        <v>46078.45277777778</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46073.46319444444</v>
+        <v>46078.46319444444</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46073.47361111111</v>
+        <v>46078.47361111111</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46073.48402777778</v>
+        <v>46078.48402777778</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46073.49444444444</v>
+        <v>46078.49444444444</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46073.50486111111</v>
+        <v>46078.50486111111</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46073.51527777778</v>
+        <v>46078.51527777778</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46073.52569444444</v>
+        <v>46078.52569444444</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46073.53611111111</v>
+        <v>46078.53611111111</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46073.54652777778</v>
+        <v>46078.54652777778</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46073.55694444444</v>
+        <v>46078.55694444444</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46073.56736111111</v>
+        <v>46078.56736111111</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46073.57777777778</v>
+        <v>46078.57777777778</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46073.58819444444</v>
+        <v>46078.58819444444</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46073.59861111111</v>
+        <v>46078.59861111111</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46073.60902777778</v>
+        <v>46078.60902777778</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46073.61944444444</v>
+        <v>46078.61944444444</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46073.62986111111</v>
+        <v>46078.62986111111</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46073.64027777778</v>
+        <v>46078.64027777778</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46073.65069444444</v>
+        <v>46078.65069444444</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46073.66111111111</v>
+        <v>46078.66111111111</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46073.67152777778</v>
+        <v>46078.67152777778</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46073.68194444444</v>
+        <v>46078.68194444444</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46073.69236111111</v>
+        <v>46078.69236111111</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46073.70277777778</v>
+        <v>46078.70277777778</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46073.71319444444</v>
+        <v>46078.71319444444</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46073.72361111111</v>
+        <v>46078.72361111111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46073.73402777778</v>
+        <v>46078.73402777778</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46073.74444444444</v>
+        <v>46078.74444444444</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46073.75486111111</v>
+        <v>46078.75486111111</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46073.76527777778</v>
+        <v>46078.76527777778</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46073.77569444444</v>
+        <v>46078.77569444444</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46073.78611111111</v>
+        <v>46078.78611111111</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46073.79652777778</v>
+        <v>46078.79652777778</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46073.80694444444</v>
+        <v>46078.80694444444</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46073.81736111111</v>
+        <v>46078.81736111111</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46073.82777777778</v>
+        <v>46078.82777777778</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46073.83819444444</v>
+        <v>46078.83819444444</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46073.84861111111</v>
+        <v>46078.84861111111</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46073.85902777778</v>
+        <v>46078.85902777778</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46073.86944444444</v>
+        <v>46078.86944444444</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46073.87986111111</v>
+        <v>46078.87986111111</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46073.89027777778</v>
+        <v>46078.89027777778</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46073.90069444444</v>
+        <v>46078.90069444444</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46073.91111111111</v>
+        <v>46078.91111111111</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46073.92152777778</v>
+        <v>46078.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46073.93194444444</v>
+        <v>46078.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46073.94236111111</v>
+        <v>46078.94236111111</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46073.95277777778</v>
+        <v>46078.95277777778</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46073.96319444444</v>
+        <v>46078.96319444444</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46073.97361111111</v>
+        <v>46078.97361111111</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46073.98402777778</v>
+        <v>46078.98402777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46073.99444444444</v>
+        <v>46078.99444444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46073.99444444444</v>
+        <v>46078.99444444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46074.00486111111</v>
+        <v>46079.00486111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46074.01527777778</v>
+        <v>46079.01527777778</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46074.02569444444</v>
+        <v>46079.02569444444</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46074.03611111111</v>
+        <v>46079.03611111111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104"